--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8157486319541931</v>
+        <v>0.8153254985809326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8053670525550842</v>
+        <v>0.804110586643219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01038157939910889</v>
+        <v>0.01121491193771362</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8424561619758606</v>
+        <v>0.8420340418815613</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2513762414455414</v>
+        <v>-0.2521097660064697</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09383237361908</v>
+        <v>1.094143867492676</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9187297224998474</v>
+        <v>0.9183105826377869</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.762900173664093</v>
+        <v>-0.7633805871009827</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68162989616394</v>
+        <v>1.68169116973877</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4942169487476349</v>
+        <v>0.4937812685966492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0997614860534668</v>
+        <v>0.09885421395301819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3944554626941681</v>
+        <v>0.394927054643631</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7193635106086731</v>
+        <v>0.7189366221427917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02824178710579872</v>
+        <v>0.0273699052631855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6911216974258423</v>
+        <v>0.6915667057037354</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08367714285850525</v>
+        <v>0.08322540670633316</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1360039263963699</v>
+        <v>-0.1367945373058319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2196810692548752</v>
+        <v>0.2200199365615845</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6745920777320862</v>
+        <v>0.6741634607315063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4644503891468048</v>
+        <v>0.4633626639842987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2101416885852814</v>
+        <v>0.2108007967472076</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.043569803237915</v>
+        <v>1.043155670166016</v>
       </c>
       <c r="C9" t="n">
-        <v>1.184631586074829</v>
+        <v>1.183187484741211</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1410617828369141</v>
+        <v>-0.1400318145751953</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.416825890541077</v>
+        <v>1.416426301002502</v>
       </c>
       <c r="C10" t="n">
-        <v>1.149300456047058</v>
+        <v>1.147873878479004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2675254344940186</v>
+        <v>0.2685524225234985</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9771207571029663</v>
+        <v>0.976703941822052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9870255589485168</v>
+        <v>0.9856792688369751</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.009904801845550537</v>
+        <v>-0.008975327014923096</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.059789061546326</v>
+        <v>1.059375405311584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8249559998512268</v>
+        <v>0.823689877986908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2348330616950989</v>
+        <v>0.2356855273246765</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7413209676742554</v>
+        <v>0.7408949732780457</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3322821259498596</v>
+        <v>0.3312597870826721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4090388417243958</v>
+        <v>0.4096351861953735</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2482429593801498</v>
+        <v>0.2477976679801941</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03992854058742523</v>
+        <v>-0.04076668992638588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2881714999675751</v>
+        <v>0.2885643541812897</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5134141445159912</v>
+        <v>0.5129792094230652</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3806749582290649</v>
+        <v>-0.3813444674015045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8940891027450562</v>
+        <v>0.8943237066268921</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.186824679374695</v>
+        <v>1.186416149139404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.258700430393219</v>
+        <v>0.2577145099639893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9281242489814758</v>
+        <v>0.928701639175415</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.025632739067078</v>
+        <v>1.025217771530151</v>
       </c>
       <c r="C17" t="n">
-        <v>1.073547720909119</v>
+        <v>1.072158455848694</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04791498184204102</v>
+        <v>-0.04694068431854248</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.105782151222229</v>
+        <v>1.105370283126831</v>
       </c>
       <c r="C18" t="n">
-        <v>1.873687982559204</v>
+        <v>1.871902823448181</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7679058313369751</v>
+        <v>-0.7665325403213501</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.037068367004395</v>
+        <v>1.036653995513916</v>
       </c>
       <c r="C19" t="n">
-        <v>1.198576807975769</v>
+        <v>1.197125792503357</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1615084409713745</v>
+        <v>-0.1604717969894409</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4177137911319733</v>
+        <v>0.4172751009464264</v>
       </c>
       <c r="C20" t="n">
-        <v>2.025837898254395</v>
+        <v>2.023977518081665</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.608124136924744</v>
+        <v>-1.606702446937561</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7261221408843994</v>
+        <v>0.7256955504417419</v>
       </c>
       <c r="C21" t="n">
-        <v>1.399245619773865</v>
+        <v>1.397695422172546</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6731234788894653</v>
+        <v>-0.6719998717308044</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.714280903339386</v>
+        <v>0.7138538360595703</v>
       </c>
       <c r="C22" t="n">
-        <v>1.517223119735718</v>
+        <v>1.51561450958252</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8029422163963318</v>
+        <v>-0.8017606735229492</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40024134516716</v>
+        <v>0.3998019695281982</v>
       </c>
       <c r="C23" t="n">
-        <v>1.342292785644531</v>
+        <v>1.340770721435547</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9420514106750488</v>
+        <v>-0.9409687519073486</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6791500449180603</v>
+        <v>0.67872154712677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8604964017868042</v>
+        <v>0.8592126369476318</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1813463568687439</v>
+        <v>-0.1804910898208618</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.107485413551331</v>
+        <v>1.107073664665222</v>
       </c>
       <c r="C25" t="n">
-        <v>1.02374529838562</v>
+        <v>1.022380709648132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08374011516571045</v>
+        <v>0.08469295501708984</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8989514708518982</v>
+        <v>0.8985315561294556</v>
       </c>
       <c r="C26" t="n">
-        <v>1.548125624656677</v>
+        <v>1.546501755714417</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6491741538047791</v>
+        <v>-0.6479701995849609</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.147461295127869</v>
+        <v>1.147051215171814</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7515071034431458</v>
+        <v>0.7502773404121399</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3959541916847229</v>
+        <v>0.3967738747596741</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.179302215576172</v>
+        <v>1.178893327713013</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0026695728302</v>
+        <v>2.000820636749268</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8233673572540283</v>
+        <v>-0.8219273090362549</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9147892594337463</v>
+        <v>0.9143700003623962</v>
       </c>
       <c r="C29" t="n">
-        <v>1.854952096939087</v>
+        <v>1.853176355361938</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9401628375053406</v>
+        <v>-0.9388063549995422</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4959070086479187</v>
+        <v>0.4954713881015778</v>
       </c>
       <c r="C30" t="n">
-        <v>1.626611948013306</v>
+        <v>1.624949097633362</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.130704879760742</v>
+        <v>-1.129477739334106</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7618224620819092</v>
+        <v>0.7613972425460815</v>
       </c>
       <c r="C31" t="n">
-        <v>1.246939182281494</v>
+        <v>1.245464324951172</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.485116720199585</v>
+        <v>-0.4840670824050903</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8606058359146118</v>
+        <v>0.8601844906806946</v>
       </c>
       <c r="C32" t="n">
-        <v>1.408296585083008</v>
+        <v>1.406741857528687</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.547690749168396</v>
+        <v>-0.5465573668479919</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7033091187477112</v>
+        <v>0.7028816342353821</v>
       </c>
       <c r="C33" t="n">
-        <v>1.342500686645508</v>
+        <v>1.340978503227234</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6391915678977966</v>
+        <v>-0.6380968689918518</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.008234024047852</v>
+        <v>2.00785756111145</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5423636436462402</v>
+        <v>0.5412373542785645</v>
       </c>
       <c r="D34" t="n">
-        <v>1.465870380401611</v>
+        <v>1.466620206832886</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.466270804405212</v>
+        <v>1.465873241424561</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.104226641356945</v>
+        <v>-0.1050329729914665</v>
       </c>
       <c r="D35" t="n">
-        <v>1.570497393608093</v>
+        <v>1.570906162261963</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.21330988407135</v>
+        <v>1.212902307510376</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5332337617874146</v>
+        <v>0.5321120023727417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6800761222839355</v>
+        <v>0.6807903051376343</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.496186137199402</v>
+        <v>1.495789647102356</v>
       </c>
       <c r="C37" t="n">
-        <v>2.051144361495972</v>
+        <v>2.049271583557129</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5549582242965698</v>
+        <v>-0.5534819364547729</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.333238959312439</v>
+        <v>1.332836151123047</v>
       </c>
       <c r="C38" t="n">
-        <v>2.173214197158813</v>
+        <v>2.171280860900879</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8399752378463745</v>
+        <v>-0.838444709777832</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.97156548500061</v>
+        <v>1.971187591552734</v>
       </c>
       <c r="C39" t="n">
-        <v>1.659228682518005</v>
+        <v>1.657549738883972</v>
       </c>
       <c r="D39" t="n">
-        <v>0.312336802482605</v>
+        <v>0.3136378526687622</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.746582984924316</v>
+        <v>1.746196031570435</v>
       </c>
       <c r="C40" t="n">
-        <v>1.122316360473633</v>
+        <v>1.120903134346008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6242666244506836</v>
+        <v>0.6252928972244263</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.823108077049255</v>
+        <v>1.822724342346191</v>
       </c>
       <c r="C41" t="n">
-        <v>1.662723660469055</v>
+        <v>1.661043047904968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1603844165802002</v>
+        <v>0.1616812944412231</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.757489800453186</v>
+        <v>1.757103562355042</v>
       </c>
       <c r="C42" t="n">
-        <v>1.19614565372467</v>
+        <v>1.194695711135864</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5613441467285156</v>
+        <v>0.5624078512191772</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.605004906654358</v>
+        <v>1.604612588882446</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7180454134941101</v>
+        <v>0.7168322205543518</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8869594931602478</v>
+        <v>0.8877803683280945</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.166255474090576</v>
+        <v>1.165845990180969</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4843365848064423</v>
+        <v>0.4832389950752258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6819188594818115</v>
+        <v>0.6826069951057434</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.089403629302979</v>
+        <v>1.088991165161133</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0450228676199913</v>
+        <v>0.04414268210530281</v>
       </c>
       <c r="D45" t="n">
-        <v>1.044380784034729</v>
+        <v>1.044848442077637</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.351433992385864</v>
+        <v>1.35103178024292</v>
       </c>
       <c r="C46" t="n">
-        <v>1.128923416137695</v>
+        <v>1.127506852149963</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2225105762481689</v>
+        <v>0.2235249280929565</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9936479926109314</v>
+        <v>0.9932318329811096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8964636325836182</v>
+        <v>0.8951621651649475</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09718436002731323</v>
+        <v>0.09806966781616211</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6606658697128296</v>
+        <v>0.660236656665802</v>
       </c>
       <c r="C48" t="n">
-        <v>1.016363382339478</v>
+        <v>1.015002608299255</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3556975126266479</v>
+        <v>-0.3547659516334534</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7166248559951782</v>
+        <v>0.7161978483200073</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3800683319568634</v>
+        <v>0.3790223300457001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3365565240383148</v>
+        <v>0.3371755182743073</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.383824110031128</v>
+        <v>1.383423209190369</v>
       </c>
       <c r="C50" t="n">
-        <v>1.397099733352661</v>
+        <v>1.395550608634949</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0132756233215332</v>
+        <v>-0.01212739944458008</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.345119118690491</v>
+        <v>1.344716548919678</v>
       </c>
       <c r="C51" t="n">
-        <v>1.255831837654114</v>
+        <v>1.254352331161499</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08928728103637695</v>
+        <v>0.09036421775817871</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.024343132972717</v>
+        <v>1.023928165435791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6230135560035706</v>
+        <v>0.62184739112854</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4013295769691467</v>
+        <v>0.402080774307251</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.14678156375885</v>
+        <v>1.146371245384216</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14521598815918</v>
+        <v>1.143791317939758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00156557559967041</v>
+        <v>0.002579927444458008</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.180550679564476</v>
+        <v>-0.1810127347707748</v>
       </c>
       <c r="C54" t="n">
-        <v>0.892899215221405</v>
+        <v>0.8915994763374329</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.073449850082397</v>
+        <v>-1.072612166404724</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05340325832366943</v>
+        <v>-0.05386034771800041</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8172273635864258</v>
+        <v>0.8159651756286621</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8706306219100952</v>
+        <v>-0.869825541973114</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1718322187662125</v>
+        <v>0.1713839322328568</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7609361410140991</v>
+        <v>0.759701669216156</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5891039371490479</v>
+        <v>-0.5883177518844604</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.147218465805054</v>
+        <v>1.146808266639709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8553162217140198</v>
+        <v>0.8540350794792175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2919022440910339</v>
+        <v>0.2927731871604919</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.256320476531982</v>
+        <v>1.255914568901062</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6670011281967163</v>
+        <v>0.665813148021698</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5893193483352661</v>
+        <v>0.590101420879364</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.246083378791809</v>
+        <v>1.24567711353302</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7036200761795044</v>
+        <v>0.7024139761924744</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5424633026123047</v>
+        <v>0.5432631373405457</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.066041588783264</v>
+        <v>1.065628290176392</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9427239298820496</v>
+        <v>0.9413995146751404</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1233176589012146</v>
+        <v>0.1242287755012512</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.011318802833557</v>
+        <v>1.010903239250183</v>
       </c>
       <c r="C61" t="n">
-        <v>1.171586751937866</v>
+        <v>1.170149207115173</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1602679491043091</v>
+        <v>-0.1592459678649902</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8724515438079834</v>
+        <v>0.8720306158065796</v>
       </c>
       <c r="C62" t="n">
-        <v>1.487944364547729</v>
+        <v>1.486350178718567</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6154928207397461</v>
+        <v>-0.6143195629119873</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9231839776039124</v>
+        <v>0.9227650761604309</v>
       </c>
       <c r="C63" t="n">
-        <v>2.673737287521362</v>
+        <v>2.67155647277832</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.750553369522095</v>
+        <v>-1.748791456222534</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.161380290985107</v>
+        <v>1.160970687866211</v>
       </c>
       <c r="C64" t="n">
-        <v>2.601870536804199</v>
+        <v>2.599725008010864</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.440490245819092</v>
+        <v>-1.438754320144653</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.359022974967957</v>
+        <v>1.35862123966217</v>
       </c>
       <c r="C65" t="n">
-        <v>1.069110512733459</v>
+        <v>1.067723512649536</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2899124622344971</v>
+        <v>0.2908977270126343</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.531352519989014</v>
+        <v>1.530957460403442</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25517463684082</v>
+        <v>1.253695487976074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2761778831481934</v>
+        <v>0.2772619724273682</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.365762233734131</v>
+        <v>1.365360736846924</v>
       </c>
       <c r="C67" t="n">
-        <v>1.661797046661377</v>
+        <v>1.660116672515869</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2960348129272461</v>
+        <v>-0.2947559356689453</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.605147123336792</v>
+        <v>0.6047157645225525</v>
       </c>
       <c r="C68" t="n">
-        <v>1.718604803085327</v>
+        <v>1.716896533966064</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.113457679748535</v>
+        <v>-1.112180709838867</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9884105920791626</v>
+        <v>0.9879941940307617</v>
       </c>
       <c r="C69" t="n">
-        <v>1.77016019821167</v>
+        <v>1.768426299095154</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7817496061325073</v>
+        <v>-0.7804321050643921</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8886667490005493</v>
+        <v>0.888246476650238</v>
       </c>
       <c r="C70" t="n">
-        <v>2.008151054382324</v>
+        <v>2.006299495697021</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.119484305381775</v>
+        <v>-1.118052959442139</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7950912714004517</v>
+        <v>0.7946673631668091</v>
       </c>
       <c r="C71" t="n">
-        <v>1.780714988708496</v>
+        <v>1.77897584438324</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9856237173080444</v>
+        <v>-0.9843084812164307</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5051197409629822</v>
+        <v>0.5046845078468323</v>
       </c>
       <c r="C72" t="n">
-        <v>1.653472423553467</v>
+        <v>1.651796221733093</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.14835262298584</v>
+        <v>-1.147111654281616</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3534966111183167</v>
+        <v>0.3530554175376892</v>
       </c>
       <c r="C73" t="n">
-        <v>1.254308223724365</v>
+        <v>1.252829670906067</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.9008116126060486</v>
+        <v>-0.8997742533683777</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.441229373216629</v>
+        <v>0.4407916069030762</v>
       </c>
       <c r="C74" t="n">
-        <v>0.578126072883606</v>
+        <v>0.5769820809364319</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1368966996669769</v>
+        <v>-0.1361904740333557</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4933031797409058</v>
+        <v>0.4928674399852753</v>
       </c>
       <c r="C75" t="n">
-        <v>1.929920434951782</v>
+        <v>1.928107619285583</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.436617255210876</v>
+        <v>-1.435240149497986</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8067761063575745</v>
+        <v>0.8063526153564453</v>
       </c>
       <c r="C76" t="n">
-        <v>1.239059925079346</v>
+        <v>1.237588763237</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4322838187217712</v>
+        <v>-0.4312361478805542</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7512332797050476</v>
+        <v>0.7508076429367065</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8394014835357666</v>
+        <v>0.8381282687187195</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08816820383071899</v>
+        <v>-0.08732062578201294</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.077804684638977</v>
+        <v>1.077391743659973</v>
       </c>
       <c r="C78" t="n">
-        <v>1.520516633987427</v>
+        <v>1.518906235694885</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4427119493484497</v>
+        <v>-0.4415144920349121</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8518784642219543</v>
+        <v>0.8514567613601685</v>
       </c>
       <c r="C79" t="n">
-        <v>1.287953972816467</v>
+        <v>1.286458730697632</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4360755085945129</v>
+        <v>-0.4350019693374634</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.929810643196106</v>
+        <v>0.9293919205665588</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5384758114814758</v>
+        <v>0.5373514294624329</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3913348317146301</v>
+        <v>0.392040491104126</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.516364455223083</v>
+        <v>1.515968561172485</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6842316389083862</v>
+        <v>0.683035135269165</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8321328163146973</v>
+        <v>0.8329334259033203</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.293135643005371</v>
+        <v>1.292731165885925</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6645479798316956</v>
+        <v>-0.6650770902633667</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957683563232422</v>
+        <v>1.957808256149292</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.586323857307434</v>
+        <v>1.585930824279785</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.832430362701416</v>
+        <v>-0.8328763842582703</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418754100799561</v>
+        <v>2.4188072681427</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.826642274856567</v>
+        <v>1.826258659362793</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1654634028673172</v>
+        <v>-0.1662394255399704</v>
       </c>
       <c r="D84" t="n">
-        <v>1.992105722427368</v>
+        <v>1.99249804019928</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.839488744735718</v>
+        <v>1.839105606079102</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9739031195640564</v>
+        <v>0.9725632071495056</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8655856251716614</v>
+        <v>0.8665423989295959</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.689190030097961</v>
+        <v>1.688801050186157</v>
       </c>
       <c r="C86" t="n">
-        <v>1.254610657691956</v>
+        <v>1.253131866455078</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4345793724060059</v>
+        <v>0.4356691837310791</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.549277544021606</v>
+        <v>1.548882961273193</v>
       </c>
       <c r="C87" t="n">
-        <v>1.9615558385849</v>
+        <v>1.95972728729248</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4122782945632935</v>
+        <v>-0.4108443260192871</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.36126697063446</v>
+        <v>1.360865116119385</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8942561149597168</v>
+        <v>0.8929556608200073</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4670108556747437</v>
+        <v>0.4679094552993774</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.406617045402527</v>
+        <v>1.406216859817505</v>
       </c>
       <c r="C89" t="n">
-        <v>1.051519513130188</v>
+        <v>1.050141215324402</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3550975322723389</v>
+        <v>0.356075644493103</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.748644590377808</v>
+        <v>1.748257875442505</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8199322819709778</v>
+        <v>0.8186686635017395</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9287123084068298</v>
+        <v>0.9295892119407654</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.894237875938416</v>
+        <v>1.893856883049011</v>
       </c>
       <c r="C91" t="n">
-        <v>1.192164659500122</v>
+        <v>1.190716981887817</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7020732164382935</v>
+        <v>0.7031399011611938</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.565801501274109</v>
+        <v>1.565407633781433</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8806172013282776</v>
+        <v>0.8793235421180725</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6851842999458313</v>
+        <v>0.6860840916633606</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.71149742603302</v>
+        <v>1.711109280586243</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7274070978164673</v>
+        <v>0.7261892557144165</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9840903282165527</v>
+        <v>0.9849200248718262</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.433185219764709</v>
+        <v>1.432786226272583</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2314872592687607</v>
+        <v>0.230514794588089</v>
       </c>
       <c r="D94" t="n">
-        <v>1.201697945594788</v>
+        <v>1.202271461486816</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.085663080215454</v>
+        <v>1.085250496864319</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5351976156234741</v>
+        <v>0.5340749025344849</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55046546459198</v>
+        <v>0.551175594329834</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.671211302280426</v>
+        <v>0.6707825660705566</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7395073771476746</v>
+        <v>0.7382835149765015</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06829607486724854</v>
+        <v>-0.06750094890594482</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6066907048225403</v>
+        <v>0.6062594056129456</v>
       </c>
       <c r="C97" t="n">
-        <v>1.061229705810547</v>
+        <v>1.059846639633179</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4545390009880066</v>
+        <v>-0.4535872340202332</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.006379365921021</v>
+        <v>1.005963683128357</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9860559105873108</v>
+        <v>0.9847099781036377</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02032345533370972</v>
+        <v>0.02125370502471924</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2819929122924805</v>
+        <v>0.2815489172935486</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1195895448327065</v>
+        <v>0.1186724603176117</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1624033749103546</v>
+        <v>0.1628764569759369</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05448120087385178</v>
+        <v>-0.05493833124637604</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3441442549228668</v>
+        <v>-0.3448318839073181</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2896630465984344</v>
+        <v>0.2898935675621033</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2285146117210388</v>
+        <v>-0.2289785444736481</v>
       </c>
       <c r="C101" t="n">
-        <v>0.337566614151001</v>
+        <v>0.3365416824817657</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5660812258720398</v>
+        <v>-0.5655202269554138</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2139014899730682</v>
+        <v>0.2134548425674438</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2659416496753693</v>
+        <v>-0.2666679620742798</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4798431396484375</v>
+        <v>0.4801228046417236</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7536814212799072</v>
+        <v>0.7532559037208557</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4403706192970276</v>
+        <v>-0.4410106241703033</v>
       </c>
       <c r="D103" t="n">
-        <v>1.19405198097229</v>
+        <v>1.194266557693481</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.003941178321838</v>
+        <v>1.003525495529175</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7004808187484741</v>
+        <v>-0.7009921073913574</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704421997070312</v>
+        <v>1.704517602920532</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.070761680603027</v>
+        <v>1.070348501205444</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.03772991523146629</v>
+        <v>-0.03856915235519409</v>
       </c>
       <c r="D105" t="n">
-        <v>1.108491539955139</v>
+        <v>1.108917713165283</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.175421118736267</v>
+        <v>1.175011992454529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6606961488723755</v>
+        <v>0.6595112681388855</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5147249698638916</v>
+        <v>0.5155007243156433</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.08387565612793</v>
+        <v>1.083462953567505</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4844057261943817</v>
+        <v>0.4833081066608429</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5994699001312256</v>
+        <v>0.6001548767089844</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8413973450660706</v>
+        <v>0.8409751653671265</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8763085603713989</v>
+        <v>0.875016987323761</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03491121530532837</v>
+        <v>-0.03404182195663452</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5694983005523682</v>
+        <v>0.5690655708312988</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9780118465423584</v>
+        <v>0.97666996717453</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4085135459899902</v>
+        <v>-0.4076043963432312</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8367839455604553</v>
+        <v>0.8363616466522217</v>
       </c>
       <c r="C110" t="n">
-        <v>1.020952343940735</v>
+        <v>1.019589185714722</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1841683983802795</v>
+        <v>-0.1832275390625</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.195263862609863</v>
+        <v>1.194855690002441</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4868205487728119</v>
+        <v>0.4857217371463776</v>
       </c>
       <c r="D111" t="n">
-        <v>0.708443284034729</v>
+        <v>0.7091339826583862</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.70335578918457</v>
+        <v>1.702967524528503</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8233703970909119</v>
+        <v>0.8221050500869751</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8799853920936584</v>
+        <v>0.8808624744415283</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0469069480896</v>
+        <v>1.0464928150177</v>
       </c>
       <c r="C113" t="n">
-        <v>1.133128523826599</v>
+        <v>1.131709814071655</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08622157573699951</v>
+        <v>-0.08521699905395508</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46081006526947</v>
+        <v>1.46041214466095</v>
       </c>
       <c r="C114" t="n">
-        <v>1.737910509109497</v>
+        <v>1.73619270324707</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2771004438400269</v>
+        <v>-0.2757805585861206</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.999647736549377</v>
+        <v>1.999270915985107</v>
       </c>
       <c r="C115" t="n">
-        <v>1.996923685073853</v>
+        <v>1.995077610015869</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002724051475524902</v>
+        <v>0.004193305969238281</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.313226103782654</v>
+        <v>1.312822341918945</v>
       </c>
       <c r="C116" t="n">
-        <v>2.496057987213135</v>
+        <v>2.493964910507202</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.182831883430481</v>
+        <v>-1.181142568588257</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.699948310852051</v>
+        <v>1.699559807777405</v>
       </c>
       <c r="C117" t="n">
-        <v>2.221216440200806</v>
+        <v>2.219259262084961</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5212681293487549</v>
+        <v>-0.5196994543075562</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.72344970703125</v>
+        <v>1.72306215763092</v>
       </c>
       <c r="C118" t="n">
-        <v>1.650228381156921</v>
+        <v>1.648553967475891</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07322132587432861</v>
+        <v>0.0745081901550293</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.92972993850708</v>
+        <v>1.92935037612915</v>
       </c>
       <c r="C119" t="n">
-        <v>1.721658110618591</v>
+        <v>1.719948410987854</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2080718278884888</v>
+        <v>0.2094019651412964</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.381922721862793</v>
+        <v>1.381521821022034</v>
       </c>
       <c r="C120" t="n">
-        <v>1.704479336738586</v>
+        <v>1.702778100967407</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3225566148757935</v>
+        <v>-0.3212562799453735</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.999586701393127</v>
+        <v>1.999209880828857</v>
       </c>
       <c r="C121" t="n">
-        <v>1.710470676422119</v>
+        <v>1.708766460418701</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2891160249710083</v>
+        <v>0.2904434204101562</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.048751592636108</v>
+        <v>2.048376560211182</v>
       </c>
       <c r="C122" t="n">
-        <v>1.266259551048279</v>
+        <v>1.264775156974792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7824920415878296</v>
+        <v>0.7836014032363892</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.352869510650635</v>
+        <v>2.352506399154663</v>
       </c>
       <c r="C123" t="n">
-        <v>2.167979717254639</v>
+        <v>2.166049242019653</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1848897933959961</v>
+        <v>0.1864571571350098</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.454703807830811</v>
+        <v>2.454344749450684</v>
       </c>
       <c r="C124" t="n">
-        <v>1.837438225746155</v>
+        <v>1.835671186447144</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6172655820846558</v>
+        <v>0.61867356300354</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.422881126403809</v>
+        <v>2.422520637512207</v>
       </c>
       <c r="C125" t="n">
-        <v>1.645096302032471</v>
+        <v>1.643424391746521</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7777848243713379</v>
+        <v>0.779096245765686</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.780312776565552</v>
+        <v>1.779927253723145</v>
       </c>
       <c r="C126" t="n">
-        <v>2.270784854888916</v>
+        <v>2.268803358078003</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4904720783233643</v>
+        <v>-0.4888761043548584</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.788248658180237</v>
+        <v>1.787863492965698</v>
       </c>
       <c r="C127" t="n">
-        <v>2.140406608581543</v>
+        <v>2.138489484786987</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3521579504013062</v>
+        <v>-0.3506259918212891</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.487189054489136</v>
+        <v>1.486791968345642</v>
       </c>
       <c r="C128" t="n">
-        <v>1.965606212615967</v>
+        <v>1.963775634765625</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4784171581268311</v>
+        <v>-0.4769836664199829</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.174776911735535</v>
+        <v>1.174367785453796</v>
       </c>
       <c r="C129" t="n">
-        <v>1.795846223831177</v>
+        <v>1.794099807739258</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6210693120956421</v>
+        <v>-0.6197320222854614</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8118409514427185</v>
+        <v>0.8114176392555237</v>
       </c>
       <c r="C130" t="n">
-        <v>2.962870121002197</v>
+        <v>2.960546255111694</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.151029109954834</v>
+        <v>-2.149128675460815</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3958635926246643</v>
+        <v>0.3954240679740906</v>
       </c>
       <c r="C131" t="n">
-        <v>2.191817283630371</v>
+        <v>2.189874649047852</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.795953750610352</v>
+        <v>-1.794450521469116</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05405192077159882</v>
+        <v>-0.05450903624296188</v>
       </c>
       <c r="C132" t="n">
-        <v>1.847567558288574</v>
+        <v>1.845795512199402</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.901619434356689</v>
+        <v>-1.900304555892944</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09662408381700516</v>
+        <v>0.09617285430431366</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8288165330886841</v>
+        <v>0.8275485038757324</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7321924567222595</v>
+        <v>-0.7313756346702576</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1589028239250183</v>
+        <v>0.158454030752182</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1792410314083099</v>
+        <v>0.1782944351434708</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.02033820748329163</v>
+        <v>-0.01984040439128876</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3837240040302277</v>
+        <v>0.3832839727401733</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3680978715419769</v>
+        <v>0.3670578300952911</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01562613248825073</v>
+        <v>0.0162261426448822</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7337824702262878</v>
+        <v>0.7333561182022095</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2105505764484406</v>
+        <v>0.2095884829759598</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5232318639755249</v>
+        <v>0.5237676501274109</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6045274138450623</v>
+        <v>0.6040960550308228</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5183169841766357</v>
+        <v>0.5172025561332703</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08621042966842651</v>
+        <v>0.08689349889755249</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8460986018180847</v>
+        <v>0.8456766605377197</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9872928261756897</v>
+        <v>0.9859464168548584</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.141194224357605</v>
+        <v>-0.1402697563171387</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30603039264679</v>
+        <v>1.305626511573792</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0514235496521</v>
+        <v>1.050045371055603</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2546068429946899</v>
+        <v>0.2555811405181885</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26284122467041</v>
+        <v>1.262435555458069</v>
       </c>
       <c r="C140" t="n">
-        <v>1.291737794876099</v>
+        <v>1.29024064540863</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02889657020568848</v>
+        <v>-0.02780508995056152</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.493259310722351</v>
+        <v>1.492862582206726</v>
       </c>
       <c r="C141" t="n">
-        <v>1.245804309844971</v>
+        <v>1.244330048561096</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2474550008773804</v>
+        <v>0.2485325336456299</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.406245946884155</v>
+        <v>1.405845999717712</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2040190845727921</v>
+        <v>0.2030602246522903</v>
       </c>
       <c r="D142" t="n">
-        <v>1.202226877212524</v>
+        <v>1.202785730361938</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.766223788261414</v>
+        <v>1.765837788581848</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2922712862491608</v>
+        <v>0.2912687361240387</v>
       </c>
       <c r="D143" t="n">
-        <v>1.473952531814575</v>
+        <v>1.474569082260132</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.606013178825378</v>
+        <v>1.605620980262756</v>
       </c>
       <c r="C144" t="n">
-        <v>1.301214337348938</v>
+        <v>1.299712538719177</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3047988414764404</v>
+        <v>0.3059084415435791</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.713230013847351</v>
+        <v>1.712841987609863</v>
       </c>
       <c r="C145" t="n">
-        <v>1.491574287414551</v>
+        <v>1.489978194236755</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2216557264328003</v>
+        <v>0.2228637933731079</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.154808759689331</v>
+        <v>1.154398918151855</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9155001640319824</v>
+        <v>0.9141892790794373</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2393085956573486</v>
+        <v>0.2402096390724182</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.730318546295166</v>
+        <v>0.7298920750617981</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8637990355491638</v>
+        <v>0.8625136613845825</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1334804892539978</v>
+        <v>-0.1326215863227844</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2906482815742493</v>
+        <v>0.2902046144008636</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2165497094392776</v>
+        <v>-0.2173004597425461</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5071979761123657</v>
+        <v>0.5075050592422485</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6851735711097717</v>
+        <v>0.6847453713417053</v>
       </c>
       <c r="C149" t="n">
-        <v>1.584167242050171</v>
+        <v>1.582525372505188</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8989936709403992</v>
+        <v>-0.8977800011634827</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.04107666015625</v>
+        <v>1.040662407875061</v>
       </c>
       <c r="C150" t="n">
-        <v>2.483567714691162</v>
+        <v>2.481481075286865</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.442491054534912</v>
+        <v>-1.440818667411804</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.330443978309631</v>
+        <v>1.33004105091095</v>
       </c>
       <c r="C151" t="n">
-        <v>1.303394794464111</v>
+        <v>1.301891922950745</v>
       </c>
       <c r="D151" t="n">
-        <v>0.02704918384552002</v>
+        <v>0.02814912796020508</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.364177942276001</v>
+        <v>1.363776206970215</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3051394820213318</v>
+        <v>0.3041305840015411</v>
       </c>
       <c r="D152" t="n">
-        <v>1.059038400650024</v>
+        <v>1.059645652770996</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.111807584762573</v>
+        <v>2.111434936523438</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2007828652858734</v>
+        <v>0.1998255997896194</v>
       </c>
       <c r="D153" t="n">
-        <v>1.911024689674377</v>
+        <v>1.911609292030334</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.998723268508911</v>
+        <v>1.998346328735352</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4710918664932251</v>
+        <v>0.470000833272934</v>
       </c>
       <c r="D154" t="n">
-        <v>1.527631402015686</v>
+        <v>1.528345465660095</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.863809823989868</v>
+        <v>1.863427639007568</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7805167436599731</v>
+        <v>0.7792726159095764</v>
       </c>
       <c r="D155" t="n">
-        <v>1.083293080329895</v>
+        <v>1.084155082702637</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.611204862594604</v>
+        <v>1.610812783241272</v>
       </c>
       <c r="C156" t="n">
-        <v>1.378835916519165</v>
+        <v>1.377295851707458</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2323689460754395</v>
+        <v>0.2335169315338135</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.914463877677917</v>
+        <v>1.91408360004425</v>
       </c>
       <c r="C157" t="n">
-        <v>1.756494164466858</v>
+        <v>1.754767060279846</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1579697132110596</v>
+        <v>0.1593165397644043</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.531226873397827</v>
+        <v>1.530831813812256</v>
       </c>
       <c r="C158" t="n">
-        <v>1.483368873596191</v>
+        <v>1.48177695274353</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04785799980163574</v>
+        <v>0.04905486106872559</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.365930199623108</v>
+        <v>1.365528702735901</v>
       </c>
       <c r="C159" t="n">
-        <v>1.65301525592804</v>
+        <v>1.651339411735535</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2870850563049316</v>
+        <v>-0.2858107089996338</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.675274014472961</v>
+        <v>1.67488431930542</v>
       </c>
       <c r="C160" t="n">
-        <v>1.738869667053223</v>
+        <v>1.737151384353638</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.06359565258026123</v>
+        <v>-0.06226706504821777</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.344229578971863</v>
+        <v>1.343827128410339</v>
       </c>
       <c r="C161" t="n">
-        <v>1.691664457321167</v>
+        <v>1.689969420433044</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3474348783493042</v>
+        <v>-0.3461422920227051</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5819252133369446</v>
+        <v>0.5814929008483887</v>
       </c>
       <c r="C162" t="n">
-        <v>1.812769055366516</v>
+        <v>1.811014175415039</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.230843782424927</v>
+        <v>-1.22952127456665</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3761799931526184</v>
+        <v>0.3757396936416626</v>
       </c>
       <c r="C163" t="n">
-        <v>1.296598196029663</v>
+        <v>1.295098662376404</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9204182028770447</v>
+        <v>-0.9193589687347412</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6741964221000671</v>
+        <v>0.6737677454948425</v>
       </c>
       <c r="C164" t="n">
-        <v>1.456717252731323</v>
+        <v>1.455138564109802</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7825208306312561</v>
+        <v>-0.7813708186149597</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8625534176826477</v>
+        <v>0.8621321320533752</v>
       </c>
       <c r="C165" t="n">
-        <v>1.12408971786499</v>
+        <v>1.122675538063049</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2615363001823425</v>
+        <v>-0.2605434060096741</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.002106904983521</v>
+        <v>1.001691102981567</v>
       </c>
       <c r="C166" t="n">
-        <v>1.256170511245728</v>
+        <v>1.254690885543823</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.254063606262207</v>
+        <v>-0.2529997825622559</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.625242590904236</v>
+        <v>1.624851107597351</v>
       </c>
       <c r="C167" t="n">
-        <v>1.618034482002258</v>
+        <v>1.616375803947449</v>
       </c>
       <c r="D167" t="n">
-        <v>0.007208108901977539</v>
+        <v>0.008475303649902344</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.954369425773621</v>
+        <v>1.953990817070007</v>
       </c>
       <c r="C168" t="n">
-        <v>1.894450783729553</v>
+        <v>1.892655491828918</v>
       </c>
       <c r="D168" t="n">
-        <v>0.05991864204406738</v>
+        <v>0.06133532524108887</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.180642366409302</v>
+        <v>1.180233478546143</v>
       </c>
       <c r="C169" t="n">
-        <v>1.584557414054871</v>
+        <v>1.582915306091309</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.4039150476455688</v>
+        <v>-0.402681827545166</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9863924384117126</v>
+        <v>0.985975980758667</v>
       </c>
       <c r="C170" t="n">
-        <v>1.298277735710144</v>
+        <v>1.296777367591858</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3118852972984314</v>
+        <v>-0.3108013868331909</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9093964695930481</v>
+        <v>0.9089769721031189</v>
       </c>
       <c r="C171" t="n">
-        <v>1.049979448318481</v>
+        <v>1.048601984977722</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1405829787254333</v>
+        <v>-0.1396250128746033</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.025670289993286</v>
+        <v>1.025255441665649</v>
       </c>
       <c r="C172" t="n">
-        <v>1.893984198570251</v>
+        <v>1.892189025878906</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8683139085769653</v>
+        <v>-0.8669335842132568</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.22606372833252</v>
+        <v>1.225656628608704</v>
       </c>
       <c r="C173" t="n">
-        <v>1.686036467552185</v>
+        <v>1.684344172477722</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4599727392196655</v>
+        <v>-0.4586875438690186</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.658025503158569</v>
+        <v>1.65763521194458</v>
       </c>
       <c r="C174" t="n">
-        <v>1.884316444396973</v>
+        <v>1.882526159286499</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2262909412384033</v>
+        <v>-0.2248909473419189</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.47225284576416</v>
+        <v>1.471855163574219</v>
       </c>
       <c r="C175" t="n">
-        <v>1.924707055091858</v>
+        <v>1.92289662361145</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4524542093276978</v>
+        <v>-0.4510414600372314</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.094843149185181</v>
+        <v>1.094430923461914</v>
       </c>
       <c r="C176" t="n">
-        <v>1.959807753562927</v>
+        <v>1.957979917526245</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8649646043777466</v>
+        <v>-0.8635489940643311</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.106620907783508</v>
+        <v>1.1062091588974</v>
       </c>
       <c r="C177" t="n">
-        <v>2.086359977722168</v>
+        <v>2.084469556808472</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9797390699386597</v>
+        <v>-0.9782603979110718</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.336944699287415</v>
+        <v>1.336541771888733</v>
       </c>
       <c r="C178" t="n">
-        <v>1.991866707801819</v>
+        <v>1.990023136138916</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6549220085144043</v>
+        <v>-0.6534813642501831</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.898101091384888</v>
+        <v>1.897720217704773</v>
       </c>
       <c r="C179" t="n">
-        <v>1.464948296546936</v>
+        <v>1.463365435600281</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4331527948379517</v>
+        <v>0.4343547821044922</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.872314214706421</v>
+        <v>1.87193238735199</v>
       </c>
       <c r="C180" t="n">
-        <v>1.522687554359436</v>
+        <v>1.521076321601868</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3496266603469849</v>
+        <v>0.3508560657501221</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.436318039894104</v>
+        <v>1.435919046401978</v>
       </c>
       <c r="C181" t="n">
-        <v>1.847362279891968</v>
+        <v>1.845590353012085</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4110442399978638</v>
+        <v>-0.4096713066101074</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4898390769958496</v>
+        <v>0.4894032180309296</v>
       </c>
       <c r="C182" t="n">
-        <v>1.235727190971375</v>
+        <v>1.234257817268372</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7458881139755249</v>
+        <v>-0.7448545694351196</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8868243098258972</v>
+        <v>0.8864039182662964</v>
       </c>
       <c r="C183" t="n">
-        <v>1.512766003608704</v>
+        <v>1.511159539222717</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6259416937828064</v>
+        <v>-0.6247556209564209</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.558902978897095</v>
+        <v>1.558508992195129</v>
       </c>
       <c r="C184" t="n">
-        <v>1.791859984397888</v>
+        <v>1.790115356445312</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2329570055007935</v>
+        <v>-0.2316063642501831</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.939577579498291</v>
+        <v>1.93919837474823</v>
       </c>
       <c r="C185" t="n">
-        <v>1.692274570465088</v>
+        <v>1.690579414367676</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2473030090332031</v>
+        <v>0.2486189603805542</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.968098998069763</v>
+        <v>1.967720866203308</v>
       </c>
       <c r="C186" t="n">
-        <v>1.6397784948349</v>
+        <v>1.63810920715332</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3283205032348633</v>
+        <v>0.3296116590499878</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.067447185516357</v>
+        <v>2.067073106765747</v>
       </c>
       <c r="C187" t="n">
-        <v>1.493555426597595</v>
+        <v>1.491958498954773</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5738917589187622</v>
+        <v>0.5751146078109741</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.35300612449646</v>
+        <v>2.352643251419067</v>
       </c>
       <c r="C188" t="n">
-        <v>1.530826687812805</v>
+        <v>1.529211163520813</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8221794366836548</v>
+        <v>0.8234320878982544</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.903634548187256</v>
+        <v>2.903293132781982</v>
       </c>
       <c r="C189" t="n">
-        <v>1.694294214248657</v>
+        <v>1.692597985267639</v>
       </c>
       <c r="D189" t="n">
-        <v>1.209340333938599</v>
+        <v>1.210695147514343</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.118057012557983</v>
+        <v>3.117723703384399</v>
       </c>
       <c r="C190" t="n">
-        <v>1.294678330421448</v>
+        <v>1.293179869651794</v>
       </c>
       <c r="D190" t="n">
-        <v>1.823378682136536</v>
+        <v>1.824543833732605</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.103044986724854</v>
+        <v>3.102710962295532</v>
       </c>
       <c r="C191" t="n">
-        <v>1.586489200592041</v>
+        <v>1.584846258163452</v>
       </c>
       <c r="D191" t="n">
-        <v>1.516555786132812</v>
+        <v>1.51786470413208</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.856683969497681</v>
+        <v>2.856340646743774</v>
       </c>
       <c r="C192" t="n">
-        <v>1.897088289260864</v>
+        <v>1.895291686058044</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9595956802368164</v>
+        <v>0.96104896068573</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.930804491043091</v>
+        <v>2.930464029312134</v>
       </c>
       <c r="C193" t="n">
-        <v>2.974888324737549</v>
+        <v>2.972558259963989</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.04408383369445801</v>
+        <v>-0.04209423065185547</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.8390212059021</v>
+        <v>2.838677167892456</v>
       </c>
       <c r="C194" t="n">
-        <v>3.556154489517212</v>
+        <v>3.553536653518677</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7171332836151123</v>
+        <v>-0.7148594856262207</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.281677722930908</v>
+        <v>2.281311750411987</v>
       </c>
       <c r="C195" t="n">
-        <v>3.328421831130981</v>
+        <v>3.325916767120361</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.046744108200073</v>
+        <v>-1.044605016708374</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.109282493591309</v>
+        <v>3.108948707580566</v>
       </c>
       <c r="C196" t="n">
-        <v>3.756601810455322</v>
+        <v>3.75388503074646</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6473193168640137</v>
+        <v>-0.6449363231658936</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.90364146232605</v>
+        <v>2.903299808502197</v>
       </c>
       <c r="C197" t="n">
-        <v>3.544270753860474</v>
+        <v>3.541658878326416</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6406292915344238</v>
+        <v>-0.6383590698242188</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.016828775405884</v>
+        <v>2.016452550888062</v>
       </c>
       <c r="C198" t="n">
-        <v>3.207729578018188</v>
+        <v>3.205284357070923</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.190900802612305</v>
+        <v>-1.188831806182861</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.057924509048462</v>
+        <v>1.057510733604431</v>
       </c>
       <c r="C199" t="n">
-        <v>2.627638578414917</v>
+        <v>2.62548041343689</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.569714069366455</v>
+        <v>-1.567969679832458</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4236392676830292</v>
+        <v>0.4232008159160614</v>
       </c>
       <c r="C200" t="n">
-        <v>2.895329713821411</v>
+        <v>2.893039226531982</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.47169041633606</v>
+        <v>-2.469838380813599</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.445744872093201</v>
+        <v>1.445346236228943</v>
       </c>
       <c r="C201" t="n">
-        <v>2.651443958282471</v>
+        <v>2.649273872375488</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.20569908618927</v>
+        <v>-1.203927636146545</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.066628217697144</v>
+        <v>1.066214919090271</v>
       </c>
       <c r="C202" t="n">
-        <v>2.756613969802856</v>
+        <v>2.75439190864563</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.689985752105713</v>
+        <v>-1.688176989555359</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.09526526927948</v>
+        <v>1.094853043556213</v>
       </c>
       <c r="C203" t="n">
-        <v>2.502531290054321</v>
+        <v>2.500434875488281</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.407266020774841</v>
+        <v>-1.405581831932068</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.302757740020752</v>
+        <v>1.302353739738464</v>
       </c>
       <c r="C204" t="n">
-        <v>2.134042739868164</v>
+        <v>2.132128715515137</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8312849998474121</v>
+        <v>-0.8297749757766724</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.287976145744324</v>
+        <v>1.287571549415588</v>
       </c>
       <c r="C205" t="n">
-        <v>1.840755462646484</v>
+        <v>1.83898663520813</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5527793169021606</v>
+        <v>-0.5514150857925415</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.048905968666077</v>
+        <v>1.048491954803467</v>
       </c>
       <c r="C206" t="n">
-        <v>1.105847597122192</v>
+        <v>1.104442477226257</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05694162845611572</v>
+        <v>-0.05595052242279053</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.206063747406006</v>
+        <v>1.205655813217163</v>
       </c>
       <c r="C207" t="n">
-        <v>0.963064968585968</v>
+        <v>0.9617305397987366</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2429987788200378</v>
+        <v>0.2439252734184265</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.475091814994812</v>
+        <v>1.474694609642029</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7675018310546875</v>
+        <v>0.7662640810012817</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7075899839401245</v>
+        <v>0.7084305286407471</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.515442132949829</v>
+        <v>1.515046238899231</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5840429067611694</v>
+        <v>0.5828959941864014</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9313992261886597</v>
+        <v>0.9321502447128296</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.867285132408142</v>
+        <v>1.866903066635132</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6858355402946472</v>
+        <v>0.6846382021903992</v>
       </c>
       <c r="D210" t="n">
-        <v>1.18144965171814</v>
+        <v>1.182264804840088</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.61473548412323</v>
+        <v>1.614343404769897</v>
       </c>
       <c r="C211" t="n">
-        <v>0.850850522518158</v>
+        <v>0.8495715856552124</v>
       </c>
       <c r="D211" t="n">
-        <v>0.763884961605072</v>
+        <v>0.7647718191146851</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.067536115646362</v>
+        <v>2.067162036895752</v>
       </c>
       <c r="C212" t="n">
-        <v>1.137019157409668</v>
+        <v>1.135598540306091</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9305169582366943</v>
+        <v>0.9315634965896606</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.153841495513916</v>
+        <v>2.153470754623413</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5308185815811157</v>
+        <v>0.5296980142593384</v>
       </c>
       <c r="D213" t="n">
-        <v>1.6230229139328</v>
+        <v>1.623772740364075</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.912878394126892</v>
+        <v>1.912498116493225</v>
       </c>
       <c r="C214" t="n">
-        <v>1.038946628570557</v>
+        <v>1.037574529647827</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8739317655563354</v>
+        <v>0.8749235868453979</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.05227518081665</v>
+        <v>2.051900386810303</v>
       </c>
       <c r="C215" t="n">
-        <v>1.192336440086365</v>
+        <v>1.190888524055481</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8599387407302856</v>
+        <v>0.8610118627548218</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.925750255584717</v>
+        <v>1.925370573997498</v>
       </c>
       <c r="C216" t="n">
-        <v>1.42510986328125</v>
+        <v>1.42354679107666</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5006403923034668</v>
+        <v>0.5018237829208374</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.005596160888672</v>
+        <v>1.005180358886719</v>
       </c>
       <c r="C217" t="n">
-        <v>1.226025462150574</v>
+        <v>1.224560976028442</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2204293012619019</v>
+        <v>-0.2193806171417236</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7143239378929138</v>
+        <v>0.7138968706130981</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5223671793937683</v>
+        <v>0.5212507843971252</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1919567584991455</v>
+        <v>0.1926460862159729</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.495707631111145</v>
+        <v>1.495311141014099</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5094118714332581</v>
+        <v>0.508301854133606</v>
       </c>
       <c r="D219" t="n">
-        <v>0.986295759677887</v>
+        <v>0.9870092868804932</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.357404828071594</v>
+        <v>1.357002973556519</v>
       </c>
       <c r="C220" t="n">
-        <v>1.222701907157898</v>
+        <v>1.221238970756531</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1347029209136963</v>
+        <v>0.1357640027999878</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.494207262992859</v>
+        <v>1.493810772895813</v>
       </c>
       <c r="C221" t="n">
-        <v>1.438721418380737</v>
+        <v>1.437151551246643</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05548584461212158</v>
+        <v>0.05665922164916992</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.290483713150024</v>
+        <v>1.290079236030579</v>
       </c>
       <c r="C222" t="n">
-        <v>1.01682186126709</v>
+        <v>1.015460848808289</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2736618518829346</v>
+        <v>0.27461838722229</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9346233606338501</v>
+        <v>0.9342048764228821</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7433441877365112</v>
+        <v>0.7421184182167053</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1912791728973389</v>
+        <v>0.1920864582061768</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.095034956932068</v>
+        <v>1.094622731208801</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4370065331459045</v>
+        <v>0.4359323680400848</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6580284237861633</v>
+        <v>0.658690333366394</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.49175488948822</v>
+        <v>1.491358041763306</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5868468880653381</v>
+        <v>0.5856985449790955</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9049080014228821</v>
+        <v>0.9056594967842102</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.846988797187805</v>
+        <v>1.846606016159058</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08788928389549255</v>
+        <v>0.08698788285255432</v>
       </c>
       <c r="D226" t="n">
-        <v>1.75909948348999</v>
+        <v>1.759618163108826</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.657561540603638</v>
+        <v>1.657171249389648</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5028371810913086</v>
+        <v>0.5017304420471191</v>
       </c>
       <c r="D227" t="n">
-        <v>1.154724359512329</v>
+        <v>1.155440807342529</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.094193458557129</v>
+        <v>2.093820095062256</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9084659218788147</v>
+        <v>0.9071584939956665</v>
       </c>
       <c r="D228" t="n">
-        <v>1.185727596282959</v>
+        <v>1.186661601066589</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.995588064193726</v>
+        <v>1.995211005210876</v>
       </c>
       <c r="C229" t="n">
-        <v>1.22921621799469</v>
+        <v>1.227749943733215</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7663718461990356</v>
+        <v>0.7674610614776611</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.987265706062317</v>
+        <v>1.986888408660889</v>
       </c>
       <c r="C230" t="n">
-        <v>1.767418742179871</v>
+        <v>1.765686273574829</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2198469638824463</v>
+        <v>0.2212021350860596</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.684645414352417</v>
+        <v>1.684256076812744</v>
       </c>
       <c r="C231" t="n">
-        <v>1.819451212882996</v>
+        <v>1.817692995071411</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1348057985305786</v>
+        <v>-0.133436918258667</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.70452606678009</v>
+        <v>1.704137682914734</v>
       </c>
       <c r="C232" t="n">
-        <v>1.592264771461487</v>
+        <v>1.590619087219238</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1122612953186035</v>
+        <v>0.1135185956954956</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.204321622848511</v>
+        <v>2.20395302772522</v>
       </c>
       <c r="C233" t="n">
-        <v>1.631018161773682</v>
+        <v>1.629353046417236</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5733034610748291</v>
+        <v>0.5745999813079834</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.677973508834839</v>
+        <v>2.67762303352356</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9581817984580994</v>
+        <v>0.9568497538566589</v>
       </c>
       <c r="D234" t="n">
-        <v>1.719791650772095</v>
+        <v>1.720773220062256</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.319719791412354</v>
+        <v>2.319355487823486</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3125529289245605</v>
+        <v>0.3115403652191162</v>
       </c>
       <c r="D235" t="n">
-        <v>2.007166862487793</v>
+        <v>2.00781512260437</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.137379169464111</v>
+        <v>2.137007713317871</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3573532998561859</v>
+        <v>0.3563185632228851</v>
       </c>
       <c r="D236" t="n">
-        <v>1.780025839805603</v>
+        <v>1.780689120292664</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.670389413833618</v>
+        <v>2.67003870010376</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6160516738891602</v>
+        <v>-0.6166046857833862</v>
       </c>
       <c r="D237" t="n">
-        <v>3.286441087722778</v>
+        <v>3.286643505096436</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.244626522064209</v>
+        <v>2.244259357452393</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161015033721924</v>
+        <v>-1.161298394203186</v>
       </c>
       <c r="D238" t="n">
-        <v>3.405641555786133</v>
+        <v>3.405557632446289</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.598509073257446</v>
+        <v>2.598155736923218</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.502299308776855</v>
+        <v>-1.502413988113403</v>
       </c>
       <c r="D239" t="n">
-        <v>4.100808143615723</v>
+        <v>4.100569725036621</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.773941993713379</v>
+        <v>2.773595571517944</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8818367719650269</v>
+        <v>-0.8822583556175232</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655778884887695</v>
+        <v>3.655853986740112</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.303689956665039</v>
+        <v>2.303324937820435</v>
       </c>
       <c r="C241" t="n">
-        <v>1.322375893592834</v>
+        <v>1.320863485336304</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9813140630722046</v>
+        <v>0.9824614524841309</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.629451036453247</v>
+        <v>2.629098892211914</v>
       </c>
       <c r="C242" t="n">
-        <v>2.369904279708862</v>
+        <v>2.367873430252075</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2595467567443848</v>
+        <v>0.2612254619598389</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.023518800735474</v>
+        <v>2.02314305305481</v>
       </c>
       <c r="C243" t="n">
-        <v>2.635231971740723</v>
+        <v>2.63306999206543</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.611713171005249</v>
+        <v>-0.6099269390106201</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.210851430892944</v>
+        <v>2.210482835769653</v>
       </c>
       <c r="C244" t="n">
-        <v>2.527049541473389</v>
+        <v>2.524940967559814</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3161981105804443</v>
+        <v>-0.3144581317901611</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.26868200302124</v>
+        <v>2.268315553665161</v>
       </c>
       <c r="C245" t="n">
-        <v>2.605108499526978</v>
+        <v>2.602961540222168</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3364264965057373</v>
+        <v>-0.3346459865570068</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.32281494140625</v>
+        <v>2.322450637817383</v>
       </c>
       <c r="C246" t="n">
-        <v>1.554056525230408</v>
+        <v>1.552429676055908</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7687584161758423</v>
+        <v>0.7700209617614746</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.210207462310791</v>
+        <v>2.2098388671875</v>
       </c>
       <c r="C247" t="n">
-        <v>1.18189549446106</v>
+        <v>1.180452823638916</v>
       </c>
       <c r="D247" t="n">
-        <v>1.028311967849731</v>
+        <v>1.029386043548584</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.03859806060791</v>
+        <v>2.038223028182983</v>
       </c>
       <c r="C248" t="n">
-        <v>1.613333106040955</v>
+        <v>1.611676931381226</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4252649545669556</v>
+        <v>0.4265460968017578</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.544420838356018</v>
+        <v>1.544026136398315</v>
       </c>
       <c r="C249" t="n">
-        <v>2.021718502044678</v>
+        <v>2.01986026763916</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4772976636886597</v>
+        <v>-0.4758341312408447</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.266522288322449</v>
+        <v>1.266116857528687</v>
       </c>
       <c r="C250" t="n">
-        <v>1.567142486572266</v>
+        <v>1.565509080886841</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.3006201982498169</v>
+        <v>-0.2993922233581543</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.778069972991943</v>
+        <v>1.777684450149536</v>
       </c>
       <c r="C251" t="n">
-        <v>1.391851425170898</v>
+        <v>1.390304684638977</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3862185478210449</v>
+        <v>0.3873797655105591</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.546546697616577</v>
+        <v>1.546151995658875</v>
       </c>
       <c r="C252" t="n">
-        <v>1.242074728012085</v>
+        <v>1.240602135658264</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3044719696044922</v>
+        <v>0.3055498600006104</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.406777024269104</v>
+        <v>1.406376838684082</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9500987529754639</v>
+        <v>0.9487706422805786</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4566782712936401</v>
+        <v>0.4576061964035034</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5307629108428955</v>
+        <v>0.5303286910057068</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04391053691506386</v>
+        <v>-0.04474671557545662</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5746734738349915</v>
+        <v>0.5750753879547119</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7620890140533447</v>
+        <v>0.7616637945175171</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3309901654720306</v>
+        <v>0.3299684524536133</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4310988485813141</v>
+        <v>0.4316953420639038</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.204788565635681</v>
+        <v>1.204380631446838</v>
       </c>
       <c r="C256" t="n">
-        <v>0.957664430141449</v>
+        <v>0.9563325643539429</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2471241354942322</v>
+        <v>0.2480480670928955</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.184174060821533</v>
+        <v>1.183765411376953</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5337052941322327</v>
+        <v>0.5325832962989807</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6504687666893005</v>
+        <v>0.6511821150779724</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.680054247379303</v>
+        <v>0.6796258091926575</v>
       </c>
       <c r="C258" t="n">
-        <v>1.308212041854858</v>
+        <v>1.306706666946411</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6281577944755554</v>
+        <v>-0.6270808577537537</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8841777443885803</v>
+        <v>0.8837572932243347</v>
       </c>
       <c r="C259" t="n">
-        <v>1.843724608421326</v>
+        <v>1.841954350471497</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9595468640327454</v>
+        <v>-0.9581970572471619</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.172338247299194</v>
+        <v>1.171929001808167</v>
       </c>
       <c r="C260" t="n">
-        <v>2.293430805206299</v>
+        <v>2.291438341140747</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.121092557907104</v>
+        <v>-1.119509339332581</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.299414038658142</v>
+        <v>1.299009919166565</v>
       </c>
       <c r="C261" t="n">
-        <v>1.935795187950134</v>
+        <v>1.933979272842407</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6363811492919922</v>
+        <v>-0.6349693536758423</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.510164976119995</v>
+        <v>1.509768843650818</v>
       </c>
       <c r="C262" t="n">
-        <v>1.460989713668823</v>
+        <v>1.45940887928009</v>
       </c>
       <c r="D262" t="n">
-        <v>0.04917526245117188</v>
+        <v>0.05035996437072754</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.190562725067139</v>
+        <v>1.190154433250427</v>
       </c>
       <c r="C263" t="n">
-        <v>2.221511840820312</v>
+        <v>2.219554662704468</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.030949115753174</v>
+        <v>-1.029400229454041</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.168719291687012</v>
+        <v>1.168309926986694</v>
       </c>
       <c r="C264" t="n">
-        <v>1.785252332687378</v>
+        <v>1.783511161804199</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6165330410003662</v>
+        <v>-0.6152012348175049</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.330923557281494</v>
+        <v>1.330520391464233</v>
       </c>
       <c r="C265" t="n">
-        <v>1.774088144302368</v>
+        <v>1.77235221862793</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.443164587020874</v>
+        <v>-0.4418318271636963</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,27 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.685655355453491</v>
+        <v>1.685266017913818</v>
       </c>
       <c r="C266" t="n">
-        <v>2.341140508651733</v>
+        <v>2.339123964309692</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6554851531982422</v>
+        <v>-0.653857946395874</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.9176612496376038</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.730295300483704</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-0.8126340508460999</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8153254985809326</v>
+        <v>0.8147469758987427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804110586643219</v>
+        <v>0.8032903671264648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01121491193771362</v>
+        <v>0.01145660877227783</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8420340418815613</v>
+        <v>0.8414542675018311</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2521097660064697</v>
+        <v>-0.2527232468128204</v>
       </c>
       <c r="D3" t="n">
-        <v>1.094143867492676</v>
+        <v>1.094177484512329</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9183105826377869</v>
+        <v>0.9177272319793701</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7633805871009827</v>
+        <v>-0.7638940215110779</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68169116973877</v>
+        <v>1.681621313095093</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4937812685966492</v>
+        <v>0.4932178258895874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09885421395301819</v>
+        <v>0.09817204624414444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.394927054643631</v>
+        <v>0.3950457870960236</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7189366221427917</v>
+        <v>0.71836256980896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0273699052631855</v>
+        <v>0.02670172788202763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6915667057037354</v>
+        <v>0.6916608214378357</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08322540670633316</v>
+        <v>0.08268123865127563</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1367945373058319</v>
+        <v>-0.1374305784702301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2200199365615845</v>
+        <v>0.2201118171215057</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6741634607315063</v>
+        <v>0.6735914945602417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4633626639842987</v>
+        <v>0.4626091420650482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2108007967472076</v>
+        <v>0.2109823524951935</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.043155670166016</v>
+        <v>1.042566418647766</v>
       </c>
       <c r="C9" t="n">
-        <v>1.183187484741211</v>
+        <v>1.182293057441711</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1400318145751953</v>
+        <v>-0.1397266387939453</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.416426301002502</v>
+        <v>1.415819644927979</v>
       </c>
       <c r="C10" t="n">
-        <v>1.147873878479004</v>
+        <v>1.146986365318298</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2685524225234985</v>
+        <v>0.2688332796096802</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.976703941822052</v>
+        <v>0.9761177897453308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9856792688369751</v>
+        <v>0.98482346534729</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008975327014923096</v>
+        <v>-0.008705675601959229</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.059375405311584</v>
+        <v>1.058785438537598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.823689877986908</v>
+        <v>0.8228658437728882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2356855273246765</v>
+        <v>0.2359195947647095</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7408949732780457</v>
+        <v>0.7403199076652527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3312597870826721</v>
+        <v>0.3305321335792542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4096351861953735</v>
+        <v>0.4097877740859985</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2477976679801941</v>
+        <v>0.2472457587718964</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04076668992638588</v>
+        <v>-0.04142153263092041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2885643541812897</v>
+        <v>0.2886672914028168</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5129792094230652</v>
+        <v>0.5124148726463318</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3813444674015045</v>
+        <v>-0.3819326460361481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8943237066268921</v>
+        <v>0.8943475484848022</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.186416149139404</v>
+        <v>1.18582022190094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2577145099639893</v>
+        <v>0.2570012509822845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.928701639175415</v>
+        <v>0.928818941116333</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.025217771530151</v>
+        <v>1.024629354476929</v>
       </c>
       <c r="C17" t="n">
-        <v>1.072158455848694</v>
+        <v>1.071285843849182</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04694068431854248</v>
+        <v>-0.04665648937225342</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.105370283126831</v>
+        <v>1.104778170585632</v>
       </c>
       <c r="C18" t="n">
-        <v>1.871902823448181</v>
+        <v>1.870873689651489</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7665325403213501</v>
+        <v>-0.7660955190658569</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.036653995513916</v>
+        <v>1.036064982414246</v>
       </c>
       <c r="C19" t="n">
-        <v>1.197125792503357</v>
+        <v>1.196228623390198</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1604717969894409</v>
+        <v>-0.1601636409759521</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4172751009464264</v>
+        <v>0.4167152643203735</v>
       </c>
       <c r="C20" t="n">
-        <v>2.023977518081665</v>
+        <v>2.022918462753296</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.606702446937561</v>
+        <v>-1.606203198432922</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7256955504417419</v>
+        <v>0.7251212000846863</v>
       </c>
       <c r="C21" t="n">
-        <v>1.397695422172546</v>
+        <v>1.396758913993835</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6719998717308044</v>
+        <v>-0.6716377139091492</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7138538360595703</v>
+        <v>0.7132800817489624</v>
       </c>
       <c r="C22" t="n">
-        <v>1.51561450958252</v>
+        <v>1.514654874801636</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8017606735229492</v>
+        <v>-0.8013747930526733</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3998019695281982</v>
+        <v>0.3992429375648499</v>
       </c>
       <c r="C23" t="n">
-        <v>1.340770721435547</v>
+        <v>1.339845418930054</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9409687519073486</v>
+        <v>-0.9406024813652039</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.67872154712677</v>
+        <v>0.6781494617462158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8592126369476318</v>
+        <v>0.8583816885948181</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1804910898208618</v>
+        <v>-0.1802322268486023</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.107073664665222</v>
+        <v>1.106481432914734</v>
       </c>
       <c r="C25" t="n">
-        <v>1.022380709648132</v>
+        <v>1.021517872810364</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08469295501708984</v>
+        <v>0.08496356010437012</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8985315561294556</v>
+        <v>0.8979491591453552</v>
       </c>
       <c r="C26" t="n">
-        <v>1.546501755714417</v>
+        <v>1.545536160469055</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6479701995849609</v>
+        <v>-0.6475870013237</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.147051215171814</v>
+        <v>1.146457076072693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7502773404121399</v>
+        <v>0.749467670917511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3967738747596741</v>
+        <v>0.3969894051551819</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.178893327713013</v>
+        <v>1.178297638893127</v>
       </c>
       <c r="C28" t="n">
-        <v>2.000820636749268</v>
+        <v>1.999766111373901</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8219273090362549</v>
+        <v>-0.8214684724807739</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9143700003623962</v>
+        <v>0.9137868285179138</v>
       </c>
       <c r="C29" t="n">
-        <v>1.853176355361938</v>
+        <v>1.852150678634644</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9388063549995422</v>
+        <v>-0.9383638501167297</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4954713881015778</v>
+        <v>0.4949078559875488</v>
       </c>
       <c r="C30" t="n">
-        <v>1.624949097633362</v>
+        <v>1.623968243598938</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.129477739334106</v>
+        <v>-1.129060387611389</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7613972425460815</v>
+        <v>0.7608212232589722</v>
       </c>
       <c r="C31" t="n">
-        <v>1.245464324951172</v>
+        <v>1.244557619094849</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4840670824050903</v>
+        <v>-0.4837363958358765</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8601844906806946</v>
+        <v>0.8596038222312927</v>
       </c>
       <c r="C32" t="n">
-        <v>1.406741857528687</v>
+        <v>1.405803561210632</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5465573668479919</v>
+        <v>-0.5461997389793396</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7028816342353821</v>
+        <v>0.7023083567619324</v>
       </c>
       <c r="C33" t="n">
-        <v>1.340978503227234</v>
+        <v>1.340053200721741</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6380968689918518</v>
+        <v>-0.6377448439598083</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.00785756111145</v>
+        <v>2.007222890853882</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5412373542785645</v>
+        <v>0.5404685735702515</v>
       </c>
       <c r="D34" t="n">
-        <v>1.466620206832886</v>
+        <v>1.46675431728363</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.465873241424561</v>
+        <v>1.465264201164246</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1050329729914665</v>
+        <v>-0.1056752353906631</v>
       </c>
       <c r="D35" t="n">
-        <v>1.570906162261963</v>
+        <v>1.570939421653748</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.212902307510376</v>
+        <v>1.212305068969727</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5321120023727417</v>
+        <v>0.531345009803772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6807903051376343</v>
+        <v>0.6809600591659546</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.495789647102356</v>
+        <v>1.495179176330566</v>
       </c>
       <c r="C37" t="n">
-        <v>2.049271583557129</v>
+        <v>2.048207521438599</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5534819364547729</v>
+        <v>-0.5530283451080322</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.332836151123047</v>
+        <v>1.332233309745789</v>
       </c>
       <c r="C38" t="n">
-        <v>2.171280860900879</v>
+        <v>2.170193195343018</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.838444709777832</v>
+        <v>-0.837959885597229</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.971187591552734</v>
+        <v>1.970554828643799</v>
       </c>
       <c r="C39" t="n">
-        <v>1.657549738883972</v>
+        <v>1.656562447547913</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3136378526687622</v>
+        <v>0.3139923810958862</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.746196031570435</v>
+        <v>1.745573878288269</v>
       </c>
       <c r="C40" t="n">
-        <v>1.120903134346008</v>
+        <v>1.120020866394043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6252928972244263</v>
+        <v>0.6255530118942261</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.822724342346191</v>
+        <v>1.82209849357605</v>
       </c>
       <c r="C41" t="n">
-        <v>1.661043047904968</v>
+        <v>1.660055041313171</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1616812944412231</v>
+        <v>0.1620434522628784</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.757103562355042</v>
+        <v>1.756480813026428</v>
       </c>
       <c r="C42" t="n">
-        <v>1.194695711135864</v>
+        <v>1.193799138069153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5624078512191772</v>
+        <v>0.5626816749572754</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.604612588882446</v>
+        <v>1.603996992111206</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7168322205543518</v>
+        <v>0.7160290479660034</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8877803683280945</v>
+        <v>0.8879679441452026</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.165845990180969</v>
+        <v>1.165251016616821</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4832389950752258</v>
+        <v>0.4824815988540649</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6826069951057434</v>
+        <v>0.6827694177627563</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.088991165161133</v>
+        <v>1.088399767875671</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04414268210530281</v>
+        <v>0.04347122088074684</v>
       </c>
       <c r="D45" t="n">
-        <v>1.044848442077637</v>
+        <v>1.044928550720215</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.35103178024292</v>
+        <v>1.350428104400635</v>
       </c>
       <c r="C46" t="n">
-        <v>1.127506852149963</v>
+        <v>1.126623392105103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2235249280929565</v>
+        <v>0.2238047122955322</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9932318329811096</v>
+        <v>0.9926449060440063</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8951621651649475</v>
+        <v>0.8943240642547607</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09806966781616211</v>
+        <v>0.09832084178924561</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.660236656665802</v>
+        <v>0.6596654057502747</v>
       </c>
       <c r="C48" t="n">
-        <v>1.015002608299255</v>
+        <v>1.014140963554382</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3547659516334534</v>
+        <v>-0.3544755578041077</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7161978483200073</v>
+        <v>0.7156239748001099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3790223300457001</v>
+        <v>0.3782853186130524</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3371755182743073</v>
+        <v>0.3373386561870575</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.383423209190369</v>
+        <v>1.382817983627319</v>
       </c>
       <c r="C50" t="n">
-        <v>1.395550608634949</v>
+        <v>1.394614577293396</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01212739944458008</v>
+        <v>-0.01179659366607666</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.344716548919678</v>
+        <v>1.344113230705261</v>
       </c>
       <c r="C51" t="n">
-        <v>1.254352331161499</v>
+        <v>1.253444075584412</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09036421775817871</v>
+        <v>0.09066915512084961</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.023928165435791</v>
+        <v>1.023339748382568</v>
       </c>
       <c r="C52" t="n">
-        <v>0.62184739112854</v>
+        <v>0.6210628151893616</v>
       </c>
       <c r="D52" t="n">
-        <v>0.402080774307251</v>
+        <v>0.4022769331932068</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.146371245384216</v>
+        <v>1.145777225494385</v>
       </c>
       <c r="C53" t="n">
-        <v>1.143791317939758</v>
+        <v>1.14290463924408</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002579927444458008</v>
+        <v>0.002872586250305176</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1810127347707748</v>
+        <v>-0.1815445125102997</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8915994763374329</v>
+        <v>0.8907621502876282</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.072612166404724</v>
+        <v>-1.072306632995605</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05386034771800041</v>
+        <v>-0.05439808592200279</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8159651756286621</v>
+        <v>0.8151425719261169</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.869825541973114</v>
+        <v>-0.8695406317710876</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1713839322328568</v>
+        <v>0.1708356142044067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.759701669216156</v>
+        <v>0.7588901519775391</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5883177518844604</v>
+        <v>-0.5880545377731323</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.146808266639709</v>
+        <v>1.146214127540588</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8540350794792175</v>
+        <v>0.8532050848007202</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2927731871604919</v>
+        <v>0.2930090427398682</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.255914568901062</v>
+        <v>1.25531530380249</v>
       </c>
       <c r="C58" t="n">
-        <v>0.665813148021698</v>
+        <v>0.6650200486183167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.590101420879364</v>
+        <v>0.5902952551841736</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24567711353302</v>
+        <v>1.245078444480896</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7024139761924744</v>
+        <v>0.7016136646270752</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5432631373405457</v>
+        <v>0.5434647798538208</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.065628290176392</v>
+        <v>1.065037965774536</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9413995146751404</v>
+        <v>0.9405524134635925</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1242287755012512</v>
+        <v>0.1244855523109436</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.010903239250183</v>
+        <v>1.010315537452698</v>
       </c>
       <c r="C61" t="n">
-        <v>1.170149207115173</v>
+        <v>1.169257283210754</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1592459678649902</v>
+        <v>-0.1589417457580566</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8720306158065796</v>
+        <v>0.8714494109153748</v>
       </c>
       <c r="C62" t="n">
-        <v>1.486350178718567</v>
+        <v>1.485396385192871</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6143195629119873</v>
+        <v>-0.6139469742774963</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9227650761604309</v>
+        <v>0.9221814870834351</v>
       </c>
       <c r="C63" t="n">
-        <v>2.67155647277832</v>
+        <v>2.670370578765869</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.748791456222534</v>
+        <v>-1.748189091682434</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.160970687866211</v>
+        <v>1.160375952720642</v>
       </c>
       <c r="C64" t="n">
-        <v>2.599725008010864</v>
+        <v>2.598553419113159</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.438754320144653</v>
+        <v>-1.438177466392517</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.35862123966217</v>
+        <v>1.358017206192017</v>
       </c>
       <c r="C65" t="n">
-        <v>1.067723512649536</v>
+        <v>1.066851735115051</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2908977270126343</v>
+        <v>0.2911654710769653</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.530957460403442</v>
+        <v>1.530345320701599</v>
       </c>
       <c r="C66" t="n">
-        <v>1.253695487976074</v>
+        <v>1.252787351608276</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2772619724273682</v>
+        <v>0.2775579690933228</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.365360736846924</v>
+        <v>1.364756345748901</v>
       </c>
       <c r="C67" t="n">
-        <v>1.660116672515869</v>
+        <v>1.659129023551941</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2947559356689453</v>
+        <v>-0.2943726778030396</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6047157645225525</v>
+        <v>0.6041470766067505</v>
       </c>
       <c r="C68" t="n">
-        <v>1.716896533966064</v>
+        <v>1.715897560119629</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.112180709838867</v>
+        <v>-1.111750483512878</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9879941940307617</v>
+        <v>0.9874075651168823</v>
       </c>
       <c r="C69" t="n">
-        <v>1.768426299095154</v>
+        <v>1.767417430877686</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7804321050643921</v>
+        <v>-0.7800098657608032</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.888246476650238</v>
+        <v>0.8876644968986511</v>
       </c>
       <c r="C70" t="n">
-        <v>2.006299495697021</v>
+        <v>2.005244016647339</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.118052959442139</v>
+        <v>-1.117579460144043</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7946673631668091</v>
+        <v>0.7940897941589355</v>
       </c>
       <c r="C71" t="n">
-        <v>1.77897584438324</v>
+        <v>1.777964949607849</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9843084812164307</v>
+        <v>-0.9838751554489136</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5046845078468323</v>
+        <v>0.5041205286979675</v>
       </c>
       <c r="C72" t="n">
-        <v>1.651796221733093</v>
+        <v>1.650810241699219</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.147111654281616</v>
+        <v>-1.146689653396606</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3530554175376892</v>
+        <v>0.3524985909461975</v>
       </c>
       <c r="C73" t="n">
-        <v>1.252829670906067</v>
+        <v>1.251921653747559</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8997742533683777</v>
+        <v>-0.8994230628013611</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4407916069030762</v>
+        <v>0.440230667591095</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5769820809364319</v>
+        <v>0.5762063264846802</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1361904740333557</v>
+        <v>-0.1359756588935852</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4928674399852753</v>
+        <v>0.4923040568828583</v>
       </c>
       <c r="C75" t="n">
-        <v>1.928107619285583</v>
+        <v>1.927067399024963</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.435240149497986</v>
+        <v>-1.434763312339783</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8063526153564453</v>
+        <v>0.8057745099067688</v>
       </c>
       <c r="C76" t="n">
-        <v>1.237588763237</v>
+        <v>1.23668384552002</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4312361478805542</v>
+        <v>-0.4309093356132507</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7508076429367065</v>
+        <v>0.7502321004867554</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8381282687187195</v>
+        <v>0.8373013138771057</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08732062578201294</v>
+        <v>-0.08706921339035034</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.077391743659973</v>
+        <v>1.076800942420959</v>
       </c>
       <c r="C78" t="n">
-        <v>1.518906235694885</v>
+        <v>1.517946124076843</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4415144920349121</v>
+        <v>-0.4411451816558838</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8514567613601685</v>
+        <v>0.8508765697479248</v>
       </c>
       <c r="C79" t="n">
-        <v>1.286458730697632</v>
+        <v>1.285544157028198</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4350019693374634</v>
+        <v>-0.4346675872802734</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9293919205665588</v>
+        <v>0.9288080334663391</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5373514294624329</v>
+        <v>0.5365834832191467</v>
       </c>
       <c r="D80" t="n">
-        <v>0.392040491104126</v>
+        <v>0.3922245502471924</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.515968561172485</v>
+        <v>1.515357136726379</v>
       </c>
       <c r="C81" t="n">
-        <v>0.683035135269165</v>
+        <v>0.6822386384010315</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8329334259033203</v>
+        <v>0.8331184983253479</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.292731165885925</v>
+        <v>1.2921302318573</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6650770902633667</v>
+        <v>-0.6656097173690796</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957808256149292</v>
+        <v>1.957739949226379</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.585930824279785</v>
+        <v>1.585316061973572</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8328763842582703</v>
+        <v>-0.8333761692047119</v>
       </c>
       <c r="D83" t="n">
-        <v>2.4188072681427</v>
+        <v>2.418692111968994</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.826258659362793</v>
+        <v>1.825632572174072</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1662394255399704</v>
+        <v>-0.1668697148561478</v>
       </c>
       <c r="D84" t="n">
-        <v>1.99249804019928</v>
+        <v>1.992502331733704</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.839105606079102</v>
+        <v>1.838479042053223</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9725632071495056</v>
+        <v>0.9717100858688354</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8665423989295959</v>
+        <v>0.8667689561843872</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.688801050186157</v>
+        <v>1.688181519508362</v>
       </c>
       <c r="C86" t="n">
-        <v>1.253131866455078</v>
+        <v>1.25222373008728</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4356691837310791</v>
+        <v>0.4359577894210815</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.548882961273193</v>
+        <v>1.548269987106323</v>
       </c>
       <c r="C87" t="n">
-        <v>1.95972728729248</v>
+        <v>1.958680868148804</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4108443260192871</v>
+        <v>-0.4104108810424805</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.360865116119385</v>
+        <v>1.360260963439941</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8929556608200073</v>
+        <v>0.8921180963516235</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4679094552993774</v>
+        <v>0.4681428670883179</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.406216859817505</v>
+        <v>1.405610680580139</v>
       </c>
       <c r="C89" t="n">
-        <v>1.050141215324402</v>
+        <v>1.049272894859314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.356075644493103</v>
+        <v>0.3563377857208252</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.748257875442505</v>
+        <v>1.74763560295105</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8186686635017395</v>
+        <v>0.8178455829620361</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9295892119407654</v>
+        <v>0.9297900199890137</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.893856883049011</v>
+        <v>1.893227696418762</v>
       </c>
       <c r="C91" t="n">
-        <v>1.190716981887817</v>
+        <v>1.189821004867554</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7031399011611938</v>
+        <v>0.7034066915512085</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.565407633781433</v>
+        <v>1.564793944358826</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8793235421180725</v>
+        <v>0.8784886002540588</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6860840916633606</v>
+        <v>0.6863053441047668</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.711109280586243</v>
+        <v>1.710488677024841</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7261892557144165</v>
+        <v>0.7253842949867249</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9849200248718262</v>
+        <v>0.9851043820381165</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.432786226272583</v>
+        <v>1.432178735733032</v>
       </c>
       <c r="C94" t="n">
-        <v>0.230514794588089</v>
+        <v>0.2298068553209305</v>
       </c>
       <c r="D94" t="n">
-        <v>1.202271461486816</v>
+        <v>1.202371835708618</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.085250496864319</v>
+        <v>1.084659218788147</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5340749025344849</v>
+        <v>0.5333075523376465</v>
       </c>
       <c r="D95" t="n">
-        <v>0.551175594329834</v>
+        <v>0.5513516664505005</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6707825660705566</v>
+        <v>0.6702107787132263</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7382835149765015</v>
+        <v>0.7374761700630188</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06750094890594482</v>
+        <v>-0.06726539134979248</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6062594056129456</v>
+        <v>0.6056906580924988</v>
       </c>
       <c r="C97" t="n">
-        <v>1.059846639633179</v>
+        <v>1.058976292610168</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4535872340202332</v>
+        <v>-0.4532856345176697</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.005963683128357</v>
+        <v>1.005376219749451</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9847099781036377</v>
+        <v>0.9838544726371765</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02125370502471924</v>
+        <v>0.02152174711227417</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2815489172935486</v>
+        <v>0.2809954285621643</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1186724603176117</v>
+        <v>0.1179864108562469</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1628764569759369</v>
+        <v>0.1630090177059174</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05493833124637604</v>
+        <v>-0.05547602102160454</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3448318839073181</v>
+        <v>-0.3454271852970123</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2898935675621033</v>
+        <v>0.2899511754512787</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2289785444736481</v>
+        <v>-0.2295080721378326</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3365416824817657</v>
+        <v>0.3358129858970642</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5655202269554138</v>
+        <v>-0.5653210878372192</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2134548425674438</v>
+        <v>0.2129045575857162</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2666679620742798</v>
+        <v>-0.2672785818576813</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4801228046417236</v>
+        <v>0.4801831245422363</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7532559037208557</v>
+        <v>0.752680242061615</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4410106241703033</v>
+        <v>-0.4415871202945709</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194266557693481</v>
+        <v>1.194267392158508</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.003525495529175</v>
+        <v>1.002938032150269</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7009921073913574</v>
+        <v>-0.7015177011489868</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704517602920532</v>
+        <v>1.704455733299255</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.070348501205444</v>
+        <v>1.06975793838501</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.03856915235519409</v>
+        <v>-0.03922442346811295</v>
       </c>
       <c r="D105" t="n">
-        <v>1.108917713165283</v>
+        <v>1.10898232460022</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.175011992454529</v>
+        <v>1.174416661262512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6595112681388855</v>
+        <v>0.6587193608283997</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5155007243156433</v>
+        <v>0.5156973004341125</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.083462953567505</v>
+        <v>1.082871913909912</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4833081066608429</v>
+        <v>0.4825506806373596</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6001548767089844</v>
+        <v>0.6003212332725525</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8409751653671265</v>
+        <v>0.840395450592041</v>
       </c>
       <c r="C108" t="n">
-        <v>0.875016987323761</v>
+        <v>0.8741829395294189</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03404182195663452</v>
+        <v>-0.03378748893737793</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5690655708312988</v>
+        <v>0.5684986114501953</v>
       </c>
       <c r="C109" t="n">
-        <v>0.97666996717453</v>
+        <v>0.9758159518241882</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4076043963432312</v>
+        <v>-0.4073173403739929</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8363616466522217</v>
+        <v>0.8357821106910706</v>
       </c>
       <c r="C110" t="n">
-        <v>1.019589185714722</v>
+        <v>1.018726825714111</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1832275390625</v>
+        <v>-0.1829447150230408</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.194855690002441</v>
+        <v>1.194259285926819</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4857217371463776</v>
+        <v>0.4849638342857361</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7091339826583862</v>
+        <v>0.7092954516410828</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.702967524528503</v>
+        <v>1.702347278594971</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8221050500869751</v>
+        <v>0.8212813138961792</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8808624744415283</v>
+        <v>0.8810659646987915</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0464928150177</v>
+        <v>1.045903444290161</v>
       </c>
       <c r="C113" t="n">
-        <v>1.131709814071655</v>
+        <v>1.130825519561768</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08521699905395508</v>
+        <v>-0.08492207527160645</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46041214466095</v>
+        <v>1.459803342819214</v>
       </c>
       <c r="C114" t="n">
-        <v>1.73619270324707</v>
+        <v>1.735189914703369</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2757805585861206</v>
+        <v>-0.2753865718841553</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.999270915985107</v>
+        <v>1.998636722564697</v>
       </c>
       <c r="C115" t="n">
-        <v>1.995077610015869</v>
+        <v>1.994024276733398</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004193305969238281</v>
+        <v>0.004612445831298828</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.312822341918945</v>
+        <v>1.312220454216003</v>
       </c>
       <c r="C116" t="n">
-        <v>2.493964910507202</v>
+        <v>2.4928138256073</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.181142568588257</v>
+        <v>-1.180593371391296</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.699559807777405</v>
+        <v>1.698939681053162</v>
       </c>
       <c r="C117" t="n">
-        <v>2.219259262084961</v>
+        <v>2.218162059783936</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5196994543075562</v>
+        <v>-0.5192223787307739</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.72306215763092</v>
+        <v>1.722441077232361</v>
       </c>
       <c r="C118" t="n">
-        <v>1.648553967475891</v>
+        <v>1.647568464279175</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0745081901550293</v>
+        <v>0.07487261295318604</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.92935037612915</v>
+        <v>1.928719520568848</v>
       </c>
       <c r="C119" t="n">
-        <v>1.719948410987854</v>
+        <v>1.718948841094971</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2094019651412964</v>
+        <v>0.209770679473877</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.381521821022034</v>
+        <v>1.380916595458984</v>
       </c>
       <c r="C120" t="n">
-        <v>1.702778100967407</v>
+        <v>1.701781868934631</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3212562799453735</v>
+        <v>-0.320865273475647</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.999209880828857</v>
+        <v>1.998575806617737</v>
       </c>
       <c r="C121" t="n">
-        <v>1.708766460418701</v>
+        <v>1.70776903629303</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2904434204101562</v>
+        <v>0.290806770324707</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.048376560211182</v>
+        <v>2.04774022102356</v>
       </c>
       <c r="C122" t="n">
-        <v>1.264775156974792</v>
+        <v>1.263864636421204</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7836014032363892</v>
+        <v>0.783875584602356</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.352506399154663</v>
+        <v>2.351855993270874</v>
       </c>
       <c r="C123" t="n">
-        <v>2.166049242019653</v>
+        <v>2.164962291717529</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1864571571350098</v>
+        <v>0.1868937015533447</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.454344749450684</v>
+        <v>2.453689098358154</v>
       </c>
       <c r="C124" t="n">
-        <v>1.835671186447144</v>
+        <v>1.834648966789246</v>
       </c>
       <c r="D124" t="n">
-        <v>0.61867356300354</v>
+        <v>0.6190401315689087</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.422520637512207</v>
+        <v>2.421866655349731</v>
       </c>
       <c r="C125" t="n">
-        <v>1.643424391746521</v>
+        <v>1.642439842224121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.779096245765686</v>
+        <v>0.7794268131256104</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.779927253723145</v>
+        <v>1.779303431510925</v>
       </c>
       <c r="C126" t="n">
-        <v>2.268803358078003</v>
+        <v>2.267696380615234</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4888761043548584</v>
+        <v>-0.4883929491043091</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.787863492965698</v>
+        <v>1.78723931312561</v>
       </c>
       <c r="C127" t="n">
-        <v>2.138489484786987</v>
+        <v>2.137408018112183</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3506259918212891</v>
+        <v>-0.3501687049865723</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.486791968345642</v>
+        <v>1.486181974411011</v>
       </c>
       <c r="C128" t="n">
-        <v>1.963775634765625</v>
+        <v>1.962728381156921</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4769836664199829</v>
+        <v>-0.4765464067459106</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.174367785453796</v>
+        <v>1.17377245426178</v>
       </c>
       <c r="C129" t="n">
-        <v>1.794099807739258</v>
+        <v>1.793085694313049</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6197320222854614</v>
+        <v>-0.6193132400512695</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8114176392555237</v>
+        <v>0.8108392953872681</v>
       </c>
       <c r="C130" t="n">
-        <v>2.960546255111694</v>
+        <v>2.959303617477417</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.149128675460815</v>
+        <v>-2.148464202880859</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3954240679740906</v>
+        <v>0.3948652446269989</v>
       </c>
       <c r="C131" t="n">
-        <v>2.189874649047852</v>
+        <v>2.188783407211304</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.794450521469116</v>
+        <v>-1.793918132781982</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05450903624296188</v>
+        <v>-0.05504674836993217</v>
       </c>
       <c r="C132" t="n">
-        <v>1.845795512199402</v>
+        <v>1.844771385192871</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.900304555892944</v>
+        <v>-1.899818181991577</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09617285430431366</v>
+        <v>0.09562807530164719</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8275485038757324</v>
+        <v>0.8267236948013306</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7313756346702576</v>
+        <v>-0.7310956120491028</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.158454030752182</v>
+        <v>0.1579063236713409</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1782944351434708</v>
+        <v>0.1775967180728912</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01984040439128876</v>
+        <v>-0.01969039440155029</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3832839727401733</v>
+        <v>0.382725715637207</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3670578300952911</v>
+        <v>0.3663231432437897</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0162261426448822</v>
+        <v>0.01640257239341736</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7333561182022095</v>
+        <v>0.7327814102172852</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2095884829759598</v>
+        <v>0.2088846415281296</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5237676501274109</v>
+        <v>0.5238967537879944</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6040960550308228</v>
+        <v>0.6035274267196655</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5172025561332703</v>
+        <v>0.5164385437965393</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08689349889755249</v>
+        <v>0.08708888292312622</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8456766605377197</v>
+        <v>0.8450967073440552</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9859464168548584</v>
+        <v>0.9850905537605286</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1402697563171387</v>
+        <v>-0.1399938464164734</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.305626511573792</v>
+        <v>1.305024981498718</v>
       </c>
       <c r="C139" t="n">
-        <v>1.050045371055603</v>
+        <v>1.049176931381226</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2555811405181885</v>
+        <v>0.2558480501174927</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.262435555458069</v>
+        <v>1.261836051940918</v>
       </c>
       <c r="C140" t="n">
-        <v>1.29024064540863</v>
+        <v>1.289325356483459</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02780508995056152</v>
+        <v>-0.0274893045425415</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.492862582206726</v>
+        <v>1.492252230644226</v>
       </c>
       <c r="C141" t="n">
-        <v>1.244330048561096</v>
+        <v>1.243423581123352</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2485325336456299</v>
+        <v>0.248828649520874</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.405845999717712</v>
+        <v>1.405239701271057</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2030602246522903</v>
+        <v>0.2023576498031616</v>
       </c>
       <c r="D142" t="n">
-        <v>1.202785730361938</v>
+        <v>1.202882051467896</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.765837788581848</v>
+        <v>1.765214681625366</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2912687361240387</v>
+        <v>0.2905488908290863</v>
       </c>
       <c r="D143" t="n">
-        <v>1.474569082260132</v>
+        <v>1.474665760993958</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.605620980262756</v>
+        <v>1.605005383491516</v>
       </c>
       <c r="C144" t="n">
-        <v>1.299712538719177</v>
+        <v>1.298795342445374</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3059084415435791</v>
+        <v>0.3062100410461426</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.712841987609863</v>
+        <v>1.712221264839172</v>
       </c>
       <c r="C145" t="n">
-        <v>1.489978194236755</v>
+        <v>1.489023804664612</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2228637933731079</v>
+        <v>0.2231974601745605</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.154398918151855</v>
+        <v>1.153804421424866</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9141892790794373</v>
+        <v>0.9133474826812744</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2402096390724182</v>
+        <v>0.2404569387435913</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7298920750617981</v>
+        <v>0.7293175458908081</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8625136613845825</v>
+        <v>0.8616820573806763</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1326215863227844</v>
+        <v>-0.1323645114898682</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2902046144008636</v>
+        <v>0.2896507382392883</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2173004597425461</v>
+        <v>-0.2179207503795624</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5075050592422485</v>
+        <v>0.5075714588165283</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6847453713417053</v>
+        <v>0.6841729879379272</v>
       </c>
       <c r="C149" t="n">
-        <v>1.582525372505188</v>
+        <v>1.581552863121033</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8977800011634827</v>
+        <v>-0.8973798751831055</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.040662407875061</v>
+        <v>1.040073275566101</v>
       </c>
       <c r="C150" t="n">
-        <v>2.481481075286865</v>
+        <v>2.480332136154175</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.440818667411804</v>
+        <v>-1.440258860588074</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.33004105091095</v>
+        <v>1.329438328742981</v>
       </c>
       <c r="C151" t="n">
-        <v>1.301891922950745</v>
+        <v>1.300974249839783</v>
       </c>
       <c r="D151" t="n">
-        <v>0.02814912796020508</v>
+        <v>0.02846407890319824</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.363776206970215</v>
+        <v>1.363171935081482</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3041305840015411</v>
+        <v>0.3034082353115082</v>
       </c>
       <c r="D152" t="n">
-        <v>1.059645652770996</v>
+        <v>1.059763669967651</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.111434936523438</v>
+        <v>2.110795736312866</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1998255997896194</v>
+        <v>0.1991236656904221</v>
       </c>
       <c r="D153" t="n">
-        <v>1.911609292030334</v>
+        <v>1.911672115325928</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.998346328735352</v>
+        <v>1.997712254524231</v>
       </c>
       <c r="C154" t="n">
-        <v>0.470000833272934</v>
+        <v>0.4692460298538208</v>
       </c>
       <c r="D154" t="n">
-        <v>1.528345465660095</v>
+        <v>1.52846622467041</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.863427639007568</v>
+        <v>1.862800002098083</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7792726159095764</v>
+        <v>0.7784572839736938</v>
       </c>
       <c r="D155" t="n">
-        <v>1.084155082702637</v>
+        <v>1.08434271812439</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.610812783241272</v>
+        <v>1.610196828842163</v>
       </c>
       <c r="C156" t="n">
-        <v>1.377295851707458</v>
+        <v>1.376363277435303</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2335169315338135</v>
+        <v>0.2338335514068604</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.91408360004425</v>
+        <v>1.913453578948975</v>
       </c>
       <c r="C157" t="n">
-        <v>1.754767060279846</v>
+        <v>1.753760814666748</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1593165397644043</v>
+        <v>0.1596927642822266</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.530831813812256</v>
+        <v>1.530219674110413</v>
       </c>
       <c r="C158" t="n">
-        <v>1.48177695274353</v>
+        <v>1.480824112892151</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04905486106872559</v>
+        <v>0.04939556121826172</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.365528702735901</v>
+        <v>1.364924311637878</v>
       </c>
       <c r="C159" t="n">
-        <v>1.651339411735535</v>
+        <v>1.650353312492371</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2858107089996338</v>
+        <v>-0.2854290008544922</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.67488431930542</v>
+        <v>1.674265503883362</v>
       </c>
       <c r="C160" t="n">
-        <v>1.737151384353638</v>
+        <v>1.736148476600647</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.06226706504821777</v>
+        <v>-0.06188297271728516</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.343827128410339</v>
+        <v>1.343223810195923</v>
       </c>
       <c r="C161" t="n">
-        <v>1.689969420433044</v>
+        <v>1.688975811004639</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3461422920227051</v>
+        <v>-0.3457520008087158</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5814929008483887</v>
+        <v>0.5809253454208374</v>
       </c>
       <c r="C162" t="n">
-        <v>1.811014175415039</v>
+        <v>1.809996843338013</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.22952127456665</v>
+        <v>-1.229071497917175</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3757396936416626</v>
+        <v>0.3751817643642426</v>
       </c>
       <c r="C163" t="n">
-        <v>1.295098662376404</v>
+        <v>1.294182300567627</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9193589687347412</v>
+        <v>-0.919000506401062</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6737677454948425</v>
+        <v>0.6731958985328674</v>
       </c>
       <c r="C164" t="n">
-        <v>1.455138564109802</v>
+        <v>1.454190850257874</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7813708186149597</v>
+        <v>-0.7809949517250061</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8621321320533752</v>
+        <v>0.8615514039993286</v>
       </c>
       <c r="C165" t="n">
-        <v>1.122675538063049</v>
+        <v>1.121793031692505</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2605434060096741</v>
+        <v>-0.2602416276931763</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.001691102981567</v>
+        <v>1.001103758811951</v>
       </c>
       <c r="C166" t="n">
-        <v>1.254690885543823</v>
+        <v>1.253782629966736</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2529997825622559</v>
+        <v>-0.2526788711547852</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.624851107597351</v>
+        <v>1.624234557151794</v>
       </c>
       <c r="C167" t="n">
-        <v>1.616375803947449</v>
+        <v>1.615396618843079</v>
       </c>
       <c r="D167" t="n">
-        <v>0.008475303649902344</v>
+        <v>0.00883793830871582</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.953990817070007</v>
+        <v>1.953358888626099</v>
       </c>
       <c r="C168" t="n">
-        <v>1.892655491828918</v>
+        <v>1.891622185707092</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06133532524108887</v>
+        <v>0.06173670291900635</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.180233478546143</v>
+        <v>1.179637789726257</v>
       </c>
       <c r="C169" t="n">
-        <v>1.582915306091309</v>
+        <v>1.581942677497864</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.402681827545166</v>
+        <v>-0.4023048877716064</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.985975980758667</v>
+        <v>0.9853894114494324</v>
       </c>
       <c r="C170" t="n">
-        <v>1.296777367591858</v>
+        <v>1.295860767364502</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3108013868331909</v>
+        <v>-0.3104713559150696</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9089769721031189</v>
+        <v>0.9083940386772156</v>
       </c>
       <c r="C171" t="n">
-        <v>1.048601984977722</v>
+        <v>1.047733902931213</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1396250128746033</v>
+        <v>-0.1393398642539978</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.025255441665649</v>
+        <v>1.024667024612427</v>
       </c>
       <c r="C172" t="n">
-        <v>1.892189025878906</v>
+        <v>1.891155958175659</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8669335842132568</v>
+        <v>-0.8664889335632324</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.225656628608704</v>
+        <v>1.225058794021606</v>
       </c>
       <c r="C173" t="n">
-        <v>1.684344172477722</v>
+        <v>1.683351755142212</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4586875438690186</v>
+        <v>-0.4582929611206055</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.65763521194458</v>
+        <v>1.657017111778259</v>
       </c>
       <c r="C174" t="n">
-        <v>1.882526159286499</v>
+        <v>1.881494760513306</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2248909473419189</v>
+        <v>-0.2244776487350464</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.471855163574219</v>
+        <v>1.471245884895325</v>
       </c>
       <c r="C175" t="n">
-        <v>1.92289662361145</v>
+        <v>1.921857476234436</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4510414600372314</v>
+        <v>-0.4506115913391113</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.094430923461914</v>
+        <v>1.093839287757874</v>
       </c>
       <c r="C176" t="n">
-        <v>1.957979917526245</v>
+        <v>1.956933975219727</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8635489940643311</v>
+        <v>-0.863094687461853</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.1062091588974</v>
+        <v>1.105616927146912</v>
       </c>
       <c r="C177" t="n">
-        <v>2.084469556808472</v>
+        <v>2.083398818969727</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9782603979110718</v>
+        <v>-0.9777818918228149</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.336541771888733</v>
+        <v>1.335938811302185</v>
       </c>
       <c r="C178" t="n">
-        <v>1.990023136138916</v>
+        <v>1.988970756530762</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6534813642501831</v>
+        <v>-0.6530319452285767</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.897720217704773</v>
+        <v>1.897090911865234</v>
       </c>
       <c r="C179" t="n">
-        <v>1.463365435600281</v>
+        <v>1.462416172027588</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4343547821044922</v>
+        <v>0.4346747398376465</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.87193238735199</v>
+        <v>1.871304273605347</v>
       </c>
       <c r="C180" t="n">
-        <v>1.521076321601868</v>
+        <v>1.520115613937378</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3508560657501221</v>
+        <v>0.3511886596679688</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.435919046401978</v>
+        <v>1.435311317443848</v>
       </c>
       <c r="C181" t="n">
-        <v>1.845590353012085</v>
+        <v>1.844566226005554</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4096713066101074</v>
+        <v>-0.4092549085617065</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4894032180309296</v>
+        <v>0.4888399839401245</v>
       </c>
       <c r="C182" t="n">
-        <v>1.234257817268372</v>
+        <v>1.23335337638855</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7448545694351196</v>
+        <v>-0.7445133924484253</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8864039182662964</v>
+        <v>0.885822057723999</v>
       </c>
       <c r="C183" t="n">
-        <v>1.511159539222717</v>
+        <v>1.51020085811615</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6247556209564209</v>
+        <v>-0.6243788003921509</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.558508992195129</v>
+        <v>1.557895660400391</v>
       </c>
       <c r="C184" t="n">
-        <v>1.790115356445312</v>
+        <v>1.78910219669342</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2316063642501831</v>
+        <v>-0.2312065362930298</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.93919837474823</v>
+        <v>1.938567042350769</v>
       </c>
       <c r="C185" t="n">
-        <v>1.690579414367676</v>
+        <v>1.689585566520691</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2486189603805542</v>
+        <v>0.2489814758300781</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.967720866203308</v>
+        <v>1.967088222503662</v>
       </c>
       <c r="C186" t="n">
-        <v>1.63810920715332</v>
+        <v>1.637125730514526</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3296116590499878</v>
+        <v>0.3299624919891357</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.067073106765747</v>
+        <v>2.066435813903809</v>
       </c>
       <c r="C187" t="n">
-        <v>1.491958498954773</v>
+        <v>1.491003632545471</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5751146078109741</v>
+        <v>0.5754321813583374</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.352643251419067</v>
+        <v>2.35199236869812</v>
       </c>
       <c r="C188" t="n">
-        <v>1.529211163520813</v>
+        <v>1.528249144554138</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8234320878982544</v>
+        <v>0.8237432241439819</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.903293132781982</v>
+        <v>2.902616262435913</v>
       </c>
       <c r="C189" t="n">
-        <v>1.692597985267639</v>
+        <v>1.691603779792786</v>
       </c>
       <c r="D189" t="n">
-        <v>1.210695147514343</v>
+        <v>1.211012482643127</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.117723703384399</v>
+        <v>3.117037296295166</v>
       </c>
       <c r="C190" t="n">
-        <v>1.293179869651794</v>
+        <v>1.292263865470886</v>
       </c>
       <c r="D190" t="n">
-        <v>1.824543833732605</v>
+        <v>1.82477343082428</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.102710962295532</v>
+        <v>3.102025508880615</v>
       </c>
       <c r="C191" t="n">
-        <v>1.584846258163452</v>
+        <v>1.583873152732849</v>
       </c>
       <c r="D191" t="n">
-        <v>1.51786470413208</v>
+        <v>1.518152356147766</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.856340646743774</v>
+        <v>2.855666399002075</v>
       </c>
       <c r="C192" t="n">
-        <v>1.895291686058044</v>
+        <v>1.894257783889771</v>
       </c>
       <c r="D192" t="n">
-        <v>0.96104896068573</v>
+        <v>0.9614086151123047</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.930464029312134</v>
+        <v>2.929785966873169</v>
       </c>
       <c r="C193" t="n">
-        <v>2.972558259963989</v>
+        <v>2.9713134765625</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.04209423065185547</v>
+        <v>-0.04152750968933105</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838677167892456</v>
+        <v>2.838003873825073</v>
       </c>
       <c r="C194" t="n">
-        <v>3.553536653518677</v>
+        <v>3.552178382873535</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7148594856262207</v>
+        <v>-0.7141745090484619</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.281311750411987</v>
+        <v>2.280664443969727</v>
       </c>
       <c r="C195" t="n">
-        <v>3.325916767120361</v>
+        <v>3.324603080749512</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.044605016708374</v>
+        <v>-1.043938636779785</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108948707580566</v>
+        <v>3.108262777328491</v>
       </c>
       <c r="C196" t="n">
-        <v>3.75388503074646</v>
+        <v>3.752487421035767</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6449363231658936</v>
+        <v>-0.6442246437072754</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.903299808502197</v>
+        <v>2.902623653411865</v>
       </c>
       <c r="C197" t="n">
-        <v>3.541658878326416</v>
+        <v>3.540302991867065</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6383590698242188</v>
+        <v>-0.6376793384552002</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.016452550888062</v>
+        <v>2.015817642211914</v>
       </c>
       <c r="C198" t="n">
-        <v>3.205284357070923</v>
+        <v>3.203994274139404</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.188831806182861</v>
+        <v>-1.18817663192749</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.057510733604431</v>
+        <v>1.056920886039734</v>
       </c>
       <c r="C199" t="n">
-        <v>2.62548041343689</v>
+        <v>2.624303817749023</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.567969679832458</v>
+        <v>-1.56738293170929</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4232008159160614</v>
+        <v>0.4226407110691071</v>
       </c>
       <c r="C200" t="n">
-        <v>2.893039226531982</v>
+        <v>2.891810178756714</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.469838380813599</v>
+        <v>-2.46916937828064</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.445346236228943</v>
+        <v>1.444738149642944</v>
       </c>
       <c r="C201" t="n">
-        <v>2.649273872375488</v>
+        <v>2.648092746734619</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.203927636146545</v>
+        <v>-1.203354597091675</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.066214919090271</v>
+        <v>1.065624594688416</v>
       </c>
       <c r="C202" t="n">
-        <v>2.75439190864563</v>
+        <v>2.753190040588379</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.688176989555359</v>
+        <v>-1.687565445899963</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.094853043556213</v>
+        <v>1.094261407852173</v>
       </c>
       <c r="C203" t="n">
-        <v>2.500434875488281</v>
+        <v>2.499282598495483</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.405581831932068</v>
+        <v>-1.405021190643311</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.302353739738464</v>
+        <v>1.301752328872681</v>
       </c>
       <c r="C204" t="n">
-        <v>2.132128715515137</v>
+        <v>2.131048679351807</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8297749757766724</v>
+        <v>-0.829296350479126</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.287571549415588</v>
+        <v>1.286970853805542</v>
       </c>
       <c r="C205" t="n">
-        <v>1.83898663520813</v>
+        <v>1.837963938713074</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5514150857925415</v>
+        <v>-0.5509930849075317</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.048491954803467</v>
+        <v>1.047902584075928</v>
       </c>
       <c r="C206" t="n">
-        <v>1.104442477226257</v>
+        <v>1.103563547134399</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05595052242279053</v>
+        <v>-0.05566096305847168</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.205655813217163</v>
+        <v>1.205059051513672</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9617305397987366</v>
+        <v>0.9608794450759888</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2439252734184265</v>
+        <v>0.2441796064376831</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.474694609642029</v>
+        <v>1.474085092544556</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7662640810012817</v>
+        <v>0.7654513120651245</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7084305286407471</v>
+        <v>0.7086337804794312</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.515046238899231</v>
+        <v>1.514434933662415</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5828959941864014</v>
+        <v>0.5821190476417542</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9321502447128296</v>
+        <v>0.9323158860206604</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.866903066635132</v>
+        <v>1.866275191307068</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6846382021903992</v>
+        <v>0.6838414072990417</v>
       </c>
       <c r="D210" t="n">
-        <v>1.182264804840088</v>
+        <v>1.182433843612671</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.614343404769897</v>
+        <v>1.613727331161499</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8495715856552124</v>
+        <v>0.8487424850463867</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7647718191146851</v>
+        <v>0.7649848461151123</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.067162036895752</v>
+        <v>2.066524744033813</v>
       </c>
       <c r="C212" t="n">
-        <v>1.135598540306091</v>
+        <v>1.134713530540466</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9315634965896606</v>
+        <v>0.9318112134933472</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.153470754623413</v>
+        <v>2.152829170227051</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5296980142593384</v>
+        <v>0.5289314985275269</v>
       </c>
       <c r="D213" t="n">
-        <v>1.623772740364075</v>
+        <v>1.623897671699524</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.912498116493225</v>
+        <v>1.911868095397949</v>
       </c>
       <c r="C214" t="n">
-        <v>1.037574529647827</v>
+        <v>1.03670871257782</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8749235868453979</v>
+        <v>0.8751593828201294</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.051900386810303</v>
+        <v>2.051264047622681</v>
       </c>
       <c r="C215" t="n">
-        <v>1.190888524055481</v>
+        <v>1.189992547035217</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8610118627548218</v>
+        <v>0.8612715005874634</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.925370573997498</v>
+        <v>1.924739837646484</v>
       </c>
       <c r="C216" t="n">
-        <v>1.42354679107666</v>
+        <v>1.422605276107788</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5018237829208374</v>
+        <v>0.5021345615386963</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.005180358886719</v>
+        <v>1.004592895507812</v>
       </c>
       <c r="C217" t="n">
-        <v>1.224560976028442</v>
+        <v>1.223658323287964</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2193806171417236</v>
+        <v>-0.2190654277801514</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7138968706130981</v>
+        <v>0.7133230566978455</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5212507843971252</v>
+        <v>0.5204859375953674</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1926460862159729</v>
+        <v>0.192837119102478</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.495311141014099</v>
+        <v>1.49470067024231</v>
       </c>
       <c r="C219" t="n">
-        <v>0.508301854133606</v>
+        <v>0.5075395703315735</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9870092868804932</v>
+        <v>0.9871610999107361</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.357002973556519</v>
+        <v>1.356399059295654</v>
       </c>
       <c r="C220" t="n">
-        <v>1.221238970756531</v>
+        <v>1.220337152481079</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1357640027999878</v>
+        <v>0.1360619068145752</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.493810772895813</v>
+        <v>1.493200421333313</v>
       </c>
       <c r="C221" t="n">
-        <v>1.437151551246643</v>
+        <v>1.436207413673401</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05665922164916992</v>
+        <v>0.05699300765991211</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.290079236030579</v>
+        <v>1.289478421211243</v>
       </c>
       <c r="C222" t="n">
-        <v>1.015460848808289</v>
+        <v>1.014599204063416</v>
       </c>
       <c r="D222" t="n">
-        <v>0.27461838722229</v>
+        <v>0.2748792171478271</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9342048764228821</v>
+        <v>0.9336207509040833</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7421184182167053</v>
+        <v>0.7413103580474854</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1920864582061768</v>
+        <v>0.1923103928565979</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.094622731208801</v>
+        <v>1.094031095504761</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4359323680400848</v>
+        <v>0.4351842105388641</v>
       </c>
       <c r="D224" t="n">
-        <v>0.658690333366394</v>
+        <v>0.6588468551635742</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.491358041763306</v>
+        <v>1.490747809410095</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5856985449790955</v>
+        <v>0.58492112159729</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9056594967842102</v>
+        <v>0.9058266878128052</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.846606016159058</v>
+        <v>1.84597909450531</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08698788285255432</v>
+        <v>0.08630803227424622</v>
       </c>
       <c r="D226" t="n">
-        <v>1.759618163108826</v>
+        <v>1.759671092033386</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.657171249389648</v>
+        <v>1.656553268432617</v>
       </c>
       <c r="C227" t="n">
-        <v>0.5017304420471191</v>
+        <v>0.500969409942627</v>
       </c>
       <c r="D227" t="n">
-        <v>1.155440807342529</v>
+        <v>1.15558385848999</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.093820095062256</v>
+        <v>2.093181848526001</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9071584939956665</v>
+        <v>0.9063180685043335</v>
       </c>
       <c r="D228" t="n">
-        <v>1.186661601066589</v>
+        <v>1.186863780021667</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.995211005210876</v>
+        <v>1.994577169418335</v>
       </c>
       <c r="C229" t="n">
-        <v>1.227749943733215</v>
+        <v>1.226846814155579</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7674610614776611</v>
+        <v>0.7677303552627563</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.986888408660889</v>
+        <v>1.986254811286926</v>
       </c>
       <c r="C230" t="n">
-        <v>1.765686273574829</v>
+        <v>1.764677762985229</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2212021350860596</v>
+        <v>0.2215770483016968</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.684256076812744</v>
+        <v>1.683636784553528</v>
       </c>
       <c r="C231" t="n">
-        <v>1.817692995071411</v>
+        <v>1.8166743516922</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.133436918258667</v>
+        <v>-0.1330375671386719</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.704137682914734</v>
+        <v>1.703517317771912</v>
       </c>
       <c r="C232" t="n">
-        <v>1.590619087219238</v>
+        <v>1.58964478969574</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1135185956954956</v>
+        <v>0.1138725280761719</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.20395302772522</v>
+        <v>2.203309059143066</v>
       </c>
       <c r="C233" t="n">
-        <v>1.629353046417236</v>
+        <v>1.628371477127075</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5745999813079834</v>
+        <v>0.5749375820159912</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.67762303352356</v>
+        <v>2.67695689201355</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9568497538566589</v>
+        <v>0.9559996724128723</v>
       </c>
       <c r="D234" t="n">
-        <v>1.720773220062256</v>
+        <v>1.720957279205322</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.319355487823486</v>
+        <v>2.318706512451172</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3115403652191162</v>
+        <v>0.3108165562152863</v>
       </c>
       <c r="D235" t="n">
-        <v>2.00781512260437</v>
+        <v>2.007889986038208</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.137007713317871</v>
+        <v>2.136367082595825</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3563185632228851</v>
+        <v>0.3555859923362732</v>
       </c>
       <c r="D236" t="n">
-        <v>1.780689120292664</v>
+        <v>1.780781030654907</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.67003870010376</v>
+        <v>2.669373035430908</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6166046857833862</v>
+        <v>-0.6171468496322632</v>
       </c>
       <c r="D237" t="n">
-        <v>3.286643505096436</v>
+        <v>3.286520004272461</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.244259357452393</v>
+        <v>2.243613481521606</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161298394203186</v>
+        <v>-1.161733984947205</v>
       </c>
       <c r="D238" t="n">
-        <v>3.405557632446289</v>
+        <v>3.405347347259521</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.598155736923218</v>
+        <v>2.597493648529053</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.502413988113403</v>
+        <v>-1.502782583236694</v>
       </c>
       <c r="D239" t="n">
-        <v>4.100569725036621</v>
+        <v>4.100275993347168</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.773595571517944</v>
+        <v>2.772924900054932</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8822583556175232</v>
+        <v>-0.8827484846115112</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655853986740112</v>
+        <v>3.655673503875732</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.303324937820435</v>
+        <v>2.302676677703857</v>
       </c>
       <c r="C241" t="n">
-        <v>1.320863485336304</v>
+        <v>1.319942235946655</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9824614524841309</v>
+        <v>0.9827344417572021</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.629098892211914</v>
+        <v>2.628434896469116</v>
       </c>
       <c r="C242" t="n">
-        <v>2.367873430252075</v>
+        <v>2.366747379302979</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2612254619598389</v>
+        <v>0.2616875171661377</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.02314305305481</v>
+        <v>2.022507667541504</v>
       </c>
       <c r="C243" t="n">
-        <v>2.63306999206543</v>
+        <v>2.631891965866089</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6099269390106201</v>
+        <v>-0.609384298324585</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.210482835769653</v>
+        <v>2.2098388671875</v>
       </c>
       <c r="C244" t="n">
-        <v>2.524940967559814</v>
+        <v>2.523783922195435</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3144581317901611</v>
+        <v>-0.3139450550079346</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.268315553665161</v>
+        <v>2.267668962478638</v>
       </c>
       <c r="C245" t="n">
-        <v>2.602961540222168</v>
+        <v>2.601788997650146</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3346459865570068</v>
+        <v>-0.3341200351715088</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.322450637817383</v>
+        <v>2.321801424026489</v>
       </c>
       <c r="C246" t="n">
-        <v>1.552429676055908</v>
+        <v>1.551462888717651</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7700209617614746</v>
+        <v>0.7703385353088379</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.2098388671875</v>
+        <v>2.209194660186768</v>
       </c>
       <c r="C247" t="n">
-        <v>1.180452823638916</v>
+        <v>1.179558873176575</v>
       </c>
       <c r="D247" t="n">
-        <v>1.029386043548584</v>
+        <v>1.029635787010193</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.038223028182983</v>
+        <v>2.03758692741394</v>
       </c>
       <c r="C248" t="n">
-        <v>1.611676931381226</v>
+        <v>1.610698580741882</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4265460968017578</v>
+        <v>0.4268883466720581</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.544026136398315</v>
+        <v>1.543413400650024</v>
       </c>
       <c r="C249" t="n">
-        <v>2.01986026763916</v>
+        <v>2.018801927566528</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4758341312408447</v>
+        <v>-0.4753885269165039</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.266116857528687</v>
+        <v>1.265517115592957</v>
       </c>
       <c r="C250" t="n">
-        <v>1.565509080886841</v>
+        <v>1.564539909362793</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2993922233581543</v>
+        <v>-0.2990227937698364</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.777684450149536</v>
+        <v>1.777060747146606</v>
       </c>
       <c r="C251" t="n">
-        <v>1.390304684638977</v>
+        <v>1.38936972618103</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3873797655105591</v>
+        <v>0.3876910209655762</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.546151995658875</v>
+        <v>1.545539140701294</v>
       </c>
       <c r="C252" t="n">
-        <v>1.240602135658264</v>
+        <v>1.239696502685547</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3055498600006104</v>
+        <v>0.3058426380157471</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.406376838684082</v>
+        <v>1.405770540237427</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9487706422805786</v>
+        <v>0.9479221701622009</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4576061964035034</v>
+        <v>0.4578483700752258</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5303286910057068</v>
+        <v>0.5297635197639465</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04474671557545662</v>
+        <v>-0.04540077596902847</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5750753879547119</v>
+        <v>0.5751643180847168</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7616637945175171</v>
+        <v>0.7610877752304077</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3299684524536133</v>
+        <v>0.3292410671710968</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4316953420639038</v>
+        <v>0.4318467080593109</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.204380631446838</v>
+        <v>1.203783869743347</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9563325643539429</v>
+        <v>0.9554826617240906</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2480480670928955</v>
+        <v>0.2483012080192566</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.183765411376953</v>
+        <v>1.183169603347778</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5325832962989807</v>
+        <v>0.5318161845207214</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6511821150779724</v>
+        <v>0.6513534188270569</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6796258091926575</v>
+        <v>0.6790536642074585</v>
       </c>
       <c r="C258" t="n">
-        <v>1.306706666946411</v>
+        <v>1.305788159370422</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6270808577537537</v>
+        <v>-0.6267344951629639</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8837572932243347</v>
+        <v>0.8831755518913269</v>
       </c>
       <c r="C259" t="n">
-        <v>1.841954350471497</v>
+        <v>1.840931057929993</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9581970572471619</v>
+        <v>-0.9577555060386658</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.171929001808167</v>
+        <v>1.17133367061615</v>
       </c>
       <c r="C260" t="n">
-        <v>2.291438341140747</v>
+        <v>2.290326833724976</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.119509339332581</v>
+        <v>-1.118993163108826</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.299009919166565</v>
+        <v>1.298408627510071</v>
       </c>
       <c r="C261" t="n">
-        <v>1.933979272842407</v>
+        <v>1.932937979698181</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6349693536758423</v>
+        <v>-0.6345293521881104</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.509768843650818</v>
+        <v>1.509157776832581</v>
       </c>
       <c r="C262" t="n">
-        <v>1.45940887928009</v>
+        <v>1.458460330963135</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05035996437072754</v>
+        <v>0.0506974458694458</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.190154433250427</v>
+        <v>1.189558267593384</v>
       </c>
       <c r="C263" t="n">
-        <v>2.219554662704468</v>
+        <v>2.218457460403442</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.029400229454041</v>
+        <v>-1.028899192810059</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.168309926986694</v>
+        <v>1.167714834213257</v>
       </c>
       <c r="C264" t="n">
-        <v>1.783511161804199</v>
+        <v>1.782499194145203</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6152012348175049</v>
+        <v>-0.6147843599319458</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.330520391464233</v>
+        <v>1.329917669296265</v>
       </c>
       <c r="C265" t="n">
-        <v>1.77235221862793</v>
+        <v>1.771342635154724</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4418318271636963</v>
+        <v>-0.4414249658584595</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.685266017913818</v>
+        <v>1.684646725654602</v>
       </c>
       <c r="C266" t="n">
-        <v>2.339123964309692</v>
+        <v>2.338003396987915</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.653857946395874</v>
+        <v>-0.653356671333313</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,27 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9176612496376038</v>
+        <v>0.917077898979187</v>
       </c>
       <c r="C267" t="n">
-        <v>1.730295300483704</v>
+        <v>1.729293704032898</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8126340508460999</v>
+        <v>-0.8122158050537109</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.090301275253296</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.337613344192505</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-0.247312068939209</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8147469758987427</v>
+        <v>0.8140987753868103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8032903671264648</v>
+        <v>0.8017190098762512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01145660877227783</v>
+        <v>0.01237976551055908</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8414542675018311</v>
+        <v>0.8408037424087524</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2527232468128204</v>
+        <v>-0.2535226941108704</v>
       </c>
       <c r="D3" t="n">
-        <v>1.094177484512329</v>
+        <v>1.094326496124268</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9177272319793701</v>
+        <v>0.9170699715614319</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7638940215110779</v>
+        <v>-0.7643197774887085</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681621313095093</v>
+        <v>1.681389808654785</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4932178258895874</v>
+        <v>0.492597907781601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09817204624414444</v>
+        <v>0.09711609035730362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3950457870960236</v>
+        <v>0.3954818248748779</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.71836256980896</v>
+        <v>0.7177228331565857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02670172788202763</v>
+        <v>0.02569802105426788</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6916608214378357</v>
+        <v>0.692024827003479</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08268123865127563</v>
+        <v>0.08209744840860367</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1374305784702301</v>
+        <v>-0.1383143067359924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2201118171215057</v>
+        <v>0.2204117476940155</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6735914945602417</v>
+        <v>0.6729557514190674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4626091420650482</v>
+        <v>0.4612867832183838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2109823524951935</v>
+        <v>0.2116689682006836</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.042566418647766</v>
+        <v>1.041898131370544</v>
       </c>
       <c r="C9" t="n">
-        <v>1.182293057441711</v>
+        <v>1.180444717407227</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1397266387939453</v>
+        <v>-0.1385465860366821</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.415819644927979</v>
+        <v>1.415118455886841</v>
       </c>
       <c r="C10" t="n">
-        <v>1.146986365318298</v>
+        <v>1.145163774490356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2688332796096802</v>
+        <v>0.2699546813964844</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9761177897453308</v>
+        <v>0.9754554033279419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98482346534729</v>
+        <v>0.9831194281578064</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008705675601959229</v>
+        <v>-0.007664024829864502</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.058785438537598</v>
+        <v>1.058115720748901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8228658437728882</v>
+        <v>0.8212801218032837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2359195947647095</v>
+        <v>0.2368355989456177</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7403199076652527</v>
+        <v>0.7396782636642456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3305321335792542</v>
+        <v>0.3293063342571259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4097877740859985</v>
+        <v>0.4103719294071198</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2472457587718964</v>
+        <v>0.2466474920511246</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04142153263092041</v>
+        <v>-0.04237544164061546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2886672914028168</v>
+        <v>0.2890229225158691</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5124148726463318</v>
+        <v>0.5117932558059692</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3819326460361481</v>
+        <v>-0.3826376497745514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8943475484848022</v>
+        <v>0.8944308757781982</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.18582022190094</v>
+        <v>1.185139298439026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2570012509822845</v>
+        <v>0.2558291852474213</v>
       </c>
       <c r="D16" t="n">
-        <v>0.928818941116333</v>
+        <v>0.9293100833892822</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.024629354476929</v>
+        <v>1.023962736129761</v>
       </c>
       <c r="C17" t="n">
-        <v>1.071285843849182</v>
+        <v>1.069518566131592</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04665648937225342</v>
+        <v>-0.04555583000183105</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.104778170585632</v>
+        <v>1.104104399681091</v>
       </c>
       <c r="C18" t="n">
-        <v>1.870873689651489</v>
+        <v>1.868521928787231</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7660955190658569</v>
+        <v>-0.7644175291061401</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.036064982414246</v>
+        <v>1.035397291183472</v>
       </c>
       <c r="C19" t="n">
-        <v>1.196228623390198</v>
+        <v>1.194370031356812</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1601636409759521</v>
+        <v>-0.1589727401733398</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4167152643203735</v>
+        <v>0.4161020815372467</v>
       </c>
       <c r="C20" t="n">
-        <v>2.022918462753296</v>
+        <v>2.020455598831177</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.606203198432922</v>
+        <v>-1.604353547096252</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7251212000846863</v>
+        <v>0.7244808673858643</v>
       </c>
       <c r="C21" t="n">
-        <v>1.396758913993835</v>
+        <v>1.394753813743591</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6716377139091492</v>
+        <v>-0.6702729463577271</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7132800817489624</v>
+        <v>0.7126407623291016</v>
       </c>
       <c r="C22" t="n">
-        <v>1.514654874801636</v>
+        <v>1.512563467025757</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8013747930526733</v>
+        <v>-0.7999227046966553</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3992429375648499</v>
+        <v>0.3986313045024872</v>
       </c>
       <c r="C23" t="n">
-        <v>1.339845418930054</v>
+        <v>1.337881803512573</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9406024813652039</v>
+        <v>-0.9392504692077637</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6781494617462158</v>
+        <v>0.6775132417678833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8583816885948181</v>
+        <v>0.8567699790000916</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1802322268486023</v>
+        <v>-0.1792567372322083</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.106481432914734</v>
+        <v>1.105807542800903</v>
       </c>
       <c r="C25" t="n">
-        <v>1.021517872810364</v>
+        <v>1.019786834716797</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08496356010437012</v>
+        <v>0.08602070808410645</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8979491591453552</v>
+        <v>0.8972936272621155</v>
       </c>
       <c r="C26" t="n">
-        <v>1.545536160469055</v>
+        <v>1.543422222137451</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6475870013237</v>
+        <v>-0.6461285948753357</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.146457076072693</v>
+        <v>1.145779728889465</v>
       </c>
       <c r="C27" t="n">
-        <v>0.749467670917511</v>
+        <v>0.7479355931282043</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3969894051551819</v>
+        <v>0.397844135761261</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.178297638893127</v>
+        <v>1.17761754989624</v>
       </c>
       <c r="C28" t="n">
-        <v>1.999766111373901</v>
+        <v>1.997320175170898</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8214684724807739</v>
+        <v>-0.8197026252746582</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9137868285179138</v>
+        <v>0.9131298661231995</v>
       </c>
       <c r="C29" t="n">
-        <v>1.852150678634644</v>
+        <v>1.849812507629395</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9383638501167297</v>
+        <v>-0.9366826415061951</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4949078559875488</v>
+        <v>0.4942877888679504</v>
       </c>
       <c r="C30" t="n">
-        <v>1.623968243598938</v>
+        <v>1.62179696559906</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.129060387611389</v>
+        <v>-1.127509117126465</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7608212232589722</v>
+        <v>0.7601777911186218</v>
       </c>
       <c r="C31" t="n">
-        <v>1.244557619094849</v>
+        <v>1.242663741111755</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4837363958358765</v>
+        <v>-0.4824859499931335</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8596038222312927</v>
+        <v>0.8589516878128052</v>
       </c>
       <c r="C32" t="n">
-        <v>1.405803561210632</v>
+        <v>1.403791904449463</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5461997389793396</v>
+        <v>-0.5448402166366577</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7023083567619324</v>
+        <v>0.7016700506210327</v>
       </c>
       <c r="C33" t="n">
-        <v>1.340053200721741</v>
+        <v>1.338089466094971</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6377448439598083</v>
+        <v>-0.636419415473938</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.007222890853882</v>
+        <v>2.0064697265625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5404685735702515</v>
+        <v>0.5390893220901489</v>
       </c>
       <c r="D34" t="n">
-        <v>1.46675431728363</v>
+        <v>1.467380404472351</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.465264201164246</v>
+        <v>1.464558720588684</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1056752353906631</v>
+        <v>-0.1065821722149849</v>
       </c>
       <c r="D35" t="n">
-        <v>1.570939421653748</v>
+        <v>1.571140885353088</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.212305068969727</v>
+        <v>1.211621880531311</v>
       </c>
       <c r="C36" t="n">
-        <v>0.531345009803772</v>
+        <v>0.5299724340438843</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6809600591659546</v>
+        <v>0.6816494464874268</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.495179176330566</v>
+        <v>1.494471073150635</v>
       </c>
       <c r="C37" t="n">
-        <v>2.048207521438599</v>
+        <v>2.04572606086731</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5530283451080322</v>
+        <v>-0.5512549877166748</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.332233309745789</v>
+        <v>1.331539630889893</v>
       </c>
       <c r="C38" t="n">
-        <v>2.170193195343018</v>
+        <v>2.167622566223145</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.837959885597229</v>
+        <v>-0.836082935333252</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.970554828643799</v>
+        <v>1.969804883003235</v>
       </c>
       <c r="C39" t="n">
-        <v>1.656562447547913</v>
+        <v>1.654367327690125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3139923810958862</v>
+        <v>0.3154375553131104</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.745573878288269</v>
+        <v>1.744843721389771</v>
       </c>
       <c r="C40" t="n">
-        <v>1.120020866394043</v>
+        <v>1.118217945098877</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6255530118942261</v>
+        <v>0.6266257762908936</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.82209849357605</v>
+        <v>1.821361660957336</v>
       </c>
       <c r="C41" t="n">
-        <v>1.660055041313171</v>
+        <v>1.657857298851013</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1620434522628784</v>
+        <v>0.1635043621063232</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.756480813026428</v>
+        <v>1.755749702453613</v>
       </c>
       <c r="C42" t="n">
-        <v>1.193799138069153</v>
+        <v>1.19194233417511</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5626816749572754</v>
+        <v>0.5638073682785034</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.603996992111206</v>
+        <v>1.60327935218811</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7160290479660034</v>
+        <v>0.7145214676856995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8879679441452026</v>
+        <v>0.8887578845024109</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.165251016616821</v>
+        <v>1.16457200050354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4824815988540649</v>
+        <v>0.4811447262763977</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6827694177627563</v>
+        <v>0.6834272742271423</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.088399767875671</v>
+        <v>1.087727546691895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04347122088074684</v>
+        <v>0.04245525598526001</v>
       </c>
       <c r="D45" t="n">
-        <v>1.044928550720215</v>
+        <v>1.045272350311279</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.350428104400635</v>
+        <v>1.349732756614685</v>
       </c>
       <c r="C46" t="n">
-        <v>1.126623392105103</v>
+        <v>1.124815583229065</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2238047122955322</v>
+        <v>0.2249171733856201</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9926449060440063</v>
+        <v>0.9919810891151428</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8943240642547607</v>
+        <v>0.8926862478256226</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09832084178924561</v>
+        <v>0.09929484128952026</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6596654057502747</v>
+        <v>0.6590308547019958</v>
       </c>
       <c r="C48" t="n">
-        <v>1.014140963554382</v>
+        <v>1.012415528297424</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3544755578041077</v>
+        <v>-0.3533846735954285</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7156239748001099</v>
+        <v>0.7149844765663147</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3782853186130524</v>
+        <v>0.3770246207714081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3373386561870575</v>
+        <v>0.3379598557949066</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.382817983627319</v>
+        <v>1.38211977481842</v>
       </c>
       <c r="C50" t="n">
-        <v>1.394614577293396</v>
+        <v>1.392610788345337</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01179659366607666</v>
+        <v>-0.0104910135269165</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.344113230705261</v>
+        <v>1.343418478965759</v>
       </c>
       <c r="C51" t="n">
-        <v>1.253444075584412</v>
+        <v>1.251543760299683</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09066915512084961</v>
+        <v>0.09187471866607666</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.023339748382568</v>
+        <v>1.02267324924469</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6210628151893616</v>
+        <v>0.6196246743202209</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4022769331932068</v>
+        <v>0.403048574924469</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.145777225494385</v>
+        <v>1.145099878311157</v>
       </c>
       <c r="C53" t="n">
-        <v>1.14290463924408</v>
+        <v>1.141085028648376</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002872586250305176</v>
+        <v>0.004014849662780762</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1815445125102997</v>
+        <v>-0.1821050345897675</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8907621502876282</v>
+        <v>0.8891267776489258</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.072306632995605</v>
+        <v>-1.071231842041016</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05439808592200279</v>
+        <v>-0.05496980994939804</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8151425719261169</v>
+        <v>0.8135625720024109</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8695406317710876</v>
+        <v>-0.8685323596000671</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1708356142044067</v>
+        <v>0.1702440828084946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7588901519775391</v>
+        <v>0.7573512196540833</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5880545377731323</v>
+        <v>-0.5871071219444275</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.146214127540588</v>
+        <v>1.145536780357361</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8532050848007202</v>
+        <v>0.8515972495079041</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2930090427398682</v>
+        <v>0.2939395308494568</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.25531530380249</v>
+        <v>1.254628300666809</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6650200486183167</v>
+        <v>0.6635497212409973</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5902952551841736</v>
+        <v>0.5910785794258118</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.245078444480896</v>
+        <v>1.244392275810242</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7016136646270752</v>
+        <v>0.7001165747642517</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5434647798538208</v>
+        <v>0.54427570104599</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.065037965774536</v>
+        <v>1.064367771148682</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9405524134635925</v>
+        <v>0.9388806819915771</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1244855523109436</v>
+        <v>0.1254870891571045</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.010315537452698</v>
+        <v>1.009650111198425</v>
       </c>
       <c r="C61" t="n">
-        <v>1.169257283210754</v>
+        <v>1.167418360710144</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1589417457580566</v>
+        <v>-0.1577682495117188</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8714494109153748</v>
+        <v>0.870796263217926</v>
       </c>
       <c r="C62" t="n">
-        <v>1.485396385192871</v>
+        <v>1.483326315879822</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6139469742774963</v>
+        <v>-0.6125300526618958</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9221814870834351</v>
+        <v>0.9215238094329834</v>
       </c>
       <c r="C63" t="n">
-        <v>2.670370578765869</v>
+        <v>2.667434453964233</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.748189091682434</v>
+        <v>-1.74591064453125</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.160375952720642</v>
+        <v>1.159697294235229</v>
       </c>
       <c r="C64" t="n">
-        <v>2.598553419113159</v>
+        <v>2.595669507980347</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.438177466392517</v>
+        <v>-1.435972213745117</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.358017206192017</v>
+        <v>1.35732114315033</v>
       </c>
       <c r="C65" t="n">
-        <v>1.066851735115051</v>
+        <v>1.065087676048279</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2911654710769653</v>
+        <v>0.2922334671020508</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.530345320701599</v>
+        <v>1.529634118080139</v>
       </c>
       <c r="C66" t="n">
-        <v>1.252787351608276</v>
+        <v>1.250887513160706</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2775579690933228</v>
+        <v>0.2787466049194336</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.364756345748901</v>
+        <v>1.364059805870056</v>
       </c>
       <c r="C67" t="n">
-        <v>1.659129023551941</v>
+        <v>1.65693199634552</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2943726778030396</v>
+        <v>-0.2928721904754639</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6041470766067505</v>
+        <v>0.6035174131393433</v>
       </c>
       <c r="C68" t="n">
-        <v>1.715897560119629</v>
+        <v>1.713659167289734</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.111750483512878</v>
+        <v>-1.110141754150391</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9874075651168823</v>
+        <v>0.9867441654205322</v>
       </c>
       <c r="C69" t="n">
-        <v>1.767417430877686</v>
+        <v>1.765141367912292</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7800098657608032</v>
+        <v>-0.7783972024917603</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8876644968986511</v>
+        <v>0.887009859085083</v>
       </c>
       <c r="C70" t="n">
-        <v>2.005244016647339</v>
+        <v>2.002793788909912</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.117579460144043</v>
+        <v>-1.115783929824829</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7940897941589355</v>
+        <v>0.7934433817863464</v>
       </c>
       <c r="C71" t="n">
-        <v>1.777964949607849</v>
+        <v>1.775681138038635</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9838751554489136</v>
+        <v>-0.9822377562522888</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5041205286979675</v>
+        <v>0.5034996867179871</v>
       </c>
       <c r="C72" t="n">
-        <v>1.650810241699219</v>
+        <v>1.648619174957275</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.146689653396606</v>
+        <v>-1.145119428634644</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3524985909461975</v>
+        <v>0.3518910706043243</v>
       </c>
       <c r="C73" t="n">
-        <v>1.251921653747559</v>
+        <v>1.250022172927856</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8994230628013611</v>
+        <v>-0.8981311321258545</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.440230667591095</v>
+        <v>0.439615398645401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5762063264846802</v>
+        <v>0.5748009085655212</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1359756588935852</v>
+        <v>-0.1351855099201202</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4923040568828583</v>
+        <v>0.491684228181839</v>
       </c>
       <c r="C75" t="n">
-        <v>1.927067399024963</v>
+        <v>1.924674391746521</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.434763312339783</v>
+        <v>-1.432990193367004</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8057745099067688</v>
+        <v>0.8051270842552185</v>
       </c>
       <c r="C76" t="n">
-        <v>1.23668384552002</v>
+        <v>1.234795689582825</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4309093356132507</v>
+        <v>-0.4296686053276062</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7502321004867554</v>
+        <v>0.7495895624160767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8373013138771057</v>
+        <v>0.8357051014900208</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08706921339035034</v>
+        <v>-0.08611553907394409</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.076800942420959</v>
+        <v>1.076129674911499</v>
       </c>
       <c r="C78" t="n">
-        <v>1.517946124076843</v>
+        <v>1.515852332115173</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4411451816558838</v>
+        <v>-0.4397226572036743</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8508765697479248</v>
+        <v>0.8502251505851746</v>
       </c>
       <c r="C79" t="n">
-        <v>1.285544157028198</v>
+        <v>1.283620357513428</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4346675872802734</v>
+        <v>-0.4333952069282532</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9288080334663391</v>
+        <v>0.9281498193740845</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5365834832191467</v>
+        <v>0.5352070331573486</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3922245502471924</v>
+        <v>0.3929427862167358</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.515357136726379</v>
+        <v>1.514647364616394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6822386384010315</v>
+        <v>0.6807557344436646</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8331184983253479</v>
+        <v>0.8338916301727295</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.2921302318573</v>
+        <v>1.291440010070801</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6656097173690796</v>
+        <v>-0.6661073565483093</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957739949226379</v>
+        <v>1.957547426223755</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.585316061973572</v>
+        <v>1.58460009098053</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8333761692047119</v>
+        <v>-0.8337511420249939</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418692111968994</v>
+        <v>2.418351173400879</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.825632572174072</v>
+        <v>1.82489550113678</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1668697148561478</v>
+        <v>-0.1677319258451462</v>
       </c>
       <c r="D84" t="n">
-        <v>1.992502331733704</v>
+        <v>1.992627382278442</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.838479042053223</v>
+        <v>1.837740778923035</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9717100858688354</v>
+        <v>0.9700155258178711</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8667689561843872</v>
+        <v>0.8677252531051636</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.688181519508362</v>
+        <v>1.687456488609314</v>
       </c>
       <c r="C86" t="n">
-        <v>1.25222373008728</v>
+        <v>1.250324249267578</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4359577894210815</v>
+        <v>0.4371322393417358</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.548269987106323</v>
+        <v>1.547557234764099</v>
       </c>
       <c r="C87" t="n">
-        <v>1.958680868148804</v>
+        <v>1.956264853477478</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4104108810424805</v>
+        <v>-0.4087076187133789</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.360260963439941</v>
+        <v>1.359564781188965</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8921180963516235</v>
+        <v>0.89048171043396</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4681428670883179</v>
+        <v>0.4690830707550049</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.405610680580139</v>
+        <v>1.404910445213318</v>
       </c>
       <c r="C89" t="n">
-        <v>1.049272894859314</v>
+        <v>1.047521591186523</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3563377857208252</v>
+        <v>0.3573888540267944</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.74763560295105</v>
+        <v>1.746905326843262</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8178455829620361</v>
+        <v>0.8162635564804077</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9297900199890137</v>
+        <v>0.930641770362854</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.893227696418762</v>
+        <v>1.892484545707703</v>
       </c>
       <c r="C91" t="n">
-        <v>1.189821004867554</v>
+        <v>1.18796706199646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7034066915512085</v>
+        <v>0.7045174837112427</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.564793944358826</v>
+        <v>1.564079642295837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8784886002540588</v>
+        <v>0.8768622279167175</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6863053441047668</v>
+        <v>0.6872174143791199</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.710488677024841</v>
+        <v>1.709761738777161</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7253842949867249</v>
+        <v>0.7238698601722717</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9851043820381165</v>
+        <v>0.9858918786048889</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.432178735733032</v>
+        <v>1.431476235389709</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2298068553209305</v>
+        <v>0.228654682636261</v>
       </c>
       <c r="D94" t="n">
-        <v>1.202371835708618</v>
+        <v>1.202821493148804</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.084659218788147</v>
+        <v>1.083987355232239</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5333075523376465</v>
+        <v>0.5319334864616394</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5513516664505005</v>
+        <v>0.5520538687705994</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6702107787132263</v>
+        <v>0.6695752739906311</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7374761700630188</v>
+        <v>0.7359529137611389</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06726539134979248</v>
+        <v>-0.06637763977050781</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6056906580924988</v>
+        <v>0.605060875415802</v>
       </c>
       <c r="C97" t="n">
-        <v>1.058976292610168</v>
+        <v>1.057218074798584</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4532856345176697</v>
+        <v>-0.452157199382782</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.005376219749451</v>
+        <v>1.004711151123047</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9838544726371765</v>
+        <v>0.9821510314941406</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02152174711227417</v>
+        <v>0.02256011962890625</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2809954285621643</v>
+        <v>0.2803941965103149</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1179864108562469</v>
+        <v>0.1169159784913063</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1630090177059174</v>
+        <v>0.1634782254695892</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05547602102160454</v>
+        <v>-0.05604764819145203</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3454271852970123</v>
+        <v>-0.346158891916275</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2899511754512787</v>
+        <v>0.290111243724823</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2295080721378326</v>
+        <v>-0.2300643771886826</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3358129858970642</v>
+        <v>0.3345833122730255</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5653210878372192</v>
+        <v>-0.5646476745605469</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2129045575857162</v>
+        <v>0.2123093158006668</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2672785818576813</v>
+        <v>-0.2680673897266388</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4801831245422363</v>
+        <v>0.4803767204284668</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.752680242061615</v>
+        <v>0.752037525177002</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4415871202945709</v>
+        <v>-0.4422484934329987</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194267392158508</v>
+        <v>1.194285988807678</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.002938032150269</v>
+        <v>1.002273321151733</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7015177011489868</v>
+        <v>-0.7019891142845154</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704455733299255</v>
+        <v>1.704262495040894</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06975793838501</v>
+        <v>1.069087386131287</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.03922442346811295</v>
+        <v>-0.04017993807792664</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10898232460022</v>
+        <v>1.109267354011536</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.174416661262512</v>
+        <v>1.173736810684204</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6587193608283997</v>
+        <v>0.6572536826133728</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5156973004341125</v>
+        <v>0.5164831280708313</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.082871913909912</v>
+        <v>1.082200050354004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4825506806373596</v>
+        <v>0.4812137484550476</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6003212332725525</v>
+        <v>0.6009863018989563</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.840395450592041</v>
+        <v>0.8397449851036072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8741829395294189</v>
+        <v>0.872559666633606</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03378748893737793</v>
+        <v>-0.03281468152999878</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5684986114501953</v>
+        <v>0.5678720474243164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9758159518241882</v>
+        <v>0.9741184711456299</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4073173403739929</v>
+        <v>-0.4062464237213135</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8357821106910706</v>
+        <v>0.8351320624351501</v>
       </c>
       <c r="C110" t="n">
-        <v>1.018726825714111</v>
+        <v>1.016997933387756</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1829447150230408</v>
+        <v>-0.1818658709526062</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.194259285926819</v>
+        <v>1.193577766418457</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4849638342857361</v>
+        <v>0.4836251437664032</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7092954516410828</v>
+        <v>0.7099525928497314</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.702347278594971</v>
+        <v>1.701620936393738</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8212813138961792</v>
+        <v>0.8196967840194702</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8810659646987915</v>
+        <v>0.8819241523742676</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.045903444290161</v>
+        <v>1.04523491859436</v>
       </c>
       <c r="C113" t="n">
-        <v>1.130825519561768</v>
+        <v>1.129014611244202</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08492207527160645</v>
+        <v>-0.08377969264984131</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.459803342819214</v>
+        <v>1.459098339080811</v>
       </c>
       <c r="C114" t="n">
-        <v>1.735189914703369</v>
+        <v>1.732937216758728</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2753865718841553</v>
+        <v>-0.2738388776779175</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.998636722564697</v>
+        <v>1.997884392738342</v>
       </c>
       <c r="C115" t="n">
-        <v>1.994024276733398</v>
+        <v>1.99158251285553</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004612445831298828</v>
+        <v>0.0063018798828125</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.312220454216003</v>
+        <v>1.311528444290161</v>
       </c>
       <c r="C116" t="n">
-        <v>2.4928138256073</v>
+        <v>2.490007638931274</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.180593371391296</v>
+        <v>-1.178479194641113</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.698939681053162</v>
+        <v>1.698213696479797</v>
       </c>
       <c r="C117" t="n">
-        <v>2.218162059783936</v>
+        <v>2.215556621551514</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5192223787307739</v>
+        <v>-0.5173429250717163</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.722441077232361</v>
+        <v>1.721712946891785</v>
       </c>
       <c r="C118" t="n">
-        <v>1.647568464279175</v>
+        <v>1.645379781723022</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07487261295318604</v>
+        <v>0.07633316516876221</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.928719520568848</v>
+        <v>1.92797327041626</v>
       </c>
       <c r="C119" t="n">
-        <v>1.718948841094971</v>
+        <v>1.716708183288574</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209770679473877</v>
+        <v>0.2112650871276855</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.380916595458984</v>
+        <v>1.380218625068665</v>
       </c>
       <c r="C120" t="n">
-        <v>1.701781868934631</v>
+        <v>1.699553608894348</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.320865273475647</v>
+        <v>-0.3193349838256836</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.998575806617737</v>
+        <v>1.997823357582092</v>
       </c>
       <c r="C121" t="n">
-        <v>1.70776903629303</v>
+        <v>1.705536484718323</v>
       </c>
       <c r="D121" t="n">
-        <v>0.290806770324707</v>
+        <v>0.2922868728637695</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.04774022102356</v>
+        <v>2.046983242034912</v>
       </c>
       <c r="C122" t="n">
-        <v>1.263864636421204</v>
+        <v>1.261956572532654</v>
       </c>
       <c r="D122" t="n">
-        <v>0.783875584602356</v>
+        <v>0.7850266695022583</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351855993270874</v>
+        <v>2.351072072982788</v>
       </c>
       <c r="C123" t="n">
-        <v>2.164962291717529</v>
+        <v>2.162395477294922</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1868937015533447</v>
+        <v>0.1886765956878662</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.453689098358154</v>
+        <v>2.4528968334198</v>
       </c>
       <c r="C124" t="n">
-        <v>1.834648966789246</v>
+        <v>1.832323551177979</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6190401315689087</v>
+        <v>0.6205732822418213</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421866655349731</v>
+        <v>2.421077013015747</v>
       </c>
       <c r="C125" t="n">
-        <v>1.642439842224121</v>
+        <v>1.640254974365234</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7794268131256104</v>
+        <v>0.7808220386505127</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.779303431510925</v>
+        <v>1.778570413589478</v>
       </c>
       <c r="C126" t="n">
-        <v>2.267696380615234</v>
+        <v>2.265054702758789</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4883929491043091</v>
+        <v>-0.4864842891693115</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.78723931312561</v>
+        <v>1.786505579948425</v>
       </c>
       <c r="C127" t="n">
-        <v>2.137408018112183</v>
+        <v>2.134861469268799</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3501687049865723</v>
+        <v>-0.3483558893203735</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.486181974411011</v>
+        <v>1.485474705696106</v>
       </c>
       <c r="C128" t="n">
-        <v>1.962728381156921</v>
+        <v>1.960309386253357</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4765464067459106</v>
+        <v>-0.474834680557251</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.17377245426178</v>
+        <v>1.173092603683472</v>
       </c>
       <c r="C129" t="n">
-        <v>1.793085694313049</v>
+        <v>1.790790677070618</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6193132400512695</v>
+        <v>-0.617698073387146</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8108392953872681</v>
+        <v>0.8101914525032043</v>
       </c>
       <c r="C130" t="n">
-        <v>2.959303617477417</v>
+        <v>2.956156253814697</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.148464202880859</v>
+        <v>-2.145964860916138</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3948652446269989</v>
+        <v>0.3942539989948273</v>
       </c>
       <c r="C131" t="n">
-        <v>2.188783407211304</v>
+        <v>2.186199188232422</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.793918132781982</v>
+        <v>-1.791945219039917</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05504674836993217</v>
+        <v>-0.05561841279268265</v>
       </c>
       <c r="C132" t="n">
-        <v>1.844771385192871</v>
+        <v>1.842438578605652</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.899818181991577</v>
+        <v>-1.898056983947754</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09562807530164719</v>
+        <v>0.09504315257072449</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8267236948013306</v>
+        <v>0.8251351714134216</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7310956120491028</v>
+        <v>-0.7300920486450195</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1579063236713409</v>
+        <v>0.1573159098625183</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1775967180728912</v>
+        <v>0.1764827072620392</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01969039440155029</v>
+        <v>-0.01916679739952087</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.382725715637207</v>
+        <v>0.3821155428886414</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3663231432437897</v>
+        <v>0.365071177482605</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01640257239341736</v>
+        <v>0.01704436540603638</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7327814102172852</v>
+        <v>0.7321404218673706</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2088846415281296</v>
+        <v>0.207747757434845</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5238967537879944</v>
+        <v>0.5243926644325256</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6035274267196655</v>
+        <v>0.6028977632522583</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5164385437965393</v>
+        <v>0.5150768160820007</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08708888292312622</v>
+        <v>0.08782094717025757</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8450967073440552</v>
+        <v>0.8444458246231079</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9850905537605286</v>
+        <v>0.9833863377571106</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1399938464164734</v>
+        <v>-0.1389405131340027</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.305024981498718</v>
+        <v>1.304333567619324</v>
       </c>
       <c r="C139" t="n">
-        <v>1.049176931381226</v>
+        <v>1.047425866127014</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2558480501174927</v>
+        <v>0.2569077014923096</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.261836051940918</v>
+        <v>1.261148452758789</v>
       </c>
       <c r="C140" t="n">
-        <v>1.289325356483459</v>
+        <v>1.28739857673645</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0274893045425415</v>
+        <v>-0.02625012397766113</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.492252230644226</v>
+        <v>1.491544365882874</v>
       </c>
       <c r="C141" t="n">
-        <v>1.243423581123352</v>
+        <v>1.241530537605286</v>
       </c>
       <c r="D141" t="n">
-        <v>0.248828649520874</v>
+        <v>0.2500138282775879</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.405239701271057</v>
+        <v>1.404539585113525</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2023576498031616</v>
+        <v>0.2012255489826202</v>
       </c>
       <c r="D142" t="n">
-        <v>1.202882051467896</v>
+        <v>1.203314065933228</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.765214681625366</v>
+        <v>1.764482736587524</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2905488908290863</v>
+        <v>0.2893523275852203</v>
       </c>
       <c r="D143" t="n">
-        <v>1.474665760993958</v>
+        <v>1.475130438804626</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.605005383491516</v>
+        <v>1.604287624359131</v>
       </c>
       <c r="C144" t="n">
-        <v>1.298795342445374</v>
+        <v>1.29686164855957</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3062100410461426</v>
+        <v>0.3074259757995605</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.712221264839172</v>
+        <v>1.711494088172913</v>
       </c>
       <c r="C145" t="n">
-        <v>1.489023804664612</v>
+        <v>1.486951231956482</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2231974601745605</v>
+        <v>0.2245428562164307</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.153804421424866</v>
+        <v>1.153126358985901</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9133474826812744</v>
+        <v>0.9116957187652588</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2404569387435913</v>
+        <v>0.2414306402206421</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7293175458908081</v>
+        <v>0.7286768555641174</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8616820573806763</v>
+        <v>0.8600679636001587</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1323645114898682</v>
+        <v>-0.1313911080360413</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2896507382392883</v>
+        <v>0.2890487313270569</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2179207503795624</v>
+        <v>-0.2187456488609314</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5075714588165283</v>
+        <v>0.5077943801879883</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6841729879379272</v>
+        <v>0.6835362315177917</v>
       </c>
       <c r="C149" t="n">
-        <v>1.581552863121033</v>
+        <v>1.579412460327148</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8973798751831055</v>
+        <v>-0.8958762288093567</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.040073275566101</v>
+        <v>1.039405226707458</v>
       </c>
       <c r="C150" t="n">
-        <v>2.480332136154175</v>
+        <v>2.477535009384155</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.440258860588074</v>
+        <v>-1.438129782676697</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.329438328742981</v>
+        <v>1.328744888305664</v>
       </c>
       <c r="C151" t="n">
-        <v>1.300974249839783</v>
+        <v>1.299039006233215</v>
       </c>
       <c r="D151" t="n">
-        <v>0.02846407890319824</v>
+        <v>0.02970588207244873</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.363171935081482</v>
+        <v>1.362475395202637</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3034082353115082</v>
+        <v>0.3022022545337677</v>
       </c>
       <c r="D152" t="n">
-        <v>1.059763669967651</v>
+        <v>1.060273170471191</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.110795736312866</v>
+        <v>2.110033273696899</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1991236656904221</v>
+        <v>0.1979939192533493</v>
       </c>
       <c r="D153" t="n">
-        <v>1.911672115325928</v>
+        <v>1.912039399147034</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.997712254524231</v>
+        <v>1.996959924697876</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4692460298538208</v>
+        <v>0.4679188132286072</v>
       </c>
       <c r="D154" t="n">
-        <v>1.52846622467041</v>
+        <v>1.529041051864624</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.862800002098083</v>
+        <v>1.862059473991394</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7784572839736938</v>
+        <v>0.7769040465354919</v>
       </c>
       <c r="D155" t="n">
-        <v>1.08434271812439</v>
+        <v>1.085155487060547</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.610196828842163</v>
+        <v>1.609478712081909</v>
       </c>
       <c r="C156" t="n">
-        <v>1.376363277435303</v>
+        <v>1.374373078346252</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2338335514068604</v>
+        <v>0.2351056337356567</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.913453578948975</v>
+        <v>1.912708640098572</v>
       </c>
       <c r="C157" t="n">
-        <v>1.753760814666748</v>
+        <v>1.751494646072388</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1596927642822266</v>
+        <v>0.1612139940261841</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.530219674110413</v>
+        <v>1.529508471488953</v>
       </c>
       <c r="C158" t="n">
-        <v>1.480824112892151</v>
+        <v>1.478757381439209</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04939556121826172</v>
+        <v>0.05075109004974365</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.364924311637878</v>
+        <v>1.364227652549744</v>
       </c>
       <c r="C159" t="n">
-        <v>1.650353312492371</v>
+        <v>1.648162603378296</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2854290008544922</v>
+        <v>-0.2839349508285522</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.674265503883362</v>
+        <v>1.673541665077209</v>
       </c>
       <c r="C160" t="n">
-        <v>1.736148476600647</v>
+        <v>1.733895182609558</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.06188297271728516</v>
+        <v>-0.06035351753234863</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.343223810195923</v>
+        <v>1.342529058456421</v>
       </c>
       <c r="C161" t="n">
-        <v>1.688975811004639</v>
+        <v>1.68675696849823</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3457520008087158</v>
+        <v>-0.3442279100418091</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5809253454208374</v>
+        <v>0.5802977085113525</v>
       </c>
       <c r="C162" t="n">
-        <v>1.809996843338013</v>
+        <v>1.807689428329468</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.229071497917175</v>
+        <v>-1.227391719818115</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3751817643642426</v>
+        <v>0.3745722472667694</v>
       </c>
       <c r="C163" t="n">
-        <v>1.294182300567627</v>
+        <v>1.29225218296051</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.919000506401062</v>
+        <v>-0.9176799058914185</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6731958985328674</v>
+        <v>0.6725600957870483</v>
       </c>
       <c r="C164" t="n">
-        <v>1.454190850257874</v>
+        <v>1.452143669128418</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7809949517250061</v>
+        <v>-0.7795835733413696</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8615514039993286</v>
+        <v>0.860899031162262</v>
       </c>
       <c r="C165" t="n">
-        <v>1.121793031692505</v>
+        <v>1.119988799095154</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2602416276931763</v>
+        <v>-0.2590897679328918</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.001103758811951</v>
+        <v>1.000439167022705</v>
       </c>
       <c r="C166" t="n">
-        <v>1.253782629966736</v>
+        <v>1.251881957054138</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2526788711547852</v>
+        <v>-0.2514427900314331</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.624234557151794</v>
+        <v>1.623515129089355</v>
       </c>
       <c r="C167" t="n">
-        <v>1.615396618843079</v>
+        <v>1.613231539726257</v>
       </c>
       <c r="D167" t="n">
-        <v>0.00883793830871582</v>
+        <v>0.01028358936309814</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.953358888626099</v>
+        <v>1.952610492706299</v>
       </c>
       <c r="C168" t="n">
-        <v>1.891622185707092</v>
+        <v>1.889255166053772</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06173670291900635</v>
+        <v>0.06335532665252686</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.179637789726257</v>
+        <v>1.178957581520081</v>
       </c>
       <c r="C169" t="n">
-        <v>1.581942677497864</v>
+        <v>1.5798020362854</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.4023048877716064</v>
+        <v>-0.4008444547653198</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9853894114494324</v>
+        <v>0.9847261905670166</v>
       </c>
       <c r="C170" t="n">
-        <v>1.295860767364502</v>
+        <v>1.29392945766449</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3104713559150696</v>
+        <v>-0.3092032670974731</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9083940386772156</v>
+        <v>0.9077376127243042</v>
       </c>
       <c r="C171" t="n">
-        <v>1.047733902931213</v>
+        <v>1.045983791351318</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1393398642539978</v>
+        <v>-0.1382461786270142</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.024667024612427</v>
+        <v>1.024000287055969</v>
       </c>
       <c r="C172" t="n">
-        <v>1.891155958175659</v>
+        <v>1.888789415359497</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8664889335632324</v>
+        <v>-0.8647891283035278</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.225058794021606</v>
+        <v>1.224374532699585</v>
       </c>
       <c r="C173" t="n">
-        <v>1.683351755142212</v>
+        <v>1.681137084960938</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4582929611206055</v>
+        <v>-0.4567625522613525</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.657017111778259</v>
+        <v>1.656294822692871</v>
       </c>
       <c r="C174" t="n">
-        <v>1.881494760513306</v>
+        <v>1.879135131835938</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2244776487350464</v>
+        <v>-0.2228403091430664</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.471245884895325</v>
+        <v>1.470539808273315</v>
       </c>
       <c r="C175" t="n">
-        <v>1.921857476234436</v>
+        <v>1.919468522071838</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4506115913391113</v>
+        <v>-0.4489287137985229</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.093839287757874</v>
+        <v>1.093166470527649</v>
       </c>
       <c r="C176" t="n">
-        <v>1.956933975219727</v>
+        <v>1.954519271850586</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.863094687461853</v>
+        <v>-0.861352801322937</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.105616927146912</v>
+        <v>1.104943156242371</v>
       </c>
       <c r="C177" t="n">
-        <v>2.083398818969727</v>
+        <v>2.080891847610474</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9777818918228149</v>
+        <v>-0.975948691368103</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.335938811302185</v>
+        <v>1.335244655609131</v>
       </c>
       <c r="C178" t="n">
-        <v>1.988970756530762</v>
+        <v>1.98653256893158</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6530319452285767</v>
+        <v>-0.6512879133224487</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.897090911865234</v>
+        <v>1.896347403526306</v>
       </c>
       <c r="C179" t="n">
-        <v>1.462416172027588</v>
+        <v>1.460362911224365</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4346747398376465</v>
+        <v>0.4359844923019409</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.871304273605347</v>
+        <v>1.87056303024292</v>
       </c>
       <c r="C180" t="n">
-        <v>1.520115613937378</v>
+        <v>1.518020272254944</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3511886596679688</v>
+        <v>0.3525427579879761</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.435311317443848</v>
+        <v>1.434608578681946</v>
       </c>
       <c r="C181" t="n">
-        <v>1.844566226005554</v>
+        <v>1.842233538627625</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4092549085617065</v>
+        <v>-0.4076249599456787</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4888399839401245</v>
+        <v>0.4882204532623291</v>
       </c>
       <c r="C182" t="n">
-        <v>1.23335337638855</v>
+        <v>1.231467723846436</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7445133924484253</v>
+        <v>-0.7432472705841064</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.885822057723999</v>
+        <v>0.8851675987243652</v>
       </c>
       <c r="C183" t="n">
-        <v>1.51020085811615</v>
+        <v>1.508112668991089</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6243788003921509</v>
+        <v>-0.6229450702667236</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.557895660400391</v>
+        <v>1.55718195438385</v>
       </c>
       <c r="C184" t="n">
-        <v>1.78910219669342</v>
+        <v>1.786810278892517</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2312065362930298</v>
+        <v>-0.229628324508667</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.938567042350769</v>
+        <v>1.937819957733154</v>
       </c>
       <c r="C185" t="n">
-        <v>1.689585566520691</v>
+        <v>1.687366366386414</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2489814758300781</v>
+        <v>0.2504535913467407</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.967088222503662</v>
+        <v>1.966338634490967</v>
       </c>
       <c r="C186" t="n">
-        <v>1.637125730514526</v>
+        <v>1.634944915771484</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3299624919891357</v>
+        <v>0.3313937187194824</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.066435813903809</v>
+        <v>2.065677404403687</v>
       </c>
       <c r="C187" t="n">
-        <v>1.491003632545471</v>
+        <v>1.488929629325867</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5754321813583374</v>
+        <v>0.5767477750778198</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.35199236869812</v>
+        <v>2.351209163665771</v>
       </c>
       <c r="C188" t="n">
-        <v>1.528249144554138</v>
+        <v>1.526147842407227</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8237432241439819</v>
+        <v>0.8250613212585449</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.902616262435913</v>
+        <v>2.901784658432007</v>
       </c>
       <c r="C189" t="n">
-        <v>1.691603779792786</v>
+        <v>1.689382910728455</v>
       </c>
       <c r="D189" t="n">
-        <v>1.211012482643127</v>
+        <v>1.212401747703552</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.117037296295166</v>
+        <v>3.116186141967773</v>
       </c>
       <c r="C190" t="n">
-        <v>1.292263865470886</v>
+        <v>1.290334939956665</v>
       </c>
       <c r="D190" t="n">
-        <v>1.82477343082428</v>
+        <v>1.825851202011108</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.102025508880615</v>
+        <v>3.101175785064697</v>
       </c>
       <c r="C191" t="n">
-        <v>1.583873152732849</v>
+        <v>1.581731081008911</v>
       </c>
       <c r="D191" t="n">
-        <v>1.518152356147766</v>
+        <v>1.519444704055786</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.855666399002075</v>
+        <v>2.854838371276855</v>
       </c>
       <c r="C192" t="n">
-        <v>1.894257783889771</v>
+        <v>1.891888856887817</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9614086151123047</v>
+        <v>0.9629495143890381</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.929785966873169</v>
+        <v>2.928951978683472</v>
       </c>
       <c r="C193" t="n">
-        <v>2.9713134765625</v>
+        <v>2.968157052993774</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.04152750968933105</v>
+        <v>-0.03920507431030273</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838003873825073</v>
+        <v>2.837177276611328</v>
       </c>
       <c r="C194" t="n">
-        <v>3.552178382873535</v>
+        <v>3.54859733581543</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7141745090484619</v>
+        <v>-0.7114200592041016</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.280664443969727</v>
+        <v>2.279887199401855</v>
       </c>
       <c r="C195" t="n">
-        <v>3.324603080749512</v>
+        <v>3.321188449859619</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.043938636779785</v>
+        <v>-1.041301250457764</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108262777328491</v>
+        <v>3.107412576675415</v>
       </c>
       <c r="C196" t="n">
-        <v>3.752487421035767</v>
+        <v>3.748759984970093</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6442246437072754</v>
+        <v>-0.6413474082946777</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.902623653411865</v>
+        <v>2.901791334152222</v>
       </c>
       <c r="C197" t="n">
-        <v>3.540302991867065</v>
+        <v>3.536730527877808</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6376793384552002</v>
+        <v>-0.6349391937255859</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.015817642211914</v>
+        <v>2.015063762664795</v>
       </c>
       <c r="C198" t="n">
-        <v>3.203994274139404</v>
+        <v>3.2006676197052</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.18817663192749</v>
+        <v>-1.185603857040405</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.056920886039734</v>
+        <v>1.056251406669617</v>
       </c>
       <c r="C199" t="n">
-        <v>2.624303817749023</v>
+        <v>2.621401309967041</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.56738293170929</v>
+        <v>-1.565149903297424</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4226407110691071</v>
+        <v>0.4220269918441772</v>
       </c>
       <c r="C200" t="n">
-        <v>2.891810178756714</v>
+        <v>2.88871169090271</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.46916937828064</v>
+        <v>-2.466684818267822</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.444738149642944</v>
+        <v>1.444034457206726</v>
       </c>
       <c r="C201" t="n">
-        <v>2.648092746734619</v>
+        <v>2.645172595977783</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.203354597091675</v>
+        <v>-1.201138138771057</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.065624594688416</v>
+        <v>1.064954280853271</v>
       </c>
       <c r="C202" t="n">
-        <v>2.753190040588379</v>
+        <v>2.750193357467651</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.687565445899963</v>
+        <v>-1.68523907661438</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.094261407852173</v>
+        <v>1.093588590621948</v>
       </c>
       <c r="C203" t="n">
-        <v>2.499282598495483</v>
+        <v>2.496471643447876</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.405021190643311</v>
+        <v>-1.402883052825928</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.301752328872681</v>
+        <v>1.301061272621155</v>
       </c>
       <c r="C204" t="n">
-        <v>2.131048679351807</v>
+        <v>2.128506898880005</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.829296350479126</v>
+        <v>-0.8274456262588501</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.286970853805542</v>
+        <v>1.286281108856201</v>
       </c>
       <c r="C205" t="n">
-        <v>1.837963938713074</v>
+        <v>1.835636258125305</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5509930849075317</v>
+        <v>-0.549355149269104</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.047902584075928</v>
+        <v>1.047233819961548</v>
       </c>
       <c r="C206" t="n">
-        <v>1.103563547134399</v>
+        <v>1.101772665977478</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05566096305847168</v>
+        <v>-0.05453884601593018</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.205059051513672</v>
+        <v>1.204376459121704</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9608794450759888</v>
+        <v>0.9591928720474243</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2441796064376831</v>
+        <v>0.2451835870742798</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.474085092544556</v>
+        <v>1.473378896713257</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7654513120651245</v>
+        <v>0.7639075517654419</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7086337804794312</v>
+        <v>0.7094713449478149</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.514434933662415</v>
+        <v>1.51372504234314</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5821190476417542</v>
+        <v>0.5807093381881714</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9323158860206604</v>
+        <v>0.9330157041549683</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.866275191307068</v>
+        <v>1.865534424781799</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6838414072990417</v>
+        <v>0.6823573112487793</v>
       </c>
       <c r="D210" t="n">
-        <v>1.182433843612671</v>
+        <v>1.18317711353302</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.613727331161499</v>
+        <v>1.613008856773376</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8487424850463867</v>
+        <v>0.8471378684043884</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7649848461151123</v>
+        <v>0.765870988368988</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.066524744033813</v>
+        <v>2.065766572952271</v>
       </c>
       <c r="C212" t="n">
-        <v>1.134713530540466</v>
+        <v>1.132899761199951</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9318112134933472</v>
+        <v>0.9328668117523193</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152829170227051</v>
+        <v>2.152063369750977</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5289314985275269</v>
+        <v>0.5275607109069824</v>
       </c>
       <c r="D213" t="n">
-        <v>1.623897671699524</v>
+        <v>1.624502658843994</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.911868095397949</v>
+        <v>1.911123275756836</v>
       </c>
       <c r="C214" t="n">
-        <v>1.03670871257782</v>
+        <v>1.034966588020325</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8751593828201294</v>
+        <v>0.8761566877365112</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.051264047622681</v>
+        <v>2.050506830215454</v>
       </c>
       <c r="C215" t="n">
-        <v>1.189992547035217</v>
+        <v>1.188138604164124</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8612715005874634</v>
+        <v>0.8623682260513306</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.924739837646484</v>
+        <v>1.923993945121765</v>
       </c>
       <c r="C216" t="n">
-        <v>1.422605276107788</v>
+        <v>1.420581102371216</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5021345615386963</v>
+        <v>0.5034128427505493</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.004592895507812</v>
+        <v>1.003928065299988</v>
       </c>
       <c r="C217" t="n">
-        <v>1.223658323287964</v>
+        <v>1.221779584884644</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2190654277801514</v>
+        <v>-0.2178515195846558</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7133230566978455</v>
+        <v>0.7126837968826294</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5204859375953674</v>
+        <v>0.5191212892532349</v>
       </c>
       <c r="D218" t="n">
-        <v>0.192837119102478</v>
+        <v>0.1935625076293945</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.49470067024231</v>
+        <v>1.493992686271667</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5075395703315735</v>
+        <v>0.5061843395233154</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9871610999107361</v>
+        <v>0.9878083467483521</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.356399059295654</v>
+        <v>1.355703234672546</v>
       </c>
       <c r="C220" t="n">
-        <v>1.220337152481079</v>
+        <v>1.218460917472839</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1360619068145752</v>
+        <v>0.137242317199707</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.493200421333313</v>
+        <v>1.492492437362671</v>
       </c>
       <c r="C221" t="n">
-        <v>1.436207413673401</v>
+        <v>1.434173345565796</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05699300765991211</v>
+        <v>0.058319091796875</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.289478421211243</v>
+        <v>1.288788437843323</v>
       </c>
       <c r="C222" t="n">
-        <v>1.014599204063416</v>
+        <v>1.012873411178589</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2748792171478271</v>
+        <v>0.2759150266647339</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9336207509040833</v>
+        <v>0.9329620599746704</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7413103580474854</v>
+        <v>0.739784300327301</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1923103928565979</v>
+        <v>0.1931777596473694</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.094031095504761</v>
+        <v>1.093358278274536</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4351842105388641</v>
+        <v>0.4338819086551666</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6588468551635742</v>
+        <v>0.6594763994216919</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.490747809410095</v>
+        <v>1.490040063858032</v>
       </c>
       <c r="C225" t="n">
-        <v>0.58492112159729</v>
+        <v>0.5835093259811401</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9058266878128052</v>
+        <v>0.9065307378768921</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.84597909450531</v>
+        <v>1.845240116119385</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08630803227424622</v>
+        <v>0.08526075631380081</v>
       </c>
       <c r="D226" t="n">
-        <v>1.759671092033386</v>
+        <v>1.759979367256165</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.656553268432617</v>
+        <v>1.655830979347229</v>
       </c>
       <c r="C227" t="n">
-        <v>0.500969409942627</v>
+        <v>0.4996190369129181</v>
       </c>
       <c r="D227" t="n">
-        <v>1.15558385848999</v>
+        <v>1.156211972236633</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.093181848526001</v>
+        <v>2.092420816421509</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9063180685043335</v>
+        <v>0.9046713709831238</v>
       </c>
       <c r="D228" t="n">
-        <v>1.186863780021667</v>
+        <v>1.18774938583374</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.994577169418335</v>
+        <v>1.993825078010559</v>
       </c>
       <c r="C229" t="n">
-        <v>1.226846814155579</v>
+        <v>1.224965929985046</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7677303552627563</v>
+        <v>0.7688591480255127</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.986254811286926</v>
+        <v>1.985503554344177</v>
       </c>
       <c r="C230" t="n">
-        <v>1.764677762985229</v>
+        <v>1.76240348815918</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2215770483016968</v>
+        <v>0.2231000661849976</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.683636784553528</v>
+        <v>1.682912111282349</v>
       </c>
       <c r="C231" t="n">
-        <v>1.8166743516922</v>
+        <v>1.814362049102783</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1330375671386719</v>
+        <v>-0.1314499378204346</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.703517317771912</v>
+        <v>1.702790975570679</v>
       </c>
       <c r="C232" t="n">
-        <v>1.58964478969574</v>
+        <v>1.587498545646667</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1138725280761719</v>
+        <v>0.1152924299240112</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.203309059143066</v>
+        <v>2.202538728713989</v>
       </c>
       <c r="C233" t="n">
-        <v>1.628371477127075</v>
+        <v>1.626196980476379</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5749375820159912</v>
+        <v>0.5763417482376099</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.67695689201355</v>
+        <v>2.67614483833313</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9559996724128723</v>
+        <v>0.9543166160583496</v>
       </c>
       <c r="D234" t="n">
-        <v>1.720957279205322</v>
+        <v>1.72182822227478</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.318706512451172</v>
+        <v>2.317925930023193</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3108165562152863</v>
+        <v>0.3096051812171936</v>
       </c>
       <c r="D235" t="n">
-        <v>2.007889986038208</v>
+        <v>2.008320808410645</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.136367082595825</v>
+        <v>2.135602474212646</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3555859923362732</v>
+        <v>0.3543418943881989</v>
       </c>
       <c r="D236" t="n">
-        <v>1.780781030654907</v>
+        <v>1.78126060962677</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.669373035430908</v>
+        <v>2.668561697006226</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6171468496322632</v>
+        <v>-0.6176798939704895</v>
       </c>
       <c r="D237" t="n">
-        <v>3.286520004272461</v>
+        <v>3.28624153137207</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.243613481521606</v>
+        <v>2.242839813232422</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161733984947205</v>
+        <v>-1.161868929862976</v>
       </c>
       <c r="D238" t="n">
-        <v>3.405347347259521</v>
+        <v>3.404708862304688</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.597493648529053</v>
+        <v>2.596688508987427</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.502782583236694</v>
+        <v>-1.502668261528015</v>
       </c>
       <c r="D239" t="n">
-        <v>4.100275993347168</v>
+        <v>4.099356651306152</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.772924900054932</v>
+        <v>2.772104501724243</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8827484846115112</v>
+        <v>-0.8830873370170593</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655673503875732</v>
+        <v>3.655191898345947</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.302676677703857</v>
+        <v>2.301897287368774</v>
       </c>
       <c r="C241" t="n">
-        <v>1.319942235946655</v>
+        <v>1.31799328327179</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9827344417572021</v>
+        <v>0.9839040040969849</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.628434896469116</v>
+        <v>2.627627372741699</v>
       </c>
       <c r="C242" t="n">
-        <v>2.366747379302979</v>
+        <v>2.364032983779907</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2616875171661377</v>
+        <v>0.263594388961792</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.022507667541504</v>
+        <v>2.021753311157227</v>
       </c>
       <c r="C243" t="n">
-        <v>2.631891965866089</v>
+        <v>2.628983736038208</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.609384298324585</v>
+        <v>-0.6072304248809814</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.2098388671875</v>
+        <v>2.209067821502686</v>
       </c>
       <c r="C244" t="n">
-        <v>2.523783922195435</v>
+        <v>2.520955085754395</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3139450550079346</v>
+        <v>-0.311887264251709</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.267668962478638</v>
+        <v>2.266892910003662</v>
       </c>
       <c r="C245" t="n">
-        <v>2.601788997650146</v>
+        <v>2.598903179168701</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3341200351715088</v>
+        <v>-0.3320102691650391</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.321801424026489</v>
+        <v>2.321020603179932</v>
       </c>
       <c r="C246" t="n">
-        <v>1.551462888717651</v>
+        <v>1.549344658851624</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7703385353088379</v>
+        <v>0.7716759443283081</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.209194660186768</v>
+        <v>2.208423852920532</v>
       </c>
       <c r="C247" t="n">
-        <v>1.179558873176575</v>
+        <v>1.177712321281433</v>
       </c>
       <c r="D247" t="n">
-        <v>1.029635787010193</v>
+        <v>1.030711531639099</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.03758692741394</v>
+        <v>2.036831140518188</v>
       </c>
       <c r="C248" t="n">
-        <v>1.610698580741882</v>
+        <v>1.608536839485168</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4268883466720581</v>
+        <v>0.42829430103302</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.543413400650024</v>
+        <v>1.542701005935669</v>
       </c>
       <c r="C249" t="n">
-        <v>2.018801927566528</v>
+        <v>2.016341924667358</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4753885269165039</v>
+        <v>-0.4736409187316895</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.265517115592957</v>
+        <v>1.264829277992249</v>
       </c>
       <c r="C250" t="n">
-        <v>1.564539909362793</v>
+        <v>1.562411904335022</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2990227937698364</v>
+        <v>-0.2975826263427734</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.777060747146606</v>
+        <v>1.776327848434448</v>
       </c>
       <c r="C251" t="n">
-        <v>1.38936972618103</v>
+        <v>1.387369990348816</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3876910209655762</v>
+        <v>0.3889578580856323</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.545539140701294</v>
+        <v>1.544826626777649</v>
       </c>
       <c r="C252" t="n">
-        <v>1.239696502685547</v>
+        <v>1.237806081771851</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3058426380157471</v>
+        <v>0.3070205450057983</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.405770540237427</v>
+        <v>1.405070304870605</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9479221701622009</v>
+        <v>0.946245014667511</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4578483700752258</v>
+        <v>0.4588252902030945</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5297635197639465</v>
+        <v>0.5291403532028198</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04540077596902847</v>
+        <v>-0.04635177925229073</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5751643180847168</v>
+        <v>0.5754921436309814</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7610877752304077</v>
+        <v>0.7604442834854126</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3292410671710968</v>
+        <v>0.3280161917209625</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4318467080593109</v>
+        <v>0.4324280917644501</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.203783869743347</v>
+        <v>1.203101396560669</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9554826617240906</v>
+        <v>0.9537999629974365</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2483012080192566</v>
+        <v>0.2493014335632324</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.183169603347778</v>
+        <v>1.182488918304443</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5318161845207214</v>
+        <v>0.5304432511329651</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6513534188270569</v>
+        <v>0.6520456671714783</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6790536642074585</v>
+        <v>0.6784173846244812</v>
       </c>
       <c r="C258" t="n">
-        <v>1.305788159370422</v>
+        <v>1.303849339485168</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6267344951629639</v>
+        <v>-0.6254319548606873</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8831755518913269</v>
+        <v>0.8825213313102722</v>
       </c>
       <c r="C259" t="n">
-        <v>1.840931057929993</v>
+        <v>1.838601231575012</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9577555060386658</v>
+        <v>-0.95607990026474</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.17133367061615</v>
+        <v>1.17065417766571</v>
       </c>
       <c r="C260" t="n">
-        <v>2.290326833724976</v>
+        <v>2.287668466567993</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.118993163108826</v>
+        <v>-1.117014288902283</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.298408627510071</v>
+        <v>1.297717928886414</v>
       </c>
       <c r="C261" t="n">
-        <v>1.932937979698181</v>
+        <v>1.930540919303894</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6345293521881104</v>
+        <v>-0.6328229904174805</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.509157776832581</v>
+        <v>1.508448481559753</v>
       </c>
       <c r="C262" t="n">
-        <v>1.458460330963135</v>
+        <v>1.456409931182861</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0506974458694458</v>
+        <v>0.05203855037689209</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.189558267593384</v>
+        <v>1.188877105712891</v>
       </c>
       <c r="C263" t="n">
-        <v>2.218457460403442</v>
+        <v>2.215851545333862</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.028899192810059</v>
+        <v>-1.026974439620972</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.167714834213257</v>
+        <v>1.167035579681396</v>
       </c>
       <c r="C264" t="n">
-        <v>1.782499194145203</v>
+        <v>1.780211925506592</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6147843599319458</v>
+        <v>-0.6131763458251953</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.329917669296265</v>
+        <v>1.329224109649658</v>
       </c>
       <c r="C265" t="n">
-        <v>1.771342635154724</v>
+        <v>1.769063591957092</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4414249658584595</v>
+        <v>-0.4398394823074341</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.684646725654602</v>
+        <v>1.683921933174133</v>
       </c>
       <c r="C266" t="n">
-        <v>2.338003396987915</v>
+        <v>2.335309982299805</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.653356671333313</v>
+        <v>-0.6513880491256714</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.917077898979187</v>
+        <v>0.9164206981658936</v>
       </c>
       <c r="C267" t="n">
-        <v>1.729293704032898</v>
+        <v>1.72704541683197</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8122158050537109</v>
+        <v>-0.8106247186660767</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,27 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.090301275253296</v>
+        <v>1.08962881565094</v>
       </c>
       <c r="C268" t="n">
-        <v>1.337613344192505</v>
+        <v>1.335651278495789</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.247312068939209</v>
+        <v>-0.2460224628448486</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.163933753967285</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.987106919288635</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-0.8231731653213501</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8140987753868103</v>
+        <v>0.8136014938354492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8017190098762512</v>
+        <v>0.7998844385147095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01237976551055908</v>
+        <v>0.01371705532073975</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8408037424087524</v>
+        <v>0.8403064012527466</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2535226941108704</v>
+        <v>-0.2543677687644958</v>
       </c>
       <c r="D3" t="n">
-        <v>1.094326496124268</v>
+        <v>1.094674110412598</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9170699715614319</v>
+        <v>0.9165725708007812</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7643197774887085</v>
+        <v>-0.7646859288215637</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681389808654785</v>
+        <v>1.6812584400177</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492597907781601</v>
+        <v>0.4921010732650757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09711609035730362</v>
+        <v>0.09594222158193588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3954818248748779</v>
+        <v>0.3961588442325592</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7177228331565857</v>
+        <v>0.7172257304191589</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02569802105426788</v>
+        <v>0.02459111250936985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.692024827003479</v>
+        <v>0.692634642124176</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08209744840860367</v>
+        <v>0.08160115033388138</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1383143067359924</v>
+        <v>-0.1392674297094345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2204117476940155</v>
+        <v>0.2208685874938965</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6729557514190674</v>
+        <v>0.6724586486816406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4612867832183838</v>
+        <v>0.459771454334259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2116689682006836</v>
+        <v>0.2126871943473816</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041898131370544</v>
+        <v>1.041400551795959</v>
       </c>
       <c r="C9" t="n">
-        <v>1.180444717407227</v>
+        <v>1.178255081176758</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1385465860366821</v>
+        <v>-0.1368545293807983</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.415118455886841</v>
+        <v>1.414620399475098</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145163774490356</v>
+        <v>1.143007159233093</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2699546813964844</v>
+        <v>0.2716132402420044</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9754554033279419</v>
+        <v>0.9749579429626465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9831194281578064</v>
+        <v>0.9811147451400757</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.007664024829864502</v>
+        <v>-0.006156802177429199</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.058115720748901</v>
+        <v>1.057618141174316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212801218032837</v>
+        <v>0.8194272518157959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2368355989456177</v>
+        <v>0.2381908893585205</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7396782636642456</v>
+        <v>0.7391810417175293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3293063342571259</v>
+        <v>0.3279147446155548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4103719294071198</v>
+        <v>0.4112662971019745</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2466474920511246</v>
+        <v>0.2461509853601456</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04237544164061546</v>
+        <v>-0.0434185191988945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2890229225158691</v>
+        <v>0.2895694971084595</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5117932558059692</v>
+        <v>0.5112963914871216</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3826376497745514</v>
+        <v>-0.3833616971969604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8944308757781982</v>
+        <v>0.894658088684082</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.185139298439026</v>
+        <v>1.184641599655151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2558291852474213</v>
+        <v>0.2545064985752106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9293100833892822</v>
+        <v>0.9301351308822632</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023962736129761</v>
+        <v>1.023465156555176</v>
       </c>
       <c r="C17" t="n">
-        <v>1.069518566131592</v>
+        <v>1.067432999610901</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04555583000183105</v>
+        <v>-0.0439678430557251</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.104104399681091</v>
+        <v>1.103606820106506</v>
       </c>
       <c r="C18" t="n">
-        <v>1.868521928787231</v>
+        <v>1.865687131881714</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7644175291061401</v>
+        <v>-0.7620803117752075</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.035397291183472</v>
+        <v>1.034899711608887</v>
       </c>
       <c r="C19" t="n">
-        <v>1.194370031356812</v>
+        <v>1.192167401313782</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1589727401733398</v>
+        <v>-0.157267689704895</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4161020815372467</v>
+        <v>0.4156053364276886</v>
       </c>
       <c r="C20" t="n">
-        <v>2.020455598831177</v>
+        <v>2.017478227615356</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.604353547096252</v>
+        <v>-1.60187292098999</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7244808673858643</v>
+        <v>0.7239837050437927</v>
       </c>
       <c r="C21" t="n">
-        <v>1.394753813743591</v>
+        <v>1.392363309860229</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6702729463577271</v>
+        <v>-0.6683796048164368</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7126407623291016</v>
+        <v>0.7121436595916748</v>
       </c>
       <c r="C22" t="n">
-        <v>1.512563467025757</v>
+        <v>1.510062456130981</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7999227046966553</v>
+        <v>-0.7979187965393066</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3986313045024872</v>
+        <v>0.3981345891952515</v>
       </c>
       <c r="C23" t="n">
-        <v>1.337881803512573</v>
+        <v>1.335544586181641</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9392504692077637</v>
+        <v>-0.9374099969863892</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6775132417678833</v>
+        <v>0.6770161390304565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8567699790000916</v>
+        <v>0.8548838496208191</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1792567372322083</v>
+        <v>-0.1778677105903625</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105807542800903</v>
+        <v>1.105309963226318</v>
       </c>
       <c r="C25" t="n">
-        <v>1.019786834716797</v>
+        <v>1.01774787902832</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08602070808410645</v>
+        <v>0.08756208419799805</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8972936272621155</v>
+        <v>0.8967962265014648</v>
       </c>
       <c r="C26" t="n">
-        <v>1.543422222137451</v>
+        <v>1.540892362594604</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6461285948753357</v>
+        <v>-0.6440961360931396</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145779728889465</v>
+        <v>1.145281910896301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7479355931282043</v>
+        <v>0.7461515069007874</v>
       </c>
       <c r="D27" t="n">
-        <v>0.397844135761261</v>
+        <v>0.3991304039955139</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.17761754989624</v>
+        <v>1.177119731903076</v>
       </c>
       <c r="C28" t="n">
-        <v>1.997320175170898</v>
+        <v>1.994364500045776</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8197026252746582</v>
+        <v>-0.8172447681427002</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9131298661231995</v>
+        <v>0.9126324653625488</v>
       </c>
       <c r="C29" t="n">
-        <v>1.849812507629395</v>
+        <v>1.846995234489441</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9366826415061951</v>
+        <v>-0.9343627691268921</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4942877888679504</v>
+        <v>0.4937909543514252</v>
       </c>
       <c r="C30" t="n">
-        <v>1.62179696559906</v>
+        <v>1.619193553924561</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.127509117126465</v>
+        <v>-1.125402569770813</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7601777911186218</v>
+        <v>0.7596805691719055</v>
       </c>
       <c r="C31" t="n">
-        <v>1.242663741111755</v>
+        <v>1.240415811538696</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4824859499931335</v>
+        <v>-0.4807352423667908</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8589516878128052</v>
+        <v>0.8584543466567993</v>
       </c>
       <c r="C32" t="n">
-        <v>1.403791904449463</v>
+        <v>1.401392817497253</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5448402166366577</v>
+        <v>-0.5429384708404541</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7016700506210327</v>
+        <v>0.701172947883606</v>
       </c>
       <c r="C33" t="n">
-        <v>1.338089466094971</v>
+        <v>1.335752129554749</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.636419415473938</v>
+        <v>-0.6345791816711426</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.0064697265625</v>
+        <v>2.00597095489502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5390893220901489</v>
+        <v>0.5375010371208191</v>
       </c>
       <c r="D34" t="n">
-        <v>1.467380404472351</v>
+        <v>1.468469858169556</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464558720588684</v>
+        <v>1.464060544967651</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1065821722149849</v>
+        <v>-0.1075650453567505</v>
       </c>
       <c r="D35" t="n">
-        <v>1.571140885353088</v>
+        <v>1.571625590324402</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.211621880531311</v>
+        <v>1.211124062538147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5299724340438843</v>
+        <v>0.5283926725387573</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6816494464874268</v>
+        <v>0.6827313899993896</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.494471073150635</v>
+        <v>1.493972897529602</v>
       </c>
       <c r="C37" t="n">
-        <v>2.04572606086731</v>
+        <v>2.042725086212158</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5512549877166748</v>
+        <v>-0.5487521886825562</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.331539630889893</v>
+        <v>1.331041693687439</v>
       </c>
       <c r="C38" t="n">
-        <v>2.167622566223145</v>
+        <v>2.164507389068604</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.836082935333252</v>
+        <v>-0.8334656953811646</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969804883003235</v>
+        <v>1.969305992126465</v>
       </c>
       <c r="C39" t="n">
-        <v>1.654367327690125</v>
+        <v>1.6517333984375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3154375553131104</v>
+        <v>0.3175725936889648</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744843721389771</v>
+        <v>1.744345188140869</v>
       </c>
       <c r="C40" t="n">
-        <v>1.118217945098877</v>
+        <v>1.116086721420288</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6266257762908936</v>
+        <v>0.6282584667205811</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821361660957336</v>
+        <v>1.820863008499146</v>
       </c>
       <c r="C41" t="n">
-        <v>1.657857298851013</v>
+        <v>1.655220031738281</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1635043621063232</v>
+        <v>0.1656429767608643</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755749702453613</v>
+        <v>1.755251169204712</v>
       </c>
       <c r="C42" t="n">
-        <v>1.19194233417511</v>
+        <v>1.189741849899292</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5638073682785034</v>
+        <v>0.5655093193054199</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.60327935218811</v>
+        <v>1.602780938148499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7145214676856995</v>
+        <v>0.7127686738967896</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8887578845024109</v>
+        <v>0.890012264251709</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.16457200050354</v>
+        <v>1.164074301719666</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4811447262763977</v>
+        <v>0.4796107709407806</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6834272742271423</v>
+        <v>0.6844635009765625</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.087727546691895</v>
+        <v>1.08722984790802</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04245525598526001</v>
+        <v>0.04133263602852821</v>
       </c>
       <c r="D45" t="n">
-        <v>1.045272350311279</v>
+        <v>1.045897245407104</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349732756614685</v>
+        <v>1.349234819412231</v>
       </c>
       <c r="C46" t="n">
-        <v>1.124815583229065</v>
+        <v>1.122678160667419</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2249171733856201</v>
+        <v>0.226556658744812</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9919810891151428</v>
+        <v>0.9914835691452026</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8926862478256226</v>
+        <v>0.8907663226127625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09929484128952026</v>
+        <v>0.1007172465324402</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6590308547019958</v>
+        <v>0.6585337519645691</v>
       </c>
       <c r="C48" t="n">
-        <v>1.012415528297424</v>
+        <v>1.010383367538452</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3533846735954285</v>
+        <v>-0.3518496155738831</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7149844765663147</v>
+        <v>0.7144873738288879</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3770246207714081</v>
+        <v>0.3755882978439331</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3379598557949066</v>
+        <v>0.3388990759849548</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.38211977481842</v>
+        <v>1.381621718406677</v>
       </c>
       <c r="C50" t="n">
-        <v>1.392610788345337</v>
+        <v>1.390222311019897</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0104910135269165</v>
+        <v>-0.008600592613220215</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.343418478965759</v>
+        <v>1.342920422554016</v>
       </c>
       <c r="C51" t="n">
-        <v>1.251543760299683</v>
+        <v>1.249287366867065</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09187471866607666</v>
+        <v>0.09363305568695068</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.02267324924469</v>
+        <v>1.022175669670105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6196246743202209</v>
+        <v>0.6179608702659607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.403048574924469</v>
+        <v>0.4042147994041443</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.145099878311157</v>
+        <v>1.144602179527283</v>
       </c>
       <c r="C53" t="n">
-        <v>1.141085028648376</v>
+        <v>1.138932228088379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.004014849662780762</v>
+        <v>0.005669951438903809</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1821050345897675</v>
+        <v>-0.1826009899377823</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8891267776489258</v>
+        <v>0.8872103095054626</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.071231842041016</v>
+        <v>-1.069811344146729</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05496980994939804</v>
+        <v>-0.05546592548489571</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8135625720024109</v>
+        <v>0.8117168545722961</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8685323596000671</v>
+        <v>-0.8671827912330627</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1702440828084946</v>
+        <v>0.1697476655244827</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7573512196540833</v>
+        <v>0.7555583119392395</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5871071219444275</v>
+        <v>-0.585810661315918</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.145536780357361</v>
+        <v>1.145039081573486</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8515972495079041</v>
+        <v>0.8497159481048584</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2939395308494568</v>
+        <v>0.2953231334686279</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.254628300666809</v>
+        <v>1.254130482673645</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6635497212409973</v>
+        <v>0.6618447303771973</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5910785794258118</v>
+        <v>0.5922857522964478</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.244392275810242</v>
+        <v>1.243894457817078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7001165747642517</v>
+        <v>0.6983773112297058</v>
       </c>
       <c r="D59" t="n">
-        <v>0.54427570104599</v>
+        <v>0.5455171465873718</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.064367771148682</v>
+        <v>1.063870072364807</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9388806819915771</v>
+        <v>0.9369175434112549</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1254870891571045</v>
+        <v>0.1269525289535522</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.009650111198425</v>
+        <v>1.00915253162384</v>
       </c>
       <c r="C61" t="n">
-        <v>1.167418360710144</v>
+        <v>1.165240883827209</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1577682495117188</v>
+        <v>-0.1560883522033691</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.870796263217926</v>
+        <v>0.8702989220619202</v>
       </c>
       <c r="C62" t="n">
-        <v>1.483326315879822</v>
+        <v>1.480852603912354</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6125300526618958</v>
+        <v>-0.6105536818504333</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9215238094329834</v>
+        <v>0.9210264086723328</v>
       </c>
       <c r="C63" t="n">
-        <v>2.667434453964233</v>
+        <v>2.663850545883179</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.74591064453125</v>
+        <v>-1.742824077606201</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159697294235229</v>
+        <v>1.159199595451355</v>
       </c>
       <c r="C64" t="n">
-        <v>2.595669507980347</v>
+        <v>2.592153072357178</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.435972213745117</v>
+        <v>-1.432953476905823</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.35732114315033</v>
+        <v>1.356823205947876</v>
       </c>
       <c r="C65" t="n">
-        <v>1.065087676048279</v>
+        <v>1.063006162643433</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2922334671020508</v>
+        <v>0.2938170433044434</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529634118080139</v>
+        <v>1.529135942459106</v>
       </c>
       <c r="C66" t="n">
-        <v>1.250887513160706</v>
+        <v>1.248631715774536</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2787466049194336</v>
+        <v>0.2805042266845703</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.364059805870056</v>
+        <v>1.363561749458313</v>
       </c>
       <c r="C67" t="n">
-        <v>1.65693199634552</v>
+        <v>1.654295444488525</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2928721904754639</v>
+        <v>-0.2907336950302124</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6035174131393433</v>
+        <v>0.6030204296112061</v>
       </c>
       <c r="C68" t="n">
-        <v>1.713659167289734</v>
+        <v>1.710969567298889</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.110141754150391</v>
+        <v>-1.107949137687683</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9867441654205322</v>
+        <v>0.986246645450592</v>
       </c>
       <c r="C69" t="n">
-        <v>1.765141367912292</v>
+        <v>1.76240336894989</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7783972024917603</v>
+        <v>-0.7761567234992981</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.887009859085083</v>
+        <v>0.8865125179290771</v>
       </c>
       <c r="C70" t="n">
-        <v>2.002793788909912</v>
+        <v>1.999833226203918</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.115783929824829</v>
+        <v>-1.113320708274841</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7934433817863464</v>
+        <v>0.7929461598396301</v>
       </c>
       <c r="C71" t="n">
-        <v>1.775681138038635</v>
+        <v>1.7729332447052</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9822377562522888</v>
+        <v>-0.9799870848655701</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5034996867179871</v>
+        <v>0.5030028223991394</v>
       </c>
       <c r="C72" t="n">
-        <v>1.648619174957275</v>
+        <v>1.645990490913391</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.145119428634644</v>
+        <v>-1.142987728118896</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3518910706043243</v>
+        <v>0.3513944149017334</v>
       </c>
       <c r="C73" t="n">
-        <v>1.250022172927856</v>
+        <v>1.247767210006714</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8981311321258545</v>
+        <v>-0.8963727951049805</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.439615398645401</v>
+        <v>0.4391186237335205</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5748009085655212</v>
+        <v>0.5731791853904724</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1351855099201202</v>
+        <v>-0.1340605616569519</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.491684228181839</v>
+        <v>0.4911873638629913</v>
       </c>
       <c r="C75" t="n">
-        <v>1.924674391746521</v>
+        <v>1.921787023544312</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.432990193367004</v>
+        <v>-1.430599689483643</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8051270842552185</v>
+        <v>0.8046298027038574</v>
       </c>
       <c r="C76" t="n">
-        <v>1.234795689582825</v>
+        <v>1.232555031776428</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4296686053276062</v>
+        <v>-0.4279252290725708</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7495895624160767</v>
+        <v>0.7490924000740051</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8357051014900208</v>
+        <v>0.8338386416435242</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08611553907394409</v>
+        <v>-0.08474624156951904</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.076129674911499</v>
+        <v>1.075632095336914</v>
       </c>
       <c r="C78" t="n">
-        <v>1.515852332115173</v>
+        <v>1.51334810256958</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4397226572036743</v>
+        <v>-0.437716007232666</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8502251505851746</v>
+        <v>0.8497278094291687</v>
       </c>
       <c r="C79" t="n">
-        <v>1.283620357513428</v>
+        <v>1.281333804130554</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4333952069282532</v>
+        <v>-0.4316059947013855</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9281498193740845</v>
+        <v>0.9276523590087891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5352070331573486</v>
+        <v>0.5336223840713501</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3929427862167358</v>
+        <v>0.394029974937439</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514647364616394</v>
+        <v>1.514149069786072</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6807557344436646</v>
+        <v>0.6790345907211304</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8338916301727295</v>
+        <v>0.8351144790649414</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.291440010070801</v>
+        <v>1.290942072868347</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6661073565483093</v>
+        <v>-0.6665655970573425</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957547426223755</v>
+        <v>1.957507610321045</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.58460009098053</v>
+        <v>1.584101796150208</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8337511420249939</v>
+        <v>-0.8340522050857544</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418351173400879</v>
+        <v>2.418154001235962</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82489550113678</v>
+        <v>1.824396848678589</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1677319258451462</v>
+        <v>-0.1686574518680573</v>
       </c>
       <c r="D84" t="n">
-        <v>1.992627382278442</v>
+        <v>1.993054270744324</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837740778923035</v>
+        <v>1.837242126464844</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9700155258178711</v>
+        <v>0.9680232405662537</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8677252531051636</v>
+        <v>0.8692188858985901</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687456488609314</v>
+        <v>1.686958074569702</v>
       </c>
       <c r="C86" t="n">
-        <v>1.250324249267578</v>
+        <v>1.248069047927856</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4371322393417358</v>
+        <v>0.4388890266418457</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547557234764099</v>
+        <v>1.547058939933777</v>
       </c>
       <c r="C87" t="n">
-        <v>1.956264853477478</v>
+        <v>1.95334780216217</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4087076187133789</v>
+        <v>-0.4062888622283936</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359564781188965</v>
+        <v>1.359066843986511</v>
       </c>
       <c r="C88" t="n">
-        <v>0.89048171043396</v>
+        <v>0.8885639905929565</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4690830707550049</v>
+        <v>0.4705028533935547</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404910445213318</v>
+        <v>1.404412388801575</v>
       </c>
       <c r="C89" t="n">
-        <v>1.047521591186523</v>
+        <v>1.045456647872925</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3573888540267944</v>
+        <v>0.3589557409286499</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746905326843262</v>
+        <v>1.74640679359436</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8162635564804077</v>
+        <v>0.8144153952598572</v>
       </c>
       <c r="D90" t="n">
-        <v>0.930641770362854</v>
+        <v>0.9319913983345032</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.892484545707703</v>
+        <v>1.891985893249512</v>
       </c>
       <c r="C91" t="n">
-        <v>1.18796706199646</v>
+        <v>1.185770511627197</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7045174837112427</v>
+        <v>0.7062153816223145</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.564079642295837</v>
+        <v>1.563581466674805</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8768622279167175</v>
+        <v>0.8749572038650513</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6872174143791199</v>
+        <v>0.6886242628097534</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709761738777161</v>
+        <v>1.709263205528259</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7238698601722717</v>
+        <v>0.7221083045005798</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9858918786048889</v>
+        <v>0.9871549010276794</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.431476235389709</v>
+        <v>1.430978059768677</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228654682636261</v>
+        <v>0.2273574620485306</v>
       </c>
       <c r="D94" t="n">
-        <v>1.202821493148804</v>
+        <v>1.203620553016663</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083987355232239</v>
+        <v>1.083489656448364</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5319334864616394</v>
+        <v>0.5303519368171692</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5520538687705994</v>
+        <v>0.5531377196311951</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6695752739906311</v>
+        <v>0.6690782308578491</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7359529137611389</v>
+        <v>0.7341800332069397</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06637763977050781</v>
+        <v>-0.06510180234909058</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.605060875415802</v>
+        <v>0.60456383228302</v>
       </c>
       <c r="C97" t="n">
-        <v>1.057218074798584</v>
+        <v>1.05514395236969</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.452157199382782</v>
+        <v>-0.4505801200866699</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.004711151123047</v>
+        <v>1.004213690757751</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9821510314941406</v>
+        <v>0.9801474213600159</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02256011962890625</v>
+        <v>0.0240662693977356</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2803941965103149</v>
+        <v>0.2798976302146912</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1169159784913063</v>
+        <v>0.115723542869091</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1634782254695892</v>
+        <v>0.1641740798950195</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05604764819145203</v>
+        <v>-0.05654376372694969</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.346158891916275</v>
+        <v>-0.3469171226024628</v>
       </c>
       <c r="D100" t="n">
-        <v>0.290111243724823</v>
+        <v>0.2903733551502228</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2300643771886826</v>
+        <v>-0.2305602580308914</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3345833122730255</v>
+        <v>0.3331867754459381</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5646476745605469</v>
+        <v>-0.5637470483779907</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2123093158006668</v>
+        <v>0.2118128389120102</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2680673897266388</v>
+        <v>-0.2688988447189331</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4803767204284668</v>
+        <v>0.4807116985321045</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.752037525177002</v>
+        <v>0.7515403032302856</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4422484934329987</v>
+        <v>-0.4429166316986084</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194285988807678</v>
+        <v>1.194456934928894</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.002273321151733</v>
+        <v>1.001775741577148</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7019891142845154</v>
+        <v>-0.7024136781692505</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704262495040894</v>
+        <v>1.704189419746399</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.069087386131287</v>
+        <v>1.068589687347412</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04017993807792664</v>
+        <v>-0.04122507572174072</v>
       </c>
       <c r="D105" t="n">
-        <v>1.109267354011536</v>
+        <v>1.109814763069153</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.173736810684204</v>
+        <v>1.17323899269104</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6572536826133728</v>
+        <v>0.6555545926094055</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5164831280708313</v>
+        <v>0.5176844000816345</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.082200050354004</v>
+        <v>1.081702470779419</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4812137484550476</v>
+        <v>0.4796797335147858</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6009863018989563</v>
+        <v>0.6020227670669556</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8397449851036072</v>
+        <v>0.8392477035522461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.872559666633606</v>
+        <v>0.8706587553024292</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03281468152999878</v>
+        <v>-0.03141105175018311</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5678720474243164</v>
+        <v>0.567375123500824</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9741184711456299</v>
+        <v>0.9721222519874573</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4062464237213135</v>
+        <v>-0.4047471284866333</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8351320624351501</v>
+        <v>0.8346347808837891</v>
       </c>
       <c r="C110" t="n">
-        <v>1.016997933387756</v>
+        <v>1.01496160030365</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1818658709526062</v>
+        <v>-0.1803268194198608</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.193577766418457</v>
+        <v>1.193079948425293</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4836251437664032</v>
+        <v>0.4820888638496399</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7099525928497314</v>
+        <v>0.7109910845756531</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701620936393738</v>
+        <v>1.701122522354126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8196967840194702</v>
+        <v>0.8178454041481018</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8819241523742676</v>
+        <v>0.8832771182060242</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.04523491859436</v>
+        <v>1.044737339019775</v>
       </c>
       <c r="C113" t="n">
-        <v>1.129014611244202</v>
+        <v>1.126873254776001</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08377969264984131</v>
+        <v>-0.08213591575622559</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.459098339080811</v>
+        <v>1.458600163459778</v>
       </c>
       <c r="C114" t="n">
-        <v>1.732937216758728</v>
+        <v>1.730229616165161</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2738388776779175</v>
+        <v>-0.2716294527053833</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997884392738342</v>
+        <v>1.997385501861572</v>
       </c>
       <c r="C115" t="n">
-        <v>1.99158251285553</v>
+        <v>1.988632321357727</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0063018798828125</v>
+        <v>0.008753180503845215</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.311528444290161</v>
+        <v>1.311030507087708</v>
       </c>
       <c r="C116" t="n">
-        <v>2.490007638931274</v>
+        <v>2.486590147018433</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.178479194641113</v>
+        <v>-1.175559639930725</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.698213696479797</v>
+        <v>1.697715282440186</v>
       </c>
       <c r="C117" t="n">
-        <v>2.215556621551514</v>
+        <v>2.212396144866943</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5173429250717163</v>
+        <v>-0.5146808624267578</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721712946891785</v>
+        <v>1.721214413642883</v>
       </c>
       <c r="C118" t="n">
-        <v>1.645379781723022</v>
+        <v>1.642754316329956</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07633316516876221</v>
+        <v>0.07846009731292725</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.92797327041626</v>
+        <v>1.927474617958069</v>
       </c>
       <c r="C119" t="n">
-        <v>1.716708183288574</v>
+        <v>1.71401572227478</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2112650871276855</v>
+        <v>0.2134588956832886</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.380218625068665</v>
+        <v>1.379720568656921</v>
       </c>
       <c r="C120" t="n">
-        <v>1.699553608894348</v>
+        <v>1.696877241134644</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3193349838256836</v>
+        <v>-0.3171566724777222</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997823357582092</v>
+        <v>1.997324585914612</v>
       </c>
       <c r="C121" t="n">
-        <v>1.705536484718323</v>
+        <v>1.702854514122009</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2922868728637695</v>
+        <v>0.2944700717926025</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046983242034912</v>
+        <v>2.046484708786011</v>
       </c>
       <c r="C122" t="n">
-        <v>1.261956572532654</v>
+        <v>1.259690523147583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7850266695022583</v>
+        <v>0.7867941856384277</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351072072982788</v>
+        <v>2.350573062896729</v>
       </c>
       <c r="C123" t="n">
-        <v>2.162395477294922</v>
+        <v>2.159285068511963</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1886765956878662</v>
+        <v>0.1912879943847656</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.4528968334198</v>
+        <v>2.452397108078003</v>
       </c>
       <c r="C124" t="n">
-        <v>1.832323551177979</v>
+        <v>1.829522728919983</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6205732822418213</v>
+        <v>0.62287437915802</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421077013015747</v>
+        <v>2.420577764511108</v>
       </c>
       <c r="C125" t="n">
-        <v>1.640254974365234</v>
+        <v>1.63763427734375</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7808220386505127</v>
+        <v>0.7829434871673584</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778570413589478</v>
+        <v>1.778071880340576</v>
       </c>
       <c r="C126" t="n">
-        <v>2.265054702758789</v>
+        <v>2.261847972869873</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4864842891693115</v>
+        <v>-0.4837760925292969</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786505579948425</v>
+        <v>1.786006927490234</v>
       </c>
       <c r="C127" t="n">
-        <v>2.134861469268799</v>
+        <v>2.131776809692383</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3483558893203735</v>
+        <v>-0.3457698822021484</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.485474705696106</v>
+        <v>1.484976530075073</v>
       </c>
       <c r="C128" t="n">
-        <v>1.960309386253357</v>
+        <v>1.957388520240784</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.474834680557251</v>
+        <v>-0.4724119901657104</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.173092603683472</v>
+        <v>1.172594904899597</v>
       </c>
       <c r="C129" t="n">
-        <v>1.790790677070618</v>
+        <v>1.788028836250305</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.617698073387146</v>
+        <v>-0.615433931350708</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8101914525032043</v>
+        <v>0.8096941709518433</v>
       </c>
       <c r="C130" t="n">
-        <v>2.956156253814697</v>
+        <v>2.952301740646362</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.145964860916138</v>
+        <v>-2.142607688903809</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3942539989948273</v>
+        <v>0.3937572836875916</v>
       </c>
       <c r="C131" t="n">
-        <v>2.186199188232422</v>
+        <v>2.183066368103027</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.791945219039917</v>
+        <v>-1.789309024810791</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05561841279268265</v>
+        <v>-0.05611452832818031</v>
       </c>
       <c r="C132" t="n">
-        <v>1.842438578605652</v>
+        <v>1.839628219604492</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.898056983947754</v>
+        <v>-1.895742774009705</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09504315257072449</v>
+        <v>0.09454683214426041</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8251351714134216</v>
+        <v>0.8232786655426025</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7300920486450195</v>
+        <v>-0.7287318110466003</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1573159098625183</v>
+        <v>0.1568195223808289</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1764827072620392</v>
+        <v>0.1752344071865082</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01916679739952087</v>
+        <v>-0.01841488480567932</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3821155428886414</v>
+        <v>0.3816188275814056</v>
       </c>
       <c r="C135" t="n">
-        <v>0.365071177482605</v>
+        <v>0.3636460602283478</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01704436540603638</v>
+        <v>0.01797276735305786</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7321404218673706</v>
+        <v>0.7316432595252991</v>
       </c>
       <c r="C136" t="n">
-        <v>0.207747757434845</v>
+        <v>0.2064701467752457</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5243926644325256</v>
+        <v>0.5251731276512146</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6028977632522583</v>
+        <v>0.6024007797241211</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5150768160820007</v>
+        <v>0.513511061668396</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08782094717025757</v>
+        <v>0.0888897180557251</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8444458246231079</v>
+        <v>0.8439485430717468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9833863377571106</v>
+        <v>0.981381356716156</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1389405131340027</v>
+        <v>-0.1374328136444092</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.304333567619324</v>
+        <v>1.30383563041687</v>
       </c>
       <c r="C139" t="n">
-        <v>1.047425866127014</v>
+        <v>1.045360922813416</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2569077014923096</v>
+        <v>0.2584747076034546</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.261148452758789</v>
+        <v>1.260650634765625</v>
       </c>
       <c r="C140" t="n">
-        <v>1.28739857673645</v>
+        <v>1.28510856628418</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02625012397766113</v>
+        <v>-0.02445793151855469</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491544365882874</v>
+        <v>1.491046190261841</v>
       </c>
       <c r="C141" t="n">
-        <v>1.241530537605286</v>
+        <v>1.239283680915833</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2500138282775879</v>
+        <v>0.2517625093460083</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.404539585113525</v>
+        <v>1.404041528701782</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2012255489826202</v>
+        <v>0.1999540477991104</v>
       </c>
       <c r="D142" t="n">
-        <v>1.203314065933228</v>
+        <v>1.204087495803833</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.764482736587524</v>
+        <v>1.763984203338623</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2893523275852203</v>
+        <v>0.2879981994628906</v>
       </c>
       <c r="D143" t="n">
-        <v>1.475130438804626</v>
+        <v>1.475986003875732</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.604287624359131</v>
+        <v>1.603789329528809</v>
       </c>
       <c r="C144" t="n">
-        <v>1.29686164855957</v>
+        <v>1.294562816619873</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3074259757995605</v>
+        <v>0.3092265129089355</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711494088172913</v>
+        <v>1.710995674133301</v>
       </c>
       <c r="C145" t="n">
-        <v>1.486951231956482</v>
+        <v>1.484474062919617</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2245428562164307</v>
+        <v>0.2265216112136841</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.153126358985901</v>
+        <v>1.152628660202026</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9116957187652588</v>
+        <v>0.9097579717636108</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2414306402206421</v>
+        <v>0.2428706884384155</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7286768555641174</v>
+        <v>0.7281796932220459</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8600679636001587</v>
+        <v>0.8581787347793579</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1313911080360413</v>
+        <v>-0.129999041557312</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2890487313270569</v>
+        <v>0.2885521650314331</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2187456488609314</v>
+        <v>-0.2196233421564102</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5077943801879883</v>
+        <v>0.5081754922866821</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6835362315177917</v>
+        <v>0.683039128780365</v>
       </c>
       <c r="C149" t="n">
-        <v>1.579412460327148</v>
+        <v>1.576848745346069</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8958762288093567</v>
+        <v>-0.8938096165657043</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.039405226707458</v>
+        <v>1.038907647132874</v>
       </c>
       <c r="C150" t="n">
-        <v>2.477535009384155</v>
+        <v>2.474129199981689</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.438129782676697</v>
+        <v>-1.435221552848816</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.328744888305664</v>
+        <v>1.32824695110321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.299039006233215</v>
+        <v>1.296738147735596</v>
       </c>
       <c r="D151" t="n">
-        <v>0.02970588207244873</v>
+        <v>0.03150880336761475</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.362475395202637</v>
+        <v>1.361977458000183</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3022022545337677</v>
+        <v>0.3008360862731934</v>
       </c>
       <c r="D152" t="n">
-        <v>1.060273170471191</v>
+        <v>1.06114137172699</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.110033273696899</v>
+        <v>2.10953426361084</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1979939192533493</v>
+        <v>0.196725457906723</v>
       </c>
       <c r="D153" t="n">
-        <v>1.912039399147034</v>
+        <v>1.912808775901794</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996959924697876</v>
+        <v>1.996461153030396</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4679188132286072</v>
+        <v>0.4663972556591034</v>
       </c>
       <c r="D154" t="n">
-        <v>1.529041051864624</v>
+        <v>1.53006386756897</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.862059473991394</v>
+        <v>1.861560821533203</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7769040465354919</v>
+        <v>0.7750927805900574</v>
       </c>
       <c r="D155" t="n">
-        <v>1.085155487060547</v>
+        <v>1.086467981338501</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609478712081909</v>
+        <v>1.608980298042297</v>
       </c>
       <c r="C156" t="n">
-        <v>1.374373078346252</v>
+        <v>1.372001647949219</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2351056337356567</v>
+        <v>0.2369786500930786</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912708640098572</v>
+        <v>1.912209868431091</v>
       </c>
       <c r="C157" t="n">
-        <v>1.751494646072388</v>
+        <v>1.748769521713257</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1612139940261841</v>
+        <v>0.1634403467178345</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529508471488953</v>
+        <v>1.52901029586792</v>
       </c>
       <c r="C158" t="n">
-        <v>1.478757381439209</v>
+        <v>1.476287961006165</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05075109004974365</v>
+        <v>0.05272233486175537</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.364227652549744</v>
+        <v>1.36372971534729</v>
       </c>
       <c r="C159" t="n">
-        <v>1.648162603378296</v>
+        <v>1.645534515380859</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2839349508285522</v>
+        <v>-0.2818048000335693</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673541665077209</v>
+        <v>1.673043251037598</v>
       </c>
       <c r="C160" t="n">
-        <v>1.733895182609558</v>
+        <v>1.731186628341675</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.06035351753234863</v>
+        <v>-0.05814337730407715</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.342529058456421</v>
+        <v>1.342031121253967</v>
       </c>
       <c r="C161" t="n">
-        <v>1.68675696849823</v>
+        <v>1.68409252166748</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3442279100418091</v>
+        <v>-0.3420614004135132</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5802977085113525</v>
+        <v>0.5798007845878601</v>
       </c>
       <c r="C162" t="n">
-        <v>1.807689428329468</v>
+        <v>1.804911732673645</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.227391719818115</v>
+        <v>-1.22511100769043</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3745722472667694</v>
+        <v>0.3740755617618561</v>
       </c>
       <c r="C163" t="n">
-        <v>1.29225218296051</v>
+        <v>1.289957761764526</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9176799058914185</v>
+        <v>-0.9158822298049927</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6725600957870483</v>
+        <v>0.6720630526542664</v>
       </c>
       <c r="C164" t="n">
-        <v>1.452143669128418</v>
+        <v>1.449699282646179</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7795835733413696</v>
+        <v>-0.7776362299919128</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.860899031162262</v>
+        <v>0.8604016900062561</v>
       </c>
       <c r="C165" t="n">
-        <v>1.119988799095154</v>
+        <v>1.117855787277222</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2590897679328918</v>
+        <v>-0.2574540972709656</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.000439167022705</v>
+        <v>0.9999416470527649</v>
       </c>
       <c r="C166" t="n">
-        <v>1.251881957054138</v>
+        <v>1.249625205993652</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2514427900314331</v>
+        <v>-0.2496835589408875</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623515129089355</v>
+        <v>1.623016715049744</v>
       </c>
       <c r="C167" t="n">
-        <v>1.613231539726257</v>
+        <v>1.610635995864868</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01028358936309814</v>
+        <v>0.01238071918487549</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952610492706299</v>
+        <v>1.952111721038818</v>
       </c>
       <c r="C168" t="n">
-        <v>1.889255166053772</v>
+        <v>1.886400938034058</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06335532665252686</v>
+        <v>0.06571078300476074</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178957581520081</v>
+        <v>1.178459763526917</v>
       </c>
       <c r="C169" t="n">
-        <v>1.5798020362854</v>
+        <v>1.577237844467163</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.4008444547653198</v>
+        <v>-0.3987780809402466</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9847261905670166</v>
+        <v>0.9842286705970764</v>
       </c>
       <c r="C170" t="n">
-        <v>1.29392945766449</v>
+        <v>1.291633248329163</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3092032670974731</v>
+        <v>-0.3074045777320862</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9077376127243042</v>
+        <v>0.9072402119636536</v>
       </c>
       <c r="C171" t="n">
-        <v>1.045983791351318</v>
+        <v>1.043920159339905</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1382461786270142</v>
+        <v>-0.1366799473762512</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.024000287055969</v>
+        <v>1.023502826690674</v>
       </c>
       <c r="C172" t="n">
-        <v>1.888789415359497</v>
+        <v>1.885935544967651</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8647891283035278</v>
+        <v>-0.8624327182769775</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.224374532699585</v>
+        <v>1.223876714706421</v>
       </c>
       <c r="C173" t="n">
-        <v>1.681137084960938</v>
+        <v>1.678477883338928</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4567625522613525</v>
+        <v>-0.4546011686325073</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.656294822692871</v>
+        <v>1.655796408653259</v>
       </c>
       <c r="C174" t="n">
-        <v>1.879135131835938</v>
+        <v>1.876290440559387</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2228403091430664</v>
+        <v>-0.2204940319061279</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470539808273315</v>
+        <v>1.470041751861572</v>
       </c>
       <c r="C175" t="n">
-        <v>1.919468522071838</v>
+        <v>1.916585922241211</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4489287137985229</v>
+        <v>-0.4465441703796387</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.093166470527649</v>
+        <v>1.092668771743774</v>
       </c>
       <c r="C176" t="n">
-        <v>1.954519271850586</v>
+        <v>1.951603770256042</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.861352801322937</v>
+        <v>-0.8589349985122681</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104943156242371</v>
+        <v>1.104445576667786</v>
       </c>
       <c r="C177" t="n">
-        <v>2.080891847610474</v>
+        <v>2.077857732772827</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.975948691368103</v>
+        <v>-0.9734121561050415</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.335244655609131</v>
+        <v>1.334746718406677</v>
       </c>
       <c r="C178" t="n">
-        <v>1.98653256893158</v>
+        <v>1.983587145805359</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6512879133224487</v>
+        <v>-0.6488404273986816</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896347403526306</v>
+        <v>1.895848751068115</v>
       </c>
       <c r="C179" t="n">
-        <v>1.460362911224365</v>
+        <v>1.457910776138306</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4359844923019409</v>
+        <v>0.4379379749298096</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.87056303024292</v>
+        <v>1.870064377784729</v>
       </c>
       <c r="C180" t="n">
-        <v>1.518020272254944</v>
+        <v>1.515514135360718</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3525427579879761</v>
+        <v>0.3545502424240112</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434608578681946</v>
+        <v>1.434110403060913</v>
       </c>
       <c r="C181" t="n">
-        <v>1.842233538627625</v>
+        <v>1.839423418045044</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4076249599456787</v>
+        <v>-0.4053130149841309</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4882204532623291</v>
+        <v>0.4877236187458038</v>
       </c>
       <c r="C182" t="n">
-        <v>1.231467723846436</v>
+        <v>1.229230284690857</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7432472705841064</v>
+        <v>-0.7415066957473755</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8851675987243652</v>
+        <v>0.8846702575683594</v>
       </c>
       <c r="C183" t="n">
-        <v>1.508112668991089</v>
+        <v>1.505615830421448</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6229450702667236</v>
+        <v>-0.6209455728530884</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.55718195438385</v>
+        <v>1.556683778762817</v>
       </c>
       <c r="C184" t="n">
-        <v>1.786810278892517</v>
+        <v>1.784052014350891</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.229628324508667</v>
+        <v>-0.2273682355880737</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937819957733154</v>
+        <v>1.937321186065674</v>
       </c>
       <c r="C185" t="n">
-        <v>1.687366366386414</v>
+        <v>1.684701442718506</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2504535913467407</v>
+        <v>0.252619743347168</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966338634490967</v>
+        <v>1.965839862823486</v>
       </c>
       <c r="C186" t="n">
-        <v>1.634944915771484</v>
+        <v>1.632329106330872</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3313937187194824</v>
+        <v>0.3335107564926147</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065677404403687</v>
+        <v>2.065178632736206</v>
       </c>
       <c r="C187" t="n">
-        <v>1.488929629325867</v>
+        <v>1.486450672149658</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5767477750778198</v>
+        <v>0.5787279605865479</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351209163665771</v>
+        <v>2.350709438323975</v>
       </c>
       <c r="C188" t="n">
-        <v>1.526147842407227</v>
+        <v>1.52363395690918</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8250613212585449</v>
+        <v>0.8270754814147949</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.901784658432007</v>
+        <v>2.901284456253052</v>
       </c>
       <c r="C189" t="n">
-        <v>1.689382910728455</v>
+        <v>1.686716198921204</v>
       </c>
       <c r="D189" t="n">
-        <v>1.212401747703552</v>
+        <v>1.214568257331848</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.116186141967773</v>
+        <v>3.115686178207397</v>
       </c>
       <c r="C190" t="n">
-        <v>1.290334939956665</v>
+        <v>1.288042306900024</v>
       </c>
       <c r="D190" t="n">
-        <v>1.825851202011108</v>
+        <v>1.827643871307373</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.101175785064697</v>
+        <v>3.100675582885742</v>
       </c>
       <c r="C191" t="n">
-        <v>1.581731081008911</v>
+        <v>1.57916522026062</v>
       </c>
       <c r="D191" t="n">
-        <v>1.519444704055786</v>
+        <v>1.521510362625122</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.854838371276855</v>
+        <v>2.854338645935059</v>
       </c>
       <c r="C192" t="n">
-        <v>1.891888856887817</v>
+        <v>1.889032244682312</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9629495143890381</v>
+        <v>0.9653064012527466</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.928951978683472</v>
+        <v>2.928451538085938</v>
       </c>
       <c r="C193" t="n">
-        <v>2.968157052993774</v>
+        <v>2.964291334152222</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.03920507431030273</v>
+        <v>-0.03583979606628418</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.837177276611328</v>
+        <v>2.836677551269531</v>
       </c>
       <c r="C194" t="n">
-        <v>3.54859733581543</v>
+        <v>3.544187307357788</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7114200592041016</v>
+        <v>-0.7075097560882568</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279887199401855</v>
+        <v>2.279387950897217</v>
       </c>
       <c r="C195" t="n">
-        <v>3.321188449859619</v>
+        <v>3.316991567611694</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.041301250457764</v>
+        <v>-1.037603616714478</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.107412576675415</v>
+        <v>3.10691237449646</v>
       </c>
       <c r="C196" t="n">
-        <v>3.748759984970093</v>
+        <v>3.744162321090698</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6413474082946777</v>
+        <v>-0.6372499465942383</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.901791334152222</v>
+        <v>2.901291608810425</v>
       </c>
       <c r="C197" t="n">
-        <v>3.536730527877808</v>
+        <v>3.532331705093384</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6349391937255859</v>
+        <v>-0.631040096282959</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.015063762664795</v>
+        <v>2.014564990997314</v>
       </c>
       <c r="C198" t="n">
-        <v>3.2006676197052</v>
+        <v>3.196583986282349</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.185603857040405</v>
+        <v>-1.182018995285034</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.056251406669617</v>
+        <v>1.055753707885742</v>
       </c>
       <c r="C199" t="n">
-        <v>2.621401309967041</v>
+        <v>2.617860555648804</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.565149903297424</v>
+        <v>-1.562106847763062</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4220269918441772</v>
+        <v>0.4215302467346191</v>
       </c>
       <c r="C200" t="n">
-        <v>2.88871169090271</v>
+        <v>2.884920358657837</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.466684818267822</v>
+        <v>-2.463390111923218</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.444034457206726</v>
+        <v>1.443536400794983</v>
       </c>
       <c r="C201" t="n">
-        <v>2.645172595977783</v>
+        <v>2.64160943031311</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.201138138771057</v>
+        <v>-1.198073029518127</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064954280853271</v>
+        <v>1.064456701278687</v>
       </c>
       <c r="C202" t="n">
-        <v>2.750193357467651</v>
+        <v>2.74653148651123</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.68523907661438</v>
+        <v>-1.682074785232544</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.093588590621948</v>
+        <v>1.093091011047363</v>
       </c>
       <c r="C203" t="n">
-        <v>2.496471643447876</v>
+        <v>2.493047714233398</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.402883052825928</v>
+        <v>-1.399956703186035</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.301061272621155</v>
+        <v>1.300563335418701</v>
       </c>
       <c r="C204" t="n">
-        <v>2.128506898880005</v>
+        <v>2.125428199768066</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8274456262588501</v>
+        <v>-0.8248648643493652</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.286281108856201</v>
+        <v>1.285783171653748</v>
       </c>
       <c r="C205" t="n">
-        <v>1.835636258125305</v>
+        <v>1.832832217216492</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.549355149269104</v>
+        <v>-0.5470490455627441</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.047233819961548</v>
+        <v>1.046736240386963</v>
       </c>
       <c r="C206" t="n">
-        <v>1.101772665977478</v>
+        <v>1.099656701087952</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05453884601593018</v>
+        <v>-0.05292046070098877</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.204376459121704</v>
+        <v>1.20387864112854</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9591928720474243</v>
+        <v>0.9572106599807739</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2451835870742798</v>
+        <v>0.2466679811477661</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.473378896713257</v>
+        <v>1.472880721092224</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7639075517654419</v>
+        <v>0.7621085047721863</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7094713449478149</v>
+        <v>0.7107722163200378</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.51372504234314</v>
+        <v>1.513226866722107</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5807093381881714</v>
+        <v>0.5790820121765137</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9330157041549683</v>
+        <v>0.9341448545455933</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865534424781799</v>
+        <v>1.865035772323608</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6823573112487793</v>
+        <v>0.6806346774101257</v>
       </c>
       <c r="D210" t="n">
-        <v>1.18317711353302</v>
+        <v>1.184401035308838</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.613008856773376</v>
+        <v>1.612510561943054</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8471378684043884</v>
+        <v>0.8452607393264771</v>
       </c>
       <c r="D211" t="n">
-        <v>0.765870988368988</v>
+        <v>0.7672498226165771</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065766572952271</v>
+        <v>2.065267562866211</v>
       </c>
       <c r="C212" t="n">
-        <v>1.132899761199951</v>
+        <v>1.130754828453064</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9328668117523193</v>
+        <v>0.934512734413147</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152063369750977</v>
+        <v>2.151564121246338</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5275607109069824</v>
+        <v>0.5259832143783569</v>
       </c>
       <c r="D213" t="n">
-        <v>1.624502658843994</v>
+        <v>1.625580906867981</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.911123275756836</v>
+        <v>1.910624623298645</v>
       </c>
       <c r="C214" t="n">
-        <v>1.034966588020325</v>
+        <v>1.032913446426392</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8761566877365112</v>
+        <v>0.8777111768722534</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050506830215454</v>
+        <v>2.050008058547974</v>
       </c>
       <c r="C215" t="n">
-        <v>1.188138604164124</v>
+        <v>1.185941696166992</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8623682260513306</v>
+        <v>0.8640663623809814</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923993945121765</v>
+        <v>1.923495292663574</v>
       </c>
       <c r="C216" t="n">
-        <v>1.420581102371216</v>
+        <v>1.418166399002075</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5034128427505493</v>
+        <v>0.505328893661499</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003928065299988</v>
+        <v>1.003430485725403</v>
       </c>
       <c r="C217" t="n">
-        <v>1.221779584884644</v>
+        <v>1.21955132484436</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2178515195846558</v>
+        <v>-0.2161208391189575</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7126837968826294</v>
+        <v>0.7121866345405579</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5191212892532349</v>
+        <v>0.5175517201423645</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1935625076293945</v>
+        <v>0.1946349143981934</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493992686271667</v>
+        <v>1.493494510650635</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5061843395233154</v>
+        <v>0.5046269297599792</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9878083467483521</v>
+        <v>0.9888675808906555</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355703234672546</v>
+        <v>1.355205178260803</v>
       </c>
       <c r="C220" t="n">
-        <v>1.218460917472839</v>
+        <v>1.216235637664795</v>
       </c>
       <c r="D220" t="n">
-        <v>0.137242317199707</v>
+        <v>0.1389695405960083</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.492492437362671</v>
+        <v>1.491994261741638</v>
       </c>
       <c r="C221" t="n">
-        <v>1.434173345565796</v>
+        <v>1.431745648384094</v>
       </c>
       <c r="D221" t="n">
-        <v>0.058319091796875</v>
+        <v>0.06024861335754395</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288788437843323</v>
+        <v>1.288290500640869</v>
       </c>
       <c r="C222" t="n">
-        <v>1.012873411178589</v>
+        <v>1.010840892791748</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2759150266647339</v>
+        <v>0.2774496078491211</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9329620599746704</v>
+        <v>0.9324646592140198</v>
       </c>
       <c r="C223" t="n">
-        <v>0.739784300327301</v>
+        <v>0.7380077838897705</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1931777596473694</v>
+        <v>0.1944568753242493</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.093358278274536</v>
+        <v>1.092860698699951</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4338819086551666</v>
+        <v>0.4323922693729401</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6594763994216919</v>
+        <v>0.6604684591293335</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.490040063858032</v>
+        <v>1.489541888237</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5835093259811401</v>
+        <v>0.5818794369697571</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9065307378768921</v>
+        <v>0.9076624512672424</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.845240116119385</v>
+        <v>1.844741463661194</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08526075631380081</v>
+        <v>0.08409799635410309</v>
       </c>
       <c r="D226" t="n">
-        <v>1.759979367256165</v>
+        <v>1.760643482208252</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655830979347229</v>
+        <v>1.655332565307617</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4996190369129181</v>
+        <v>0.4980677664279938</v>
       </c>
       <c r="D227" t="n">
-        <v>1.156211972236633</v>
+        <v>1.157264828681946</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092420816421509</v>
+        <v>2.091922283172607</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9046713709831238</v>
+        <v>0.9027402997016907</v>
       </c>
       <c r="D228" t="n">
-        <v>1.18774938583374</v>
+        <v>1.189182043075562</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993825078010559</v>
+        <v>1.993326187133789</v>
       </c>
       <c r="C229" t="n">
-        <v>1.224965929985046</v>
+        <v>1.222734451293945</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7688591480255127</v>
+        <v>0.7705917358398438</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985503554344177</v>
+        <v>1.985004782676697</v>
       </c>
       <c r="C230" t="n">
-        <v>1.76240348815918</v>
+        <v>1.759668231010437</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2231000661849976</v>
+        <v>0.2253365516662598</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682912111282349</v>
+        <v>1.682413697242737</v>
       </c>
       <c r="C231" t="n">
-        <v>1.814362049102783</v>
+        <v>1.811578035354614</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1314499378204346</v>
+        <v>-0.1291643381118774</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702790975570679</v>
+        <v>1.702292442321777</v>
       </c>
       <c r="C232" t="n">
-        <v>1.587498545646667</v>
+        <v>1.584927320480347</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1152924299240112</v>
+        <v>0.1173651218414307</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202538728713989</v>
+        <v>2.202039480209351</v>
       </c>
       <c r="C233" t="n">
-        <v>1.626196980476379</v>
+        <v>1.623589277267456</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5763417482376099</v>
+        <v>0.5784502029418945</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.67614483833313</v>
+        <v>2.675645112991333</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9543166160583496</v>
+        <v>0.9523389935493469</v>
       </c>
       <c r="D234" t="n">
-        <v>1.72182822227478</v>
+        <v>1.723306179046631</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.317925930023193</v>
+        <v>2.317426681518555</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3096051812171936</v>
+        <v>0.3082320392131805</v>
       </c>
       <c r="D235" t="n">
-        <v>2.008320808410645</v>
+        <v>2.009194612503052</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135602474212646</v>
+        <v>2.135103464126587</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3543418943881989</v>
+        <v>0.3529268205165863</v>
       </c>
       <c r="D236" t="n">
-        <v>1.78126060962677</v>
+        <v>1.782176613807678</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.668561697006226</v>
+        <v>2.66806173324585</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6176798939704895</v>
+        <v>-0.6181835532188416</v>
       </c>
       <c r="D237" t="n">
-        <v>3.28624153137207</v>
+        <v>3.286245346069336</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.242839813232422</v>
+        <v>2.242340326309204</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161868929862976</v>
+        <v>-1.161862254142761</v>
       </c>
       <c r="D238" t="n">
-        <v>3.404708862304688</v>
+        <v>3.404202461242676</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.596688508987427</v>
+        <v>2.59618878364563</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.502668261528015</v>
+        <v>-1.502342104911804</v>
       </c>
       <c r="D239" t="n">
-        <v>4.099356651306152</v>
+        <v>4.098530769348145</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.772104501724243</v>
+        <v>2.771604537963867</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8830873370170593</v>
+        <v>-0.8833421468734741</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655191898345947</v>
+        <v>3.654946804046631</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301897287368774</v>
+        <v>2.301398277282715</v>
       </c>
       <c r="C241" t="n">
-        <v>1.31799328327179</v>
+        <v>1.315674543380737</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9839040040969849</v>
+        <v>0.9857237339019775</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.627627372741699</v>
+        <v>2.627127408981323</v>
       </c>
       <c r="C242" t="n">
-        <v>2.364032983779907</v>
+        <v>2.3607337474823</v>
       </c>
       <c r="D242" t="n">
-        <v>0.263594388961792</v>
+        <v>0.2663936614990234</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021753311157227</v>
+        <v>2.021254301071167</v>
       </c>
       <c r="C243" t="n">
-        <v>2.628983736038208</v>
+        <v>2.625436067581177</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6072304248809814</v>
+        <v>-0.6041817665100098</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.209067821502686</v>
+        <v>2.208568811416626</v>
       </c>
       <c r="C244" t="n">
-        <v>2.520955085754395</v>
+        <v>2.517508506774902</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.311887264251709</v>
+        <v>-0.3089396953582764</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266892910003662</v>
+        <v>2.266393661499023</v>
       </c>
       <c r="C245" t="n">
-        <v>2.598903179168701</v>
+        <v>2.595383405685425</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3320102691650391</v>
+        <v>-0.3289897441864014</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.321020603179932</v>
+        <v>2.320521354675293</v>
       </c>
       <c r="C246" t="n">
-        <v>1.549344658851624</v>
+        <v>1.546809196472168</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7716759443283081</v>
+        <v>0.773712158203125</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208423852920532</v>
+        <v>2.207924604415894</v>
       </c>
       <c r="C247" t="n">
-        <v>1.177712321281433</v>
+        <v>1.175525307655334</v>
       </c>
       <c r="D247" t="n">
-        <v>1.030711531639099</v>
+        <v>1.032399296760559</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036831140518188</v>
+        <v>2.036332368850708</v>
       </c>
       <c r="C248" t="n">
-        <v>1.608536839485168</v>
+        <v>1.605945825576782</v>
       </c>
       <c r="D248" t="n">
-        <v>0.42829430103302</v>
+        <v>0.4303865432739258</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542701005935669</v>
+        <v>1.542202830314636</v>
       </c>
       <c r="C249" t="n">
-        <v>2.016341924667358</v>
+        <v>2.013368606567383</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4736409187316895</v>
+        <v>-0.4711657762527466</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264829277992249</v>
+        <v>1.264331340789795</v>
       </c>
       <c r="C250" t="n">
-        <v>1.562411904335022</v>
+        <v>1.559864044189453</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2975826263427734</v>
+        <v>-0.2955327033996582</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.776327848434448</v>
+        <v>1.775829315185547</v>
       </c>
       <c r="C251" t="n">
-        <v>1.387369990348816</v>
+        <v>1.384986281394958</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3889578580856323</v>
+        <v>0.3908430337905884</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544826626777649</v>
+        <v>1.544328331947327</v>
       </c>
       <c r="C252" t="n">
-        <v>1.237806081771851</v>
+        <v>1.235562562942505</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3070205450057983</v>
+        <v>0.3087657690048218</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.405070304870605</v>
+        <v>1.404572248458862</v>
       </c>
       <c r="C253" t="n">
-        <v>0.946245014667511</v>
+        <v>0.9442750215530396</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4588252902030945</v>
+        <v>0.4602972269058228</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5291403532028198</v>
+        <v>0.5286434888839722</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04635177925229073</v>
+        <v>-0.047391127794981</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5754921436309814</v>
+        <v>0.5760346055030823</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7604442834854126</v>
+        <v>0.7599470615386963</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3280161917209625</v>
+        <v>0.3266258239746094</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4324280917644501</v>
+        <v>0.4333212375640869</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.203101396560669</v>
+        <v>1.202603578567505</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9537999629974365</v>
+        <v>0.9518228769302368</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2493014335632324</v>
+        <v>0.2507807016372681</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.182488918304443</v>
+        <v>1.181991100311279</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5304432511329651</v>
+        <v>0.5288630723953247</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6520456671714783</v>
+        <v>0.6531280279159546</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6784173846244812</v>
+        <v>0.6779202818870544</v>
       </c>
       <c r="C258" t="n">
-        <v>1.303849339485168</v>
+        <v>1.301543951034546</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6254319548606873</v>
+        <v>-0.6236236691474915</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8825213313102722</v>
+        <v>0.8820239305496216</v>
       </c>
       <c r="C259" t="n">
-        <v>1.838601231575012</v>
+        <v>1.83579432964325</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.95607990026474</v>
+        <v>-0.9537703990936279</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.17065417766571</v>
+        <v>1.170156359672546</v>
       </c>
       <c r="C260" t="n">
-        <v>2.287668466567993</v>
+        <v>2.284440517425537</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.117014288902283</v>
+        <v>-1.114284157752991</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297717928886414</v>
+        <v>1.29721999168396</v>
       </c>
       <c r="C261" t="n">
-        <v>1.930540919303894</v>
+        <v>1.927647829055786</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6328229904174805</v>
+        <v>-0.6304278373718262</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.508448481559753</v>
+        <v>1.507950305938721</v>
       </c>
       <c r="C262" t="n">
-        <v>1.456409931182861</v>
+        <v>1.453961610794067</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05203855037689209</v>
+        <v>0.05398869514465332</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188877105712891</v>
+        <v>1.188379287719727</v>
       </c>
       <c r="C263" t="n">
-        <v>2.215851545333862</v>
+        <v>2.212691068649292</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.026974439620972</v>
+        <v>-1.024311780929565</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.167035579681396</v>
+        <v>1.166537761688232</v>
       </c>
       <c r="C264" t="n">
-        <v>1.780211925506592</v>
+        <v>1.777459979057312</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6131763458251953</v>
+        <v>-0.6109222173690796</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.329224109649658</v>
+        <v>1.328726172447205</v>
       </c>
       <c r="C265" t="n">
-        <v>1.769063591957092</v>
+        <v>1.766322016716003</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4398394823074341</v>
+        <v>-0.4375958442687988</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683921933174133</v>
+        <v>1.683423519134521</v>
       </c>
       <c r="C266" t="n">
-        <v>2.335309982299805</v>
+        <v>2.332037448883057</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6513880491256714</v>
+        <v>-0.6486139297485352</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9164206981658936</v>
+        <v>0.9159232974052429</v>
       </c>
       <c r="C267" t="n">
-        <v>1.72704541683197</v>
+        <v>1.724343299865723</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8106247186660767</v>
+        <v>-0.8084200024604797</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.08962881565094</v>
+        <v>1.089131116867065</v>
       </c>
       <c r="C268" t="n">
-        <v>1.335651278495789</v>
+        <v>1.333316087722778</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2460224628448486</v>
+        <v>-0.2441849708557129</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,27 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163933753967285</v>
+        <v>1.163436055183411</v>
       </c>
       <c r="C269" t="n">
-        <v>1.987106919288635</v>
+        <v>1.984161019325256</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8231731653213501</v>
+        <v>-0.8207249641418457</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.002358078956604</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.187240123748779</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-1.184882044792175</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8136014938354492</v>
+        <v>0.8131664395332336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7998844385147095</v>
+        <v>0.7976972460746765</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01371705532073975</v>
+        <v>0.01546919345855713</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8403064012527466</v>
+        <v>0.8398721814155579</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2543677687644958</v>
+        <v>-0.2552627921104431</v>
       </c>
       <c r="D3" t="n">
-        <v>1.094674110412598</v>
+        <v>1.095134973526001</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9165725708007812</v>
+        <v>0.9161407947540283</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7646859288215637</v>
+        <v>-0.7649554014205933</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6812584400177</v>
+        <v>1.681096196174622</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4921010732650757</v>
+        <v>0.4916555881500244</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09594222158193588</v>
+        <v>0.09461782872676849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3961588442325592</v>
+        <v>0.3970377445220947</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7172257304191589</v>
+        <v>0.7167875170707703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02459111250936985</v>
+        <v>0.02335418201982975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.692634642124176</v>
+        <v>0.6934333443641663</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08160115033388138</v>
+        <v>0.08114241808652878</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1392674297094345</v>
+        <v>-0.1403035223484039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2208685874938965</v>
+        <v>0.2214459478855133</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6724586486816406</v>
+        <v>0.6720190048217773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.459771454334259</v>
+        <v>0.4580011069774628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2126871943473816</v>
+        <v>0.2140178978443146</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041400551795959</v>
+        <v>1.040972828865051</v>
       </c>
       <c r="C9" t="n">
-        <v>1.178255081176758</v>
+        <v>1.175603985786438</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1368545293807983</v>
+        <v>-0.1346311569213867</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414620399475098</v>
+        <v>1.414204716682434</v>
       </c>
       <c r="C10" t="n">
-        <v>1.143007159233093</v>
+        <v>1.14039945602417</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2716132402420044</v>
+        <v>0.2738052606582642</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9749579429626465</v>
+        <v>0.9745280146598816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9811147451400757</v>
+        <v>0.9787054061889648</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.006156802177429199</v>
+        <v>-0.004177391529083252</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057618141174316</v>
+        <v>1.057190895080566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8194272518157959</v>
+        <v>0.8172160387039185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2381908893585205</v>
+        <v>0.2399748563766479</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7391810417175293</v>
+        <v>0.7387436032295227</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3279147446155548</v>
+        <v>0.326306015253067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4112662971019745</v>
+        <v>0.4124375879764557</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2461509853601456</v>
+        <v>0.245697557926178</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0434185191988945</v>
+        <v>-0.04457208886742592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2895694971084595</v>
+        <v>0.2902696430683136</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5112963914871216</v>
+        <v>0.5108515024185181</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3833616971969604</v>
+        <v>-0.3840985894203186</v>
       </c>
       <c r="D15" t="n">
-        <v>0.894658088684082</v>
+        <v>0.8949500918388367</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184641599655151</v>
+        <v>1.184218406677246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2545064985752106</v>
+        <v>0.2529877424240112</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9301351308822632</v>
+        <v>0.9312306642532349</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023465156555176</v>
+        <v>1.02303683757782</v>
       </c>
       <c r="C17" t="n">
-        <v>1.067432999610901</v>
+        <v>1.064917683601379</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0439678430557251</v>
+        <v>-0.04188084602355957</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103606820106506</v>
+        <v>1.103181004524231</v>
       </c>
       <c r="C18" t="n">
-        <v>1.865687131881714</v>
+        <v>1.862193465232849</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7620803117752075</v>
+        <v>-0.7590124607086182</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034899711608887</v>
+        <v>1.034471869468689</v>
       </c>
       <c r="C19" t="n">
-        <v>1.192167401313782</v>
+        <v>1.189499258995056</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.157267689704895</v>
+        <v>-0.1550273895263672</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4156053364276886</v>
+        <v>0.4151573777198792</v>
       </c>
       <c r="C20" t="n">
-        <v>2.017478227615356</v>
+        <v>2.013798475265503</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.60187292098999</v>
+        <v>-1.598641157150269</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7239837050437927</v>
+        <v>0.7235457301139832</v>
       </c>
       <c r="C21" t="n">
-        <v>1.392363309860229</v>
+        <v>1.389449715614319</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6683796048164368</v>
+        <v>-0.6659039855003357</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7121436595916748</v>
+        <v>0.7117052674293518</v>
       </c>
       <c r="C22" t="n">
-        <v>1.510062456130981</v>
+        <v>1.507004857063293</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7979187965393066</v>
+        <v>-0.7952995896339417</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3981345891952515</v>
+        <v>0.3976860642433167</v>
       </c>
       <c r="C23" t="n">
-        <v>1.335544586181641</v>
+        <v>1.332700848579407</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9374099969863892</v>
+        <v>-0.9350147843360901</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6770161390304565</v>
+        <v>0.6765766739845276</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8548838496208191</v>
+        <v>0.8526291847229004</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1778677105903625</v>
+        <v>-0.1760525107383728</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105309963226318</v>
+        <v>1.104884266853333</v>
       </c>
       <c r="C25" t="n">
-        <v>1.01774787902832</v>
+        <v>1.015293598175049</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08756208419799805</v>
+        <v>0.08959066867828369</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8967962265014648</v>
+        <v>0.8963637948036194</v>
       </c>
       <c r="C26" t="n">
-        <v>1.540892362594604</v>
+        <v>1.53779673576355</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6440961360931396</v>
+        <v>-0.6414329409599304</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145281910896301</v>
+        <v>1.14485764503479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7461515069007874</v>
+        <v>0.7440301179885864</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3991304039955139</v>
+        <v>0.4008275270462036</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.177119731903076</v>
+        <v>1.176696419715881</v>
       </c>
       <c r="C28" t="n">
-        <v>1.994364500045776</v>
+        <v>1.990713119506836</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8172447681427002</v>
+        <v>-0.8140166997909546</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9126324653625488</v>
+        <v>0.9122006297111511</v>
       </c>
       <c r="C29" t="n">
-        <v>1.846995234489441</v>
+        <v>1.843524694442749</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9343627691268921</v>
+        <v>-0.9313240647315979</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4937909543514252</v>
+        <v>0.4933455288410187</v>
       </c>
       <c r="C30" t="n">
-        <v>1.619193553924561</v>
+        <v>1.616001963615417</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.125402569770813</v>
+        <v>-1.122656464576721</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7596805691719055</v>
+        <v>0.7592437267303467</v>
       </c>
       <c r="C31" t="n">
-        <v>1.240415811538696</v>
+        <v>1.237688541412354</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4807352423667908</v>
+        <v>-0.4784448146820068</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8584543466567993</v>
+        <v>0.8580207228660583</v>
       </c>
       <c r="C32" t="n">
-        <v>1.401392817497253</v>
+        <v>1.398468255996704</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5429384708404541</v>
+        <v>-0.5404475331306458</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.701172947883606</v>
+        <v>0.7007341980934143</v>
       </c>
       <c r="C33" t="n">
-        <v>1.335752129554749</v>
+        <v>1.332908034324646</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6345791816711426</v>
+        <v>-0.6321738362312317</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.00597095489502</v>
+        <v>2.005574464797974</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5375010371208191</v>
+        <v>0.5356354117393494</v>
       </c>
       <c r="D34" t="n">
-        <v>1.468469858169556</v>
+        <v>1.469938993453979</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464060544967651</v>
+        <v>1.463646531105042</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1075650453567505</v>
+        <v>-0.1086399927735329</v>
       </c>
       <c r="D35" t="n">
-        <v>1.571625590324402</v>
+        <v>1.572286486625671</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.211124062538147</v>
+        <v>1.210701823234558</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5283926725387573</v>
+        <v>0.5265382528305054</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6827313899993896</v>
+        <v>0.6841635704040527</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.493972897529602</v>
+        <v>1.493559718132019</v>
       </c>
       <c r="C37" t="n">
-        <v>2.042725086212158</v>
+        <v>2.039014577865601</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5487521886825562</v>
+        <v>-0.5454548597335815</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.331041693687439</v>
+        <v>1.330623269081116</v>
       </c>
       <c r="C38" t="n">
-        <v>2.164507389068604</v>
+        <v>2.160647392272949</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8334656953811646</v>
+        <v>-0.8300241231918335</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969305992126465</v>
+        <v>1.968908309936523</v>
       </c>
       <c r="C39" t="n">
-        <v>1.6517333984375</v>
+        <v>1.648501992225647</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3175725936889648</v>
+        <v>0.3204063177108765</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744345188140869</v>
+        <v>1.743940234184265</v>
       </c>
       <c r="C40" t="n">
-        <v>1.116086721420288</v>
+        <v>1.113511919975281</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6282584667205811</v>
+        <v>0.6304283142089844</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.820863008499146</v>
+        <v>1.820460438728333</v>
       </c>
       <c r="C41" t="n">
-        <v>1.655220031738281</v>
+        <v>1.651984453201294</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1656429767608643</v>
+        <v>0.1684759855270386</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755251169204712</v>
+        <v>1.754846572875977</v>
       </c>
       <c r="C42" t="n">
-        <v>1.189741849899292</v>
+        <v>1.187076687812805</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5655093193054199</v>
+        <v>0.5677698850631714</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602780938148499</v>
+        <v>1.602371335029602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7127686738967896</v>
+        <v>0.7106882333755493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.890012264251709</v>
+        <v>0.8916831016540527</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.164074301719666</v>
+        <v>1.163650512695312</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4796107709407806</v>
+        <v>0.477816104888916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6844635009765625</v>
+        <v>0.6858344078063965</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.08722984790802</v>
+        <v>1.086803555488586</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04133263602852821</v>
+        <v>0.04007518664002419</v>
       </c>
       <c r="D45" t="n">
-        <v>1.045897245407104</v>
+        <v>1.046728372573853</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349234819412231</v>
+        <v>1.348816990852356</v>
       </c>
       <c r="C46" t="n">
-        <v>1.122678160667419</v>
+        <v>1.120095133781433</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226556658744812</v>
+        <v>0.2287218570709229</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9914835691452026</v>
+        <v>0.9910542368888855</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8907663226127625</v>
+        <v>0.8884677886962891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1007172465324402</v>
+        <v>0.1025864481925964</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6585337519645691</v>
+        <v>0.6580936908721924</v>
       </c>
       <c r="C48" t="n">
-        <v>1.010383367538452</v>
+        <v>1.007938146591187</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3518496155738831</v>
+        <v>-0.3498444557189941</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7144873738288879</v>
+        <v>0.7140490412712097</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3755882978439331</v>
+        <v>0.373921126127243</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3388990759849548</v>
+        <v>0.3401279151439667</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381621718406677</v>
+        <v>1.381205081939697</v>
       </c>
       <c r="C50" t="n">
-        <v>1.390222311019897</v>
+        <v>1.387311577796936</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.008600592613220215</v>
+        <v>-0.00610649585723877</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.342920422554016</v>
+        <v>1.342502474784851</v>
       </c>
       <c r="C51" t="n">
-        <v>1.249287366867065</v>
+        <v>1.246549248695374</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09363305568695068</v>
+        <v>0.09595322608947754</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.022175669670105</v>
+        <v>1.021747350692749</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6179608702659607</v>
+        <v>0.6159965991973877</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4042147994041443</v>
+        <v>0.4057507514953613</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144602179527283</v>
+        <v>1.144177794456482</v>
       </c>
       <c r="C53" t="n">
-        <v>1.138932228088379</v>
+        <v>1.136329412460327</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005669951438903809</v>
+        <v>0.007848381996154785</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1826009899377823</v>
+        <v>-0.1830682456493378</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8872103095054626</v>
+        <v>0.8849160671234131</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.069811344146729</v>
+        <v>-1.067984342575073</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05546592548489571</v>
+        <v>-0.05592908337712288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8117168545722961</v>
+        <v>0.8095151782035828</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8671827912330627</v>
+        <v>-0.8654442429542542</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1697476655244827</v>
+        <v>0.1692917793989182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7555583119392395</v>
+        <v>0.7534254193305969</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.585810661315918</v>
+        <v>-0.5841336250305176</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.145039081573486</v>
+        <v>1.144614696502686</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8497159481048584</v>
+        <v>0.8474676012992859</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2953231334686279</v>
+        <v>0.2971470952033997</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.254130482673645</v>
+        <v>1.253709554672241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6618447303771973</v>
+        <v>0.6598266959190369</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5922857522964478</v>
+        <v>0.5938828587532043</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243894457817078</v>
+        <v>1.243473291397095</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6983773112297058</v>
+        <v>0.6963145136833191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5455171465873718</v>
+        <v>0.5471587777137756</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063870072364807</v>
+        <v>1.063443064689636</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9369175434112549</v>
+        <v>0.9345623254776001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1269525289535522</v>
+        <v>0.1288807392120361</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.00915253162384</v>
+        <v>1.008723855018616</v>
       </c>
       <c r="C61" t="n">
-        <v>1.165240883827209</v>
+        <v>1.162605881690979</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1560883522033691</v>
+        <v>-0.1538820266723633</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8702989220619202</v>
+        <v>0.8698656558990479</v>
       </c>
       <c r="C62" t="n">
-        <v>1.480852603912354</v>
+        <v>1.477830767631531</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6105536818504333</v>
+        <v>-0.6079651117324829</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9210264086723328</v>
+        <v>0.9205948114395142</v>
       </c>
       <c r="C63" t="n">
-        <v>2.663850545883179</v>
+        <v>2.65937876701355</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.742824077606201</v>
+        <v>-1.738783955574036</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159199595451355</v>
+        <v>1.158775687217712</v>
       </c>
       <c r="C64" t="n">
-        <v>2.592153072357178</v>
+        <v>2.587769031524658</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.432953476905823</v>
+        <v>-1.428993344306946</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356823205947876</v>
+        <v>1.35640561580658</v>
       </c>
       <c r="C65" t="n">
-        <v>1.063006162643433</v>
+        <v>1.06049644947052</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2938170433044434</v>
+        <v>0.2959091663360596</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529135942459106</v>
+        <v>1.528723955154419</v>
       </c>
       <c r="C66" t="n">
-        <v>1.248631715774536</v>
+        <v>1.245894312858582</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2805042266845703</v>
+        <v>0.2828296422958374</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363561749458313</v>
+        <v>1.363144397735596</v>
       </c>
       <c r="C67" t="n">
-        <v>1.654295444488525</v>
+        <v>1.651061058044434</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2907336950302124</v>
+        <v>-0.2879166603088379</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6030204296112061</v>
+        <v>0.6025785207748413</v>
       </c>
       <c r="C68" t="n">
-        <v>1.710969567298889</v>
+        <v>1.7076655626297</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.107949137687683</v>
+        <v>-1.105087041854858</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.986246645450592</v>
+        <v>0.9858171343803406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.76240336894989</v>
+        <v>1.759036302566528</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7761567234992981</v>
+        <v>-0.7732191681861877</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8865125179290771</v>
+        <v>0.8860797882080078</v>
       </c>
       <c r="C70" t="n">
-        <v>1.999833226203918</v>
+        <v>1.996175289154053</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.113320708274841</v>
+        <v>-1.110095500946045</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7929461598396301</v>
+        <v>0.7925103902816772</v>
       </c>
       <c r="C71" t="n">
-        <v>1.7729332447052</v>
+        <v>1.769553303718567</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9799870848655701</v>
+        <v>-0.9770429134368896</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5030028223991394</v>
+        <v>0.5025576949119568</v>
       </c>
       <c r="C72" t="n">
-        <v>1.645990490913391</v>
+        <v>1.642766237258911</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.142987728118896</v>
+        <v>-1.14020848274231</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3513944149017334</v>
+        <v>0.3509443700313568</v>
       </c>
       <c r="C73" t="n">
-        <v>1.247767210006714</v>
+        <v>1.245031118392944</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8963727951049805</v>
+        <v>-0.8940867185592651</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4391186237335205</v>
+        <v>0.4386714398860931</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5731791853904724</v>
+        <v>0.5712698101997375</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1340605616569519</v>
+        <v>-0.1325983703136444</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4911873638629913</v>
+        <v>0.4907418787479401</v>
       </c>
       <c r="C75" t="n">
-        <v>1.921787023544312</v>
+        <v>1.918224692344666</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.430599689483643</v>
+        <v>-1.427482843399048</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8046298027038574</v>
+        <v>0.804194450378418</v>
       </c>
       <c r="C76" t="n">
-        <v>1.232555031776428</v>
+        <v>1.229837417602539</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4279252290725708</v>
+        <v>-0.4256429672241211</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7490924000740051</v>
+        <v>0.7486552000045776</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8338386416435242</v>
+        <v>0.8316099047660828</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08474624156951904</v>
+        <v>-0.08295470476150513</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075632095336914</v>
+        <v>1.075205445289612</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51334810256958</v>
+        <v>1.510286450386047</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.437716007232666</v>
+        <v>-0.4350810050964355</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8497278094291687</v>
+        <v>0.8492938876152039</v>
       </c>
       <c r="C79" t="n">
-        <v>1.281333804130554</v>
+        <v>1.2785564661026</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4316059947013855</v>
+        <v>-0.4292625784873962</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9276523590087891</v>
+        <v>0.9272210001945496</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5336223840713501</v>
+        <v>0.5317615270614624</v>
       </c>
       <c r="D80" t="n">
-        <v>0.394029974937439</v>
+        <v>0.3954594731330872</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514149069786072</v>
+        <v>1.513736605644226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6790345907211304</v>
+        <v>0.6769955158233643</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8351144790649414</v>
+        <v>0.8367410898208618</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290942072868347</v>
+        <v>1.290522456169128</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6665655970573425</v>
+        <v>-0.6669553518295288</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957507610321045</v>
+        <v>1.957477807998657</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584101796150208</v>
+        <v>1.583691596984863</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8340522050857544</v>
+        <v>-0.8342366814613342</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418154001235962</v>
+        <v>2.417928218841553</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824396848678589</v>
+        <v>1.823994398117065</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1686574518680573</v>
+        <v>-0.1696575134992599</v>
       </c>
       <c r="D84" t="n">
-        <v>1.993054270744324</v>
+        <v>1.993651866912842</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837242126464844</v>
+        <v>1.836840033531189</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9680232405662537</v>
+        <v>0.9656298756599426</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8692188858985901</v>
+        <v>0.8712101578712463</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.686958074569702</v>
+        <v>1.686551213264465</v>
       </c>
       <c r="C86" t="n">
-        <v>1.248069047927856</v>
+        <v>1.245332360267639</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4388890266418457</v>
+        <v>0.4412188529968262</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547058939933777</v>
+        <v>1.546647548675537</v>
       </c>
       <c r="C87" t="n">
-        <v>1.95334780216217</v>
+        <v>1.94974684715271</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4062888622283936</v>
+        <v>-0.4030992984771729</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359066843986511</v>
+        <v>1.358649373054504</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8885639905929565</v>
+        <v>0.8862680196762085</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4705028533935547</v>
+        <v>0.4723813533782959</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404412388801575</v>
+        <v>1.403996348381042</v>
       </c>
       <c r="C89" t="n">
-        <v>1.045456647872925</v>
+        <v>1.042968392372131</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3589557409286499</v>
+        <v>0.3610279560089111</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.74640679359436</v>
+        <v>1.746001839637756</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8144153952598572</v>
+        <v>0.8122103810310364</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9319913983345032</v>
+        <v>0.93379145860672</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.891985893249512</v>
+        <v>1.8915855884552</v>
       </c>
       <c r="C91" t="n">
-        <v>1.185770511627197</v>
+        <v>1.183110237121582</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7062153816223145</v>
+        <v>0.7084753513336182</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563581466674805</v>
+        <v>1.563170552253723</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8749572038650513</v>
+        <v>0.8726779818534851</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6886242628097534</v>
+        <v>0.690492570400238</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709263205528259</v>
+        <v>1.70885705947876</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7221083045005798</v>
+        <v>0.7200164198875427</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9871549010276794</v>
+        <v>0.988840639591217</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430978059768677</v>
+        <v>1.430562973022461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2273574620485306</v>
+        <v>0.2258720099925995</v>
       </c>
       <c r="D94" t="n">
-        <v>1.203620553016663</v>
+        <v>1.204690933227539</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083489656448364</v>
+        <v>1.083063364028931</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5303519368171692</v>
+        <v>0.5284950733184814</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5531377196311951</v>
+        <v>0.5545682907104492</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6690782308578491</v>
+        <v>0.6686384677886963</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7341800332069397</v>
+        <v>0.7320733070373535</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06510180234909058</v>
+        <v>-0.06343483924865723</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.60456383228302</v>
+        <v>0.6041220426559448</v>
       </c>
       <c r="C97" t="n">
-        <v>1.05514395236969</v>
+        <v>1.052643895149231</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4505801200866699</v>
+        <v>-0.4485218524932861</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.004213690757751</v>
+        <v>1.003784775733948</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9801474213600159</v>
+        <v>0.977739155292511</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0240662693977356</v>
+        <v>0.02604562044143677</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2798976302146912</v>
+        <v>0.2794453203678131</v>
       </c>
       <c r="C99" t="n">
-        <v>0.115723542869091</v>
+        <v>0.1143749058246613</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1641740798950195</v>
+        <v>0.1650704145431519</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05654376372694969</v>
+        <v>-0.05700695887207985</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3469171226024628</v>
+        <v>-0.3476986885070801</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2903733551502228</v>
+        <v>0.2906917333602905</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2305602580308914</v>
+        <v>-0.2310290783643723</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3331867754459381</v>
+        <v>0.3315716087818146</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5637470483779907</v>
+        <v>-0.5626006722450256</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2118128389120102</v>
+        <v>0.2113583087921143</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2688988447189331</v>
+        <v>-0.2697760462760925</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4807116985321045</v>
+        <v>0.4811343550682068</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7515403032302856</v>
+        <v>0.7511032223701477</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4429166316986084</v>
+        <v>-0.4435805380344391</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194456934928894</v>
+        <v>1.194683790206909</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001775741577148</v>
+        <v>1.001346826553345</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7024136781692505</v>
+        <v>-0.7027595043182373</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704189419746399</v>
+        <v>1.704106330871582</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068589687347412</v>
+        <v>1.06816291809082</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04122507572174072</v>
+        <v>-0.04238133504986763</v>
       </c>
       <c r="D105" t="n">
-        <v>1.109814763069153</v>
+        <v>1.110544204711914</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.17323899269104</v>
+        <v>1.172815561294556</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6555545926094055</v>
+        <v>0.6535442471504211</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5176844000816345</v>
+        <v>0.5192713141441345</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081702470779419</v>
+        <v>1.081276059150696</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4796797335147858</v>
+        <v>0.477884978055954</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6020227670669556</v>
+        <v>0.6033910512924194</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8392477035522461</v>
+        <v>0.8388134241104126</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8706587553024292</v>
+        <v>0.8683847188949585</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.03141105175018311</v>
+        <v>-0.0295712947845459</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567375123500824</v>
+        <v>0.5669320821762085</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9721222519874573</v>
+        <v>0.9697239398956299</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4047471284866333</v>
+        <v>-0.4027918577194214</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8346347808837891</v>
+        <v>0.8342003226280212</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01496160030365</v>
+        <v>1.012510657310486</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1803268194198608</v>
+        <v>-0.1783103346824646</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.193079948425293</v>
+        <v>1.192657113075256</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4820888638496399</v>
+        <v>0.4802911877632141</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7109910845756531</v>
+        <v>0.7123659253120422</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701122522354126</v>
+        <v>1.700716137886047</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8178454041481018</v>
+        <v>0.815636157989502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8832771182060242</v>
+        <v>0.8850799798965454</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044737339019775</v>
+        <v>1.044309735298157</v>
       </c>
       <c r="C113" t="n">
-        <v>1.126873254776001</v>
+        <v>1.124285221099854</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.08213591575622559</v>
+        <v>-0.07997548580169678</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458600163459778</v>
+        <v>1.458185911178589</v>
       </c>
       <c r="C114" t="n">
-        <v>1.730229616165161</v>
+        <v>1.72690212726593</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2716294527053833</v>
+        <v>-0.2687162160873413</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997385501861572</v>
+        <v>1.996988654136658</v>
       </c>
       <c r="C115" t="n">
-        <v>1.988632321357727</v>
+        <v>1.98498797416687</v>
       </c>
       <c r="D115" t="n">
-        <v>0.008753180503845215</v>
+        <v>0.0120006799697876</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.311030507087708</v>
+        <v>1.310611486434937</v>
       </c>
       <c r="C116" t="n">
-        <v>2.486590147018433</v>
+        <v>2.482335090637207</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.175559639930725</v>
+        <v>-1.171723604202271</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697715282440186</v>
+        <v>1.697308778762817</v>
       </c>
       <c r="C117" t="n">
-        <v>2.212396144866943</v>
+        <v>2.20847749710083</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5146808624267578</v>
+        <v>-0.5111687183380127</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721214413642883</v>
+        <v>1.720808744430542</v>
       </c>
       <c r="C118" t="n">
-        <v>1.642754316329956</v>
+        <v>1.639533996582031</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07846009731292725</v>
+        <v>0.08127474784851074</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.927474617958069</v>
+        <v>1.927075505256653</v>
       </c>
       <c r="C119" t="n">
-        <v>1.71401572227478</v>
+        <v>1.710708022117615</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2134588956832886</v>
+        <v>0.2163674831390381</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379720568656921</v>
+        <v>1.379303812980652</v>
       </c>
       <c r="C120" t="n">
-        <v>1.696877241134644</v>
+        <v>1.693590641021729</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3171566724777222</v>
+        <v>-0.3142868280410767</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997324585914612</v>
+        <v>1.996927738189697</v>
       </c>
       <c r="C121" t="n">
-        <v>1.702854514122009</v>
+        <v>1.699560523033142</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2944700717926025</v>
+        <v>0.2973672151565552</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046484708786011</v>
+        <v>2.046089172363281</v>
       </c>
       <c r="C122" t="n">
-        <v>1.259690523147583</v>
+        <v>1.256939768791199</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7867941856384277</v>
+        <v>0.7891494035720825</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.350573062896729</v>
+        <v>2.350187301635742</v>
       </c>
       <c r="C123" t="n">
-        <v>2.159285068511963</v>
+        <v>2.155431747436523</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1912879943847656</v>
+        <v>0.1947555541992188</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.452397108078003</v>
+        <v>2.452015161514282</v>
       </c>
       <c r="C124" t="n">
-        <v>1.829522728919983</v>
+        <v>1.826073527336121</v>
       </c>
       <c r="D124" t="n">
-        <v>0.62287437915802</v>
+        <v>0.6259416341781616</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.420577764511108</v>
+        <v>2.420194387435913</v>
       </c>
       <c r="C125" t="n">
-        <v>1.63763427734375</v>
+        <v>1.634420275688171</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7829434871673584</v>
+        <v>0.7857741117477417</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778071880340576</v>
+        <v>1.777667880058289</v>
       </c>
       <c r="C126" t="n">
-        <v>2.261847972869873</v>
+        <v>2.257868766784668</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4837760925292969</v>
+        <v>-0.4802008867263794</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786006927490234</v>
+        <v>1.785603284835815</v>
       </c>
       <c r="C127" t="n">
-        <v>2.131776809692383</v>
+        <v>2.127957344055176</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3457698822021484</v>
+        <v>-0.3423540592193604</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.484976530075073</v>
+        <v>1.484563112258911</v>
       </c>
       <c r="C128" t="n">
-        <v>1.957388520240784</v>
+        <v>1.953782677650452</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4724119901657104</v>
+        <v>-0.4692195653915405</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172594904899597</v>
+        <v>1.172171354293823</v>
       </c>
       <c r="C129" t="n">
-        <v>1.788028836250305</v>
+        <v>1.784630417823792</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.615433931350708</v>
+        <v>-0.6124590635299683</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8096941709518433</v>
+        <v>0.8092589378356934</v>
       </c>
       <c r="C130" t="n">
-        <v>2.952301740646362</v>
+        <v>2.947476387023926</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.142607688903809</v>
+        <v>-2.138217449188232</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3937572836875916</v>
+        <v>0.3933086097240448</v>
       </c>
       <c r="C131" t="n">
-        <v>2.183066368103027</v>
+        <v>2.179183721542358</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.789309024810791</v>
+        <v>-1.785875082015991</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05611452832818031</v>
+        <v>-0.05657770857214928</v>
       </c>
       <c r="C132" t="n">
-        <v>1.839628219604492</v>
+        <v>1.836166620254517</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.895742774009705</v>
+        <v>-1.892744302749634</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09454683214426041</v>
+        <v>0.09408851712942123</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8232786655426025</v>
+        <v>0.8210628032684326</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7287318110466003</v>
+        <v>-0.7269743084907532</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1568195223808289</v>
+        <v>0.1563632190227509</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1752344071865082</v>
+        <v>0.1738128364086151</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01841488480567932</v>
+        <v>-0.01744961738586426</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3816188275814056</v>
+        <v>0.3811697959899902</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3636460602283478</v>
+        <v>0.3619935512542725</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01797276735305786</v>
+        <v>0.01917624473571777</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7316432595252991</v>
+        <v>0.7312055230140686</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2064701467752457</v>
+        <v>0.2050102949142456</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5251731276512146</v>
+        <v>0.526195228099823</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6024007797241211</v>
+        <v>0.6019588708877563</v>
       </c>
       <c r="C137" t="n">
-        <v>0.513511061668396</v>
+        <v>0.5116748213768005</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0888897180557251</v>
+        <v>0.09028404951095581</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8439485430717468</v>
+        <v>0.8435144424438477</v>
       </c>
       <c r="C138" t="n">
-        <v>0.981381356716156</v>
+        <v>0.9789717197418213</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1374328136444092</v>
+        <v>-0.1354572772979736</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30383563041687</v>
+        <v>1.30341637134552</v>
       </c>
       <c r="C139" t="n">
-        <v>1.045360922813416</v>
+        <v>1.042872905731201</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2584747076034546</v>
+        <v>0.2605434656143188</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260650634765625</v>
+        <v>1.2602299451828</v>
       </c>
       <c r="C140" t="n">
-        <v>1.28510856628418</v>
+        <v>1.282326698303223</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02445793151855469</v>
+        <v>-0.02209675312042236</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491046190261841</v>
+        <v>1.490633010864258</v>
       </c>
       <c r="C141" t="n">
-        <v>1.239283680915833</v>
+        <v>1.236557841300964</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2517625093460083</v>
+        <v>0.2540751695632935</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.404041528701782</v>
+        <v>1.40362548828125</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1999540477991104</v>
+        <v>0.1985021829605103</v>
       </c>
       <c r="D142" t="n">
-        <v>1.204087495803833</v>
+        <v>1.20512330532074</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.763984203338623</v>
+        <v>1.763579845428467</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2879981994628906</v>
+        <v>0.2864384055137634</v>
       </c>
       <c r="D143" t="n">
-        <v>1.475986003875732</v>
+        <v>1.477141380310059</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603789329528809</v>
+        <v>1.603379726409912</v>
       </c>
       <c r="C144" t="n">
-        <v>1.294562816619873</v>
+        <v>1.29176938533783</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3092265129089355</v>
+        <v>0.3116103410720825</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.710995674133301</v>
+        <v>1.710589528083801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.484474062919617</v>
+        <v>1.481447696685791</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2265216112136841</v>
+        <v>0.2291418313980103</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152628660202026</v>
+        <v>1.152204513549805</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9097579717636108</v>
+        <v>0.9074361324310303</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2428706884384155</v>
+        <v>0.2447683811187744</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7281796932220459</v>
+        <v>0.7277418375015259</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8581787347793579</v>
+        <v>0.8559200167655945</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.129999041557312</v>
+        <v>-0.1281781792640686</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2885521650314331</v>
+        <v>0.2881001234054565</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2196233421564102</v>
+        <v>-0.2205609381198883</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5081754922866821</v>
+        <v>0.5086610317230225</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.683039128780365</v>
+        <v>0.6825998425483704</v>
       </c>
       <c r="C149" t="n">
-        <v>1.576848745346069</v>
+        <v>1.57370924949646</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8938096165657043</v>
+        <v>-0.8911094069480896</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038907647132874</v>
+        <v>1.038479804992676</v>
       </c>
       <c r="C150" t="n">
-        <v>2.474129199981689</v>
+        <v>2.469889879226685</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.435221552848816</v>
+        <v>-1.431410074234009</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.32824695110321</v>
+        <v>1.327828407287598</v>
       </c>
       <c r="C151" t="n">
-        <v>1.296738147735596</v>
+        <v>1.293941974639893</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03150880336761475</v>
+        <v>0.03388643264770508</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361977458000183</v>
+        <v>1.361559987068176</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3008360862731934</v>
+        <v>0.2992605566978455</v>
       </c>
       <c r="D152" t="n">
-        <v>1.06114137172699</v>
+        <v>1.062299489974976</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.10953426361084</v>
+        <v>2.109141111373901</v>
       </c>
       <c r="C153" t="n">
-        <v>0.196725457906723</v>
+        <v>0.1952775418758392</v>
       </c>
       <c r="D153" t="n">
-        <v>1.912808775901794</v>
+        <v>1.91386353969574</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996461153030396</v>
+        <v>1.996064186096191</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4663972556591034</v>
+        <v>0.4646188020706177</v>
       </c>
       <c r="D154" t="n">
-        <v>1.53006386756897</v>
+        <v>1.531445384025574</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.861560821533203</v>
+        <v>1.861159563064575</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7750927805900574</v>
+        <v>0.7729359269142151</v>
       </c>
       <c r="D155" t="n">
-        <v>1.086467981338501</v>
+        <v>1.088223695755005</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.608980298042297</v>
+        <v>1.60857093334198</v>
       </c>
       <c r="C156" t="n">
-        <v>1.372001647949219</v>
+        <v>1.369113087654114</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2369786500930786</v>
+        <v>0.2394578456878662</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912209868431091</v>
+        <v>1.911810278892517</v>
       </c>
       <c r="C157" t="n">
-        <v>1.748769521713257</v>
+        <v>1.745419144630432</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1634403467178345</v>
+        <v>0.166391134262085</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.52901029586792</v>
+        <v>1.528598308563232</v>
       </c>
       <c r="C158" t="n">
-        <v>1.476287961006165</v>
+        <v>1.473271727561951</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05272233486175537</v>
+        <v>0.05532658100128174</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.36372971534729</v>
+        <v>1.363312363624573</v>
       </c>
       <c r="C159" t="n">
-        <v>1.645534515380859</v>
+        <v>1.642310857772827</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2818048000335693</v>
+        <v>-0.2789984941482544</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673043251037598</v>
+        <v>1.672635912895203</v>
       </c>
       <c r="C160" t="n">
-        <v>1.731186628341675</v>
+        <v>1.727857828140259</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05814337730407715</v>
+        <v>-0.05522191524505615</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.342031121253967</v>
+        <v>1.341613054275513</v>
       </c>
       <c r="C161" t="n">
-        <v>1.68409252166748</v>
+        <v>1.680821537971497</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3420614004135132</v>
+        <v>-0.3392084836959839</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5798007845878601</v>
+        <v>0.5793581008911133</v>
       </c>
       <c r="C162" t="n">
-        <v>1.804911732673645</v>
+        <v>1.801492691040039</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.22511100769043</v>
+        <v>-1.222134590148926</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3740755617618561</v>
+        <v>0.3736262917518616</v>
       </c>
       <c r="C163" t="n">
-        <v>1.289957761764526</v>
+        <v>1.287169814109802</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9158822298049927</v>
+        <v>-0.9135435223579407</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6720630526542664</v>
+        <v>0.6716233491897583</v>
       </c>
       <c r="C164" t="n">
-        <v>1.449699282646179</v>
+        <v>1.446715593338013</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7776362299919128</v>
+        <v>-0.7750922441482544</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8604016900062561</v>
+        <v>0.8599681258201599</v>
       </c>
       <c r="C165" t="n">
-        <v>1.117855787277222</v>
+        <v>1.115278840065002</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2574540972709656</v>
+        <v>-0.2553107142448425</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9999416470527649</v>
+        <v>0.9995125532150269</v>
       </c>
       <c r="C166" t="n">
-        <v>1.249625205993652</v>
+        <v>1.246886730194092</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2496835589408875</v>
+        <v>-0.2473741769790649</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623016715049744</v>
+        <v>1.622607827186584</v>
       </c>
       <c r="C167" t="n">
-        <v>1.610635995864868</v>
+        <v>1.607455134391785</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01238071918487549</v>
+        <v>0.0151526927947998</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952111721038818</v>
+        <v>1.95171332359314</v>
       </c>
       <c r="C168" t="n">
-        <v>1.886400938034058</v>
+        <v>1.882881999015808</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06571078300476074</v>
+        <v>0.06883132457733154</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178459763526917</v>
+        <v>1.178036451339722</v>
       </c>
       <c r="C169" t="n">
-        <v>1.577237844467163</v>
+        <v>1.574097871780396</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3987780809402466</v>
+        <v>-0.3960614204406738</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9842286705970764</v>
+        <v>0.9837990999221802</v>
       </c>
       <c r="C170" t="n">
-        <v>1.291633248329163</v>
+        <v>1.288843274116516</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3074045777320862</v>
+        <v>-0.3050441741943359</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9072402119636536</v>
+        <v>0.9068081378936768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.043920159339905</v>
+        <v>1.041433811187744</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1366799473762512</v>
+        <v>-0.1346256732940674</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023502826690674</v>
+        <v>1.023074507713318</v>
       </c>
       <c r="C172" t="n">
-        <v>1.885935544967651</v>
+        <v>1.882416963577271</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8624327182769775</v>
+        <v>-0.8593424558639526</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223876714706421</v>
+        <v>1.223454833030701</v>
       </c>
       <c r="C173" t="n">
-        <v>1.678477883338928</v>
+        <v>1.675213694572449</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4546011686325073</v>
+        <v>-0.451758861541748</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655796408653259</v>
+        <v>1.655388593673706</v>
       </c>
       <c r="C174" t="n">
-        <v>1.876290440559387</v>
+        <v>1.872783899307251</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2204940319061279</v>
+        <v>-0.2173953056335449</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470041751861572</v>
+        <v>1.469627857208252</v>
       </c>
       <c r="C175" t="n">
-        <v>1.916585922241211</v>
+        <v>1.913029789924622</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4465441703796387</v>
+        <v>-0.4434019327163696</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092668771743774</v>
+        <v>1.09224271774292</v>
       </c>
       <c r="C176" t="n">
-        <v>1.951603770256042</v>
+        <v>1.948004841804504</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8589349985122681</v>
+        <v>-0.8557621240615845</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104445576667786</v>
+        <v>1.1040198802948</v>
       </c>
       <c r="C177" t="n">
-        <v>2.077857732772827</v>
+        <v>2.074104070663452</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9734121561050415</v>
+        <v>-0.9700841903686523</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334746718406677</v>
+        <v>1.334328532218933</v>
       </c>
       <c r="C178" t="n">
-        <v>1.983587145805359</v>
+        <v>1.979949116706848</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6488404273986816</v>
+        <v>-0.645620584487915</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.895848751068115</v>
+        <v>1.895448565483093</v>
       </c>
       <c r="C179" t="n">
-        <v>1.457910776138306</v>
+        <v>1.454917073249817</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4379379749298096</v>
+        <v>0.4405314922332764</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870064377784729</v>
+        <v>1.86966347694397</v>
       </c>
       <c r="C180" t="n">
-        <v>1.515514135360718</v>
+        <v>1.512449741363525</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3545502424240112</v>
+        <v>0.3572137355804443</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434110403060913</v>
+        <v>1.433695435523987</v>
       </c>
       <c r="C181" t="n">
-        <v>1.839423418045044</v>
+        <v>1.835962057113647</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4053130149841309</v>
+        <v>-0.4022666215896606</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4877236187458038</v>
+        <v>0.4872779846191406</v>
       </c>
       <c r="C182" t="n">
-        <v>1.229230284690857</v>
+        <v>1.226516723632812</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7415066957473755</v>
+        <v>-0.7392387390136719</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8846702575683594</v>
+        <v>0.8842374682426453</v>
       </c>
       <c r="C183" t="n">
-        <v>1.505615830421448</v>
+        <v>1.502563714981079</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6209455728530884</v>
+        <v>-0.6183262467384338</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556683778762817</v>
+        <v>1.556272625923157</v>
       </c>
       <c r="C184" t="n">
-        <v>1.784052014350891</v>
+        <v>1.780658364295959</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2273682355880737</v>
+        <v>-0.2243857383728027</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937321186065674</v>
+        <v>1.936922430992126</v>
       </c>
       <c r="C185" t="n">
-        <v>1.684701442718506</v>
+        <v>1.681429624557495</v>
       </c>
       <c r="D185" t="n">
-        <v>0.252619743347168</v>
+        <v>0.2554928064346313</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.965839862823486</v>
+        <v>1.965441942214966</v>
       </c>
       <c r="C186" t="n">
-        <v>1.632329106330872</v>
+        <v>1.629121422767639</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3335107564926147</v>
+        <v>0.3363205194473267</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065178632736206</v>
+        <v>2.064783811569214</v>
       </c>
       <c r="C187" t="n">
-        <v>1.486450672149658</v>
+        <v>1.483421921730042</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5787279605865479</v>
+        <v>0.5813618898391724</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.350709438323975</v>
+        <v>2.350324392318726</v>
       </c>
       <c r="C188" t="n">
-        <v>1.52363395690918</v>
+        <v>1.520559549331665</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8270754814147949</v>
+        <v>0.8297648429870605</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.901284456253052</v>
+        <v>2.900917053222656</v>
       </c>
       <c r="C189" t="n">
-        <v>1.686716198921204</v>
+        <v>1.683441996574402</v>
       </c>
       <c r="D189" t="n">
-        <v>1.214568257331848</v>
+        <v>1.217475056648254</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.115686178207397</v>
+        <v>3.115325212478638</v>
       </c>
       <c r="C190" t="n">
-        <v>1.288042306900024</v>
+        <v>1.285256862640381</v>
       </c>
       <c r="D190" t="n">
-        <v>1.827643871307373</v>
+        <v>1.830068349838257</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.100675582885742</v>
+        <v>3.100314140319824</v>
       </c>
       <c r="C191" t="n">
-        <v>1.57916522026062</v>
+        <v>1.576022982597351</v>
       </c>
       <c r="D191" t="n">
-        <v>1.521510362625122</v>
+        <v>1.524291157722473</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.854338645935059</v>
+        <v>2.85396933555603</v>
       </c>
       <c r="C192" t="n">
-        <v>1.889032244682312</v>
+        <v>1.885510087013245</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9653064012527466</v>
+        <v>0.9684592485427856</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.928451538085938</v>
+        <v>2.928085088729858</v>
       </c>
       <c r="C193" t="n">
-        <v>2.964291334152222</v>
+        <v>2.959451198577881</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.03583979606628418</v>
+        <v>-0.03136610984802246</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.836677551269531</v>
+        <v>2.836307764053345</v>
       </c>
       <c r="C194" t="n">
-        <v>3.544187307357788</v>
+        <v>3.538636445999146</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7075097560882568</v>
+        <v>-0.7023286819458008</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279387950897217</v>
+        <v>2.279000282287598</v>
       </c>
       <c r="C195" t="n">
-        <v>3.316991567611694</v>
+        <v>3.311719179153442</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.037603616714478</v>
+        <v>-1.032718896865845</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.10691237449646</v>
+        <v>3.106551170349121</v>
       </c>
       <c r="C196" t="n">
-        <v>3.744162321090698</v>
+        <v>3.738366365432739</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6372499465942383</v>
+        <v>-0.6318151950836182</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.901291608810425</v>
+        <v>2.900923728942871</v>
       </c>
       <c r="C197" t="n">
-        <v>3.532331705093384</v>
+        <v>3.526795387268066</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.631040096282959</v>
+        <v>-0.6258716583251953</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.014564990997314</v>
+        <v>2.014168500900269</v>
       </c>
       <c r="C198" t="n">
-        <v>3.196583986282349</v>
+        <v>3.191458940505981</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.182018995285034</v>
+        <v>-1.177290439605713</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055753707885742</v>
+        <v>1.055326461791992</v>
       </c>
       <c r="C199" t="n">
-        <v>2.617860555648804</v>
+        <v>2.613444805145264</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.562106847763062</v>
+        <v>-1.558118343353271</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4215302467346191</v>
+        <v>0.4210824966430664</v>
       </c>
       <c r="C200" t="n">
-        <v>2.884920358657837</v>
+        <v>2.880177736282349</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.463390111923218</v>
+        <v>-2.459095239639282</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443536400794983</v>
+        <v>1.443121552467346</v>
       </c>
       <c r="C201" t="n">
-        <v>2.64160943031311</v>
+        <v>2.637165069580078</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.198073029518127</v>
+        <v>-1.194043517112732</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064456701278687</v>
+        <v>1.064029693603516</v>
       </c>
       <c r="C202" t="n">
-        <v>2.74653148651123</v>
+        <v>2.741958379745483</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.682074785232544</v>
+        <v>-1.677928686141968</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.093091011047363</v>
+        <v>1.092664957046509</v>
       </c>
       <c r="C203" t="n">
-        <v>2.493047714233398</v>
+        <v>2.488785266876221</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.399956703186035</v>
+        <v>-1.396120309829712</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300563335418701</v>
+        <v>1.300144076347351</v>
       </c>
       <c r="C204" t="n">
-        <v>2.125428199768066</v>
+        <v>2.121616125106812</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8248648643493652</v>
+        <v>-0.8214720487594604</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285783171653748</v>
+        <v>1.28536331653595</v>
       </c>
       <c r="C205" t="n">
-        <v>1.832832217216492</v>
+        <v>1.829378843307495</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5470490455627441</v>
+        <v>-0.5440155267715454</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046736240386963</v>
+        <v>1.046308636665344</v>
       </c>
       <c r="C206" t="n">
-        <v>1.099656701087952</v>
+        <v>1.097102046012878</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05292046070098877</v>
+        <v>-0.05079340934753418</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.20387864112854</v>
+        <v>1.203456163406372</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9572106599807739</v>
+        <v>0.9548305869102478</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2466679811477661</v>
+        <v>0.2486255764961243</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.472880721092224</v>
+        <v>1.472466945648193</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7621085047721863</v>
+        <v>0.759967565536499</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7107722163200378</v>
+        <v>0.7124993801116943</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513226866722107</v>
+        <v>1.512814402580261</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5790820121765137</v>
+        <v>0.577165424823761</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9341448545455933</v>
+        <v>0.9356489777565002</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865035772323608</v>
+        <v>1.86463463306427</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6806346774101257</v>
+        <v>0.678593635559082</v>
       </c>
       <c r="D210" t="n">
-        <v>1.184401035308838</v>
+        <v>1.186040997505188</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612510561943054</v>
+        <v>1.612101197242737</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8452607393264771</v>
+        <v>0.8430178761482239</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7672498226165771</v>
+        <v>0.7690833210945129</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065267562866211</v>
+        <v>2.064872980117798</v>
       </c>
       <c r="C212" t="n">
-        <v>1.130754828453064</v>
+        <v>1.128161907196045</v>
       </c>
       <c r="D212" t="n">
-        <v>0.934512734413147</v>
+        <v>0.9367110729217529</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.151564121246338</v>
+        <v>2.151172399520874</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5259832143783569</v>
+        <v>0.524131715297699</v>
       </c>
       <c r="D213" t="n">
-        <v>1.625580906867981</v>
+        <v>1.62704062461853</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.910624623298645</v>
+        <v>1.910224914550781</v>
       </c>
       <c r="C214" t="n">
-        <v>1.032913446426392</v>
+        <v>1.03044056892395</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8777111768722534</v>
+        <v>0.8797843456268311</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050008058547974</v>
+        <v>2.049612760543823</v>
       </c>
       <c r="C215" t="n">
-        <v>1.185941696166992</v>
+        <v>1.183281302452087</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8640663623809814</v>
+        <v>0.8663314580917358</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923495292663574</v>
+        <v>1.923096060752869</v>
       </c>
       <c r="C216" t="n">
-        <v>1.418166399002075</v>
+        <v>1.415221452713013</v>
       </c>
       <c r="D216" t="n">
-        <v>0.505328893661499</v>
+        <v>0.507874608039856</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003430485725403</v>
+        <v>1.003001570701599</v>
       </c>
       <c r="C217" t="n">
-        <v>1.21955132484436</v>
+        <v>1.216849684715271</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2161208391189575</v>
+        <v>-0.2138481140136719</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7121866345405579</v>
+        <v>0.7117483019828796</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5175517201423645</v>
+        <v>0.5157105326652527</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1946349143981934</v>
+        <v>0.196037769317627</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493494510650635</v>
+        <v>1.493081331253052</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5046269297599792</v>
+        <v>0.5028015971183777</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9888675808906555</v>
+        <v>0.9902797341346741</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355205178260803</v>
+        <v>1.354787588119507</v>
       </c>
       <c r="C220" t="n">
-        <v>1.216235637664795</v>
+        <v>1.21353805065155</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1389695405960083</v>
+        <v>0.1412495374679565</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.491994261741638</v>
+        <v>1.491581082344055</v>
       </c>
       <c r="C221" t="n">
-        <v>1.431745648384094</v>
+        <v>1.428784012794495</v>
       </c>
       <c r="D221" t="n">
-        <v>0.06024861335754395</v>
+        <v>0.06279706954956055</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288290500640869</v>
+        <v>1.287870764732361</v>
       </c>
       <c r="C222" t="n">
-        <v>1.010840892791748</v>
+        <v>1.008395075798035</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2774496078491211</v>
+        <v>0.2794756889343262</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9324646592140198</v>
+        <v>0.9320334196090698</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7380077838897705</v>
+        <v>0.7358964085578918</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1944568753242493</v>
+        <v>0.196137011051178</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092860698699951</v>
+        <v>1.092434644699097</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4323922693729401</v>
+        <v>0.4306554794311523</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6604684591293335</v>
+        <v>0.6617791652679443</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489541888237</v>
+        <v>1.489128589630127</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5818794369697571</v>
+        <v>0.5799593329429626</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9076624512672424</v>
+        <v>0.9091692566871643</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.844741463661194</v>
+        <v>1.844339609146118</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08409799635410309</v>
+        <v>0.0827881321310997</v>
       </c>
       <c r="D226" t="n">
-        <v>1.760643482208252</v>
+        <v>1.76155149936676</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655332565307617</v>
+        <v>1.654924631118774</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4980677664279938</v>
+        <v>0.4962504804134369</v>
       </c>
       <c r="D227" t="n">
-        <v>1.157264828681946</v>
+        <v>1.158674120903015</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.091922283172607</v>
+        <v>2.091528177261353</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9027402997016907</v>
+        <v>0.9004270434379578</v>
       </c>
       <c r="D228" t="n">
-        <v>1.189182043075562</v>
+        <v>1.19110107421875</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993326187133789</v>
+        <v>1.992929220199585</v>
       </c>
       <c r="C229" t="n">
-        <v>1.222734451293945</v>
+        <v>1.220028877258301</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7705917358398438</v>
+        <v>0.7729003429412842</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985004782676697</v>
+        <v>1.984607458114624</v>
       </c>
       <c r="C230" t="n">
-        <v>1.759668231010437</v>
+        <v>1.756304740905762</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2253365516662598</v>
+        <v>0.2283027172088623</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682413697242737</v>
+        <v>1.68200671672821</v>
       </c>
       <c r="C231" t="n">
-        <v>1.811578035354614</v>
+        <v>1.808150887489319</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1291643381118774</v>
+        <v>-0.1261441707611084</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702292442321777</v>
+        <v>1.701886057853699</v>
       </c>
       <c r="C232" t="n">
-        <v>1.584927320480347</v>
+        <v>1.581777930259705</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1173651218414307</v>
+        <v>0.1201081275939941</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202039480209351</v>
+        <v>2.20164942741394</v>
       </c>
       <c r="C233" t="n">
-        <v>1.623589277267456</v>
+        <v>1.620392322540283</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5784502029418945</v>
+        <v>0.5812571048736572</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.675645112991333</v>
+        <v>2.675270318984985</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9523389935493469</v>
+        <v>0.9499649405479431</v>
       </c>
       <c r="D234" t="n">
-        <v>1.723306179046631</v>
+        <v>1.725305318832397</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.317426681518555</v>
+        <v>2.317040205001831</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3082320392131805</v>
+        <v>0.3066474497318268</v>
       </c>
       <c r="D235" t="n">
-        <v>2.009194612503052</v>
+        <v>2.010392665863037</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135103464126587</v>
+        <v>2.134711027145386</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3529268205165863</v>
+        <v>0.351287454366684</v>
       </c>
       <c r="D236" t="n">
-        <v>1.782176613807678</v>
+        <v>1.783423542976379</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.66806173324585</v>
+        <v>2.667686700820923</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6181835532188416</v>
+        <v>-0.6186326146125793</v>
       </c>
       <c r="D237" t="n">
-        <v>3.286245346069336</v>
+        <v>3.286319255828857</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.242340326309204</v>
+        <v>2.241951704025269</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161862254142761</v>
+        <v>-1.16164493560791</v>
       </c>
       <c r="D238" t="n">
-        <v>3.404202461242676</v>
+        <v>3.403596639633179</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.59618878364563</v>
+        <v>2.595811367034912</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.502342104911804</v>
+        <v>-1.501707553863525</v>
       </c>
       <c r="D239" t="n">
-        <v>4.098530769348145</v>
+        <v>4.097518920898438</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.771604537963867</v>
+        <v>2.771232843399048</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8833421468734741</v>
+        <v>-0.8834661841392517</v>
       </c>
       <c r="D240" t="n">
-        <v>3.654946804046631</v>
+        <v>3.654699087142944</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301398277282715</v>
+        <v>2.301011085510254</v>
       </c>
       <c r="C241" t="n">
-        <v>1.315674543380737</v>
+        <v>1.312855005264282</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9857237339019775</v>
+        <v>0.9881560802459717</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.627127408981323</v>
+        <v>2.626751184463501</v>
       </c>
       <c r="C242" t="n">
-        <v>2.3607337474823</v>
+        <v>2.356633186340332</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2663936614990234</v>
+        <v>0.2701179981231689</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021254301071167</v>
+        <v>2.020858287811279</v>
       </c>
       <c r="C243" t="n">
-        <v>2.625436067581177</v>
+        <v>2.621011018753052</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6041817665100098</v>
+        <v>-0.6001527309417725</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.208568811416626</v>
+        <v>2.208178758621216</v>
       </c>
       <c r="C244" t="n">
-        <v>2.517508506774902</v>
+        <v>2.513215780258179</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3089396953582764</v>
+        <v>-0.3050370216369629</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266393661499023</v>
+        <v>2.266005516052246</v>
       </c>
       <c r="C245" t="n">
-        <v>2.595383405685425</v>
+        <v>2.59099555015564</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3289897441864014</v>
+        <v>-0.3249900341033936</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.320521354675293</v>
+        <v>2.320134878158569</v>
       </c>
       <c r="C246" t="n">
-        <v>1.546809196472168</v>
+        <v>1.54370641708374</v>
       </c>
       <c r="D246" t="n">
-        <v>0.773712158203125</v>
+        <v>0.7764284610748291</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.207924604415894</v>
+        <v>2.207534790039062</v>
       </c>
       <c r="C247" t="n">
-        <v>1.175525307655334</v>
+        <v>1.172877788543701</v>
       </c>
       <c r="D247" t="n">
-        <v>1.032399296760559</v>
+        <v>1.034657001495361</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036332368850708</v>
+        <v>2.035936594009399</v>
       </c>
       <c r="C248" t="n">
-        <v>1.605945825576782</v>
+        <v>1.602770686149597</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4303865432739258</v>
+        <v>0.4331659078598022</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542202830314636</v>
+        <v>1.541791200637817</v>
       </c>
       <c r="C249" t="n">
-        <v>2.013368606567383</v>
+        <v>2.00969409942627</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4711657762527466</v>
+        <v>-0.4679028987884521</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264331340789795</v>
+        <v>1.263910889625549</v>
       </c>
       <c r="C250" t="n">
-        <v>1.559864044189453</v>
+        <v>1.556745409965515</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2955327033996582</v>
+        <v>-0.2928345203399658</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.775829315185547</v>
+        <v>1.775425314903259</v>
       </c>
       <c r="C251" t="n">
-        <v>1.384986281394958</v>
+        <v>1.382081866264343</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3908430337905884</v>
+        <v>0.393343448638916</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544328331947327</v>
+        <v>1.543916821479797</v>
       </c>
       <c r="C252" t="n">
-        <v>1.235562562942505</v>
+        <v>1.232841372489929</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3087657690048218</v>
+        <v>0.3110754489898682</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404572248458862</v>
+        <v>1.40415632724762</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9442750215530396</v>
+        <v>0.9419107437133789</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4602972269058228</v>
+        <v>0.4622455835342407</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5286434888839722</v>
+        <v>0.5281991958618164</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.047391127794981</v>
+        <v>-0.04853982850909233</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5760346055030823</v>
+        <v>0.5767390131950378</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7599470615386963</v>
+        <v>0.7595102190971375</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3266258239746094</v>
+        <v>0.3250186741352081</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4333212375640869</v>
+        <v>0.4344915449619293</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202603578567505</v>
+        <v>1.202181100845337</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9518228769302368</v>
+        <v>0.949449360370636</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2507807016372681</v>
+        <v>0.2527317404747009</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181991100311279</v>
+        <v>1.181567907333374</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5288630723953247</v>
+        <v>0.527008056640625</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6531280279159546</v>
+        <v>0.654559850692749</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6779202818870544</v>
+        <v>0.6774808168411255</v>
       </c>
       <c r="C258" t="n">
-        <v>1.301543951034546</v>
+        <v>1.298741936683655</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6236236691474915</v>
+        <v>-0.6212611198425293</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8820239305496216</v>
+        <v>0.8815910816192627</v>
       </c>
       <c r="C259" t="n">
-        <v>1.83579432964325</v>
+        <v>1.832337260246277</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9537703990936279</v>
+        <v>-0.9507461786270142</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.170156359672546</v>
+        <v>1.169732809066772</v>
       </c>
       <c r="C260" t="n">
-        <v>2.284440517425537</v>
+        <v>2.280433893203735</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.114284157752991</v>
+        <v>-1.110701084136963</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.29721999168396</v>
+        <v>1.296800494194031</v>
       </c>
       <c r="C261" t="n">
-        <v>1.927647829055786</v>
+        <v>1.924078226089478</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6304278373718262</v>
+        <v>-0.6272777318954468</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507950305938721</v>
+        <v>1.507537603378296</v>
       </c>
       <c r="C262" t="n">
-        <v>1.453961610794067</v>
+        <v>1.450972676277161</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05398869514465332</v>
+        <v>0.05656492710113525</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188379287719727</v>
+        <v>1.1879563331604</v>
       </c>
       <c r="C263" t="n">
-        <v>2.212691068649292</v>
+        <v>2.208771944046021</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.024311780929565</v>
+        <v>-1.02081561088562</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166537761688232</v>
+        <v>1.166114091873169</v>
       </c>
       <c r="C264" t="n">
-        <v>1.777459979057312</v>
+        <v>1.774074554443359</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6109222173690796</v>
+        <v>-0.6079604625701904</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328726172447205</v>
+        <v>1.328307747840881</v>
       </c>
       <c r="C265" t="n">
-        <v>1.766322016716003</v>
+        <v>1.76295006275177</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4375958442687988</v>
+        <v>-0.4346423149108887</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683423519134521</v>
+        <v>1.683016538619995</v>
       </c>
       <c r="C266" t="n">
-        <v>2.332037448883057</v>
+        <v>2.327972173690796</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6486139297485352</v>
+        <v>-0.6449556350708008</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9159232974052429</v>
+        <v>0.91549152135849</v>
       </c>
       <c r="C267" t="n">
-        <v>1.724343299865723</v>
+        <v>1.721022963523865</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8084200024604797</v>
+        <v>-0.8055314421653748</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.089131116867065</v>
+        <v>1.088704943656921</v>
       </c>
       <c r="C268" t="n">
-        <v>1.333316087722778</v>
+        <v>1.330475091934204</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2441849708557129</v>
+        <v>-0.2417701482772827</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163436055183411</v>
+        <v>1.163012266159058</v>
       </c>
       <c r="C269" t="n">
-        <v>1.984161019325256</v>
+        <v>1.980522274971008</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8207249641418457</v>
+        <v>-0.8175100088119507</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,27 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002358078956604</v>
+        <v>1.0019291639328</v>
       </c>
       <c r="C270" t="n">
-        <v>2.187240123748779</v>
+        <v>2.183352470397949</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.184882044792175</v>
+        <v>-1.181423306465149</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.9323621392250061</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.438974618911743</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-1.506612539291382</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8131664395332336</v>
+        <v>0.8133077025413513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7976972460746765</v>
+        <v>0.7954851984977722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01546919345855713</v>
+        <v>0.0178225040435791</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8398721814155579</v>
+        <v>0.8400200009346008</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2552627921104431</v>
+        <v>-0.2561599016189575</v>
       </c>
       <c r="D3" t="n">
-        <v>1.095134973526001</v>
+        <v>1.096179962158203</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9161407947540283</v>
+        <v>0.9163072109222412</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7649554014205933</v>
+        <v>-0.765216052532196</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681096196174622</v>
+        <v>1.681523323059082</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4916555881500244</v>
+        <v>0.4917184710502625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09461782872676849</v>
+        <v>0.09328377991914749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3970377445220947</v>
+        <v>0.3984346985816956</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7167875170707703</v>
+        <v>0.7169052958488464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02335418201982975</v>
+        <v>0.0221091266721487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6934333443641663</v>
+        <v>0.6947961449623108</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08114241808652878</v>
+        <v>0.08110516518354416</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1403035223484039</v>
+        <v>-0.1413441896438599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2214459478855133</v>
+        <v>0.2224493622779846</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6720190048217773</v>
+        <v>0.6721259355545044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4580011069774628</v>
+        <v>0.4562132656574249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2140178978443146</v>
+        <v>0.2159126698970795</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.040972828865051</v>
+        <v>1.0411696434021</v>
       </c>
       <c r="C9" t="n">
-        <v>1.175603985786438</v>
+        <v>1.172919988632202</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1346311569213867</v>
+        <v>-0.1317503452301025</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414204716682434</v>
+        <v>1.414492607116699</v>
       </c>
       <c r="C10" t="n">
-        <v>1.14039945602417</v>
+        <v>1.137759327888489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2738052606582642</v>
+        <v>0.2767332792282104</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9745280146598816</v>
+        <v>0.9747086763381958</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9787054061889648</v>
+        <v>0.9762672781944275</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.004177391529083252</v>
+        <v>-0.001558601856231689</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057190895080566</v>
+        <v>1.057391881942749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8172160387039185</v>
+        <v>0.814979612827301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2399748563766479</v>
+        <v>0.242412269115448</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7387436032295227</v>
+        <v>0.7388667464256287</v>
       </c>
       <c r="C13" t="n">
-        <v>0.326306015253067</v>
+        <v>0.3246826529502869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4124375879764557</v>
+        <v>0.4141840934753418</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.245697557926178</v>
+        <v>0.2457004487514496</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04457208886742592</v>
+        <v>-0.04573231935501099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2902696430683136</v>
+        <v>0.2914327681064606</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5108515024185181</v>
+        <v>0.5109190940856934</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3840985894203186</v>
+        <v>-0.3848347961902618</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8949500918388367</v>
+        <v>0.8957538604736328</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184218406677246</v>
+        <v>1.184450268745422</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2529877424240112</v>
+        <v>0.2514559328556061</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9312306642532349</v>
+        <v>0.9329943656921387</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.02303683757782</v>
+        <v>1.023229241371155</v>
       </c>
       <c r="C17" t="n">
-        <v>1.064917683601379</v>
+        <v>1.062371969223022</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04188084602355957</v>
+        <v>-0.03914272785186768</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103181004524231</v>
+        <v>1.103393077850342</v>
       </c>
       <c r="C18" t="n">
-        <v>1.862193465232849</v>
+        <v>1.858652114868164</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7590124607086182</v>
+        <v>-0.7552590370178223</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034471869468689</v>
+        <v>1.034667134284973</v>
       </c>
       <c r="C19" t="n">
-        <v>1.189499258995056</v>
+        <v>1.186797857284546</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1550273895263672</v>
+        <v>-0.1521307229995728</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4151573777198792</v>
+        <v>0.4152016043663025</v>
       </c>
       <c r="C20" t="n">
-        <v>2.013798475265503</v>
+        <v>2.010067939758301</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.598641157150269</v>
+        <v>-1.594866275787354</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7235457301139832</v>
+        <v>0.723665177822113</v>
       </c>
       <c r="C21" t="n">
-        <v>1.389449715614319</v>
+        <v>1.386498689651489</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6659039855003357</v>
+        <v>-0.6628335118293762</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7117052674293518</v>
+        <v>0.7118218541145325</v>
       </c>
       <c r="C22" t="n">
-        <v>1.507004857063293</v>
+        <v>1.503906965255737</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7952995896339417</v>
+        <v>-0.7920851111412048</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3976860642433167</v>
+        <v>0.3977260291576385</v>
       </c>
       <c r="C23" t="n">
-        <v>1.332700848579407</v>
+        <v>1.32982063293457</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9350147843360901</v>
+        <v>-0.9320945739746094</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6765766739845276</v>
+        <v>0.6766847372055054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8526291847229004</v>
+        <v>0.8503485321998596</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1760525107383728</v>
+        <v>-0.1736637949943542</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.104884266853333</v>
+        <v>1.105096697807312</v>
       </c>
       <c r="C25" t="n">
-        <v>1.015293598175049</v>
+        <v>1.012809872627258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08959066867828369</v>
+        <v>0.09228682518005371</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8963637948036194</v>
+        <v>0.8965254426002502</v>
       </c>
       <c r="C26" t="n">
-        <v>1.53779673576355</v>
+        <v>1.534660339355469</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6414329409599304</v>
+        <v>-0.6381348967552185</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.14485764503479</v>
+        <v>1.145079731941223</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7440301179885864</v>
+        <v>0.7418851256370544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4008275270462036</v>
+        <v>0.4031946063041687</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.176696419715881</v>
+        <v>1.176926374435425</v>
       </c>
       <c r="C28" t="n">
-        <v>1.990713119506836</v>
+        <v>1.987011313438416</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8140166997909546</v>
+        <v>-0.8100849390029907</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9122006297111511</v>
+        <v>0.9123660922050476</v>
       </c>
       <c r="C29" t="n">
-        <v>1.843524694442749</v>
+        <v>1.840006470680237</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9313240647315979</v>
+        <v>-0.9276403784751892</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4933455288410187</v>
+        <v>0.4934088289737701</v>
       </c>
       <c r="C30" t="n">
-        <v>1.616001963615417</v>
+        <v>1.612767934799194</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.122656464576721</v>
+        <v>-1.119359135627747</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7592437267303467</v>
+        <v>0.7593718767166138</v>
       </c>
       <c r="C31" t="n">
-        <v>1.237688541412354</v>
+        <v>1.23492693901062</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4784448146820068</v>
+        <v>-0.4755550622940063</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8580207228660583</v>
+        <v>0.8581729531288147</v>
       </c>
       <c r="C32" t="n">
-        <v>1.398468255996704</v>
+        <v>1.395505905151367</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5404475331306458</v>
+        <v>-0.5373329520225525</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7007341980934143</v>
+        <v>0.7008481025695801</v>
       </c>
       <c r="C33" t="n">
-        <v>1.332908034324646</v>
+        <v>1.330027461051941</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6321738362312317</v>
+        <v>-0.6291793584823608</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.005574464797974</v>
+        <v>2.006006717681885</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5356354117393494</v>
+        <v>0.533750593662262</v>
       </c>
       <c r="D34" t="n">
-        <v>1.469938993453979</v>
+        <v>1.472256183624268</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.463646531105042</v>
+        <v>1.463946461677551</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1086399927735329</v>
+        <v>-0.1097202152013779</v>
       </c>
       <c r="D35" t="n">
-        <v>1.572286486625671</v>
+        <v>1.57366669178009</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.210701823234558</v>
+        <v>1.21094012260437</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5265382528305054</v>
+        <v>0.5246648192405701</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6841635704040527</v>
+        <v>0.6862753033638</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.493559718132019</v>
+        <v>1.493867039680481</v>
       </c>
       <c r="C37" t="n">
-        <v>2.039014577865601</v>
+        <v>2.035252332687378</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5454548597335815</v>
+        <v>-0.541385293006897</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.330623269081116</v>
+        <v>1.330890774726868</v>
       </c>
       <c r="C38" t="n">
-        <v>2.160647392272949</v>
+        <v>2.156733274459839</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8300241231918335</v>
+        <v>-0.8258424997329712</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.968908309936523</v>
+        <v>1.969331502914429</v>
       </c>
       <c r="C39" t="n">
-        <v>1.648501992225647</v>
+        <v>1.645227313041687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3204063177108765</v>
+        <v>0.3241041898727417</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.743940234184265</v>
+        <v>1.744308590888977</v>
       </c>
       <c r="C40" t="n">
-        <v>1.113511919975281</v>
+        <v>1.110905408859253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6304283142089844</v>
+        <v>0.6334031820297241</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.820460438728333</v>
+        <v>1.820847511291504</v>
       </c>
       <c r="C41" t="n">
-        <v>1.651984453201294</v>
+        <v>1.64870548248291</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1684759855270386</v>
+        <v>0.1721420288085938</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.754846572875977</v>
+        <v>1.755217552185059</v>
       </c>
       <c r="C42" t="n">
-        <v>1.187076687812805</v>
+        <v>1.184378504753113</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5677698850631714</v>
+        <v>0.5708390474319458</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602371335029602</v>
+        <v>1.602705240249634</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7106882333755493</v>
+        <v>0.7085848450660706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8916831016540527</v>
+        <v>0.8941203951835632</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163650512695312</v>
+        <v>1.163877248764038</v>
       </c>
       <c r="C44" t="n">
-        <v>0.477816104888916</v>
+        <v>0.476003497838974</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6858344078063965</v>
+        <v>0.6878737211227417</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.086803555488586</v>
+        <v>1.087011575698853</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04007518664002419</v>
+        <v>0.03880924731492996</v>
       </c>
       <c r="D45" t="n">
-        <v>1.046728372573853</v>
+        <v>1.048202276229858</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.348816990852356</v>
+        <v>1.349089026451111</v>
       </c>
       <c r="C46" t="n">
-        <v>1.120095133781433</v>
+        <v>1.117480516433716</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2287218570709229</v>
+        <v>0.231608510017395</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9910542368888855</v>
+        <v>0.9912388920783997</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8884677886962891</v>
+        <v>0.8861422538757324</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1025864481925964</v>
+        <v>0.1050966382026672</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6580936908721924</v>
+        <v>0.6581971645355225</v>
       </c>
       <c r="C48" t="n">
-        <v>1.007938146591187</v>
+        <v>1.005463480949402</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3498444557189941</v>
+        <v>-0.3472663164138794</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7140490412712097</v>
+        <v>0.7141662240028381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.373921126127243</v>
+        <v>0.3722382783889771</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3401279151439667</v>
+        <v>0.3419279456138611</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381205081939697</v>
+        <v>1.381484866142273</v>
       </c>
       <c r="C50" t="n">
-        <v>1.387311577796936</v>
+        <v>1.384363174438477</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00610649585723877</v>
+        <v>-0.002878308296203613</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.342502474784851</v>
+        <v>1.342772960662842</v>
       </c>
       <c r="C51" t="n">
-        <v>1.246549248695374</v>
+        <v>1.243776679039001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09595322608947754</v>
+        <v>0.09899628162384033</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021747350692749</v>
+        <v>1.021939516067505</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6159965991973877</v>
+        <v>0.6140114665031433</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4057507514953613</v>
+        <v>0.4079280495643616</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144177794456482</v>
+        <v>1.144399881362915</v>
       </c>
       <c r="C53" t="n">
-        <v>1.136329412460327</v>
+        <v>1.133694529533386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007848381996154785</v>
+        <v>0.01070535182952881</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1830682456493378</v>
+        <v>-0.183169960975647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8849160671234131</v>
+        <v>0.8825950622558594</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.067984342575073</v>
+        <v>-1.065765023231506</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05592908337712288</v>
+        <v>-0.05599977821111679</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8095151782035828</v>
+        <v>0.8072882890701294</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8654442429542542</v>
+        <v>-0.8632880449295044</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1692917793989182</v>
+        <v>0.1692760139703751</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7534254193305969</v>
+        <v>0.7512686252593994</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5841336250305176</v>
+        <v>-0.5819926261901855</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144614696502686</v>
+        <v>1.144836783409119</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8474676012992859</v>
+        <v>0.8451933860778809</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2971470952033997</v>
+        <v>0.2996433973312378</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.253709554672241</v>
+        <v>1.253958344459534</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6598266959190369</v>
+        <v>0.6577867865562439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5938828587532043</v>
+        <v>0.5961715579032898</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243473291397095</v>
+        <v>1.243719458580017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6963145136833191</v>
+        <v>0.6942290663719177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5471587777137756</v>
+        <v>0.5494903922080994</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063443064689636</v>
+        <v>1.063645362854004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9345623254776001</v>
+        <v>0.9321793913841248</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1288807392120361</v>
+        <v>0.1314659714698792</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008723855018616</v>
+        <v>1.008912801742554</v>
       </c>
       <c r="C61" t="n">
-        <v>1.162605881690979</v>
+        <v>1.159938097000122</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1538820266723633</v>
+        <v>-0.1510252952575684</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8698656558990479</v>
+        <v>0.8700207471847534</v>
       </c>
       <c r="C62" t="n">
-        <v>1.477830767631531</v>
+        <v>1.474769473075867</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6079651117324829</v>
+        <v>-0.6047487258911133</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9205948114395142</v>
+        <v>0.920762300491333</v>
       </c>
       <c r="C63" t="n">
-        <v>2.65937876701355</v>
+        <v>2.654841899871826</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.738783955574036</v>
+        <v>-1.734079599380493</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.158775687217712</v>
+        <v>1.159001350402832</v>
       </c>
       <c r="C64" t="n">
-        <v>2.587769031524658</v>
+        <v>2.583321332931519</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.428993344306946</v>
+        <v>-1.424319982528687</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.35640561580658</v>
+        <v>1.356679439544678</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06049644947052</v>
+        <v>1.057956218719482</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2959091663360596</v>
+        <v>0.2987232208251953</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.528723955154419</v>
+        <v>1.529039740562439</v>
       </c>
       <c r="C66" t="n">
-        <v>1.245894312858582</v>
+        <v>1.243122696876526</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2828296422958374</v>
+        <v>0.2859170436859131</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363144397735596</v>
+        <v>1.363419890403748</v>
       </c>
       <c r="C67" t="n">
-        <v>1.651061058044434</v>
+        <v>1.647783398628235</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2879166603088379</v>
+        <v>-0.2843635082244873</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6025785207748413</v>
+        <v>0.6026684045791626</v>
       </c>
       <c r="C68" t="n">
-        <v>1.7076655626297</v>
+        <v>1.704317092895508</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.105087041854858</v>
+        <v>-1.101648688316345</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9858171343803406</v>
+        <v>0.9860005378723145</v>
       </c>
       <c r="C69" t="n">
-        <v>1.759036302566528</v>
+        <v>1.755623817443848</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7732191681861877</v>
+        <v>-0.7696232795715332</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8860797882080078</v>
+        <v>0.8862388134002686</v>
       </c>
       <c r="C70" t="n">
-        <v>1.996175289154053</v>
+        <v>1.992466449737549</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.110095500946045</v>
+        <v>-1.10622763633728</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7925103902816772</v>
+        <v>0.7926466464996338</v>
       </c>
       <c r="C71" t="n">
-        <v>1.769553303718567</v>
+        <v>1.766127586364746</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9770429134368896</v>
+        <v>-0.9734809398651123</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5025576949119568</v>
+        <v>0.5026232004165649</v>
       </c>
       <c r="C72" t="n">
-        <v>1.642766237258911</v>
+        <v>1.639498949050903</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.14020848274231</v>
+        <v>-1.136875748634338</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3509443700313568</v>
+        <v>0.3509729504585266</v>
       </c>
       <c r="C73" t="n">
-        <v>1.245031118392944</v>
+        <v>1.242260456085205</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8940867185592651</v>
+        <v>-0.8912875056266785</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4386714398860931</v>
+        <v>0.4387213885784149</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5712698101997375</v>
+        <v>0.5693405270576477</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1325983703136444</v>
+        <v>-0.1306191384792328</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4907418787479401</v>
+        <v>0.490804523229599</v>
       </c>
       <c r="C75" t="n">
-        <v>1.918224692344666</v>
+        <v>1.914613246917725</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.427482843399048</v>
+        <v>-1.423808693885803</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.804194450378418</v>
+        <v>0.8043335676193237</v>
       </c>
       <c r="C76" t="n">
-        <v>1.229837417602539</v>
+        <v>1.227085709571838</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4256429672241211</v>
+        <v>-0.4227521419525146</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7486552000045776</v>
+        <v>0.7487807869911194</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8316099047660828</v>
+        <v>0.8293554186820984</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08295470476150513</v>
+        <v>-0.080574631690979</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075205445289612</v>
+        <v>1.075410604476929</v>
       </c>
       <c r="C78" t="n">
-        <v>1.510286450386047</v>
+        <v>1.507184505462646</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4350810050964355</v>
+        <v>-0.4317739009857178</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8492938876152039</v>
+        <v>0.8494440317153931</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2785564661026</v>
+        <v>1.275743961334229</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4292625784873962</v>
+        <v>-0.4262999296188354</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9272210001945496</v>
+        <v>0.9273900985717773</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5317615270614624</v>
+        <v>0.5298815369606018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3954594731330872</v>
+        <v>0.3975085616111755</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.513736605644226</v>
+        <v>1.514048933982849</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6769955158233643</v>
+        <v>0.6749341487884521</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8367410898208618</v>
+        <v>0.839114785194397</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290522456169128</v>
+        <v>1.290780305862427</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6669553518295288</v>
+        <v>-0.6673383116722107</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957477807998657</v>
+        <v>1.958118677139282</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.583691596984863</v>
+        <v>1.584020853042603</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8342366814613342</v>
+        <v>-0.8344107866287231</v>
       </c>
       <c r="D83" t="n">
-        <v>2.417928218841553</v>
+        <v>2.418431758880615</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.823994398117065</v>
+        <v>1.824382305145264</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1696575134992599</v>
+        <v>-0.1706615388393402</v>
       </c>
       <c r="D84" t="n">
-        <v>1.993651866912842</v>
+        <v>1.995043873786926</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.836840033531189</v>
+        <v>1.837231159210205</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9656298756599426</v>
+        <v>0.9632081389427185</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8712101578712463</v>
+        <v>0.8740230202674866</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.686551213264465</v>
+        <v>1.686905384063721</v>
       </c>
       <c r="C86" t="n">
-        <v>1.245332360267639</v>
+        <v>1.242561340332031</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4412188529968262</v>
+        <v>0.4443440437316895</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.546647548675537</v>
+        <v>1.54696786403656</v>
       </c>
       <c r="C87" t="n">
-        <v>1.94974684715271</v>
+        <v>1.946095943450928</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4030992984771729</v>
+        <v>-0.3991280794143677</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.358649373054504</v>
+        <v>1.358923673629761</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8862680196762085</v>
+        <v>0.8839454054832458</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4723813533782959</v>
+        <v>0.4749782681465149</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.403996348381042</v>
+        <v>1.404281854629517</v>
       </c>
       <c r="C89" t="n">
-        <v>1.042968392372131</v>
+        <v>1.040450096130371</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3610279560089111</v>
+        <v>0.3638317584991455</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746001839637756</v>
+        <v>1.746370792388916</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8122103810310364</v>
+        <v>0.8099801540374756</v>
       </c>
       <c r="D90" t="n">
-        <v>0.93379145860672</v>
+        <v>0.9363906383514404</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.8915855884552</v>
+        <v>1.891989946365356</v>
       </c>
       <c r="C91" t="n">
-        <v>1.183110237121582</v>
+        <v>1.180416703224182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7084753513336182</v>
+        <v>0.7115732431411743</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563170552253723</v>
+        <v>1.563494801521301</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8726779818534851</v>
+        <v>0.8703722953796387</v>
       </c>
       <c r="D92" t="n">
-        <v>0.690492570400238</v>
+        <v>0.6931225061416626</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.70885705947876</v>
+        <v>1.709216952323914</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7200164198875427</v>
+        <v>0.717901349067688</v>
       </c>
       <c r="D93" t="n">
-        <v>0.988840639591217</v>
+        <v>0.9913156032562256</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430562973022461</v>
+        <v>1.430854916572571</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2258720099925995</v>
+        <v>0.2243740409612656</v>
       </c>
       <c r="D94" t="n">
-        <v>1.204690933227539</v>
+        <v>1.206480860710144</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083063364028931</v>
+        <v>1.08327054977417</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5284950733184814</v>
+        <v>0.5266191959381104</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5545682907104492</v>
+        <v>0.5566513538360596</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6686384677886963</v>
+        <v>0.6687445044517517</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7320733070373535</v>
+        <v>0.7299432158470154</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06343483924865723</v>
+        <v>-0.06119871139526367</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6041220426559448</v>
+        <v>0.6042123436927795</v>
       </c>
       <c r="C97" t="n">
-        <v>1.052643895149231</v>
+        <v>1.050113439559937</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4485218524932861</v>
+        <v>-0.445901095867157</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.003784775733948</v>
+        <v>1.00397253036499</v>
       </c>
       <c r="C98" t="n">
-        <v>0.977739155292511</v>
+        <v>0.9753023386001587</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02604562044143677</v>
+        <v>0.02867019176483154</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2794453203678131</v>
+        <v>0.2794564366340637</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1143749058246613</v>
+        <v>0.1130161806941032</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1650704145431519</v>
+        <v>0.1664402484893799</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05700695887207985</v>
+        <v>-0.05707791447639465</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3476986885070801</v>
+        <v>-0.3484803736209869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2906917333602905</v>
+        <v>0.2914024591445923</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2310290783643723</v>
+        <v>-0.2311424762010574</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3315716087818146</v>
+        <v>0.3299416303634644</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5626006722450256</v>
+        <v>-0.5610840916633606</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2113583087921143</v>
+        <v>0.2113528251647949</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2697760462760925</v>
+        <v>-0.2706550359725952</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4811343550682068</v>
+        <v>0.4820078611373901</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7511032223701477</v>
+        <v>0.7512294054031372</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4435805380344391</v>
+        <v>-0.4442424774169922</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194683790206909</v>
+        <v>1.195471882820129</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001346826553345</v>
+        <v>1.001534104347229</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7027595043182373</v>
+        <v>-0.7030977606773376</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704106330871582</v>
+        <v>1.704631805419922</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06816291809082</v>
+        <v>1.068366408348083</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04238133504986763</v>
+        <v>-0.04354429990053177</v>
       </c>
       <c r="D105" t="n">
-        <v>1.110544204711914</v>
+        <v>1.111910700798035</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.172815561294556</v>
+        <v>1.173044562339783</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6535442471504211</v>
+        <v>0.6515122056007385</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5192713141441345</v>
+        <v>0.5215323567390442</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081276059150696</v>
+        <v>1.081482648849487</v>
       </c>
       <c r="C107" t="n">
-        <v>0.477884978055954</v>
+        <v>0.4760723114013672</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6033910512924194</v>
+        <v>0.6054103374481201</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8388134241104126</v>
+        <v>0.8389610052108765</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8683847188949585</v>
+        <v>0.8660844564437866</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.0295712947845459</v>
+        <v>-0.02712345123291016</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5669320821762085</v>
+        <v>0.5670133233070374</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9697239398956299</v>
+        <v>0.9672970175743103</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4027918577194214</v>
+        <v>-0.4002836942672729</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8342003226280212</v>
+        <v>0.8343467712402344</v>
       </c>
       <c r="C110" t="n">
-        <v>1.012510657310486</v>
+        <v>1.010030388832092</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1783103346824646</v>
+        <v>-0.1756836175918579</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.192657113075256</v>
+        <v>1.192890882492065</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4802911877632141</v>
+        <v>0.4784754812717438</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7123659253120422</v>
+        <v>0.714415431022644</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.700716137886047</v>
+        <v>1.701073884963989</v>
       </c>
       <c r="C112" t="n">
-        <v>0.815636157989502</v>
+        <v>0.8134016990661621</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8850799798965454</v>
+        <v>0.8876721858978271</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044309735298157</v>
+        <v>1.044507265090942</v>
       </c>
       <c r="C113" t="n">
-        <v>1.124285221099854</v>
+        <v>1.121665358543396</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07997548580169678</v>
+        <v>-0.07715809345245361</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458185911178589</v>
+        <v>1.458484649658203</v>
       </c>
       <c r="C114" t="n">
-        <v>1.72690212726593</v>
+        <v>1.723529577255249</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2687162160873413</v>
+        <v>-0.2650449275970459</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.996988654136658</v>
+        <v>1.997418761253357</v>
       </c>
       <c r="C115" t="n">
-        <v>1.98498797416687</v>
+        <v>1.981293201446533</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0120006799697876</v>
+        <v>0.01612555980682373</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.310611486434937</v>
+        <v>1.310874223709106</v>
       </c>
       <c r="C116" t="n">
-        <v>2.482335090637207</v>
+        <v>2.47801947593689</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.171723604202271</v>
+        <v>-1.167145252227783</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697308778762817</v>
+        <v>1.697665691375732</v>
       </c>
       <c r="C117" t="n">
-        <v>2.20847749710083</v>
+        <v>2.204503774642944</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5111687183380127</v>
+        <v>-0.5068380832672119</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.720808744430542</v>
+        <v>1.721171379089355</v>
       </c>
       <c r="C118" t="n">
-        <v>1.639533996582031</v>
+        <v>1.636270523071289</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08127474784851074</v>
+        <v>0.08490085601806641</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.927075505256653</v>
+        <v>1.927488565444946</v>
       </c>
       <c r="C119" t="n">
-        <v>1.710708022117615</v>
+        <v>1.707355737686157</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2163674831390381</v>
+        <v>0.2201328277587891</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379303812980652</v>
+        <v>1.379583239555359</v>
       </c>
       <c r="C120" t="n">
-        <v>1.693590641021729</v>
+        <v>1.690259695053101</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3142868280410767</v>
+        <v>-0.3106764554977417</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.996927738189697</v>
+        <v>1.997357845306396</v>
       </c>
       <c r="C121" t="n">
-        <v>1.699560523033142</v>
+        <v>1.696222186088562</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2973672151565552</v>
+        <v>0.3011356592178345</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046089172363281</v>
+        <v>2.046531438827515</v>
       </c>
       <c r="C122" t="n">
-        <v>1.256939768791199</v>
+        <v>1.254154205322266</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7891494035720825</v>
+        <v>0.792377233505249</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.350187301635742</v>
+        <v>2.350703716278076</v>
       </c>
       <c r="C123" t="n">
-        <v>2.155431747436523</v>
+        <v>2.151524066925049</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1947555541992188</v>
+        <v>0.1991796493530273</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.452015161514282</v>
+        <v>2.452556371688843</v>
       </c>
       <c r="C124" t="n">
-        <v>1.826073527336121</v>
+        <v>1.822577118873596</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6259416341781616</v>
+        <v>0.6299792528152466</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.420194387435913</v>
+        <v>2.420727729797363</v>
       </c>
       <c r="C125" t="n">
-        <v>1.634420275688171</v>
+        <v>1.631163239479065</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7857741117477417</v>
+        <v>0.7895644903182983</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.777667880058289</v>
+        <v>1.77804434299469</v>
       </c>
       <c r="C126" t="n">
-        <v>2.257868766784668</v>
+        <v>2.253833293914795</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4802008867263794</v>
+        <v>-0.475788950920105</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.785603284835815</v>
+        <v>1.785981774330139</v>
       </c>
       <c r="C127" t="n">
-        <v>2.127957344055176</v>
+        <v>2.124083757400513</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3423540592193604</v>
+        <v>-0.3381019830703735</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.484563112258911</v>
+        <v>1.484868288040161</v>
       </c>
       <c r="C128" t="n">
-        <v>1.953782677650452</v>
+        <v>1.950126767158508</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4692195653915405</v>
+        <v>-0.4652584791183472</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172171354293823</v>
+        <v>1.172400236129761</v>
       </c>
       <c r="C129" t="n">
-        <v>1.784630417823792</v>
+        <v>1.781185865402222</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6124590635299683</v>
+        <v>-0.6087856292724609</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8092589378356934</v>
+        <v>0.8093993067741394</v>
       </c>
       <c r="C130" t="n">
-        <v>2.947476387023926</v>
+        <v>2.942579746246338</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.138217449188232</v>
+        <v>-2.133180379867554</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3933086097240448</v>
+        <v>0.3933475017547607</v>
       </c>
       <c r="C131" t="n">
-        <v>2.179183721542358</v>
+        <v>2.175246477127075</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.785875082015991</v>
+        <v>-1.781898975372314</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05657770857214928</v>
+        <v>-0.05664855986833572</v>
       </c>
       <c r="C132" t="n">
-        <v>1.836166620254517</v>
+        <v>1.832657694816589</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.892744302749634</v>
+        <v>-1.889306306838989</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09408851712942123</v>
+        <v>0.09405442327260971</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8210628032684326</v>
+        <v>0.8188215494155884</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7269743084907532</v>
+        <v>-0.7247671484947205</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1563632190227509</v>
+        <v>0.1563443094491959</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1738128364086151</v>
+        <v>0.1723798811435699</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01744961738586426</v>
+        <v>-0.01603557169437408</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3811697959899902</v>
+        <v>0.3812057077884674</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3619935512542725</v>
+        <v>0.3603255748748779</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01917624473571777</v>
+        <v>0.02088013291358948</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7312055230140686</v>
+        <v>0.7313268780708313</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2050102949142456</v>
+        <v>0.2035383880138397</v>
       </c>
       <c r="D136" t="n">
-        <v>0.526195228099823</v>
+        <v>0.527788519859314</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6019588708877563</v>
+        <v>0.6020486950874329</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5116748213768005</v>
+        <v>0.5098199844360352</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09028404951095581</v>
+        <v>0.09222871065139771</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8435144424438477</v>
+        <v>0.8436631560325623</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9789717197418213</v>
+        <v>0.9765332341194153</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1354572772979736</v>
+        <v>-0.132870078086853</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30341637134552</v>
+        <v>1.303677201271057</v>
       </c>
       <c r="C139" t="n">
-        <v>1.042872905731201</v>
+        <v>1.040354609489441</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2605434656143188</v>
+        <v>0.2633225917816162</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2602299451828</v>
+        <v>1.260480403900146</v>
       </c>
       <c r="C140" t="n">
-        <v>1.282326698303223</v>
+        <v>1.279509425163269</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.02209675312042236</v>
+        <v>-0.01902902126312256</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.490633010864258</v>
+        <v>1.490939617156982</v>
       </c>
       <c r="C141" t="n">
-        <v>1.236557841300964</v>
+        <v>1.233797669410706</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2540751695632935</v>
+        <v>0.2571419477462769</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.40362548828125</v>
+        <v>1.403910756111145</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1985021829605103</v>
+        <v>0.197038397192955</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20512330532074</v>
+        <v>1.206872344017029</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.763579845428467</v>
+        <v>1.763952970504761</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2864384055137634</v>
+        <v>0.2848648130893707</v>
       </c>
       <c r="D143" t="n">
-        <v>1.477141380310059</v>
+        <v>1.479088187217712</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603379726409912</v>
+        <v>1.603713750839233</v>
       </c>
       <c r="C144" t="n">
-        <v>1.29176938533783</v>
+        <v>1.28894031047821</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3116103410720825</v>
+        <v>0.3147734403610229</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.710589528083801</v>
+        <v>1.710949778556824</v>
       </c>
       <c r="C145" t="n">
-        <v>1.481447696685791</v>
+        <v>1.478381872177124</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2291418313980103</v>
+        <v>0.2325679063796997</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152204513549805</v>
+        <v>1.152428388595581</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9074361324310303</v>
+        <v>0.9050869941711426</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2447683811187744</v>
+        <v>0.2473413944244385</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7277418375015259</v>
+        <v>0.7278622984886169</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8559200167655945</v>
+        <v>0.8536352515220642</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1281781792640686</v>
+        <v>-0.1257729530334473</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2881001234054565</v>
+        <v>0.2881133556365967</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2205609381198883</v>
+        <v>-0.2215013951063156</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5086610317230225</v>
+        <v>0.5096147656440735</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6825998425483704</v>
+        <v>0.682709276676178</v>
       </c>
       <c r="C149" t="n">
-        <v>1.57370924949646</v>
+        <v>1.570528149604797</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8911094069480896</v>
+        <v>-0.8878188729286194</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038479804992676</v>
+        <v>1.038676142692566</v>
       </c>
       <c r="C150" t="n">
-        <v>2.469889879226685</v>
+        <v>2.465589761734009</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.431410074234009</v>
+        <v>-1.426913619041443</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.327828407287598</v>
+        <v>1.328095197677612</v>
       </c>
       <c r="C151" t="n">
-        <v>1.293941974639893</v>
+        <v>1.291110277175903</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03388643264770508</v>
+        <v>0.03698492050170898</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361559987068176</v>
+        <v>1.361835122108459</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2992605566978455</v>
+        <v>0.2976709604263306</v>
       </c>
       <c r="D152" t="n">
-        <v>1.062299489974976</v>
+        <v>1.064164161682129</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.109141111373901</v>
+        <v>2.109598398208618</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1952775418758392</v>
+        <v>0.1938177794218063</v>
       </c>
       <c r="D153" t="n">
-        <v>1.91386353969574</v>
+        <v>1.915780663490295</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996064186096191</v>
+        <v>1.996494174003601</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4646188020706177</v>
+        <v>0.4628226757049561</v>
       </c>
       <c r="D154" t="n">
-        <v>1.531445384025574</v>
+        <v>1.533671498298645</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.861159563064575</v>
+        <v>1.861556529998779</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7729359269142151</v>
+        <v>0.7707547545433044</v>
       </c>
       <c r="D155" t="n">
-        <v>1.088223695755005</v>
+        <v>1.09080171585083</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.60857093334198</v>
+        <v>1.608906269073486</v>
       </c>
       <c r="C156" t="n">
-        <v>1.369113087654114</v>
+        <v>1.366187453269958</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2394578456878662</v>
+        <v>0.2427188158035278</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.911810278892517</v>
+        <v>1.912219524383545</v>
       </c>
       <c r="C157" t="n">
-        <v>1.745419144630432</v>
+        <v>1.742023587226868</v>
       </c>
       <c r="D157" t="n">
-        <v>0.166391134262085</v>
+        <v>0.1701959371566772</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.528598308563232</v>
+        <v>1.528914093971252</v>
       </c>
       <c r="C158" t="n">
-        <v>1.473271727561951</v>
+        <v>1.470216035842896</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05532658100128174</v>
+        <v>0.05869805812835693</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363312363624573</v>
+        <v>1.363587737083435</v>
       </c>
       <c r="C159" t="n">
-        <v>1.642310857772827</v>
+        <v>1.639043927192688</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2789984941482544</v>
+        <v>-0.2754561901092529</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.672635912895203</v>
+        <v>1.67298686504364</v>
       </c>
       <c r="C160" t="n">
-        <v>1.727857828140259</v>
+        <v>1.724484086036682</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05522191524505615</v>
+        <v>-0.05149722099304199</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.341613054275513</v>
+        <v>1.341883301734924</v>
       </c>
       <c r="C161" t="n">
-        <v>1.680821537971497</v>
+        <v>1.677506685256958</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3392084836959839</v>
+        <v>-0.3356233835220337</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5793581008911133</v>
+        <v>0.5794423818588257</v>
       </c>
       <c r="C162" t="n">
-        <v>1.801492691040039</v>
+        <v>1.798027038574219</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.222134590148926</v>
+        <v>-1.218584656715393</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3736262917518616</v>
+        <v>0.3736603558063507</v>
       </c>
       <c r="C163" t="n">
-        <v>1.287169814109802</v>
+        <v>1.284346342086792</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9135435223579407</v>
+        <v>-0.9106860160827637</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6716233491897583</v>
+        <v>0.6717301607131958</v>
       </c>
       <c r="C164" t="n">
-        <v>1.446715593338013</v>
+        <v>1.443692922592163</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7750922441482544</v>
+        <v>-0.7719627618789673</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8599681258201599</v>
+        <v>0.8601207733154297</v>
       </c>
       <c r="C165" t="n">
-        <v>1.115278840065002</v>
+        <v>1.112670183181763</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2553107142448425</v>
+        <v>-0.252549409866333</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9995125532150269</v>
+        <v>0.9996993541717529</v>
       </c>
       <c r="C166" t="n">
-        <v>1.246886730194092</v>
+        <v>1.244113802909851</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2473741769790649</v>
+        <v>-0.2444144487380981</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.622607827186584</v>
+        <v>1.622946619987488</v>
       </c>
       <c r="C167" t="n">
-        <v>1.607455134391785</v>
+        <v>1.604231953620911</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0151526927947998</v>
+        <v>0.01871466636657715</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.95171332359314</v>
+        <v>1.952132344245911</v>
       </c>
       <c r="C168" t="n">
-        <v>1.882881999015808</v>
+        <v>1.879314661026001</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06883132457733154</v>
+        <v>0.07281768321990967</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178036451339722</v>
+        <v>1.178266882896423</v>
       </c>
       <c r="C169" t="n">
-        <v>1.574097871780396</v>
+        <v>1.570916295051575</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3960614204406738</v>
+        <v>-0.3926494121551514</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9837990999221802</v>
+        <v>0.9839820265769958</v>
       </c>
       <c r="C170" t="n">
-        <v>1.288843274116516</v>
+        <v>1.286017894744873</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3050441741943359</v>
+        <v>-0.3020358681678772</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9068081378936768</v>
+        <v>0.9069722890853882</v>
       </c>
       <c r="C171" t="n">
-        <v>1.041433811187744</v>
+        <v>1.038917422294617</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1346256732940674</v>
+        <v>-0.1319451332092285</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023074507713318</v>
+        <v>1.023266911506653</v>
       </c>
       <c r="C172" t="n">
-        <v>1.882416963577271</v>
+        <v>1.878850340843201</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8593424558639526</v>
+        <v>-0.8555834293365479</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223454833030701</v>
+        <v>1.223696351051331</v>
       </c>
       <c r="C173" t="n">
-        <v>1.675213694572449</v>
+        <v>1.671905875205994</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.451758861541748</v>
+        <v>-0.4482095241546631</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655388593673706</v>
+        <v>1.655735373497009</v>
       </c>
       <c r="C174" t="n">
-        <v>1.872783899307251</v>
+        <v>1.869229197502136</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2173953056335449</v>
+        <v>-0.213493824005127</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.469627857208252</v>
+        <v>1.469929337501526</v>
       </c>
       <c r="C175" t="n">
-        <v>1.913029789924622</v>
+        <v>1.909425020217896</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4434019327163696</v>
+        <v>-0.4394956827163696</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.09224271774292</v>
+        <v>1.092452168464661</v>
       </c>
       <c r="C176" t="n">
-        <v>1.948004841804504</v>
+        <v>1.944356322288513</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8557621240615845</v>
+        <v>-0.8519041538238525</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.1040198802948</v>
+        <v>1.1042320728302</v>
       </c>
       <c r="C177" t="n">
-        <v>2.074104070663452</v>
+        <v>2.070297956466675</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9700841903686523</v>
+        <v>-0.9660658836364746</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334328532218933</v>
+        <v>1.334596991539001</v>
       </c>
       <c r="C178" t="n">
-        <v>1.979949116706848</v>
+        <v>1.976260542869568</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.645620584487915</v>
+        <v>-0.6416635513305664</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.895448565483093</v>
+        <v>1.895853877067566</v>
       </c>
       <c r="C179" t="n">
-        <v>1.454917073249817</v>
+        <v>1.451884269714355</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4405314922332764</v>
+        <v>0.4439696073532104</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.86966347694397</v>
+        <v>1.870062470436096</v>
       </c>
       <c r="C180" t="n">
-        <v>1.512449741363525</v>
+        <v>1.509345054626465</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3572137355804443</v>
+        <v>0.3607174158096313</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.433695435523987</v>
+        <v>1.433988094329834</v>
       </c>
       <c r="C181" t="n">
-        <v>1.835962057113647</v>
+        <v>1.832453370094299</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4022666215896606</v>
+        <v>-0.3984652757644653</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4872779846191406</v>
+        <v>0.4873397946357727</v>
       </c>
       <c r="C182" t="n">
-        <v>1.226516723632812</v>
+        <v>1.223769068717957</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7392387390136719</v>
+        <v>-0.7364292740821838</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8842374682426453</v>
+        <v>0.8843960762023926</v>
       </c>
       <c r="C183" t="n">
-        <v>1.502563714981079</v>
+        <v>1.499471306800842</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6183262467384338</v>
+        <v>-0.6150752305984497</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556272625923157</v>
+        <v>1.556595206260681</v>
       </c>
       <c r="C184" t="n">
-        <v>1.780658364295959</v>
+        <v>1.777218818664551</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2243857383728027</v>
+        <v>-0.2206236124038696</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.936922430992126</v>
+        <v>1.937337875366211</v>
       </c>
       <c r="C185" t="n">
-        <v>1.681429624557495</v>
+        <v>1.67811393737793</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2554928064346313</v>
+        <v>0.2592239379882812</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.965441942214966</v>
+        <v>1.965864419937134</v>
       </c>
       <c r="C186" t="n">
-        <v>1.629121422767639</v>
+        <v>1.625871062278748</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3363205194473267</v>
+        <v>0.3399933576583862</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.064783811569214</v>
+        <v>2.065230369567871</v>
       </c>
       <c r="C187" t="n">
-        <v>1.483421921730042</v>
+        <v>1.480353474617004</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5813618898391724</v>
+        <v>0.5848768949508667</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.350324392318726</v>
+        <v>2.35084056854248</v>
       </c>
       <c r="C188" t="n">
-        <v>1.520559549331665</v>
+        <v>1.517444849014282</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8297648429870605</v>
+        <v>0.8333957195281982</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.900917053222656</v>
+        <v>2.901567459106445</v>
       </c>
       <c r="C189" t="n">
-        <v>1.683441996574402</v>
+        <v>1.680123686790466</v>
       </c>
       <c r="D189" t="n">
-        <v>1.217475056648254</v>
+        <v>1.221443772315979</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.115325212478638</v>
+        <v>3.116028070449829</v>
       </c>
       <c r="C190" t="n">
-        <v>1.285256862640381</v>
+        <v>1.282435894012451</v>
       </c>
       <c r="D190" t="n">
-        <v>1.830068349838257</v>
+        <v>1.833592176437378</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.100314140319824</v>
+        <v>3.101013422012329</v>
       </c>
       <c r="C191" t="n">
-        <v>1.576022982597351</v>
+        <v>1.57283878326416</v>
       </c>
       <c r="D191" t="n">
-        <v>1.524291157722473</v>
+        <v>1.528174638748169</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.85396933555603</v>
+        <v>2.854608535766602</v>
       </c>
       <c r="C192" t="n">
-        <v>1.885510087013245</v>
+        <v>1.88193941116333</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9684592485427856</v>
+        <v>0.9726691246032715</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.928085088729858</v>
+        <v>2.928742170333862</v>
       </c>
       <c r="C193" t="n">
-        <v>2.959451198577881</v>
+        <v>2.95453929901123</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.03136610984802246</v>
+        <v>-0.02579712867736816</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.836307764053345</v>
+        <v>2.836942672729492</v>
       </c>
       <c r="C194" t="n">
-        <v>3.538636445999146</v>
+        <v>3.533001184463501</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.7023286819458008</v>
+        <v>-0.6960585117340088</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279000282287598</v>
+        <v>2.279499053955078</v>
       </c>
       <c r="C195" t="n">
-        <v>3.311719179153442</v>
+        <v>3.30636739730835</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.032718896865845</v>
+        <v>-1.026868343353271</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.106551170349121</v>
+        <v>3.10725212097168</v>
       </c>
       <c r="C196" t="n">
-        <v>3.738366365432739</v>
+        <v>3.732481718063354</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6318151950836182</v>
+        <v>-0.6252295970916748</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.900923728942871</v>
+        <v>2.901574373245239</v>
       </c>
       <c r="C197" t="n">
-        <v>3.526795387268066</v>
+        <v>3.521174907684326</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6258716583251953</v>
+        <v>-0.6196005344390869</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.014168500900269</v>
+        <v>2.014602899551392</v>
       </c>
       <c r="C198" t="n">
-        <v>3.191458940505981</v>
+        <v>3.186257362365723</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.177290439605713</v>
+        <v>-1.171654462814331</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055326461791992</v>
+        <v>1.055526971817017</v>
       </c>
       <c r="C199" t="n">
-        <v>2.613444805145264</v>
+        <v>2.608965396881104</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.558118343353271</v>
+        <v>-1.553438425064087</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4210824966430664</v>
+        <v>0.4211281538009644</v>
       </c>
       <c r="C200" t="n">
-        <v>2.880177736282349</v>
+        <v>2.875364780426025</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.459095239639282</v>
+        <v>-2.454236507415771</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443121552467346</v>
+        <v>1.443416595458984</v>
       </c>
       <c r="C201" t="n">
-        <v>2.637165069580078</v>
+        <v>2.632655620574951</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.194043517112732</v>
+        <v>-1.189239025115967</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064029693603516</v>
+        <v>1.064232230186462</v>
       </c>
       <c r="C202" t="n">
-        <v>2.741958379745483</v>
+        <v>2.737318277359009</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.677928686141968</v>
+        <v>-1.673086047172546</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092664957046509</v>
+        <v>1.09287428855896</v>
       </c>
       <c r="C203" t="n">
-        <v>2.488785266876221</v>
+        <v>2.484461307525635</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.396120309829712</v>
+        <v>-1.391587018966675</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300144076347351</v>
+        <v>1.300404071807861</v>
       </c>
       <c r="C204" t="n">
-        <v>2.121616125106812</v>
+        <v>2.117750883102417</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8214720487594604</v>
+        <v>-0.8173468112945557</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.28536331653595</v>
+        <v>1.285619735717773</v>
       </c>
       <c r="C205" t="n">
-        <v>1.829378843307495</v>
+        <v>1.825878381729126</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5440155267715454</v>
+        <v>-0.5402586460113525</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046308636665344</v>
+        <v>1.046506762504578</v>
       </c>
       <c r="C206" t="n">
-        <v>1.097102046012878</v>
+        <v>1.094516038894653</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05079340934753418</v>
+        <v>-0.04800927639007568</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203456163406372</v>
+        <v>1.203692674636841</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9548305869102478</v>
+        <v>0.9524223208427429</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2486255764961243</v>
+        <v>0.2512703537940979</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.472466945648193</v>
+        <v>1.472769021987915</v>
       </c>
       <c r="C208" t="n">
-        <v>0.759967565536499</v>
+        <v>0.7578026056289673</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7124993801116943</v>
+        <v>0.7149664163589478</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.512814402580261</v>
+        <v>1.513126373291016</v>
       </c>
       <c r="C209" t="n">
-        <v>0.577165424823761</v>
+        <v>0.5752288103103638</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9356489777565002</v>
+        <v>0.9378975629806519</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.86463463306427</v>
+        <v>1.865032434463501</v>
       </c>
       <c r="C210" t="n">
-        <v>0.678593635559082</v>
+        <v>0.6765303015708923</v>
       </c>
       <c r="D210" t="n">
-        <v>1.186040997505188</v>
+        <v>1.188502073287964</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612101197242737</v>
+        <v>1.61243748664856</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8430178761482239</v>
+        <v>0.840749204158783</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7690833210945129</v>
+        <v>0.7716882824897766</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.064872980117798</v>
+        <v>2.065319538116455</v>
       </c>
       <c r="C212" t="n">
-        <v>1.128161907196045</v>
+        <v>1.125537276268005</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9367110729217529</v>
+        <v>0.9397822618484497</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.151172399520874</v>
+        <v>2.151640176773071</v>
       </c>
       <c r="C213" t="n">
-        <v>0.524131715297699</v>
+        <v>0.5222612619400024</v>
       </c>
       <c r="D213" t="n">
-        <v>1.62704062461853</v>
+        <v>1.629378914833069</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.910224914550781</v>
+        <v>1.91063380241394</v>
       </c>
       <c r="C214" t="n">
-        <v>1.03044056892395</v>
+        <v>1.027937889099121</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8797843456268311</v>
+        <v>0.8826959133148193</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.049612760543823</v>
+        <v>2.050055742263794</v>
       </c>
       <c r="C215" t="n">
-        <v>1.183281302452087</v>
+        <v>1.180587649345398</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8663314580917358</v>
+        <v>0.869468092918396</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923096060752869</v>
+        <v>1.923508048057556</v>
       </c>
       <c r="C216" t="n">
-        <v>1.415221452713013</v>
+        <v>1.412238121032715</v>
       </c>
       <c r="D216" t="n">
-        <v>0.507874608039856</v>
+        <v>0.5112699270248413</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003001570701599</v>
+        <v>1.003189206123352</v>
       </c>
       <c r="C217" t="n">
-        <v>1.216849684715271</v>
+        <v>1.214114189147949</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2138481140136719</v>
+        <v>-0.2109249830245972</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7117483019828796</v>
+        <v>0.7118648290634155</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5157105326652527</v>
+        <v>0.5138506293296814</v>
       </c>
       <c r="D218" t="n">
-        <v>0.196037769317627</v>
+        <v>0.1980141997337341</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493081331253052</v>
+        <v>1.493388414382935</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5028015971183777</v>
+        <v>0.5009577870368958</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9902797341346741</v>
+        <v>0.9924306273460388</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.354787588119507</v>
+        <v>1.355060935020447</v>
       </c>
       <c r="C220" t="n">
-        <v>1.21353805065155</v>
+        <v>1.210806608200073</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1412495374679565</v>
+        <v>0.1442543268203735</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.491581082344055</v>
+        <v>1.491887807846069</v>
       </c>
       <c r="C221" t="n">
-        <v>1.428784012794495</v>
+        <v>1.42578399181366</v>
       </c>
       <c r="D221" t="n">
-        <v>0.06279706954956055</v>
+        <v>0.06610381603240967</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.287870764732361</v>
+        <v>1.288127779960632</v>
       </c>
       <c r="C222" t="n">
-        <v>1.008395075798035</v>
+        <v>1.005919933319092</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2794756889343262</v>
+        <v>0.2822078466415405</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9320334196090698</v>
+        <v>0.9322037100791931</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7358964085578918</v>
+        <v>0.7337615489959717</v>
       </c>
       <c r="D223" t="n">
-        <v>0.196137011051178</v>
+        <v>0.1984421610832214</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092434644699097</v>
+        <v>1.092644095420837</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4306554794311523</v>
+        <v>0.4289017915725708</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6617791652679443</v>
+        <v>0.6637423038482666</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489128589630127</v>
+        <v>1.489434838294983</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5799593329429626</v>
+        <v>0.5780192613601685</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9091692566871643</v>
+        <v>0.9114155769348145</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.844339609146118</v>
+        <v>1.844732403755188</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0827881321310997</v>
+        <v>0.0814688503742218</v>
       </c>
       <c r="D226" t="n">
-        <v>1.76155149936676</v>
+        <v>1.763263583183289</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.654924631118774</v>
+        <v>1.655271172523499</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4962504804134369</v>
+        <v>0.4944148659706116</v>
       </c>
       <c r="D227" t="n">
-        <v>1.158674120903015</v>
+        <v>1.160856246948242</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.091528177261353</v>
+        <v>2.091981410980225</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9004270434379578</v>
+        <v>0.8980866670608521</v>
       </c>
       <c r="D228" t="n">
-        <v>1.19110107421875</v>
+        <v>1.193894743919373</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.992929220199585</v>
+        <v>1.993358373641968</v>
       </c>
       <c r="C229" t="n">
-        <v>1.220028877258301</v>
+        <v>1.217289447784424</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7729003429412842</v>
+        <v>0.7760689258575439</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.984607458114624</v>
+        <v>1.985034584999084</v>
       </c>
       <c r="C230" t="n">
-        <v>1.756304740905762</v>
+        <v>1.752895474433899</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2283027172088623</v>
+        <v>0.2321391105651855</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.68200671672821</v>
+        <v>1.682359933853149</v>
       </c>
       <c r="C231" t="n">
-        <v>1.808150887489319</v>
+        <v>1.80467689037323</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1261441707611084</v>
+        <v>-0.1223169565200806</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.701886057853699</v>
+        <v>1.702244162559509</v>
       </c>
       <c r="C232" t="n">
-        <v>1.581777930259705</v>
+        <v>1.578586578369141</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1201081275939941</v>
+        <v>0.1236575841903687</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.20164942741394</v>
+        <v>2.202129364013672</v>
       </c>
       <c r="C233" t="n">
-        <v>1.620392322540283</v>
+        <v>1.61715292930603</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5812571048736572</v>
+        <v>0.5849764347076416</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.675270318984985</v>
+        <v>2.675865650177002</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9499649405479431</v>
+        <v>0.9475626945495605</v>
       </c>
       <c r="D234" t="n">
-        <v>1.725305318832397</v>
+        <v>1.728302955627441</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.317040205001831</v>
+        <v>2.317548274993896</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3066474497318268</v>
+        <v>0.3050486147403717</v>
       </c>
       <c r="D235" t="n">
-        <v>2.010392665863037</v>
+        <v>2.012499570846558</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.134711027145386</v>
+        <v>2.135174751281738</v>
       </c>
       <c r="C236" t="n">
-        <v>0.351287454366684</v>
+        <v>0.3496328592300415</v>
       </c>
       <c r="D236" t="n">
-        <v>1.783423542976379</v>
+        <v>1.785541892051697</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.667686700820923</v>
+        <v>2.668280363082886</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6186326146125793</v>
+        <v>-0.6190759539604187</v>
       </c>
       <c r="D237" t="n">
-        <v>3.286319255828857</v>
+        <v>3.287356376647949</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.241951704025269</v>
+        <v>2.242441415786743</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.16164493560791</v>
+        <v>-1.161410212516785</v>
       </c>
       <c r="D238" t="n">
-        <v>3.403596639633179</v>
+        <v>3.403851509094238</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.595811367034912</v>
+        <v>2.596387386322021</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.501707553863525</v>
+        <v>-1.501047968864441</v>
       </c>
       <c r="D239" t="n">
-        <v>4.097518920898438</v>
+        <v>4.097435474395752</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.771232843399048</v>
+        <v>2.771851778030396</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8834661841392517</v>
+        <v>-0.8835788369178772</v>
       </c>
       <c r="D240" t="n">
-        <v>3.654699087142944</v>
+        <v>3.655430555343628</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301011085510254</v>
+        <v>2.301515340805054</v>
       </c>
       <c r="C241" t="n">
-        <v>1.312855005264282</v>
+        <v>1.309999704360962</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9881560802459717</v>
+        <v>0.9915156364440918</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.626751184463501</v>
+        <v>2.627334833145142</v>
       </c>
       <c r="C242" t="n">
-        <v>2.356633186340332</v>
+        <v>2.352474212646484</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2701179981231689</v>
+        <v>0.2748606204986572</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.020858287811279</v>
+        <v>2.021294355392456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.621011018753052</v>
+        <v>2.616522073745728</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6001527309417725</v>
+        <v>-0.5952277183532715</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.208178758621216</v>
+        <v>2.208660364151001</v>
       </c>
       <c r="C244" t="n">
-        <v>2.513215780258179</v>
+        <v>2.508861303329468</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3050370216369629</v>
+        <v>-0.3002009391784668</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266005516052246</v>
+        <v>2.266501188278198</v>
       </c>
       <c r="C245" t="n">
-        <v>2.59099555015564</v>
+        <v>2.586544036865234</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3249900341033936</v>
+        <v>-0.3200428485870361</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.320134878158569</v>
+        <v>2.320643663406372</v>
       </c>
       <c r="C246" t="n">
-        <v>1.54370641708374</v>
+        <v>1.540562629699707</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7764284610748291</v>
+        <v>0.780081033706665</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.207534790039062</v>
+        <v>2.208016157150269</v>
       </c>
       <c r="C247" t="n">
-        <v>1.172877788543701</v>
+        <v>1.170197129249573</v>
       </c>
       <c r="D247" t="n">
-        <v>1.034657001495361</v>
+        <v>1.037819027900696</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.035936594009399</v>
+        <v>2.036376237869263</v>
       </c>
       <c r="C248" t="n">
-        <v>1.602770686149597</v>
+        <v>1.599553227424622</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4331659078598022</v>
+        <v>0.4368230104446411</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.541791200637817</v>
+        <v>1.542110323905945</v>
       </c>
       <c r="C249" t="n">
-        <v>2.00969409942627</v>
+        <v>2.005968332290649</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4679028987884521</v>
+        <v>-0.4638580083847046</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.263910889625549</v>
+        <v>1.264162063598633</v>
       </c>
       <c r="C250" t="n">
-        <v>1.556745409965515</v>
+        <v>1.553585529327393</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2928345203399658</v>
+        <v>-0.2894234657287598</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.775425314903259</v>
+        <v>1.775801420211792</v>
       </c>
       <c r="C251" t="n">
-        <v>1.382081866264343</v>
+        <v>1.379140019416809</v>
       </c>
       <c r="D251" t="n">
-        <v>0.393343448638916</v>
+        <v>0.3966614007949829</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.543916821479797</v>
+        <v>1.544236540794373</v>
       </c>
       <c r="C252" t="n">
-        <v>1.232841372489929</v>
+        <v>1.230085968971252</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3110754489898682</v>
+        <v>0.3141505718231201</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.40415632724762</v>
+        <v>1.404441833496094</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9419107437133789</v>
+        <v>0.9395186305046082</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4622455835342407</v>
+        <v>0.4649232029914856</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5281991958618164</v>
+        <v>0.528270959854126</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04853982850909233</v>
+        <v>-0.04969510063529015</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5767390131950378</v>
+        <v>0.577966034412384</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7595102190971375</v>
+        <v>0.7596384286880493</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3250186741352081</v>
+        <v>0.3233968913555145</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4344915449619293</v>
+        <v>0.4362415373325348</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202181100845337</v>
+        <v>1.202417254447937</v>
       </c>
       <c r="C256" t="n">
-        <v>0.949449360370636</v>
+        <v>0.9470478296279907</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2527317404747009</v>
+        <v>0.2553694248199463</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181567907333374</v>
+        <v>1.181799173355103</v>
       </c>
       <c r="C257" t="n">
-        <v>0.527008056640625</v>
+        <v>0.5251340270042419</v>
       </c>
       <c r="D257" t="n">
-        <v>0.654559850692749</v>
+        <v>0.6566651463508606</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6774808168411255</v>
+        <v>0.6775890588760376</v>
       </c>
       <c r="C258" t="n">
-        <v>1.298741936683655</v>
+        <v>1.295904159545898</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6212611198425293</v>
+        <v>-0.6183151006698608</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8815910816192627</v>
+        <v>0.8817490339279175</v>
       </c>
       <c r="C259" t="n">
-        <v>1.832337260246277</v>
+        <v>1.828833222389221</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9507461786270142</v>
+        <v>-0.9470841884613037</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.169732809066772</v>
+        <v>1.169961094856262</v>
       </c>
       <c r="C260" t="n">
-        <v>2.280433893203735</v>
+        <v>2.276370048522949</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.110701084136963</v>
+        <v>-1.106408953666687</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.296800494194031</v>
+        <v>1.297059655189514</v>
       </c>
       <c r="C261" t="n">
-        <v>1.924078226089478</v>
+        <v>1.920459628105164</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6272777318954468</v>
+        <v>-0.6233999729156494</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507537603378296</v>
+        <v>1.507848381996155</v>
       </c>
       <c r="C262" t="n">
-        <v>1.450972676277161</v>
+        <v>1.447944760322571</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05656492710113525</v>
+        <v>0.05990362167358398</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.1879563331604</v>
+        <v>1.188189029693604</v>
       </c>
       <c r="C263" t="n">
-        <v>2.208771944046021</v>
+        <v>2.204797983169556</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.02081561088562</v>
+        <v>-1.016608953475952</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166114091873169</v>
+        <v>1.166341423988342</v>
       </c>
       <c r="C264" t="n">
-        <v>1.774074554443359</v>
+        <v>1.77064311504364</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6079604625701904</v>
+        <v>-0.6043016910552979</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328307747840881</v>
+        <v>1.328574776649475</v>
       </c>
       <c r="C265" t="n">
-        <v>1.76295006275177</v>
+        <v>1.759532690048218</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4346423149108887</v>
+        <v>-0.4309579133987427</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683016538619995</v>
+        <v>1.683370113372803</v>
       </c>
       <c r="C266" t="n">
-        <v>2.327972173690796</v>
+        <v>2.323848962783813</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6449556350708008</v>
+        <v>-0.6404788494110107</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.91549152135849</v>
+        <v>0.9156577587127686</v>
       </c>
       <c r="C267" t="n">
-        <v>1.721022963523865</v>
+        <v>1.717657804489136</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8055314421653748</v>
+        <v>-0.8020000457763672</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088704943656921</v>
+        <v>1.088913440704346</v>
       </c>
       <c r="C268" t="n">
-        <v>1.330475091934204</v>
+        <v>1.327597737312317</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2417701482772827</v>
+        <v>-0.2386842966079712</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163012266159058</v>
+        <v>1.163238883018494</v>
       </c>
       <c r="C269" t="n">
-        <v>1.980522274971008</v>
+        <v>1.976832985877991</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8175100088119507</v>
+        <v>-0.8135941028594971</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.0019291639328</v>
+        <v>1.002116441726685</v>
       </c>
       <c r="C270" t="n">
-        <v>2.183352470397949</v>
+        <v>2.179409980773926</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.181423306465149</v>
+        <v>-1.177293539047241</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,27 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9323621392250061</v>
+        <v>0.9325324892997742</v>
       </c>
       <c r="C271" t="n">
-        <v>2.438974618911743</v>
+        <v>2.434713125228882</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.506612539291382</v>
+        <v>-1.502180576324463</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1153876855969429</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2.458423137664795</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-2.343035459518433</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8133077025413513</v>
+        <v>0.8132784366607666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7954851984977722</v>
+        <v>0.7928804159164429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0178225040435791</v>
+        <v>0.02039802074432373</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8400200009346008</v>
+        <v>0.8399962782859802</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2561599016189575</v>
+        <v>-0.2570988237857819</v>
       </c>
       <c r="D3" t="n">
-        <v>1.096179962158203</v>
+        <v>1.097095131874084</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9163072109222412</v>
+        <v>0.9162992835044861</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.765216052532196</v>
+        <v>-0.7653485536575317</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681523323059082</v>
+        <v>1.681647777557373</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4917184710502625</v>
+        <v>0.4916224777698517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09328377991914749</v>
+        <v>0.09179133176803589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3984346985816956</v>
+        <v>0.3998311460018158</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7169052958488464</v>
+        <v>0.7168560028076172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0221091266721487</v>
+        <v>0.0207294188439846</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6947961449623108</v>
+        <v>0.6961265802383423</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08110516518354416</v>
+        <v>0.08092399686574936</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1413441896438599</v>
+        <v>-0.1424649804830551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2224493622779846</v>
+        <v>0.2233889698982239</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6721259355545044</v>
+        <v>0.6720673441886902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4562132656574249</v>
+        <v>0.4541459083557129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2159126698970795</v>
+        <v>0.2179214358329773</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0411696434021</v>
+        <v>1.041187644004822</v>
       </c>
       <c r="C9" t="n">
-        <v>1.172919988632202</v>
+        <v>1.16971743106842</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1317503452301025</v>
+        <v>-0.1285297870635986</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414492607116699</v>
+        <v>1.41458797454834</v>
       </c>
       <c r="C10" t="n">
-        <v>1.137759327888489</v>
+        <v>1.134612321853638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2767332792282104</v>
+        <v>0.2799756526947021</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9747086763381958</v>
+        <v>0.9747129082679749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9762672781944275</v>
+        <v>0.9733761548995972</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001558601856231689</v>
+        <v>0.001336753368377686</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057391881942749</v>
+        <v>1.057413220405579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.814979612827301</v>
+        <v>0.812343955039978</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242412269115448</v>
+        <v>0.2450692653656006</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7388667464256287</v>
+        <v>0.7388219833374023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3246826529502869</v>
+        <v>0.3228236436843872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4141840934753418</v>
+        <v>0.4159983396530151</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2457004487514496</v>
+        <v>0.2455534189939499</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04573231935501099</v>
+        <v>-0.04700456187129021</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2914327681064606</v>
+        <v>0.2925579845905304</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5109190940856934</v>
+        <v>0.5108270645141602</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3848347961902618</v>
+        <v>-0.3855699002742767</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8957538604736328</v>
+        <v>0.8963969945907593</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184450268745422</v>
+        <v>1.184497952461243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2514559328556061</v>
+        <v>0.2497129291296005</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9329943656921387</v>
+        <v>0.934785008430481</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023229241371155</v>
+        <v>1.023243546485901</v>
       </c>
       <c r="C17" t="n">
-        <v>1.062371969223022</v>
+        <v>1.059344410896301</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03914272785186768</v>
+        <v>-0.03610086441040039</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103393077850342</v>
+        <v>1.103423953056335</v>
       </c>
       <c r="C18" t="n">
-        <v>1.858652114868164</v>
+        <v>1.854363203048706</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7552590370178223</v>
+        <v>-0.7509392499923706</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034667134284973</v>
+        <v>1.03468382358551</v>
       </c>
       <c r="C19" t="n">
-        <v>1.186797857284546</v>
+        <v>1.183573365211487</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1521307229995728</v>
+        <v>-0.1488895416259766</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4152016043663025</v>
+        <v>0.4150897562503815</v>
       </c>
       <c r="C20" t="n">
-        <v>2.010067939758301</v>
+        <v>2.005539178848267</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.594866275787354</v>
+        <v>-1.590449452400208</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.723665177822113</v>
+        <v>0.7236173152923584</v>
       </c>
       <c r="C21" t="n">
-        <v>1.386498689651489</v>
+        <v>1.382957816123962</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6628335118293762</v>
+        <v>-0.659340500831604</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7118218541145325</v>
+        <v>0.7117714881896973</v>
       </c>
       <c r="C22" t="n">
-        <v>1.503906965255737</v>
+        <v>1.500180006027222</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7920851111412048</v>
+        <v>-0.7884085178375244</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3977260291576385</v>
+        <v>0.3976105451583862</v>
       </c>
       <c r="C23" t="n">
-        <v>1.32982063293457</v>
+        <v>1.326369404792786</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9320945739746094</v>
+        <v>-0.9287588596343994</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6766847372055054</v>
+        <v>0.6766270995140076</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8503485321998596</v>
+        <v>0.8476568460464478</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1736637949943542</v>
+        <v>-0.1710297465324402</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105096697807312</v>
+        <v>1.105127930641174</v>
       </c>
       <c r="C25" t="n">
-        <v>1.012809872627258</v>
+        <v>1.009860873222351</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09228682518005371</v>
+        <v>0.09526705741882324</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8965254426002502</v>
+        <v>0.8965134024620056</v>
       </c>
       <c r="C26" t="n">
-        <v>1.534660339355469</v>
+        <v>1.530884861946106</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6381348967552185</v>
+        <v>-0.6343714594841003</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145079731941223</v>
+        <v>1.145119309425354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7418851256370544</v>
+        <v>0.7393652200698853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4031946063041687</v>
+        <v>0.4057540893554688</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.176926374435425</v>
+        <v>1.176972627639771</v>
       </c>
       <c r="C28" t="n">
-        <v>1.987011313438416</v>
+        <v>1.982519149780273</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8100849390029907</v>
+        <v>-0.8055465221405029</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9123660922050476</v>
+        <v>0.9123573303222656</v>
       </c>
       <c r="C29" t="n">
-        <v>1.840006470680237</v>
+        <v>1.835747122764587</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9276403784751892</v>
+        <v>-0.9233897924423218</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4934088289737701</v>
+        <v>0.493313193321228</v>
       </c>
       <c r="C30" t="n">
-        <v>1.612767934799194</v>
+        <v>1.608868718147278</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.119359135627747</v>
+        <v>-1.11555552482605</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7593718767166138</v>
+        <v>0.7593314051628113</v>
       </c>
       <c r="C31" t="n">
-        <v>1.23492693901062</v>
+        <v>1.231626152992249</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4755550622940063</v>
+        <v>-0.4722947478294373</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8581729531288147</v>
+        <v>0.8581529855728149</v>
       </c>
       <c r="C32" t="n">
-        <v>1.395505905151367</v>
+        <v>1.391950845718384</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5373329520225525</v>
+        <v>-0.5337978601455688</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7008481025695801</v>
+        <v>0.7007954716682434</v>
       </c>
       <c r="C33" t="n">
-        <v>1.330027461051941</v>
+        <v>1.326576113700867</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6291793584823608</v>
+        <v>-0.6257806420326233</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006006717681885</v>
+        <v>2.006224632263184</v>
       </c>
       <c r="C34" t="n">
-        <v>0.533750593662262</v>
+        <v>0.5315604209899902</v>
       </c>
       <c r="D34" t="n">
-        <v>1.472256183624268</v>
+        <v>1.474664211273193</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.463946461677551</v>
+        <v>1.464052081108093</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1097202152013779</v>
+        <v>-0.1108910962939262</v>
       </c>
       <c r="D35" t="n">
-        <v>1.57366669178009</v>
+        <v>1.5749431848526</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.21094012260437</v>
+        <v>1.210993409156799</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5246648192405701</v>
+        <v>0.5224890112876892</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6862753033638</v>
+        <v>0.6885043978691101</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.493867039680481</v>
+        <v>1.493978977203369</v>
       </c>
       <c r="C37" t="n">
-        <v>2.035252332687378</v>
+        <v>2.030683755874634</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.541385293006897</v>
+        <v>-0.5367047786712646</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.330890774726868</v>
+        <v>1.330968856811523</v>
       </c>
       <c r="C38" t="n">
-        <v>2.156733274459839</v>
+        <v>2.15197229385376</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8258424997329712</v>
+        <v>-0.8210034370422363</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969331502914429</v>
+        <v>1.969541907310486</v>
       </c>
       <c r="C39" t="n">
-        <v>1.645227313041687</v>
+        <v>1.641276717185974</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3241041898727417</v>
+        <v>0.3282651901245117</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744308590888977</v>
+        <v>1.74447238445282</v>
       </c>
       <c r="C40" t="n">
-        <v>1.110905408859253</v>
+        <v>1.107800960540771</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6334031820297241</v>
+        <v>0.6366714239120483</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.820847511291504</v>
+        <v>1.821027278900146</v>
       </c>
       <c r="C41" t="n">
-        <v>1.64870548248291</v>
+        <v>1.644749164581299</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1721420288085938</v>
+        <v>0.1762781143188477</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755217552185059</v>
+        <v>1.755383610725403</v>
       </c>
       <c r="C42" t="n">
-        <v>1.184378504753113</v>
+        <v>1.18115770816803</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5708390474319458</v>
+        <v>0.574225902557373</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602705240249634</v>
+        <v>1.602839708328247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7085848450660706</v>
+        <v>0.7061176896095276</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8941203951835632</v>
+        <v>0.8967220187187195</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163877248764038</v>
+        <v>1.163920640945435</v>
       </c>
       <c r="C44" t="n">
-        <v>0.476003497838974</v>
+        <v>0.4739048182964325</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6878737211227417</v>
+        <v>0.6900157928466797</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.087011575698853</v>
+        <v>1.087039113044739</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03880924731492996</v>
+        <v>0.03740308806300163</v>
       </c>
       <c r="D45" t="n">
-        <v>1.048202276229858</v>
+        <v>1.049636006355286</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349089026451111</v>
+        <v>1.349170923233032</v>
       </c>
       <c r="C46" t="n">
-        <v>1.117480516433716</v>
+        <v>1.114365696907043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.231608510017395</v>
+        <v>0.2348052263259888</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9912388920783997</v>
+        <v>0.9912465214729309</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8861422538757324</v>
+        <v>0.8833938837051392</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1050966382026672</v>
+        <v>0.1078526377677917</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6581971645355225</v>
+        <v>0.658135712146759</v>
       </c>
       <c r="C48" t="n">
-        <v>1.005463480949402</v>
+        <v>1.002526164054871</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3472663164138794</v>
+        <v>-0.3443904519081116</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7141662240028381</v>
+        <v>0.7141163349151611</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3722382783889771</v>
+        <v>0.3703039586544037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3419279456138611</v>
+        <v>0.3438123762607574</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381484866142273</v>
+        <v>1.381573438644409</v>
       </c>
       <c r="C50" t="n">
-        <v>1.384363174438477</v>
+        <v>1.380825519561768</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002878308296203613</v>
+        <v>0.0007479190826416016</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.342772960662842</v>
+        <v>1.342853426933289</v>
       </c>
       <c r="C51" t="n">
-        <v>1.243776679039001</v>
+        <v>1.240461826324463</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09899628162384033</v>
+        <v>0.1023916006088257</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021939516067505</v>
+        <v>1.021953463554382</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6140114665031433</v>
+        <v>0.6116941571235657</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4079280495643616</v>
+        <v>0.4102593064308167</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144399881362915</v>
+        <v>1.144439220428467</v>
       </c>
       <c r="C53" t="n">
-        <v>1.133694529533386</v>
+        <v>1.130553960800171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01070535182952881</v>
+        <v>0.0138852596282959</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.183169960975647</v>
+        <v>-0.1834059357643127</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8825950622558594</v>
+        <v>0.879852294921875</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.065765023231506</v>
+        <v>-1.063258171081543</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05599977821111679</v>
+        <v>-0.05620938166975975</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8072882890701294</v>
+        <v>0.8046648502349854</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8632880449295044</v>
+        <v>-0.8608742356300354</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1692760139703751</v>
+        <v>0.1691131442785263</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7512686252593994</v>
+        <v>0.7487338781356812</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5819926261901855</v>
+        <v>-0.5796207189559937</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144836783409119</v>
+        <v>1.14487624168396</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8451933860778809</v>
+        <v>0.8425098657608032</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2996433973312378</v>
+        <v>0.3023663759231567</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.253958344459534</v>
+        <v>1.25402045249939</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6577867865562439</v>
+        <v>0.6554001569747925</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5961715579032898</v>
+        <v>0.5986202955245972</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243719458580017</v>
+        <v>1.243779540061951</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6942290663719177</v>
+        <v>0.691784679889679</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5494903922080994</v>
+        <v>0.5519948601722717</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063645362854004</v>
+        <v>1.063668012619019</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9321793913841248</v>
+        <v>0.9293580651283264</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1314659714698792</v>
+        <v>0.1343099474906921</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008912801742554</v>
+        <v>1.008924126625061</v>
       </c>
       <c r="C61" t="n">
-        <v>1.159938097000122</v>
+        <v>1.156755924224854</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1510252952575684</v>
+        <v>-0.1478317975997925</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8700207471847534</v>
+        <v>0.8700032234191895</v>
       </c>
       <c r="C62" t="n">
-        <v>1.474769473075867</v>
+        <v>1.471088528633118</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6047487258911133</v>
+        <v>-0.6010853052139282</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.920762300491333</v>
+        <v>0.9207552671432495</v>
       </c>
       <c r="C63" t="n">
-        <v>2.654841899871826</v>
+        <v>2.649291515350342</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.734079599380493</v>
+        <v>-1.728536248207092</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159001350402832</v>
+        <v>1.159043788909912</v>
       </c>
       <c r="C64" t="n">
-        <v>2.583321332931519</v>
+        <v>2.577884674072266</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.424319982528687</v>
+        <v>-1.418840885162354</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356679439544678</v>
+        <v>1.356762766838074</v>
       </c>
       <c r="C65" t="n">
-        <v>1.057956218719482</v>
+        <v>1.054935693740845</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2987232208251953</v>
+        <v>0.301827073097229</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529039740562439</v>
+        <v>1.52915894985199</v>
       </c>
       <c r="C66" t="n">
-        <v>1.243122696876526</v>
+        <v>1.239808797836304</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2859170436859131</v>
+        <v>0.289350152015686</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363419890403748</v>
+        <v>1.363504648208618</v>
       </c>
       <c r="C67" t="n">
-        <v>1.647783398628235</v>
+        <v>1.643828392028809</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2843635082244873</v>
+        <v>-0.2803237438201904</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6026684045791626</v>
+        <v>0.6025954484939575</v>
       </c>
       <c r="C68" t="n">
-        <v>1.704317092895508</v>
+        <v>1.700272798538208</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.101648688316345</v>
+        <v>-1.09767735004425</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9860005378723145</v>
+        <v>0.9860070943832397</v>
       </c>
       <c r="C69" t="n">
-        <v>1.755623817443848</v>
+        <v>1.751498103141785</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7696232795715332</v>
+        <v>-0.7654910087585449</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8862388134002686</v>
+        <v>0.886224627494812</v>
       </c>
       <c r="C70" t="n">
-        <v>1.992466449737549</v>
+        <v>1.98796558380127</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.10622763633728</v>
+        <v>-1.101740956306458</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7926466464996338</v>
+        <v>0.7926130890846252</v>
       </c>
       <c r="C71" t="n">
-        <v>1.766127586364746</v>
+        <v>1.761985301971436</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9734809398651123</v>
+        <v>-0.9693722128868103</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5026232004165649</v>
+        <v>0.502529501914978</v>
       </c>
       <c r="C72" t="n">
-        <v>1.639498949050903</v>
+        <v>1.635557055473328</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.136875748634338</v>
+        <v>-1.13302755355835</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3509729504585266</v>
+        <v>0.3508477509021759</v>
       </c>
       <c r="C73" t="n">
-        <v>1.242260456085205</v>
+        <v>1.238947868347168</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8912875056266785</v>
+        <v>-0.8881001472473145</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4387213885784149</v>
+        <v>0.4386144280433655</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5693405270576477</v>
+        <v>0.5670939683914185</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1306191384792328</v>
+        <v>-0.128479540348053</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.490804523229599</v>
+        <v>0.4907083511352539</v>
       </c>
       <c r="C75" t="n">
-        <v>1.914613246917725</v>
+        <v>1.91023576259613</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.423808693885803</v>
+        <v>-1.419527411460876</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8043335676193237</v>
+        <v>0.8043023943901062</v>
       </c>
       <c r="C76" t="n">
-        <v>1.227085709571838</v>
+        <v>1.223797202110291</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4227521419525146</v>
+        <v>-0.4194948077201843</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7487807869911194</v>
+        <v>0.7487381100654602</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8293554186820984</v>
+        <v>0.8266969919204712</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.080574631690979</v>
+        <v>-0.07795888185501099</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075410604476929</v>
+        <v>1.075435638427734</v>
       </c>
       <c r="C78" t="n">
-        <v>1.507184505462646</v>
+        <v>1.503452181816101</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4317739009857178</v>
+        <v>-0.4280165433883667</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8494440317153931</v>
+        <v>0.8494222164154053</v>
       </c>
       <c r="C79" t="n">
-        <v>1.275743961334229</v>
+        <v>1.272378444671631</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4262999296188354</v>
+        <v>-0.4229562282562256</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9273900985717773</v>
+        <v>0.9273844957351685</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5298815369606018</v>
+        <v>0.5276975035667419</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3975085616111755</v>
+        <v>0.3996869921684265</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514048933982849</v>
+        <v>1.514164924621582</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6749341487884521</v>
+        <v>0.6725203394889832</v>
       </c>
       <c r="D81" t="n">
-        <v>0.839114785194397</v>
+        <v>0.8416445851325989</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290780305862427</v>
+        <v>1.290850043296814</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6673383116722107</v>
+        <v>-0.667625904083252</v>
       </c>
       <c r="D82" t="n">
-        <v>1.958118677139282</v>
+        <v>1.958475947380066</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584020853042603</v>
+        <v>1.58415150642395</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8344107866287231</v>
+        <v>-0.8344336748123169</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418431758880615</v>
+        <v>2.418585300445557</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824382305145264</v>
+        <v>1.824562788009644</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1706615388393402</v>
+        <v>-0.1717358827590942</v>
       </c>
       <c r="D84" t="n">
-        <v>1.995043873786926</v>
+        <v>1.996298670768738</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837231159210205</v>
+        <v>1.837414264678955</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9632081389427185</v>
+        <v>0.9603376984596252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8740230202674866</v>
+        <v>0.8770765662193298</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.686905384063721</v>
+        <v>1.687057375907898</v>
       </c>
       <c r="C86" t="n">
-        <v>1.242561340332031</v>
+        <v>1.239248394966125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4443440437316895</v>
+        <v>0.4478089809417725</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.54696786403656</v>
+        <v>1.547090768814087</v>
       </c>
       <c r="C87" t="n">
-        <v>1.946095943450928</v>
+        <v>1.941668510437012</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3991280794143677</v>
+        <v>-0.3945777416229248</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.358923673629761</v>
+        <v>1.359007477760315</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8839454054832458</v>
+        <v>0.8812004923820496</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4749782681465149</v>
+        <v>0.4778069853782654</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404281854629517</v>
+        <v>1.404375195503235</v>
       </c>
       <c r="C89" t="n">
-        <v>1.040450096130371</v>
+        <v>1.037457227706909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3638317584991455</v>
+        <v>0.3669179677963257</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746370792388916</v>
+        <v>1.746534943580627</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8099801540374756</v>
+        <v>0.8073524236679077</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9363906383514404</v>
+        <v>0.9391825199127197</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.891989946365356</v>
+        <v>1.892184376716614</v>
       </c>
       <c r="C91" t="n">
-        <v>1.180416703224182</v>
+        <v>1.177202343940735</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7115732431411743</v>
+        <v>0.7149820327758789</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563494801521301</v>
+        <v>1.563621163368225</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8703722953796387</v>
+        <v>0.8676488995552063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6931225061416626</v>
+        <v>0.6959722638130188</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709216952323914</v>
+        <v>1.709373474121094</v>
       </c>
       <c r="C93" t="n">
-        <v>0.717901349067688</v>
+        <v>0.7154194712638855</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9913156032562256</v>
+        <v>0.9939540028572083</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430854916572571</v>
+        <v>1.430953741073608</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2243740409612656</v>
+        <v>0.2226739376783371</v>
       </c>
       <c r="D94" t="n">
-        <v>1.206480860710144</v>
+        <v>1.208279848098755</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.08327054977417</v>
+        <v>1.083297252655029</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5266191959381104</v>
+        <v>0.5244402885437012</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5566513538360596</v>
+        <v>0.5588569641113281</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6687445044517517</v>
+        <v>0.668685257434845</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7299432158470154</v>
+        <v>0.7274422645568848</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.06119871139526367</v>
+        <v>-0.05875700712203979</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6042123436927795</v>
+        <v>0.6041396856307983</v>
       </c>
       <c r="C97" t="n">
-        <v>1.050113439559937</v>
+        <v>1.047105312347412</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.445901095867157</v>
+        <v>-0.4429656267166138</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00397253036499</v>
+        <v>1.003982782363892</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9753023386001587</v>
+        <v>0.9724127054214478</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02867019176483154</v>
+        <v>0.03157007694244385</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2794564366340637</v>
+        <v>0.2793163955211639</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1130161806941032</v>
+        <v>0.1114924773573875</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1664402484893799</v>
+        <v>0.1678239107131958</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05707791447639465</v>
+        <v>-0.05728774517774582</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3484803736209869</v>
+        <v>-0.3492730259895325</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2914024591445923</v>
+        <v>0.2919852733612061</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2311424762010574</v>
+        <v>-0.2313884198665619</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3299416303634644</v>
+        <v>0.3280743062496185</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5610840916633606</v>
+        <v>-0.5594627261161804</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2113528251647949</v>
+        <v>0.2111986726522446</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2706550359725952</v>
+        <v>-0.2715709805488586</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4820078611373901</v>
+        <v>0.4827696681022644</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7512294054031372</v>
+        <v>0.7511872053146362</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4442424774169922</v>
+        <v>-0.4448834657669067</v>
       </c>
       <c r="D103" t="n">
-        <v>1.195471882820129</v>
+        <v>1.196070671081543</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001534104347229</v>
+        <v>1.001543760299683</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7030977606773376</v>
+        <v>-0.7033287286758423</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704631805419922</v>
+        <v>1.704872488975525</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068366408348083</v>
+        <v>1.068390011787415</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04354429990053177</v>
+        <v>-0.04482000693678856</v>
       </c>
       <c r="D105" t="n">
-        <v>1.111910700798035</v>
+        <v>1.113209962844849</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.173044562339783</v>
+        <v>1.173089861869812</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6515122056007385</v>
+        <v>0.6491355299949646</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5215323567390442</v>
+        <v>0.5239543318748474</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081482648849487</v>
+        <v>1.081508994102478</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4760723114013672</v>
+        <v>0.4739734828472137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6054103374481201</v>
+        <v>0.6075354814529419</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8389610052108765</v>
+        <v>0.838936984539032</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8660844564437866</v>
+        <v>0.8633678555488586</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02712345123291016</v>
+        <v>-0.02443087100982666</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5670133233070374</v>
+        <v>0.5669329166412354</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9672970175743103</v>
+        <v>0.9644200801849365</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4002836942672729</v>
+        <v>-0.3974871635437012</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8343467712402344</v>
+        <v>0.8343218564987183</v>
       </c>
       <c r="C110" t="n">
-        <v>1.010030388832092</v>
+        <v>1.007085800170898</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1756836175918579</v>
+        <v>-0.1727639436721802</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.192890882492065</v>
+        <v>1.192940354347229</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4784754812717438</v>
+        <v>0.4763728678226471</v>
       </c>
       <c r="D111" t="n">
-        <v>0.714415431022644</v>
+        <v>0.7165675163269043</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701073884963989</v>
+        <v>1.701228737831116</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8134016990661621</v>
+        <v>0.8107685446739197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8876721858978271</v>
+        <v>0.890460193157196</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044507265090942</v>
+        <v>1.044525980949402</v>
       </c>
       <c r="C113" t="n">
-        <v>1.121665358543396</v>
+        <v>1.118543863296509</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07715809345245361</v>
+        <v>-0.07401788234710693</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458484649658203</v>
+        <v>1.458589196205139</v>
       </c>
       <c r="C114" t="n">
-        <v>1.723529577255249</v>
+        <v>1.719454765319824</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2650449275970459</v>
+        <v>-0.2608655691146851</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997418761253357</v>
+        <v>1.997635126113892</v>
       </c>
       <c r="C115" t="n">
-        <v>1.981293201446533</v>
+        <v>1.976810097694397</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01612555980682373</v>
+        <v>0.02082502841949463</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.310874223709106</v>
+        <v>1.310948133468628</v>
       </c>
       <c r="C116" t="n">
-        <v>2.47801947593689</v>
+        <v>2.472749471664429</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.167145252227783</v>
+        <v>-1.161801338195801</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697665691375732</v>
+        <v>1.697819828987122</v>
       </c>
       <c r="C117" t="n">
-        <v>2.204503774642944</v>
+        <v>2.199666976928711</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5068380832672119</v>
+        <v>-0.5018471479415894</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721171379089355</v>
+        <v>1.721330404281616</v>
       </c>
       <c r="C118" t="n">
-        <v>1.636270523071289</v>
+        <v>1.632333993911743</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08490085601806641</v>
+        <v>0.08899641036987305</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.927488565444946</v>
+        <v>1.927690386772156</v>
       </c>
       <c r="C119" t="n">
-        <v>1.707355737686157</v>
+        <v>1.703306555747986</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2201328277587891</v>
+        <v>0.2243838310241699</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379583239555359</v>
+        <v>1.379671454429626</v>
       </c>
       <c r="C120" t="n">
-        <v>1.690259695053101</v>
+        <v>1.686237573623657</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3106764554977417</v>
+        <v>-0.3065661191940308</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997357845306396</v>
+        <v>1.997574090957642</v>
       </c>
       <c r="C121" t="n">
-        <v>1.696222186088562</v>
+        <v>1.692190527915955</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3011356592178345</v>
+        <v>0.305383563041687</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046531438827515</v>
+        <v>2.046757936477661</v>
       </c>
       <c r="C122" t="n">
-        <v>1.254154205322266</v>
+        <v>1.250822782516479</v>
       </c>
       <c r="D122" t="n">
-        <v>0.792377233505249</v>
+        <v>0.7959351539611816</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.350703716278076</v>
+        <v>2.350993394851685</v>
       </c>
       <c r="C123" t="n">
-        <v>2.151524066925049</v>
+        <v>2.146771192550659</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1991796493530273</v>
+        <v>0.2042222023010254</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.452556371688843</v>
+        <v>2.452867031097412</v>
       </c>
       <c r="C124" t="n">
-        <v>1.822577118873596</v>
+        <v>1.818345427513123</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6299792528152466</v>
+        <v>0.6345216035842896</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.420727729797363</v>
+        <v>2.421031951904297</v>
       </c>
       <c r="C125" t="n">
-        <v>1.631163239479065</v>
+        <v>1.627234697341919</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7895644903182983</v>
+        <v>0.7937972545623779</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.77804434299469</v>
+        <v>1.778215289115906</v>
       </c>
       <c r="C126" t="n">
-        <v>2.253833293914795</v>
+        <v>2.248918294906616</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.475788950920105</v>
+        <v>-0.4707030057907104</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.785981774330139</v>
+        <v>1.786154270172119</v>
       </c>
       <c r="C127" t="n">
-        <v>2.124083757400513</v>
+        <v>2.119374513626099</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3381019830703735</v>
+        <v>-0.3332202434539795</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.484868288040161</v>
+        <v>1.484978199005127</v>
       </c>
       <c r="C128" t="n">
-        <v>1.950126767158508</v>
+        <v>1.945693016052246</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4652584791183472</v>
+        <v>-0.4607148170471191</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172400236129761</v>
+        <v>1.1724454164505</v>
       </c>
       <c r="C129" t="n">
-        <v>1.781185865402222</v>
+        <v>1.777019619941711</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6087856292724609</v>
+        <v>-0.6045742034912109</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8093993067741394</v>
+        <v>0.8093692064285278</v>
       </c>
       <c r="C130" t="n">
-        <v>2.942579746246338</v>
+        <v>2.93657374382019</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.133180379867554</v>
+        <v>-2.127204418182373</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3933475017547607</v>
+        <v>0.3932311236858368</v>
       </c>
       <c r="C131" t="n">
-        <v>2.175246477127075</v>
+        <v>2.170456171035767</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.781898975372314</v>
+        <v>-1.777225017547607</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05664855986833572</v>
+        <v>-0.05685830116271973</v>
       </c>
       <c r="C132" t="n">
-        <v>1.832657694816589</v>
+        <v>1.828410029411316</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.889306306838989</v>
+        <v>-1.885268330574036</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09405442327260971</v>
+        <v>0.0938759371638298</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8188215494155884</v>
+        <v>0.8161798119544983</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7247671484947205</v>
+        <v>-0.7223038673400879</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1563443094491959</v>
+        <v>0.156178742647171</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1723798811435699</v>
+        <v>0.1707621365785599</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01603557169437408</v>
+        <v>-0.01458339393138885</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3812057077884674</v>
+        <v>0.3810867965221405</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3603255748748779</v>
+        <v>0.358410120010376</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02088013291358948</v>
+        <v>0.02267667651176453</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7313268780708313</v>
+        <v>0.7312805652618408</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2035383880138397</v>
+        <v>0.2018712759017944</v>
       </c>
       <c r="D136" t="n">
-        <v>0.527788519859314</v>
+        <v>0.5294092893600464</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6020486950874329</v>
+        <v>0.6019755601882935</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5098199844360352</v>
+        <v>0.5076677203178406</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09222871065139771</v>
+        <v>0.09430783987045288</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8436631560325623</v>
+        <v>0.843640148639679</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9765332341194153</v>
+        <v>0.9736416935920715</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.132870078086853</v>
+        <v>-0.1300015449523926</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.303677201271057</v>
+        <v>1.303749680519104</v>
       </c>
       <c r="C139" t="n">
-        <v>1.040354609489441</v>
+        <v>1.037361860275269</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2633225917816162</v>
+        <v>0.2663878202438354</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260480403900146</v>
+        <v>1.260543823242188</v>
       </c>
       <c r="C140" t="n">
-        <v>1.279509425163269</v>
+        <v>1.276137828826904</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01902902126312256</v>
+        <v>-0.0155940055847168</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.490939617156982</v>
+        <v>1.491050839424133</v>
       </c>
       <c r="C141" t="n">
-        <v>1.233797669410706</v>
+        <v>1.230498671531677</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2571419477462769</v>
+        <v>0.2605521678924561</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.403910756111145</v>
+        <v>1.404003977775574</v>
       </c>
       <c r="C142" t="n">
-        <v>0.197038397192955</v>
+        <v>0.1953815817832947</v>
       </c>
       <c r="D142" t="n">
-        <v>1.206872344017029</v>
+        <v>1.208622455596924</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.763952970504761</v>
+        <v>1.764120817184448</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2848648130893707</v>
+        <v>0.2830688953399658</v>
       </c>
       <c r="D143" t="n">
-        <v>1.479088187217712</v>
+        <v>1.481051921844482</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603713750839233</v>
+        <v>1.603848457336426</v>
       </c>
       <c r="C144" t="n">
-        <v>1.28894031047821</v>
+        <v>1.285553812980652</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3147734403610229</v>
+        <v>0.3182946443557739</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.710949778556824</v>
+        <v>1.711106777191162</v>
       </c>
       <c r="C145" t="n">
-        <v>1.478381872177124</v>
+        <v>1.474695324897766</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2325679063796997</v>
+        <v>0.236411452293396</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152428388595581</v>
+        <v>1.152469515800476</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9050869941711426</v>
+        <v>0.9023085832595825</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2473413944244385</v>
+        <v>0.2501609325408936</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7278622984886169</v>
+        <v>0.7278152704238892</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8536352515220642</v>
+        <v>0.8509383797645569</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1257729530334473</v>
+        <v>-0.1231231093406677</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2881133556365967</v>
+        <v>0.2879751026630402</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2215013951063156</v>
+        <v>-0.2224952131509781</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5096147656440735</v>
+        <v>0.5104703307151794</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.682709276676178</v>
+        <v>0.6826528906822205</v>
       </c>
       <c r="C149" t="n">
-        <v>1.570528149604797</v>
+        <v>1.56669545173645</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8878188729286194</v>
+        <v>-0.8840425610542297</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038676142692566</v>
+        <v>1.03869354724884</v>
       </c>
       <c r="C150" t="n">
-        <v>2.465589761734009</v>
+        <v>2.460339307785034</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.426913619041443</v>
+        <v>-1.421645760536194</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.328095197677612</v>
+        <v>1.32817268371582</v>
       </c>
       <c r="C151" t="n">
-        <v>1.291110277175903</v>
+        <v>1.287720203399658</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03698492050170898</v>
+        <v>0.04045248031616211</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361835122108459</v>
+        <v>1.361919641494751</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2976709604263306</v>
+        <v>0.2958547472953796</v>
       </c>
       <c r="D152" t="n">
-        <v>1.064164161682129</v>
+        <v>1.066064834594727</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.109598398208618</v>
+        <v>2.109838008880615</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1938177794218063</v>
+        <v>0.1921660751104355</v>
       </c>
       <c r="D153" t="n">
-        <v>1.915780663490295</v>
+        <v>1.917671918869019</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996494174003601</v>
+        <v>1.996710300445557</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4628226757049561</v>
+        <v>0.4607448577880859</v>
       </c>
       <c r="D154" t="n">
-        <v>1.533671498298645</v>
+        <v>1.535965442657471</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.861556529998779</v>
+        <v>1.86174464225769</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7707547545433044</v>
+        <v>0.7681891918182373</v>
       </c>
       <c r="D155" t="n">
-        <v>1.09080171585083</v>
+        <v>1.093555450439453</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.608906269073486</v>
+        <v>1.609042048454285</v>
       </c>
       <c r="C156" t="n">
-        <v>1.366187453269958</v>
+        <v>1.36267876625061</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2427188158035278</v>
+        <v>0.2463632822036743</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912219524383545</v>
+        <v>1.912418246269226</v>
       </c>
       <c r="C157" t="n">
-        <v>1.742023587226868</v>
+        <v>1.737919449806213</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1701959371566772</v>
+        <v>0.1744987964630127</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.528914093971252</v>
+        <v>1.529033303260803</v>
       </c>
       <c r="C158" t="n">
-        <v>1.470216035842896</v>
+        <v>1.466542363166809</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05869805812835693</v>
+        <v>0.06249094009399414</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363587737083435</v>
+        <v>1.363672614097595</v>
       </c>
       <c r="C159" t="n">
-        <v>1.639043927192688</v>
+        <v>1.635102868080139</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2754561901092529</v>
+        <v>-0.2714302539825439</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.67298686504364</v>
+        <v>1.673135876655579</v>
       </c>
       <c r="C160" t="n">
-        <v>1.724484086036682</v>
+        <v>1.720407843589783</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05149722099304199</v>
+        <v>-0.0472719669342041</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.341883301734924</v>
+        <v>1.341963648796082</v>
       </c>
       <c r="C161" t="n">
-        <v>1.677506685256958</v>
+        <v>1.673504590988159</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3356233835220337</v>
+        <v>-0.3315409421920776</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5794423818588257</v>
+        <v>0.5793645977973938</v>
       </c>
       <c r="C162" t="n">
-        <v>1.798027038574219</v>
+        <v>1.793834090232849</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.218584656715393</v>
+        <v>-1.214469432830811</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3736603558063507</v>
+        <v>0.3735398948192596</v>
       </c>
       <c r="C163" t="n">
-        <v>1.284346342086792</v>
+        <v>1.280967354774475</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9106860160827637</v>
+        <v>-0.9074274301528931</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6717301607131958</v>
+        <v>0.6716715097427368</v>
       </c>
       <c r="C164" t="n">
-        <v>1.443692922592163</v>
+        <v>1.440061450004578</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7719627618789673</v>
+        <v>-0.7683899402618408</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8601207733154297</v>
+        <v>0.8601012229919434</v>
       </c>
       <c r="C165" t="n">
-        <v>1.112670183181763</v>
+        <v>1.109562993049622</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.252549409866333</v>
+        <v>-0.2494617700576782</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9996993541717529</v>
+        <v>0.9997087121009827</v>
       </c>
       <c r="C166" t="n">
-        <v>1.244113802909851</v>
+        <v>1.240798354148865</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2444144487380981</v>
+        <v>-0.2410896420478821</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.622946619987488</v>
+        <v>1.623085260391235</v>
       </c>
       <c r="C167" t="n">
-        <v>1.604231953620911</v>
+        <v>1.600345849990845</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01871466636657715</v>
+        <v>0.02273941040039062</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952132344245911</v>
+        <v>1.952339291572571</v>
       </c>
       <c r="C168" t="n">
-        <v>1.879314661026001</v>
+        <v>1.874993085861206</v>
       </c>
       <c r="D168" t="n">
-        <v>0.07281768321990967</v>
+        <v>0.07734620571136475</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178266882896423</v>
+        <v>1.178313255310059</v>
       </c>
       <c r="C169" t="n">
-        <v>1.570916295051575</v>
+        <v>1.567083120346069</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3926494121551514</v>
+        <v>-0.3887698650360107</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9839820265769958</v>
+        <v>0.9839881658554077</v>
       </c>
       <c r="C170" t="n">
-        <v>1.286017894744873</v>
+        <v>1.282636046409607</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3020358681678772</v>
+        <v>-0.2986478805541992</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9069722890853882</v>
+        <v>0.9069624543190002</v>
       </c>
       <c r="C171" t="n">
-        <v>1.038917422294617</v>
+        <v>1.035927057266235</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1319451332092285</v>
+        <v>-0.1289646029472351</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023266911506653</v>
+        <v>1.023281216621399</v>
       </c>
       <c r="C172" t="n">
-        <v>1.878850340843201</v>
+        <v>1.874529480934143</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8555834293365479</v>
+        <v>-0.8512482643127441</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223696351051331</v>
+        <v>1.22375214099884</v>
       </c>
       <c r="C173" t="n">
-        <v>1.671905875205994</v>
+        <v>1.667912721633911</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4482095241546631</v>
+        <v>-0.4441605806350708</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655735373497009</v>
+        <v>1.655880808830261</v>
       </c>
       <c r="C174" t="n">
-        <v>1.869229197502136</v>
+        <v>1.864923596382141</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.213493824005127</v>
+        <v>-0.2090427875518799</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.469929337501526</v>
+        <v>1.470036268234253</v>
       </c>
       <c r="C175" t="n">
-        <v>1.909425020217896</v>
+        <v>1.905055642127991</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4394956827163696</v>
+        <v>-0.4350193738937378</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092452168464661</v>
+        <v>1.092480778694153</v>
       </c>
       <c r="C176" t="n">
-        <v>1.944356322288513</v>
+        <v>1.939931631088257</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8519041538238525</v>
+        <v>-0.847450852394104</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.1042320728302</v>
+        <v>1.104263067245483</v>
       </c>
       <c r="C177" t="n">
-        <v>2.070297956466675</v>
+        <v>2.065673828125</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9660658836364746</v>
+        <v>-0.9614107608795166</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334596991539001</v>
+        <v>1.334675788879395</v>
       </c>
       <c r="C178" t="n">
-        <v>1.976260542869568</v>
+        <v>1.971785426139832</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6416635513305664</v>
+        <v>-0.637109637260437</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.895853877067566</v>
+        <v>1.89604914188385</v>
       </c>
       <c r="C179" t="n">
-        <v>1.451884269714355</v>
+        <v>1.44823956489563</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4439696073532104</v>
+        <v>0.4478095769882202</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870062470436096</v>
+        <v>1.87025249004364</v>
       </c>
       <c r="C180" t="n">
-        <v>1.509345054626465</v>
+        <v>1.505609512329102</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3607174158096313</v>
+        <v>0.3646429777145386</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.433988094329834</v>
+        <v>1.434087634086609</v>
       </c>
       <c r="C181" t="n">
-        <v>1.832453370094299</v>
+        <v>1.828205943107605</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3984652757644653</v>
+        <v>-0.3941183090209961</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4873397946357727</v>
+        <v>0.4872429072856903</v>
       </c>
       <c r="C182" t="n">
-        <v>1.223769068717957</v>
+        <v>1.220486044883728</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7364292740821838</v>
+        <v>-0.7332431077957153</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8843960762023926</v>
+        <v>0.8843815326690674</v>
       </c>
       <c r="C183" t="n">
-        <v>1.499471306800842</v>
+        <v>1.49575138092041</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6150752305984497</v>
+        <v>-0.6113698482513428</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556595206260681</v>
+        <v>1.556720018386841</v>
       </c>
       <c r="C184" t="n">
-        <v>1.777218818664551</v>
+        <v>1.773059010505676</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2206236124038696</v>
+        <v>-0.2163389921188354</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937337875366211</v>
+        <v>1.937541723251343</v>
       </c>
       <c r="C185" t="n">
-        <v>1.67811393737793</v>
+        <v>1.674111127853394</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2592239379882812</v>
+        <v>0.2634305953979492</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.965864419937134</v>
+        <v>1.966074228286743</v>
       </c>
       <c r="C186" t="n">
-        <v>1.625871062278748</v>
+        <v>1.62195098400116</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3399933576583862</v>
+        <v>0.3441232442855835</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065230369567871</v>
+        <v>2.065460681915283</v>
       </c>
       <c r="C187" t="n">
-        <v>1.480353474617004</v>
+        <v>1.476663947105408</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5848768949508667</v>
+        <v>0.5887967348098755</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.35084056854248</v>
+        <v>2.351130247116089</v>
       </c>
       <c r="C188" t="n">
-        <v>1.517444849014282</v>
+        <v>1.513696432113647</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8333957195281982</v>
+        <v>0.8374338150024414</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.901567459106445</v>
+        <v>2.901971340179443</v>
       </c>
       <c r="C189" t="n">
-        <v>1.680123686790466</v>
+        <v>1.676117658615112</v>
       </c>
       <c r="D189" t="n">
-        <v>1.221443772315979</v>
+        <v>1.225853681564331</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.116028070449829</v>
+        <v>3.116476535797119</v>
       </c>
       <c r="C190" t="n">
-        <v>1.282435894012451</v>
+        <v>1.279059767723083</v>
       </c>
       <c r="D190" t="n">
-        <v>1.833592176437378</v>
+        <v>1.837416768074036</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.101013422012329</v>
+        <v>3.101458787918091</v>
       </c>
       <c r="C191" t="n">
-        <v>1.57283878326416</v>
+        <v>1.569002628326416</v>
       </c>
       <c r="D191" t="n">
-        <v>1.528174638748169</v>
+        <v>1.532456159591675</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.854608535766602</v>
+        <v>2.855002641677856</v>
       </c>
       <c r="C192" t="n">
-        <v>1.88193941116333</v>
+        <v>1.877613663673401</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9726691246032715</v>
+        <v>0.9773889780044556</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.928742170333862</v>
+        <v>2.929151773452759</v>
       </c>
       <c r="C193" t="n">
-        <v>2.95453929901123</v>
+        <v>2.948514699935913</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.02579712867736816</v>
+        <v>-0.0193629264831543</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.836942672729492</v>
+        <v>2.837333202362061</v>
       </c>
       <c r="C194" t="n">
-        <v>3.533001184463501</v>
+        <v>3.526060104370117</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6960585117340088</v>
+        <v>-0.6887269020080566</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279499053955078</v>
+        <v>2.279773950576782</v>
       </c>
       <c r="C195" t="n">
-        <v>3.30636739730835</v>
+        <v>3.299785375595093</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.026868343353271</v>
+        <v>-1.020011425018311</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.10725212097168</v>
+        <v>3.107698678970337</v>
       </c>
       <c r="C196" t="n">
-        <v>3.732481718063354</v>
+        <v>3.725224733352661</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6252295970916748</v>
+        <v>-0.6175260543823242</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.901574373245239</v>
+        <v>2.901978254318237</v>
       </c>
       <c r="C197" t="n">
-        <v>3.521174907684326</v>
+        <v>3.514252662658691</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6196005344390869</v>
+        <v>-0.6122744083404541</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.014602899551392</v>
+        <v>2.014822721481323</v>
       </c>
       <c r="C198" t="n">
-        <v>3.186257362365723</v>
+        <v>3.179865598678589</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.171654462814331</v>
+        <v>-1.165042877197266</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055526971817017</v>
+        <v>1.055547833442688</v>
       </c>
       <c r="C199" t="n">
-        <v>2.608965396881104</v>
+        <v>2.603487968444824</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.553438425064087</v>
+        <v>-1.547940135002136</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4211281538009644</v>
+        <v>0.4210175275802612</v>
       </c>
       <c r="C200" t="n">
-        <v>2.875364780426025</v>
+        <v>2.869465351104736</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.454236507415771</v>
+        <v>-2.448447704315186</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443416595458984</v>
+        <v>1.443518042564392</v>
       </c>
       <c r="C201" t="n">
-        <v>2.632655620574951</v>
+        <v>2.627140760421753</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.189239025115967</v>
+        <v>-1.183622717857361</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064232230186462</v>
+        <v>1.064254999160767</v>
       </c>
       <c r="C202" t="n">
-        <v>2.737318277359009</v>
+        <v>2.731637477874756</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.673086047172546</v>
+        <v>-1.667382478713989</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.09287428855896</v>
+        <v>1.092903017997742</v>
       </c>
       <c r="C203" t="n">
-        <v>2.484461307525635</v>
+        <v>2.479181051254272</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.391587018966675</v>
+        <v>-1.386278033256531</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300404071807861</v>
+        <v>1.300475835800171</v>
       </c>
       <c r="C204" t="n">
-        <v>2.117750883102417</v>
+        <v>2.113051414489746</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8173468112945557</v>
+        <v>-0.8125755786895752</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285619735717773</v>
+        <v>1.285688400268555</v>
       </c>
       <c r="C205" t="n">
-        <v>1.825878381729126</v>
+        <v>1.821641445159912</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5402586460113525</v>
+        <v>-0.5359530448913574</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046506762504578</v>
+        <v>1.046525835990906</v>
       </c>
       <c r="C206" t="n">
-        <v>1.094516038894653</v>
+        <v>1.091437697410583</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.04800927639007568</v>
+        <v>-0.04491186141967773</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203692674636841</v>
+        <v>1.203744411468506</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9524223208427429</v>
+        <v>0.9495689272880554</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2512703537940979</v>
+        <v>0.2541754841804504</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.472769021987915</v>
+        <v>1.4728764295578</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7578026056289673</v>
+        <v>0.7552575469017029</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7149664163589478</v>
+        <v>0.7176188826560974</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513126373291016</v>
+        <v>1.513242363929749</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5752288103103638</v>
+        <v>0.5729728937149048</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9378975629806519</v>
+        <v>0.9402694702148438</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865032434463501</v>
+        <v>1.865221381187439</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6765303015708923</v>
+        <v>0.6741139888763428</v>
       </c>
       <c r="D210" t="n">
-        <v>1.188502073287964</v>
+        <v>1.191107392311096</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.61243748664856</v>
+        <v>1.612573981285095</v>
       </c>
       <c r="C211" t="n">
-        <v>0.840749204158783</v>
+        <v>0.8380727171897888</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7716882824897766</v>
+        <v>0.7745012640953064</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065319538116455</v>
+        <v>2.065549850463867</v>
       </c>
       <c r="C212" t="n">
-        <v>1.125537276268005</v>
+        <v>1.122409701347351</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9397822618484497</v>
+        <v>0.9431401491165161</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.151640176773071</v>
+        <v>2.151888370513916</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5222612619400024</v>
+        <v>0.5200892686843872</v>
       </c>
       <c r="D213" t="n">
-        <v>1.629378914833069</v>
+        <v>1.631799101829529</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.91063380241394</v>
+        <v>1.910832047462463</v>
       </c>
       <c r="C214" t="n">
-        <v>1.027937889099121</v>
+        <v>1.024964928627014</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8826959133148193</v>
+        <v>0.8858671188354492</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050055742263794</v>
+        <v>2.050282955169678</v>
       </c>
       <c r="C215" t="n">
-        <v>1.180587649345398</v>
+        <v>1.177372932434082</v>
       </c>
       <c r="D215" t="n">
-        <v>0.869468092918396</v>
+        <v>0.8729100227355957</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923508048057556</v>
+        <v>1.923709034919739</v>
       </c>
       <c r="C216" t="n">
-        <v>1.412238121032715</v>
+        <v>1.408656358718872</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5112699270248413</v>
+        <v>0.5150526762008667</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003189206123352</v>
+        <v>1.003199219703674</v>
       </c>
       <c r="C217" t="n">
-        <v>1.214114189147949</v>
+        <v>1.210846304893494</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2109249830245972</v>
+        <v>-0.2076470851898193</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7118648290634155</v>
+        <v>0.7118145227432251</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5138506293296814</v>
+        <v>0.5116919875144958</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1980141997337341</v>
+        <v>0.2001225352287292</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493388414382935</v>
+        <v>1.493500232696533</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5009577870368958</v>
+        <v>0.4988195896148682</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9924306273460388</v>
+        <v>0.994680643081665</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355060935020447</v>
+        <v>1.355144023895264</v>
       </c>
       <c r="C220" t="n">
-        <v>1.210806608200073</v>
+        <v>1.207544088363647</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1442543268203735</v>
+        <v>0.1475999355316162</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.491887807846069</v>
+        <v>1.491999268531799</v>
       </c>
       <c r="C221" t="n">
-        <v>1.42578399181366</v>
+        <v>1.422180652618408</v>
       </c>
       <c r="D221" t="n">
-        <v>0.06610381603240967</v>
+        <v>0.06981861591339111</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288127779960632</v>
+        <v>1.288196921348572</v>
       </c>
       <c r="C222" t="n">
-        <v>1.005919933319092</v>
+        <v>1.002981781959534</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2822078466415405</v>
+        <v>0.2852151393890381</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9322037100791931</v>
+        <v>0.9321990609169006</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7337615489959717</v>
+        <v>0.731254518032074</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1984421610832214</v>
+        <v>0.2009445428848267</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092644095420837</v>
+        <v>1.09267270565033</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4289017915725708</v>
+        <v>0.4268777072429657</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6637423038482666</v>
+        <v>0.6657949686050415</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489434838294983</v>
+        <v>1.489545822143555</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5780192613601685</v>
+        <v>0.5757589936256409</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9114155769348145</v>
+        <v>0.9137868285179138</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.844732403755188</v>
+        <v>1.844917058944702</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0814688503742218</v>
+        <v>0.07999511808156967</v>
       </c>
       <c r="D226" t="n">
-        <v>1.763263583183289</v>
+        <v>1.764921903610229</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655271172523499</v>
+        <v>1.65541660785675</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4944148659706116</v>
+        <v>0.4922870099544525</v>
       </c>
       <c r="D227" t="n">
-        <v>1.160856246948242</v>
+        <v>1.163129568099976</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.091981410980225</v>
+        <v>2.092217445373535</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8980866670608521</v>
+        <v>0.8953193426132202</v>
       </c>
       <c r="D228" t="n">
-        <v>1.193894743919373</v>
+        <v>1.196898102760315</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993358373641968</v>
+        <v>1.993573904037476</v>
       </c>
       <c r="C229" t="n">
-        <v>1.217289447784424</v>
+        <v>1.214016556739807</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7760689258575439</v>
+        <v>0.7795573472976685</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985034584999084</v>
+        <v>1.985248327255249</v>
       </c>
       <c r="C230" t="n">
-        <v>1.752895474433899</v>
+        <v>1.74877405166626</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2321391105651855</v>
+        <v>0.2364742755889893</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682359933853149</v>
+        <v>1.68251097202301</v>
       </c>
       <c r="C231" t="n">
-        <v>1.80467689037323</v>
+        <v>1.80047345161438</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1223169565200806</v>
+        <v>-0.1179624795913696</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702244162559509</v>
+        <v>1.702399253845215</v>
       </c>
       <c r="C232" t="n">
-        <v>1.578586578369141</v>
+        <v>1.574741363525391</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1236575841903687</v>
+        <v>0.1276578903198242</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202129364013672</v>
+        <v>2.202388286590576</v>
       </c>
       <c r="C233" t="n">
-        <v>1.61715292930603</v>
+        <v>1.61324667930603</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5849764347076416</v>
+        <v>0.5891416072845459</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.675865650177002</v>
+        <v>2.676222801208496</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9475626945495605</v>
+        <v>0.9447170495986938</v>
       </c>
       <c r="D234" t="n">
-        <v>1.728302955627441</v>
+        <v>1.731505751609802</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.317548274993896</v>
+        <v>2.317831039428711</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3050486147403717</v>
+        <v>0.3032207190990448</v>
       </c>
       <c r="D235" t="n">
-        <v>2.012499570846558</v>
+        <v>2.014610290527344</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135174751281738</v>
+        <v>2.135419607162476</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3496328592300415</v>
+        <v>0.3477343320846558</v>
       </c>
       <c r="D236" t="n">
-        <v>1.785541892051697</v>
+        <v>1.78768527507782</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.668280363082886</v>
+        <v>2.668635845184326</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6190759539604187</v>
+        <v>-0.619439959526062</v>
       </c>
       <c r="D237" t="n">
-        <v>3.287356376647949</v>
+        <v>3.288075923919678</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.242441415786743</v>
+        <v>2.242708683013916</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161410212516785</v>
+        <v>-1.16091513633728</v>
       </c>
       <c r="D238" t="n">
-        <v>3.403851509094238</v>
+        <v>3.403623819351196</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.596387386322021</v>
+        <v>2.596727848052979</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.501047968864441</v>
+        <v>-1.500014901161194</v>
       </c>
       <c r="D239" t="n">
-        <v>4.097435474395752</v>
+        <v>4.096742630004883</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.771851778030396</v>
+        <v>2.772228717803955</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8835788369178772</v>
+        <v>-0.8835238814353943</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655430555343628</v>
+        <v>3.655752658843994</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301515340805054</v>
+        <v>2.301794767379761</v>
       </c>
       <c r="C241" t="n">
-        <v>1.309999704360962</v>
+        <v>1.306579947471619</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9915156364440918</v>
+        <v>0.9952148199081421</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.627334833145142</v>
+        <v>2.627681732177734</v>
       </c>
       <c r="C242" t="n">
-        <v>2.352474212646484</v>
+        <v>2.347403287887573</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2748606204986572</v>
+        <v>0.2802784442901611</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021294355392456</v>
+        <v>2.021515607833862</v>
       </c>
       <c r="C243" t="n">
-        <v>2.616522073745728</v>
+        <v>2.611032724380493</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5952277183532715</v>
+        <v>-0.5895171165466309</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.208660364151001</v>
+        <v>2.208920478820801</v>
       </c>
       <c r="C244" t="n">
-        <v>2.508861303329468</v>
+        <v>2.50354266166687</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3002009391784668</v>
+        <v>-0.2946221828460693</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266501188278198</v>
+        <v>2.266773223876953</v>
       </c>
       <c r="C245" t="n">
-        <v>2.586544036865234</v>
+        <v>2.581101894378662</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3200428485870361</v>
+        <v>-0.314328670501709</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.320643663406372</v>
+        <v>2.320927143096924</v>
       </c>
       <c r="C246" t="n">
-        <v>1.540562629699707</v>
+        <v>1.53677773475647</v>
       </c>
       <c r="D246" t="n">
-        <v>0.780081033706665</v>
+        <v>0.7841494083404541</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208016157150269</v>
+        <v>2.208276033401489</v>
       </c>
       <c r="C247" t="n">
-        <v>1.170197129249573</v>
+        <v>1.166998744010925</v>
       </c>
       <c r="D247" t="n">
-        <v>1.037819027900696</v>
+        <v>1.041277289390564</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036376237869263</v>
+        <v>2.036600589752197</v>
       </c>
       <c r="C248" t="n">
-        <v>1.599553227424622</v>
+        <v>1.595674753189087</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4368230104446411</v>
+        <v>0.4409258365631104</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542110323905945</v>
+        <v>1.542232275009155</v>
       </c>
       <c r="C249" t="n">
-        <v>2.005968332290649</v>
+        <v>2.00144624710083</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4638580083847046</v>
+        <v>-0.4592139720916748</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264162063598633</v>
+        <v>1.264226317405701</v>
       </c>
       <c r="C250" t="n">
-        <v>1.553585529327393</v>
+        <v>1.549779653549194</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2894234657287598</v>
+        <v>-0.2855533361434937</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.775801420211792</v>
+        <v>1.77597177028656</v>
       </c>
       <c r="C251" t="n">
-        <v>1.379140019416809</v>
+        <v>1.375610709190369</v>
       </c>
       <c r="D251" t="n">
-        <v>0.3966614007949829</v>
+        <v>0.4003610610961914</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544236540794373</v>
+        <v>1.544358849525452</v>
       </c>
       <c r="C252" t="n">
-        <v>1.230085968971252</v>
+        <v>1.226792573928833</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3141505718231201</v>
+        <v>0.3175662755966187</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404441833496094</v>
+        <v>1.404535174369812</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9395186305046082</v>
+        <v>0.9366857409477234</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4649232029914856</v>
+        <v>0.4678494334220886</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.528270959854126</v>
+        <v>0.5281825661659241</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04969510063529015</v>
+        <v>-0.05096106603741646</v>
       </c>
       <c r="D254" t="n">
-        <v>0.577966034412384</v>
+        <v>0.5791436433792114</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7596384286880493</v>
+        <v>0.7595980167388916</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3233968913555145</v>
+        <v>0.3215399384498596</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4362415373325348</v>
+        <v>0.438058078289032</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202417254447937</v>
+        <v>1.202468752861023</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9470478296279907</v>
+        <v>0.9442029595375061</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2553694248199463</v>
+        <v>0.2582657933235168</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181799173355103</v>
+        <v>1.181846380233765</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5251340270042419</v>
+        <v>0.5229575037956238</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6566651463508606</v>
+        <v>0.6588888764381409</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6775890588760376</v>
+        <v>0.6775315999984741</v>
       </c>
       <c r="C258" t="n">
-        <v>1.295904159545898</v>
+        <v>1.292506575584412</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6183151006698608</v>
+        <v>-0.6149749755859375</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8817490339279175</v>
+        <v>0.8817339539527893</v>
       </c>
       <c r="C259" t="n">
-        <v>1.828833222389221</v>
+        <v>1.824591636657715</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9470841884613037</v>
+        <v>-0.9428576827049255</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.169961094856262</v>
+        <v>1.170005679130554</v>
       </c>
       <c r="C260" t="n">
-        <v>2.276370048522949</v>
+        <v>2.271419525146484</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.106408953666687</v>
+        <v>-1.10141384601593</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297059655189514</v>
+        <v>1.297130823135376</v>
       </c>
       <c r="C261" t="n">
-        <v>1.920459628105164</v>
+        <v>1.916072845458984</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6233999729156494</v>
+        <v>-0.6189420223236084</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507848381996155</v>
+        <v>1.507963061332703</v>
       </c>
       <c r="C262" t="n">
-        <v>1.447944760322571</v>
+        <v>1.444306492805481</v>
       </c>
       <c r="D262" t="n">
-        <v>0.05990362167358398</v>
+        <v>0.06365656852722168</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188189029693604</v>
+        <v>1.188237428665161</v>
       </c>
       <c r="C263" t="n">
-        <v>2.204797983169556</v>
+        <v>2.199960708618164</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.016608953475952</v>
+        <v>-1.011723279953003</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166341423988342</v>
+        <v>1.166385412216187</v>
       </c>
       <c r="C264" t="n">
-        <v>1.77064311504364</v>
+        <v>1.766493558883667</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6043016910552979</v>
+        <v>-0.6001081466674805</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328574776649475</v>
+        <v>1.328652381896973</v>
       </c>
       <c r="C265" t="n">
-        <v>1.759532690048218</v>
+        <v>1.755400776863098</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4309579133987427</v>
+        <v>-0.4267483949661255</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683370113372803</v>
+        <v>1.683521270751953</v>
       </c>
       <c r="C266" t="n">
-        <v>2.323848962783813</v>
+        <v>2.318823337554932</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6404788494110107</v>
+        <v>-0.6353020668029785</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9156577587127686</v>
+        <v>0.9156497120857239</v>
       </c>
       <c r="C267" t="n">
-        <v>1.717657804489136</v>
+        <v>1.713592290878296</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.8020000457763672</v>
+        <v>-0.797942578792572</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088913440704346</v>
+        <v>1.088941335678101</v>
       </c>
       <c r="C268" t="n">
-        <v>1.327597737312317</v>
+        <v>1.324149966239929</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2386842966079712</v>
+        <v>-0.2352086305618286</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163238883018494</v>
+        <v>1.163282155990601</v>
       </c>
       <c r="C269" t="n">
-        <v>1.976832985877991</v>
+        <v>1.972356915473938</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8135941028594971</v>
+        <v>-0.8090747594833374</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002116441726685</v>
+        <v>1.002126336097717</v>
       </c>
       <c r="C270" t="n">
-        <v>2.179409980773926</v>
+        <v>2.174612998962402</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.177293539047241</v>
+        <v>-1.172486662864685</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9325324892997742</v>
+        <v>0.9325279593467712</v>
       </c>
       <c r="C271" t="n">
-        <v>2.434713125228882</v>
+        <v>2.429511547088623</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.502180576324463</v>
+        <v>-1.496983528137207</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,27 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1153876855969429</v>
+        <v>0.1152136325836182</v>
       </c>
       <c r="C272" t="n">
-        <v>2.458423137664795</v>
+        <v>2.453184127807617</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.343035459518433</v>
+        <v>-2.337970495223999</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.4006450176239014</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.720359563827515</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-2.319714546203613</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8132784366607666</v>
+        <v>0.8131808042526245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7928804159164429</v>
+        <v>0.7908072471618652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02039802074432373</v>
+        <v>0.02237355709075928</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8399962782859802</v>
+        <v>0.8399035334587097</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2570988237857819</v>
+        <v>-0.2579757571220398</v>
       </c>
       <c r="D3" t="n">
-        <v>1.097095131874084</v>
+        <v>1.09787929058075</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9162992835044861</v>
+        <v>0.9162207245826721</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7653485536575317</v>
+        <v>-0.7656465172767639</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681647777557373</v>
+        <v>1.681867241859436</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4916224777698517</v>
+        <v>0.4914653897285461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09179133176803589</v>
+        <v>0.09051690250635147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3998311460018158</v>
+        <v>0.4009484946727753</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7168560028076172</v>
+        <v>0.7167405486106873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0207294188439846</v>
+        <v>0.01953595317900181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6961265802383423</v>
+        <v>0.69720458984375</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08092399686574936</v>
+        <v>0.08069099485874176</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1424649804830551</v>
+        <v>-0.1434725224971771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2233889698982239</v>
+        <v>0.2241635173559189</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6720673441886902</v>
+        <v>0.6719435453414917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4541459083557129</v>
+        <v>0.4524586796760559</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2179214358329773</v>
+        <v>0.2194848656654358</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041187644004822</v>
+        <v>1.041132211685181</v>
       </c>
       <c r="C9" t="n">
-        <v>1.16971743106842</v>
+        <v>1.167214870452881</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1285297870635986</v>
+        <v>-0.1260826587677002</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.41458797454834</v>
+        <v>1.414601564407349</v>
       </c>
       <c r="C10" t="n">
-        <v>1.134612321853638</v>
+        <v>1.132149934768677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2799756526947021</v>
+        <v>0.2824516296386719</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9747129082679749</v>
+        <v>0.9746450781822205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9733761548995972</v>
+        <v>0.9710974097251892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001336753368377686</v>
+        <v>0.00354766845703125</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057413220405579</v>
+        <v>1.057360649108887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.812343955039978</v>
+        <v>0.8102486729621887</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2450692653656006</v>
+        <v>0.247111976146698</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7388219833374023</v>
+        <v>0.7387105822563171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3228236436843872</v>
+        <v>0.3212860226631165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4159983396530151</v>
+        <v>0.4174245595932007</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2455534189939499</v>
+        <v>0.2453508526086807</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04700456187129021</v>
+        <v>-0.04812086001038551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2925579845905304</v>
+        <v>0.2934717237949371</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5108270645141602</v>
+        <v>0.5106735229492188</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3855699002742767</v>
+        <v>-0.3863004744052887</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8963969945907593</v>
+        <v>0.8969739675521851</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184497952461243</v>
+        <v>1.184468984603882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2497129291296005</v>
+        <v>0.2482585906982422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.934785008430481</v>
+        <v>0.9362103939056396</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023243546485901</v>
+        <v>1.023184776306152</v>
       </c>
       <c r="C17" t="n">
-        <v>1.059344410896301</v>
+        <v>1.056967735290527</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03610086441040039</v>
+        <v>-0.033782958984375</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103423953056335</v>
+        <v>1.103379964828491</v>
       </c>
       <c r="C18" t="n">
-        <v>1.854363203048706</v>
+        <v>1.851080775260925</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7509392499923706</v>
+        <v>-0.7477008104324341</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.03468382358551</v>
+        <v>1.034627079963684</v>
       </c>
       <c r="C19" t="n">
-        <v>1.183573365211487</v>
+        <v>1.181055068969727</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1488895416259766</v>
+        <v>-0.1464279890060425</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4150897562503815</v>
+        <v>0.4149185121059418</v>
       </c>
       <c r="C20" t="n">
-        <v>2.005539178848267</v>
+        <v>2.002084493637085</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.590449452400208</v>
+        <v>-1.587165951728821</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7236173152923584</v>
+        <v>0.7235031127929688</v>
       </c>
       <c r="C21" t="n">
-        <v>1.382957816123962</v>
+        <v>1.380212306976318</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.659340500831604</v>
+        <v>-0.6567091941833496</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7117714881896973</v>
+        <v>0.7116550803184509</v>
       </c>
       <c r="C22" t="n">
-        <v>1.500180006027222</v>
+        <v>1.497300982475281</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7884085178375244</v>
+        <v>-0.7856459021568298</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3976105451583862</v>
+        <v>0.3974360823631287</v>
       </c>
       <c r="C23" t="n">
-        <v>1.326369404792786</v>
+        <v>1.323688387870789</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9287588596343994</v>
+        <v>-0.9262523055076599</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6766270995140076</v>
+        <v>0.6765041351318359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8476568460464478</v>
+        <v>0.8455213308334351</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1710297465324402</v>
+        <v>-0.1690171957015991</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105127930641174</v>
+        <v>1.105084300041199</v>
       </c>
       <c r="C25" t="n">
-        <v>1.009860873222351</v>
+        <v>1.007540464401245</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09526705741882324</v>
+        <v>0.09754383563995361</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8965134024620056</v>
+        <v>0.8964311480522156</v>
       </c>
       <c r="C26" t="n">
-        <v>1.530884861946106</v>
+        <v>1.527970790863037</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6343714594841003</v>
+        <v>-0.6315396428108215</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145119309425354</v>
+        <v>1.145083069801331</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7393652200698853</v>
+        <v>0.7373530268669128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4057540893554688</v>
+        <v>0.4077300429344177</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.176972627639771</v>
+        <v>1.176942110061646</v>
       </c>
       <c r="C28" t="n">
-        <v>1.982519149780273</v>
+        <v>1.979090690612793</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8055465221405029</v>
+        <v>-0.8021485805511475</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9123573303222656</v>
+        <v>0.9122779965400696</v>
       </c>
       <c r="C29" t="n">
-        <v>1.835747122764587</v>
+        <v>1.832485795021057</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9233897924423218</v>
+        <v>-0.9202077984809875</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.493313193321228</v>
+        <v>0.4931564033031464</v>
       </c>
       <c r="C30" t="n">
-        <v>1.608868718147278</v>
+        <v>1.605865836143494</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.11555552482605</v>
+        <v>-1.112709403038025</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7593314051628113</v>
+        <v>0.7592238187789917</v>
       </c>
       <c r="C31" t="n">
-        <v>1.231626152992249</v>
+        <v>1.229053139686584</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4722947478294373</v>
+        <v>-0.4698293209075928</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8581529855728149</v>
+        <v>0.8580636382102966</v>
       </c>
       <c r="C32" t="n">
-        <v>1.391950845718384</v>
+        <v>1.389195084571838</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5337978601455688</v>
+        <v>-0.5311314463615417</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7007954716682434</v>
+        <v>0.7006770372390747</v>
       </c>
       <c r="C33" t="n">
-        <v>1.326576113700867</v>
+        <v>1.323894858360291</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6257806420326233</v>
+        <v>-0.6232178211212158</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006224632263184</v>
+        <v>2.006347417831421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5315604209899902</v>
+        <v>0.5297850370407104</v>
       </c>
       <c r="D34" t="n">
-        <v>1.474664211273193</v>
+        <v>1.47656238079071</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464052081108093</v>
+        <v>1.464074850082397</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1108910962939262</v>
+        <v>-0.1119346097111702</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5749431848526</v>
+        <v>1.576009511947632</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.210993409156799</v>
+        <v>1.210969209671021</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5224890112876892</v>
+        <v>0.5207239389419556</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6885043978691101</v>
+        <v>0.6902452707290649</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.493978977203369</v>
+        <v>1.494007110595703</v>
       </c>
       <c r="C37" t="n">
-        <v>2.030683755874634</v>
+        <v>2.027200222015381</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5367047786712646</v>
+        <v>-0.5331931114196777</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.330968856811523</v>
+        <v>1.330966949462891</v>
       </c>
       <c r="C38" t="n">
-        <v>2.15197229385376</v>
+        <v>2.148350715637207</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8210034370422363</v>
+        <v>-0.8173837661743164</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969541907310486</v>
+        <v>1.969658136367798</v>
       </c>
       <c r="C39" t="n">
-        <v>1.641276717185974</v>
+        <v>1.638236880302429</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3282651901245117</v>
+        <v>0.3314212560653687</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.74447238445282</v>
+        <v>1.744546890258789</v>
       </c>
       <c r="C40" t="n">
-        <v>1.107800960540771</v>
+        <v>1.105369091033936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6366714239120483</v>
+        <v>0.6391777992248535</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821027278900146</v>
+        <v>1.821115851402283</v>
       </c>
       <c r="C41" t="n">
-        <v>1.644749164581299</v>
+        <v>1.641705393791199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1762781143188477</v>
+        <v>0.179410457611084</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755383610725403</v>
+        <v>1.755460143089294</v>
       </c>
       <c r="C42" t="n">
-        <v>1.18115770816803</v>
+        <v>1.178642272949219</v>
       </c>
       <c r="D42" t="n">
-        <v>0.574225902557373</v>
+        <v>0.5768178701400757</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602839708328247</v>
+        <v>1.602887988090515</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7061176896095276</v>
+        <v>0.7041434049606323</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8967220187187195</v>
+        <v>0.8987445831298828</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163920640945435</v>
+        <v>1.163887858390808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4739048182964325</v>
+        <v>0.4721950590610504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6900157928466797</v>
+        <v>0.6916928291320801</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.087039113044739</v>
+        <v>1.086992144584656</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03740308806300163</v>
+        <v>0.03619062528014183</v>
       </c>
       <c r="D45" t="n">
-        <v>1.049636006355286</v>
+        <v>1.050801515579224</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349170923233032</v>
+        <v>1.349172234535217</v>
       </c>
       <c r="C46" t="n">
-        <v>1.114365696907043</v>
+        <v>1.111926317214966</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2348052263259888</v>
+        <v>0.2372459173202515</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9912465214729309</v>
+        <v>0.9911817908287048</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8833938837051392</v>
+        <v>0.8812177181243896</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1078526377677917</v>
+        <v>0.1099640727043152</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.658135712146759</v>
+        <v>0.6580093502998352</v>
       </c>
       <c r="C48" t="n">
-        <v>1.002526164054871</v>
+        <v>1.000214219093323</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3443904519081116</v>
+        <v>-0.3422048687934875</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7141163349151611</v>
+        <v>0.714000403881073</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3703039586544037</v>
+        <v>0.3687122464179993</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3438123762607574</v>
+        <v>0.3452881574630737</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381573438644409</v>
+        <v>1.381580829620361</v>
       </c>
       <c r="C50" t="n">
-        <v>1.380825519561768</v>
+        <v>1.378082513809204</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0007479190826416016</v>
+        <v>0.003498315811157227</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.342853426933289</v>
+        <v>1.342853665351868</v>
       </c>
       <c r="C51" t="n">
-        <v>1.240461826324463</v>
+        <v>1.237878799438477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1023916006088257</v>
+        <v>0.1049748659133911</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021953463554382</v>
+        <v>1.021894454956055</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6116941571235657</v>
+        <v>0.6098273992538452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4102593064308167</v>
+        <v>0.4120670557022095</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144439220428467</v>
+        <v>1.144402742385864</v>
       </c>
       <c r="C53" t="n">
-        <v>1.130553960800171</v>
+        <v>1.128096103668213</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0138852596282959</v>
+        <v>0.01630663871765137</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1834059357643127</v>
+        <v>-0.1836878061294556</v>
       </c>
       <c r="C54" t="n">
-        <v>0.879852294921875</v>
+        <v>0.8776800632476807</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.063258171081543</v>
+        <v>-1.061367869377136</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05620938166975975</v>
+        <v>-0.05646773055195808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8046648502349854</v>
+        <v>0.802578330039978</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8608742356300354</v>
+        <v>-0.8590460419654846</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1691131442785263</v>
+        <v>0.1688964366912842</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7487338781356812</v>
+        <v>0.7467110157012939</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5796207189559937</v>
+        <v>-0.5778145790100098</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.14487624168396</v>
+        <v>1.144840002059937</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8425098657608032</v>
+        <v>0.8403801918029785</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3023663759231567</v>
+        <v>0.304459810256958</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.25402045249939</v>
+        <v>1.2540043592453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6554001569747925</v>
+        <v>0.6534836292266846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5986202955245972</v>
+        <v>0.6005207300186157</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243779540061951</v>
+        <v>1.243761539459229</v>
       </c>
       <c r="C59" t="n">
-        <v>0.691784679889679</v>
+        <v>0.6898267269134521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5519948601722717</v>
+        <v>0.5539348125457764</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063668012619019</v>
+        <v>1.063616752624512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9293580651283264</v>
+        <v>0.9271294474601746</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1343099474906921</v>
+        <v>0.1364873051643372</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008924126625061</v>
+        <v>1.008862614631653</v>
       </c>
       <c r="C61" t="n">
-        <v>1.156755924224854</v>
+        <v>1.154268383979797</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1478317975997925</v>
+        <v>-0.1454057693481445</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8700032234191895</v>
+        <v>0.8699160814285278</v>
       </c>
       <c r="C62" t="n">
-        <v>1.471088528633118</v>
+        <v>1.468242764472961</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6010853052139282</v>
+        <v>-0.5983266830444336</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9207552671432495</v>
+        <v>0.9206775426864624</v>
       </c>
       <c r="C63" t="n">
-        <v>2.649291515350342</v>
+        <v>2.645103454589844</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.728536248207092</v>
+        <v>-1.724425911903381</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159043788909912</v>
+        <v>1.15900993347168</v>
       </c>
       <c r="C64" t="n">
-        <v>2.577884674072266</v>
+        <v>2.573777675628662</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.418840885162354</v>
+        <v>-1.414767742156982</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356762766838074</v>
+        <v>1.356765747070312</v>
       </c>
       <c r="C65" t="n">
-        <v>1.054935693740845</v>
+        <v>1.052563905715942</v>
       </c>
       <c r="D65" t="n">
-        <v>0.301827073097229</v>
+        <v>0.3042018413543701</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.52915894985199</v>
+        <v>1.529193639755249</v>
       </c>
       <c r="C66" t="n">
-        <v>1.239808797836304</v>
+        <v>1.237226605415344</v>
       </c>
       <c r="D66" t="n">
-        <v>0.289350152015686</v>
+        <v>0.2919670343399048</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363504648208618</v>
+        <v>1.363508820533752</v>
       </c>
       <c r="C67" t="n">
-        <v>1.643828392028809</v>
+        <v>1.640785813331604</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2803237438201904</v>
+        <v>-0.2772769927978516</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6025954484939575</v>
+        <v>0.6024588942527771</v>
       </c>
       <c r="C68" t="n">
-        <v>1.700272798538208</v>
+        <v>1.697165846824646</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.09767735004425</v>
+        <v>-1.094707012176514</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9860070943832397</v>
+        <v>0.9859413504600525</v>
       </c>
       <c r="C69" t="n">
-        <v>1.751498103141785</v>
+        <v>1.748332858085632</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7654910087585449</v>
+        <v>-0.7623915076255798</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.886224627494812</v>
+        <v>0.8861405253410339</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98796558380127</v>
+        <v>1.984530925750732</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.101740956306458</v>
+        <v>-1.098390340805054</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7926130890846252</v>
+        <v>0.7925116419792175</v>
       </c>
       <c r="C71" t="n">
-        <v>1.761985301971436</v>
+        <v>1.758808135986328</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9693722128868103</v>
+        <v>-0.9662964940071106</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.502529501914978</v>
+        <v>0.5023744106292725</v>
       </c>
       <c r="C72" t="n">
-        <v>1.635557055473328</v>
+        <v>1.632523894309998</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.13302755355835</v>
+        <v>-1.130149483680725</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3508477509021759</v>
+        <v>0.3506646454334259</v>
       </c>
       <c r="C73" t="n">
-        <v>1.238947868347168</v>
+        <v>1.236366629600525</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8881001472473145</v>
+        <v>-0.8857020139694214</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4386144280433655</v>
+        <v>0.4384475350379944</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5670939683914185</v>
+        <v>0.5652780532836914</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.128479540348053</v>
+        <v>-0.126830518245697</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4907083511352539</v>
+        <v>0.490551084280014</v>
       </c>
       <c r="C75" t="n">
-        <v>1.91023576259613</v>
+        <v>1.90688955783844</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.419527411460876</v>
+        <v>-1.416338443756104</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8043023943901062</v>
+        <v>0.8042030930519104</v>
       </c>
       <c r="C76" t="n">
-        <v>1.223797202110291</v>
+        <v>1.221233248710632</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4194948077201843</v>
+        <v>-0.4170301556587219</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7487381100654602</v>
+        <v>0.748628556728363</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8266969919204712</v>
+        <v>0.8245853781700134</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07795888185501099</v>
+        <v>-0.07595682144165039</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075435638427734</v>
+        <v>1.075386524200439</v>
       </c>
       <c r="C78" t="n">
-        <v>1.503452181816101</v>
+        <v>1.500569581985474</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4280165433883667</v>
+        <v>-0.4251830577850342</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8494222164154053</v>
+        <v>0.849331259727478</v>
       </c>
       <c r="C79" t="n">
-        <v>1.272378444671631</v>
+        <v>1.269759058952332</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4229562282562256</v>
+        <v>-0.4204277992248535</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9273844957351685</v>
+        <v>0.9273079633712769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5276975035667419</v>
+        <v>0.5259264707565308</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3996869921684265</v>
+        <v>0.4013814926147461</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514164924621582</v>
+        <v>1.514196872711182</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6725203394889832</v>
+        <v>0.6705843210220337</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8416445851325989</v>
+        <v>0.8436125516891479</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290850043296814</v>
+        <v>1.290840625762939</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.667625904083252</v>
+        <v>-0.6680351495742798</v>
       </c>
       <c r="D82" t="n">
-        <v>1.958475947380066</v>
+        <v>1.958875775337219</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.58415150642395</v>
+        <v>1.584196209907532</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8344336748123169</v>
+        <v>-0.8346529006958008</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418585300445557</v>
+        <v>2.418848991394043</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824562788009644</v>
+        <v>1.824651956558228</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1717358827590942</v>
+        <v>-0.1727100908756256</v>
       </c>
       <c r="D84" t="n">
-        <v>1.996298670768738</v>
+        <v>1.997362017631531</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837414264678955</v>
+        <v>1.83750581741333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9603376984596252</v>
+        <v>0.9580737352371216</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8770765662193298</v>
+        <v>0.8794320821762085</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687057375907898</v>
+        <v>1.687121272087097</v>
       </c>
       <c r="C86" t="n">
-        <v>1.239248394966125</v>
+        <v>1.236666798591614</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4478089809417725</v>
+        <v>0.4504544734954834</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547090768814087</v>
+        <v>1.547128677368164</v>
       </c>
       <c r="C87" t="n">
-        <v>1.941668510437012</v>
+        <v>1.938286542892456</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3945777416229248</v>
+        <v>-0.391157865524292</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359007477760315</v>
+        <v>1.359010815620422</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8812004923820496</v>
+        <v>0.8790266513824463</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4778069853782654</v>
+        <v>0.4799841642379761</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404375195503235</v>
+        <v>1.404386758804321</v>
       </c>
       <c r="C89" t="n">
-        <v>1.037457227706909</v>
+        <v>1.035105347633362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3669179677963257</v>
+        <v>0.3692814111709595</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746534943580627</v>
+        <v>1.746609807014465</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8073524236679077</v>
+        <v>0.8052628040313721</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9391825199127197</v>
+        <v>0.9413470029830933</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.892184376716614</v>
+        <v>1.89228630065918</v>
       </c>
       <c r="C91" t="n">
-        <v>1.177202343940735</v>
+        <v>1.174691319465637</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7149820327758789</v>
+        <v>0.7175949811935425</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563621163368225</v>
+        <v>1.563662171363831</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8676488995552063</v>
+        <v>0.8654905557632446</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6959722638130188</v>
+        <v>0.6981716156005859</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709373474121094</v>
+        <v>1.709441423416138</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7154194712638855</v>
+        <v>0.7134345769882202</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9939540028572083</v>
+        <v>0.9960068464279175</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430953741073608</v>
+        <v>1.430970191955566</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2226739376783371</v>
+        <v>0.2212503999471664</v>
       </c>
       <c r="D94" t="n">
-        <v>1.208279848098755</v>
+        <v>1.209719777107239</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083297252655029</v>
+        <v>1.083249449729919</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5244402885437012</v>
+        <v>0.5226730108261108</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5588569641113281</v>
+        <v>0.5605764389038086</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.668685257434845</v>
+        <v>0.6685608625411987</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7274422645568848</v>
+        <v>0.7254436612129211</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05875700712203979</v>
+        <v>-0.05688279867172241</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6041396856307983</v>
+        <v>0.604003369808197</v>
       </c>
       <c r="C97" t="n">
-        <v>1.047105312347412</v>
+        <v>1.044742584228516</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4429656267166138</v>
+        <v>-0.4407392144203186</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.003982782363892</v>
+        <v>1.003920435905457</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9724127054214478</v>
+        <v>0.970134973526001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03157007694244385</v>
+        <v>0.03378546237945557</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2793163955211639</v>
+        <v>0.2791200578212738</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1114924773573875</v>
+        <v>0.1101956069469452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1678239107131958</v>
+        <v>0.1689244508743286</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05728774517774582</v>
+        <v>-0.05754629150032997</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3492730259895325</v>
+        <v>-0.3500449657440186</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2919852733612061</v>
+        <v>0.2924986779689789</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2313884198665619</v>
+        <v>-0.2316791415214539</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3280743062496185</v>
+        <v>0.3265306949615479</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5594627261161804</v>
+        <v>-0.5582098364830017</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2111986726522446</v>
+        <v>0.2109897434711456</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2715709805488586</v>
+        <v>-0.2724314332008362</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4827696681022644</v>
+        <v>0.4834211766719818</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7511872053146362</v>
+        <v>0.7510781288146973</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4448834657669067</v>
+        <v>-0.4455464780330658</v>
       </c>
       <c r="D103" t="n">
-        <v>1.196070671081543</v>
+        <v>1.196624636650085</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001543760299683</v>
+        <v>1.001480937004089</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7033287286758423</v>
+        <v>-0.7036973237991333</v>
       </c>
       <c r="D104" t="n">
-        <v>1.704872488975525</v>
+        <v>1.705178260803223</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068390011787415</v>
+        <v>1.068339467048645</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04482000693678856</v>
+        <v>-0.04593879729509354</v>
       </c>
       <c r="D105" t="n">
-        <v>1.113209962844849</v>
+        <v>1.114278316497803</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.173089861869812</v>
+        <v>1.173058748245239</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6491355299949646</v>
+        <v>0.6472261548042297</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5239543318748474</v>
+        <v>0.5258325934410095</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081508994102478</v>
+        <v>1.081461071968079</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4739734828472137</v>
+        <v>0.4722636640071869</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6075354814529419</v>
+        <v>0.6091973781585693</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.838936984539032</v>
+        <v>0.8388441205024719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8633678555488586</v>
+        <v>0.8612143397331238</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02443087100982666</v>
+        <v>-0.02237021923065186</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5669329166412354</v>
+        <v>0.5667897462844849</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9644200801849365</v>
+        <v>0.9621515274047852</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3974871635437012</v>
+        <v>-0.3953617811203003</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8343218564987183</v>
+        <v>0.8342280983924866</v>
       </c>
       <c r="C110" t="n">
-        <v>1.007085800170898</v>
+        <v>1.004768490791321</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1727639436721802</v>
+        <v>-0.1705403923988342</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.192940354347229</v>
+        <v>1.192912936210632</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4763728678226471</v>
+        <v>0.4746603071689606</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7165675163269043</v>
+        <v>0.7182526588439941</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701228737831116</v>
+        <v>1.701295256614685</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8107685446739197</v>
+        <v>0.8086749911308289</v>
       </c>
       <c r="D112" t="n">
-        <v>0.890460193157196</v>
+        <v>0.8926202654838562</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044525980949402</v>
+        <v>1.044471144676208</v>
       </c>
       <c r="C113" t="n">
-        <v>1.118543863296509</v>
+        <v>1.116099715232849</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07401788234710693</v>
+        <v>-0.07162857055664062</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458589196205139</v>
+        <v>1.458610773086548</v>
       </c>
       <c r="C114" t="n">
-        <v>1.719454765319824</v>
+        <v>1.716325879096985</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2608655691146851</v>
+        <v>-0.257715106010437</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997635126113892</v>
+        <v>1.997756361961365</v>
       </c>
       <c r="C115" t="n">
-        <v>1.976810097694397</v>
+        <v>1.973388195037842</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02082502841949463</v>
+        <v>0.02436816692352295</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.310948133468628</v>
+        <v>1.310942411422729</v>
       </c>
       <c r="C116" t="n">
-        <v>2.472749471664429</v>
+        <v>2.468762397766113</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.161801338195801</v>
+        <v>-1.157819986343384</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697819828987122</v>
+        <v>1.697885751724243</v>
       </c>
       <c r="C117" t="n">
-        <v>2.199666976928711</v>
+        <v>2.195991277694702</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5018471479415894</v>
+        <v>-0.498105525970459</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721330404281616</v>
+        <v>1.721400618553162</v>
       </c>
       <c r="C118" t="n">
-        <v>1.632333993911743</v>
+        <v>1.6293044090271</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08899641036987305</v>
+        <v>0.09209620952606201</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.927690386772156</v>
+        <v>1.927798628807068</v>
       </c>
       <c r="C119" t="n">
-        <v>1.703306555747986</v>
+        <v>1.700196146965027</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2243838310241699</v>
+        <v>0.227602481842041</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379671454429626</v>
+        <v>1.37967836856842</v>
       </c>
       <c r="C120" t="n">
-        <v>1.686237573623657</v>
+        <v>1.683146595954895</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3065661191940308</v>
+        <v>-0.3034682273864746</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997574090957642</v>
+        <v>1.997695326805115</v>
       </c>
       <c r="C121" t="n">
-        <v>1.692190527915955</v>
+        <v>1.689092755317688</v>
       </c>
       <c r="D121" t="n">
-        <v>0.305383563041687</v>
+        <v>0.3086025714874268</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046757936477661</v>
+        <v>2.046888113021851</v>
       </c>
       <c r="C122" t="n">
-        <v>1.250822782516479</v>
+        <v>1.248227953910828</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7959351539611816</v>
+        <v>0.7986601591110229</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.350993394851685</v>
+        <v>2.351179838180542</v>
       </c>
       <c r="C123" t="n">
-        <v>2.146771192550659</v>
+        <v>2.143155574798584</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2042222023010254</v>
+        <v>0.208024263381958</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.452867031097412</v>
+        <v>2.453072547912598</v>
       </c>
       <c r="C124" t="n">
-        <v>1.818345427513123</v>
+        <v>1.815103888511658</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6345216035842896</v>
+        <v>0.6379686594009399</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421031951904297</v>
+        <v>2.421231508255005</v>
       </c>
       <c r="C125" t="n">
-        <v>1.627234697341919</v>
+        <v>1.624210953712463</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7937972545623779</v>
+        <v>0.7970205545425415</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778215289115906</v>
+        <v>1.778295993804932</v>
       </c>
       <c r="C126" t="n">
-        <v>2.248918294906616</v>
+        <v>2.245186328887939</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4707030057907104</v>
+        <v>-0.4668903350830078</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786154270172119</v>
+        <v>1.786236524581909</v>
       </c>
       <c r="C127" t="n">
-        <v>2.119374513626099</v>
+        <v>2.115790128707886</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3332202434539795</v>
+        <v>-0.3295536041259766</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.484978199005127</v>
+        <v>1.485004663467407</v>
       </c>
       <c r="C128" t="n">
-        <v>1.945693016052246</v>
+        <v>1.942306399345398</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4607148170471191</v>
+        <v>-0.4573017358779907</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1724454164505</v>
+        <v>1.172414183616638</v>
       </c>
       <c r="C129" t="n">
-        <v>1.777019619941711</v>
+        <v>1.773825287818909</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6045742034912109</v>
+        <v>-0.6014111042022705</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8093692064285278</v>
+        <v>0.8092708587646484</v>
       </c>
       <c r="C130" t="n">
-        <v>2.93657374382019</v>
+        <v>2.932058334350586</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.127204418182373</v>
+        <v>-2.122787475585938</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3932311236858368</v>
+        <v>0.3930558264255524</v>
       </c>
       <c r="C131" t="n">
-        <v>2.170456171035767</v>
+        <v>2.166813611984253</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.777225017547607</v>
+        <v>-1.773757815361023</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05685830116271973</v>
+        <v>-0.05711676552891731</v>
       </c>
       <c r="C132" t="n">
-        <v>1.828410029411316</v>
+        <v>1.825157046318054</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.885268330574036</v>
+        <v>-1.88227379322052</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0938759371638298</v>
+        <v>0.09364533424377441</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8161798119544983</v>
+        <v>0.8140801191329956</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7223038673400879</v>
+        <v>-0.7204347848892212</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.156178742647171</v>
+        <v>0.1559596508741379</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1707621365785599</v>
+        <v>0.1693977564573288</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01458339393138885</v>
+        <v>-0.01343810558319092</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3810867965221405</v>
+        <v>0.3809092938899994</v>
       </c>
       <c r="C135" t="n">
-        <v>0.358410120010376</v>
+        <v>0.356831967830658</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02267667651176453</v>
+        <v>0.02407732605934143</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7312805652618408</v>
+        <v>0.7311677932739258</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2018712759017944</v>
+        <v>0.2004714459180832</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5294092893600464</v>
+        <v>0.5306963324546814</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6019755601882935</v>
+        <v>0.6018388867378235</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5076677203178406</v>
+        <v>0.5059194564819336</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09430783987045288</v>
+        <v>0.09591943025588989</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.843640148639679</v>
+        <v>0.8435481190681458</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9736416935920715</v>
+        <v>0.9713626503944397</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1300015449523926</v>
+        <v>-0.1278145313262939</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.303749680519104</v>
+        <v>1.30374276638031</v>
       </c>
       <c r="C139" t="n">
-        <v>1.037361860275269</v>
+        <v>1.03501033782959</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2663878202438354</v>
+        <v>0.2687324285507202</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260543823242188</v>
+        <v>1.260528802871704</v>
       </c>
       <c r="C140" t="n">
-        <v>1.276137828826904</v>
+        <v>1.273514151573181</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0155940055847168</v>
+        <v>-0.01298534870147705</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491050839424133</v>
+        <v>1.491078495979309</v>
       </c>
       <c r="C141" t="n">
-        <v>1.230498671531677</v>
+        <v>1.227926850318909</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2605521678924561</v>
+        <v>0.2631516456604004</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.404003977775574</v>
+        <v>1.40401554107666</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1953815817832947</v>
+        <v>0.1939891427755356</v>
       </c>
       <c r="D142" t="n">
-        <v>1.208622455596924</v>
+        <v>1.210026383399963</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.764120817184448</v>
+        <v>1.764199018478394</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2830688953399658</v>
+        <v>0.281576544046402</v>
       </c>
       <c r="D143" t="n">
-        <v>1.481051921844482</v>
+        <v>1.482622504234314</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603848457336426</v>
+        <v>1.603896975517273</v>
       </c>
       <c r="C144" t="n">
-        <v>1.285553812980652</v>
+        <v>1.282919406890869</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3182946443557739</v>
+        <v>0.3209775686264038</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711106777191162</v>
+        <v>1.711174964904785</v>
       </c>
       <c r="C145" t="n">
-        <v>1.474695324897766</v>
+        <v>1.471845507621765</v>
       </c>
       <c r="D145" t="n">
-        <v>0.236411452293396</v>
+        <v>0.23932945728302</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152469515800476</v>
+        <v>1.152434587478638</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9023085832595825</v>
+        <v>0.9001108407974243</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2501609325408936</v>
+        <v>0.2523237466812134</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7278152704238892</v>
+        <v>0.7277018427848816</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8509383797645569</v>
+        <v>0.8487991094589233</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1231231093406677</v>
+        <v>-0.1210972666740417</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2879751026630402</v>
+        <v>0.287780374288559</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2224952131509781</v>
+        <v>-0.2234115749597549</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5104703307151794</v>
+        <v>0.5111919641494751</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6826528906822205</v>
+        <v>0.6825311183929443</v>
       </c>
       <c r="C149" t="n">
-        <v>1.56669545173645</v>
+        <v>1.563740849494934</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8840425610542297</v>
+        <v>-0.8812097311019897</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.03869354724884</v>
+        <v>1.038637518882751</v>
       </c>
       <c r="C150" t="n">
-        <v>2.460339307785034</v>
+        <v>2.456366300582886</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.421645760536194</v>
+        <v>-1.417728781700134</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.32817268371582</v>
+        <v>1.328170299530029</v>
       </c>
       <c r="C151" t="n">
-        <v>1.287720203399658</v>
+        <v>1.285083413124084</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04045248031616211</v>
+        <v>0.04308688640594482</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361919641494751</v>
+        <v>1.361923336982727</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2958547472953796</v>
+        <v>0.2943478226661682</v>
       </c>
       <c r="D152" t="n">
-        <v>1.066064834594727</v>
+        <v>1.067575454711914</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.109838008880615</v>
+        <v>2.10998010635376</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1921660751104355</v>
+        <v>0.1907773017883301</v>
       </c>
       <c r="D153" t="n">
-        <v>1.917671918869019</v>
+        <v>1.91920280456543</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996710300445557</v>
+        <v>1.996831297874451</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4607448577880859</v>
+        <v>0.4590501189231873</v>
       </c>
       <c r="D154" t="n">
-        <v>1.535965442657471</v>
+        <v>1.537781238555908</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.86174464225769</v>
+        <v>1.861840844154358</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7681891918182373</v>
+        <v>0.7661441564559937</v>
       </c>
       <c r="D155" t="n">
-        <v>1.093555450439453</v>
+        <v>1.095696687698364</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609042048454285</v>
+        <v>1.609091401100159</v>
       </c>
       <c r="C156" t="n">
-        <v>1.36267876625061</v>
+        <v>1.359956383705139</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2463632822036743</v>
+        <v>0.2491350173950195</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912418246269226</v>
+        <v>1.912523746490479</v>
       </c>
       <c r="C157" t="n">
-        <v>1.737919449806213</v>
+        <v>1.734769821166992</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1744987964630127</v>
+        <v>0.1777539253234863</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529033303260803</v>
+        <v>1.529067873954773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.466542363166809</v>
+        <v>1.463701725006104</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06249094009399414</v>
+        <v>0.06536614894866943</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363672614097595</v>
+        <v>1.363676786422729</v>
       </c>
       <c r="C159" t="n">
-        <v>1.635102868080139</v>
+        <v>1.632070183753967</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2714302539825439</v>
+        <v>-0.2683933973312378</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673135876655579</v>
+        <v>1.673197150230408</v>
       </c>
       <c r="C160" t="n">
-        <v>1.720407843589783</v>
+        <v>1.717278003692627</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.0472719669342041</v>
+        <v>-0.04408085346221924</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.341963648796082</v>
+        <v>1.341963768005371</v>
       </c>
       <c r="C161" t="n">
-        <v>1.673504590988159</v>
+        <v>1.670428276062012</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3315409421920776</v>
+        <v>-0.3284645080566406</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5793645977973938</v>
+        <v>0.5792237520217896</v>
       </c>
       <c r="C162" t="n">
-        <v>1.793834090232849</v>
+        <v>1.790620565414429</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.214469432830811</v>
+        <v>-1.211396813392639</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3735398948192596</v>
+        <v>0.3733609616756439</v>
       </c>
       <c r="C163" t="n">
-        <v>1.280967354774475</v>
+        <v>1.278338074684143</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9074274301528931</v>
+        <v>-0.9049770832061768</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6716715097427368</v>
+        <v>0.6715477108955383</v>
       </c>
       <c r="C164" t="n">
-        <v>1.440061450004578</v>
+        <v>1.437250971794128</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7683899402618408</v>
+        <v>-0.7657032608985901</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8601012229919434</v>
+        <v>0.8600122928619385</v>
       </c>
       <c r="C165" t="n">
-        <v>1.109562993049622</v>
+        <v>1.107129096984863</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2494617700576782</v>
+        <v>-0.2471168041229248</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9997087121009827</v>
+        <v>0.9996455311775208</v>
       </c>
       <c r="C166" t="n">
-        <v>1.240798354148865</v>
+        <v>1.23821496963501</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2410896420478821</v>
+        <v>-0.238569438457489</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623085260391235</v>
+        <v>1.623137235641479</v>
       </c>
       <c r="C167" t="n">
-        <v>1.600345849990845</v>
+        <v>1.597352862358093</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02273941040039062</v>
+        <v>0.02578437328338623</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952339291572571</v>
+        <v>1.952452182769775</v>
       </c>
       <c r="C168" t="n">
-        <v>1.874993085861206</v>
+        <v>1.871687054634094</v>
       </c>
       <c r="D168" t="n">
-        <v>0.07734620571136475</v>
+        <v>0.08076512813568115</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178313255310059</v>
+        <v>1.178282976150513</v>
       </c>
       <c r="C169" t="n">
-        <v>1.567083120346069</v>
+        <v>1.564128041267395</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3887698650360107</v>
+        <v>-0.3858450651168823</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9839881658554077</v>
+        <v>0.9839220643043518</v>
       </c>
       <c r="C170" t="n">
-        <v>1.282636046409607</v>
+        <v>1.280005097389221</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2986478805541992</v>
+        <v>-0.2960830330848694</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9069624543190002</v>
+        <v>0.906882107257843</v>
       </c>
       <c r="C171" t="n">
-        <v>1.035927057266235</v>
+        <v>1.033576965332031</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1289646029472351</v>
+        <v>-0.1266948580741882</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023281216621399</v>
+        <v>1.02322244644165</v>
       </c>
       <c r="C172" t="n">
-        <v>1.874529480934143</v>
+        <v>1.871224164962769</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8512482643127441</v>
+        <v>-0.8480017185211182</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.22375214099884</v>
+        <v>1.223730325698853</v>
       </c>
       <c r="C173" t="n">
-        <v>1.667912721633911</v>
+        <v>1.664842844009399</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4441605806350708</v>
+        <v>-0.4411125183105469</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655880808830261</v>
+        <v>1.655938863754272</v>
       </c>
       <c r="C174" t="n">
-        <v>1.864923596382141</v>
+        <v>1.861629009246826</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2090427875518799</v>
+        <v>-0.2056901454925537</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470036268234253</v>
+        <v>1.470059990882874</v>
       </c>
       <c r="C175" t="n">
-        <v>1.905055642127991</v>
+        <v>1.901715517044067</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4350193738937378</v>
+        <v>-0.4316555261611938</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092480778694153</v>
+        <v>1.092434763908386</v>
       </c>
       <c r="C176" t="n">
-        <v>1.939931631088257</v>
+        <v>1.936551809310913</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.847450852394104</v>
+        <v>-0.8441170454025269</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104263067245483</v>
+        <v>1.104219317436218</v>
       </c>
       <c r="C177" t="n">
-        <v>2.065673828125</v>
+        <v>2.062150716781616</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9614107608795166</v>
+        <v>-0.9579313993453979</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334675788879395</v>
+        <v>1.334674477577209</v>
       </c>
       <c r="C178" t="n">
-        <v>1.971785426139832</v>
+        <v>1.968369126319885</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.637109637260437</v>
+        <v>-0.6336946487426758</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.89604914188385</v>
+        <v>1.896151661872864</v>
       </c>
       <c r="C179" t="n">
-        <v>1.44823956489563</v>
+        <v>1.445419907569885</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4478095769882202</v>
+        <v>0.4507317543029785</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.87025249004364</v>
+        <v>1.870350122451782</v>
       </c>
       <c r="C180" t="n">
-        <v>1.505609512329102</v>
+        <v>1.502724289894104</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3646429777145386</v>
+        <v>0.3676258325576782</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434087634086609</v>
+        <v>1.434104681015015</v>
       </c>
       <c r="C181" t="n">
-        <v>1.828205943107605</v>
+        <v>1.824953317642212</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3941183090209961</v>
+        <v>-0.3908486366271973</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4872429072856903</v>
+        <v>0.4870850145816803</v>
       </c>
       <c r="C182" t="n">
-        <v>1.220486044883728</v>
+        <v>1.217925667762756</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7332431077957153</v>
+        <v>-0.7308406829833984</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8843815326690674</v>
+        <v>0.8842970728874207</v>
       </c>
       <c r="C183" t="n">
-        <v>1.49575138092041</v>
+        <v>1.49287736415863</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6113698482513428</v>
+        <v>-0.6085802912712097</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556720018386841</v>
+        <v>1.55675995349884</v>
       </c>
       <c r="C184" t="n">
-        <v>1.773059010505676</v>
+        <v>1.769869208335876</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2163389921188354</v>
+        <v>-0.2131092548370361</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937541723251343</v>
+        <v>1.937651872634888</v>
       </c>
       <c r="C185" t="n">
-        <v>1.674111127853394</v>
+        <v>1.671033978462219</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2634305953979492</v>
+        <v>0.2666178941726685</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966074228286743</v>
+        <v>1.966189622879028</v>
       </c>
       <c r="C186" t="n">
-        <v>1.62195098400116</v>
+        <v>1.618933320045471</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3441232442855835</v>
+        <v>0.3472563028335571</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065460681915283</v>
+        <v>2.065594673156738</v>
       </c>
       <c r="C187" t="n">
-        <v>1.476663947105408</v>
+        <v>1.473811745643616</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5887967348098755</v>
+        <v>0.5917829275131226</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351130247116089</v>
+        <v>2.351316928863525</v>
       </c>
       <c r="C188" t="n">
-        <v>1.513696432113647</v>
+        <v>1.510802149772644</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8374338150024414</v>
+        <v>0.8405147790908813</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.901971340179443</v>
+        <v>2.902259826660156</v>
       </c>
       <c r="C189" t="n">
-        <v>1.676117658615112</v>
+        <v>1.673038125038147</v>
       </c>
       <c r="D189" t="n">
-        <v>1.225853681564331</v>
+        <v>1.229221701622009</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.116476535797119</v>
+        <v>3.116804361343384</v>
       </c>
       <c r="C190" t="n">
-        <v>1.279059767723083</v>
+        <v>1.276432633399963</v>
       </c>
       <c r="D190" t="n">
-        <v>1.837416768074036</v>
+        <v>1.84037172794342</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.101458787918091</v>
+        <v>3.101783990859985</v>
       </c>
       <c r="C191" t="n">
-        <v>1.569002628326416</v>
+        <v>1.56604528427124</v>
       </c>
       <c r="D191" t="n">
-        <v>1.532456159591675</v>
+        <v>1.535738706588745</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.855002641677856</v>
+        <v>2.855282306671143</v>
       </c>
       <c r="C192" t="n">
-        <v>1.877613663673401</v>
+        <v>1.87430465221405</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9773889780044556</v>
+        <v>0.9809776544570923</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.929151773452759</v>
+        <v>2.929445266723633</v>
       </c>
       <c r="C193" t="n">
-        <v>2.948514699935913</v>
+        <v>2.9439857006073</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.0193629264831543</v>
+        <v>-0.01454043388366699</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.837333202362061</v>
+        <v>2.837609529495239</v>
       </c>
       <c r="C194" t="n">
-        <v>3.526060104370117</v>
+        <v>3.520873308181763</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6887269020080566</v>
+        <v>-0.6832637786865234</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279773950576782</v>
+        <v>2.279947280883789</v>
       </c>
       <c r="C195" t="n">
-        <v>3.299785375595093</v>
+        <v>3.294856071472168</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.020011425018311</v>
+        <v>-1.014908790588379</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.107698678970337</v>
+        <v>3.108024835586548</v>
       </c>
       <c r="C196" t="n">
-        <v>3.725224733352661</v>
+        <v>3.719810724258423</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6175260543823242</v>
+        <v>-0.611785888671875</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.901978254318237</v>
+        <v>2.902266502380371</v>
       </c>
       <c r="C197" t="n">
-        <v>3.514252662658691</v>
+        <v>3.509078979492188</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6122744083404541</v>
+        <v>-0.6068124771118164</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.014822721481323</v>
+        <v>2.014947175979614</v>
       </c>
       <c r="C198" t="n">
-        <v>3.179865598678589</v>
+        <v>3.175073146820068</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.165042877197266</v>
+        <v>-1.160125970840454</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055547833442688</v>
+        <v>1.055494904518127</v>
       </c>
       <c r="C199" t="n">
-        <v>2.603487968444824</v>
+        <v>2.599352121353149</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.547940135002136</v>
+        <v>-1.543857216835022</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4210175275802612</v>
+        <v>0.4208473861217499</v>
       </c>
       <c r="C200" t="n">
-        <v>2.869465351104736</v>
+        <v>2.865026473999023</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.448447704315186</v>
+        <v>-2.444179058074951</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443518042564392</v>
+        <v>1.443536877632141</v>
       </c>
       <c r="C201" t="n">
-        <v>2.627140760421753</v>
+        <v>2.622977733612061</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.183622717857361</v>
+        <v>-1.179440855979919</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064254999160767</v>
+        <v>1.06420373916626</v>
       </c>
       <c r="C202" t="n">
-        <v>2.731637477874756</v>
+        <v>2.727355718612671</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.667382478713989</v>
+        <v>-1.663151979446411</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092903017997742</v>
+        <v>1.092857122421265</v>
       </c>
       <c r="C203" t="n">
-        <v>2.479181051254272</v>
+        <v>2.475187063217163</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.386278033256531</v>
+        <v>-1.382329940795898</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300475835800171</v>
+        <v>1.300468325614929</v>
       </c>
       <c r="C204" t="n">
-        <v>2.113051414489746</v>
+        <v>2.109474420547485</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8125755786895752</v>
+        <v>-0.8090060949325562</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285688400268555</v>
+        <v>1.285678148269653</v>
       </c>
       <c r="C205" t="n">
-        <v>1.821641445159912</v>
+        <v>1.818396329879761</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5359530448913574</v>
+        <v>-0.5327181816101074</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046525835990906</v>
+        <v>1.046471357345581</v>
       </c>
       <c r="C206" t="n">
-        <v>1.091437697410583</v>
+        <v>1.089024305343628</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.04491186141967773</v>
+        <v>-0.04255294799804688</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203744411468506</v>
+        <v>1.203718900680542</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9495689272880554</v>
+        <v>0.9473173022270203</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2541754841804504</v>
+        <v>0.2564015984535217</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.4728764295578</v>
+        <v>1.472900867462158</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7552575469017029</v>
+        <v>0.7532272338867188</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7176188826560974</v>
+        <v>0.7196736335754395</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513242363929749</v>
+        <v>1.513273954391479</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5729728937149048</v>
+        <v>0.5711503028869629</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9402694702148438</v>
+        <v>0.9421236515045166</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865221381187439</v>
+        <v>1.865318059921265</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6741139888763428</v>
+        <v>0.6721761226654053</v>
       </c>
       <c r="D210" t="n">
-        <v>1.191107392311096</v>
+        <v>1.193141937255859</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612573981285095</v>
+        <v>1.612623929977417</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8380727171897888</v>
+        <v>0.83594810962677</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7745012640953064</v>
+        <v>0.776675820350647</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065549850463867</v>
+        <v>2.065683841705322</v>
       </c>
       <c r="C212" t="n">
-        <v>1.122409701347351</v>
+        <v>1.119961023330688</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9431401491165161</v>
+        <v>0.9457228183746338</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.151888370513916</v>
+        <v>2.152038335800171</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5200892686843872</v>
+        <v>0.5183269381523132</v>
       </c>
       <c r="D213" t="n">
-        <v>1.631799101829529</v>
+        <v>1.633711338043213</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.910832047462463</v>
+        <v>1.910937428474426</v>
       </c>
       <c r="C214" t="n">
-        <v>1.024964928627014</v>
+        <v>1.022627234458923</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8858671188354492</v>
+        <v>0.8883101940155029</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050282955169678</v>
+        <v>2.050413846969604</v>
       </c>
       <c r="C215" t="n">
-        <v>1.177372932434082</v>
+        <v>1.174861669540405</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8729100227355957</v>
+        <v>0.8755521774291992</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923709034919739</v>
+        <v>1.923816680908203</v>
       </c>
       <c r="C216" t="n">
-        <v>1.408656358718872</v>
+        <v>1.405881643295288</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5150526762008667</v>
+        <v>0.517935037612915</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003199219703674</v>
+        <v>1.00313675403595</v>
       </c>
       <c r="C217" t="n">
-        <v>1.210846304893494</v>
+        <v>1.208296895027161</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2076470851898193</v>
+        <v>-0.2051601409912109</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7118145227432251</v>
+        <v>0.7116981148719788</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5116919875144958</v>
+        <v>0.5099391937255859</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2001225352287292</v>
+        <v>0.2017589211463928</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493500232696533</v>
+        <v>1.493528366088867</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4988195896148682</v>
+        <v>0.497081458568573</v>
       </c>
       <c r="D219" t="n">
-        <v>0.994680643081665</v>
+        <v>0.9964469075202942</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355144023895264</v>
+        <v>1.355146646499634</v>
       </c>
       <c r="C220" t="n">
-        <v>1.207544088363647</v>
+        <v>1.20499849319458</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1475999355316162</v>
+        <v>0.1501481533050537</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.491999268531799</v>
+        <v>1.492027163505554</v>
       </c>
       <c r="C221" t="n">
-        <v>1.422180652618408</v>
+        <v>1.419390559196472</v>
       </c>
       <c r="D221" t="n">
-        <v>0.06981861591339111</v>
+        <v>0.07263660430908203</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288196921348572</v>
+        <v>1.288187146186829</v>
       </c>
       <c r="C222" t="n">
-        <v>1.002981781959534</v>
+        <v>1.000669240951538</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2852151393890381</v>
+        <v>0.2875179052352905</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9321990609169006</v>
+        <v>0.9321234226226807</v>
       </c>
       <c r="C223" t="n">
-        <v>0.731254518032074</v>
+        <v>0.7292516231536865</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2009445428848267</v>
+        <v>0.2028717994689941</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.09267270565033</v>
+        <v>1.092626690864563</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4268777072429657</v>
+        <v>0.4252215325832367</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6657949686050415</v>
+        <v>0.6674051284790039</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489545822143555</v>
+        <v>1.489573121070862</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5757589936256409</v>
+        <v>0.5739331245422363</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9137868285179138</v>
+        <v>0.9156399965286255</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.844917058944702</v>
+        <v>1.845010161399841</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07999511808156967</v>
+        <v>0.0787341296672821</v>
       </c>
       <c r="D226" t="n">
-        <v>1.764921903610229</v>
+        <v>1.766276001930237</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.65541660785675</v>
+        <v>1.655474662780762</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4922870099544525</v>
+        <v>0.4905562996864319</v>
       </c>
       <c r="D227" t="n">
-        <v>1.163129568099976</v>
+        <v>1.164918422698975</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092217445373535</v>
+        <v>2.092355966567993</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8953193426132202</v>
+        <v>0.8931295275688171</v>
       </c>
       <c r="D228" t="n">
-        <v>1.196898102760315</v>
+        <v>1.199226379394531</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993573904037476</v>
+        <v>1.993694305419922</v>
       </c>
       <c r="C229" t="n">
-        <v>1.214016556739807</v>
+        <v>1.211463689804077</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7795573472976685</v>
+        <v>0.7822306156158447</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985248327255249</v>
+        <v>1.985367298126221</v>
       </c>
       <c r="C230" t="n">
-        <v>1.74877405166626</v>
+        <v>1.745611906051636</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2364742755889893</v>
+        <v>0.239755392074585</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.68251097202301</v>
+        <v>1.682573914527893</v>
       </c>
       <c r="C231" t="n">
-        <v>1.80047345161438</v>
+        <v>1.797252416610718</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1179624795913696</v>
+        <v>-0.1146785020828247</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702399253845215</v>
+        <v>1.702466011047363</v>
       </c>
       <c r="C232" t="n">
-        <v>1.574741363525391</v>
+        <v>1.57177734375</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1276578903198242</v>
+        <v>0.1306886672973633</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202388286590576</v>
+        <v>2.202547311782837</v>
       </c>
       <c r="C233" t="n">
-        <v>1.61324667930603</v>
+        <v>1.610238909721375</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5891416072845459</v>
+        <v>0.5923084020614624</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.676222801208496</v>
+        <v>2.676469564437866</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9447170495986938</v>
+        <v>0.942470908164978</v>
       </c>
       <c r="D234" t="n">
-        <v>1.731505751609802</v>
+        <v>1.733998656272888</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.317831039428711</v>
+        <v>2.318011522293091</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3032207190990448</v>
+        <v>0.3017054200172424</v>
       </c>
       <c r="D235" t="n">
-        <v>2.014610290527344</v>
+        <v>2.016306161880493</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135419607162476</v>
+        <v>2.135566473007202</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3477343320846558</v>
+        <v>0.3461683392524719</v>
       </c>
       <c r="D236" t="n">
-        <v>1.78768527507782</v>
+        <v>1.789398193359375</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.668635845184326</v>
+        <v>2.668881177902222</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.619439959526062</v>
+        <v>-0.619904100894928</v>
       </c>
       <c r="D237" t="n">
-        <v>3.288075923919678</v>
+        <v>3.288785219192505</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.242708683013916</v>
+        <v>2.242875337600708</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.16091513633728</v>
+        <v>-1.160762429237366</v>
       </c>
       <c r="D238" t="n">
-        <v>3.403623819351196</v>
+        <v>3.403637886047363</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.596727848052979</v>
+        <v>2.596960067749023</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.500014901161194</v>
+        <v>-1.499475836753845</v>
       </c>
       <c r="D239" t="n">
-        <v>4.096742630004883</v>
+        <v>4.096436023712158</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.772228717803955</v>
+        <v>2.772493124008179</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8835238814353943</v>
+        <v>-0.8836871385574341</v>
       </c>
       <c r="D240" t="n">
-        <v>3.655752658843994</v>
+        <v>3.656180381774902</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301794767379761</v>
+        <v>2.301972150802612</v>
       </c>
       <c r="C241" t="n">
-        <v>1.306579947471619</v>
+        <v>1.303921580314636</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9952148199081421</v>
+        <v>0.9980505704879761</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.627681732177734</v>
+        <v>2.627919673919678</v>
       </c>
       <c r="C242" t="n">
-        <v>2.347403287887573</v>
+        <v>2.34355902671814</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2802784442901611</v>
+        <v>0.2843606472015381</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021515607833862</v>
+        <v>2.021641254425049</v>
       </c>
       <c r="C243" t="n">
-        <v>2.611032724380493</v>
+        <v>2.606888294219971</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5895171165466309</v>
+        <v>-0.5852470397949219</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.208920478820801</v>
+        <v>2.209080934524536</v>
       </c>
       <c r="C244" t="n">
-        <v>2.50354266166687</v>
+        <v>2.499520540237427</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.2946221828460693</v>
+        <v>-0.2904396057128906</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266773223876953</v>
+        <v>2.266944408416748</v>
       </c>
       <c r="C245" t="n">
-        <v>2.581101894378662</v>
+        <v>2.576991558074951</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.314328670501709</v>
+        <v>-0.3100471496582031</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.320927143096924</v>
+        <v>2.321108341217041</v>
       </c>
       <c r="C246" t="n">
-        <v>1.53677773475647</v>
+        <v>1.533857107162476</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7841494083404541</v>
+        <v>0.7872512340545654</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208276033401489</v>
+        <v>2.208436489105225</v>
       </c>
       <c r="C247" t="n">
-        <v>1.166998744010925</v>
+        <v>1.164499282836914</v>
       </c>
       <c r="D247" t="n">
-        <v>1.041277289390564</v>
+        <v>1.043937206268311</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036600589752197</v>
+        <v>2.036729097366333</v>
       </c>
       <c r="C248" t="n">
-        <v>1.595674753189087</v>
+        <v>1.592686891555786</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4409258365631104</v>
+        <v>0.4440422058105469</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542232275009155</v>
+        <v>1.542269229888916</v>
       </c>
       <c r="C249" t="n">
-        <v>2.00144624710083</v>
+        <v>1.997996091842651</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4592139720916748</v>
+        <v>-0.4557268619537354</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264226317405701</v>
+        <v>1.264212012290955</v>
       </c>
       <c r="C250" t="n">
-        <v>1.549779653549194</v>
+        <v>1.546844363212585</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2855533361434937</v>
+        <v>-0.2826323509216309</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.77597177028656</v>
+        <v>1.776051998138428</v>
       </c>
       <c r="C251" t="n">
-        <v>1.375610709190369</v>
+        <v>1.372873783111572</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4003610610961914</v>
+        <v>0.4031782150268555</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544358849525452</v>
+        <v>1.544396281242371</v>
       </c>
       <c r="C252" t="n">
-        <v>1.226792573928833</v>
+        <v>1.224225163459778</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3175662755966187</v>
+        <v>0.3201711177825928</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404535174369812</v>
+        <v>1.404546737670898</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9366857409477234</v>
+        <v>0.9344486594200134</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4678494334220886</v>
+        <v>0.470098078250885</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5281825661659241</v>
+        <v>0.5280322432518005</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.05096106603741646</v>
+        <v>-0.05207286030054092</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5791436433792114</v>
+        <v>0.5801051259040833</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7595980167388916</v>
+        <v>0.7594904899597168</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3215399384498596</v>
+        <v>0.3200037777423859</v>
       </c>
       <c r="D255" t="n">
-        <v>0.438058078289032</v>
+        <v>0.4394867122173309</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202468752861023</v>
+        <v>1.20244300365448</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9442029595375061</v>
+        <v>0.9419573545455933</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2582657933235168</v>
+        <v>0.2604856491088867</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181846380233765</v>
+        <v>1.181816816329956</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5229575037956238</v>
+        <v>0.5211918950080872</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6588888764381409</v>
+        <v>0.6606249213218689</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6775315999984741</v>
+        <v>0.6774088740348816</v>
       </c>
       <c r="C258" t="n">
-        <v>1.292506575584412</v>
+        <v>1.289864301681519</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6149749755859375</v>
+        <v>-0.612455427646637</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8817339539527893</v>
+        <v>0.8816489577293396</v>
       </c>
       <c r="C259" t="n">
-        <v>1.824591636657715</v>
+        <v>1.821343183517456</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9428576827049255</v>
+        <v>-0.9396942257881165</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.170005679130554</v>
+        <v>1.169974088668823</v>
       </c>
       <c r="C260" t="n">
-        <v>2.271419525146484</v>
+        <v>2.267661809921265</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.10141384601593</v>
+        <v>-1.097687721252441</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297130823135376</v>
+        <v>1.297122597694397</v>
       </c>
       <c r="C261" t="n">
-        <v>1.916072845458984</v>
+        <v>1.912720084190369</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6189420223236084</v>
+        <v>-0.6155974864959717</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507963061332703</v>
+        <v>1.507993817329407</v>
       </c>
       <c r="C262" t="n">
-        <v>1.444306492805481</v>
+        <v>1.44149112701416</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06365656852722168</v>
+        <v>0.06650269031524658</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188237428665161</v>
+        <v>1.188209176063538</v>
       </c>
       <c r="C263" t="n">
-        <v>2.199960708618164</v>
+        <v>2.196284532546997</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.011723279953003</v>
+        <v>-1.008075356483459</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166385412216187</v>
+        <v>1.166353106498718</v>
       </c>
       <c r="C264" t="n">
-        <v>1.766493558883667</v>
+        <v>1.763311147689819</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.6001081466674805</v>
+        <v>-0.5969580411911011</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328652381896973</v>
+        <v>1.328649878501892</v>
       </c>
       <c r="C265" t="n">
-        <v>1.755400776863098</v>
+        <v>1.752231121063232</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4267483949661255</v>
+        <v>-0.4235812425613403</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683521270751953</v>
+        <v>1.683584451675415</v>
       </c>
       <c r="C266" t="n">
-        <v>2.318823337554932</v>
+        <v>2.315011739730835</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6353020668029785</v>
+        <v>-0.6314272880554199</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9156497120857239</v>
+        <v>0.9155709743499756</v>
       </c>
       <c r="C267" t="n">
-        <v>1.713592290878296</v>
+        <v>1.710470080375671</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.797942578792572</v>
+        <v>-0.7948991060256958</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088941335678101</v>
+        <v>1.088894724845886</v>
       </c>
       <c r="C268" t="n">
-        <v>1.324149966239929</v>
+        <v>1.321471571922302</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2352086305618286</v>
+        <v>-0.232576847076416</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163282155990601</v>
+        <v>1.163249254226685</v>
       </c>
       <c r="C269" t="n">
-        <v>1.972356915473938</v>
+        <v>1.968939900398254</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8090747594833374</v>
+        <v>-0.8056906461715698</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002126336097717</v>
+        <v>1.002063632011414</v>
       </c>
       <c r="C270" t="n">
-        <v>2.174612998962402</v>
+        <v>2.170965671539307</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.172486662864685</v>
+        <v>-1.168902039527893</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9325279593467712</v>
+        <v>0.932452380657196</v>
       </c>
       <c r="C271" t="n">
-        <v>2.429511547088623</v>
+        <v>2.425574064254761</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.496983528137207</v>
+        <v>-1.49312162399292</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1152136325836182</v>
+        <v>0.1149869710206985</v>
       </c>
       <c r="C272" t="n">
-        <v>2.453184127807617</v>
+        <v>2.449219226837158</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.337970495223999</v>
+        <v>-2.334232330322266</v>
       </c>
     </row>
     <row r="273">
@@ -4261,13 +4261,27 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4006450176239014</v>
+        <v>0.4004711210727692</v>
       </c>
       <c r="C273" t="n">
-        <v>2.720359563827515</v>
+        <v>2.716090679168701</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.319714546203613</v>
+        <v>-2.315619468688965</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.5017277598381042</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2.36777138710022</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-1.866043567657471</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8131808042526245</v>
+        <v>0.8132091164588928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7908072471618652</v>
+        <v>0.7893972396850586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02237355709075928</v>
+        <v>0.02381187677383423</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8399035334587097</v>
+        <v>0.8399378061294556</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2579757571220398</v>
+        <v>-0.2587396800518036</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09787929058075</v>
+        <v>1.098677515983582</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9162207245826721</v>
+        <v>0.916271984577179</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7656465172767639</v>
+        <v>-0.7660976648330688</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681867241859436</v>
+        <v>1.682369709014893</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4914653897285461</v>
+        <v>0.4914219379425049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09051690250635147</v>
+        <v>0.08953828364610672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4009484946727753</v>
+        <v>0.4018836617469788</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7167405486106873</v>
+        <v>0.7167473435401917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01953595317900181</v>
+        <v>0.0186010617762804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.69720458984375</v>
+        <v>0.6981462836265564</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08069099485874176</v>
+        <v>0.08055590093135834</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1434725224971771</v>
+        <v>-0.1443070024251938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2241635173559189</v>
+        <v>0.2248629033565521</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6719435453414917</v>
+        <v>0.6719404458999634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4524586796760559</v>
+        <v>0.4512570798397064</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2194848656654358</v>
+        <v>0.220683366060257</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041132211685181</v>
+        <v>1.041211366653442</v>
       </c>
       <c r="C9" t="n">
-        <v>1.167214870452881</v>
+        <v>1.165573000907898</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1260826587677002</v>
+        <v>-0.1243616342544556</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414601564407349</v>
+        <v>1.414764046669006</v>
       </c>
       <c r="C10" t="n">
-        <v>1.132149934768677</v>
+        <v>1.130529642105103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2824516296386719</v>
+        <v>0.2842344045639038</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9746450781822205</v>
+        <v>0.9747093915939331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9710974097251892</v>
+        <v>0.9695762991905212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00354766845703125</v>
+        <v>0.005133092403411865</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057360649108887</v>
+        <v>1.057443499565125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8102486729621887</v>
+        <v>0.8088266253471375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247111976146698</v>
+        <v>0.2486168742179871</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7387105822563171</v>
+        <v>0.7387223243713379</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3212860226631165</v>
+        <v>0.32016521692276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4174245595932007</v>
+        <v>0.4185571074485779</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2453508526086807</v>
+        <v>0.2452524900436401</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04812086001038551</v>
+        <v>-0.04901407286524773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2934717237949371</v>
+        <v>0.294266551733017</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5106735229492188</v>
+        <v>0.5106343626976013</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3863004744052887</v>
+        <v>-0.3869853615760803</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8969739675521851</v>
+        <v>0.8976197242736816</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184468984603882</v>
+        <v>1.184579968452454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2482585906982422</v>
+        <v>0.2471827864646912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9362103939056396</v>
+        <v>0.9373971819877625</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023184776306152</v>
+        <v>1.023259997367859</v>
       </c>
       <c r="C17" t="n">
-        <v>1.056967735290527</v>
+        <v>1.055393695831299</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.033782958984375</v>
+        <v>-0.03213369846343994</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103379964828491</v>
+        <v>1.103472948074341</v>
       </c>
       <c r="C18" t="n">
-        <v>1.851080775260925</v>
+        <v>1.849017381668091</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7477008104324341</v>
+        <v>-0.74554443359375</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034627079963684</v>
+        <v>1.034704804420471</v>
       </c>
       <c r="C19" t="n">
-        <v>1.181055068969727</v>
+        <v>1.179404616355896</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1464279890060425</v>
+        <v>-0.1446998119354248</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4149185121059418</v>
+        <v>0.4148579835891724</v>
       </c>
       <c r="C20" t="n">
-        <v>2.002084493637085</v>
+        <v>1.999928116798401</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.587165951728821</v>
+        <v>-1.585070133209229</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7235031127929688</v>
+        <v>0.7235113978385925</v>
       </c>
       <c r="C21" t="n">
-        <v>1.380212306976318</v>
+        <v>1.37843918800354</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6567091941833496</v>
+        <v>-0.6549277901649475</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7116550803184509</v>
+        <v>0.7116607427597046</v>
       </c>
       <c r="C22" t="n">
-        <v>1.497300982475281</v>
+        <v>1.495455861091614</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7856459021568298</v>
+        <v>-0.7837951183319092</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3974360823631287</v>
+        <v>0.3973716497421265</v>
       </c>
       <c r="C23" t="n">
-        <v>1.323688387870789</v>
+        <v>1.321950197219849</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9262523055076599</v>
+        <v>-0.9245785474777222</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6765041351318359</v>
+        <v>0.676501989364624</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8455213308334351</v>
+        <v>0.8440775871276855</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1690171957015991</v>
+        <v>-0.1675755977630615</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105084300041199</v>
+        <v>1.105177640914917</v>
       </c>
       <c r="C25" t="n">
-        <v>1.007540464401245</v>
+        <v>1.005996823310852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09754383563995361</v>
+        <v>0.09918081760406494</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8964311480522156</v>
+        <v>0.896477997303009</v>
       </c>
       <c r="C26" t="n">
-        <v>1.527970790863037</v>
+        <v>1.526106715202332</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6315396428108215</v>
+        <v>-0.6296287178993225</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145083069801331</v>
+        <v>1.145185470581055</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7373530268669128</v>
+        <v>0.7359759211540222</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4077300429344177</v>
+        <v>0.4092095494270325</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.176942110061646</v>
+        <v>1.177051544189453</v>
       </c>
       <c r="C28" t="n">
-        <v>1.979090690612793</v>
+        <v>1.976948499679565</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8021485805511475</v>
+        <v>-0.7998969554901123</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9122779965400696</v>
+        <v>0.9123284220695496</v>
       </c>
       <c r="C29" t="n">
-        <v>1.832485795021057</v>
+        <v>1.830434203147888</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9202077984809875</v>
+        <v>-0.9181057810783386</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4931564033031464</v>
+        <v>0.4931133091449738</v>
       </c>
       <c r="C30" t="n">
-        <v>1.605865836143494</v>
+        <v>1.603953719139099</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.112709403038025</v>
+        <v>-1.110840439796448</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7592238187789917</v>
+        <v>0.7592400908470154</v>
       </c>
       <c r="C31" t="n">
-        <v>1.229053139686584</v>
+        <v>1.227373123168945</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4698293209075928</v>
+        <v>-0.4681330323219299</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8580636382102966</v>
+        <v>0.8581019639968872</v>
       </c>
       <c r="C32" t="n">
-        <v>1.389195084571838</v>
+        <v>1.387416362762451</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5311314463615417</v>
+        <v>-0.529314398765564</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7006770372390747</v>
+        <v>0.7006802558898926</v>
       </c>
       <c r="C33" t="n">
-        <v>1.323894858360291</v>
+        <v>1.322156429290771</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6232178211212158</v>
+        <v>-0.6214761734008789</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006347417831421</v>
+        <v>2.006641864776611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5297850370407104</v>
+        <v>0.528535783290863</v>
       </c>
       <c r="D34" t="n">
-        <v>1.47656238079071</v>
+        <v>1.478106021881104</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464074850082397</v>
+        <v>1.464248299598694</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1119346097111702</v>
+        <v>-0.112788513302803</v>
       </c>
       <c r="D35" t="n">
-        <v>1.576009511947632</v>
+        <v>1.57703685760498</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.210969209671021</v>
+        <v>1.211086273193359</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5207239389419556</v>
+        <v>0.519480288028717</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6902452707290649</v>
+        <v>0.6916059851646423</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.494007110595703</v>
+        <v>1.494187235832214</v>
       </c>
       <c r="C37" t="n">
-        <v>2.027200222015381</v>
+        <v>2.025028705596924</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5331931114196777</v>
+        <v>-0.5308414697647095</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.330966949462891</v>
+        <v>1.331110715866089</v>
       </c>
       <c r="C38" t="n">
-        <v>2.148350715637207</v>
+        <v>2.146104335784912</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8173837661743164</v>
+        <v>-0.8149936199188232</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969658136367798</v>
+        <v>1.969944477081299</v>
       </c>
       <c r="C39" t="n">
-        <v>1.638236880302429</v>
+        <v>1.63630485534668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3314212560653687</v>
+        <v>0.3336396217346191</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744546890258789</v>
+        <v>1.7447829246521</v>
       </c>
       <c r="C40" t="n">
-        <v>1.105369091033936</v>
+        <v>1.103765249252319</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6391777992248535</v>
+        <v>0.6410176753997803</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821115851402283</v>
+        <v>1.821368932723999</v>
       </c>
       <c r="C41" t="n">
-        <v>1.641705393791199</v>
+        <v>1.639771342277527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179410457611084</v>
+        <v>0.1815975904464722</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755460143089294</v>
+        <v>1.755698561668396</v>
       </c>
       <c r="C42" t="n">
-        <v>1.178642272949219</v>
+        <v>1.176993131637573</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5768178701400757</v>
+        <v>0.5787054300308228</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602887988090515</v>
+        <v>1.603092432022095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7041434049606323</v>
+        <v>0.7027867436408997</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8987445831298828</v>
+        <v>0.9003056883811951</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163887858390808</v>
+        <v>1.163994431495667</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4721950590610504</v>
+        <v>0.4709812998771667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6916928291320801</v>
+        <v>0.6930131316184998</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.086992144584656</v>
+        <v>1.087081432342529</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03619062528014183</v>
+        <v>0.03524547442793846</v>
       </c>
       <c r="D45" t="n">
-        <v>1.050801515579224</v>
+        <v>1.051836013793945</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349172234535217</v>
+        <v>1.34932005405426</v>
       </c>
       <c r="C46" t="n">
-        <v>1.111926317214966</v>
+        <v>1.110318422317505</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2372459173202515</v>
+        <v>0.2390016317367554</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9911817908287048</v>
+        <v>0.9912497997283936</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8812177181243896</v>
+        <v>0.879751980304718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1099640727043152</v>
+        <v>0.1114978194236755</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6580093502998352</v>
+        <v>0.6580030918121338</v>
       </c>
       <c r="C48" t="n">
-        <v>1.000214219093323</v>
+        <v>0.9986751675605774</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3422048687934875</v>
+        <v>-0.3406720757484436</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.714000403881073</v>
+        <v>0.7140065431594849</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3687122464179993</v>
+        <v>0.3675622344017029</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3452881574630737</v>
+        <v>0.346444308757782</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381580829620361</v>
+        <v>1.381736040115356</v>
       </c>
       <c r="C50" t="n">
-        <v>1.378082513809204</v>
+        <v>1.3763108253479</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003498315811157227</v>
+        <v>0.005425214767456055</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.342853665351868</v>
+        <v>1.343000173568726</v>
       </c>
       <c r="C51" t="n">
-        <v>1.237878799438477</v>
+        <v>1.236193180084229</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1049748659133911</v>
+        <v>0.1068069934844971</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021894454956055</v>
+        <v>1.021969318389893</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6098273992538452</v>
+        <v>0.6085289120674133</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4120670557022095</v>
+        <v>0.4134404063224792</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144402742385864</v>
+        <v>1.144505023956299</v>
       </c>
       <c r="C53" t="n">
-        <v>1.128096103668213</v>
+        <v>1.126478314399719</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01630663871765137</v>
+        <v>0.01802670955657959</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1836878061294556</v>
+        <v>-0.183881863951683</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8776800632476807</v>
+        <v>0.8762165307998657</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.061367869377136</v>
+        <v>-1.06009840965271</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05646773055195808</v>
+        <v>-0.05663342028856277</v>
       </c>
       <c r="C55" t="n">
-        <v>0.802578330039978</v>
+        <v>0.8011610507965088</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8590460419654846</v>
+        <v>-0.857794463634491</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1688964366912842</v>
+        <v>0.1687810271978378</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7467110157012939</v>
+        <v>0.7453281879425049</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5778145790100098</v>
+        <v>-0.5765471458435059</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144840002059937</v>
+        <v>1.144942283630371</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8403801918029785</v>
+        <v>0.8389396071434021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.304459810256958</v>
+        <v>0.306002676486969</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.2540043592453</v>
+        <v>1.254130959510803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6534836292266846</v>
+        <v>0.6521582007408142</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6005207300186157</v>
+        <v>0.601972758769989</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243761539459229</v>
+        <v>1.24388575553894</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6898267269134521</v>
+        <v>0.6884788870811462</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5539348125457764</v>
+        <v>0.5554068684577942</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063616752624512</v>
+        <v>1.063701033592224</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9271294474601746</v>
+        <v>0.9256353974342346</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1364873051643372</v>
+        <v>0.1380656361579895</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008862614631653</v>
+        <v>1.008934617042542</v>
       </c>
       <c r="C61" t="n">
-        <v>1.154268383979797</v>
+        <v>1.152634382247925</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1454057693481445</v>
+        <v>-0.1436997652053833</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8699160814285278</v>
+        <v>0.8699570298194885</v>
       </c>
       <c r="C62" t="n">
-        <v>1.468242764472961</v>
+        <v>1.466415405273438</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5983266830444336</v>
+        <v>-0.596458375453949</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9206775426864624</v>
+        <v>0.9207298159599304</v>
       </c>
       <c r="C63" t="n">
-        <v>2.645103454589844</v>
+        <v>2.642551183700562</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.724425911903381</v>
+        <v>-1.721821308135986</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.15900993347168</v>
+        <v>1.159115433692932</v>
       </c>
       <c r="C64" t="n">
-        <v>2.573777675628662</v>
+        <v>2.571269512176514</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.414767742156982</v>
+        <v>-1.412154078483582</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356765747070312</v>
+        <v>1.356915235519409</v>
       </c>
       <c r="C65" t="n">
-        <v>1.052563905715942</v>
+        <v>1.050992608070374</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3042018413543701</v>
+        <v>0.3059226274490356</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529193639755249</v>
+        <v>1.529381632804871</v>
       </c>
       <c r="C66" t="n">
-        <v>1.237226605415344</v>
+        <v>1.235541343688965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2919670343399048</v>
+        <v>0.2938402891159058</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363508820533752</v>
+        <v>1.363659858703613</v>
       </c>
       <c r="C67" t="n">
-        <v>1.640785813331604</v>
+        <v>1.638852119445801</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2772769927978516</v>
+        <v>-0.2751922607421875</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6024588942527771</v>
+        <v>0.6024401783943176</v>
       </c>
       <c r="C68" t="n">
-        <v>1.697165846824646</v>
+        <v>1.695197463035583</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.094707012176514</v>
+        <v>-1.092757225036621</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9859413504600525</v>
+        <v>0.9860082268714905</v>
       </c>
       <c r="C69" t="n">
-        <v>1.748332858085632</v>
+        <v>1.746332883834839</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7623915076255798</v>
+        <v>-0.7603246569633484</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8861405253410339</v>
+        <v>0.8861850500106812</v>
       </c>
       <c r="C70" t="n">
-        <v>1.984530925750732</v>
+        <v>1.982385635375977</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.098390340805054</v>
+        <v>-1.096200585365295</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7925116419792175</v>
+        <v>0.7925353050231934</v>
       </c>
       <c r="C71" t="n">
-        <v>1.758808135986328</v>
+        <v>1.756801605224609</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9662964940071106</v>
+        <v>-0.964266300201416</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5023744106292725</v>
+        <v>0.502333402633667</v>
       </c>
       <c r="C72" t="n">
-        <v>1.632523894309998</v>
+        <v>1.630595326423645</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.130149483680725</v>
+        <v>-1.128261923789978</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3506646454334259</v>
+        <v>0.350589781999588</v>
       </c>
       <c r="C73" t="n">
-        <v>1.236366629600525</v>
+        <v>1.234682083129883</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8857020139694214</v>
+        <v>-0.8840923309326172</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4384475350379944</v>
+        <v>0.4383922517299652</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5652780532836914</v>
+        <v>0.5640069842338562</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.126830518245697</v>
+        <v>-0.125614732503891</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.490551084280014</v>
+        <v>0.4905074238777161</v>
       </c>
       <c r="C75" t="n">
-        <v>1.90688955783844</v>
+        <v>1.904792070388794</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.416338443756104</v>
+        <v>-1.414284706115723</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8042030930519104</v>
+        <v>0.8042294383049011</v>
       </c>
       <c r="C76" t="n">
-        <v>1.221233248710632</v>
+        <v>1.219557881355286</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4170301556587219</v>
+        <v>-0.4153284430503845</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.748628556728363</v>
+        <v>0.7486424446105957</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8245853781700134</v>
+        <v>0.8231545090675354</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07595682144165039</v>
+        <v>-0.0745120644569397</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075386524200439</v>
+        <v>1.075473427772522</v>
       </c>
       <c r="C78" t="n">
-        <v>1.500569581985474</v>
+        <v>1.498722314834595</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4251830577850342</v>
+        <v>-0.4232488870620728</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.849331259727478</v>
+        <v>0.8493676781654358</v>
       </c>
       <c r="C79" t="n">
-        <v>1.269759058952332</v>
+        <v>1.268053770065308</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4204277992248535</v>
+        <v>-0.4186860918998718</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9273079633712769</v>
+        <v>0.9273617267608643</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5259264707565308</v>
+        <v>0.5246796011924744</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4013814926147461</v>
+        <v>0.4026821255683899</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514196872711182</v>
+        <v>1.514381527900696</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6705843210220337</v>
+        <v>0.6692483425140381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8436125516891479</v>
+        <v>0.8451331853866577</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290840625762939</v>
+        <v>1.290975332260132</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6680351495742798</v>
+        <v>-0.6685464978218079</v>
       </c>
       <c r="D82" t="n">
-        <v>1.958875775337219</v>
+        <v>1.959521770477295</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584196209907532</v>
+        <v>1.584396481513977</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8346529006958008</v>
+        <v>-0.8350615501403809</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418848991394043</v>
+        <v>2.419457912445068</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824651956558228</v>
+        <v>1.824905872344971</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1727100908756256</v>
+        <v>-0.1735265403985977</v>
       </c>
       <c r="D84" t="n">
-        <v>1.997362017631531</v>
+        <v>1.998432397842407</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83750581741333</v>
+        <v>1.837762594223022</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9580737352371216</v>
+        <v>0.9565606117248535</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8794320821762085</v>
+        <v>0.8812019824981689</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687121272087097</v>
+        <v>1.687344670295715</v>
       </c>
       <c r="C86" t="n">
-        <v>1.236666798591614</v>
+        <v>1.234982013702393</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4504544734954834</v>
+        <v>0.4523626565933228</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547128677368164</v>
+        <v>1.54732084274292</v>
       </c>
       <c r="C87" t="n">
-        <v>1.938286542892456</v>
+        <v>1.936169743537903</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.391157865524292</v>
+        <v>-0.3888489007949829</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359010815620422</v>
+        <v>1.359160900115967</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8790266513824463</v>
+        <v>0.8775622844696045</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4799841642379761</v>
+        <v>0.4815986156463623</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404386758804321</v>
+        <v>1.404546976089478</v>
       </c>
       <c r="C89" t="n">
-        <v>1.035105347633362</v>
+        <v>1.033544898033142</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3692814111709595</v>
+        <v>0.3710020780563354</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746609807014465</v>
+        <v>1.746846318244934</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8052628040313721</v>
+        <v>0.8038438558578491</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9413470029830933</v>
+        <v>0.943002462387085</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.89228630065918</v>
+        <v>1.892555356025696</v>
       </c>
       <c r="C91" t="n">
-        <v>1.174691319465637</v>
+        <v>1.173044800758362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7175949811935425</v>
+        <v>0.719510555267334</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563662171363831</v>
+        <v>1.563857793807983</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8654905557632446</v>
+        <v>0.8640345335006714</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6981716156005859</v>
+        <v>0.699823260307312</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709441423416138</v>
+        <v>1.709669589996338</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7134345769882202</v>
+        <v>0.7120721936225891</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9960068464279175</v>
+        <v>0.9975973963737488</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430970191955566</v>
+        <v>1.431136250495911</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2212503999471664</v>
+        <v>0.2201912403106689</v>
       </c>
       <c r="D94" t="n">
-        <v>1.209719777107239</v>
+        <v>1.210945010185242</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083249449729919</v>
+        <v>1.083337903022766</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5226730108261108</v>
+        <v>0.521428108215332</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5605764389038086</v>
+        <v>0.5619097948074341</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6685608625411987</v>
+        <v>0.6685569286346436</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7254436612129211</v>
+        <v>0.7240738868713379</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05688279867172241</v>
+        <v>-0.05551695823669434</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.604003369808197</v>
+        <v>0.6039850115776062</v>
       </c>
       <c r="C97" t="n">
-        <v>1.044742584228516</v>
+        <v>1.043176054954529</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4407392144203186</v>
+        <v>-0.4391910433769226</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.003920435905457</v>
+        <v>1.00399124622345</v>
       </c>
       <c r="C98" t="n">
-        <v>0.970134973526001</v>
+        <v>0.9686144590377808</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03378546237945557</v>
+        <v>0.03537678718566895</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2791200578212738</v>
+        <v>0.2790292501449585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1101956069469452</v>
+        <v>0.1092048585414886</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1689244508743286</v>
+        <v>0.1698243916034698</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05754629150032997</v>
+        <v>-0.05771221965551376</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3500449657440186</v>
+        <v>-0.3507521748542786</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2924986779689789</v>
+        <v>0.2930399477481842</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2316791415214539</v>
+        <v>-0.2318839132785797</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3265306949615479</v>
+        <v>0.3254066705703735</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5582098364830017</v>
+        <v>-0.5572905540466309</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2109897434711456</v>
+        <v>0.2108837217092514</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2724314332008362</v>
+        <v>-0.2731864750385284</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4834211766719818</v>
+        <v>0.4840701818466187</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7510781288146973</v>
+        <v>0.7510925531387329</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4455464780330658</v>
+        <v>-0.4461948573589325</v>
       </c>
       <c r="D103" t="n">
-        <v>1.196624636650085</v>
+        <v>1.197287440299988</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001480937004089</v>
+        <v>1.001551270484924</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7036973237991333</v>
+        <v>-0.7041866183280945</v>
       </c>
       <c r="D104" t="n">
-        <v>1.705178260803223</v>
+        <v>1.705737829208374</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068339467048645</v>
+        <v>1.068424701690674</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04593879729509354</v>
+        <v>-0.04683335497975349</v>
       </c>
       <c r="D105" t="n">
-        <v>1.114278316497803</v>
+        <v>1.115258097648621</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.173058748245239</v>
+        <v>1.17316734790802</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6472261548042297</v>
+        <v>0.645904541015625</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5258325934410095</v>
+        <v>0.527262806892395</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081461071968079</v>
+        <v>1.081549048423767</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4722636640071869</v>
+        <v>0.4710498750209808</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6091973781585693</v>
+        <v>0.6104991436004639</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8388441205024719</v>
+        <v>0.8388781547546387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8612143397331238</v>
+        <v>0.8597609400749207</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02237021923065186</v>
+        <v>-0.02088278532028198</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5667897462844849</v>
+        <v>0.5667631030082703</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9621515274047852</v>
+        <v>0.9606359601020813</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3953617811203003</v>
+        <v>-0.393872857093811</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8342280983924866</v>
+        <v>0.8342611193656921</v>
       </c>
       <c r="C110" t="n">
-        <v>1.004768490791321</v>
+        <v>1.003226637840271</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1705403923988342</v>
+        <v>-0.1689655184745789</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.192912936210632</v>
+        <v>1.193025946617126</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4746603071689606</v>
+        <v>0.4734450280666351</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7182526588439941</v>
+        <v>0.7195808887481689</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701295256614685</v>
+        <v>1.701521635055542</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8086749911308289</v>
+        <v>0.8072539567947388</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8926202654838562</v>
+        <v>0.8942676782608032</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044471144676208</v>
+        <v>1.044551014900208</v>
       </c>
       <c r="C113" t="n">
-        <v>1.116099715232849</v>
+        <v>1.114489197731018</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07162857055664062</v>
+        <v>-0.06993818283081055</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458610773086548</v>
+        <v>1.458783030509949</v>
       </c>
       <c r="C114" t="n">
-        <v>1.716325879096985</v>
+        <v>1.714345812797546</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.257715106010437</v>
+        <v>-0.2555627822875977</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997756361961365</v>
+        <v>1.998048782348633</v>
       </c>
       <c r="C115" t="n">
-        <v>1.973388195037842</v>
+        <v>1.971249461174011</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02436816692352295</v>
+        <v>0.02679932117462158</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.310942411422729</v>
+        <v>1.311081886291504</v>
       </c>
       <c r="C116" t="n">
-        <v>2.468762397766113</v>
+        <v>2.466318607330322</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.157819986343384</v>
+        <v>-1.155236721038818</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697885751724243</v>
+        <v>1.698111414909363</v>
       </c>
       <c r="C117" t="n">
-        <v>2.195991277694702</v>
+        <v>2.193715572357178</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.498105525970459</v>
+        <v>-0.4956041574478149</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721400618553162</v>
+        <v>1.721631526947021</v>
       </c>
       <c r="C118" t="n">
-        <v>1.6293044090271</v>
+        <v>1.627377867698669</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09209620952606201</v>
+        <v>0.09425365924835205</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.927798628807068</v>
+        <v>1.928075551986694</v>
       </c>
       <c r="C119" t="n">
-        <v>1.700196146965027</v>
+        <v>1.698225855827332</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227602481842041</v>
+        <v>0.2298496961593628</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.37967836856842</v>
+        <v>1.379832983016968</v>
       </c>
       <c r="C120" t="n">
-        <v>1.683146595954895</v>
+        <v>1.681187033653259</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3034682273864746</v>
+        <v>-0.3013540506362915</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997695326805115</v>
+        <v>1.997987747192383</v>
       </c>
       <c r="C121" t="n">
-        <v>1.689092755317688</v>
+        <v>1.687129497528076</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3086025714874268</v>
+        <v>0.3108582496643066</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.046888113021851</v>
+        <v>2.047191619873047</v>
       </c>
       <c r="C122" t="n">
-        <v>1.248227953910828</v>
+        <v>1.246536254882812</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7986601591110229</v>
+        <v>0.8006553649902344</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351179838180542</v>
+        <v>2.351551294326782</v>
       </c>
       <c r="C123" t="n">
-        <v>2.143155574798584</v>
+        <v>2.140912532806396</v>
       </c>
       <c r="D123" t="n">
-        <v>0.208024263381958</v>
+        <v>0.2106387615203857</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.453072547912598</v>
+        <v>2.453466415405273</v>
       </c>
       <c r="C124" t="n">
-        <v>1.815103888511658</v>
+        <v>1.813063025474548</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6379686594009399</v>
+        <v>0.6404033899307251</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421231508255005</v>
+        <v>2.421618461608887</v>
       </c>
       <c r="C125" t="n">
-        <v>1.624210953712463</v>
+        <v>1.622287631034851</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7970205545425415</v>
+        <v>0.7993308305740356</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778295993804932</v>
+        <v>1.778539657592773</v>
       </c>
       <c r="C126" t="n">
-        <v>2.245186328887939</v>
+        <v>2.242880344390869</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4668903350830078</v>
+        <v>-0.4643406867980957</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786236524581909</v>
+        <v>1.786481857299805</v>
       </c>
       <c r="C127" t="n">
-        <v>2.115790128707886</v>
+        <v>2.113564014434814</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3295536041259766</v>
+        <v>-0.3270821571350098</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.485004663467407</v>
+        <v>1.485183000564575</v>
       </c>
       <c r="C128" t="n">
-        <v>1.942306399345398</v>
+        <v>1.940187096595764</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4573017358779907</v>
+        <v>-0.455004096031189</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172414183616638</v>
+        <v>1.17252254486084</v>
       </c>
       <c r="C129" t="n">
-        <v>1.773825287818909</v>
+        <v>1.771809816360474</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6014111042022705</v>
+        <v>-0.5992872714996338</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8092708587646484</v>
+        <v>0.8092982769012451</v>
       </c>
       <c r="C130" t="n">
-        <v>2.932058334350586</v>
+        <v>2.92932915687561</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.122787475585938</v>
+        <v>-2.120030879974365</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3930558264255524</v>
+        <v>0.3929904103279114</v>
       </c>
       <c r="C131" t="n">
-        <v>2.166813611984253</v>
+        <v>2.164555788040161</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.773757815361023</v>
+        <v>-1.771565437316895</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05711676552891731</v>
+        <v>-0.05728260055184364</v>
       </c>
       <c r="C132" t="n">
-        <v>1.825157046318054</v>
+        <v>1.823109865188599</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.88227379322052</v>
+        <v>-1.88039243221283</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09364533424377441</v>
+        <v>0.0935131311416626</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8140801191329956</v>
+        <v>0.8126557469367981</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7204347848892212</v>
+        <v>-0.7191426157951355</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1559596508741379</v>
+        <v>0.1558413505554199</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1693977564573288</v>
+        <v>0.1683705300092697</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01343810558319092</v>
+        <v>-0.01252917945384979</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3809092938899994</v>
+        <v>0.3808411657810211</v>
       </c>
       <c r="C135" t="n">
-        <v>0.356831967830658</v>
+        <v>0.3556892871856689</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02407732605934143</v>
+        <v>0.02515187859535217</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7311677932739258</v>
+        <v>0.7311777472496033</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2004714459180832</v>
+        <v>0.1994250863790512</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5306963324546814</v>
+        <v>0.5317526459693909</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6018388867378235</v>
+        <v>0.6018200516700745</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5059194564819336</v>
+        <v>0.5046849846839905</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09591943025588989</v>
+        <v>0.09713506698608398</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8435481190681458</v>
+        <v>0.8435832262039185</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9713626503944397</v>
+        <v>0.9698414206504822</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1278145313262939</v>
+        <v>-0.1262581944465637</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.30374276638031</v>
+        <v>1.303880453109741</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03501033782959</v>
+        <v>1.033449769020081</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2687324285507202</v>
+        <v>0.2704306840896606</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260528802871704</v>
+        <v>1.260656952857971</v>
       </c>
       <c r="C140" t="n">
-        <v>1.273514151573181</v>
+        <v>1.271806836128235</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01298534870147705</v>
+        <v>-0.01114988327026367</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491078495979309</v>
+        <v>1.491258025169373</v>
       </c>
       <c r="C141" t="n">
-        <v>1.227926850318909</v>
+        <v>1.226247549057007</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2631516456604004</v>
+        <v>0.2650104761123657</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.40401554107666</v>
+        <v>1.404175639152527</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1939891427755356</v>
+        <v>0.1929467767477036</v>
       </c>
       <c r="D142" t="n">
-        <v>1.210026383399963</v>
+        <v>1.211228847503662</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.764199018478394</v>
+        <v>1.764439582824707</v>
       </c>
       <c r="C143" t="n">
-        <v>0.281576544046402</v>
+        <v>0.2804802358150482</v>
       </c>
       <c r="D143" t="n">
-        <v>1.482622504234314</v>
+        <v>1.483959317207336</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603896975517273</v>
+        <v>1.604101657867432</v>
       </c>
       <c r="C144" t="n">
-        <v>1.282919406890869</v>
+        <v>1.281206250190735</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3209775686264038</v>
+        <v>0.3228954076766968</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711174964904785</v>
+        <v>1.711403489112854</v>
       </c>
       <c r="C145" t="n">
-        <v>1.471845507621765</v>
+        <v>1.47001576423645</v>
       </c>
       <c r="D145" t="n">
-        <v>0.23932945728302</v>
+        <v>0.2413877248764038</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152434587478638</v>
+        <v>1.152538537979126</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9001108407974243</v>
+        <v>0.8986334800720215</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2523237466812134</v>
+        <v>0.2539050579071045</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7277018427848816</v>
+        <v>0.7277110815048218</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8487991094589233</v>
+        <v>0.8473533391952515</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1210972666740417</v>
+        <v>-0.1196422576904297</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.287780374288559</v>
+        <v>0.2876914739608765</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2234115749597549</v>
+        <v>-0.2241968065500259</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5111919641494751</v>
+        <v>0.5118882656097412</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6825311183929443</v>
+        <v>0.6825302839279175</v>
       </c>
       <c r="C149" t="n">
-        <v>1.563740849494934</v>
+        <v>1.561854600906372</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8812097311019897</v>
+        <v>-0.8793243169784546</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038637518882751</v>
+        <v>1.038716197013855</v>
       </c>
       <c r="C150" t="n">
-        <v>2.456366300582886</v>
+        <v>2.453930377960205</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.417728781700134</v>
+        <v>-1.41521418094635</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.328170299530029</v>
+        <v>1.32831346988678</v>
       </c>
       <c r="C151" t="n">
-        <v>1.285083413124084</v>
+        <v>1.283368825912476</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04308688640594482</v>
+        <v>0.0449446439743042</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361923336982727</v>
+        <v>1.362074136734009</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2943478226661682</v>
+        <v>0.2932436466217041</v>
       </c>
       <c r="D152" t="n">
-        <v>1.067575454711914</v>
+        <v>1.068830490112305</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.10998010635376</v>
+        <v>2.110297918319702</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1907773017883301</v>
+        <v>0.1897369176149368</v>
       </c>
       <c r="D153" t="n">
-        <v>1.91920280456543</v>
+        <v>1.920560956001282</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.996831297874451</v>
+        <v>1.997123599052429</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4590501189231873</v>
+        <v>0.4578444361686707</v>
       </c>
       <c r="D154" t="n">
-        <v>1.537781238555908</v>
+        <v>1.539279222488403</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.861840844154358</v>
+        <v>1.86210310459137</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7661441564559937</v>
+        <v>0.76474928855896</v>
       </c>
       <c r="D155" t="n">
-        <v>1.095696687698364</v>
+        <v>1.09735381603241</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609091401100159</v>
+        <v>1.609297394752502</v>
       </c>
       <c r="C156" t="n">
-        <v>1.359956383705139</v>
+        <v>1.358195662498474</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2491350173950195</v>
+        <v>0.2511017322540283</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912523746490479</v>
+        <v>1.912797331809998</v>
       </c>
       <c r="C157" t="n">
-        <v>1.734769821166992</v>
+        <v>1.732778072357178</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1777539253234863</v>
+        <v>0.1800192594528198</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529067873954773</v>
+        <v>1.529255867004395</v>
       </c>
       <c r="C158" t="n">
-        <v>1.463701725006104</v>
+        <v>1.461877226829529</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06536614894866943</v>
+        <v>0.06737864017486572</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363676786422729</v>
+        <v>1.36382782459259</v>
       </c>
       <c r="C159" t="n">
-        <v>1.632070183753967</v>
+        <v>1.630141973495483</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2683933973312378</v>
+        <v>-0.2663141489028931</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673197150230408</v>
+        <v>1.673417329788208</v>
       </c>
       <c r="C160" t="n">
-        <v>1.717278003692627</v>
+        <v>1.715297222137451</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04408085346221924</v>
+        <v>-0.04187989234924316</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.341963768005371</v>
+        <v>1.34211003780365</v>
       </c>
       <c r="C161" t="n">
-        <v>1.670428276062012</v>
+        <v>1.668476343154907</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3284645080566406</v>
+        <v>-0.3263663053512573</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5792237520217896</v>
+        <v>0.5791998505592346</v>
       </c>
       <c r="C162" t="n">
-        <v>1.790620565414429</v>
+        <v>1.788594722747803</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.211396813392639</v>
+        <v>-1.209394931793213</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3733609616756439</v>
+        <v>0.3732911646366119</v>
       </c>
       <c r="C163" t="n">
-        <v>1.278338074684143</v>
+        <v>1.276627659797668</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9049770832061768</v>
+        <v>-0.9033365249633789</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6715477108955383</v>
+        <v>0.6715444326400757</v>
       </c>
       <c r="C164" t="n">
-        <v>1.437250971794128</v>
+        <v>1.435442686080933</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7657032608985901</v>
+        <v>-0.7638982534408569</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8600122928619385</v>
+        <v>0.8600509762763977</v>
       </c>
       <c r="C165" t="n">
-        <v>1.107129096984863</v>
+        <v>1.105524182319641</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2471168041229248</v>
+        <v>-0.2454732060432434</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9996455311775208</v>
+        <v>0.9997154474258423</v>
       </c>
       <c r="C166" t="n">
-        <v>1.23821496963501</v>
+        <v>1.236529111862183</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.238569438457489</v>
+        <v>-0.2368136644363403</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623137235641479</v>
+        <v>1.623346209526062</v>
       </c>
       <c r="C167" t="n">
-        <v>1.597352862358093</v>
+        <v>1.595445990562439</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02578437328338623</v>
+        <v>0.02790021896362305</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952452182769775</v>
+        <v>1.952734708786011</v>
       </c>
       <c r="C168" t="n">
-        <v>1.871687054634094</v>
+        <v>1.869611263275146</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08076512813568115</v>
+        <v>0.08312344551086426</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178282976150513</v>
+        <v>1.178392887115479</v>
       </c>
       <c r="C169" t="n">
-        <v>1.564128041267395</v>
+        <v>1.562241554260254</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3858450651168823</v>
+        <v>-0.3838486671447754</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9839220643043518</v>
+        <v>0.9839884638786316</v>
       </c>
       <c r="C170" t="n">
-        <v>1.280005097389221</v>
+        <v>1.278293490409851</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2960830330848694</v>
+        <v>-0.2943050265312195</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.906882107257843</v>
+        <v>0.9069313406944275</v>
       </c>
       <c r="C171" t="n">
-        <v>1.033576965332031</v>
+        <v>1.032017350196838</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1266948580741882</v>
+        <v>-0.1250860095024109</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.02322244644165</v>
+        <v>1.023297548294067</v>
       </c>
       <c r="C172" t="n">
-        <v>1.871224164962769</v>
+        <v>1.869148373603821</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8480017185211182</v>
+        <v>-0.8458508253097534</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223730325698853</v>
+        <v>1.223850250244141</v>
       </c>
       <c r="C173" t="n">
-        <v>1.664842844009399</v>
+        <v>1.662894129753113</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4411125183105469</v>
+        <v>-0.4390438795089722</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655938863754272</v>
+        <v>1.656155109405518</v>
       </c>
       <c r="C174" t="n">
-        <v>1.861629009246826</v>
+        <v>1.859559416770935</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2056901454925537</v>
+        <v>-0.2034043073654175</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470059990882874</v>
+        <v>1.470234870910645</v>
       </c>
       <c r="C175" t="n">
-        <v>1.901715517044067</v>
+        <v>1.89962100982666</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4316555261611938</v>
+        <v>-0.4293861389160156</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092434763908386</v>
+        <v>1.092525362968445</v>
       </c>
       <c r="C176" t="n">
-        <v>1.936551809310913</v>
+        <v>1.934435725212097</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8441170454025269</v>
+        <v>-0.8419103622436523</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104219317436218</v>
+        <v>1.104312419891357</v>
       </c>
       <c r="C177" t="n">
-        <v>2.062150716781616</v>
+        <v>2.059957504272461</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9579313993453979</v>
+        <v>-0.9556450843811035</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334674477577209</v>
+        <v>1.334819197654724</v>
       </c>
       <c r="C178" t="n">
-        <v>1.968369126319885</v>
+        <v>1.966233730316162</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6336946487426758</v>
+        <v>-0.631414532661438</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896151661872864</v>
+        <v>1.896421551704407</v>
       </c>
       <c r="C179" t="n">
-        <v>1.445419907569885</v>
+        <v>1.443606615066528</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4507317543029785</v>
+        <v>0.4528149366378784</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870350122451782</v>
+        <v>1.870614171028137</v>
       </c>
       <c r="C180" t="n">
-        <v>1.502724289894104</v>
+        <v>1.50087583065033</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3676258325576782</v>
+        <v>0.3697383403778076</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434104681015015</v>
+        <v>1.434271454811096</v>
       </c>
       <c r="C181" t="n">
-        <v>1.824953317642212</v>
+        <v>1.822906255722046</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3908486366271973</v>
+        <v>-0.3886348009109497</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4870850145816803</v>
+        <v>0.4870405495166779</v>
       </c>
       <c r="C182" t="n">
-        <v>1.217925667762756</v>
+        <v>1.216252446174622</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7308406829833984</v>
+        <v>-0.7292119264602661</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8842970728874207</v>
+        <v>0.8843412399291992</v>
       </c>
       <c r="C183" t="n">
-        <v>1.49287736415863</v>
+        <v>1.491034984588623</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6085802912712097</v>
+        <v>-0.6066937446594238</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.55675995349884</v>
+        <v>1.556954026222229</v>
       </c>
       <c r="C184" t="n">
-        <v>1.769869208335876</v>
+        <v>1.767855882644653</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2131092548370361</v>
+        <v>-0.2109018564224243</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937651872634888</v>
+        <v>1.937930941581726</v>
       </c>
       <c r="C185" t="n">
-        <v>1.671033978462219</v>
+        <v>1.669081687927246</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2666178941726685</v>
+        <v>0.26884925365448</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966189622879028</v>
+        <v>1.966475009918213</v>
       </c>
       <c r="C186" t="n">
-        <v>1.618933320045471</v>
+        <v>1.617013096809387</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3472563028335571</v>
+        <v>0.3494619131088257</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065594673156738</v>
+        <v>2.065902471542358</v>
       </c>
       <c r="C187" t="n">
-        <v>1.473811745643616</v>
+        <v>1.471980929374695</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5917829275131226</v>
+        <v>0.5939215421676636</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351316928863525</v>
+        <v>2.351688146591187</v>
       </c>
       <c r="C188" t="n">
-        <v>1.510802149772644</v>
+        <v>1.508948445320129</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8405147790908813</v>
+        <v>0.8427397012710571</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.902259826660156</v>
+        <v>2.902754068374634</v>
       </c>
       <c r="C189" t="n">
-        <v>1.673038125038147</v>
+        <v>1.671084761619568</v>
       </c>
       <c r="D189" t="n">
-        <v>1.229221701622009</v>
+        <v>1.231669306755066</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.116804361343384</v>
+        <v>3.11734676361084</v>
       </c>
       <c r="C190" t="n">
-        <v>1.276432633399963</v>
+        <v>1.274723529815674</v>
       </c>
       <c r="D190" t="n">
-        <v>1.84037172794342</v>
+        <v>1.842623233795166</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.101783990859985</v>
+        <v>3.102322816848755</v>
       </c>
       <c r="C191" t="n">
-        <v>1.56604528427124</v>
+        <v>1.564157724380493</v>
       </c>
       <c r="D191" t="n">
-        <v>1.535738706588745</v>
+        <v>1.538165092468262</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.855282306671143</v>
+        <v>2.855766296386719</v>
       </c>
       <c r="C192" t="n">
-        <v>1.87430465221405</v>
+        <v>1.872227311134338</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9809776544570923</v>
+        <v>0.9835389852523804</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.929445266723633</v>
+        <v>2.929945468902588</v>
       </c>
       <c r="C193" t="n">
-        <v>2.9439857006073</v>
+        <v>2.941249132156372</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.01454043388366699</v>
+        <v>-0.01130366325378418</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.837609529495239</v>
+        <v>2.838089466094971</v>
       </c>
       <c r="C194" t="n">
-        <v>3.520873308181763</v>
+        <v>3.517781496047974</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6832637786865234</v>
+        <v>-0.6796920299530029</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.279947280883789</v>
+        <v>2.280302762985229</v>
       </c>
       <c r="C195" t="n">
-        <v>3.294856071472168</v>
+        <v>3.291903495788574</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.014908790588379</v>
+        <v>-1.011600732803345</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108024835586548</v>
+        <v>3.108565092086792</v>
       </c>
       <c r="C196" t="n">
-        <v>3.719810724258423</v>
+        <v>3.716596364974976</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.611785888671875</v>
+        <v>-0.6080312728881836</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.902266502380371</v>
+        <v>2.902760982513428</v>
       </c>
       <c r="C197" t="n">
-        <v>3.509078979492188</v>
+        <v>3.505994558334351</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6068124771118164</v>
+        <v>-0.6032335758209229</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.014947175979614</v>
+        <v>2.015243530273438</v>
       </c>
       <c r="C198" t="n">
-        <v>3.175073146820068</v>
+        <v>3.172194242477417</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.160125970840454</v>
+        <v>-1.156950712203979</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055494904518127</v>
+        <v>1.055577397346497</v>
       </c>
       <c r="C199" t="n">
-        <v>2.599352121353149</v>
+        <v>2.596827745437622</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.543857216835022</v>
+        <v>-1.541250348091125</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4208473861217499</v>
+        <v>0.4207881689071655</v>
       </c>
       <c r="C200" t="n">
-        <v>2.865026473999023</v>
+        <v>2.862338781356812</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.444179058074951</v>
+        <v>-2.441550731658936</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443536877632141</v>
+        <v>1.443705797195435</v>
       </c>
       <c r="C201" t="n">
-        <v>2.622977733612061</v>
+        <v>2.620439291000366</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.179440855979919</v>
+        <v>-1.176733493804932</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.06420373916626</v>
+        <v>1.064288020133972</v>
       </c>
       <c r="C202" t="n">
-        <v>2.727355718612671</v>
+        <v>2.72475266456604</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.663151979446411</v>
+        <v>-1.660464644432068</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092857122421265</v>
+        <v>1.092947840690613</v>
       </c>
       <c r="C203" t="n">
-        <v>2.475187063217163</v>
+        <v>2.472739219665527</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.382329940795898</v>
+        <v>-1.379791378974915</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300468325614929</v>
+        <v>1.300605177879333</v>
       </c>
       <c r="C204" t="n">
-        <v>2.109474420547485</v>
+        <v>2.107251882553101</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8090060949325562</v>
+        <v>-0.8066467046737671</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285678148269653</v>
+        <v>1.28581178188324</v>
       </c>
       <c r="C205" t="n">
-        <v>1.818396329879761</v>
+        <v>1.81635308265686</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5327181816101074</v>
+        <v>-0.5305413007736206</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046471357345581</v>
+        <v>1.046551823616028</v>
       </c>
       <c r="C206" t="n">
-        <v>1.089024305343628</v>
+        <v>1.087430596351624</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.04255294799804688</v>
+        <v>-0.0408787727355957</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203718900680542</v>
+        <v>1.203834295272827</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9473173022270203</v>
+        <v>0.945810854434967</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2564015984535217</v>
+        <v>0.2580234408378601</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.472900867462158</v>
+        <v>1.473076224327087</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7532272338867188</v>
+        <v>0.751840353012085</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7196736335754395</v>
+        <v>0.7212358713150024</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513273954391479</v>
+        <v>1.513458490371704</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5711503028869629</v>
+        <v>0.5698755979537964</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9421236515045166</v>
+        <v>0.9435828924179077</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865318059921265</v>
+        <v>1.865581035614014</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6721761226654053</v>
+        <v>0.6708391904830933</v>
       </c>
       <c r="D210" t="n">
-        <v>1.193141937255859</v>
+        <v>1.19474184513092</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612623929977417</v>
+        <v>1.612830638885498</v>
       </c>
       <c r="C211" t="n">
-        <v>0.83594810962677</v>
+        <v>0.8345102667808533</v>
       </c>
       <c r="D211" t="n">
-        <v>0.776675820350647</v>
+        <v>0.7783203721046448</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065683841705322</v>
+        <v>2.065991401672363</v>
       </c>
       <c r="C212" t="n">
-        <v>1.119961023330688</v>
+        <v>1.118348240852356</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9457228183746338</v>
+        <v>0.9476431608200073</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152038335800171</v>
+        <v>2.15236496925354</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5183269381523132</v>
+        <v>0.5170847773551941</v>
       </c>
       <c r="D213" t="n">
-        <v>1.633711338043213</v>
+        <v>1.635280132293701</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.910937428474426</v>
+        <v>1.911210656166077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.022627234458923</v>
+        <v>1.021074414253235</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8883101940155029</v>
+        <v>0.8901362419128418</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050413846969604</v>
+        <v>2.050718307495117</v>
       </c>
       <c r="C215" t="n">
-        <v>1.174861669540405</v>
+        <v>1.17321503162384</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8755521774291992</v>
+        <v>0.8775032758712769</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923816680908203</v>
+        <v>1.924092769622803</v>
       </c>
       <c r="C216" t="n">
-        <v>1.405881643295288</v>
+        <v>1.404092788696289</v>
       </c>
       <c r="D216" t="n">
-        <v>0.517935037612915</v>
+        <v>0.5199999809265137</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.00313675403595</v>
+        <v>1.003207445144653</v>
       </c>
       <c r="C217" t="n">
-        <v>1.208296895027161</v>
+        <v>1.206629753112793</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2051601409912109</v>
+        <v>-0.2034223079681396</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7116981148719788</v>
+        <v>0.7117037773132324</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5099391937255859</v>
+        <v>0.5087021589279175</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2017589211463928</v>
+        <v>0.2030016183853149</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493528366088867</v>
+        <v>1.493708372116089</v>
       </c>
       <c r="C219" t="n">
-        <v>0.497081458568573</v>
+        <v>0.4958523511886597</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9964469075202942</v>
+        <v>0.9978560209274292</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355146646499634</v>
+        <v>1.355295777320862</v>
       </c>
       <c r="C220" t="n">
-        <v>1.20499849319458</v>
+        <v>1.203333258628845</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1501481533050537</v>
+        <v>0.1519625186920166</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.492027163505554</v>
+        <v>1.492206811904907</v>
       </c>
       <c r="C221" t="n">
-        <v>1.419390559196472</v>
+        <v>1.417593359947205</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07263660430908203</v>
+        <v>0.07461345195770264</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288187146186829</v>
+        <v>1.288321375846863</v>
       </c>
       <c r="C222" t="n">
-        <v>1.000669240951538</v>
+        <v>0.9991299510002136</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2875179052352905</v>
+        <v>0.2891914248466492</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9321234226226807</v>
+        <v>0.932178258895874</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7292516231536865</v>
+        <v>0.7278794646263123</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2028717994689941</v>
+        <v>0.2042987942695618</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092626690864563</v>
+        <v>1.092717409133911</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4252215325832367</v>
+        <v>0.4240367114543915</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6674051284790039</v>
+        <v>0.6686806678771973</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489573121070862</v>
+        <v>1.489752411842346</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5739331245422363</v>
+        <v>0.5726566910743713</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9156399965286255</v>
+        <v>0.9170957207679749</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.845010161399841</v>
+        <v>1.845268726348877</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0787341296672821</v>
+        <v>0.07776276767253876</v>
       </c>
       <c r="D226" t="n">
-        <v>1.766276001930237</v>
+        <v>1.767506003379822</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655474662780762</v>
+        <v>1.655690908432007</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4905562996864319</v>
+        <v>0.4893312454223633</v>
       </c>
       <c r="D227" t="n">
-        <v>1.164918422698975</v>
+        <v>1.166359663009644</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092355966567993</v>
+        <v>2.092669725418091</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8931295275688171</v>
+        <v>0.8916564583778381</v>
       </c>
       <c r="D228" t="n">
-        <v>1.199226379394531</v>
+        <v>1.201013326644897</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993694305419922</v>
+        <v>1.993985891342163</v>
       </c>
       <c r="C229" t="n">
-        <v>1.211463689804077</v>
+        <v>1.209794402122498</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7822306156158447</v>
+        <v>0.7841914892196655</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985367298126221</v>
+        <v>1.985656976699829</v>
       </c>
       <c r="C230" t="n">
-        <v>1.745611906051636</v>
+        <v>1.743613719940186</v>
       </c>
       <c r="D230" t="n">
-        <v>0.239755392074585</v>
+        <v>0.2420432567596436</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682573914527893</v>
+        <v>1.682796239852905</v>
       </c>
       <c r="C231" t="n">
-        <v>1.797252416610718</v>
+        <v>1.795222401618958</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1146785020828247</v>
+        <v>-0.1124261617660522</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702466011047363</v>
+        <v>1.702692747116089</v>
       </c>
       <c r="C232" t="n">
-        <v>1.57177734375</v>
+        <v>1.569886326789856</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1306886672973633</v>
+        <v>0.1328064203262329</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202547311782837</v>
+        <v>2.202885389328003</v>
       </c>
       <c r="C233" t="n">
-        <v>1.610238909721375</v>
+        <v>1.608323931694031</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5923084020614624</v>
+        <v>0.5945614576339722</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.676469564437866</v>
+        <v>2.676913499832153</v>
       </c>
       <c r="C234" t="n">
-        <v>0.942470908164978</v>
+        <v>0.9409674406051636</v>
       </c>
       <c r="D234" t="n">
-        <v>1.733998656272888</v>
+        <v>1.73594605922699</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.318011522293091</v>
+        <v>2.318375587463379</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3017054200172424</v>
+        <v>0.3005967140197754</v>
       </c>
       <c r="D235" t="n">
-        <v>2.016306161880493</v>
+        <v>2.017778873443604</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135566473007202</v>
+        <v>2.135889768600464</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3461683392524719</v>
+        <v>0.3450322151184082</v>
       </c>
       <c r="D236" t="n">
-        <v>1.789398193359375</v>
+        <v>1.790857553482056</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.668881177902222</v>
+        <v>2.669323444366455</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.619904100894928</v>
+        <v>-0.6204450726509094</v>
       </c>
       <c r="D237" t="n">
-        <v>3.288785219192505</v>
+        <v>3.28976845741272</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.242875337600708</v>
+        <v>2.243222236633301</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.160762429237366</v>
+        <v>-1.160970091819763</v>
       </c>
       <c r="D238" t="n">
-        <v>3.403637886047363</v>
+        <v>3.404192447662354</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.596960067749023</v>
+        <v>2.597386360168457</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.499475836753845</v>
+        <v>-1.499475002288818</v>
       </c>
       <c r="D239" t="n">
-        <v>4.096436023712158</v>
+        <v>4.096861362457275</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.772493124008179</v>
+        <v>2.772958517074585</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8836871385574341</v>
+        <v>-0.8840656280517578</v>
       </c>
       <c r="D240" t="n">
-        <v>3.656180381774902</v>
+        <v>3.657024145126343</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.301972150802612</v>
+        <v>2.302332639694214</v>
       </c>
       <c r="C241" t="n">
-        <v>1.303921580314636</v>
+        <v>1.302195310592651</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9980505704879761</v>
+        <v>1.000137329101562</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.627919673919678</v>
+        <v>2.628352642059326</v>
       </c>
       <c r="C242" t="n">
-        <v>2.34355902671814</v>
+        <v>2.341192245483398</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2843606472015381</v>
+        <v>0.2871603965759277</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021641254425049</v>
+        <v>2.021939039230347</v>
       </c>
       <c r="C243" t="n">
-        <v>2.606888294219971</v>
+        <v>2.604359149932861</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5852470397949219</v>
+        <v>-0.5824201107025146</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.209080934524536</v>
+        <v>2.209420680999756</v>
       </c>
       <c r="C244" t="n">
-        <v>2.499520540237427</v>
+        <v>2.497057676315308</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.2904396057128906</v>
+        <v>-0.2876369953155518</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.266944408416748</v>
+        <v>2.267297029495239</v>
       </c>
       <c r="C245" t="n">
-        <v>2.576991558074951</v>
+        <v>2.574481248855591</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3100471496582031</v>
+        <v>-0.3071842193603516</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.321108341217041</v>
+        <v>2.321472883224487</v>
       </c>
       <c r="C246" t="n">
-        <v>1.533857107162476</v>
+        <v>1.531989216804504</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7872512340545654</v>
+        <v>0.7894836664199829</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208436489105225</v>
+        <v>2.208775758743286</v>
       </c>
       <c r="C247" t="n">
-        <v>1.164499282836914</v>
+        <v>1.162859201431274</v>
       </c>
       <c r="D247" t="n">
-        <v>1.043937206268311</v>
+        <v>1.045916557312012</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036729097366333</v>
+        <v>2.037030458450317</v>
       </c>
       <c r="C248" t="n">
-        <v>1.592686891555786</v>
+        <v>1.590782999992371</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4440422058105469</v>
+        <v>0.4462474584579468</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542269229888916</v>
+        <v>1.542460322380066</v>
       </c>
       <c r="C249" t="n">
-        <v>1.997996091842651</v>
+        <v>1.995842456817627</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4557268619537354</v>
+        <v>-0.453382134437561</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264212012290955</v>
+        <v>1.264340996742249</v>
       </c>
       <c r="C250" t="n">
-        <v>1.546844363212585</v>
+        <v>1.544968485832214</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2826323509216309</v>
+        <v>-0.2806274890899658</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.776051998138428</v>
+        <v>1.776295065879822</v>
       </c>
       <c r="C251" t="n">
-        <v>1.372873783111572</v>
+        <v>1.371104955673218</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4031782150268555</v>
+        <v>0.405190110206604</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544396281242371</v>
+        <v>1.544587731361389</v>
       </c>
       <c r="C252" t="n">
-        <v>1.224225163459778</v>
+        <v>1.222548127174377</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3201711177825928</v>
+        <v>0.3220396041870117</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404546737670898</v>
+        <v>1.404706954956055</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9344486594200134</v>
+        <v>0.9329501390457153</v>
       </c>
       <c r="D253" t="n">
-        <v>0.470098078250885</v>
+        <v>0.4717568159103394</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5280322432518005</v>
+        <v>0.5279969573020935</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.05207286030054092</v>
+        <v>-0.05296363681554794</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5801051259040833</v>
+        <v>0.5809605717658997</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7594904899597168</v>
+        <v>0.7595068216323853</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3200037777423859</v>
+        <v>0.3188837766647339</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4394867122173309</v>
+        <v>0.4406230449676514</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.20244300365448</v>
+        <v>1.202558159828186</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9419573545455933</v>
+        <v>0.9404541850090027</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2604856491088867</v>
+        <v>0.2621039748191833</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181816816329956</v>
+        <v>1.18192732334137</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5211918950080872</v>
+        <v>0.5199479460716248</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6606249213218689</v>
+        <v>0.6619793772697449</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6774088740348816</v>
+        <v>0.677406907081604</v>
       </c>
       <c r="C258" t="n">
-        <v>1.289864301681519</v>
+        <v>1.28814685344696</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.612455427646637</v>
+        <v>-0.6107399463653564</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8816489577293396</v>
+        <v>0.8816925883293152</v>
       </c>
       <c r="C259" t="n">
-        <v>1.821343183517456</v>
+        <v>1.819298148155212</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9396942257881165</v>
+        <v>-0.9376055598258972</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.169974088668823</v>
+        <v>1.170081973075867</v>
       </c>
       <c r="C260" t="n">
-        <v>2.267661809921265</v>
+        <v>2.265341997146606</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.097687721252441</v>
+        <v>-1.09526002407074</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297122597694397</v>
+        <v>1.297258853912354</v>
       </c>
       <c r="C261" t="n">
-        <v>1.912720084190369</v>
+        <v>1.910618782043457</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6155974864959717</v>
+        <v>-0.6133599281311035</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507993817329407</v>
+        <v>1.508177161216736</v>
       </c>
       <c r="C262" t="n">
-        <v>1.44149112701416</v>
+        <v>1.439680337905884</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06650269031524658</v>
+        <v>0.06849682331085205</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188209176063538</v>
+        <v>1.188321113586426</v>
       </c>
       <c r="C263" t="n">
-        <v>2.196284532546997</v>
+        <v>2.194008588790894</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.008075356483459</v>
+        <v>-1.005687475204468</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166353106498718</v>
+        <v>1.166460275650024</v>
       </c>
       <c r="C264" t="n">
-        <v>1.763311147689819</v>
+        <v>1.76130223274231</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5969580411911011</v>
+        <v>-0.5948419570922852</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328649878501892</v>
+        <v>1.328793287277222</v>
       </c>
       <c r="C265" t="n">
-        <v>1.752231121063232</v>
+        <v>1.750228762626648</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4235812425613403</v>
+        <v>-0.4214354753494263</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683584451675415</v>
+        <v>1.683806896209717</v>
       </c>
       <c r="C266" t="n">
-        <v>2.315011739730835</v>
+        <v>2.312662839889526</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6314272880554199</v>
+        <v>-0.6288559436798096</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9155709743499756</v>
+        <v>0.9156221151351929</v>
       </c>
       <c r="C267" t="n">
-        <v>1.710470080375671</v>
+        <v>1.708493709564209</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7948991060256958</v>
+        <v>-0.7928715944290161</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088894724845886</v>
+        <v>1.088984370231628</v>
       </c>
       <c r="C268" t="n">
-        <v>1.321471571922302</v>
+        <v>1.319734692573547</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.232576847076416</v>
+        <v>-0.2307503223419189</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163249254226685</v>
+        <v>1.163355588912964</v>
       </c>
       <c r="C269" t="n">
-        <v>1.968939900398254</v>
+        <v>1.966804265975952</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8056906461715698</v>
+        <v>-0.8034486770629883</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002063632011414</v>
+        <v>1.002134084701538</v>
       </c>
       <c r="C270" t="n">
-        <v>2.170965671539307</v>
+        <v>2.168705463409424</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.168902039527893</v>
+        <v>-1.166571378707886</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.932452380657196</v>
+        <v>0.9325072765350342</v>
       </c>
       <c r="C271" t="n">
-        <v>2.425574064254761</v>
+        <v>2.42315673828125</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.49312162399292</v>
+        <v>-1.490649461746216</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1149869710206985</v>
+        <v>0.1148595288395882</v>
       </c>
       <c r="C272" t="n">
-        <v>2.449219226837158</v>
+        <v>2.44678783416748</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.334232330322266</v>
+        <v>-2.331928253173828</v>
       </c>
     </row>
     <row r="273">
@@ -4261,13 +4261,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4004711210727692</v>
+        <v>0.4004073739051819</v>
       </c>
       <c r="C273" t="n">
-        <v>2.716090679168701</v>
+        <v>2.713494539260864</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.315619468688965</v>
+        <v>-2.313087224960327</v>
       </c>
     </row>
     <row r="274">
@@ -4275,13 +4275,27 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5017277598381042</v>
+        <v>0.5016865730285645</v>
       </c>
       <c r="C274" t="n">
-        <v>2.36777138710022</v>
+        <v>2.365389823913574</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.866043567657471</v>
+        <v>-1.86370325088501</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.3100058138370514</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.86877453327179</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-1.558768749237061</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8132091164588928</v>
+        <v>0.8131614327430725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7893972396850586</v>
+        <v>0.7885257005691528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02381187677383423</v>
+        <v>0.02463573217391968</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8399378061294556</v>
+        <v>0.8398955464363098</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2587396800518036</v>
+        <v>-0.2593672871589661</v>
       </c>
       <c r="D3" t="n">
-        <v>1.098677515983582</v>
+        <v>1.099262833595276</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.916271984577179</v>
+        <v>0.9162450432777405</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7660976648330688</v>
+        <v>-0.7666071653366089</v>
       </c>
       <c r="D4" t="n">
-        <v>1.682369709014893</v>
+        <v>1.682852268218994</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4914219379425049</v>
+        <v>0.4913094341754913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08953828364610672</v>
+        <v>0.0888296365737915</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4018836617469788</v>
+        <v>0.4024797976016998</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7167473435401917</v>
+        <v>0.7166802287101746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0186010617762804</v>
+        <v>0.01790891773998737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6981462836265564</v>
+        <v>0.6987712979316711</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08055590093135834</v>
+        <v>0.08036063611507416</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1443070024251938</v>
+        <v>-0.1449612230062485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2248629033565521</v>
+        <v>0.2253218591213226</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6719404458999634</v>
+        <v>0.6718642115592957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4512570798397064</v>
+        <v>0.4504642486572266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.220683366060257</v>
+        <v>0.2213999629020691</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041211366653442</v>
+        <v>1.041209578514099</v>
       </c>
       <c r="C9" t="n">
-        <v>1.165573000907898</v>
+        <v>1.164613842964172</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1243616342544556</v>
+        <v>-0.1234042644500732</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414764046669006</v>
+        <v>1.41483747959137</v>
       </c>
       <c r="C10" t="n">
-        <v>1.130529642105103</v>
+        <v>1.129578590393066</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2842344045639038</v>
+        <v>0.2852588891983032</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9747093915939331</v>
+        <v>0.9746942520141602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9695762991905212</v>
+        <v>0.9686627984046936</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005133092403411865</v>
+        <v>0.006031453609466553</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057443499565125</v>
+        <v>1.057444930076599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8088266253471375</v>
+        <v>0.8079505562782288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2486168742179871</v>
+        <v>0.2494943737983704</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7387223243713379</v>
+        <v>0.7386596202850342</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32016521692276</v>
+        <v>0.3194029033184052</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4185571074485779</v>
+        <v>0.419256716966629</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2452524900436401</v>
+        <v>0.2450903952121735</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04901407286524773</v>
+        <v>-0.04969048127532005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.294266551733017</v>
+        <v>0.2947808802127838</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5106343626976013</v>
+        <v>0.5105257630348206</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3869853615760803</v>
+        <v>-0.3875831067562103</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8976197242736816</v>
+        <v>0.8981088399887085</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184579968452454</v>
+        <v>1.184607148170471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2471827864646912</v>
+        <v>0.2464374452829361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9373971819877625</v>
+        <v>0.9381697177886963</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.023259997367859</v>
+        <v>1.02325451374054</v>
       </c>
       <c r="C17" t="n">
-        <v>1.055393695831299</v>
+        <v>1.054460287094116</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03213369846343994</v>
+        <v>-0.03120577335357666</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.103472948074341</v>
+        <v>1.10348379611969</v>
       </c>
       <c r="C18" t="n">
-        <v>1.849017381668091</v>
+        <v>1.847899317741394</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.74554443359375</v>
+        <v>-0.7444155216217041</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034704804420471</v>
+        <v>1.034701704978943</v>
       </c>
       <c r="C19" t="n">
-        <v>1.179404616355896</v>
+        <v>1.178442239761353</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1446998119354248</v>
+        <v>-0.1437405347824097</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4148579835891724</v>
+        <v>0.414730042219162</v>
       </c>
       <c r="C20" t="n">
-        <v>1.999928116798401</v>
+        <v>1.998775005340576</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.585070133209229</v>
+        <v>-1.584044933319092</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7235113978385925</v>
+        <v>0.7234456539154053</v>
       </c>
       <c r="C21" t="n">
-        <v>1.37843918800354</v>
+        <v>1.377430558204651</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6549277901649475</v>
+        <v>-0.6539849042892456</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7116607427597046</v>
+        <v>0.7115926146507263</v>
       </c>
       <c r="C22" t="n">
-        <v>1.495455861091614</v>
+        <v>1.494419932365417</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7837951183319092</v>
+        <v>-0.7828273177146912</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3973716497421265</v>
+        <v>0.3972401916980743</v>
       </c>
       <c r="C23" t="n">
-        <v>1.321950197219849</v>
+        <v>1.32095468044281</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9245785474777222</v>
+        <v>-0.9237145185470581</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.676501989364624</v>
+        <v>0.6764267086982727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8440775871276855</v>
+        <v>0.8431932926177979</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1675755977630615</v>
+        <v>-0.1667665839195251</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105177640914917</v>
+        <v>1.105188846588135</v>
       </c>
       <c r="C25" t="n">
-        <v>1.005996823310852</v>
+        <v>1.005074977874756</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09918081760406494</v>
+        <v>0.1001138687133789</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.896477997303009</v>
+        <v>0.8964471220970154</v>
       </c>
       <c r="C26" t="n">
-        <v>1.526106715202332</v>
+        <v>1.525063633918762</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6296287178993225</v>
+        <v>-0.6286165118217468</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145185470581055</v>
+        <v>1.145204544067383</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7359759211540222</v>
+        <v>0.7351168394088745</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4092095494270325</v>
+        <v>0.4100877046585083</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.177051544189453</v>
+        <v>1.177077174186707</v>
       </c>
       <c r="C28" t="n">
-        <v>1.976948499679565</v>
+        <v>1.975800633430481</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7998969554901123</v>
+        <v>-0.7987234592437744</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9123284220695496</v>
+        <v>0.912300705909729</v>
       </c>
       <c r="C29" t="n">
-        <v>1.830434203147888</v>
+        <v>1.829320311546326</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9181057810783386</v>
+        <v>-0.9170196056365967</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4931133091449738</v>
+        <v>0.4930011630058289</v>
       </c>
       <c r="C30" t="n">
-        <v>1.603953719139099</v>
+        <v>1.602892518043518</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.110840439796448</v>
+        <v>-1.109891414642334</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7592400908470154</v>
+        <v>0.7591815590858459</v>
       </c>
       <c r="C31" t="n">
-        <v>1.227373123168945</v>
+        <v>1.226399540901184</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4681330323219299</v>
+        <v>-0.4672179818153381</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8581019639968872</v>
+        <v>0.858063280582428</v>
       </c>
       <c r="C32" t="n">
-        <v>1.387416362762451</v>
+        <v>1.38640558719635</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.529314398765564</v>
+        <v>-0.5283423066139221</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7006802558898926</v>
+        <v>0.7006099224090576</v>
       </c>
       <c r="C33" t="n">
-        <v>1.322156429290771</v>
+        <v>1.321160793304443</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6214761734008789</v>
+        <v>-0.6205508708953857</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006641864776611</v>
+        <v>2.006834745407104</v>
       </c>
       <c r="C34" t="n">
-        <v>0.528535783290863</v>
+        <v>0.5277249813079834</v>
       </c>
       <c r="D34" t="n">
-        <v>1.478106021881104</v>
+        <v>1.479109764099121</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464248299598694</v>
+        <v>1.46433162689209</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.112788513302803</v>
+        <v>-0.1134500727057457</v>
       </c>
       <c r="D35" t="n">
-        <v>1.57703685760498</v>
+        <v>1.577781677246094</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.211086273193359</v>
+        <v>1.211118698120117</v>
       </c>
       <c r="C36" t="n">
-        <v>0.519480288028717</v>
+        <v>0.5186715722084045</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6916059851646423</v>
+        <v>0.6924471259117126</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.494187235832214</v>
+        <v>1.494276762008667</v>
       </c>
       <c r="C37" t="n">
-        <v>2.025028705596924</v>
+        <v>2.023869514465332</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5308414697647095</v>
+        <v>-0.529592752456665</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.331110715866089</v>
+        <v>1.331167221069336</v>
       </c>
       <c r="C38" t="n">
-        <v>2.146104335784912</v>
+        <v>2.144917011260986</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8149936199188232</v>
+        <v>-0.8137497901916504</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969944477081299</v>
+        <v>1.970129728317261</v>
       </c>
       <c r="C39" t="n">
-        <v>1.63630485534668</v>
+        <v>1.635236144065857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3336396217346191</v>
+        <v>0.3348935842514038</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.7447829246521</v>
+        <v>1.744922995567322</v>
       </c>
       <c r="C40" t="n">
-        <v>1.103765249252319</v>
+        <v>1.102820515632629</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6410176753997803</v>
+        <v>0.6421024799346924</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821368932723999</v>
+        <v>1.821524381637573</v>
       </c>
       <c r="C41" t="n">
-        <v>1.639771342277527</v>
+        <v>1.638701796531677</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1815975904464722</v>
+        <v>0.182822585105896</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755698561668396</v>
+        <v>1.755840659141541</v>
       </c>
       <c r="C42" t="n">
-        <v>1.176993131637573</v>
+        <v>1.176031470298767</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5787054300308228</v>
+        <v>0.5798091888427734</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.603092432022095</v>
+        <v>1.603204011917114</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7027867436408997</v>
+        <v>0.7019354104995728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9003056883811951</v>
+        <v>0.9012686014175415</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163994431495667</v>
+        <v>1.16401743888855</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4709812998771667</v>
+        <v>0.4701838791370392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6930131316184998</v>
+        <v>0.693833589553833</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.087081432342529</v>
+        <v>1.087088942527771</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03524547442793846</v>
+        <v>0.03454945608973503</v>
       </c>
       <c r="D45" t="n">
-        <v>1.051836013793945</v>
+        <v>1.052539467811584</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.34932005405426</v>
+        <v>1.349380493164062</v>
       </c>
       <c r="C46" t="n">
-        <v>1.110318422317505</v>
+        <v>1.10937225818634</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2390016317367554</v>
+        <v>0.2400082349777222</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9912497997283936</v>
+        <v>0.991237998008728</v>
       </c>
       <c r="C47" t="n">
-        <v>0.879751980304718</v>
+        <v>0.8788593411445618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1114978194236755</v>
+        <v>0.1123786568641663</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6580030918121338</v>
+        <v>0.6579241156578064</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9986751675605774</v>
+        <v>0.9977548718452454</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3406720757484436</v>
+        <v>-0.339830756187439</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7140065431594849</v>
+        <v>0.7139388918876648</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3675622344017029</v>
+        <v>0.3667888641357422</v>
       </c>
       <c r="D49" t="n">
-        <v>0.346444308757782</v>
+        <v>0.3471500277519226</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381736040115356</v>
+        <v>1.381802797317505</v>
       </c>
       <c r="C50" t="n">
-        <v>1.3763108253479</v>
+        <v>1.375302672386169</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005425214767456055</v>
+        <v>0.006500124931335449</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.343000173568726</v>
+        <v>1.343059301376343</v>
       </c>
       <c r="C51" t="n">
-        <v>1.236193180084229</v>
+        <v>1.235217809677124</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1068069934844971</v>
+        <v>0.1078414916992188</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021969318389893</v>
+        <v>1.021963715553284</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6085289120674133</v>
+        <v>0.607699453830719</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4134404063224792</v>
+        <v>0.4142642617225647</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144505023956299</v>
+        <v>1.144524097442627</v>
       </c>
       <c r="C53" t="n">
-        <v>1.126478314399719</v>
+        <v>1.125528335571289</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01802670955657959</v>
+        <v>0.01899576187133789</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.183881863951683</v>
+        <v>-0.1841304004192352</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8762165307998657</v>
+        <v>0.8753247857093811</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.06009840965271</v>
+        <v>-1.059455156326294</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05663342028856277</v>
+        <v>-0.05685632303357124</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8011610507965088</v>
+        <v>0.8002867102622986</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.857794463634491</v>
+        <v>-0.8571430444717407</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1687810271978378</v>
+        <v>0.1686035394668579</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7453281879425049</v>
+        <v>0.7444669008255005</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5765471458435059</v>
+        <v>-0.5758633613586426</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144942283630371</v>
+        <v>1.144961357116699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8389396071434021</v>
+        <v>0.8380565643310547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.306002676486969</v>
+        <v>0.3069047927856445</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.254130959510803</v>
+        <v>1.254172086715698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6521582007408142</v>
+        <v>0.6513186097145081</v>
       </c>
       <c r="D58" t="n">
-        <v>0.601972758769989</v>
+        <v>0.6028534770011902</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24388575553894</v>
+        <v>1.243924736976624</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6884788870811462</v>
+        <v>0.687630832195282</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5554068684577942</v>
+        <v>0.5562939047813416</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063701033592224</v>
+        <v>1.063703656196594</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9256353974342346</v>
+        <v>0.9247321486473083</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1380656361579895</v>
+        <v>0.1389715075492859</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008934617042542</v>
+        <v>1.008926391601562</v>
       </c>
       <c r="C61" t="n">
-        <v>1.152634382247925</v>
+        <v>1.151678323745728</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1436997652053833</v>
+        <v>-0.142751932144165</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8699570298194885</v>
+        <v>0.8699207901954651</v>
       </c>
       <c r="C62" t="n">
-        <v>1.466415405273438</v>
+        <v>1.465386390686035</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.596458375453949</v>
+        <v>-0.5954656004905701</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9207298159599304</v>
+        <v>0.9207037687301636</v>
       </c>
       <c r="C63" t="n">
-        <v>2.642551183700562</v>
+        <v>2.641248226165771</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.721821308135986</v>
+        <v>-1.720544457435608</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159115433692932</v>
+        <v>1.159137368202209</v>
       </c>
       <c r="C64" t="n">
-        <v>2.571269512176514</v>
+        <v>2.569983243942261</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.412154078483582</v>
+        <v>-1.410845875740051</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356915235519409</v>
+        <v>1.356976985931396</v>
       </c>
       <c r="C65" t="n">
-        <v>1.050992608070374</v>
+        <v>1.050060272216797</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3059226274490356</v>
+        <v>0.3069167137145996</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529381632804871</v>
+        <v>1.529478192329407</v>
       </c>
       <c r="C66" t="n">
-        <v>1.235541343688965</v>
+        <v>1.23456609249115</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2938402891159058</v>
+        <v>0.2949120998382568</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363659858703613</v>
+        <v>1.363722920417786</v>
       </c>
       <c r="C67" t="n">
-        <v>1.638852119445801</v>
+        <v>1.637783050537109</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2751922607421875</v>
+        <v>-0.2740601301193237</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6024401783943176</v>
+        <v>0.6023500561714172</v>
       </c>
       <c r="C68" t="n">
-        <v>1.695197463035583</v>
+        <v>1.694115042686462</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.092757225036621</v>
+        <v>-1.0917649269104</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9860082268714905</v>
+        <v>0.985995352268219</v>
       </c>
       <c r="C69" t="n">
-        <v>1.746332883834839</v>
+        <v>1.745238661766052</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7603246569633484</v>
+        <v>-0.7592433094978333</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8861850500106812</v>
+        <v>0.8861521482467651</v>
       </c>
       <c r="C70" t="n">
-        <v>1.982385635375977</v>
+        <v>1.981236338615417</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.096200585365295</v>
+        <v>-1.095084190368652</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7925353050231934</v>
+        <v>0.7924834489822388</v>
       </c>
       <c r="C71" t="n">
-        <v>1.756801605224609</v>
+        <v>1.755704998970032</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.964266300201416</v>
+        <v>-0.963221549987793</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.502333402633667</v>
+        <v>0.5022230744361877</v>
       </c>
       <c r="C72" t="n">
-        <v>1.630595326423645</v>
+        <v>1.629528164863586</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.128261923789978</v>
+        <v>-1.127305030822754</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.350589781999588</v>
+        <v>0.3504489064216614</v>
       </c>
       <c r="C73" t="n">
-        <v>1.234682083129883</v>
+        <v>1.233706951141357</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8840923309326172</v>
+        <v>-0.883258044719696</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4383922517299652</v>
+        <v>0.4382690489292145</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5640069842338562</v>
+        <v>0.5631878972053528</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.125614732503891</v>
+        <v>-0.1249188482761383</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4905074238777161</v>
+        <v>0.4903947412967682</v>
       </c>
       <c r="C75" t="n">
-        <v>1.904792070388794</v>
+        <v>1.903660893440247</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.414284706115723</v>
+        <v>-1.413266181945801</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8042294383049011</v>
+        <v>0.8041799068450928</v>
       </c>
       <c r="C76" t="n">
-        <v>1.219557881355286</v>
+        <v>1.218586325645447</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4153284430503845</v>
+        <v>-0.414406418800354</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7486424446105957</v>
+        <v>0.7485817670822144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8231545090675354</v>
+        <v>0.8222750425338745</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0745120644569397</v>
+        <v>-0.07369327545166016</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075473427772522</v>
+        <v>1.075478553771973</v>
       </c>
       <c r="C78" t="n">
-        <v>1.498722314834595</v>
+        <v>1.497685790061951</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4232488870620728</v>
+        <v>-0.422207236289978</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8493676781654358</v>
+        <v>0.8493272662162781</v>
       </c>
       <c r="C79" t="n">
-        <v>1.268053770065308</v>
+        <v>1.267071008682251</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4186860918998718</v>
+        <v>-0.4177437424659729</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9273617267608643</v>
+        <v>0.9273369908332825</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5246796011924744</v>
+        <v>0.5238696932792664</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4026821255683899</v>
+        <v>0.4034672975540161</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514381527900696</v>
+        <v>1.514475226402283</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6692483425140381</v>
+        <v>0.668404757976532</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8451331853866577</v>
+        <v>0.8460704684257507</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290975332260132</v>
+        <v>1.291023969650269</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6685464978218079</v>
+        <v>-0.6690787076950073</v>
       </c>
       <c r="D82" t="n">
-        <v>1.959521770477295</v>
+        <v>1.960102677345276</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584396481513977</v>
+        <v>1.584504246711731</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8350615501403809</v>
+        <v>-0.8355550169944763</v>
       </c>
       <c r="D83" t="n">
-        <v>2.419457912445068</v>
+        <v>2.420059204101562</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824905872344971</v>
+        <v>1.825062036514282</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1735265403985977</v>
+        <v>-0.1741739809513092</v>
       </c>
       <c r="D84" t="n">
-        <v>1.998432397842407</v>
+        <v>1.999235987663269</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837762594223022</v>
+        <v>1.837921380996704</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9565606117248535</v>
+        <v>0.955650269985199</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8812019824981689</v>
+        <v>0.8822711110115051</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687344670295715</v>
+        <v>1.687472939491272</v>
       </c>
       <c r="C86" t="n">
-        <v>1.234982013702393</v>
+        <v>1.234006762504578</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4523626565933228</v>
+        <v>0.4534661769866943</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.54732084274292</v>
+        <v>1.547421097755432</v>
       </c>
       <c r="C87" t="n">
-        <v>1.936169743537903</v>
+        <v>1.935031294822693</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3888489007949829</v>
+        <v>-0.3876101970672607</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359160900115967</v>
+        <v>1.359223127365112</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8775622844696045</v>
+        <v>0.8766703009605408</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4815986156463623</v>
+        <v>0.4825528264045715</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404546976089478</v>
+        <v>1.404618501663208</v>
       </c>
       <c r="C89" t="n">
-        <v>1.033544898033142</v>
+        <v>1.03261661529541</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3710020780563354</v>
+        <v>0.3720018863677979</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746846318244934</v>
+        <v>1.746986746788025</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8038438558578491</v>
+        <v>0.8029689788818359</v>
       </c>
       <c r="D90" t="n">
-        <v>0.943002462387085</v>
+        <v>0.944017767906189</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.892555356025696</v>
+        <v>1.892724990844727</v>
       </c>
       <c r="C91" t="n">
-        <v>1.173044800758362</v>
+        <v>1.172083854675293</v>
       </c>
       <c r="D91" t="n">
-        <v>0.719510555267334</v>
+        <v>0.7206411361694336</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563857793807983</v>
+        <v>1.563961386680603</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8640345335006714</v>
+        <v>0.8631455898284912</v>
       </c>
       <c r="D92" t="n">
-        <v>0.699823260307312</v>
+        <v>0.7008157968521118</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709669589996338</v>
+        <v>1.709802508354187</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7120721936225891</v>
+        <v>0.7112186551094055</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9975973963737488</v>
+        <v>0.9985838532447815</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.431136250495911</v>
+        <v>1.431213140487671</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2201912403106689</v>
+        <v>0.2194521874189377</v>
       </c>
       <c r="D94" t="n">
-        <v>1.210945010185242</v>
+        <v>1.211760997772217</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083337903022766</v>
+        <v>1.083344697952271</v>
       </c>
       <c r="C95" t="n">
-        <v>0.521428108215332</v>
+        <v>0.5206189751625061</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5619097948074341</v>
+        <v>0.5627257227897644</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6685569286346436</v>
+        <v>0.6684800982475281</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7240738868713379</v>
+        <v>0.7232175469398499</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05551695823669434</v>
+        <v>-0.05473744869232178</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6039850115776062</v>
+        <v>0.6038951873779297</v>
       </c>
       <c r="C97" t="n">
-        <v>1.043176054954529</v>
+        <v>1.042245388031006</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4391910433769226</v>
+        <v>-0.4383502006530762</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00399124622345</v>
+        <v>1.003982067108154</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9686144590377808</v>
+        <v>0.967701256275177</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03537678718566895</v>
+        <v>0.03628081083297729</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2790292501449585</v>
+        <v>0.2788739502429962</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1092048585414886</v>
+        <v>0.1084916368126869</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1698243916034698</v>
+        <v>0.1703823208808899</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05771221965551376</v>
+        <v>-0.05793533846735954</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3507521748542786</v>
+        <v>-0.3513583540916443</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2930399477481842</v>
+        <v>0.2934230268001556</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2318839132785797</v>
+        <v>-0.2321421205997467</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3254066705703735</v>
+        <v>0.3246431350708008</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5572905540466309</v>
+        <v>-0.5567852258682251</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2108837217092514</v>
+        <v>0.2107147127389908</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2731864750385284</v>
+        <v>-0.2738107144832611</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4840701818466187</v>
+        <v>0.4845254421234131</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7510925531387329</v>
+        <v>0.7510323524475098</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4461948573589325</v>
+        <v>-0.4467788338661194</v>
       </c>
       <c r="D103" t="n">
-        <v>1.197287440299988</v>
+        <v>1.197811126708984</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001551270484924</v>
+        <v>1.001541495323181</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7041866183280945</v>
+        <v>-0.7047106027603149</v>
       </c>
       <c r="D104" t="n">
-        <v>1.705737829208374</v>
+        <v>1.706252098083496</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068424701690674</v>
+        <v>1.068428516387939</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04683335497975349</v>
+        <v>-0.04751026630401611</v>
       </c>
       <c r="D105" t="n">
-        <v>1.115258097648621</v>
+        <v>1.115938782691956</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.17316734790802</v>
+        <v>1.173192143440247</v>
       </c>
       <c r="C106" t="n">
-        <v>0.645904541015625</v>
+        <v>0.6450663805007935</v>
       </c>
       <c r="D106" t="n">
-        <v>0.527262806892395</v>
+        <v>0.5281257629394531</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081549048423767</v>
+        <v>1.081555485725403</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4710498750209808</v>
+        <v>0.4702524244785309</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6104991436004639</v>
+        <v>0.6113030910491943</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8388781547546387</v>
+        <v>0.8388356566429138</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8597609400749207</v>
+        <v>0.8588730692863464</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02088278532028198</v>
+        <v>-0.02003741264343262</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5667631030082703</v>
+        <v>0.5666657686233521</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9606359601020813</v>
+        <v>0.9597245454788208</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.393872857093811</v>
+        <v>-0.3930587768554688</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8342611193656921</v>
+        <v>0.8342176675796509</v>
       </c>
       <c r="C110" t="n">
-        <v>1.003226637840271</v>
+        <v>1.002305507659912</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1689655184745789</v>
+        <v>-0.1680878400802612</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.193025946617126</v>
+        <v>1.193054676055908</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4734450280666351</v>
+        <v>0.4726470410823822</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7195808887481689</v>
+        <v>0.7204076051712036</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701521635055542</v>
+        <v>1.701652884483337</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8072539567947388</v>
+        <v>0.8063783049583435</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8942676782608032</v>
+        <v>0.8952745795249939</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044551014900208</v>
+        <v>1.044549942016602</v>
       </c>
       <c r="C113" t="n">
-        <v>1.114489197731018</v>
+        <v>1.113542079925537</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06993818283081055</v>
+        <v>-0.06899213790893555</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458783030509949</v>
+        <v>1.458865404129028</v>
       </c>
       <c r="C114" t="n">
-        <v>1.714345812797546</v>
+        <v>1.713258981704712</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2555627822875977</v>
+        <v>-0.2543935775756836</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.998048782348633</v>
+        <v>1.998239874839783</v>
       </c>
       <c r="C115" t="n">
-        <v>1.971249461174011</v>
+        <v>1.970102906227112</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02679932117462158</v>
+        <v>0.0281369686126709</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.311081886291504</v>
+        <v>1.311134457588196</v>
       </c>
       <c r="C116" t="n">
-        <v>2.466318607330322</v>
+        <v>2.465056896209717</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.155236721038818</v>
+        <v>-1.153922438621521</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.698111414909363</v>
+        <v>1.698241949081421</v>
       </c>
       <c r="C117" t="n">
-        <v>2.193715572357178</v>
+        <v>2.192517280578613</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4956041574478149</v>
+        <v>-0.4942753314971924</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721631526947021</v>
+        <v>1.721766710281372</v>
       </c>
       <c r="C118" t="n">
-        <v>1.627377867698669</v>
+        <v>1.626311302185059</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09425365924835205</v>
+        <v>0.09545540809631348</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.928075551986694</v>
+        <v>1.928252458572388</v>
       </c>
       <c r="C119" t="n">
-        <v>1.698225855827332</v>
+        <v>1.697142839431763</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2298496961593628</v>
+        <v>0.231109619140625</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379832983016968</v>
+        <v>1.379899501800537</v>
       </c>
       <c r="C120" t="n">
-        <v>1.681187033653259</v>
+        <v>1.680107831954956</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3013540506362915</v>
+        <v>-0.3002083301544189</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997987747192383</v>
+        <v>1.998178839683533</v>
       </c>
       <c r="C121" t="n">
-        <v>1.687129497528076</v>
+        <v>1.686048984527588</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3108582496643066</v>
+        <v>0.3121298551559448</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.047191619873047</v>
+        <v>2.047392606735229</v>
       </c>
       <c r="C122" t="n">
-        <v>1.246536254882812</v>
+        <v>1.245558261871338</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8006553649902344</v>
+        <v>0.8018343448638916</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351551294326782</v>
+        <v>2.351813554763794</v>
       </c>
       <c r="C123" t="n">
-        <v>2.140912532806396</v>
+        <v>2.139726400375366</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2106387615203857</v>
+        <v>0.2120871543884277</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.453466415405273</v>
+        <v>2.453749179840088</v>
       </c>
       <c r="C124" t="n">
-        <v>1.813063025474548</v>
+        <v>1.811953186988831</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6404033899307251</v>
+        <v>0.6417959928512573</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421618461608887</v>
+        <v>2.421895027160645</v>
       </c>
       <c r="C125" t="n">
-        <v>1.622287631034851</v>
+        <v>1.621222138404846</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7993308305740356</v>
+        <v>0.8006728887557983</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778539657592773</v>
+        <v>1.77868640422821</v>
       </c>
       <c r="C126" t="n">
-        <v>2.242880344390869</v>
+        <v>2.241670608520508</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4643406867980957</v>
+        <v>-0.4629842042922974</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786481857299805</v>
+        <v>1.786630272865295</v>
       </c>
       <c r="C127" t="n">
-        <v>2.113564014434814</v>
+        <v>2.112384080886841</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3270821571350098</v>
+        <v>-0.3257538080215454</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.485183000564575</v>
+        <v>1.485270738601685</v>
       </c>
       <c r="C128" t="n">
-        <v>1.940187096595764</v>
+        <v>1.939047694206238</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.455004096031189</v>
+        <v>-0.4537769556045532</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.17252254486084</v>
+        <v>1.172547340393066</v>
       </c>
       <c r="C129" t="n">
-        <v>1.771809816360474</v>
+        <v>1.77070951461792</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5992872714996338</v>
+        <v>-0.5981621742248535</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8092982769012451</v>
+        <v>0.8092498183250427</v>
       </c>
       <c r="C130" t="n">
-        <v>2.92932915687561</v>
+        <v>2.927959442138672</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.120030879974365</v>
+        <v>-2.118709564208984</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3929904103279114</v>
+        <v>0.39285808801651</v>
       </c>
       <c r="C131" t="n">
-        <v>2.164555788040161</v>
+        <v>2.163364171981812</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.771565437316895</v>
+        <v>-1.770506143569946</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05728260055184364</v>
+        <v>-0.05750563368201256</v>
       </c>
       <c r="C132" t="n">
-        <v>1.823109865188599</v>
+        <v>1.821997761726379</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.88039243221283</v>
+        <v>-1.87950336933136</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0935131311416626</v>
+        <v>0.09332047402858734</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8126557469367981</v>
+        <v>0.8117787837982178</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7191426157951355</v>
+        <v>-0.7184582948684692</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1558413505554199</v>
+        <v>0.1556612551212311</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1683705300092697</v>
+        <v>0.1676435321569443</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01252917945384979</v>
+        <v>-0.0119822770357132</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3808411657810211</v>
+        <v>0.380706399679184</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3556892871856689</v>
+        <v>0.3549186885356903</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02515187859535217</v>
+        <v>0.02578771114349365</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7311777472496033</v>
+        <v>0.7311135530471802</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1994250863790512</v>
+        <v>0.1986908614635468</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5317526459693909</v>
+        <v>0.532422661781311</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6018200516700745</v>
+        <v>0.6017297506332397</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5046849846839905</v>
+        <v>0.5038796663284302</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09713506698608398</v>
+        <v>0.09785008430480957</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8435832262039185</v>
+        <v>0.8435416221618652</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9698414206504822</v>
+        <v>0.968927800655365</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1262581944465637</v>
+        <v>-0.1253861784934998</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.303880453109741</v>
+        <v>1.303931474685669</v>
       </c>
       <c r="C139" t="n">
-        <v>1.033449769020081</v>
+        <v>1.032521367073059</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2704306840896606</v>
+        <v>0.2714101076126099</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260656952857971</v>
+        <v>1.260699391365051</v>
       </c>
       <c r="C140" t="n">
-        <v>1.271806836128235</v>
+        <v>1.270823121070862</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01114988327026367</v>
+        <v>-0.01012372970581055</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491258025169373</v>
+        <v>1.491346955299377</v>
       </c>
       <c r="C141" t="n">
-        <v>1.226247549057007</v>
+        <v>1.225274324417114</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2650104761123657</v>
+        <v>0.2660726308822632</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.404175639152527</v>
+        <v>1.404246926307678</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1929467767477036</v>
+        <v>0.1922140717506409</v>
       </c>
       <c r="D142" t="n">
-        <v>1.211228847503662</v>
+        <v>1.212032794952393</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.764439582824707</v>
+        <v>1.764583349227905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2804802358150482</v>
+        <v>0.2797271311283112</v>
       </c>
       <c r="D143" t="n">
-        <v>1.483959317207336</v>
+        <v>1.484856247901917</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.604101657867432</v>
+        <v>1.604213237762451</v>
       </c>
       <c r="C144" t="n">
-        <v>1.281206250190735</v>
+        <v>1.28022027015686</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3228954076766968</v>
+        <v>0.3239929676055908</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711403489112854</v>
+        <v>1.711536884307861</v>
       </c>
       <c r="C145" t="n">
-        <v>1.47001576423645</v>
+        <v>1.468985915184021</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2413877248764038</v>
+        <v>0.2425509691238403</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152538537979126</v>
+        <v>1.152559280395508</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8986334800720215</v>
+        <v>0.8977364301681519</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2539050579071045</v>
+        <v>0.254822850227356</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7277110815048218</v>
+        <v>0.7276461720466614</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8473533391952515</v>
+        <v>0.8464683294296265</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1196422576904297</v>
+        <v>-0.1188221573829651</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2876914739608765</v>
+        <v>0.2875379621982574</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2241968065500259</v>
+        <v>-0.2248324453830719</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5118882656097412</v>
+        <v>0.5123704075813293</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6825302839279175</v>
+        <v>0.6824563145637512</v>
       </c>
       <c r="C149" t="n">
-        <v>1.561854600906372</v>
+        <v>1.560803413391113</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8793243169784546</v>
+        <v>-0.8783470988273621</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038716197013855</v>
+        <v>1.038713932037354</v>
       </c>
       <c r="C150" t="n">
-        <v>2.453930377960205</v>
+        <v>2.45267128944397</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.41521418094635</v>
+        <v>-1.413957357406616</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.32831346988678</v>
+        <v>1.328369498252869</v>
       </c>
       <c r="C151" t="n">
-        <v>1.283368825912476</v>
+        <v>1.282382488250732</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0449446439743042</v>
+        <v>0.04598701000213623</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.362074136734009</v>
+        <v>1.362137079238892</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2932436466217041</v>
+        <v>0.2924875915050507</v>
       </c>
       <c r="D152" t="n">
-        <v>1.068830490112305</v>
+        <v>1.069649457931519</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.110297918319702</v>
+        <v>2.110511541366577</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1897369176149368</v>
+        <v>0.1890049427747726</v>
       </c>
       <c r="D153" t="n">
-        <v>1.920560956001282</v>
+        <v>1.921506643295288</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.997123599052429</v>
+        <v>1.997314453125</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4578444361686707</v>
+        <v>0.457050085067749</v>
       </c>
       <c r="D154" t="n">
-        <v>1.539279222488403</v>
+        <v>1.540264368057251</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.86210310459137</v>
+        <v>1.862266659736633</v>
       </c>
       <c r="C155" t="n">
-        <v>0.76474928855896</v>
+        <v>0.7638835310935974</v>
       </c>
       <c r="D155" t="n">
-        <v>1.09735381603241</v>
+        <v>1.098383188247681</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609297394752502</v>
+        <v>1.609410047531128</v>
       </c>
       <c r="C156" t="n">
-        <v>1.358195662498474</v>
+        <v>1.357191681861877</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2511017322540283</v>
+        <v>0.2522183656692505</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912797331809998</v>
+        <v>1.912971138954163</v>
       </c>
       <c r="C157" t="n">
-        <v>1.732778072357178</v>
+        <v>1.731687068939209</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1800192594528198</v>
+        <v>0.1812840700149536</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529255867004395</v>
+        <v>1.529352426528931</v>
       </c>
       <c r="C158" t="n">
-        <v>1.461877226829529</v>
+        <v>1.460849165916443</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06737864017486572</v>
+        <v>0.06850326061248779</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.36382782459259</v>
+        <v>1.363891005516052</v>
       </c>
       <c r="C159" t="n">
-        <v>1.630141973495483</v>
+        <v>1.629074692726135</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2663141489028931</v>
+        <v>-0.265183687210083</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673417329788208</v>
+        <v>1.673542976379395</v>
       </c>
       <c r="C160" t="n">
-        <v>1.715297222137451</v>
+        <v>1.714210152626038</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04187989234924316</v>
+        <v>-0.04066717624664307</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.34211003780365</v>
+        <v>1.342168927192688</v>
       </c>
       <c r="C161" t="n">
-        <v>1.668476343154907</v>
+        <v>1.667400240898132</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3263663053512573</v>
+        <v>-0.3252313137054443</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5791998505592346</v>
+        <v>0.579105019569397</v>
       </c>
       <c r="C162" t="n">
-        <v>1.788594722747803</v>
+        <v>1.787490606307983</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.209394931793213</v>
+        <v>-1.208385586738586</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3732911646366119</v>
+        <v>0.373154878616333</v>
       </c>
       <c r="C163" t="n">
-        <v>1.276627659797668</v>
+        <v>1.2756427526474</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9033365249633789</v>
+        <v>-0.9024878740310669</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6715444326400757</v>
+        <v>0.671468198299408</v>
       </c>
       <c r="C164" t="n">
-        <v>1.435442686080933</v>
+        <v>1.434420704841614</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7638982534408569</v>
+        <v>-0.7629525065422058</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8600509762763977</v>
+        <v>0.8600128293037415</v>
       </c>
       <c r="C165" t="n">
-        <v>1.105524182319641</v>
+        <v>1.104579091072083</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2454732060432434</v>
+        <v>-0.2445662617683411</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9997154474258423</v>
+        <v>0.9997053146362305</v>
       </c>
       <c r="C166" t="n">
-        <v>1.236529111862183</v>
+        <v>1.235553622245789</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2368136644363403</v>
+        <v>-0.2358483076095581</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623346209526062</v>
+        <v>1.623461723327637</v>
       </c>
       <c r="C167" t="n">
-        <v>1.595445990562439</v>
+        <v>1.59438693523407</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02790021896362305</v>
+        <v>0.02907478809356689</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952734708786011</v>
+        <v>1.952916502952576</v>
       </c>
       <c r="C168" t="n">
-        <v>1.869611263275146</v>
+        <v>1.868488192558289</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08312344551086426</v>
+        <v>0.08442831039428711</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178392887115479</v>
+        <v>1.178418636322021</v>
       </c>
       <c r="C169" t="n">
-        <v>1.562241554260254</v>
+        <v>1.561190247535706</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3838486671447754</v>
+        <v>-0.3827716112136841</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9839884638786316</v>
+        <v>0.9839751720428467</v>
       </c>
       <c r="C170" t="n">
-        <v>1.278293490409851</v>
+        <v>1.277308225631714</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2943050265312195</v>
+        <v>-0.2933330535888672</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9069313406944275</v>
+        <v>0.906902551651001</v>
       </c>
       <c r="C171" t="n">
-        <v>1.032017350196838</v>
+        <v>1.031089425086975</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1250860095024109</v>
+        <v>-0.1241868734359741</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023297548294067</v>
+        <v>1.023292183876038</v>
       </c>
       <c r="C172" t="n">
-        <v>1.869148373603821</v>
+        <v>1.868025660514832</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8458508253097534</v>
+        <v>-0.8447334766387939</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223850250244141</v>
+        <v>1.223885297775269</v>
       </c>
       <c r="C173" t="n">
-        <v>1.662894129753113</v>
+        <v>1.661819458007812</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4390438795089722</v>
+        <v>-0.4379341602325439</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.656155109405518</v>
+        <v>1.656277298927307</v>
       </c>
       <c r="C174" t="n">
-        <v>1.859559416770935</v>
+        <v>1.858438849449158</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2034043073654175</v>
+        <v>-0.2021615505218506</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470234870910645</v>
+        <v>1.470319509506226</v>
       </c>
       <c r="C175" t="n">
-        <v>1.89962100982666</v>
+        <v>1.898491144180298</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4293861389160156</v>
+        <v>-0.4281716346740723</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092525362968445</v>
+        <v>1.092533946037292</v>
       </c>
       <c r="C176" t="n">
-        <v>1.934435725212097</v>
+        <v>1.933297872543335</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8419103622436523</v>
+        <v>-0.8407639265060425</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104312419891357</v>
+        <v>1.104323506355286</v>
       </c>
       <c r="C177" t="n">
-        <v>2.059957504272461</v>
+        <v>2.05879020690918</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9556450843811035</v>
+        <v>-0.954466700553894</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334819197654724</v>
+        <v>1.334876656532288</v>
       </c>
       <c r="C178" t="n">
-        <v>1.966233730316162</v>
+        <v>1.965088248252869</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.631414532661438</v>
+        <v>-0.6302115917205811</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896421551704407</v>
+        <v>1.896592020988464</v>
       </c>
       <c r="C179" t="n">
-        <v>1.443606615066528</v>
+        <v>1.442582845687866</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4528149366378784</v>
+        <v>0.4540091753005981</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870614171028137</v>
+        <v>1.870779514312744</v>
       </c>
       <c r="C180" t="n">
-        <v>1.50087583065033</v>
+        <v>1.499838590621948</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3697383403778076</v>
+        <v>0.3709409236907959</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434271454811096</v>
+        <v>1.434348940849304</v>
       </c>
       <c r="C181" t="n">
-        <v>1.822906255722046</v>
+        <v>1.821794152259827</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3886348009109497</v>
+        <v>-0.3874452114105225</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4870405495166779</v>
+        <v>0.4869271814823151</v>
       </c>
       <c r="C182" t="n">
-        <v>1.216252446174622</v>
+        <v>1.21528148651123</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7292119264602661</v>
+        <v>-0.7283543348312378</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8843412399291992</v>
+        <v>0.884307861328125</v>
       </c>
       <c r="C183" t="n">
-        <v>1.491034984588623</v>
+        <v>1.490000128746033</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6066937446594238</v>
+        <v>-0.6056922674179077</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556954026222229</v>
+        <v>1.557056069374084</v>
       </c>
       <c r="C184" t="n">
-        <v>1.767855882644653</v>
+        <v>1.766756653785706</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2109018564224243</v>
+        <v>-0.2097005844116211</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937930941581726</v>
+        <v>1.938109874725342</v>
       </c>
       <c r="C185" t="n">
-        <v>1.669081687927246</v>
+        <v>1.668005347251892</v>
       </c>
       <c r="D185" t="n">
-        <v>0.26884925365448</v>
+        <v>0.2701045274734497</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966475009918213</v>
+        <v>1.966659784317017</v>
       </c>
       <c r="C186" t="n">
-        <v>1.617013096809387</v>
+        <v>1.615948915481567</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3494619131088257</v>
+        <v>0.3507108688354492</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065902471542358</v>
+        <v>2.066106796264648</v>
       </c>
       <c r="C187" t="n">
-        <v>1.471980929374695</v>
+        <v>1.470950484275818</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5939215421676636</v>
+        <v>0.5951563119888306</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351688146591187</v>
+        <v>2.351950407028198</v>
       </c>
       <c r="C188" t="n">
-        <v>1.508948445320129</v>
+        <v>1.507909536361694</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8427397012710571</v>
+        <v>0.8440408706665039</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.902754068374634</v>
+        <v>2.903127193450928</v>
       </c>
       <c r="C189" t="n">
-        <v>1.671084761619568</v>
+        <v>1.670007944107056</v>
       </c>
       <c r="D189" t="n">
-        <v>1.231669306755066</v>
+        <v>1.233119249343872</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.11734676361084</v>
+        <v>3.11776328086853</v>
       </c>
       <c r="C190" t="n">
-        <v>1.274723529815674</v>
+        <v>1.273738980293274</v>
       </c>
       <c r="D190" t="n">
-        <v>1.842623233795166</v>
+        <v>1.844024300575256</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.102322816848755</v>
+        <v>3.102736234664917</v>
       </c>
       <c r="C191" t="n">
-        <v>1.564157724380493</v>
+        <v>1.563105821609497</v>
       </c>
       <c r="D191" t="n">
-        <v>1.538165092468262</v>
+        <v>1.53963041305542</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.855766296386719</v>
+        <v>2.856130123138428</v>
       </c>
       <c r="C192" t="n">
-        <v>1.872227311134338</v>
+        <v>1.871103644371033</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9835389852523804</v>
+        <v>0.985026478767395</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.929945468902588</v>
+        <v>2.93032431602478</v>
       </c>
       <c r="C193" t="n">
-        <v>2.941249132156372</v>
+        <v>2.939877033233643</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.01130366325378418</v>
+        <v>-0.009552717208862305</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838089466094971</v>
+        <v>2.838449716567993</v>
       </c>
       <c r="C194" t="n">
-        <v>3.517781496047974</v>
+        <v>3.516274929046631</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6796920299530029</v>
+        <v>-0.6778252124786377</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.280302762985229</v>
+        <v>2.280550718307495</v>
       </c>
       <c r="C195" t="n">
-        <v>3.291903495788574</v>
+        <v>3.290449619293213</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.011600732803345</v>
+        <v>-1.009898900985718</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108565092086792</v>
+        <v>3.108979940414429</v>
       </c>
       <c r="C196" t="n">
-        <v>3.716596364974976</v>
+        <v>3.715043783187866</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6080312728881836</v>
+        <v>-0.6060638427734375</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.902760982513428</v>
+        <v>2.903134346008301</v>
       </c>
       <c r="C197" t="n">
-        <v>3.505994558334351</v>
+        <v>3.504490852355957</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6032335758209229</v>
+        <v>-0.6013565063476562</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.015243530273438</v>
+        <v>2.015438079833984</v>
       </c>
       <c r="C198" t="n">
-        <v>3.172194242477417</v>
+        <v>3.170768260955811</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.156950712203979</v>
+        <v>-1.155330181121826</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055577397346497</v>
+        <v>1.055578589439392</v>
       </c>
       <c r="C199" t="n">
-        <v>2.596827745437622</v>
+        <v>2.595535755157471</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.541250348091125</v>
+        <v>-1.539957165718079</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4207881689071655</v>
+        <v>0.420661449432373</v>
       </c>
       <c r="C200" t="n">
-        <v>2.862338781356812</v>
+        <v>2.860984802246094</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.441550731658936</v>
+        <v>-2.440323352813721</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443705797195435</v>
+        <v>1.443785190582275</v>
       </c>
       <c r="C201" t="n">
-        <v>2.620439291000366</v>
+        <v>2.619141578674316</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.176733493804932</v>
+        <v>-1.175356388092041</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064288020133972</v>
+        <v>1.064290881156921</v>
       </c>
       <c r="C202" t="n">
-        <v>2.72475266456604</v>
+        <v>2.723430633544922</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.660464644432068</v>
+        <v>-1.659139752388</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092947840690613</v>
+        <v>1.09295654296875</v>
       </c>
       <c r="C203" t="n">
-        <v>2.472739219665527</v>
+        <v>2.471475839614868</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.379791378974915</v>
+        <v>-1.378519296646118</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300605177879333</v>
+        <v>1.300655722618103</v>
       </c>
       <c r="C204" t="n">
-        <v>2.107251882553101</v>
+        <v>2.106073617935181</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8066467046737671</v>
+        <v>-0.8054178953170776</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.28581178188324</v>
+        <v>1.285859346389771</v>
       </c>
       <c r="C205" t="n">
-        <v>1.81635308265686</v>
+        <v>1.815242648124695</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5305413007736206</v>
+        <v>-0.5293833017349243</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046551823616028</v>
+        <v>1.046551108360291</v>
       </c>
       <c r="C206" t="n">
-        <v>1.087430596351624</v>
+        <v>1.086489677429199</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.0408787727355957</v>
+        <v>-0.03993856906890869</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203834295272827</v>
+        <v>1.20386528968811</v>
       </c>
       <c r="C207" t="n">
-        <v>0.945810854434967</v>
+        <v>0.9449028968811035</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2580234408378601</v>
+        <v>0.2589623928070068</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.473076224327087</v>
+        <v>1.473161458969116</v>
       </c>
       <c r="C208" t="n">
-        <v>0.751840353012085</v>
+        <v>0.7509775757789612</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7212358713150024</v>
+        <v>0.722183883190155</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513458490371704</v>
+        <v>1.513551950454712</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5698755979537964</v>
+        <v>0.5690551400184631</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9435828924179077</v>
+        <v>0.9444968104362488</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865581035614014</v>
+        <v>1.865745425224304</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6708391904830933</v>
+        <v>0.6699952483177185</v>
       </c>
       <c r="D210" t="n">
-        <v>1.19474184513092</v>
+        <v>1.19575023651123</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612830638885498</v>
+        <v>1.61294412612915</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8345102667808533</v>
+        <v>0.833628237247467</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7783203721046448</v>
+        <v>0.7793158888816833</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065991401672363</v>
+        <v>2.066195964813232</v>
       </c>
       <c r="C212" t="n">
-        <v>1.118348240852356</v>
+        <v>1.117400169372559</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9476431608200073</v>
+        <v>0.9487957954406738</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.15236496925354</v>
+        <v>2.152587175369263</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5170847773551941</v>
+        <v>0.5162765979766846</v>
       </c>
       <c r="D213" t="n">
-        <v>1.635280132293701</v>
+        <v>1.636310577392578</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.911210656166077</v>
+        <v>1.911384105682373</v>
       </c>
       <c r="C214" t="n">
-        <v>1.021074414253235</v>
+        <v>1.020148992538452</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8901362419128418</v>
+        <v>0.8912351131439209</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050718307495117</v>
+        <v>2.050919771194458</v>
       </c>
       <c r="C215" t="n">
-        <v>1.17321503162384</v>
+        <v>1.172254085540771</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8775032758712769</v>
+        <v>0.8786656856536865</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.924092769622803</v>
+        <v>1.924268841743469</v>
       </c>
       <c r="C216" t="n">
-        <v>1.404092788696289</v>
+        <v>1.403078079223633</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5211907625198364</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003207445144653</v>
+        <v>1.003198027610779</v>
       </c>
       <c r="C217" t="n">
-        <v>1.206629753112793</v>
+        <v>1.205661058425903</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2034223079681396</v>
+        <v>-0.2024630308151245</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7117037773132324</v>
+        <v>0.7116356492042542</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5087021589279175</v>
+        <v>0.5078959465026855</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2030016183853149</v>
+        <v>0.2037397027015686</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493708372116089</v>
+        <v>1.493797779083252</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4958523511886597</v>
+        <v>0.4950491487979889</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9978560209274292</v>
+        <v>0.9987486600875854</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355295777320862</v>
+        <v>1.35535717010498</v>
       </c>
       <c r="C220" t="n">
-        <v>1.203333258628845</v>
+        <v>1.202365279197693</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1519625186920166</v>
+        <v>0.1529918909072876</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.492206811904907</v>
+        <v>1.492295861244202</v>
       </c>
       <c r="C221" t="n">
-        <v>1.417593359947205</v>
+        <v>1.41657567024231</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07461345195770264</v>
+        <v>0.07572019100189209</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288321375846863</v>
+        <v>1.288369297981262</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9991299510002136</v>
+        <v>0.9982095956802368</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2891914248466492</v>
+        <v>0.2901597023010254</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.932178258895874</v>
+        <v>0.9321545362472534</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7278794646263123</v>
+        <v>0.7270222902297974</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2042987942695618</v>
+        <v>0.2051322460174561</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092717409133911</v>
+        <v>1.092725992202759</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4240367114543915</v>
+        <v>0.4232502281665802</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6686806678771973</v>
+        <v>0.669475793838501</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489752411842346</v>
+        <v>1.489841103553772</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5726566910743713</v>
+        <v>0.5718356370925903</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9170957207679749</v>
+        <v>0.9180054664611816</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.845268726348877</v>
+        <v>1.845428943634033</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07776276767253876</v>
+        <v>0.07705685496330261</v>
       </c>
       <c r="D226" t="n">
-        <v>1.767506003379822</v>
+        <v>1.768372058868408</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655690908432007</v>
+        <v>1.655812859535217</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4893312454223633</v>
+        <v>0.4885295629501343</v>
       </c>
       <c r="D227" t="n">
-        <v>1.166359663009644</v>
+        <v>1.167283296585083</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092669725418091</v>
+        <v>2.092879772186279</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8916564583778381</v>
+        <v>0.890761137008667</v>
       </c>
       <c r="D228" t="n">
-        <v>1.201013326644897</v>
+        <v>1.202118635177612</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993985891342163</v>
+        <v>1.994176149368286</v>
       </c>
       <c r="C229" t="n">
-        <v>1.209794402122498</v>
+        <v>1.20882511138916</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7841914892196655</v>
+        <v>0.785351037979126</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985656976699829</v>
+        <v>1.985845565795898</v>
       </c>
       <c r="C230" t="n">
-        <v>1.743613719940186</v>
+        <v>1.742520093917847</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2420432567596436</v>
+        <v>0.2433254718780518</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682796239852905</v>
+        <v>1.682923793792725</v>
       </c>
       <c r="C231" t="n">
-        <v>1.795222401618958</v>
+        <v>1.794116735458374</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1124261617660522</v>
+        <v>-0.1111929416656494</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702692747116089</v>
+        <v>1.702824234962463</v>
       </c>
       <c r="C232" t="n">
-        <v>1.569886326789856</v>
+        <v>1.568833112716675</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1328064203262329</v>
+        <v>0.1339911222457886</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202885389328003</v>
+        <v>2.203117847442627</v>
       </c>
       <c r="C233" t="n">
-        <v>1.608323931694031</v>
+        <v>1.607261896133423</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5945614576339722</v>
+        <v>0.5958559513092041</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.676913499832153</v>
+        <v>2.677241325378418</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9409674406051636</v>
+        <v>0.9400606155395508</v>
       </c>
       <c r="D234" t="n">
-        <v>1.73594605922699</v>
+        <v>1.737180709838867</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.318375587463379</v>
+        <v>2.318630933761597</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3005967140197754</v>
+        <v>0.2998389303684235</v>
       </c>
       <c r="D235" t="n">
-        <v>2.017778873443604</v>
+        <v>2.018791913986206</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135889768600464</v>
+        <v>2.136108636856079</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3450322151184082</v>
+        <v>0.3442640900611877</v>
       </c>
       <c r="D236" t="n">
-        <v>1.790857553482056</v>
+        <v>1.791844606399536</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.669323444366455</v>
+        <v>2.669649600982666</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6204450726509094</v>
+        <v>-0.6209884881973267</v>
       </c>
       <c r="D237" t="n">
-        <v>3.28976845741272</v>
+        <v>3.290637969970703</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.243222236633301</v>
+        <v>2.243462800979614</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.160970091819763</v>
+        <v>-1.161387801170349</v>
       </c>
       <c r="D238" t="n">
-        <v>3.404192447662354</v>
+        <v>3.404850482940674</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.597386360168457</v>
+        <v>2.597697734832764</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.499475002288818</v>
+        <v>-1.499813795089722</v>
       </c>
       <c r="D239" t="n">
-        <v>4.096861362457275</v>
+        <v>4.097511291503906</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.772958517074585</v>
+        <v>2.773305654525757</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8840656280517578</v>
+        <v>-0.8845477104187012</v>
       </c>
       <c r="D240" t="n">
-        <v>3.657024145126343</v>
+        <v>3.657853364944458</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.302332639694214</v>
+        <v>2.302585124969482</v>
       </c>
       <c r="C241" t="n">
-        <v>1.302195310592651</v>
+        <v>1.301204562187195</v>
       </c>
       <c r="D241" t="n">
-        <v>1.000137329101562</v>
+        <v>1.001380562782288</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.628352642059326</v>
+        <v>2.628670692443848</v>
       </c>
       <c r="C242" t="n">
-        <v>2.341192245483398</v>
+        <v>2.339959621429443</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2871603965759277</v>
+        <v>0.2887110710144043</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021939039230347</v>
+        <v>2.022134780883789</v>
       </c>
       <c r="C243" t="n">
-        <v>2.604359149932861</v>
+        <v>2.603065252304077</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5824201107025146</v>
+        <v>-0.5809304714202881</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.209420680999756</v>
+        <v>2.209654092788696</v>
       </c>
       <c r="C244" t="n">
-        <v>2.497057676315308</v>
+        <v>2.495788812637329</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.2876369953155518</v>
+        <v>-0.2861347198486328</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.267297029495239</v>
+        <v>2.267542362213135</v>
       </c>
       <c r="C245" t="n">
-        <v>2.574481248855591</v>
+        <v>2.573194026947021</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3071842193603516</v>
+        <v>-0.3056516647338867</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.321472883224487</v>
+        <v>2.321728944778442</v>
       </c>
       <c r="C246" t="n">
-        <v>1.531989216804504</v>
+        <v>1.53094482421875</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7894836664199829</v>
+        <v>0.7907841205596924</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208775758743286</v>
+        <v>2.209009170532227</v>
       </c>
       <c r="C247" t="n">
-        <v>1.162859201431274</v>
+        <v>1.161900639533997</v>
       </c>
       <c r="D247" t="n">
-        <v>1.045916557312012</v>
+        <v>1.04710853099823</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.037030458450317</v>
+        <v>2.037229061126709</v>
       </c>
       <c r="C248" t="n">
-        <v>1.590782999992371</v>
+        <v>1.589724898338318</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4462474584579468</v>
+        <v>0.4475041627883911</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542460322380066</v>
+        <v>1.542559504508972</v>
       </c>
       <c r="C249" t="n">
-        <v>1.995842456817627</v>
+        <v>1.99469006061554</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.453382134437561</v>
+        <v>-0.4521305561065674</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264340996742249</v>
+        <v>1.264384150505066</v>
       </c>
       <c r="C250" t="n">
-        <v>1.544968485832214</v>
+        <v>1.543921232223511</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2806274890899658</v>
+        <v>-0.2795370817184448</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.776295065879822</v>
+        <v>1.77644145488739</v>
       </c>
       <c r="C251" t="n">
-        <v>1.371104955673218</v>
+        <v>1.370098114013672</v>
       </c>
       <c r="D251" t="n">
-        <v>0.405190110206604</v>
+        <v>0.4063433408737183</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544587731361389</v>
+        <v>1.544687390327454</v>
       </c>
       <c r="C252" t="n">
-        <v>1.222548127174377</v>
+        <v>1.221575856208801</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3220396041870117</v>
+        <v>0.3231115341186523</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404706954956055</v>
+        <v>1.404778599739075</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9329501390457153</v>
+        <v>0.9320452809333801</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4717568159103394</v>
+        <v>0.4727333188056946</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5279969573020935</v>
+        <v>0.5278918147087097</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.05296363681554794</v>
+        <v>-0.05363912507891655</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5809605717658997</v>
+        <v>0.5815309286117554</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7595068216323853</v>
+        <v>0.7594482898712158</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3188837766647339</v>
+        <v>0.3181217610836029</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4406230449676514</v>
+        <v>0.4413265287876129</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202558159828186</v>
+        <v>1.20258891582489</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9404541850090027</v>
+        <v>0.939547598361969</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2621039748191833</v>
+        <v>0.2630413174629211</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.18192732334137</v>
+        <v>1.181953907012939</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5199479460716248</v>
+        <v>0.5191391110420227</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6619793772697449</v>
+        <v>0.6628147959709167</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.677406907081604</v>
+        <v>0.6773318648338318</v>
       </c>
       <c r="C258" t="n">
-        <v>1.28814685344696</v>
+        <v>1.287159323692322</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6107399463653564</v>
+        <v>-0.60982745885849</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8816925883293152</v>
+        <v>0.881658673286438</v>
       </c>
       <c r="C259" t="n">
-        <v>1.819298148155212</v>
+        <v>1.81818699836731</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9376055598258972</v>
+        <v>-0.9365283250808716</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.170081973075867</v>
+        <v>1.170106172561646</v>
       </c>
       <c r="C260" t="n">
-        <v>2.265341997146606</v>
+        <v>2.264127016067505</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.09526002407074</v>
+        <v>-1.094020843505859</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297258853912354</v>
+        <v>1.297308564186096</v>
       </c>
       <c r="C261" t="n">
-        <v>1.910618782043457</v>
+        <v>1.909486413002014</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6133599281311035</v>
+        <v>-0.612177848815918</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.508177161216736</v>
+        <v>1.508269548416138</v>
       </c>
       <c r="C262" t="n">
-        <v>1.439680337905884</v>
+        <v>1.438657402992249</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06849682331085205</v>
+        <v>0.06961214542388916</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188321113586426</v>
+        <v>1.188348889350891</v>
       </c>
       <c r="C263" t="n">
-        <v>2.194008588790894</v>
+        <v>2.192810297012329</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.005687475204468</v>
+        <v>-1.004461407661438</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166460275650024</v>
+        <v>1.166483640670776</v>
       </c>
       <c r="C264" t="n">
-        <v>1.76130223274231</v>
+        <v>1.760204434394836</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5948419570922852</v>
+        <v>-0.5937207937240601</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328793287277222</v>
+        <v>1.32884955406189</v>
       </c>
       <c r="C265" t="n">
-        <v>1.750228762626648</v>
+        <v>1.749133586883545</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4214354753494263</v>
+        <v>-0.4202840328216553</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683806896209717</v>
+        <v>1.683934688568115</v>
       </c>
       <c r="C266" t="n">
-        <v>2.312662839889526</v>
+        <v>2.311436891555786</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6288559436798096</v>
+        <v>-0.6275022029876709</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9156221151351929</v>
+        <v>0.9155951142311096</v>
       </c>
       <c r="C267" t="n">
-        <v>1.708493709564209</v>
+        <v>1.70740818977356</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7928715944290161</v>
+        <v>-0.79181307554245</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088984370231628</v>
+        <v>1.088992357254028</v>
       </c>
       <c r="C268" t="n">
-        <v>1.319734692573547</v>
+        <v>1.318739771842957</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2307503223419189</v>
+        <v>-0.2297474145889282</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163355588912964</v>
+        <v>1.163378477096558</v>
       </c>
       <c r="C269" t="n">
-        <v>1.966804265975952</v>
+        <v>1.965658664703369</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8034486770629883</v>
+        <v>-0.8022801876068115</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002134084701538</v>
+        <v>1.002124428749084</v>
       </c>
       <c r="C270" t="n">
-        <v>2.168705463409424</v>
+        <v>2.167512893676758</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.166571378707886</v>
+        <v>-1.165388464927673</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9325072765350342</v>
+        <v>0.9324836134910583</v>
       </c>
       <c r="C271" t="n">
-        <v>2.42315673828125</v>
+        <v>2.421905040740967</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.490649461746216</v>
+        <v>-1.489421367645264</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1148595288395882</v>
+        <v>0.1146711707115173</v>
       </c>
       <c r="C272" t="n">
-        <v>2.44678783416748</v>
+        <v>2.44553017616272</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.331928253173828</v>
+        <v>-2.330858945846558</v>
       </c>
     </row>
     <row r="273">
@@ -4261,13 +4261,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4004073739051819</v>
+        <v>0.4002765417098999</v>
       </c>
       <c r="C273" t="n">
-        <v>2.713494539260864</v>
+        <v>2.712175130844116</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.313087224960327</v>
+        <v>-2.311898708343506</v>
       </c>
     </row>
     <row r="274">
@@ -4275,13 +4275,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5016865730285645</v>
+        <v>0.5015761256217957</v>
       </c>
       <c r="C274" t="n">
-        <v>2.365389823913574</v>
+        <v>2.364151477813721</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.86370325088501</v>
+        <v>-1.86257529258728</v>
       </c>
     </row>
     <row r="275">
@@ -4289,13 +4289,27 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3100058138370514</v>
+        <v>0.3098567724227905</v>
       </c>
       <c r="C275" t="n">
-        <v>1.86877453327179</v>
+        <v>1.8676518201828</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.558768749237061</v>
+        <v>-1.55779504776001</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.4285008311271667</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.393535733222961</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-0.9650349020957947</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8131614327430725</v>
+        <v>0.8128013014793396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7885257005691528</v>
+        <v>0.7880960702896118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02463573217391968</v>
+        <v>0.02470523118972778</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8398955464363098</v>
+        <v>0.8395372629165649</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2593672871589661</v>
+        <v>-0.2598334848880768</v>
       </c>
       <c r="D3" t="n">
-        <v>1.099262833595276</v>
+        <v>1.099370718002319</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9162450432777405</v>
+        <v>0.9158921837806702</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7666071653366089</v>
+        <v>-0.7670910954475403</v>
       </c>
       <c r="D4" t="n">
-        <v>1.682852268218994</v>
+        <v>1.68298327922821</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4913094341754913</v>
+        <v>0.4909267127513885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0888296365737915</v>
+        <v>0.08837559819221497</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4024797976016998</v>
+        <v>0.4025511145591736</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7166802287101746</v>
+        <v>0.716313362121582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01790891773998737</v>
+        <v>0.01745240762829781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6987712979316711</v>
+        <v>0.6988609433174133</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08036063611507416</v>
+        <v>0.07994907349348068</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1449612230062485</v>
+        <v>-0.1454234272241592</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2253218591213226</v>
+        <v>0.2253724932670593</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6718642115592957</v>
+        <v>0.67149418592453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4504642486572266</v>
+        <v>0.45002281665802</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2213999629020691</v>
+        <v>0.22147136926651</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.041209578514099</v>
+        <v>1.040865421295166</v>
       </c>
       <c r="C9" t="n">
-        <v>1.164613842964172</v>
+        <v>1.164197444915771</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1234042644500732</v>
+        <v>-0.1233320236206055</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.41483747959137</v>
+        <v>1.414519667625427</v>
       </c>
       <c r="C10" t="n">
-        <v>1.129578590393066</v>
+        <v>1.12916100025177</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2852588891983032</v>
+        <v>0.2853586673736572</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9746942520141602</v>
+        <v>0.9743455052375793</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9686627984046936</v>
+        <v>0.9682394862174988</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006031453609466553</v>
+        <v>0.006106019020080566</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057444930076599</v>
+        <v>1.057101964950562</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8079505562782288</v>
+        <v>0.807521641254425</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2494943737983704</v>
+        <v>0.2495803236961365</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7386596202850342</v>
+        <v>0.738294243812561</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3194029033184052</v>
+        <v>0.3189569115638733</v>
       </c>
       <c r="D13" t="n">
-        <v>0.419256716966629</v>
+        <v>0.4193373322486877</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2450903952121735</v>
+        <v>0.2446903884410858</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04969048127532005</v>
+        <v>-0.0501493513584137</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2947808802127838</v>
+        <v>0.2948397397994995</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5105257630348206</v>
+        <v>0.5101443529129028</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3875831067562103</v>
+        <v>-0.3880537748336792</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8981088399887085</v>
+        <v>0.898198127746582</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.184607148170471</v>
+        <v>1.18427312374115</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2464374452829361</v>
+        <v>0.2459889203310013</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9381697177886963</v>
+        <v>0.9382842183113098</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.02325451374054</v>
+        <v>1.022909164428711</v>
       </c>
       <c r="C17" t="n">
-        <v>1.054460287094116</v>
+        <v>1.05403995513916</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03120577335357666</v>
+        <v>-0.03113079071044922</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.10348379611969</v>
+        <v>1.10314404964447</v>
       </c>
       <c r="C18" t="n">
-        <v>1.847899317741394</v>
+        <v>1.847506761550903</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7444155216217041</v>
+        <v>-0.7443627119064331</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034701704978943</v>
+        <v>1.034357070922852</v>
       </c>
       <c r="C19" t="n">
-        <v>1.178442239761353</v>
+        <v>1.17802631855011</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1437405347824097</v>
+        <v>-0.1436692476272583</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.414730042219162</v>
+        <v>0.4143419563770294</v>
       </c>
       <c r="C20" t="n">
-        <v>1.998775005340576</v>
+        <v>1.998387694358826</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.584044933319092</v>
+        <v>-1.584045767784119</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7234456539154053</v>
+        <v>0.7230792045593262</v>
       </c>
       <c r="C21" t="n">
-        <v>1.377430558204651</v>
+        <v>1.377021551132202</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6539849042892456</v>
+        <v>-0.653942346572876</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7115926146507263</v>
+        <v>0.7112253308296204</v>
       </c>
       <c r="C22" t="n">
-        <v>1.494419932365417</v>
+        <v>1.494014859199524</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7828273177146912</v>
+        <v>-0.7827895283699036</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3972401916980743</v>
+        <v>0.3968508839607239</v>
       </c>
       <c r="C23" t="n">
-        <v>1.32095468044281</v>
+        <v>1.320543527603149</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9237145185470581</v>
+        <v>-0.9236926436424255</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6764267086982727</v>
+        <v>0.676056981086731</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8431932926177979</v>
+        <v>0.8427656292915344</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1667665839195251</v>
+        <v>-0.1667086482048035</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.105188846588135</v>
+        <v>1.104849219322205</v>
       </c>
       <c r="C25" t="n">
-        <v>1.005074977874756</v>
+        <v>1.004652857780457</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1001138687133789</v>
+        <v>0.100196361541748</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8964471220970154</v>
+        <v>0.8960928320884705</v>
       </c>
       <c r="C26" t="n">
-        <v>1.525063633918762</v>
+        <v>1.524659752845764</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6286165118217468</v>
+        <v>-0.6285669207572937</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.145204544067383</v>
+        <v>1.144867777824402</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7351168394088745</v>
+        <v>0.7346853613853455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4100877046585083</v>
+        <v>0.4101824164390564</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.177077174186707</v>
+        <v>1.176742553710938</v>
       </c>
       <c r="C28" t="n">
-        <v>1.975800633430481</v>
+        <v>1.975412607192993</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7987234592437744</v>
+        <v>-0.7986700534820557</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.912300705909729</v>
+        <v>0.9119475483894348</v>
       </c>
       <c r="C29" t="n">
-        <v>1.829320311546326</v>
+        <v>1.828926920890808</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9170196056365967</v>
+        <v>-0.9169793725013733</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4930011630058289</v>
+        <v>0.4926185607910156</v>
       </c>
       <c r="C30" t="n">
-        <v>1.602892518043518</v>
+        <v>1.60249137878418</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.109891414642334</v>
+        <v>-1.109872817993164</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7591815590858459</v>
+        <v>0.7588176131248474</v>
       </c>
       <c r="C31" t="n">
-        <v>1.226399540901184</v>
+        <v>1.225985288619995</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4672179818153381</v>
+        <v>-0.4671676754951477</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.858063280582428</v>
+        <v>0.8577063083648682</v>
       </c>
       <c r="C32" t="n">
-        <v>1.38640558719635</v>
+        <v>1.38599693775177</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5283423066139221</v>
+        <v>-0.5282906293869019</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7006099224090576</v>
+        <v>0.7002418637275696</v>
       </c>
       <c r="C33" t="n">
-        <v>1.321160793304443</v>
+        <v>1.320749878883362</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6205508708953857</v>
+        <v>-0.6205080151557922</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006834745407104</v>
+        <v>2.006558418273926</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5277249813079834</v>
+        <v>0.5272862315177917</v>
       </c>
       <c r="D34" t="n">
-        <v>1.479109764099121</v>
+        <v>1.479272127151489</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.46433162689209</v>
+        <v>1.464017391204834</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1134500727057457</v>
+        <v>-0.1139111667871475</v>
       </c>
       <c r="D35" t="n">
-        <v>1.577781677246094</v>
+        <v>1.57792854309082</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.211118698120117</v>
+        <v>1.210786461830139</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5186715722084045</v>
+        <v>0.518232524394989</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6924471259117126</v>
+        <v>0.6925539374351501</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.494276762008667</v>
+        <v>1.493964433670044</v>
       </c>
       <c r="C37" t="n">
-        <v>2.023869514465332</v>
+        <v>2.023483037948608</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.529592752456665</v>
+        <v>-0.5295186042785645</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.331167221069336</v>
+        <v>1.330843567848206</v>
       </c>
       <c r="C38" t="n">
-        <v>2.144917011260986</v>
+        <v>2.144534826278687</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8137497901916504</v>
+        <v>-0.813691258430481</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.970129728317261</v>
+        <v>1.969850778579712</v>
       </c>
       <c r="C39" t="n">
-        <v>1.635236144065857</v>
+        <v>1.634836196899414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3348935842514038</v>
+        <v>0.3350145816802979</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744922995567322</v>
+        <v>1.744628190994263</v>
       </c>
       <c r="C40" t="n">
-        <v>1.102820515632629</v>
+        <v>1.102401971817017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6421024799346924</v>
+        <v>0.6422262191772461</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821524381637573</v>
+        <v>1.821235060691833</v>
       </c>
       <c r="C41" t="n">
-        <v>1.638701796531677</v>
+        <v>1.638301849365234</v>
       </c>
       <c r="D41" t="n">
-        <v>0.182822585105896</v>
+        <v>0.1829332113265991</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755840659141541</v>
+        <v>1.755546808242798</v>
       </c>
       <c r="C42" t="n">
-        <v>1.176031470298767</v>
+        <v>1.175615429878235</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5798091888427734</v>
+        <v>0.579931378364563</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.603204011917114</v>
+        <v>1.602899193763733</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7019354104995728</v>
+        <v>0.7015027403831482</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9012686014175415</v>
+        <v>0.9013964533805847</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.16401743888855</v>
+        <v>1.163681864738464</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4701838791370392</v>
+        <v>0.4697431623935699</v>
       </c>
       <c r="D44" t="n">
-        <v>0.693833589553833</v>
+        <v>0.6939387321472168</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.087088942527771</v>
+        <v>1.086748123168945</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03454945608973503</v>
+        <v>0.03409352526068687</v>
       </c>
       <c r="D45" t="n">
-        <v>1.052539467811584</v>
+        <v>1.052654623985291</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349380493164062</v>
+        <v>1.349057912826538</v>
       </c>
       <c r="C46" t="n">
-        <v>1.10937225818634</v>
+        <v>1.108953833580017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2400082349777222</v>
+        <v>0.240104079246521</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.991237998008728</v>
+        <v>0.9908903241157532</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8788593411445618</v>
+        <v>0.8784329295158386</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1123786568641663</v>
+        <v>0.1124573945999146</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6579241156578064</v>
+        <v>0.6575530767440796</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9977548718452454</v>
+        <v>0.9973326325416565</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.339830756187439</v>
+        <v>-0.3397795557975769</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7139388918876648</v>
+        <v>0.7135717868804932</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3667888641357422</v>
+        <v>0.366344541311264</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3471500277519226</v>
+        <v>0.3472272455692291</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381802797317505</v>
+        <v>1.381482601165771</v>
       </c>
       <c r="C50" t="n">
-        <v>1.375302672386169</v>
+        <v>1.374893426895142</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006500124931335449</v>
+        <v>0.006589174270629883</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.343059301376343</v>
+        <v>1.34273624420166</v>
       </c>
       <c r="C51" t="n">
-        <v>1.235217809677124</v>
+        <v>1.234803795814514</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1078414916992188</v>
+        <v>0.107932448387146</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021963715553284</v>
+        <v>1.021618247032166</v>
       </c>
       <c r="C52" t="n">
-        <v>0.607699453830719</v>
+        <v>0.6072635054588318</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4142642617225647</v>
+        <v>0.4143547415733337</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144524097442627</v>
+        <v>1.144187092781067</v>
       </c>
       <c r="C53" t="n">
-        <v>1.125528335571289</v>
+        <v>1.125110507011414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01899576187133789</v>
+        <v>0.01907658576965332</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1841304004192352</v>
+        <v>-0.1845605224370956</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8753247857093811</v>
+        <v>0.8748981952667236</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.059455156326294</v>
+        <v>-1.05945873260498</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05685632303357124</v>
+        <v>-0.05727751553058624</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8002867102622986</v>
+        <v>0.7998575568199158</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8571430444717407</v>
+        <v>-0.8571350574493408</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1686035394668579</v>
+        <v>0.1681981682777405</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7444669008255005</v>
+        <v>0.7440357208251953</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5758633613586426</v>
+        <v>-0.5758375525474548</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144961357116699</v>
+        <v>1.144624590873718</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8380565643310547</v>
+        <v>0.8376286625862122</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3069047927856445</v>
+        <v>0.3069959282875061</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.254172086715698</v>
+        <v>1.253842949867249</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6513186097145081</v>
+        <v>0.650884211063385</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6028534770011902</v>
+        <v>0.6029587388038635</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243924736976624</v>
+        <v>1.243595004081726</v>
       </c>
       <c r="C59" t="n">
-        <v>0.687630832195282</v>
+        <v>0.6871976852416992</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5562939047813416</v>
+        <v>0.5563973188400269</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063703656196594</v>
+        <v>1.063361167907715</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9247321486473083</v>
+        <v>0.9243073463439941</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1389715075492859</v>
+        <v>0.1390538215637207</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008926391601562</v>
+        <v>1.008579969406128</v>
       </c>
       <c r="C61" t="n">
-        <v>1.151678323745728</v>
+        <v>1.151261448860168</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.142751932144165</v>
+        <v>-0.1426814794540405</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8699207901954651</v>
+        <v>0.8695646524429321</v>
       </c>
       <c r="C62" t="n">
-        <v>1.465386390686035</v>
+        <v>1.464980363845825</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5954656004905701</v>
+        <v>-0.5954157114028931</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9207037687301636</v>
+        <v>0.9203512072563171</v>
       </c>
       <c r="C63" t="n">
-        <v>2.641248226165771</v>
+        <v>2.640883207321167</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.720544457435608</v>
+        <v>-1.720531940460205</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.159137368202209</v>
+        <v>1.158801555633545</v>
       </c>
       <c r="C64" t="n">
-        <v>2.569983243942261</v>
+        <v>2.569615602493286</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.410845875740051</v>
+        <v>-1.410814046859741</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356976985931396</v>
+        <v>1.356655120849609</v>
       </c>
       <c r="C65" t="n">
-        <v>1.050060272216797</v>
+        <v>1.049639701843262</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3069167137145996</v>
+        <v>0.3070154190063477</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529478192329407</v>
+        <v>1.529168367385864</v>
       </c>
       <c r="C66" t="n">
-        <v>1.23456609249115</v>
+        <v>1.23415207862854</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2949120998382568</v>
+        <v>0.2950162887573242</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363722920417786</v>
+        <v>1.363401532173157</v>
       </c>
       <c r="C67" t="n">
-        <v>1.637783050537109</v>
+        <v>1.637382984161377</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2740601301193237</v>
+        <v>-0.2739814519882202</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6023500561714172</v>
+        <v>0.60197514295578</v>
       </c>
       <c r="C68" t="n">
-        <v>1.694115042686462</v>
+        <v>1.693717122077942</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.0917649269104</v>
+        <v>-1.091742038726807</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.985995352268219</v>
+        <v>0.9856473207473755</v>
       </c>
       <c r="C69" t="n">
-        <v>1.745238661766052</v>
+        <v>1.744842529296875</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7592433094978333</v>
+        <v>-0.7591952085494995</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8861521482467651</v>
+        <v>0.8857971429824829</v>
       </c>
       <c r="C70" t="n">
-        <v>1.981236338615417</v>
+        <v>1.98084831237793</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.095084190368652</v>
+        <v>-1.095051169395447</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7924834489822388</v>
+        <v>0.7921218872070312</v>
       </c>
       <c r="C71" t="n">
-        <v>1.755704998970032</v>
+        <v>1.755309224128723</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.963221549987793</v>
+        <v>-0.9631873369216919</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5022230744361877</v>
+        <v>0.501841127872467</v>
       </c>
       <c r="C72" t="n">
-        <v>1.629528164863586</v>
+        <v>1.629127860069275</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.127305030822754</v>
+        <v>-1.127286672592163</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3504489064216614</v>
+        <v>0.3500562906265259</v>
       </c>
       <c r="C73" t="n">
-        <v>1.233706951141357</v>
+        <v>1.233292818069458</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.883258044719696</v>
+        <v>-0.8832365274429321</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4382690489292145</v>
+        <v>0.4378826022148132</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5631878972053528</v>
+        <v>0.5627504587173462</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1249188482761383</v>
+        <v>-0.124867856502533</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4903947412967682</v>
+        <v>0.4900119602680206</v>
       </c>
       <c r="C75" t="n">
-        <v>1.903660893440247</v>
+        <v>1.903270125389099</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.413266181945801</v>
+        <v>-1.413258194923401</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8041799068450928</v>
+        <v>0.8038191795349121</v>
       </c>
       <c r="C76" t="n">
-        <v>1.218586325645447</v>
+        <v>1.218171834945679</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.414406418800354</v>
+        <v>-0.4143526554107666</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7485817670822144</v>
+        <v>0.7482171058654785</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8222750425338745</v>
+        <v>0.8218467235565186</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07369327545166016</v>
+        <v>-0.07362961769104004</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075478553771973</v>
+        <v>1.075136780738831</v>
       </c>
       <c r="C78" t="n">
-        <v>1.497685790061951</v>
+        <v>1.497280836105347</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.422207236289978</v>
+        <v>-0.4221440553665161</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8493272662162781</v>
+        <v>0.8489696383476257</v>
       </c>
       <c r="C79" t="n">
-        <v>1.267071008682251</v>
+        <v>1.266658067703247</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4177437424659729</v>
+        <v>-0.4176884293556213</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9273369908332825</v>
+        <v>0.9269849061965942</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5238696932792664</v>
+        <v>0.5234308242797852</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4034672975540161</v>
+        <v>0.4035540819168091</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514475226402283</v>
+        <v>1.514164209365845</v>
       </c>
       <c r="C81" t="n">
-        <v>0.668404757976532</v>
+        <v>0.6679709553718567</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8460704684257507</v>
+        <v>0.846193253993988</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.291023969650269</v>
+        <v>1.290697455406189</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6690787076950073</v>
+        <v>-0.6695591807365417</v>
       </c>
       <c r="D82" t="n">
-        <v>1.960102677345276</v>
+        <v>1.960256576538086</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584504246711731</v>
+        <v>1.584198236465454</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8355550169944763</v>
+        <v>-0.8360413312911987</v>
       </c>
       <c r="D83" t="n">
-        <v>2.420059204101562</v>
+        <v>2.420239448547363</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.825062036514282</v>
+        <v>1.824772953987122</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1741739809513092</v>
+        <v>-0.17463718354702</v>
       </c>
       <c r="D84" t="n">
-        <v>1.999235987663269</v>
+        <v>1.999410152435303</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.837921380996704</v>
+        <v>1.83763313293457</v>
       </c>
       <c r="C85" t="n">
-        <v>0.955650269985199</v>
+        <v>0.9552264213562012</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8822711110115051</v>
+        <v>0.8824067115783691</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687472939491272</v>
+        <v>1.687174201011658</v>
       </c>
       <c r="C86" t="n">
-        <v>1.234006762504578</v>
+        <v>1.233592867851257</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4534661769866943</v>
+        <v>0.4535813331604004</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547421097755432</v>
+        <v>1.547112345695496</v>
       </c>
       <c r="C87" t="n">
-        <v>1.935031294822693</v>
+        <v>1.934641599655151</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3876101970672607</v>
+        <v>-0.3875292539596558</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.359223127365112</v>
+        <v>1.358901381492615</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8766703009605408</v>
+        <v>0.8762437105178833</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4825528264045715</v>
+        <v>0.4826576709747314</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404618501663208</v>
+        <v>1.404299736022949</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03261661529541</v>
+        <v>1.032195448875427</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3720018863677979</v>
+        <v>0.372104287147522</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746986746788025</v>
+        <v>1.746692061424255</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8029689788818359</v>
+        <v>0.8025398850440979</v>
       </c>
       <c r="D90" t="n">
-        <v>0.944017767906189</v>
+        <v>0.9441521763801575</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.892724990844727</v>
+        <v>1.892440676689148</v>
       </c>
       <c r="C91" t="n">
-        <v>1.172083854675293</v>
+        <v>1.171667695045471</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7206411361694336</v>
+        <v>0.7207729816436768</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563961386680603</v>
+        <v>1.563653945922852</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8631455898284912</v>
+        <v>0.8627185821533203</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7008157968521118</v>
+        <v>0.7009353637695312</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709802508354187</v>
+        <v>1.709505319595337</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7112186551094055</v>
+        <v>0.7107863426208496</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9985838532447815</v>
+        <v>0.9987189769744873</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.431213140487671</v>
+        <v>1.430896401405334</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2194521874189377</v>
+        <v>0.2190027087926865</v>
       </c>
       <c r="D94" t="n">
-        <v>1.211760997772217</v>
+        <v>1.211893677711487</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083344697952271</v>
+        <v>1.083003520965576</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5206189751625061</v>
+        <v>0.5201799869537354</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5627257227897644</v>
+        <v>0.5628235340118408</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6684800982475281</v>
+        <v>0.6681098341941833</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7232175469398499</v>
+        <v>0.7227857112884521</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05473744869232178</v>
+        <v>-0.0546758770942688</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6038951873779297</v>
+        <v>0.603520393371582</v>
       </c>
       <c r="C97" t="n">
-        <v>1.042245388031006</v>
+        <v>1.041824698448181</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4383502006530762</v>
+        <v>-0.4383043050765991</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.003982067108154</v>
+        <v>1.003635287284851</v>
       </c>
       <c r="C98" t="n">
-        <v>0.967701256275177</v>
+        <v>0.9672778248786926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03628081083297729</v>
+        <v>0.03635746240615845</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2788739502429962</v>
+        <v>0.2784763276576996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1084916368126869</v>
+        <v>0.1080382838845253</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1703823208808899</v>
+        <v>0.1704380512237549</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05793533846735954</v>
+        <v>-0.05835660919547081</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3513583540916443</v>
+        <v>-0.3518277704715729</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2934230268001556</v>
+        <v>0.2934711575508118</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2321421205997467</v>
+        <v>-0.2325756102800369</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3246431350708008</v>
+        <v>0.3241973221302032</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5567852258682251</v>
+        <v>-0.5567729473114014</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2107147127389908</v>
+        <v>0.2103122919797897</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2738107144832611</v>
+        <v>-0.27427738904953</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4845254421234131</v>
+        <v>0.484589695930481</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7510323524475098</v>
+        <v>0.7506678700447083</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4467788338661194</v>
+        <v>-0.447251558303833</v>
       </c>
       <c r="D103" t="n">
-        <v>1.197811126708984</v>
+        <v>1.197919368743896</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001541495323181</v>
+        <v>1.001194596290588</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7047106027603149</v>
+        <v>-0.7051923274993896</v>
       </c>
       <c r="D104" t="n">
-        <v>1.706252098083496</v>
+        <v>1.706386923789978</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068428516387939</v>
+        <v>1.068086266517639</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04751026630401611</v>
+        <v>-0.04796906188130379</v>
       </c>
       <c r="D105" t="n">
-        <v>1.115938782691956</v>
+        <v>1.116055369377136</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.173192143440247</v>
+        <v>1.172857284545898</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6450663805007935</v>
+        <v>0.6446318030357361</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5281257629394531</v>
+        <v>0.5282254815101624</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081555485725403</v>
+        <v>1.081214189529419</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4702524244785309</v>
+        <v>0.4698117077350616</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6113030910491943</v>
+        <v>0.6114025115966797</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8388356566429138</v>
+        <v>0.8384773135185242</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8588730692863464</v>
+        <v>0.8584458827972412</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02003741264343262</v>
+        <v>-0.01996856927871704</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5666657686233521</v>
+        <v>0.5662883520126343</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9597245454788208</v>
+        <v>0.9593009352684021</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3930587768554688</v>
+        <v>-0.3930125832557678</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8342176675796509</v>
+        <v>0.8338590264320374</v>
       </c>
       <c r="C110" t="n">
-        <v>1.002305507659912</v>
+        <v>1.001883268356323</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1680878400802612</v>
+        <v>-0.1680242419242859</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.193054676055908</v>
+        <v>1.192721366882324</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4726470410823822</v>
+        <v>0.4722064137458801</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7204076051712036</v>
+        <v>0.7205149531364441</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701652884483337</v>
+        <v>1.701355218887329</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8063783049583435</v>
+        <v>0.8059492707252502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8952745795249939</v>
+        <v>0.8954059481620789</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044549942016602</v>
+        <v>1.044206023216248</v>
       </c>
       <c r="C113" t="n">
-        <v>1.113542079925537</v>
+        <v>1.113123774528503</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06899213790893555</v>
+        <v>-0.06891775131225586</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458865404129028</v>
+        <v>1.458550572395325</v>
       </c>
       <c r="C114" t="n">
-        <v>1.713258981704712</v>
+        <v>1.712861657142639</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2543935775756836</v>
+        <v>-0.2543110847473145</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.998239874839783</v>
+        <v>1.997962951660156</v>
       </c>
       <c r="C115" t="n">
-        <v>1.970102906227112</v>
+        <v>1.969714641571045</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0281369686126709</v>
+        <v>0.02824831008911133</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.311134457588196</v>
+        <v>1.310809254646301</v>
       </c>
       <c r="C116" t="n">
-        <v>2.465056896209717</v>
+        <v>2.464685916900635</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.153922438621521</v>
+        <v>-1.153876662254333</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.698241949081421</v>
+        <v>1.697943925857544</v>
       </c>
       <c r="C117" t="n">
-        <v>2.192517280578613</v>
+        <v>2.192136526107788</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4942753314971924</v>
+        <v>-0.4941926002502441</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721766710281372</v>
+        <v>1.721470475196838</v>
       </c>
       <c r="C118" t="n">
-        <v>1.626311302185059</v>
+        <v>1.625910878181458</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09545540809631348</v>
+        <v>0.09555959701538086</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.928252458572388</v>
+        <v>1.92797064781189</v>
       </c>
       <c r="C119" t="n">
-        <v>1.697142839431763</v>
+        <v>1.696744918823242</v>
       </c>
       <c r="D119" t="n">
-        <v>0.231109619140625</v>
+        <v>0.2312257289886475</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379899501800537</v>
+        <v>1.379579186439514</v>
       </c>
       <c r="C120" t="n">
-        <v>1.680107831954956</v>
+        <v>1.679709315299988</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3002083301544189</v>
+        <v>-0.3001301288604736</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.998178839683533</v>
+        <v>1.997901916503906</v>
       </c>
       <c r="C121" t="n">
-        <v>1.686048984527588</v>
+        <v>1.685650587081909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3121298551559448</v>
+        <v>0.3122513294219971</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.047392606735229</v>
+        <v>2.047118902206421</v>
       </c>
       <c r="C122" t="n">
-        <v>1.245558261871338</v>
+        <v>1.245144486427307</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8018343448638916</v>
+        <v>0.8019744157791138</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351813554763794</v>
+        <v>2.351561307907104</v>
       </c>
       <c r="C123" t="n">
-        <v>2.139726400375366</v>
+        <v>2.139343976974487</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2120871543884277</v>
+        <v>0.2122173309326172</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.453749179840088</v>
+        <v>2.453504323959351</v>
       </c>
       <c r="C124" t="n">
-        <v>1.811953186988831</v>
+        <v>1.811559200286865</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6417959928512573</v>
+        <v>0.6419451236724854</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421895027160645</v>
+        <v>2.421647548675537</v>
       </c>
       <c r="C125" t="n">
-        <v>1.621222138404846</v>
+        <v>1.620821595191956</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8006728887557983</v>
+        <v>0.8008259534835815</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.77868640422821</v>
+        <v>1.778393983840942</v>
       </c>
       <c r="C126" t="n">
-        <v>2.241670608520508</v>
+        <v>2.241291761398315</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4629842042922974</v>
+        <v>-0.462897777557373</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786630272865295</v>
+        <v>1.786338448524475</v>
       </c>
       <c r="C127" t="n">
-        <v>2.112384080886841</v>
+        <v>2.112000703811646</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3257538080215454</v>
+        <v>-0.3256622552871704</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.485270738601685</v>
+        <v>1.484957575798035</v>
       </c>
       <c r="C128" t="n">
-        <v>1.939047694206238</v>
+        <v>1.938658237457275</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4537769556045532</v>
+        <v>-0.4537006616592407</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172547340393066</v>
+        <v>1.172212481498718</v>
       </c>
       <c r="C129" t="n">
-        <v>1.77070951461792</v>
+        <v>1.77031409740448</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5981621742248535</v>
+        <v>-0.5981016159057617</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8092498183250427</v>
+        <v>0.8088893890380859</v>
       </c>
       <c r="C130" t="n">
-        <v>2.927959442138672</v>
+        <v>2.927604675292969</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.118709564208984</v>
+        <v>-2.118715286254883</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.39285808801651</v>
+        <v>0.3924684524536133</v>
       </c>
       <c r="C131" t="n">
-        <v>2.163364171981812</v>
+        <v>2.162982702255249</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.770506143569946</v>
+        <v>-1.770514249801636</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05750563368201256</v>
+        <v>-0.05792687088251114</v>
       </c>
       <c r="C132" t="n">
-        <v>1.821997761726379</v>
+        <v>1.821604132652283</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.87950336933136</v>
+        <v>-1.879531025886536</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09332047402858734</v>
+        <v>0.09290982037782669</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8117787837982178</v>
+        <v>0.8113499879837036</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7184582948684692</v>
+        <v>-0.7184401750564575</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1556612551212311</v>
+        <v>0.1552549749612808</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1676435321569443</v>
+        <v>0.1671922504901886</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0119822770357132</v>
+        <v>-0.01193727552890778</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380706399679184</v>
+        <v>0.380315899848938</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3549186885356903</v>
+        <v>0.3544739186763763</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02578771114349365</v>
+        <v>0.02584198117256165</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7311135530471802</v>
+        <v>0.7307476997375488</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1986908614635468</v>
+        <v>0.1982406675815582</v>
       </c>
       <c r="D136" t="n">
-        <v>0.532422661781311</v>
+        <v>0.532507061958313</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6017297506332397</v>
+        <v>0.6013547778129578</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5038796663284302</v>
+        <v>0.5034401416778564</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09785008430480957</v>
+        <v>0.09791463613510132</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8435416221618652</v>
+        <v>0.8431836366653442</v>
       </c>
       <c r="C138" t="n">
-        <v>0.968927800655365</v>
+        <v>0.9685045480728149</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1253861784934998</v>
+        <v>-0.1253209114074707</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.303931474685669</v>
+        <v>1.303605914115906</v>
       </c>
       <c r="C139" t="n">
-        <v>1.032521367073059</v>
+        <v>1.032100439071655</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2714101076126099</v>
+        <v>0.2715054750442505</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.260699391365051</v>
+        <v>1.26037061214447</v>
       </c>
       <c r="C140" t="n">
-        <v>1.270823121070862</v>
+        <v>1.270410180091858</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01012372970581055</v>
+        <v>-0.0100395679473877</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491346955299377</v>
+        <v>1.491034388542175</v>
       </c>
       <c r="C141" t="n">
-        <v>1.225274324417114</v>
+        <v>1.224859952926636</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2660726308822632</v>
+        <v>0.2661744356155396</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.404246926307678</v>
+        <v>1.403928399085999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1922140717506409</v>
+        <v>0.1917636394500732</v>
       </c>
       <c r="D142" t="n">
-        <v>1.212032794952393</v>
+        <v>1.212164759635925</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.764583349227905</v>
+        <v>1.76429009437561</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2797271311283112</v>
+        <v>0.2792797684669495</v>
       </c>
       <c r="D143" t="n">
-        <v>1.484856247901917</v>
+        <v>1.485010385513306</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.604213237762451</v>
+        <v>1.603908658027649</v>
       </c>
       <c r="C144" t="n">
-        <v>1.28022027015686</v>
+        <v>1.279807806015015</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3239929676055908</v>
+        <v>0.3241008520126343</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711536884307861</v>
+        <v>1.711239814758301</v>
       </c>
       <c r="C145" t="n">
-        <v>1.468985915184021</v>
+        <v>1.46858012676239</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2425509691238403</v>
+        <v>0.2426596879959106</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152559280395508</v>
+        <v>1.152222990989685</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8977364301681519</v>
+        <v>0.897310733795166</v>
       </c>
       <c r="D146" t="n">
-        <v>0.254822850227356</v>
+        <v>0.254912257194519</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7276461720466614</v>
+        <v>0.7272800803184509</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8464683294296265</v>
+        <v>0.8460407257080078</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1188221573829651</v>
+        <v>-0.1187606453895569</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2875379621982574</v>
+        <v>0.2871409356594086</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2248324453830719</v>
+        <v>-0.2252974212169647</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5123704075813293</v>
+        <v>0.5124383568763733</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6824563145637512</v>
+        <v>0.6820870041847229</v>
       </c>
       <c r="C149" t="n">
-        <v>1.560803413391113</v>
+        <v>1.560400724411011</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8783470988273621</v>
+        <v>-0.8783137202262878</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038713932037354</v>
+        <v>1.038369655609131</v>
       </c>
       <c r="C150" t="n">
-        <v>2.45267128944397</v>
+        <v>2.452299833297729</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.413957357406616</v>
+        <v>-1.413930177688599</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.328369498252869</v>
+        <v>1.328045606613159</v>
       </c>
       <c r="C151" t="n">
-        <v>1.282382488250732</v>
+        <v>1.281970024108887</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04598701000213623</v>
+        <v>0.04607558250427246</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.362137079238892</v>
+        <v>1.361815333366394</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2924875915050507</v>
+        <v>0.2920406460762024</v>
       </c>
       <c r="D152" t="n">
-        <v>1.069649457931519</v>
+        <v>1.069774627685547</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.110511541366577</v>
+        <v>2.110242366790771</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1890049427747726</v>
+        <v>0.1885544061660767</v>
       </c>
       <c r="D153" t="n">
-        <v>1.921506643295288</v>
+        <v>1.921687960624695</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.997314453125</v>
+        <v>1.997037410736084</v>
       </c>
       <c r="C154" t="n">
-        <v>0.457050085067749</v>
+        <v>0.4566088914871216</v>
       </c>
       <c r="D154" t="n">
-        <v>1.540264368057251</v>
+        <v>1.540428519248962</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.862266659736633</v>
+        <v>1.861980199813843</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7638835310935974</v>
+        <v>0.7634530663490295</v>
       </c>
       <c r="D155" t="n">
-        <v>1.098383188247681</v>
+        <v>1.098527193069458</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609410047531128</v>
+        <v>1.609105706214905</v>
       </c>
       <c r="C156" t="n">
-        <v>1.357191681861877</v>
+        <v>1.356782078742981</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2522183656692505</v>
+        <v>0.2523236274719238</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912971138954163</v>
+        <v>1.912688136100769</v>
       </c>
       <c r="C157" t="n">
-        <v>1.731687068939209</v>
+        <v>1.731290459632874</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1812840700149536</v>
+        <v>0.1813976764678955</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529352426528931</v>
+        <v>1.529042601585388</v>
       </c>
       <c r="C158" t="n">
-        <v>1.460849165916443</v>
+        <v>1.460443019866943</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06850326061248779</v>
+        <v>0.06859958171844482</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363891005516052</v>
+        <v>1.363569617271423</v>
       </c>
       <c r="C159" t="n">
-        <v>1.629074692726135</v>
+        <v>1.628674387931824</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.265183687210083</v>
+        <v>-0.2651047706604004</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673542976379395</v>
+        <v>1.673243165016174</v>
       </c>
       <c r="C160" t="n">
-        <v>1.714210152626038</v>
+        <v>1.713812828063965</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04066717624664307</v>
+        <v>-0.04056966304779053</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.342168927192688</v>
+        <v>1.341845870018005</v>
       </c>
       <c r="C161" t="n">
-        <v>1.667400240898132</v>
+        <v>1.667001247406006</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3252313137054443</v>
+        <v>-0.3251553773880005</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.579105019569397</v>
+        <v>0.5787284970283508</v>
       </c>
       <c r="C162" t="n">
-        <v>1.787490606307983</v>
+        <v>1.787095785140991</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.208385586738586</v>
+        <v>-1.208367347717285</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.373154878616333</v>
+        <v>0.3727638423442841</v>
       </c>
       <c r="C163" t="n">
-        <v>1.2756427526474</v>
+        <v>1.275230169296265</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9024878740310669</v>
+        <v>-0.9024662971496582</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.671468198299408</v>
+        <v>0.6710981130599976</v>
       </c>
       <c r="C164" t="n">
-        <v>1.434420704841614</v>
+        <v>1.434013724327087</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7629525065422058</v>
+        <v>-0.7629156112670898</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8600128293037415</v>
+        <v>0.8596559762954712</v>
       </c>
       <c r="C165" t="n">
-        <v>1.104579091072083</v>
+        <v>1.10416042804718</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2445662617683411</v>
+        <v>-0.244504451751709</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9997053146362305</v>
+        <v>0.9993582963943481</v>
       </c>
       <c r="C166" t="n">
-        <v>1.235553622245789</v>
+        <v>1.235139727592468</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2358483076095581</v>
+        <v>-0.2357814311981201</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623461723327637</v>
+        <v>1.62315845489502</v>
       </c>
       <c r="C167" t="n">
-        <v>1.59438693523407</v>
+        <v>1.593985438346863</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02907478809356689</v>
+        <v>0.02917301654815674</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952916502952576</v>
+        <v>1.952636361122131</v>
       </c>
       <c r="C168" t="n">
-        <v>1.868488192558289</v>
+        <v>1.868096232414246</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08442831039428711</v>
+        <v>0.08454012870788574</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178418636322021</v>
+        <v>1.178084135055542</v>
       </c>
       <c r="C169" t="n">
-        <v>1.561190247535706</v>
+        <v>1.560787558555603</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3827716112136841</v>
+        <v>-0.382703423500061</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9839751720428467</v>
+        <v>0.9836270213127136</v>
       </c>
       <c r="C170" t="n">
-        <v>1.277308225631714</v>
+        <v>1.276895761489868</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2933330535888672</v>
+        <v>-0.2932687401771545</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.906902551651001</v>
+        <v>0.9065489768981934</v>
       </c>
       <c r="C171" t="n">
-        <v>1.031089425086975</v>
+        <v>1.030668258666992</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1241868734359741</v>
+        <v>-0.1241192817687988</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.023292183876038</v>
+        <v>1.022946834564209</v>
       </c>
       <c r="C172" t="n">
-        <v>1.868025660514832</v>
+        <v>1.867633819580078</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8447334766387939</v>
+        <v>-0.8446869850158691</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223885297775269</v>
+        <v>1.223553895950317</v>
       </c>
       <c r="C173" t="n">
-        <v>1.661819458007812</v>
+        <v>1.661420345306396</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4379341602325439</v>
+        <v>-0.4378664493560791</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.656277298927307</v>
+        <v>1.655976295471191</v>
       </c>
       <c r="C174" t="n">
-        <v>1.858438849449158</v>
+        <v>1.858046412467957</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2021615505218506</v>
+        <v>-0.2020701169967651</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470319509506226</v>
+        <v>1.470005393028259</v>
       </c>
       <c r="C175" t="n">
-        <v>1.898491144180298</v>
+        <v>1.89810037612915</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4281716346740723</v>
+        <v>-0.4280949831008911</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092533946037292</v>
+        <v>1.092193365097046</v>
       </c>
       <c r="C176" t="n">
-        <v>1.933297872543335</v>
+        <v>1.932908296585083</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8407639265060425</v>
+        <v>-0.8407149314880371</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.104323506355286</v>
+        <v>1.103983759880066</v>
       </c>
       <c r="C177" t="n">
-        <v>2.05879020690918</v>
+        <v>2.058404922485352</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.954466700553894</v>
+        <v>-0.9544211626052856</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334876656532288</v>
+        <v>1.334553003311157</v>
       </c>
       <c r="C178" t="n">
-        <v>1.965088248252869</v>
+        <v>1.964699625968933</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6302115917205811</v>
+        <v>-0.6301466226577759</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896592020988464</v>
+        <v>1.896307945251465</v>
       </c>
       <c r="C179" t="n">
-        <v>1.442582845687866</v>
+        <v>1.442175984382629</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4540091753005981</v>
+        <v>0.4541319608688354</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870779514312744</v>
+        <v>1.870493650436401</v>
       </c>
       <c r="C180" t="n">
-        <v>1.499838590621948</v>
+        <v>1.499433755874634</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3709409236907959</v>
+        <v>0.3710598945617676</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434348940849304</v>
+        <v>1.434032320976257</v>
       </c>
       <c r="C181" t="n">
-        <v>1.821794152259827</v>
+        <v>1.82140052318573</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3874452114105225</v>
+        <v>-0.3873682022094727</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4869271814823151</v>
+        <v>0.4865441620349884</v>
       </c>
       <c r="C182" t="n">
-        <v>1.21528148651123</v>
+        <v>1.214866876602173</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7283543348312378</v>
+        <v>-0.7283227443695068</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.884307861328125</v>
+        <v>0.8839527368545532</v>
       </c>
       <c r="C183" t="n">
-        <v>1.490000128746033</v>
+        <v>1.48959493637085</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6056922674179077</v>
+        <v>-0.6056421995162964</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.557056069374084</v>
+        <v>1.556748270988464</v>
       </c>
       <c r="C184" t="n">
-        <v>1.766756653785706</v>
+        <v>1.766361355781555</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2097005844116211</v>
+        <v>-0.2096130847930908</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.938109874725342</v>
+        <v>1.937828660011292</v>
       </c>
       <c r="C185" t="n">
-        <v>1.668005347251892</v>
+        <v>1.667606472969055</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2701045274734497</v>
+        <v>0.2702221870422363</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966659784317017</v>
+        <v>1.966380596160889</v>
       </c>
       <c r="C186" t="n">
-        <v>1.615948915481567</v>
+        <v>1.615548253059387</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3507108688354492</v>
+        <v>0.3508323431015015</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.066106796264648</v>
+        <v>2.065834760665894</v>
       </c>
       <c r="C187" t="n">
-        <v>1.470950484275818</v>
+        <v>1.470544695854187</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5951563119888306</v>
+        <v>0.5952900648117065</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351950407028198</v>
+        <v>2.351698398590088</v>
       </c>
       <c r="C188" t="n">
-        <v>1.507909536361694</v>
+        <v>1.507505178451538</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8440408706665039</v>
+        <v>0.8441932201385498</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.903127193450928</v>
+        <v>2.902913808822632</v>
       </c>
       <c r="C189" t="n">
-        <v>1.670007944107056</v>
+        <v>1.669609069824219</v>
       </c>
       <c r="D189" t="n">
-        <v>1.233119249343872</v>
+        <v>1.233304738998413</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.11776328086853</v>
+        <v>3.117564678192139</v>
       </c>
       <c r="C190" t="n">
-        <v>1.273738980293274</v>
+        <v>1.273326277732849</v>
       </c>
       <c r="D190" t="n">
-        <v>1.844024300575256</v>
+        <v>1.84423840045929</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.102736234664917</v>
+        <v>3.102536678314209</v>
       </c>
       <c r="C191" t="n">
-        <v>1.563105821609497</v>
+        <v>1.562703251838684</v>
       </c>
       <c r="D191" t="n">
-        <v>1.53963041305542</v>
+        <v>1.539833426475525</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.856130123138428</v>
+        <v>2.855913162231445</v>
       </c>
       <c r="C192" t="n">
-        <v>1.871103644371033</v>
+        <v>1.870711803436279</v>
       </c>
       <c r="D192" t="n">
-        <v>0.985026478767395</v>
+        <v>0.985201358795166</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.93032431602478</v>
+        <v>2.930112838745117</v>
       </c>
       <c r="C193" t="n">
-        <v>2.939877033233643</v>
+        <v>2.939522266387939</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.009552717208862305</v>
+        <v>-0.009409427642822266</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838449716567993</v>
+        <v>2.838231563568115</v>
       </c>
       <c r="C194" t="n">
-        <v>3.516274929046631</v>
+        <v>3.515940427780151</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6778252124786377</v>
+        <v>-0.6777088642120361</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.280550718307495</v>
+        <v>2.280293464660645</v>
       </c>
       <c r="C195" t="n">
-        <v>3.290449619293213</v>
+        <v>3.290107250213623</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.009898900985718</v>
+        <v>-1.009813785552979</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108979940414429</v>
+        <v>3.108780860900879</v>
       </c>
       <c r="C196" t="n">
-        <v>3.715043783187866</v>
+        <v>3.714715957641602</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6060638427734375</v>
+        <v>-0.6059350967407227</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.903134346008301</v>
+        <v>2.902920722961426</v>
       </c>
       <c r="C197" t="n">
-        <v>3.504490852355957</v>
+        <v>3.504155874252319</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6013565063476562</v>
+        <v>-0.6012351512908936</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.015438079833984</v>
+        <v>2.015162229537964</v>
       </c>
       <c r="C198" t="n">
-        <v>3.170768260955811</v>
+        <v>3.170421600341797</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.155330181121826</v>
+        <v>-1.155259370803833</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055578589439392</v>
+        <v>1.055235385894775</v>
       </c>
       <c r="C199" t="n">
-        <v>2.595535755157471</v>
+        <v>2.595169305801392</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.539957165718079</v>
+        <v>-1.539933919906616</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.420661449432373</v>
+        <v>0.4202737510204315</v>
       </c>
       <c r="C200" t="n">
-        <v>2.860984802246094</v>
+        <v>2.860627412796021</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.440323352813721</v>
+        <v>-2.440353631973267</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443785190582275</v>
+        <v>1.443469166755676</v>
       </c>
       <c r="C201" t="n">
-        <v>2.619141578674316</v>
+        <v>2.618775606155396</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.175356388092041</v>
+        <v>-1.175306439399719</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064290881156921</v>
+        <v>1.063948392868042</v>
       </c>
       <c r="C202" t="n">
-        <v>2.723430633544922</v>
+        <v>2.723068714141846</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.659139752388</v>
+        <v>-1.659120321273804</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.09295654296875</v>
+        <v>1.092616081237793</v>
       </c>
       <c r="C203" t="n">
-        <v>2.471475839614868</v>
+        <v>2.471105098724365</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.378519296646118</v>
+        <v>-1.378489017486572</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300655722618103</v>
+        <v>1.300329804420471</v>
       </c>
       <c r="C204" t="n">
-        <v>2.106073617935181</v>
+        <v>2.105690002441406</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8054178953170776</v>
+        <v>-0.8053601980209351</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285859346389771</v>
+        <v>1.285532474517822</v>
       </c>
       <c r="C205" t="n">
-        <v>1.815242648124695</v>
+        <v>1.814849019050598</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5293833017349243</v>
+        <v>-0.5293165445327759</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046551108360291</v>
+        <v>1.046207308769226</v>
       </c>
       <c r="C206" t="n">
-        <v>1.086489677429199</v>
+        <v>1.086070537567139</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.03993856906890869</v>
+        <v>-0.0398632287979126</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.20386528968811</v>
+        <v>1.203532576560974</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9449028968811035</v>
+        <v>0.9444787502288818</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2589623928070068</v>
+        <v>0.2590538263320923</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.473161458969116</v>
+        <v>1.472847700119019</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7509775757789612</v>
+        <v>0.7505466341972351</v>
       </c>
       <c r="D208" t="n">
-        <v>0.722183883190155</v>
+        <v>0.7223010659217834</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513551950454712</v>
+        <v>1.513240814208984</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5690551400184631</v>
+        <v>0.5686178803443909</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9444968104362488</v>
+        <v>0.9446229338645935</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865745425224304</v>
+        <v>1.865459084510803</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6699952483177185</v>
+        <v>0.669561505317688</v>
       </c>
       <c r="D210" t="n">
-        <v>1.19575023651123</v>
+        <v>1.195897579193115</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.61294412612915</v>
+        <v>1.612640023231506</v>
       </c>
       <c r="C211" t="n">
-        <v>0.833628237247467</v>
+        <v>0.833200216293335</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7793158888816833</v>
+        <v>0.7794398069381714</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.066195964813232</v>
+        <v>2.065923929214478</v>
       </c>
       <c r="C212" t="n">
-        <v>1.117400169372559</v>
+        <v>1.116981983184814</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9487957954406738</v>
+        <v>0.9489419460296631</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152587175369263</v>
+        <v>2.152321100234985</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5162765979766846</v>
+        <v>0.5158374905586243</v>
       </c>
       <c r="D213" t="n">
-        <v>1.636310577392578</v>
+        <v>1.636483669281006</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.911384105682373</v>
+        <v>1.91110098361969</v>
       </c>
       <c r="C214" t="n">
-        <v>1.020148992538452</v>
+        <v>1.019727468490601</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8912351131439209</v>
+        <v>0.8913735151290894</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050919771194458</v>
+        <v>2.050646543502808</v>
       </c>
       <c r="C215" t="n">
-        <v>1.172254085540771</v>
+        <v>1.171838045120239</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8786656856536865</v>
+        <v>0.8788084983825684</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.924268841743469</v>
+        <v>1.923986673355103</v>
       </c>
       <c r="C216" t="n">
-        <v>1.403078079223633</v>
+        <v>1.402669906616211</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5211907625198364</v>
+        <v>0.5213167667388916</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.003198027610779</v>
+        <v>1.002851247787476</v>
       </c>
       <c r="C217" t="n">
-        <v>1.205661058425903</v>
+        <v>1.205245971679688</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2024630308151245</v>
+        <v>-0.2023947238922119</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7116356492042542</v>
+        <v>0.711268424987793</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5078959465026855</v>
+        <v>0.5074565410614014</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2037397027015686</v>
+        <v>0.2038118839263916</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493797779083252</v>
+        <v>1.493485450744629</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4950491487979889</v>
+        <v>0.4946092963218689</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9987486600875854</v>
+        <v>0.99887615442276</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.35535717010498</v>
+        <v>1.355035305023193</v>
       </c>
       <c r="C220" t="n">
-        <v>1.202365279197693</v>
+        <v>1.201950192451477</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1529918909072876</v>
+        <v>0.1530851125717163</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.492295861244202</v>
+        <v>1.491983532905579</v>
       </c>
       <c r="C221" t="n">
-        <v>1.41657567024231</v>
+        <v>1.416167855262756</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07572019100189209</v>
+        <v>0.07581567764282227</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288369297981262</v>
+        <v>1.288042664527893</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9982095956802368</v>
+        <v>0.9977872967720032</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2901597023010254</v>
+        <v>0.2902553677558899</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9321545362472534</v>
+        <v>0.9318027496337891</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7270222902297974</v>
+        <v>0.7265905141830444</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2051322460174561</v>
+        <v>0.2052122354507446</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092725992202759</v>
+        <v>1.092385411262512</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4232502281665802</v>
+        <v>0.4228078424930573</v>
       </c>
       <c r="D224" t="n">
-        <v>0.669475793838501</v>
+        <v>0.6695775985717773</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489841103553772</v>
+        <v>1.489528298377991</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5718356370925903</v>
+        <v>0.5713984370231628</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9180054664611816</v>
+        <v>0.9181298613548279</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.845428943634033</v>
+        <v>1.845141172409058</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07705685496330261</v>
+        <v>0.07660241425037384</v>
       </c>
       <c r="D226" t="n">
-        <v>1.768372058868408</v>
+        <v>1.7685387134552</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655812859535217</v>
+        <v>1.655511856079102</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4885295629501343</v>
+        <v>0.4880894720554352</v>
       </c>
       <c r="D227" t="n">
-        <v>1.167283296585083</v>
+        <v>1.167422413825989</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092879772186279</v>
+        <v>2.092609405517578</v>
       </c>
       <c r="C228" t="n">
-        <v>0.890761137008667</v>
+        <v>0.8903350830078125</v>
       </c>
       <c r="D228" t="n">
-        <v>1.202118635177612</v>
+        <v>1.202274322509766</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.994176149368286</v>
+        <v>1.993898868560791</v>
       </c>
       <c r="C229" t="n">
-        <v>1.20882511138916</v>
+        <v>1.208410143852234</v>
       </c>
       <c r="D229" t="n">
-        <v>0.785351037979126</v>
+        <v>0.7854887247085571</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985845565795898</v>
+        <v>1.985567688941956</v>
       </c>
       <c r="C230" t="n">
-        <v>1.742520093917847</v>
+        <v>1.74212372303009</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2433254718780518</v>
+        <v>0.2434439659118652</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682923793792725</v>
+        <v>1.682624578475952</v>
       </c>
       <c r="C231" t="n">
-        <v>1.794116735458374</v>
+        <v>1.793722152709961</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1111929416656494</v>
+        <v>-0.1110975742340088</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702824234962463</v>
+        <v>1.702526450157166</v>
       </c>
       <c r="C232" t="n">
-        <v>1.568833112716675</v>
+        <v>1.568430662155151</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1339911222457886</v>
+        <v>0.1340957880020142</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.203117847442627</v>
+        <v>2.202855348587036</v>
       </c>
       <c r="C233" t="n">
-        <v>1.607261896133423</v>
+        <v>1.606860995292664</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5958559513092041</v>
+        <v>0.5959943532943726</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.677241325378418</v>
+        <v>2.677011966705322</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9400606155395508</v>
+        <v>0.9396362900733948</v>
       </c>
       <c r="D234" t="n">
-        <v>1.737180709838867</v>
+        <v>1.737375736236572</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.318630933761597</v>
+        <v>2.318376541137695</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2998389303684235</v>
+        <v>0.2993922531604767</v>
       </c>
       <c r="D235" t="n">
-        <v>2.018791913986206</v>
+        <v>2.018984317779541</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.136108636856079</v>
+        <v>2.135841131210327</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3442640900611877</v>
+        <v>0.3438189923763275</v>
       </c>
       <c r="D236" t="n">
-        <v>1.791844606399536</v>
+        <v>1.792022109031677</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.669649600982666</v>
+        <v>2.669420003890991</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6209884881973267</v>
+        <v>-0.6214673519134521</v>
       </c>
       <c r="D237" t="n">
-        <v>3.290637969970703</v>
+        <v>3.290887355804443</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.243462800979614</v>
+        <v>2.243203163146973</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161387801170349</v>
+        <v>-1.161885499954224</v>
       </c>
       <c r="D238" t="n">
-        <v>3.404850482940674</v>
+        <v>3.405088663101196</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.597697734832764</v>
+        <v>2.597463130950928</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.499813795089722</v>
+        <v>-1.500323295593262</v>
       </c>
       <c r="D239" t="n">
-        <v>4.097511291503906</v>
+        <v>4.097786426544189</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.773305654525757</v>
+        <v>2.773083209991455</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8845477104187012</v>
+        <v>-0.8850356936454773</v>
       </c>
       <c r="D240" t="n">
-        <v>3.657853364944458</v>
+        <v>3.658118963241577</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.302585124969482</v>
+        <v>2.302329301834106</v>
       </c>
       <c r="C241" t="n">
-        <v>1.301204562187195</v>
+        <v>1.300792932510376</v>
       </c>
       <c r="D241" t="n">
-        <v>1.001380562782288</v>
+        <v>1.00153636932373</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.628670692443848</v>
+        <v>2.628437995910645</v>
       </c>
       <c r="C242" t="n">
-        <v>2.339959621429443</v>
+        <v>2.339584350585938</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2887110710144043</v>
+        <v>0.288853645324707</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.022134780883789</v>
+        <v>2.021859645843506</v>
       </c>
       <c r="C243" t="n">
-        <v>2.603065252304077</v>
+        <v>2.602699041366577</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5809304714202881</v>
+        <v>-0.5808393955230713</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.209654092788696</v>
+        <v>2.209392070770264</v>
       </c>
       <c r="C244" t="n">
-        <v>2.495788812637329</v>
+        <v>2.495419025421143</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.2861347198486328</v>
+        <v>-0.2860269546508789</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.267542362213135</v>
+        <v>2.267284154891968</v>
       </c>
       <c r="C245" t="n">
-        <v>2.573194026947021</v>
+        <v>2.572826862335205</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3056516647338867</v>
+        <v>-0.3055427074432373</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.321728944778442</v>
+        <v>2.32147479057312</v>
       </c>
       <c r="C246" t="n">
-        <v>1.53094482421875</v>
+        <v>1.530541181564331</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7907841205596924</v>
+        <v>0.7909336090087891</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.209009170532227</v>
+        <v>2.208747148513794</v>
       </c>
       <c r="C247" t="n">
-        <v>1.161900639533997</v>
+        <v>1.161484003067017</v>
       </c>
       <c r="D247" t="n">
-        <v>1.04710853099823</v>
+        <v>1.047263145446777</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.037229061126709</v>
+        <v>2.036955118179321</v>
       </c>
       <c r="C248" t="n">
-        <v>1.589724898338318</v>
+        <v>1.589323163032532</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4475041627883911</v>
+        <v>0.4476319551467896</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542559504508972</v>
+        <v>1.542250514030457</v>
       </c>
       <c r="C249" t="n">
-        <v>1.99469006061554</v>
+        <v>1.99430251121521</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4521305561065674</v>
+        <v>-0.4520519971847534</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264384150505066</v>
+        <v>1.264055728912354</v>
       </c>
       <c r="C250" t="n">
-        <v>1.543921232223511</v>
+        <v>1.54351794719696</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2795370817184448</v>
+        <v>-0.2794622182846069</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.77644145488739</v>
+        <v>1.776148915290833</v>
       </c>
       <c r="C251" t="n">
-        <v>1.370098114013672</v>
+        <v>1.369688868522644</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4063433408737183</v>
+        <v>0.4064600467681885</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544687390327454</v>
+        <v>1.544378519058228</v>
       </c>
       <c r="C252" t="n">
-        <v>1.221575856208801</v>
+        <v>1.221161365509033</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3231115341186523</v>
+        <v>0.3232171535491943</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404778599739075</v>
+        <v>1.404459834098816</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9320452809333801</v>
+        <v>0.9316205978393555</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4727333188056946</v>
+        <v>0.4728392362594604</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5278918147087097</v>
+        <v>0.5275116562843323</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.05363912507891655</v>
+        <v>-0.05409813299775124</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5815309286117554</v>
+        <v>0.5816097855567932</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7594482898712158</v>
+        <v>0.7590844035148621</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3181217610836029</v>
+        <v>0.3176757097244263</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4413265287876129</v>
+        <v>0.4414086937904358</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.20258891582489</v>
+        <v>1.202256083488464</v>
       </c>
       <c r="C256" t="n">
-        <v>0.939547598361969</v>
+        <v>0.9391231536865234</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2630413174629211</v>
+        <v>0.2631329298019409</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181953907012939</v>
+        <v>1.181619644165039</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5191391110420227</v>
+        <v>0.5187000632286072</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6628147959709167</v>
+        <v>0.6629195809364319</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6773318648338318</v>
+        <v>0.6769621968269348</v>
       </c>
       <c r="C258" t="n">
-        <v>1.287159323692322</v>
+        <v>1.286746978759766</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.60982745885849</v>
+        <v>-0.6097847819328308</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.881658673286438</v>
+        <v>0.8813033699989319</v>
       </c>
       <c r="C259" t="n">
-        <v>1.81818699836731</v>
+        <v>1.817793369293213</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9365283250808716</v>
+        <v>-0.936489999294281</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.170106172561646</v>
+        <v>1.169771075248718</v>
       </c>
       <c r="C260" t="n">
-        <v>2.264127016067505</v>
+        <v>2.26374888420105</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.094020843505859</v>
+        <v>-1.093977808952332</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.297308564186096</v>
+        <v>1.296982526779175</v>
       </c>
       <c r="C261" t="n">
-        <v>1.909486413002014</v>
+        <v>1.909096002578735</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.612177848815918</v>
+        <v>-0.6121134757995605</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.508269548416138</v>
+        <v>1.507958054542542</v>
       </c>
       <c r="C262" t="n">
-        <v>1.438657402992249</v>
+        <v>1.438250422477722</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06961214542388916</v>
+        <v>0.06970763206481934</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188348889350891</v>
+        <v>1.188015222549438</v>
       </c>
       <c r="C263" t="n">
-        <v>2.192810297012329</v>
+        <v>2.192429780960083</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.004461407661438</v>
+        <v>-1.004414558410645</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.166483640670776</v>
+        <v>1.16614830493927</v>
       </c>
       <c r="C264" t="n">
-        <v>1.760204434394836</v>
+        <v>1.759808659553528</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5937207937240601</v>
+        <v>-0.5936603546142578</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.32884955406189</v>
+        <v>1.328525424003601</v>
       </c>
       <c r="C265" t="n">
-        <v>1.749133586883545</v>
+        <v>1.748737573623657</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4202840328216553</v>
+        <v>-0.4202121496200562</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683934688568115</v>
+        <v>1.683635592460632</v>
       </c>
       <c r="C266" t="n">
-        <v>2.311436891555786</v>
+        <v>2.311060190200806</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6275022029876709</v>
+        <v>-0.6274245977401733</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9155951142311096</v>
+        <v>0.9152421355247498</v>
       </c>
       <c r="C267" t="n">
-        <v>1.70740818977356</v>
+        <v>1.707010507583618</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.79181307554245</v>
+        <v>-0.7917683720588684</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088992357254028</v>
+        <v>1.088651537895203</v>
       </c>
       <c r="C268" t="n">
-        <v>1.318739771842957</v>
+        <v>1.318328619003296</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2297474145889282</v>
+        <v>-0.2296770811080933</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163378477096558</v>
+        <v>1.163043022155762</v>
       </c>
       <c r="C269" t="n">
-        <v>1.965658664703369</v>
+        <v>1.965270042419434</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8022801876068115</v>
+        <v>-0.8022270202636719</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.002124428749084</v>
+        <v>1.001777529716492</v>
       </c>
       <c r="C270" t="n">
-        <v>2.167512893676758</v>
+        <v>2.167131185531616</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.165388464927673</v>
+        <v>-1.165353655815125</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9324836134910583</v>
+        <v>0.932131826877594</v>
       </c>
       <c r="C271" t="n">
-        <v>2.421905040740967</v>
+        <v>2.42153263092041</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.489421367645264</v>
+        <v>-1.489400863647461</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1146711707115173</v>
+        <v>0.1142620146274567</v>
       </c>
       <c r="C272" t="n">
-        <v>2.44553017616272</v>
+        <v>2.4451584815979</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.330858945846558</v>
+        <v>-2.330896377563477</v>
       </c>
     </row>
     <row r="273">
@@ -4261,13 +4261,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4002765417098999</v>
+        <v>0.3998874127864838</v>
       </c>
       <c r="C273" t="n">
-        <v>2.712175130844116</v>
+        <v>2.711812734603882</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.311898708343506</v>
+        <v>-2.311925411224365</v>
       </c>
     </row>
     <row r="274">
@@ -4275,13 +4275,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5015761256217957</v>
+        <v>0.5011941194534302</v>
       </c>
       <c r="C274" t="n">
-        <v>2.364151477813721</v>
+        <v>2.363776922225952</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.86257529258728</v>
+        <v>-1.862582802772522</v>
       </c>
     </row>
     <row r="275">
@@ -4289,13 +4289,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3098567724227905</v>
+        <v>0.3094613254070282</v>
       </c>
       <c r="C275" t="n">
-        <v>1.8676518201828</v>
+        <v>1.867259979248047</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.55779504776001</v>
+        <v>-1.557798624038696</v>
       </c>
     </row>
     <row r="276">
@@ -4303,13 +4303,27 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4285008311271667</v>
+        <v>0.4281136989593506</v>
       </c>
       <c r="C276" t="n">
-        <v>1.393535733222961</v>
+        <v>1.39312732219696</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9650349020957947</v>
+        <v>-0.9650136232376099</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.8457684516906738</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.9265481233596802</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-0.08077967166900635</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8128013014793396</v>
+        <v>0.8113753795623779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7880960702896118</v>
+        <v>0.7874457240104675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02470523118972778</v>
+        <v>0.0239296555519104</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8395372629165649</v>
+        <v>0.8380993604660034</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2598334848880768</v>
+        <v>-0.2604445219039917</v>
       </c>
       <c r="D3" t="n">
-        <v>1.099370718002319</v>
+        <v>1.098543882369995</v>
       </c>
     </row>
     <row r="4">
@@ -495,13 +495,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9158921837806702</v>
+        <v>0.9144200086593628</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7670910954475403</v>
+        <v>-0.7676831483840942</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68298327922821</v>
+        <v>1.682103157043457</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4909267127513885</v>
+        <v>0.4896451234817505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08837559819221497</v>
+        <v>0.08775150030851364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4025511145591736</v>
+        <v>0.4018936157226562</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.716313362121582</v>
+        <v>0.7149307131767273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01745240762829781</v>
+        <v>0.01683096773922443</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6988609433174133</v>
+        <v>0.6980997323989868</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07994907349348068</v>
+        <v>0.07885174453258514</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1454234272241592</v>
+        <v>-0.146038755774498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2253724932670593</v>
+        <v>0.2248905003070831</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +551,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.67149418592453</v>
+        <v>0.6701316237449646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.45002281665802</v>
+        <v>0.4493851661682129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.22147136926651</v>
+        <v>0.2207464575767517</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +565,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.040865421295166</v>
+        <v>1.039337277412415</v>
       </c>
       <c r="C9" t="n">
-        <v>1.164197444915771</v>
+        <v>1.163532972335815</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1233320236206055</v>
+        <v>-0.1241956949234009</v>
       </c>
     </row>
     <row r="10">
@@ -579,13 +579,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.414519667625427</v>
+        <v>1.412823796272278</v>
       </c>
       <c r="C10" t="n">
-        <v>1.12916100025177</v>
+        <v>1.128497838973999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2853586673736572</v>
+        <v>0.2843259572982788</v>
       </c>
     </row>
     <row r="11">
@@ -593,13 +593,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9743455052375793</v>
+        <v>0.9728471040725708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9682394862174988</v>
+        <v>0.9675824046134949</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006106019020080566</v>
+        <v>0.005264699459075928</v>
       </c>
     </row>
     <row r="12">
@@ -607,13 +607,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.057101964950562</v>
+        <v>1.055566430091858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.807521641254425</v>
+        <v>0.8068705797195435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2495803236961365</v>
+        <v>0.2486958503723145</v>
       </c>
     </row>
     <row r="13">
@@ -621,13 +621,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.738294243812561</v>
+        <v>0.7369017601013184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3189569115638733</v>
+        <v>0.3183241784572601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4193373322486877</v>
+        <v>0.4185775816440582</v>
       </c>
     </row>
     <row r="14">
@@ -635,13 +635,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2446903884410858</v>
+        <v>0.243519201874733</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0501493513584137</v>
+        <v>-0.05076825618743896</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2948397397994995</v>
+        <v>0.2942874431610107</v>
       </c>
     </row>
     <row r="15">
@@ -649,13 +649,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5101443529129028</v>
+        <v>0.5088541507720947</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3880537748336792</v>
+        <v>-0.3886600136756897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.898198127746582</v>
+        <v>0.8975141644477844</v>
       </c>
     </row>
     <row r="16">
@@ -663,13 +663,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.18427312374115</v>
+        <v>1.182680606842041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2459889203310013</v>
+        <v>0.2453589141368866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9382842183113098</v>
+        <v>0.937321662902832</v>
       </c>
     </row>
     <row r="17">
@@ -677,13 +677,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.022909164428711</v>
+        <v>1.021389007568359</v>
       </c>
       <c r="C17" t="n">
-        <v>1.05403995513916</v>
+        <v>1.053379654884338</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03113079071044922</v>
+        <v>-0.031990647315979</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +691,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.10314404964447</v>
+        <v>1.101587891578674</v>
       </c>
       <c r="C18" t="n">
-        <v>1.847506761550903</v>
+        <v>1.846816778182983</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7443627119064331</v>
+        <v>-0.7452288866043091</v>
       </c>
     </row>
     <row r="19">
@@ -705,13 +705,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.034357070922852</v>
+        <v>1.032831788063049</v>
       </c>
       <c r="C19" t="n">
-        <v>1.17802631855011</v>
+        <v>1.177361369132996</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1436692476272583</v>
+        <v>-0.1445295810699463</v>
       </c>
     </row>
     <row r="20">
@@ -719,13 +719,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4143419563770294</v>
+        <v>0.413094699382782</v>
       </c>
       <c r="C20" t="n">
-        <v>1.998387694358826</v>
+        <v>1.997691988945007</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.584045767784119</v>
+        <v>-1.58459734916687</v>
       </c>
     </row>
     <row r="21">
@@ -733,13 +733,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7230792045593262</v>
+        <v>0.7216935157775879</v>
       </c>
       <c r="C21" t="n">
-        <v>1.377021551132202</v>
+        <v>1.376349091529846</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.653942346572876</v>
+        <v>-0.6546555757522583</v>
       </c>
     </row>
     <row r="22">
@@ -747,13 +747,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7112253308296204</v>
+        <v>0.7098450064659119</v>
       </c>
       <c r="C22" t="n">
-        <v>1.494014859199524</v>
+        <v>1.493338108062744</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7827895283699036</v>
+        <v>-0.7834931015968323</v>
       </c>
     </row>
     <row r="23">
@@ -761,13 +761,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3968508839607239</v>
+        <v>0.3956114649772644</v>
       </c>
       <c r="C23" t="n">
-        <v>1.320543527603149</v>
+        <v>1.319873332977295</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9236926436424255</v>
+        <v>-0.9242618680000305</v>
       </c>
     </row>
     <row r="24">
@@ -775,13 +775,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.676056981086731</v>
+        <v>0.6746923923492432</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8427656292915344</v>
+        <v>0.8421132564544678</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1667086482048035</v>
+        <v>-0.1674208641052246</v>
       </c>
     </row>
     <row r="25">
@@ -789,13 +789,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.104849219322205</v>
+        <v>1.103292346000671</v>
       </c>
       <c r="C25" t="n">
-        <v>1.004652857780457</v>
+        <v>1.003994464874268</v>
       </c>
       <c r="D25" t="n">
-        <v>0.100196361541748</v>
+        <v>0.09929788112640381</v>
       </c>
     </row>
     <row r="26">
@@ -803,13 +803,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8960928320884705</v>
+        <v>0.8946295380592346</v>
       </c>
       <c r="C26" t="n">
-        <v>1.524659752845764</v>
+        <v>1.523981928825378</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6285669207572937</v>
+        <v>-0.6293523907661438</v>
       </c>
     </row>
     <row r="27">
@@ -817,13 +817,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.144867777824402</v>
+        <v>1.143292903900146</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7346853613853455</v>
+        <v>0.7340370416641235</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4101824164390564</v>
+        <v>0.4092558622360229</v>
       </c>
     </row>
     <row r="28">
@@ -831,13 +831,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.176742553710938</v>
+        <v>1.175153493881226</v>
       </c>
       <c r="C28" t="n">
-        <v>1.975412607192993</v>
+        <v>1.974717736244202</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7986700534820557</v>
+        <v>-0.7995642423629761</v>
       </c>
     </row>
     <row r="29">
@@ -845,13 +845,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9119475483894348</v>
+        <v>0.9104771614074707</v>
       </c>
       <c r="C29" t="n">
-        <v>1.828926920890808</v>
+        <v>1.828237652778625</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9169793725013733</v>
+        <v>-0.9177604913711548</v>
       </c>
     </row>
     <row r="30">
@@ -859,13 +859,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4926185607910156</v>
+        <v>0.4913361966609955</v>
       </c>
       <c r="C30" t="n">
-        <v>1.60249137878418</v>
+        <v>1.601810574531555</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.109872817993164</v>
+        <v>-1.110474348068237</v>
       </c>
     </row>
     <row r="31">
@@ -873,13 +873,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7588176131248474</v>
+        <v>0.7574158906936646</v>
       </c>
       <c r="C31" t="n">
-        <v>1.225985288619995</v>
+        <v>1.225318551063538</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4671676754951477</v>
+        <v>-0.467902660369873</v>
       </c>
     </row>
     <row r="32">
@@ -887,13 +887,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8577063083648682</v>
+        <v>0.8562602400779724</v>
       </c>
       <c r="C32" t="n">
-        <v>1.38599693775177</v>
+        <v>1.385324239730835</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5282906293869019</v>
+        <v>-0.5290639996528625</v>
       </c>
     </row>
     <row r="33">
@@ -901,13 +901,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7002418637275696</v>
+        <v>0.6988664269447327</v>
       </c>
       <c r="C33" t="n">
-        <v>1.320749878883362</v>
+        <v>1.320079565048218</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6205080151557922</v>
+        <v>-0.6212131381034851</v>
       </c>
     </row>
     <row r="34">
@@ -915,13 +915,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.006558418273926</v>
+        <v>2.004597187042236</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5272862315177917</v>
+        <v>0.5266457200050354</v>
       </c>
       <c r="D34" t="n">
-        <v>1.479272127151489</v>
+        <v>1.477951526641846</v>
       </c>
     </row>
     <row r="35">
@@ -929,13 +929,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.464017391204834</v>
+        <v>1.462299346923828</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1139111667871475</v>
+        <v>-0.1145276874303818</v>
       </c>
       <c r="D35" t="n">
-        <v>1.57792854309082</v>
+        <v>1.576827049255371</v>
       </c>
     </row>
     <row r="36">
@@ -943,13 +943,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.210786461830139</v>
+        <v>1.209182143211365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.518232524394989</v>
+        <v>0.5175923109054565</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6925539374351501</v>
+        <v>0.6915898323059082</v>
       </c>
     </row>
     <row r="37">
@@ -957,13 +957,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.493964433670044</v>
+        <v>1.492233157157898</v>
       </c>
       <c r="C37" t="n">
-        <v>2.023483037948608</v>
+        <v>2.022786378860474</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5295186042785645</v>
+        <v>-0.5305532217025757</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.330843567848206</v>
+        <v>1.329185247421265</v>
       </c>
       <c r="C38" t="n">
-        <v>2.144534826278687</v>
+        <v>2.143833637237549</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.813691258430481</v>
+        <v>-0.8146483898162842</v>
       </c>
     </row>
     <row r="39">
@@ -985,13 +985,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.969850778579712</v>
+        <v>1.96790611743927</v>
       </c>
       <c r="C39" t="n">
-        <v>1.634836196899414</v>
+        <v>1.634154081344604</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3350145816802979</v>
+        <v>0.3337520360946655</v>
       </c>
     </row>
     <row r="40">
@@ -999,13 +999,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.744628190994263</v>
+        <v>1.74278450012207</v>
       </c>
       <c r="C40" t="n">
-        <v>1.102401971817017</v>
+        <v>1.101739883422852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6422262191772461</v>
+        <v>0.6410446166992188</v>
       </c>
     </row>
     <row r="41">
@@ -1013,13 +1013,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.821235060691833</v>
+        <v>1.819356918334961</v>
       </c>
       <c r="C41" t="n">
-        <v>1.638301849365234</v>
+        <v>1.637619614601135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1829332113265991</v>
+        <v>0.1817373037338257</v>
       </c>
     </row>
     <row r="42">
@@ -1027,13 +1027,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.755546808242798</v>
+        <v>1.753698110580444</v>
       </c>
       <c r="C42" t="n">
-        <v>1.175615429878235</v>
+        <v>1.17495059967041</v>
       </c>
       <c r="D42" t="n">
-        <v>0.579931378364563</v>
+        <v>0.5787475109100342</v>
       </c>
     </row>
     <row r="43">
@@ -1041,13 +1041,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.602899193763733</v>
+        <v>1.601119160652161</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7015027403831482</v>
+        <v>0.7008556723594666</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9013964533805847</v>
+        <v>0.9002634882926941</v>
       </c>
     </row>
     <row r="44">
@@ -1055,13 +1055,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.163681864738464</v>
+        <v>1.16209864616394</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4697431623935699</v>
+        <v>0.4691047668457031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6939387321472168</v>
+        <v>0.6929938793182373</v>
       </c>
     </row>
     <row r="45">
@@ -1069,13 +1069,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.086748123168945</v>
+        <v>1.085199356079102</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03409352526068687</v>
+        <v>0.03347146138548851</v>
       </c>
       <c r="D45" t="n">
-        <v>1.052654623985291</v>
+        <v>1.051727890968323</v>
       </c>
     </row>
     <row r="46">
@@ -1083,13 +1083,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.349057912826538</v>
+        <v>1.347391605377197</v>
       </c>
       <c r="C46" t="n">
-        <v>1.108953833580017</v>
+        <v>1.108291387557983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240104079246521</v>
+        <v>0.2391002178192139</v>
       </c>
     </row>
     <row r="47">
@@ -1097,13 +1097,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9908903241157532</v>
+        <v>0.9893845915794373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8784329295158386</v>
+        <v>0.8777792453765869</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1124573945999146</v>
+        <v>0.1116053462028503</v>
       </c>
     </row>
     <row r="48">
@@ -1111,13 +1111,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6575530767440796</v>
+        <v>0.6561967730522156</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9973326325416565</v>
+        <v>0.9966744780540466</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3397795557975769</v>
+        <v>-0.3404777050018311</v>
       </c>
     </row>
     <row r="49">
@@ -1125,13 +1125,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7135717868804932</v>
+        <v>0.7121903896331787</v>
       </c>
       <c r="C49" t="n">
-        <v>0.366344541311264</v>
+        <v>0.3657100200653076</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3472272455692291</v>
+        <v>0.3464803695678711</v>
       </c>
     </row>
     <row r="50">
@@ -1139,13 +1139,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.381482601165771</v>
+        <v>1.379801750183105</v>
       </c>
       <c r="C50" t="n">
-        <v>1.374893426895142</v>
+        <v>1.374221086502075</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006589174270629883</v>
+        <v>0.005580663681030273</v>
       </c>
     </row>
     <row r="51">
@@ -1153,13 +1153,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.34273624420166</v>
+        <v>1.341072797775269</v>
       </c>
       <c r="C51" t="n">
-        <v>1.234803795814514</v>
+        <v>1.234136700630188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.107932448387146</v>
+        <v>0.1069360971450806</v>
       </c>
     </row>
     <row r="52">
@@ -1167,13 +1167,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.021618247032166</v>
+        <v>1.020098686218262</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6072635054588318</v>
+        <v>0.6066199541091919</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4143547415733337</v>
+        <v>0.4134787321090698</v>
       </c>
     </row>
     <row r="53">
@@ -1181,13 +1181,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.144187092781067</v>
+        <v>1.142612814903259</v>
       </c>
       <c r="C53" t="n">
-        <v>1.125110507011414</v>
+        <v>1.124447584152222</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01907658576965332</v>
+        <v>0.0181652307510376</v>
       </c>
     </row>
     <row r="54">
@@ -1195,13 +1195,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1845605224370956</v>
+        <v>-0.1855392605066299</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8748981952667236</v>
+        <v>0.8742446303367615</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.05945873260498</v>
+        <v>-1.059783935546875</v>
       </c>
     </row>
     <row r="55">
@@ -1209,13 +1209,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05727751553058624</v>
+        <v>-0.05831331387162209</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7998575568199158</v>
+        <v>0.7992067933082581</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8571350574493408</v>
+        <v>-0.8575201034545898</v>
       </c>
     </row>
     <row r="56">
@@ -1223,13 +1223,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1681981682777405</v>
+        <v>0.1670612692832947</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7440357208251953</v>
+        <v>0.7433870434761047</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5758375525474548</v>
+        <v>-0.5763257741928101</v>
       </c>
     </row>
     <row r="57">
@@ -1237,13 +1237,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.144624590873718</v>
+        <v>1.143049836158752</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8376286625862122</v>
+        <v>0.8369765281677246</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3069959282875061</v>
+        <v>0.3060733079910278</v>
       </c>
     </row>
     <row r="58">
@@ -1251,13 +1251,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.253842949867249</v>
+        <v>1.252219200134277</v>
       </c>
       <c r="C58" t="n">
-        <v>0.650884211063385</v>
+        <v>0.6502390503883362</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6029587388038635</v>
+        <v>0.6019801497459412</v>
       </c>
     </row>
     <row r="59">
@@ -1265,13 +1265,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.243595004081726</v>
+        <v>1.241975784301758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6871976852416992</v>
+        <v>0.6865511536598206</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5563973188400269</v>
+        <v>0.5554246306419373</v>
       </c>
     </row>
     <row r="60">
@@ -1279,13 +1279,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.063361167907715</v>
+        <v>1.061822891235352</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9243073463439941</v>
+        <v>0.9236518740653992</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1390538215637207</v>
+        <v>0.1381710171699524</v>
       </c>
     </row>
     <row r="61">
@@ -1293,13 +1293,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.008579969406128</v>
+        <v>1.007066249847412</v>
       </c>
       <c r="C61" t="n">
-        <v>1.151261448860168</v>
+        <v>1.150597453117371</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1426814794540405</v>
+        <v>-0.1435312032699585</v>
       </c>
     </row>
     <row r="62">
@@ -1307,13 +1307,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8695646524429321</v>
+        <v>0.8681132793426514</v>
       </c>
       <c r="C62" t="n">
-        <v>1.464980363845825</v>
+        <v>1.464304685592651</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5954157114028931</v>
+        <v>-0.59619140625</v>
       </c>
     </row>
     <row r="63">
@@ -1321,13 +1321,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9203512072563171</v>
+        <v>0.9188770651817322</v>
       </c>
       <c r="C63" t="n">
-        <v>2.640883207321167</v>
+        <v>2.640163421630859</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.720531940460205</v>
+        <v>-1.721286296844482</v>
       </c>
     </row>
     <row r="64">
@@ -1335,13 +1335,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.158801555633545</v>
+        <v>1.157220482826233</v>
       </c>
       <c r="C64" t="n">
-        <v>2.569615602493286</v>
+        <v>2.568898677825928</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.410814046859741</v>
+        <v>-1.411678194999695</v>
       </c>
     </row>
     <row r="65">
@@ -1349,13 +1349,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.356655120849609</v>
+        <v>1.354985237121582</v>
       </c>
       <c r="C65" t="n">
-        <v>1.049639701843262</v>
+        <v>1.048979640007019</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3070154190063477</v>
+        <v>0.306005597114563</v>
       </c>
     </row>
     <row r="66">
@@ -1363,13 +1363,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.529168367385864</v>
+        <v>1.527421116828918</v>
       </c>
       <c r="C66" t="n">
-        <v>1.23415207862854</v>
+        <v>1.233485102653503</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2950162887573242</v>
+        <v>0.293936014175415</v>
       </c>
     </row>
     <row r="67">
@@ -1377,13 +1377,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.363401532173157</v>
+        <v>1.361728668212891</v>
       </c>
       <c r="C67" t="n">
-        <v>1.637382984161377</v>
+        <v>1.636700749397278</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2739814519882202</v>
+        <v>-0.2749720811843872</v>
       </c>
     </row>
     <row r="68">
@@ -1391,13 +1391,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.60197514295578</v>
+        <v>0.6006437540054321</v>
       </c>
       <c r="C68" t="n">
-        <v>1.693717122077942</v>
+        <v>1.69303286075592</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.091742038726807</v>
+        <v>-1.092389106750488</v>
       </c>
     </row>
     <row r="69">
@@ -1405,13 +1405,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9856473207473755</v>
+        <v>0.9841439127922058</v>
       </c>
       <c r="C69" t="n">
-        <v>1.744842529296875</v>
+        <v>1.744156360626221</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7591952085494995</v>
+        <v>-0.7600124478340149</v>
       </c>
     </row>
     <row r="70">
@@ -1419,13 +1419,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8857971429824829</v>
+        <v>0.8843384981155396</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98084831237793</v>
+        <v>1.980153322219849</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.095051169395447</v>
+        <v>-1.095814824104309</v>
       </c>
     </row>
     <row r="71">
@@ -1433,13 +1433,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7921218872070312</v>
+        <v>0.7907052636146545</v>
       </c>
       <c r="C71" t="n">
-        <v>1.755309224128723</v>
+        <v>1.7546226978302</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9631873369216919</v>
+        <v>-0.9639174342155457</v>
       </c>
     </row>
     <row r="72">
@@ -1447,13 +1447,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.501841127872467</v>
+        <v>0.500554621219635</v>
       </c>
       <c r="C72" t="n">
-        <v>1.629127860069275</v>
+        <v>1.628445982933044</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.127286672592163</v>
+        <v>-1.127891302108765</v>
       </c>
     </row>
     <row r="73">
@@ -1461,13 +1461,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3500562906265259</v>
+        <v>0.3488378524780273</v>
       </c>
       <c r="C73" t="n">
-        <v>1.233292818069458</v>
+        <v>1.232625842094421</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8832365274429321</v>
+        <v>-0.883787989616394</v>
       </c>
     </row>
     <row r="74">
@@ -1475,13 +1475,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4378826022148132</v>
+        <v>0.4366247951984406</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5627504587173462</v>
+        <v>0.56210857629776</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.124867856502533</v>
+        <v>-0.1254837810993195</v>
       </c>
     </row>
     <row r="75">
@@ -1489,13 +1489,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4900119602680206</v>
+        <v>0.4887307584285736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.903270125389099</v>
+        <v>1.902577996253967</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.413258194923401</v>
+        <v>-1.413847208023071</v>
       </c>
     </row>
     <row r="76">
@@ -1503,13 +1503,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8038191795349121</v>
+        <v>0.8023972511291504</v>
       </c>
       <c r="C76" t="n">
-        <v>1.218171834945679</v>
+        <v>1.2175053358078</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4143526554107666</v>
+        <v>-0.4151080846786499</v>
       </c>
     </row>
     <row r="77">
@@ -1517,13 +1517,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7482171058654785</v>
+        <v>0.7468201518058777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8218467235565186</v>
+        <v>0.821195125579834</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07362961769104004</v>
+        <v>-0.0743749737739563</v>
       </c>
     </row>
     <row r="78">
@@ -1531,13 +1531,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.075136780738831</v>
+        <v>1.073593258857727</v>
       </c>
       <c r="C78" t="n">
-        <v>1.497280836105347</v>
+        <v>1.496603965759277</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4221440553665161</v>
+        <v>-0.4230107069015503</v>
       </c>
     </row>
     <row r="79">
@@ -1545,13 +1545,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8489696383476257</v>
+        <v>0.8475275039672852</v>
       </c>
       <c r="C79" t="n">
-        <v>1.266658067703247</v>
+        <v>1.265989899635315</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4176884293556213</v>
+        <v>-0.4184623956680298</v>
       </c>
     </row>
     <row r="80">
@@ -1559,13 +1559,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9269849061965942</v>
+        <v>0.9255077838897705</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5234308242797852</v>
+        <v>0.5227904319763184</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4035540819168091</v>
+        <v>0.4027173519134521</v>
       </c>
     </row>
     <row r="81">
@@ -1573,13 +1573,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.514164209365845</v>
+        <v>1.512423872947693</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6679709553718567</v>
+        <v>0.6673251390457153</v>
       </c>
       <c r="D81" t="n">
-        <v>0.846193253993988</v>
+        <v>0.8450987339019775</v>
       </c>
     </row>
     <row r="82">
@@ -1587,13 +1587,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.290697455406189</v>
+        <v>1.28905725479126</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6695591807365417</v>
+        <v>-0.670154869556427</v>
       </c>
       <c r="D82" t="n">
-        <v>1.960256576538086</v>
+        <v>1.959212064743042</v>
       </c>
     </row>
     <row r="83">
@@ -1601,13 +1601,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.584198236465454</v>
+        <v>1.582426428794861</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8360413312911987</v>
+        <v>-0.8366308212280273</v>
       </c>
       <c r="D83" t="n">
-        <v>2.420239448547363</v>
+        <v>2.419057369232178</v>
       </c>
     </row>
     <row r="84">
@@ -1615,13 +1615,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.824772953987122</v>
+        <v>1.822893261909485</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.17463718354702</v>
+        <v>-0.1752514392137527</v>
       </c>
       <c r="D84" t="n">
-        <v>1.999410152435303</v>
+        <v>1.998144745826721</v>
       </c>
     </row>
     <row r="85">
@@ -1629,13 +1629,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83763313293457</v>
+        <v>1.835747718811035</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9552264213562012</v>
+        <v>0.9545698165893555</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8824067115783691</v>
+        <v>0.8811779022216797</v>
       </c>
     </row>
     <row r="86">
@@ -1643,13 +1643,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.687174201011658</v>
+        <v>1.685356259346008</v>
       </c>
       <c r="C86" t="n">
-        <v>1.233592867851257</v>
+        <v>1.232925772666931</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4535813331604004</v>
+        <v>0.4524304866790771</v>
       </c>
     </row>
     <row r="87">
@@ -1657,13 +1657,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.547112345695496</v>
+        <v>1.545357346534729</v>
       </c>
       <c r="C87" t="n">
-        <v>1.934641599655151</v>
+        <v>1.933948278427124</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3875292539596558</v>
+        <v>-0.388590931892395</v>
       </c>
     </row>
     <row r="88">
@@ -1671,13 +1671,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.358901381492615</v>
+        <v>1.357230544090271</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8762437105178833</v>
+        <v>0.8755900859832764</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4826576709747314</v>
+        <v>0.4816404581069946</v>
       </c>
     </row>
     <row r="89">
@@ -1685,13 +1685,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.404299736022949</v>
+        <v>1.402608752250671</v>
       </c>
       <c r="C89" t="n">
-        <v>1.032195448875427</v>
+        <v>1.031535983085632</v>
       </c>
       <c r="D89" t="n">
-        <v>0.372104287147522</v>
+        <v>0.3710727691650391</v>
       </c>
     </row>
     <row r="90">
@@ -1699,13 +1699,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.746692061424255</v>
+        <v>1.744847536087036</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8025398850440979</v>
+        <v>0.8018890023231506</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9441521763801575</v>
+        <v>0.9429585337638855</v>
       </c>
     </row>
     <row r="91">
@@ -1713,13 +1713,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.892440676689148</v>
+        <v>1.890530705451965</v>
       </c>
       <c r="C91" t="n">
-        <v>1.171667695045471</v>
+        <v>1.171003103256226</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7207729816436768</v>
+        <v>0.7195276021957397</v>
       </c>
     </row>
     <row r="92">
@@ -1727,13 +1727,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.563653945922852</v>
+        <v>1.561891436576843</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8627185821533203</v>
+        <v>0.8620654940605164</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7009353637695312</v>
+        <v>0.6998259425163269</v>
       </c>
     </row>
     <row r="93">
@@ -1741,13 +1741,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.709505319595337</v>
+        <v>1.707677364349365</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7107863426208496</v>
+        <v>0.7101389169692993</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9987189769744873</v>
+        <v>0.9975384473800659</v>
       </c>
     </row>
     <row r="94">
@@ -1755,13 +1755,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.430896401405334</v>
+        <v>1.429193258285522</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2190027087926865</v>
+        <v>0.218373715877533</v>
       </c>
       <c r="D94" t="n">
-        <v>1.211893677711487</v>
+        <v>1.210819482803345</v>
       </c>
     </row>
     <row r="95">
@@ -1769,13 +1769,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.083003520965576</v>
+        <v>1.081456542015076</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5201799869537354</v>
+        <v>0.5195397138595581</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5628235340118408</v>
+        <v>0.5619168281555176</v>
       </c>
     </row>
     <row r="96">
@@ -1783,13 +1783,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6681098341941833</v>
+        <v>0.6667487621307373</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7227857112884521</v>
+        <v>0.7221378087997437</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0546758770942688</v>
+        <v>-0.05538904666900635</v>
       </c>
     </row>
     <row r="97">
@@ -1797,13 +1797,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.603520393371582</v>
+        <v>0.6021882891654968</v>
       </c>
       <c r="C97" t="n">
-        <v>1.041824698448181</v>
+        <v>1.041164875030518</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4383043050765991</v>
+        <v>-0.4389765858650208</v>
       </c>
     </row>
     <row r="98">
@@ -1811,13 +1811,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.003635287284851</v>
+        <v>1.002123832702637</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9672778248786926</v>
+        <v>0.9666208028793335</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03635746240615845</v>
+        <v>0.03550302982330322</v>
       </c>
     </row>
     <row r="99">
@@ -1825,13 +1825,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2784763276576996</v>
+        <v>0.2772899866104126</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1080382838845253</v>
+        <v>0.1074134483933449</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1704380512237549</v>
+        <v>0.1698765456676483</v>
       </c>
     </row>
     <row r="100">
@@ -1839,13 +1839,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05835660919547081</v>
+        <v>-0.05939192324876785</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3518277704715729</v>
+        <v>-0.3524353802204132</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2934711575508118</v>
+        <v>0.293043464422226</v>
       </c>
     </row>
     <row r="101">
@@ -1853,13 +1853,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2325756102800369</v>
+        <v>-0.2335328161716461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3241973221302032</v>
+        <v>0.3235644102096558</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5567729473114014</v>
+        <v>-0.5570971965789795</v>
       </c>
     </row>
     <row r="102">
@@ -1867,13 +1867,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2103122919797897</v>
+        <v>0.2091565132141113</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.27427738904953</v>
+        <v>-0.2748879194259644</v>
       </c>
       <c r="D102" t="n">
-        <v>0.484589695930481</v>
+        <v>0.4840444326400757</v>
       </c>
     </row>
     <row r="103">
@@ -1881,13 +1881,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7506678700447083</v>
+        <v>0.7492698431015015</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.447251558303833</v>
+        <v>-0.4478555619716644</v>
       </c>
       <c r="D103" t="n">
-        <v>1.197919368743896</v>
+        <v>1.197125434875488</v>
       </c>
     </row>
     <row r="104">
@@ -1895,13 +1895,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>1.001194596290588</v>
+        <v>0.9996841549873352</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7051923274993896</v>
+        <v>-0.7057866454124451</v>
       </c>
       <c r="D104" t="n">
-        <v>1.706386923789978</v>
+        <v>1.70547080039978</v>
       </c>
     </row>
     <row r="105">
@@ -1909,13 +1909,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.068086266517639</v>
+        <v>1.066545844078064</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04796906188130379</v>
+        <v>-0.04858804866671562</v>
       </c>
       <c r="D105" t="n">
-        <v>1.116055369377136</v>
+        <v>1.115133881568909</v>
       </c>
     </row>
     <row r="106">
@@ -1923,13 +1923,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.172857284545898</v>
+        <v>1.17127001285553</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6446318030357361</v>
+        <v>0.6439868211746216</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5282254815101624</v>
+        <v>0.5272831916809082</v>
       </c>
     </row>
     <row r="107">
@@ -1937,13 +1937,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.081214189529419</v>
+        <v>1.079667925834656</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4698117077350616</v>
+        <v>0.4691733121871948</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6114025115966797</v>
+        <v>0.6104946136474609</v>
       </c>
     </row>
     <row r="108">
@@ -1951,13 +1951,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8384773135185242</v>
+        <v>0.8370398879051208</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8584458827972412</v>
+        <v>0.8577929139137268</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01996856927871704</v>
+        <v>-0.02075302600860596</v>
       </c>
     </row>
     <row r="109">
@@ -1965,13 +1965,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5662883520126343</v>
+        <v>0.5649729371070862</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9593009352684021</v>
+        <v>0.9586441516876221</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3930125832557678</v>
+        <v>-0.3936712145805359</v>
       </c>
     </row>
     <row r="110">
@@ -1979,13 +1979,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8338590264320374</v>
+        <v>0.8324236869812012</v>
       </c>
       <c r="C110" t="n">
-        <v>1.001883268356323</v>
+        <v>1.001224875450134</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1680242419242859</v>
+        <v>-0.1688011884689331</v>
       </c>
     </row>
     <row r="111">
@@ -1993,13 +1993,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.192721366882324</v>
+        <v>1.19112491607666</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4722064137458801</v>
+        <v>0.4715679287910461</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7205149531364441</v>
+        <v>0.719556987285614</v>
       </c>
     </row>
     <row r="112">
@@ -2007,13 +2007,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.701355218887329</v>
+        <v>1.699530720710754</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8059492707252502</v>
+        <v>0.8052983283996582</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8954059481620789</v>
+        <v>0.8942323923110962</v>
       </c>
     </row>
     <row r="113">
@@ -2021,13 +2021,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.044206023216248</v>
+        <v>1.042676448822021</v>
       </c>
       <c r="C113" t="n">
-        <v>1.113123774528503</v>
+        <v>1.11246120929718</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06891775131225586</v>
+        <v>-0.06978476047515869</v>
       </c>
     </row>
     <row r="114">
@@ -2035,13 +2035,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.458550572395325</v>
+        <v>1.456835150718689</v>
       </c>
       <c r="C114" t="n">
-        <v>1.712861657142639</v>
+        <v>1.71217668056488</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2543110847473145</v>
+        <v>-0.2553415298461914</v>
       </c>
     </row>
     <row r="115">
@@ -2049,13 +2049,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.997962951660156</v>
+        <v>1.996005654335022</v>
       </c>
       <c r="C115" t="n">
-        <v>1.969714641571045</v>
+        <v>1.969020009040833</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02824831008911133</v>
+        <v>0.02698564529418945</v>
       </c>
     </row>
     <row r="116">
@@ -2063,13 +2063,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.310809254646301</v>
+        <v>1.309160113334656</v>
       </c>
       <c r="C116" t="n">
-        <v>2.464685916900635</v>
+        <v>2.463972806930542</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.153876662254333</v>
+        <v>-1.154812693595886</v>
       </c>
     </row>
     <row r="117">
@@ -2077,13 +2077,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.697943925857544</v>
+        <v>1.696121096611023</v>
       </c>
       <c r="C117" t="n">
-        <v>2.192136526107788</v>
+        <v>2.191433668136597</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4941926002502441</v>
+        <v>-0.4953125715255737</v>
       </c>
     </row>
     <row r="118">
@@ -2091,13 +2091,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.721470475196838</v>
+        <v>1.719637036323547</v>
       </c>
       <c r="C118" t="n">
-        <v>1.625910878181458</v>
+        <v>1.625229120254517</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09555959701538086</v>
+        <v>0.09440791606903076</v>
       </c>
     </row>
     <row r="119">
@@ -2105,13 +2105,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.92797064781189</v>
+        <v>1.926044702529907</v>
       </c>
       <c r="C119" t="n">
-        <v>1.696744918823242</v>
+        <v>1.696060538291931</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2312257289886475</v>
+        <v>0.2299841642379761</v>
       </c>
     </row>
     <row r="120">
@@ -2119,13 +2119,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.379579186439514</v>
+        <v>1.377899169921875</v>
       </c>
       <c r="C120" t="n">
-        <v>1.679709315299988</v>
+        <v>1.679025530815125</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3001301288604736</v>
+        <v>-0.3011263608932495</v>
       </c>
     </row>
     <row r="121">
@@ -2133,13 +2133,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.997901916503906</v>
+        <v>1.995944619178772</v>
       </c>
       <c r="C121" t="n">
-        <v>1.685650587081909</v>
+        <v>1.684966683387756</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3122513294219971</v>
+        <v>0.3109779357910156</v>
       </c>
     </row>
     <row r="122">
@@ -2147,13 +2147,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.047118902206421</v>
+        <v>2.045139789581299</v>
       </c>
       <c r="C122" t="n">
-        <v>1.245144486427307</v>
+        <v>1.244477033615112</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8019744157791138</v>
+        <v>0.8006627559661865</v>
       </c>
     </row>
     <row r="123">
@@ -2161,13 +2161,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.351561307907104</v>
+        <v>2.349445581436157</v>
       </c>
       <c r="C123" t="n">
-        <v>2.139343976974487</v>
+        <v>2.138643026351929</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2122173309326172</v>
+        <v>0.2108025550842285</v>
       </c>
     </row>
     <row r="124">
@@ -2175,13 +2175,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.453504323959351</v>
+        <v>2.451342582702637</v>
       </c>
       <c r="C124" t="n">
-        <v>1.811559200286865</v>
+        <v>1.81087052822113</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6419451236724854</v>
+        <v>0.6404720544815063</v>
       </c>
     </row>
     <row r="125">
@@ -2189,13 +2189,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.421647548675537</v>
+        <v>2.419500112533569</v>
       </c>
       <c r="C125" t="n">
-        <v>1.620821595191956</v>
+        <v>1.620140075683594</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8008259534835815</v>
+        <v>0.7993600368499756</v>
       </c>
     </row>
     <row r="126">
@@ -2203,13 +2203,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.778393983840942</v>
+        <v>1.776535153388977</v>
       </c>
       <c r="C126" t="n">
-        <v>2.241291761398315</v>
+        <v>2.240586996078491</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.462897777557373</v>
+        <v>-0.4640518426895142</v>
       </c>
     </row>
     <row r="127">
@@ -2217,13 +2217,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.786338448524475</v>
+        <v>1.784476041793823</v>
       </c>
       <c r="C127" t="n">
-        <v>2.112000703811646</v>
+        <v>2.111300706863403</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3256622552871704</v>
+        <v>-0.3268246650695801</v>
       </c>
     </row>
     <row r="128">
@@ -2231,13 +2231,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.484957575798035</v>
+        <v>1.483230471611023</v>
       </c>
       <c r="C128" t="n">
-        <v>1.938658237457275</v>
+        <v>1.937964797019958</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4537006616592407</v>
+        <v>-0.4547343254089355</v>
       </c>
     </row>
     <row r="129">
@@ -2245,13 +2245,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.172212481498718</v>
+        <v>1.170625329017639</v>
       </c>
       <c r="C129" t="n">
-        <v>1.77031409740448</v>
+        <v>1.769626975059509</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5981016159057617</v>
+        <v>-0.5990016460418701</v>
       </c>
     </row>
     <row r="130">
@@ -2259,13 +2259,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8088893890380859</v>
+        <v>0.8074652552604675</v>
       </c>
       <c r="C130" t="n">
-        <v>2.927604675292969</v>
+        <v>2.926874160766602</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.118715286254883</v>
+        <v>-2.119408845901489</v>
       </c>
     </row>
     <row r="131">
@@ -2273,13 +2273,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3924684524536133</v>
+        <v>0.3912310004234314</v>
       </c>
       <c r="C131" t="n">
-        <v>2.162982702255249</v>
+        <v>2.162280797958374</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.770514249801636</v>
+        <v>-1.771049737930298</v>
       </c>
     </row>
     <row r="132">
@@ -2287,13 +2287,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05792687088251114</v>
+        <v>-0.0589623786509037</v>
       </c>
       <c r="C132" t="n">
-        <v>1.821604132652283</v>
+        <v>1.820915102958679</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.879531025886536</v>
+        <v>-1.87987744808197</v>
       </c>
     </row>
     <row r="133">
@@ -2301,13 +2301,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09290982037782669</v>
+        <v>0.09180667996406555</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8113499879837036</v>
+        <v>0.8106988072395325</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7184401750564575</v>
+        <v>-0.7188920974731445</v>
       </c>
     </row>
     <row r="134">
@@ -2315,13 +2315,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1552549749612808</v>
+        <v>0.1541238874197006</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1671922504901886</v>
+        <v>0.1665651947259903</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01193727552890778</v>
+        <v>-0.01244130730628967</v>
       </c>
     </row>
     <row r="135">
@@ -2329,13 +2329,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.380315899848938</v>
+        <v>0.3790839016437531</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3544739186763763</v>
+        <v>0.3538398742675781</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02584198117256165</v>
+        <v>0.02524402737617493</v>
       </c>
     </row>
     <row r="136">
@@ -2343,13 +2343,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7307476997375488</v>
+        <v>0.7293585538864136</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1982406675815582</v>
+        <v>0.1976124495267868</v>
       </c>
       <c r="D136" t="n">
-        <v>0.532507061958313</v>
+        <v>0.5317460894584656</v>
       </c>
     </row>
     <row r="137">
@@ -2357,13 +2357,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6013547778129578</v>
+        <v>0.6000236868858337</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5034401416778564</v>
+        <v>0.502800464630127</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09791463613510132</v>
+        <v>0.09722322225570679</v>
       </c>
     </row>
     <row r="138">
@@ -2371,13 +2371,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8431836366653442</v>
+        <v>0.8417441248893738</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9685045480728149</v>
+        <v>0.967847466468811</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1253209114074707</v>
+        <v>-0.1261033415794373</v>
       </c>
     </row>
     <row r="139">
@@ -2385,13 +2385,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.303605914115906</v>
+        <v>1.301959872245789</v>
       </c>
       <c r="C139" t="n">
-        <v>1.032100439071655</v>
+        <v>1.03144097328186</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2715054750442505</v>
+        <v>0.2705188989639282</v>
       </c>
     </row>
     <row r="140">
@@ -2399,13 +2399,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26037061214447</v>
+        <v>1.25874400138855</v>
       </c>
       <c r="C140" t="n">
-        <v>1.270410180091858</v>
+        <v>1.269741773605347</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0100395679473877</v>
+        <v>-0.01099777221679688</v>
       </c>
     </row>
     <row r="141">
@@ -2413,13 +2413,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.491034388542175</v>
+        <v>1.489304423332214</v>
       </c>
       <c r="C141" t="n">
-        <v>1.224859952926636</v>
+        <v>1.224193334579468</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2661744356155396</v>
+        <v>0.2651110887527466</v>
       </c>
     </row>
     <row r="142">
@@ -2427,13 +2427,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.403928399085999</v>
+        <v>1.402237296104431</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1917636394500732</v>
+        <v>0.1911356598138809</v>
       </c>
       <c r="D142" t="n">
-        <v>1.212164759635925</v>
+        <v>1.211101651191711</v>
       </c>
     </row>
     <row r="143">
@@ -2441,13 +2441,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.76429009437561</v>
+        <v>1.762437462806702</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2792797684669495</v>
+        <v>0.2786484956741333</v>
       </c>
       <c r="D143" t="n">
-        <v>1.485010385513306</v>
+        <v>1.483788967132568</v>
       </c>
     </row>
     <row r="144">
@@ -2455,13 +2455,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.603908658027649</v>
+        <v>1.602127909660339</v>
       </c>
       <c r="C144" t="n">
-        <v>1.279807806015015</v>
+        <v>1.279139041900635</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3241008520126343</v>
+        <v>0.3229888677597046</v>
       </c>
     </row>
     <row r="145">
@@ -2469,13 +2469,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.711239814758301</v>
+        <v>1.709411025047302</v>
       </c>
       <c r="C145" t="n">
-        <v>1.46858012676239</v>
+        <v>1.467904210090637</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2426596879959106</v>
+        <v>0.241506814956665</v>
       </c>
     </row>
     <row r="146">
@@ -2483,13 +2483,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.152222990989685</v>
+        <v>1.150644898414612</v>
       </c>
       <c r="C146" t="n">
-        <v>0.897310733795166</v>
+        <v>0.8966560959815979</v>
       </c>
       <c r="D146" t="n">
-        <v>0.254912257194519</v>
+        <v>0.2539888024330139</v>
       </c>
     </row>
     <row r="147">
@@ -2497,13 +2497,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7272800803184509</v>
+        <v>0.7258924245834351</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8460407257080078</v>
+        <v>0.8453881144523621</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1187606453895569</v>
+        <v>-0.119495689868927</v>
       </c>
     </row>
     <row r="148">
@@ -2511,13 +2511,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2871409356594086</v>
+        <v>0.2859506011009216</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2252974212169647</v>
+        <v>-0.225909486413002</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5124383568763733</v>
+        <v>0.5118600726127625</v>
       </c>
     </row>
     <row r="149">
@@ -2525,13 +2525,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6820870041847229</v>
+        <v>0.680719792842865</v>
       </c>
       <c r="C149" t="n">
-        <v>1.560400724411011</v>
+        <v>1.559720754623413</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8783137202262878</v>
+        <v>-0.8790009617805481</v>
       </c>
     </row>
     <row r="150">
@@ -2539,13 +2539,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.038369655609131</v>
+        <v>1.036842584609985</v>
       </c>
       <c r="C150" t="n">
-        <v>2.452299833297729</v>
+        <v>2.451586246490479</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.413930177688599</v>
+        <v>-1.414743661880493</v>
       </c>
     </row>
     <row r="151">
@@ -2553,13 +2553,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.328045606613159</v>
+        <v>1.326388597488403</v>
       </c>
       <c r="C151" t="n">
-        <v>1.281970024108887</v>
+        <v>1.281301379203796</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04607558250427246</v>
+        <v>0.04508721828460693</v>
       </c>
     </row>
     <row r="152">
@@ -2567,13 +2567,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.361815333366394</v>
+        <v>1.360143423080444</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2920406460762024</v>
+        <v>0.2914087176322937</v>
       </c>
       <c r="D152" t="n">
-        <v>1.069774627685547</v>
+        <v>1.068734645843506</v>
       </c>
     </row>
     <row r="153">
@@ -2581,13 +2581,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.110242366790771</v>
+        <v>2.108234405517578</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1885544061660767</v>
+        <v>0.18792624771595</v>
       </c>
       <c r="D153" t="n">
-        <v>1.921687960624695</v>
+        <v>1.920308113098145</v>
       </c>
     </row>
     <row r="154">
@@ -2595,13 +2595,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.997037410736084</v>
+        <v>1.995080590248108</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4566088914871216</v>
+        <v>0.4559705555438995</v>
       </c>
       <c r="D154" t="n">
-        <v>1.540428519248962</v>
+        <v>1.539110064506531</v>
       </c>
     </row>
     <row r="155">
@@ -2609,13 +2609,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.861980199813843</v>
+        <v>1.860083937644958</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7634530663490295</v>
+        <v>0.7628037929534912</v>
       </c>
       <c r="D155" t="n">
-        <v>1.098527193069458</v>
+        <v>1.097280144691467</v>
       </c>
     </row>
     <row r="156">
@@ -2623,13 +2623,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.609105706214905</v>
+        <v>1.607323050498962</v>
       </c>
       <c r="C156" t="n">
-        <v>1.356782078742981</v>
+        <v>1.356110453605652</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2523236274719238</v>
+        <v>0.2512125968933105</v>
       </c>
     </row>
     <row r="157">
@@ -2637,13 +2637,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.912688136100769</v>
+        <v>1.906660556793213</v>
       </c>
       <c r="C157" t="n">
-        <v>1.731290459632874</v>
+        <v>1.726688504219055</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1813976764678955</v>
+        <v>0.1799720525741577</v>
       </c>
     </row>
     <row r="158">
@@ -2651,13 +2651,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.529042601585388</v>
+        <v>1.54408848285675</v>
       </c>
       <c r="C158" t="n">
-        <v>1.460443019866943</v>
+        <v>1.47799813747406</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06859958171844482</v>
+        <v>0.06609034538269043</v>
       </c>
     </row>
     <row r="159">
@@ -2665,13 +2665,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.363569617271423</v>
+        <v>1.375159382820129</v>
       </c>
       <c r="C159" t="n">
-        <v>1.628674387931824</v>
+        <v>1.644704341888428</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2651047706604004</v>
+        <v>-0.2695449590682983</v>
       </c>
     </row>
     <row r="160">
@@ -2679,13 +2679,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.673243165016174</v>
+        <v>1.684388160705566</v>
       </c>
       <c r="C160" t="n">
-        <v>1.713812828063965</v>
+        <v>1.734185218811035</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04056966304779053</v>
+        <v>-0.04979705810546875</v>
       </c>
     </row>
     <row r="161">
@@ -2693,13 +2693,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.341845870018005</v>
+        <v>1.352969288825989</v>
       </c>
       <c r="C161" t="n">
-        <v>1.667001247406006</v>
+        <v>1.686634421348572</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3251553773880005</v>
+        <v>-0.333665132522583</v>
       </c>
     </row>
     <row r="162">
@@ -2707,13 +2707,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5787284970283508</v>
+        <v>0.5854558944702148</v>
       </c>
       <c r="C162" t="n">
-        <v>1.787095785140991</v>
+        <v>1.877118468284607</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.208367347717285</v>
+        <v>-1.291662573814392</v>
       </c>
     </row>
     <row r="163">
@@ -2721,13 +2721,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3727638423442841</v>
+        <v>0.3791225552558899</v>
       </c>
       <c r="C163" t="n">
-        <v>1.275230169296265</v>
+        <v>1.351431250572205</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9024662971496582</v>
+        <v>-0.9723086953163147</v>
       </c>
     </row>
     <row r="164">
@@ -2735,13 +2735,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6710981130599976</v>
+        <v>0.6816216111183167</v>
       </c>
       <c r="C164" t="n">
-        <v>1.434013724327087</v>
+        <v>1.454586505889893</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7629156112670898</v>
+        <v>-0.7729648947715759</v>
       </c>
     </row>
     <row r="165">
@@ -2749,13 +2749,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8596559762954712</v>
+        <v>0.8694507479667664</v>
       </c>
       <c r="C165" t="n">
-        <v>1.10416042804718</v>
+        <v>1.125396251678467</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.244504451751709</v>
+        <v>-0.2559455037117004</v>
       </c>
     </row>
     <row r="166">
@@ -2763,13 +2763,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9993582963943481</v>
+        <v>1.007905721664429</v>
       </c>
       <c r="C166" t="n">
-        <v>1.235139727592468</v>
+        <v>1.257806301116943</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2357814311981201</v>
+        <v>-0.2499005794525146</v>
       </c>
     </row>
     <row r="167">
@@ -2777,13 +2777,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.62315845489502</v>
+        <v>1.631628036499023</v>
       </c>
       <c r="C167" t="n">
-        <v>1.593985438346863</v>
+        <v>1.619370102882385</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02917301654815674</v>
+        <v>0.01225793361663818</v>
       </c>
     </row>
     <row r="168">
@@ -2791,13 +2791,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952636361122131</v>
+        <v>1.961082220077515</v>
       </c>
       <c r="C168" t="n">
-        <v>1.868096232414246</v>
+        <v>1.892868876457214</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08454012870788574</v>
+        <v>0.06821334362030029</v>
       </c>
     </row>
     <row r="169">
@@ -2805,13 +2805,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.178084135055542</v>
+        <v>1.18725574016571</v>
       </c>
       <c r="C169" t="n">
-        <v>1.560787558555603</v>
+        <v>1.581327199935913</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.382703423500061</v>
+        <v>-0.3940714597702026</v>
       </c>
     </row>
     <row r="170">
@@ -2819,13 +2819,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9836270213127136</v>
+        <v>0.9828499555587769</v>
       </c>
       <c r="C170" t="n">
-        <v>1.276895761489868</v>
+        <v>1.268814563751221</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2932687401771545</v>
+        <v>-0.2859646081924438</v>
       </c>
     </row>
     <row r="171">
@@ -2833,13 +2833,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9065489768981934</v>
+        <v>0.9062192440032959</v>
       </c>
       <c r="C171" t="n">
-        <v>1.030668258666992</v>
+        <v>1.020161747932434</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1241192817687988</v>
+        <v>-0.1139425039291382</v>
       </c>
     </row>
     <row r="172">
@@ -2847,13 +2847,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.022946834564209</v>
+        <v>1.022247672080994</v>
       </c>
       <c r="C172" t="n">
-        <v>1.867633819580078</v>
+        <v>1.85889720916748</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8446869850158691</v>
+        <v>-0.8366495370864868</v>
       </c>
     </row>
     <row r="173">
@@ -2861,13 +2861,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.223553895950317</v>
+        <v>1.222158789634705</v>
       </c>
       <c r="C173" t="n">
-        <v>1.661420345306396</v>
+        <v>1.653541088104248</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4378664493560791</v>
+        <v>-0.4313822984695435</v>
       </c>
     </row>
     <row r="174">
@@ -2875,13 +2875,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.655976295471191</v>
+        <v>1.653861045837402</v>
       </c>
       <c r="C174" t="n">
-        <v>1.858046412467957</v>
+        <v>1.85125744342804</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2020701169967651</v>
+        <v>-0.1973963975906372</v>
       </c>
     </row>
     <row r="175">
@@ -2889,13 +2889,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.470005393028259</v>
+        <v>1.46838903427124</v>
       </c>
       <c r="C175" t="n">
-        <v>1.89810037612915</v>
+        <v>1.891432642936707</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4280949831008911</v>
+        <v>-0.4230436086654663</v>
       </c>
     </row>
     <row r="176">
@@ -2903,13 +2903,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.092193365097046</v>
+        <v>1.090720176696777</v>
       </c>
       <c r="C176" t="n">
-        <v>1.932908296585083</v>
+        <v>1.926737189292908</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8407149314880371</v>
+        <v>-0.8360170125961304</v>
       </c>
     </row>
     <row r="177">
@@ -2917,13 +2917,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.103983759880066</v>
+        <v>1.103519320487976</v>
       </c>
       <c r="C177" t="n">
-        <v>2.058404922485352</v>
+        <v>2.051172733306885</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9544211626052856</v>
+        <v>-0.9476534128189087</v>
       </c>
     </row>
     <row r="178">
@@ -2931,13 +2931,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334553003311157</v>
+        <v>1.334472179412842</v>
       </c>
       <c r="C178" t="n">
-        <v>1.964699625968933</v>
+        <v>1.956870317459106</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6301466226577759</v>
+        <v>-0.6223981380462646</v>
       </c>
     </row>
     <row r="179">
@@ -2945,13 +2945,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896307945251465</v>
+        <v>1.895298480987549</v>
       </c>
       <c r="C179" t="n">
-        <v>1.442175984382629</v>
+        <v>1.437095403671265</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4541319608688354</v>
+        <v>0.4582030773162842</v>
       </c>
     </row>
     <row r="180">
@@ -2959,13 +2959,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.870493650436401</v>
+        <v>1.869248032569885</v>
       </c>
       <c r="C180" t="n">
-        <v>1.499433755874634</v>
+        <v>1.495902538299561</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3710598945617676</v>
+        <v>0.3733454942703247</v>
       </c>
     </row>
     <row r="181">
@@ -2973,13 +2973,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.434032320976257</v>
+        <v>1.432377934455872</v>
       </c>
       <c r="C181" t="n">
-        <v>1.82140052318573</v>
+        <v>1.817003607749939</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3873682022094727</v>
+        <v>-0.3846256732940674</v>
       </c>
     </row>
     <row r="182">
@@ -2987,13 +2987,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4865441620349884</v>
+        <v>0.4917288422584534</v>
       </c>
       <c r="C182" t="n">
-        <v>1.214866876602173</v>
+        <v>1.210577011108398</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7283227443695068</v>
+        <v>-0.7188481688499451</v>
       </c>
     </row>
     <row r="183">
@@ -3001,13 +3001,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8839527368545532</v>
+        <v>0.8887919187545776</v>
       </c>
       <c r="C183" t="n">
-        <v>1.48959493637085</v>
+        <v>1.485523462295532</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.6056421995162964</v>
+        <v>-0.5967315435409546</v>
       </c>
     </row>
     <row r="184">
@@ -3015,13 +3015,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556748270988464</v>
+        <v>1.560804128646851</v>
       </c>
       <c r="C184" t="n">
-        <v>1.766361355781555</v>
+        <v>1.75848650932312</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2096130847930908</v>
+        <v>-0.1976823806762695</v>
       </c>
     </row>
     <row r="185">
@@ -3029,13 +3029,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937828660011292</v>
+        <v>1.94237208366394</v>
       </c>
       <c r="C185" t="n">
-        <v>1.667606472969055</v>
+        <v>1.661451935768127</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2702221870422363</v>
+        <v>0.280920147895813</v>
       </c>
     </row>
     <row r="186">
@@ -3043,13 +3043,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.966380596160889</v>
+        <v>1.970575213432312</v>
       </c>
       <c r="C186" t="n">
-        <v>1.615548253059387</v>
+        <v>1.613779783248901</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3508323431015015</v>
+        <v>0.3567954301834106</v>
       </c>
     </row>
     <row r="187">
@@ -3057,13 +3057,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065834760665894</v>
+        <v>2.071971416473389</v>
       </c>
       <c r="C187" t="n">
-        <v>1.470544695854187</v>
+        <v>1.468026280403137</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5952900648117065</v>
+        <v>0.6039451360702515</v>
       </c>
     </row>
     <row r="188">
@@ -3071,13 +3071,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351698398590088</v>
+        <v>2.355541229248047</v>
       </c>
       <c r="C188" t="n">
-        <v>1.507505178451538</v>
+        <v>1.502733588218689</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8441932201385498</v>
+        <v>0.8528076410293579</v>
       </c>
     </row>
     <row r="189">
@@ -3085,13 +3085,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.902913808822632</v>
+        <v>2.906661510467529</v>
       </c>
       <c r="C189" t="n">
-        <v>1.669609069824219</v>
+        <v>1.663438677787781</v>
       </c>
       <c r="D189" t="n">
-        <v>1.233304738998413</v>
+        <v>1.243222832679749</v>
       </c>
     </row>
     <row r="190">
@@ -3099,13 +3099,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.117564678192139</v>
+        <v>3.120384454727173</v>
       </c>
       <c r="C190" t="n">
-        <v>1.273326277732849</v>
+        <v>1.267364978790283</v>
       </c>
       <c r="D190" t="n">
-        <v>1.84423840045929</v>
+        <v>1.85301947593689</v>
       </c>
     </row>
     <row r="191">
@@ -3113,13 +3113,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.102536678314209</v>
+        <v>3.10450291633606</v>
       </c>
       <c r="C191" t="n">
-        <v>1.562703251838684</v>
+        <v>1.558462023735046</v>
       </c>
       <c r="D191" t="n">
-        <v>1.539833426475525</v>
+        <v>1.546040892601013</v>
       </c>
     </row>
     <row r="192">
@@ -3127,13 +3127,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.855913162231445</v>
+        <v>2.858892202377319</v>
       </c>
       <c r="C192" t="n">
-        <v>1.870711803436279</v>
+        <v>1.865286111831665</v>
       </c>
       <c r="D192" t="n">
-        <v>0.985201358795166</v>
+        <v>0.9936060905456543</v>
       </c>
     </row>
     <row r="193">
@@ -3141,13 +3141,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.930112838745117</v>
+        <v>2.933446407318115</v>
       </c>
       <c r="C193" t="n">
-        <v>2.939522266387939</v>
+        <v>2.931912183761597</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.009409427642822266</v>
+        <v>0.001534223556518555</v>
       </c>
     </row>
     <row r="194">
@@ -3155,13 +3155,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838231563568115</v>
+        <v>2.839562177658081</v>
       </c>
       <c r="C194" t="n">
-        <v>3.515940427780151</v>
+        <v>3.519275665283203</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6777088642120361</v>
+        <v>-0.6797134876251221</v>
       </c>
     </row>
     <row r="195">
@@ -3169,13 +3169,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.280293464660645</v>
+        <v>2.282197237014771</v>
       </c>
       <c r="C195" t="n">
-        <v>3.290107250213623</v>
+        <v>3.298714160919189</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.009813785552979</v>
+        <v>-1.016516923904419</v>
       </c>
     </row>
     <row r="196">
@@ -3183,13 +3183,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108780860900879</v>
+        <v>3.109570741653442</v>
       </c>
       <c r="C196" t="n">
-        <v>3.714715957641602</v>
+        <v>3.724755525588989</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6059350967407227</v>
+        <v>-0.6151847839355469</v>
       </c>
     </row>
     <row r="197">
@@ -3197,13 +3197,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.902920722961426</v>
+        <v>2.904298067092896</v>
       </c>
       <c r="C197" t="n">
-        <v>3.504155874252319</v>
+        <v>3.515730619430542</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6012351512908936</v>
+        <v>-0.6114325523376465</v>
       </c>
     </row>
     <row r="198">
@@ -3211,13 +3211,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.015162229537964</v>
+        <v>2.016979455947876</v>
       </c>
       <c r="C198" t="n">
-        <v>3.170421600341797</v>
+        <v>3.185663938522339</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.155259370803833</v>
+        <v>-1.168684482574463</v>
       </c>
     </row>
     <row r="199">
@@ -3225,13 +3225,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.055235385894775</v>
+        <v>1.057259678840637</v>
       </c>
       <c r="C199" t="n">
-        <v>2.595169305801392</v>
+        <v>2.611268043518066</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.539933919906616</v>
+        <v>-1.554008364677429</v>
       </c>
     </row>
     <row r="200">
@@ -3239,13 +3239,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4202737510204315</v>
+        <v>0.4232920110225677</v>
       </c>
       <c r="C200" t="n">
-        <v>2.860627412796021</v>
+        <v>2.877087116241455</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.440353631973267</v>
+        <v>-2.453795194625854</v>
       </c>
     </row>
     <row r="201">
@@ -3253,13 +3253,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443469166755676</v>
+        <v>1.446524143218994</v>
       </c>
       <c r="C201" t="n">
-        <v>2.618775606155396</v>
+        <v>2.634711503982544</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.175306439399719</v>
+        <v>-1.18818736076355</v>
       </c>
     </row>
     <row r="202">
@@ -3267,13 +3267,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.063948392868042</v>
+        <v>1.066837310791016</v>
       </c>
       <c r="C202" t="n">
-        <v>2.723068714141846</v>
+        <v>2.73797345161438</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.659120321273804</v>
+        <v>-1.671136140823364</v>
       </c>
     </row>
     <row r="203">
@@ -3281,13 +3281,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092616081237793</v>
+        <v>1.095027327537537</v>
       </c>
       <c r="C203" t="n">
-        <v>2.471105098724365</v>
+        <v>2.486235380172729</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.378489017486572</v>
+        <v>-1.391208052635193</v>
       </c>
     </row>
     <row r="204">
@@ -3295,13 +3295,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.300329804420471</v>
+        <v>1.302992463111877</v>
       </c>
       <c r="C204" t="n">
-        <v>2.105690002441406</v>
+        <v>2.119201898574829</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8053601980209351</v>
+        <v>-0.8162094354629517</v>
       </c>
     </row>
     <row r="205">
@@ -3309,13 +3309,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.285532474517822</v>
+        <v>1.287736058235168</v>
       </c>
       <c r="C205" t="n">
-        <v>1.814849019050598</v>
+        <v>1.8277348279953</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5293165445327759</v>
+        <v>-0.5399987697601318</v>
       </c>
     </row>
     <row r="206">
@@ -3323,13 +3323,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.046207308769226</v>
+        <v>1.055744528770447</v>
       </c>
       <c r="C206" t="n">
-        <v>1.086070537567139</v>
+        <v>1.10620105266571</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.0398632287979126</v>
+        <v>-0.05045652389526367</v>
       </c>
     </row>
     <row r="207">
@@ -3337,13 +3337,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.203532576560974</v>
+        <v>1.211559891700745</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9444787502288818</v>
+        <v>0.9658056497573853</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2590538263320923</v>
+        <v>0.2457542419433594</v>
       </c>
     </row>
     <row r="208">
@@ -3351,13 +3351,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.472847700119019</v>
+        <v>1.480394244194031</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7505466341972351</v>
+        <v>0.7699848413467407</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7223010659217834</v>
+        <v>0.71040940284729</v>
       </c>
     </row>
     <row r="209">
@@ -3365,13 +3365,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.513240814208984</v>
+        <v>1.52147102355957</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5686178803443909</v>
+        <v>0.5888952612876892</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9446229338645935</v>
+        <v>0.9325757622718811</v>
       </c>
     </row>
     <row r="210">
@@ -3379,13 +3379,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.865459084510803</v>
+        <v>1.872618079185486</v>
       </c>
       <c r="C210" t="n">
-        <v>0.669561505317688</v>
+        <v>0.6879851222038269</v>
       </c>
       <c r="D210" t="n">
-        <v>1.195897579193115</v>
+        <v>1.184633016586304</v>
       </c>
     </row>
     <row r="211">
@@ -3393,13 +3393,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.612640023231506</v>
+        <v>1.622164011001587</v>
       </c>
       <c r="C211" t="n">
-        <v>0.833200216293335</v>
+        <v>0.8450788855552673</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7794398069381714</v>
+        <v>0.7770851254463196</v>
       </c>
     </row>
     <row r="212">
@@ -3407,13 +3407,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.065923929214478</v>
+        <v>2.07529354095459</v>
       </c>
       <c r="C212" t="n">
-        <v>1.116981983184814</v>
+        <v>1.127772927284241</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9489419460296631</v>
+        <v>0.9475206136703491</v>
       </c>
     </row>
     <row r="213">
@@ -3421,13 +3421,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152321100234985</v>
+        <v>2.161247491836548</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5158374905586243</v>
+        <v>0.5274119973182678</v>
       </c>
       <c r="D213" t="n">
-        <v>1.636483669281006</v>
+        <v>1.633835554122925</v>
       </c>
     </row>
     <row r="214">
@@ -3435,13 +3435,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.91110098361969</v>
+        <v>1.919910788536072</v>
       </c>
       <c r="C214" t="n">
-        <v>1.019727468490601</v>
+        <v>1.03890597820282</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8913735151290894</v>
+        <v>0.881004810333252</v>
       </c>
     </row>
     <row r="215">
@@ -3449,13 +3449,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.050646543502808</v>
+        <v>2.059669733047485</v>
       </c>
       <c r="C215" t="n">
-        <v>1.171838045120239</v>
+        <v>1.189258456230164</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8788084983825684</v>
+        <v>0.8704112768173218</v>
       </c>
     </row>
     <row r="216">
@@ -3463,13 +3463,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.923986673355103</v>
+        <v>1.930844664573669</v>
       </c>
       <c r="C216" t="n">
-        <v>1.402669906616211</v>
+        <v>1.42438280582428</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5213167667388916</v>
+        <v>0.5064618587493896</v>
       </c>
     </row>
     <row r="217">
@@ -3477,13 +3477,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.002851247787476</v>
+        <v>1.00788426399231</v>
       </c>
       <c r="C217" t="n">
-        <v>1.205245971679688</v>
+        <v>1.225363850593567</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2023947238922119</v>
+        <v>-0.2174795866012573</v>
       </c>
     </row>
     <row r="218">
@@ -3491,13 +3491,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.711268424987793</v>
+        <v>0.7439781427383423</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5074565410614014</v>
+        <v>0.517528772354126</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2038118839263916</v>
+        <v>0.2264493703842163</v>
       </c>
     </row>
     <row r="219">
@@ -3505,13 +3505,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.493485450744629</v>
+        <v>1.518218040466309</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4946092963218689</v>
+        <v>0.5071071982383728</v>
       </c>
       <c r="D219" t="n">
-        <v>0.99887615442276</v>
+        <v>1.011110782623291</v>
       </c>
     </row>
     <row r="220">
@@ -3519,13 +3519,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.355035305023193</v>
+        <v>1.380201816558838</v>
       </c>
       <c r="C220" t="n">
-        <v>1.201950192451477</v>
+        <v>1.212987184524536</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1530851125717163</v>
+        <v>0.1672146320343018</v>
       </c>
     </row>
     <row r="221">
@@ -3533,13 +3533,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.491983532905579</v>
+        <v>1.515534639358521</v>
       </c>
       <c r="C221" t="n">
-        <v>1.416167855262756</v>
+        <v>1.430914402008057</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07581567764282227</v>
+        <v>0.08462023735046387</v>
       </c>
     </row>
     <row r="222">
@@ -3547,13 +3547,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.288042664527893</v>
+        <v>1.312300324440002</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9977872967720032</v>
+        <v>1.012887001037598</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2902553677558899</v>
+        <v>0.2994133234024048</v>
       </c>
     </row>
     <row r="223">
@@ -3561,13 +3561,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9318027496337891</v>
+        <v>0.9558961391448975</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7265905141830444</v>
+        <v>0.7407079339027405</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2052122354507446</v>
+        <v>0.215188205242157</v>
       </c>
     </row>
     <row r="224">
@@ -3575,13 +3575,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.092385411262512</v>
+        <v>1.116273403167725</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4228078424930573</v>
+        <v>0.4333204925060272</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6695775985717773</v>
+        <v>0.682952880859375</v>
       </c>
     </row>
     <row r="225">
@@ -3589,13 +3589,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.489528298377991</v>
+        <v>1.513533473014832</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5713984370231628</v>
+        <v>0.58283531665802</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9181298613548279</v>
+        <v>0.9306981563568115</v>
       </c>
     </row>
     <row r="226">
@@ -3603,13 +3603,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.845141172409058</v>
+        <v>1.869806289672852</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07660241425037384</v>
+        <v>0.08286836743354797</v>
       </c>
       <c r="D226" t="n">
-        <v>1.7685387134552</v>
+        <v>1.786937952041626</v>
       </c>
     </row>
     <row r="227">
@@ -3617,13 +3617,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.655511856079102</v>
+        <v>1.679751515388489</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4880894720554352</v>
+        <v>0.491980254650116</v>
       </c>
       <c r="D227" t="n">
-        <v>1.167422413825989</v>
+        <v>1.187771320343018</v>
       </c>
     </row>
     <row r="228">
@@ -3631,13 +3631,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.092609405517578</v>
+        <v>2.116886615753174</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8903350830078125</v>
+        <v>0.898615837097168</v>
       </c>
       <c r="D228" t="n">
-        <v>1.202274322509766</v>
+        <v>1.218270778656006</v>
       </c>
     </row>
     <row r="229">
@@ -3645,13 +3645,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>1.993898868560791</v>
+        <v>2.015079975128174</v>
       </c>
       <c r="C229" t="n">
-        <v>1.208410143852234</v>
+        <v>1.217154026031494</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7854887247085571</v>
+        <v>0.7979259490966797</v>
       </c>
     </row>
     <row r="230">
@@ -3659,13 +3659,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>1.985567688941956</v>
+        <v>2.007755756378174</v>
       </c>
       <c r="C230" t="n">
-        <v>1.74212372303009</v>
+        <v>1.760184049606323</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2434439659118652</v>
+        <v>0.2475717067718506</v>
       </c>
     </row>
     <row r="231">
@@ -3673,13 +3673,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.682624578475952</v>
+        <v>1.707367181777954</v>
       </c>
       <c r="C231" t="n">
-        <v>1.793722152709961</v>
+        <v>1.811623334884644</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1110975742340088</v>
+        <v>-0.1042561531066895</v>
       </c>
     </row>
     <row r="232">
@@ -3687,13 +3687,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.702526450157166</v>
+        <v>1.727540135383606</v>
       </c>
       <c r="C232" t="n">
-        <v>1.568430662155151</v>
+        <v>1.585573315620422</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1340957880020142</v>
+        <v>0.1419668197631836</v>
       </c>
     </row>
     <row r="233">
@@ -3701,13 +3701,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.202855348587036</v>
+        <v>2.226516008377075</v>
       </c>
       <c r="C233" t="n">
-        <v>1.606860995292664</v>
+        <v>1.626389980316162</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5959943532943726</v>
+        <v>0.6001260280609131</v>
       </c>
     </row>
     <row r="234">
@@ -3715,13 +3715,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.677011966705322</v>
+        <v>2.701617002487183</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9396362900733948</v>
+        <v>0.9570051431655884</v>
       </c>
       <c r="D234" t="n">
-        <v>1.737375736236572</v>
+        <v>1.744611859321594</v>
       </c>
     </row>
     <row r="235">
@@ -3729,13 +3729,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.318376541137695</v>
+        <v>2.343156337738037</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2993922531604767</v>
+        <v>0.3132034242153168</v>
       </c>
       <c r="D235" t="n">
-        <v>2.018984317779541</v>
+        <v>2.029953002929688</v>
       </c>
     </row>
     <row r="236">
@@ -3743,13 +3743,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.135841131210327</v>
+        <v>2.159673690795898</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3438189923763275</v>
+        <v>0.354871541261673</v>
       </c>
       <c r="D236" t="n">
-        <v>1.792022109031677</v>
+        <v>1.804802179336548</v>
       </c>
     </row>
     <row r="237">
@@ -3757,13 +3757,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.669420003890991</v>
+        <v>2.693630695343018</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6214673519134521</v>
+        <v>-0.6053812503814697</v>
       </c>
       <c r="D237" t="n">
-        <v>3.290887355804443</v>
+        <v>3.299011945724487</v>
       </c>
     </row>
     <row r="238">
@@ -3771,13 +3771,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.243203163146973</v>
+        <v>2.267322778701782</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.161885499954224</v>
+        <v>-1.143159031867981</v>
       </c>
       <c r="D238" t="n">
-        <v>3.405088663101196</v>
+        <v>3.410481929779053</v>
       </c>
     </row>
     <row r="239">
@@ -3785,13 +3785,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.597463130950928</v>
+        <v>2.620885372161865</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.500323295593262</v>
+        <v>-1.482982277870178</v>
       </c>
       <c r="D239" t="n">
-        <v>4.097786426544189</v>
+        <v>4.103867530822754</v>
       </c>
     </row>
     <row r="240">
@@ -3799,13 +3799,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.773083209991455</v>
+        <v>2.796759605407715</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8850356936454773</v>
+        <v>-0.8689380884170532</v>
       </c>
       <c r="D240" t="n">
-        <v>3.658118963241577</v>
+        <v>3.665697574615479</v>
       </c>
     </row>
     <row r="241">
@@ -3813,13 +3813,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.302329301834106</v>
+        <v>2.322824954986572</v>
       </c>
       <c r="C241" t="n">
-        <v>1.300792932510376</v>
+        <v>1.311806201934814</v>
       </c>
       <c r="D241" t="n">
-        <v>1.00153636932373</v>
+        <v>1.011018753051758</v>
       </c>
     </row>
     <row r="242">
@@ -3827,13 +3827,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.628437995910645</v>
+        <v>2.637639760971069</v>
       </c>
       <c r="C242" t="n">
-        <v>2.339584350585938</v>
+        <v>2.349328756332397</v>
       </c>
       <c r="D242" t="n">
-        <v>0.288853645324707</v>
+        <v>0.2883110046386719</v>
       </c>
     </row>
     <row r="243">
@@ -3841,13 +3841,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021859645843506</v>
+        <v>2.022521734237671</v>
       </c>
       <c r="C243" t="n">
-        <v>2.602699041366577</v>
+        <v>2.620950698852539</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5808393955230713</v>
+        <v>-0.5984289646148682</v>
       </c>
     </row>
     <row r="244">
@@ -3855,13 +3855,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.209392070770264</v>
+        <v>2.201863288879395</v>
       </c>
       <c r="C244" t="n">
-        <v>2.495419025421143</v>
+        <v>2.507052183151245</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.2860269546508789</v>
+        <v>-0.3051888942718506</v>
       </c>
     </row>
     <row r="245">
@@ -3869,13 +3869,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.267284154891968</v>
+        <v>2.251197099685669</v>
       </c>
       <c r="C245" t="n">
-        <v>2.572826862335205</v>
+        <v>2.494430780410767</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3055427074432373</v>
+        <v>-0.2432336807250977</v>
       </c>
     </row>
     <row r="246">
@@ -3883,13 +3883,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.32147479057312</v>
+        <v>2.319985628128052</v>
       </c>
       <c r="C246" t="n">
-        <v>1.530541181564331</v>
+        <v>1.530312776565552</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7909336090087891</v>
+        <v>0.7896728515625</v>
       </c>
     </row>
     <row r="247">
@@ -3897,13 +3897,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.208747148513794</v>
+        <v>2.207266330718994</v>
       </c>
       <c r="C247" t="n">
-        <v>1.161484003067017</v>
+        <v>1.161595821380615</v>
       </c>
       <c r="D247" t="n">
-        <v>1.047263145446777</v>
+        <v>1.045670509338379</v>
       </c>
     </row>
     <row r="248">
@@ -3911,13 +3911,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036955118179321</v>
+        <v>2.037659883499146</v>
       </c>
       <c r="C248" t="n">
-        <v>1.589323163032532</v>
+        <v>1.588150262832642</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4476319551467896</v>
+        <v>0.4495096206665039</v>
       </c>
     </row>
     <row r="249">
@@ -3925,13 +3925,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.542250514030457</v>
+        <v>1.540739178657532</v>
       </c>
       <c r="C249" t="n">
-        <v>1.99430251121521</v>
+        <v>1.993425130844116</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4520519971847534</v>
+        <v>-0.4526859521865845</v>
       </c>
     </row>
     <row r="250">
@@ -3939,13 +3939,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.264055728912354</v>
+        <v>1.262662053108215</v>
       </c>
       <c r="C250" t="n">
-        <v>1.54351794719696</v>
+        <v>1.54327392578125</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2794622182846069</v>
+        <v>-0.2806118726730347</v>
       </c>
     </row>
     <row r="251">
@@ -3953,13 +3953,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.776148915290833</v>
+        <v>1.77408504486084</v>
       </c>
       <c r="C251" t="n">
-        <v>1.369688868522644</v>
+        <v>1.3540940284729</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4064600467681885</v>
+        <v>0.4199910163879395</v>
       </c>
     </row>
     <row r="252">
@@ -3967,13 +3967,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.544378519058228</v>
+        <v>1.500586271286011</v>
       </c>
       <c r="C252" t="n">
-        <v>1.221161365509033</v>
+        <v>1.215802907943726</v>
       </c>
       <c r="D252" t="n">
-        <v>0.3232171535491943</v>
+        <v>0.2847833633422852</v>
       </c>
     </row>
     <row r="253">
@@ -3981,13 +3981,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.404459834098816</v>
+        <v>1.224006295204163</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9316205978393555</v>
+        <v>0.7557218074798584</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4728392362594604</v>
+        <v>0.4682844877243042</v>
       </c>
     </row>
     <row r="254">
@@ -3995,13 +3995,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5275116562843323</v>
+        <v>0.495369553565979</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.05409813299775124</v>
+        <v>0.003353872569277883</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5816097855567932</v>
+        <v>0.4920156896114349</v>
       </c>
     </row>
     <row r="255">
@@ -4009,13 +4009,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.7590844035148621</v>
+        <v>0.8150643706321716</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3176757097244263</v>
+        <v>0.3315035700798035</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4414086937904358</v>
+        <v>0.4835608005523682</v>
       </c>
     </row>
     <row r="256">
@@ -4023,13 +4023,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.202256083488464</v>
+        <v>1.163839936256409</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9391231536865234</v>
+        <v>0.8063042759895325</v>
       </c>
       <c r="D256" t="n">
-        <v>0.2631329298019409</v>
+        <v>0.3575356602668762</v>
       </c>
     </row>
     <row r="257">
@@ -4037,13 +4037,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.181619644165039</v>
+        <v>1.116770029067993</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5187000632286072</v>
+        <v>0.6034373044967651</v>
       </c>
       <c r="D257" t="n">
-        <v>0.6629195809364319</v>
+        <v>0.513332724571228</v>
       </c>
     </row>
     <row r="258">
@@ -4051,13 +4051,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6769621968269348</v>
+        <v>0.6755971908569336</v>
       </c>
       <c r="C258" t="n">
-        <v>1.286746978759766</v>
+        <v>1.286077976226807</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6097847819328308</v>
+        <v>-0.610480785369873</v>
       </c>
     </row>
     <row r="259">
@@ -4065,13 +4065,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8813033699989319</v>
+        <v>0.8798467516899109</v>
       </c>
       <c r="C259" t="n">
-        <v>1.817793369293213</v>
+        <v>1.817104458808899</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.936489999294281</v>
+        <v>-0.937257707118988</v>
       </c>
     </row>
     <row r="260">
@@ -4079,13 +4079,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.169771075248718</v>
+        <v>1.168185114860535</v>
       </c>
       <c r="C260" t="n">
-        <v>2.26374888420105</v>
+        <v>2.263043165206909</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.093977808952332</v>
+        <v>-1.094858050346375</v>
       </c>
     </row>
     <row r="261">
@@ -4093,13 +4093,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.296982526779175</v>
+        <v>1.295339465141296</v>
       </c>
       <c r="C261" t="n">
-        <v>1.909096002578735</v>
+        <v>1.908403635025024</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6121134757995605</v>
+        <v>-0.613064169883728</v>
       </c>
     </row>
     <row r="262">
@@ -4107,13 +4107,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.507958054542542</v>
+        <v>1.506220579147339</v>
       </c>
       <c r="C262" t="n">
-        <v>1.438250422477722</v>
+        <v>1.437575697898865</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06970763206481934</v>
+        <v>0.06864488124847412</v>
       </c>
     </row>
     <row r="263">
@@ -4121,13 +4121,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.188015222549438</v>
+        <v>1.186421036720276</v>
       </c>
       <c r="C263" t="n">
-        <v>2.192429780960083</v>
+        <v>2.191726684570312</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.004414558410645</v>
+        <v>-1.005305647850037</v>
       </c>
     </row>
     <row r="264">
@@ -4135,13 +4135,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.16614830493927</v>
+        <v>1.16456401348114</v>
       </c>
       <c r="C264" t="n">
-        <v>1.759808659553528</v>
+        <v>1.759121894836426</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5936603546142578</v>
+        <v>-0.5945578813552856</v>
       </c>
     </row>
     <row r="265">
@@ -4149,13 +4149,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.328525424003601</v>
+        <v>1.326868414878845</v>
       </c>
       <c r="C265" t="n">
-        <v>1.748737573623657</v>
+        <v>1.748051285743713</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4202121496200562</v>
+        <v>-0.4211828708648682</v>
       </c>
     </row>
     <row r="266">
@@ -4163,13 +4163,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.683635592460632</v>
+        <v>1.681819319725037</v>
       </c>
       <c r="C266" t="n">
-        <v>2.311060190200806</v>
+        <v>2.310352802276611</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6274245977401733</v>
+        <v>-0.6285334825515747</v>
       </c>
     </row>
     <row r="267">
@@ -4177,13 +4177,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9152421355247498</v>
+        <v>0.913770318031311</v>
       </c>
       <c r="C267" t="n">
-        <v>1.707010507583618</v>
+        <v>1.706325769424438</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7917683720588684</v>
+        <v>-0.7925554513931274</v>
       </c>
     </row>
     <row r="268">
@@ -4191,13 +4191,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.088651537895203</v>
+        <v>1.087101936340332</v>
       </c>
       <c r="C268" t="n">
-        <v>1.318328619003296</v>
+        <v>1.317658424377441</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2296770811080933</v>
+        <v>-0.2305564880371094</v>
       </c>
     </row>
     <row r="269">
@@ -4205,13 +4205,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.163043022155762</v>
+        <v>1.161460041999817</v>
       </c>
       <c r="C269" t="n">
-        <v>1.965270042419434</v>
+        <v>1.9645756483078</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8022270202636719</v>
+        <v>-0.8031156063079834</v>
       </c>
     </row>
     <row r="270">
@@ -4219,13 +4219,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.001777529716492</v>
+        <v>1.000266909599304</v>
       </c>
       <c r="C270" t="n">
-        <v>2.167131185531616</v>
+        <v>2.166429281234741</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.165353655815125</v>
+        <v>-1.166162371635437</v>
       </c>
     </row>
     <row r="271">
@@ -4233,13 +4233,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.932131826877594</v>
+        <v>0.9306524395942688</v>
       </c>
       <c r="C271" t="n">
-        <v>2.42153263092041</v>
+        <v>2.420820951461792</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.489400863647461</v>
+        <v>-1.490168571472168</v>
       </c>
     </row>
     <row r="272">
@@ -4247,13 +4247,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1142620146274567</v>
+        <v>0.1131493076682091</v>
       </c>
       <c r="C272" t="n">
-        <v>2.4451584815979</v>
+        <v>2.444446086883545</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.330896377563477</v>
+        <v>-2.331296682357788</v>
       </c>
     </row>
     <row r="273">
@@ -4261,13 +4261,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3998874127864838</v>
+        <v>0.3986466526985168</v>
       </c>
       <c r="C273" t="n">
-        <v>2.711812734603882</v>
+        <v>2.711090326309204</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.311925411224365</v>
+        <v>-2.312443733215332</v>
       </c>
     </row>
     <row r="274">
@@ -4275,13 +4275,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5011941194534302</v>
+        <v>0.4999079406261444</v>
       </c>
       <c r="C274" t="n">
-        <v>2.363776922225952</v>
+        <v>2.363067626953125</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.862582802772522</v>
+        <v>-1.863159656524658</v>
       </c>
     </row>
     <row r="275">
@@ -4289,13 +4289,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3094613254070282</v>
+        <v>0.3082610666751862</v>
       </c>
       <c r="C275" t="n">
-        <v>1.867259979248047</v>
+        <v>1.8665691614151</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.557798624038696</v>
+        <v>-1.558308124542236</v>
       </c>
     </row>
     <row r="276">
@@ -4303,13 +4303,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4281136989593506</v>
+        <v>0.4268602728843689</v>
       </c>
       <c r="C276" t="n">
-        <v>1.39312732219696</v>
+        <v>1.392454385757446</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9650136232376099</v>
+        <v>-0.9655941128730774</v>
       </c>
     </row>
     <row r="277">
@@ -4317,13 +4317,41 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8457684516906738</v>
+        <v>0.8443277478218079</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9265481233596802</v>
+        <v>0.9258925914764404</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08077967166900635</v>
+        <v>-0.08156484365463257</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.782867968082428</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.562646210193634</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2202217578887939</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.6599898338317871</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.07026305049657822</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7302528619766235</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8113753795623779</v>
+        <v>0.8107520341873169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7874457240104675</v>
+        <v>0.7875038981437683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0239296555519104</v>
+        <v>0.02324813604354858</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8380993604660034</v>
+        <v>0.83747398853302</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2604445219039917</v>
+        <v>-0.2606282234191895</v>
       </c>
       <c r="D3" t="n">
-        <v>1.098543882369995</v>
+        <v>1.098102211952209</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9144200086593628</v>
+        <v>0.913788914680481</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7676831483840942</v>
+        <v>-0.7679839134216309</v>
       </c>
       <c r="D4" t="n">
-        <v>1.682103157043457</v>
+        <v>1.681772828102112</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4896451234817505</v>
+        <v>0.4890458881855011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08775150030851364</v>
+        <v>0.0876481756567955</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4018936157226562</v>
+        <v>0.401397705078125</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7149307131767273</v>
+        <v>0.7143145799636841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01683096773922443</v>
+        <v>0.01671127602458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6980997323989868</v>
+        <v>0.6976032853126526</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07885174453258514</v>
+        <v>0.07828335464000702</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.146038755774498</v>
+        <v>-0.146196037530899</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2248905003070831</v>
+        <v>0.2244793921709061</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6701316237449646</v>
+        <v>0.6695188283920288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4493851661682129</v>
+        <v>0.4493653178215027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2207464575767517</v>
+        <v>0.2201535105705261</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.039337277412415</v>
+        <v>1.038696765899658</v>
       </c>
       <c r="C9" t="n">
-        <v>1.163532972335815</v>
+        <v>1.163677930831909</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1241956949234009</v>
+        <v>-0.124981164932251</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.412823796272278</v>
+        <v>1.412155389785767</v>
       </c>
       <c r="C10" t="n">
-        <v>1.128497838973999</v>
+        <v>1.128634691238403</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2843259572982788</v>
+        <v>0.2835206985473633</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9728471040725708</v>
+        <v>0.9722116589546204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9675824046134949</v>
+        <v>0.9676821827888489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005264699459075928</v>
+        <v>0.004529476165771484</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.055566430091858</v>
+        <v>1.054924726486206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8068705797195435</v>
+        <v>0.8069332838058472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2486958503723145</v>
+        <v>0.2479914426803589</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7369017601013184</v>
+        <v>0.7362839579582214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3183241784572601</v>
+        <v>0.3182740807533264</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4185775816440582</v>
+        <v>0.418009877204895</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.243519201874733</v>
+        <v>0.2429384589195251</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05076825618743896</v>
+        <v>-0.0509035512804985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2942874431610107</v>
+        <v>0.2938420176506042</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5088541507720947</v>
+        <v>0.5082535147666931</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3886600136756897</v>
+        <v>-0.3888733088970184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8975141644477844</v>
+        <v>0.8971267938613892</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.182680606842041</v>
+        <v>1.182029485702515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2453589141368866</v>
+        <v>0.2452919632196426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.937321662902832</v>
+        <v>0.9367375373840332</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.021389007568359</v>
+        <v>1.020749926567078</v>
       </c>
       <c r="C17" t="n">
-        <v>1.053379654884338</v>
+        <v>1.053499221801758</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.031990647315979</v>
+        <v>-0.03274929523468018</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.101587891578674</v>
+        <v>1.100942850112915</v>
       </c>
       <c r="C18" t="n">
-        <v>1.846816778182983</v>
+        <v>1.847119450569153</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7452288866043091</v>
+        <v>-0.7461766004562378</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.032831788063049</v>
+        <v>1.032191872596741</v>
       </c>
       <c r="C19" t="n">
-        <v>1.177361369132996</v>
+        <v>1.177509427070618</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1445295810699463</v>
+        <v>-0.145317554473877</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.413094699382782</v>
+        <v>0.4125012159347534</v>
       </c>
       <c r="C20" t="n">
-        <v>1.997691988945007</v>
+        <v>1.998029470443726</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.58459734916687</v>
+        <v>-1.585528254508972</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7216935157775879</v>
+        <v>0.7210769057273865</v>
       </c>
       <c r="C21" t="n">
-        <v>1.376349091529846</v>
+        <v>1.376543164253235</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6546555757522583</v>
+        <v>-0.6554662585258484</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7098450064659119</v>
+        <v>0.7092292308807373</v>
       </c>
       <c r="C22" t="n">
-        <v>1.493338108062744</v>
+        <v>1.493559241294861</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7834931015968323</v>
+        <v>-0.7843300104141235</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3956114649772644</v>
+        <v>0.3950192928314209</v>
       </c>
       <c r="C23" t="n">
-        <v>1.319873332977295</v>
+        <v>1.320054411888123</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9242618680000305</v>
+        <v>-0.9250351190567017</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6746923923492432</v>
+        <v>0.6740792989730835</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8421132564544678</v>
+        <v>0.8421840071678162</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1674208641052246</v>
+        <v>-0.1681047081947327</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.103292346000671</v>
+        <v>1.102647066116333</v>
       </c>
       <c r="C25" t="n">
-        <v>1.003994464874268</v>
+        <v>1.00410270690918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09929788112640381</v>
+        <v>0.09854435920715332</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8946295380592346</v>
+        <v>0.8939999341964722</v>
       </c>
       <c r="C26" t="n">
-        <v>1.523981928825378</v>
+        <v>1.524209976196289</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6293523907661438</v>
+        <v>-0.6302100419998169</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.143292903900146</v>
+        <v>1.142644643783569</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7340370416641235</v>
+        <v>0.7340828776359558</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4092558622360229</v>
+        <v>0.4085617661476135</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.175153493881226</v>
+        <v>1.174502849578857</v>
       </c>
       <c r="C28" t="n">
-        <v>1.974717736244202</v>
+        <v>1.97504985332489</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7995642423629761</v>
+        <v>-0.8005470037460327</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9104771614074707</v>
+        <v>0.9098463654518127</v>
       </c>
       <c r="C29" t="n">
-        <v>1.828237652778625</v>
+        <v>1.828536152839661</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9177604913711548</v>
+        <v>-0.9186897873878479</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4913361966609955</v>
+        <v>0.4907368421554565</v>
       </c>
       <c r="C30" t="n">
-        <v>1.601810574531555</v>
+        <v>1.602056622505188</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.110474348068237</v>
+        <v>-1.111319780349731</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7574158906936646</v>
+        <v>0.7567965984344482</v>
       </c>
       <c r="C31" t="n">
-        <v>1.225318551063538</v>
+        <v>1.225477814674377</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.467902660369873</v>
+        <v>-0.4686812162399292</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8562602400779724</v>
+        <v>0.855633556842804</v>
       </c>
       <c r="C32" t="n">
-        <v>1.385324239730835</v>
+        <v>1.385520339012146</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5290639996528625</v>
+        <v>-0.529886782169342</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6988664269447327</v>
+        <v>0.698251485824585</v>
       </c>
       <c r="C33" t="n">
-        <v>1.320079565048218</v>
+        <v>1.320260643959045</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6212131381034851</v>
+        <v>-0.6220091581344604</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.004597187042236</v>
+        <v>2.003884315490723</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5266457200050354</v>
+        <v>0.526643693447113</v>
       </c>
       <c r="D34" t="n">
-        <v>1.477951526641846</v>
+        <v>1.477240562438965</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.462299346923828</v>
+        <v>1.461627244949341</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1145276874303818</v>
+        <v>-0.1146776974201202</v>
       </c>
       <c r="D35" t="n">
-        <v>1.576827049255371</v>
+        <v>1.576304912567139</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.209182143211365</v>
+        <v>1.208528876304626</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5175923109054565</v>
+        <v>0.517588198184967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6915898323059082</v>
+        <v>0.6909406781196594</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.492233157157898</v>
+        <v>1.49155867099762</v>
       </c>
       <c r="C37" t="n">
-        <v>2.022786378860474</v>
+        <v>2.02312970161438</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5305532217025757</v>
+        <v>-0.5315710306167603</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.329185247421265</v>
+        <v>1.3285231590271</v>
       </c>
       <c r="C38" t="n">
-        <v>2.143833637237549</v>
+        <v>2.14420485496521</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8146483898162842</v>
+        <v>-0.8156816959381104</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.96790611743927</v>
+        <v>1.967195868492126</v>
       </c>
       <c r="C39" t="n">
-        <v>1.634154081344604</v>
+        <v>1.634407639503479</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3337520360946655</v>
+        <v>0.3327882289886475</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.74278450012207</v>
+        <v>1.742091178894043</v>
       </c>
       <c r="C40" t="n">
-        <v>1.101739883422852</v>
+        <v>1.101870536804199</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6410446166992188</v>
+        <v>0.6402206420898438</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.819356918334961</v>
+        <v>1.818657994270325</v>
       </c>
       <c r="C41" t="n">
-        <v>1.637619614601135</v>
+        <v>1.637874126434326</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1817373037338257</v>
+        <v>0.1807838678359985</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.753698110580444</v>
+        <v>1.753004193305969</v>
       </c>
       <c r="C42" t="n">
-        <v>1.17495059967041</v>
+        <v>1.175098180770874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5787475109100342</v>
+        <v>0.5779060125350952</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.601119160652161</v>
+        <v>1.600436329841614</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7008556723594666</v>
+        <v>0.7008938789367676</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9002634882926941</v>
+        <v>0.8995424509048462</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.16209864616394</v>
+        <v>1.161448955535889</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4691047668457031</v>
+        <v>0.4690894782543182</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6929938793182373</v>
+        <v>0.692359447479248</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.085199356079102</v>
+        <v>1.084555387496948</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03347146138548851</v>
+        <v>0.03335561230778694</v>
       </c>
       <c r="D45" t="n">
-        <v>1.051727890968323</v>
+        <v>1.051199793815613</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.347391605377197</v>
+        <v>1.346727967262268</v>
       </c>
       <c r="C46" t="n">
-        <v>1.108291387557983</v>
+        <v>1.108423709869385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2391002178192139</v>
+        <v>0.2383042573928833</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9893845915794373</v>
+        <v>0.9887478351593018</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8777792453765869</v>
+        <v>0.8778582215309143</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1116053462028503</v>
+        <v>0.1108896136283875</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6561967730522156</v>
+        <v>0.6555850505828857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9966744780540466</v>
+        <v>0.9967808723449707</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3404777050018311</v>
+        <v>-0.341195821762085</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7121903896331787</v>
+        <v>0.7115744352340698</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3657100200653076</v>
+        <v>0.3656708598136902</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3464803695678711</v>
+        <v>0.3459035754203796</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.379801750183105</v>
+        <v>1.379135727882385</v>
       </c>
       <c r="C50" t="n">
-        <v>1.374221086502075</v>
+        <v>1.374414801597595</v>
       </c>
       <c r="D50" t="n">
-        <v>0.005580663681030273</v>
+        <v>0.004720926284790039</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.341072797775269</v>
+        <v>1.340409636497498</v>
       </c>
       <c r="C51" t="n">
-        <v>1.234136700630188</v>
+        <v>1.23429799079895</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1069360971450806</v>
+        <v>0.1061116456985474</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.020098686218262</v>
+        <v>1.01945960521698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6066199541091919</v>
+        <v>0.6066364049911499</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4134787321090698</v>
+        <v>0.4128232002258301</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.142612814903259</v>
+        <v>1.141964435577393</v>
       </c>
       <c r="C53" t="n">
-        <v>1.124447584152222</v>
+        <v>1.12458348274231</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0181652307510376</v>
+        <v>0.01738095283508301</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1855392605066299</v>
+        <v>-0.1860878020524979</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8742446303367615</v>
+        <v>0.8743228316307068</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.059783935546875</v>
+        <v>-1.060410618782043</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05831331387162209</v>
+        <v>-0.05887141078710556</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7992067933082581</v>
+        <v>0.7992676496505737</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8575201034545898</v>
+        <v>-0.8581390380859375</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1670612692832947</v>
+        <v>0.1664862632751465</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7433870434761047</v>
+        <v>0.7434350848197937</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5763257741928101</v>
+        <v>-0.5769488215446472</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.143049836158752</v>
+        <v>1.142401576042175</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8369765281677246</v>
+        <v>0.8370460867881775</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3060733079910278</v>
+        <v>0.3053554892539978</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.252219200134277</v>
+        <v>1.251562833786011</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6502390503883362</v>
+        <v>0.6502655148506165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6019801497459412</v>
+        <v>0.6012973189353943</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.241975784301758</v>
+        <v>1.241320252418518</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6865511536598206</v>
+        <v>0.6865860819816589</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5554246306419373</v>
+        <v>0.5547341704368591</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.061822891235352</v>
+        <v>1.061180710792542</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9236518740653992</v>
+        <v>0.9237415194511414</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1381710171699524</v>
+        <v>0.1374391913414001</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.007066249847412</v>
+        <v>1.006428241729736</v>
       </c>
       <c r="C61" t="n">
-        <v>1.150597453117371</v>
+        <v>1.150739431381226</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1435312032699585</v>
+        <v>-0.1443111896514893</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8681132793426514</v>
+        <v>0.8674857020378113</v>
       </c>
       <c r="C62" t="n">
-        <v>1.464304685592651</v>
+        <v>1.464519143104553</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.59619140625</v>
+        <v>-0.5970334410667419</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9188770651817322</v>
+        <v>0.9182456135749817</v>
       </c>
       <c r="C63" t="n">
-        <v>2.640163421630859</v>
+        <v>2.640649318695068</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.721286296844482</v>
+        <v>-1.722403764724731</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.157220482826233</v>
+        <v>1.15657114982605</v>
       </c>
       <c r="C64" t="n">
-        <v>2.568898677825928</v>
+        <v>2.569368124008179</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.411678194999695</v>
+        <v>-1.412796974182129</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.354985237121582</v>
+        <v>1.354321241378784</v>
       </c>
       <c r="C65" t="n">
-        <v>1.048979640007019</v>
+        <v>1.049098134040833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.306005597114563</v>
+        <v>0.3052231073379517</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.527421116828918</v>
+        <v>1.526744246482849</v>
       </c>
       <c r="C66" t="n">
-        <v>1.233485102653503</v>
+        <v>1.233646154403687</v>
       </c>
       <c r="D66" t="n">
-        <v>0.293936014175415</v>
+        <v>0.2930980920791626</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.361728668212891</v>
+        <v>1.361064076423645</v>
       </c>
       <c r="C67" t="n">
-        <v>1.636700749397278</v>
+        <v>1.63695502281189</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2749720811843872</v>
+        <v>-0.2758909463882446</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6006437540054321</v>
+        <v>0.6000362038612366</v>
       </c>
       <c r="C68" t="n">
-        <v>1.69303286075592</v>
+        <v>1.693300008773804</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.092389106750488</v>
+        <v>-1.093263864517212</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9841439127922058</v>
+        <v>0.9835076332092285</v>
       </c>
       <c r="C69" t="n">
-        <v>1.744156360626221</v>
+        <v>1.74443531036377</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7600124478340149</v>
+        <v>-0.760927677154541</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8843384981155396</v>
+        <v>0.8837096691131592</v>
       </c>
       <c r="C70" t="n">
-        <v>1.980153322219849</v>
+        <v>1.980486869812012</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.095814824104309</v>
+        <v>-1.096777200698853</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7907052636146545</v>
+        <v>0.7900834083557129</v>
       </c>
       <c r="C71" t="n">
-        <v>1.7546226978302</v>
+        <v>1.75490403175354</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9639174342155457</v>
+        <v>-0.9648206233978271</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.500554621219635</v>
+        <v>0.4999546110630035</v>
       </c>
       <c r="C72" t="n">
-        <v>1.628445982933044</v>
+        <v>1.628698348999023</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.127891302108765</v>
+        <v>-1.128743767738342</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3488378524780273</v>
+        <v>0.3482491970062256</v>
       </c>
       <c r="C73" t="n">
-        <v>1.232625842094421</v>
+        <v>1.232786893844604</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.883787989616394</v>
+        <v>-0.8845376968383789</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4366247951984406</v>
+        <v>0.4360295534133911</v>
       </c>
       <c r="C74" t="n">
-        <v>0.56210857629776</v>
+        <v>0.5621147155761719</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1254837810993195</v>
+        <v>-0.1260851621627808</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4887307584285736</v>
+        <v>0.4881316125392914</v>
       </c>
       <c r="C75" t="n">
-        <v>1.902577996253967</v>
+        <v>1.902893662452698</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.413847208023071</v>
+        <v>-1.414762020111084</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8023972511291504</v>
+        <v>0.8017745614051819</v>
       </c>
       <c r="C76" t="n">
-        <v>1.2175053358078</v>
+        <v>1.217662692070007</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4151080846786499</v>
+        <v>-0.4158881306648254</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7468201518058777</v>
+        <v>0.7462016344070435</v>
       </c>
       <c r="C77" t="n">
-        <v>0.821195125579834</v>
+        <v>0.8212609887123108</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0743749737739563</v>
+        <v>-0.07505935430526733</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.073593258857727</v>
+        <v>1.07295024394989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.496603965759277</v>
+        <v>1.496825933456421</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4230107069015503</v>
+        <v>-0.4238756895065308</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8475275039672852</v>
+        <v>0.8469014763832092</v>
       </c>
       <c r="C79" t="n">
-        <v>1.265989899635315</v>
+        <v>1.26615846157074</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4184623956680298</v>
+        <v>-0.4192569851875305</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9255077838897705</v>
+        <v>0.9248758554458618</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5227904319763184</v>
+        <v>0.5227875113487244</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4027173519134521</v>
+        <v>0.4020883440971375</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.512423872947693</v>
+        <v>1.51174783706665</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6673251390457153</v>
+        <v>0.6673555970191956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8450987339019775</v>
+        <v>0.8443922400474548</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.28905725479126</v>
+        <v>1.288398027420044</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.670154869556427</v>
+        <v>-0.6704331636428833</v>
       </c>
       <c r="D82" t="n">
-        <v>1.959212064743042</v>
+        <v>1.958831191062927</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.582426428794861</v>
+        <v>1.581745266914368</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8366308212280273</v>
+        <v>-0.836947500705719</v>
       </c>
       <c r="D83" t="n">
-        <v>2.419057369232178</v>
+        <v>2.418692827224731</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.822893261909485</v>
+        <v>1.82219398021698</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1752514392137527</v>
+        <v>-0.1754154562950134</v>
       </c>
       <c r="D84" t="n">
-        <v>1.998144745826721</v>
+        <v>1.997609376907349</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.835747718811035</v>
+        <v>1.835047483444214</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9545698165893555</v>
+        <v>0.9546666741371155</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8811779022216797</v>
+        <v>0.8803808093070984</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.685356259346008</v>
+        <v>1.684667229652405</v>
       </c>
       <c r="C86" t="n">
-        <v>1.232925772666931</v>
+        <v>1.233086705207825</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4524304866790771</v>
+        <v>0.4515805244445801</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.545357346534729</v>
+        <v>1.544678688049316</v>
       </c>
       <c r="C87" t="n">
-        <v>1.933948278427124</v>
+        <v>1.934271216392517</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.388590931892395</v>
+        <v>-0.3895925283432007</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.357230544090271</v>
+        <v>1.356566309928894</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8755900859832764</v>
+        <v>0.8756687045097351</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4816404581069946</v>
+        <v>0.4808976054191589</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.402608752250671</v>
+        <v>1.401940822601318</v>
       </c>
       <c r="C89" t="n">
-        <v>1.031535983085632</v>
+        <v>1.031650543212891</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3710727691650391</v>
+        <v>0.3702902793884277</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.744847536087036</v>
+        <v>1.744154095649719</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8018890023231506</v>
+        <v>0.8019505143165588</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9429585337638855</v>
+        <v>0.9422035813331604</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.890530705451965</v>
+        <v>1.88982629776001</v>
       </c>
       <c r="C91" t="n">
-        <v>1.171003103256226</v>
+        <v>1.171149730682373</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7195276021957397</v>
+        <v>0.7186765670776367</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.561891436576843</v>
+        <v>1.561211705207825</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8620654940605164</v>
+        <v>0.8621408939361572</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6998259425163269</v>
+        <v>0.6990708112716675</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.707677364349365</v>
+        <v>1.706986784934998</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7101389169692993</v>
+        <v>0.7101792693138123</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9975384473800659</v>
+        <v>0.9968075156211853</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.429193258285522</v>
+        <v>1.428523540496826</v>
       </c>
       <c r="C94" t="n">
-        <v>0.218373715877533</v>
+        <v>0.2183005511760712</v>
       </c>
       <c r="D94" t="n">
-        <v>1.210819482803345</v>
+        <v>1.210222959518433</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.081456542015076</v>
+        <v>1.080812811851501</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5195397138595581</v>
+        <v>0.5195360779762268</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5619168281555176</v>
+        <v>0.5612767338752747</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6667487621307373</v>
+        <v>0.6661362648010254</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7221378087997437</v>
+        <v>0.7221809029579163</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05538904666900635</v>
+        <v>-0.05604463815689087</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6021882891654968</v>
+        <v>0.6015806198120117</v>
       </c>
       <c r="C97" t="n">
-        <v>1.041164875030518</v>
+        <v>1.041281580924988</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4389765858650208</v>
+        <v>-0.4397009611129761</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.002123832702637</v>
+        <v>1.00148618221283</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9666208028793335</v>
+        <v>0.9667204022407532</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03550302982330322</v>
+        <v>0.03476577997207642</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2772899866104126</v>
+        <v>0.2767066955566406</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1074134483933449</v>
+        <v>0.1073146685957909</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1698765456676483</v>
+        <v>0.1693920195102692</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05939192324876785</v>
+        <v>-0.05994994193315506</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3524353802204132</v>
+        <v>-0.352640300989151</v>
       </c>
       <c r="D100" t="n">
-        <v>0.293043464422226</v>
+        <v>0.2926903665065765</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2335328161716461</v>
+        <v>-0.2340777665376663</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3235644102096558</v>
+        <v>0.3235155045986176</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5570971965789795</v>
+        <v>-0.5575932860374451</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2091565132141113</v>
+        <v>0.20857834815979</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2748879194259644</v>
+        <v>-0.2750749289989471</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4840444326400757</v>
+        <v>0.4836532771587372</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7492698431015015</v>
+        <v>0.7486511468887329</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4478555619716644</v>
+        <v>-0.4480825364589691</v>
       </c>
       <c r="D103" t="n">
-        <v>1.197125434875488</v>
+        <v>1.196733713150024</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9996841549873352</v>
+        <v>0.9990466833114624</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7057866454124451</v>
+        <v>-0.7060731649398804</v>
       </c>
       <c r="D104" t="n">
-        <v>1.70547080039978</v>
+        <v>1.705119848251343</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.066545844078064</v>
+        <v>1.065903306007385</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04858804866671562</v>
+        <v>-0.04872284084558487</v>
       </c>
       <c r="D105" t="n">
-        <v>1.115133881568909</v>
+        <v>1.114626169204712</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.17127001285553</v>
+        <v>1.170619606971741</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6439868211746216</v>
+        <v>0.644011914730072</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5272831916809082</v>
+        <v>0.5266076922416687</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.079667925834656</v>
+        <v>1.079024434089661</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4691733121871948</v>
+        <v>0.4691580235958099</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6104946136474609</v>
+        <v>0.6098663806915283</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8370398879051208</v>
+        <v>0.8364145755767822</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8577929139137268</v>
+        <v>0.8578673601150513</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02075302600860596</v>
+        <v>-0.02145278453826904</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5649729371070862</v>
+        <v>0.5643680691719055</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9586441516876221</v>
+        <v>0.9587418437004089</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3936712145805359</v>
+        <v>-0.3943737745285034</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8324236869812012</v>
+        <v>0.8317987322807312</v>
       </c>
       <c r="C110" t="n">
-        <v>1.001224875450134</v>
+        <v>1.001332521438599</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1688011884689331</v>
+        <v>-0.1695337891578674</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.19112491607666</v>
+        <v>1.190473198890686</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4715679287910461</v>
+        <v>0.4715531766414642</v>
       </c>
       <c r="D111" t="n">
-        <v>0.719556987285614</v>
+        <v>0.7189199924468994</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.699530720710754</v>
+        <v>1.698840856552124</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8052983283996582</v>
+        <v>0.8053606152534485</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8942323923110962</v>
+        <v>0.8934802412986755</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.042676448822021</v>
+        <v>1.042035698890686</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11246120929718</v>
+        <v>1.112594485282898</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.06978476047515869</v>
+        <v>-0.07055878639221191</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.456835150718689</v>
+        <v>1.45616340637207</v>
       </c>
       <c r="C114" t="n">
-        <v>1.71217668056488</v>
+        <v>1.712448358535767</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2553415298461914</v>
+        <v>-0.2562849521636963</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.996005654335022</v>
+        <v>1.995293378829956</v>
       </c>
       <c r="C115" t="n">
-        <v>1.969020009040833</v>
+        <v>1.969350934028625</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02698564529418945</v>
+        <v>0.02594244480133057</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.309160113334656</v>
+        <v>1.308499217033386</v>
       </c>
       <c r="C116" t="n">
-        <v>2.463972806930542</v>
+        <v>2.464417695999146</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.154812693595886</v>
+        <v>-1.155918478965759</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.696121096611023</v>
+        <v>1.695431351661682</v>
       </c>
       <c r="C117" t="n">
-        <v>2.191433668136597</v>
+        <v>2.191815853118896</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4953125715255737</v>
+        <v>-0.4963845014572144</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.719637036323547</v>
+        <v>1.718945622444153</v>
       </c>
       <c r="C118" t="n">
-        <v>1.625229120254517</v>
+        <v>1.625480771064758</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09440791606903076</v>
+        <v>0.09346485137939453</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.926044702529907</v>
+        <v>1.925337672233582</v>
       </c>
       <c r="C119" t="n">
-        <v>1.696060538291931</v>
+        <v>1.696328401565552</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2299841642379761</v>
+        <v>0.2290092706680298</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.377899169921875</v>
+        <v>1.377233266830444</v>
       </c>
       <c r="C120" t="n">
-        <v>1.679025530815125</v>
+        <v>1.679289579391479</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3011263608932495</v>
+        <v>-0.3020563125610352</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.995944619178772</v>
+        <v>1.995232343673706</v>
       </c>
       <c r="C121" t="n">
-        <v>1.684966683387756</v>
+        <v>1.685232043266296</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3109779357910156</v>
+        <v>0.3100003004074097</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.045139789581299</v>
+        <v>2.044423580169678</v>
       </c>
       <c r="C122" t="n">
-        <v>1.244477033615112</v>
+        <v>1.244640827178955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8006627559661865</v>
+        <v>0.7997827529907227</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.349445581436157</v>
+        <v>2.348706722259521</v>
       </c>
       <c r="C123" t="n">
-        <v>2.138643026351929</v>
+        <v>2.139013051986694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2108025550842285</v>
+        <v>0.2096936702728271</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.451342582702637</v>
+        <v>2.450596332550049</v>
       </c>
       <c r="C124" t="n">
-        <v>1.81087052822113</v>
+        <v>1.811164975166321</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6404720544815063</v>
+        <v>0.639431357383728</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.419500112533569</v>
+        <v>2.418756246566772</v>
       </c>
       <c r="C125" t="n">
-        <v>1.620140075683594</v>
+        <v>1.62039053440094</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7993600368499756</v>
+        <v>0.7983657121658325</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.776535153388977</v>
+        <v>1.775839328765869</v>
       </c>
       <c r="C126" t="n">
-        <v>2.240586996078491</v>
+        <v>2.240980386734009</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4640518426895142</v>
+        <v>-0.4651410579681396</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.784476041793823</v>
+        <v>1.783779621124268</v>
       </c>
       <c r="C127" t="n">
-        <v>2.111300706863403</v>
+        <v>2.111664533615112</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3268246650695801</v>
+        <v>-0.3278849124908447</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.483230471611023</v>
+        <v>1.482556581497192</v>
       </c>
       <c r="C128" t="n">
-        <v>1.937964797019958</v>
+        <v>1.938288569450378</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4547343254089355</v>
+        <v>-0.455731987953186</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.170625329017639</v>
+        <v>1.16997504234314</v>
       </c>
       <c r="C129" t="n">
-        <v>1.769626975059509</v>
+        <v>1.769912004470825</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5990016460418701</v>
+        <v>-0.5999369621276855</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8074652552604675</v>
+        <v>0.8068421483039856</v>
       </c>
       <c r="C130" t="n">
-        <v>2.926874160766602</v>
+        <v>2.927426099777222</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.119408845901489</v>
+        <v>-2.120584011077881</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3912310004234314</v>
+        <v>0.3906391859054565</v>
       </c>
       <c r="C131" t="n">
-        <v>2.162280797958374</v>
+        <v>2.162656307220459</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.771049737930298</v>
+        <v>-1.772017121315002</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.0589623786509037</v>
+        <v>-0.05952043086290359</v>
       </c>
       <c r="C132" t="n">
-        <v>1.820915102958679</v>
+        <v>1.821211814880371</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.87987744808197</v>
+        <v>-1.880732297897339</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09180667996406555</v>
+        <v>0.09123732149600983</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8106988072395325</v>
+        <v>0.810762345790863</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7188920974731445</v>
+        <v>-0.7195250391960144</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1541238874197006</v>
+        <v>0.15354984998703</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1665651947259903</v>
+        <v>0.1664800643920898</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01244130730628967</v>
+        <v>-0.01293021440505981</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3790839016437531</v>
+        <v>0.3784929811954498</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3538398742675781</v>
+        <v>0.3537979423999786</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02524402737617493</v>
+        <v>0.02469503879547119</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7293585538864136</v>
+        <v>0.7287413477897644</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1976124495267868</v>
+        <v>0.1975344866514206</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5317460894584656</v>
+        <v>0.5312068462371826</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6000236868858337</v>
+        <v>0.599416196346283</v>
       </c>
       <c r="C137" t="n">
-        <v>0.502800464630127</v>
+        <v>0.5027929544448853</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09722322225570679</v>
+        <v>0.09662324190139771</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8417441248893738</v>
+        <v>0.8411184549331665</v>
       </c>
       <c r="C138" t="n">
-        <v>0.967847466468811</v>
+        <v>0.967947244644165</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1261033415794373</v>
+        <v>-0.1268287897109985</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.301959872245789</v>
+        <v>1.301299810409546</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03144097328186</v>
+        <v>1.031555414199829</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2705188989639282</v>
+        <v>0.2697443962097168</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25874400138855</v>
+        <v>1.258087158203125</v>
       </c>
       <c r="C140" t="n">
-        <v>1.269741773605347</v>
+        <v>1.269911408424377</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01099777221679688</v>
+        <v>-0.01182425022125244</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.489304423332214</v>
+        <v>1.488630056381226</v>
       </c>
       <c r="C141" t="n">
-        <v>1.224193334579468</v>
+        <v>1.224352240562439</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2651110887527466</v>
+        <v>0.2642778158187866</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.402237296104431</v>
+        <v>1.401569724082947</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1911356598138809</v>
+        <v>0.1910562068223953</v>
       </c>
       <c r="D142" t="n">
-        <v>1.211101651191711</v>
+        <v>1.210513472557068</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.762437462806702</v>
+        <v>1.761742830276489</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2786484956741333</v>
+        <v>0.2785892486572266</v>
       </c>
       <c r="D143" t="n">
-        <v>1.483788967132568</v>
+        <v>1.483153581619263</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.602127909660339</v>
+        <v>1.601445317268372</v>
       </c>
       <c r="C144" t="n">
-        <v>1.279139041900635</v>
+        <v>1.279310703277588</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3229888677597046</v>
+        <v>0.3221346139907837</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.709411025047302</v>
+        <v>1.708720088005066</v>
       </c>
       <c r="C145" t="n">
-        <v>1.467904210090637</v>
+        <v>1.468119382858276</v>
       </c>
       <c r="D145" t="n">
-        <v>0.241506814956665</v>
+        <v>0.2406007051467896</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.150644898414612</v>
+        <v>1.149996042251587</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8966560959815979</v>
+        <v>0.8967394828796387</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2539888024330139</v>
+        <v>0.2532565593719482</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7258924245834351</v>
+        <v>0.725275456905365</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8453881144523621</v>
+        <v>0.8454596400260925</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.119495689868927</v>
+        <v>-0.1201841831207275</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2859506011009216</v>
+        <v>0.2853666841983795</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.225909486413002</v>
+        <v>-0.2260852158069611</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5118600726127625</v>
+        <v>0.5114519000053406</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.680719792842865</v>
+        <v>0.6801062226295471</v>
       </c>
       <c r="C149" t="n">
-        <v>1.559720754623413</v>
+        <v>1.559957146644592</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8790009617805481</v>
+        <v>-0.8798509240150452</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.036842584609985</v>
+        <v>1.036202311515808</v>
       </c>
       <c r="C150" t="n">
-        <v>2.451586246490479</v>
+        <v>2.452028751373291</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.414743661880493</v>
+        <v>-1.415826439857483</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.326388597488403</v>
+        <v>1.325726389884949</v>
       </c>
       <c r="C151" t="n">
-        <v>1.281301379203796</v>
+        <v>1.281473517417908</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04508721828460693</v>
+        <v>0.04425287246704102</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.360143423080444</v>
+        <v>1.359478831291199</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2914087176322937</v>
+        <v>0.291352391242981</v>
       </c>
       <c r="D152" t="n">
-        <v>1.068734645843506</v>
+        <v>1.068126440048218</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.108234405517578</v>
+        <v>2.107513666152954</v>
       </c>
       <c r="C153" t="n">
-        <v>0.18792624771595</v>
+        <v>0.1878460496664047</v>
       </c>
       <c r="D153" t="n">
-        <v>1.920308113098145</v>
+        <v>1.919667601585388</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.995080590248108</v>
+        <v>1.994368314743042</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4559705555438995</v>
+        <v>0.4559522271156311</v>
       </c>
       <c r="D154" t="n">
-        <v>1.539110064506531</v>
+        <v>1.538416147232056</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.860083937644958</v>
+        <v>1.859381914138794</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7628037929534912</v>
+        <v>0.7628563642501831</v>
       </c>
       <c r="D155" t="n">
-        <v>1.097280144691467</v>
+        <v>1.096525549888611</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.607323050498962</v>
+        <v>1.606639981269836</v>
       </c>
       <c r="C156" t="n">
-        <v>1.356110453605652</v>
+        <v>1.356299877166748</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2512125968933105</v>
+        <v>0.2503401041030884</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.906660556793213</v>
+        <v>1.905955076217651</v>
       </c>
       <c r="C157" t="n">
-        <v>1.726688504219055</v>
+        <v>1.726963520050049</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1799720525741577</v>
+        <v>0.1789915561676025</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.54408848285675</v>
+        <v>1.543410181999207</v>
       </c>
       <c r="C158" t="n">
-        <v>1.47799813747406</v>
+        <v>1.47821581363678</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06609034538269043</v>
+        <v>0.06519436836242676</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.375159382820129</v>
+        <v>1.374493837356567</v>
       </c>
       <c r="C159" t="n">
-        <v>1.644704341888428</v>
+        <v>1.644960403442383</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2695449590682983</v>
+        <v>-0.2704665660858154</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.684388160705566</v>
+        <v>1.683699369430542</v>
       </c>
       <c r="C160" t="n">
-        <v>1.734185218811035</v>
+        <v>1.734462022781372</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.04979705810546875</v>
+        <v>-0.05076265335083008</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.352969288825989</v>
+        <v>1.35230541229248</v>
       </c>
       <c r="C161" t="n">
-        <v>1.686634421348572</v>
+        <v>1.686900019645691</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.333665132522583</v>
+        <v>-0.3345946073532104</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5854558944702148</v>
+        <v>0.58484947681427</v>
       </c>
       <c r="C162" t="n">
-        <v>1.877118468284607</v>
+        <v>1.87742817401886</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.291662573814392</v>
+        <v>-1.29257869720459</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3791225552558899</v>
+        <v>0.3785316348075867</v>
       </c>
       <c r="C163" t="n">
-        <v>1.351431250572205</v>
+        <v>1.351619482040405</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9723086953163147</v>
+        <v>-0.9730878472328186</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6816216111183167</v>
+        <v>0.681007981300354</v>
       </c>
       <c r="C164" t="n">
-        <v>1.454586505889893</v>
+        <v>1.454798698425293</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7729648947715759</v>
+        <v>-0.773790717124939</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8694507479667664</v>
+        <v>0.8688230514526367</v>
       </c>
       <c r="C165" t="n">
-        <v>1.125396251678467</v>
+        <v>1.125532507896423</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2559455037117004</v>
+        <v>-0.2567094564437866</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.007905721664429</v>
+        <v>1.007267594337463</v>
       </c>
       <c r="C166" t="n">
-        <v>1.257806301116943</v>
+        <v>1.257972955703735</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2499005794525146</v>
+        <v>-0.250705361366272</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.631628036499023</v>
+        <v>1.630943059921265</v>
       </c>
       <c r="C167" t="n">
-        <v>1.619370102882385</v>
+        <v>1.619620323181152</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01225793361663818</v>
+        <v>0.0113227367401123</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.961082220077515</v>
+        <v>1.960372567176819</v>
       </c>
       <c r="C168" t="n">
-        <v>1.892868876457214</v>
+        <v>1.893182158470154</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06821334362030029</v>
+        <v>0.06719040870666504</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.18725574016571</v>
+        <v>1.186604261398315</v>
       </c>
       <c r="C169" t="n">
-        <v>1.581327199935913</v>
+        <v>1.581568717956543</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3940714597702026</v>
+        <v>-0.3949644565582275</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9828499555587769</v>
+        <v>0.9822137355804443</v>
       </c>
       <c r="C170" t="n">
-        <v>1.268814563751221</v>
+        <v>1.268983840942383</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2859646081924438</v>
+        <v>-0.2867701053619385</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9062192440032959</v>
+        <v>0.9055887460708618</v>
       </c>
       <c r="C171" t="n">
-        <v>1.020161747932434</v>
+        <v>1.020273685455322</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1139425039291382</v>
+        <v>-0.1146849393844604</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.022247672080994</v>
+        <v>1.021608471870422</v>
       </c>
       <c r="C172" t="n">
-        <v>1.85889720916748</v>
+        <v>1.85920262336731</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8366495370864868</v>
+        <v>-0.8375941514968872</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.222158789634705</v>
+        <v>1.221504688262939</v>
       </c>
       <c r="C173" t="n">
-        <v>1.653541088104248</v>
+        <v>1.653799057006836</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4313822984695435</v>
+        <v>-0.4322943687438965</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.653861045837402</v>
+        <v>1.65317440032959</v>
       </c>
       <c r="C174" t="n">
-        <v>1.85125744342804</v>
+        <v>1.851561188697815</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1973963975906372</v>
+        <v>-0.1983867883682251</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.46838903427124</v>
+        <v>1.467716574668884</v>
       </c>
       <c r="C175" t="n">
-        <v>1.891432642936707</v>
+        <v>1.891745686531067</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4230436086654663</v>
+        <v>-0.4240291118621826</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.090720176696777</v>
+        <v>1.090075850486755</v>
       </c>
       <c r="C176" t="n">
-        <v>1.926737189292908</v>
+        <v>1.927058219909668</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8360170125961304</v>
+        <v>-0.8369823694229126</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.103519320487976</v>
+        <v>1.102874040603638</v>
       </c>
       <c r="C177" t="n">
-        <v>2.051172733306885</v>
+        <v>2.051522731781006</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9476534128189087</v>
+        <v>-0.9486486911773682</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.334472179412842</v>
+        <v>1.333809494972229</v>
       </c>
       <c r="C178" t="n">
-        <v>1.956870317459106</v>
+        <v>1.957198262214661</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6223981380462646</v>
+        <v>-0.6233887672424316</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.895298480987549</v>
+        <v>1.894593715667725</v>
       </c>
       <c r="C179" t="n">
-        <v>1.437095403671265</v>
+        <v>1.437303423881531</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4582030773162842</v>
+        <v>0.4572902917861938</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.869248032569885</v>
+        <v>1.868545293807983</v>
       </c>
       <c r="C180" t="n">
-        <v>1.495902538299561</v>
+        <v>1.496124267578125</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3733454942703247</v>
+        <v>0.3724210262298584</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.432377934455872</v>
+        <v>1.431707739830017</v>
       </c>
       <c r="C181" t="n">
-        <v>1.817003607749939</v>
+        <v>1.817299365997314</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3846256732940674</v>
+        <v>-0.3855916261672974</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4917288422584534</v>
+        <v>0.4911294877529144</v>
       </c>
       <c r="C182" t="n">
-        <v>1.210577011108398</v>
+        <v>1.210732817649841</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7188481688499451</v>
+        <v>-0.7196033000946045</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8887919187545776</v>
+        <v>0.8881627321243286</v>
       </c>
       <c r="C183" t="n">
-        <v>1.485523462295532</v>
+        <v>1.485742807388306</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5967315435409546</v>
+        <v>-0.5975800752639771</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.560804128646851</v>
+        <v>1.560124516487122</v>
       </c>
       <c r="C184" t="n">
-        <v>1.75848650932312</v>
+        <v>1.758768796920776</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1976823806762695</v>
+        <v>-0.1986442804336548</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.94237208366394</v>
+        <v>1.941663861274719</v>
       </c>
       <c r="C185" t="n">
-        <v>1.661451935768127</v>
+        <v>1.661711692810059</v>
       </c>
       <c r="D185" t="n">
-        <v>0.280920147895813</v>
+        <v>0.2799521684646606</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.970575213432312</v>
+        <v>1.969864845275879</v>
       </c>
       <c r="C186" t="n">
-        <v>1.613779783248901</v>
+        <v>1.614028692245483</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3567954301834106</v>
+        <v>0.3558361530303955</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.071971416473389</v>
+        <v>2.071253538131714</v>
       </c>
       <c r="C187" t="n">
-        <v>1.468026280403137</v>
+        <v>1.468241453170776</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6039451360702515</v>
+        <v>0.6030120849609375</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.355541229248047</v>
+        <v>2.354801654815674</v>
       </c>
       <c r="C188" t="n">
-        <v>1.502733588218689</v>
+        <v>1.502956986427307</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8528076410293579</v>
+        <v>0.8518446683883667</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.906661510467529</v>
+        <v>2.905880928039551</v>
       </c>
       <c r="C189" t="n">
-        <v>1.663438677787781</v>
+        <v>1.66369891166687</v>
       </c>
       <c r="D189" t="n">
-        <v>1.243222832679749</v>
+        <v>1.242182016372681</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.120384454727173</v>
+        <v>3.119587898254395</v>
       </c>
       <c r="C190" t="n">
-        <v>1.267364978790283</v>
+        <v>1.267533898353577</v>
       </c>
       <c r="D190" t="n">
-        <v>1.85301947593689</v>
+        <v>1.852053999900818</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.10450291633606</v>
+        <v>3.103707551956177</v>
       </c>
       <c r="C191" t="n">
-        <v>1.558462023735046</v>
+        <v>1.558698177337646</v>
       </c>
       <c r="D191" t="n">
-        <v>1.546040892601013</v>
+        <v>1.54500937461853</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.858892202377319</v>
+        <v>2.858114957809448</v>
       </c>
       <c r="C192" t="n">
-        <v>1.865286111831665</v>
+        <v>1.865592956542969</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9936060905456543</v>
+        <v>0.9925220012664795</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.933446407318115</v>
+        <v>2.932663679122925</v>
       </c>
       <c r="C193" t="n">
-        <v>2.931912183761597</v>
+        <v>2.932465553283691</v>
       </c>
       <c r="D193" t="n">
-        <v>0.001534223556518555</v>
+        <v>0.0001981258392333984</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.839562177658081</v>
+        <v>2.838786840438843</v>
       </c>
       <c r="C194" t="n">
-        <v>3.519275665283203</v>
+        <v>3.519964218139648</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6797134876251221</v>
+        <v>-0.6811773777008057</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.282197237014771</v>
+        <v>2.281463623046875</v>
       </c>
       <c r="C195" t="n">
-        <v>3.298714160919189</v>
+        <v>3.299351930618286</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.016516923904419</v>
+        <v>-1.017888307571411</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.109570741653442</v>
+        <v>3.108774662017822</v>
       </c>
       <c r="C196" t="n">
-        <v>3.724755525588989</v>
+        <v>3.725492000579834</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6151847839355469</v>
+        <v>-0.6167173385620117</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.904298067092896</v>
+        <v>2.903517723083496</v>
       </c>
       <c r="C197" t="n">
-        <v>3.515730619430542</v>
+        <v>3.516418695449829</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6114325523376465</v>
+        <v>-0.612900972366333</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.016979455947876</v>
+        <v>2.016265630722046</v>
       </c>
       <c r="C198" t="n">
-        <v>3.185663938522339</v>
+        <v>3.186275482177734</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.168684482574463</v>
+        <v>-1.170009851455688</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.057259678840637</v>
+        <v>1.056617856025696</v>
       </c>
       <c r="C199" t="n">
-        <v>2.611268043518066</v>
+        <v>2.611747026443481</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.554008364677429</v>
+        <v>-1.555129170417786</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4232920110225677</v>
+        <v>0.4226977527141571</v>
       </c>
       <c r="C200" t="n">
-        <v>2.877087116241455</v>
+        <v>2.877627372741699</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.453795194625854</v>
+        <v>-2.45492959022522</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.446524143218994</v>
+        <v>1.445852994918823</v>
       </c>
       <c r="C201" t="n">
-        <v>2.634711503982544</v>
+        <v>2.635195970535278</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.18818736076355</v>
+        <v>-1.189342975616455</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.066837310791016</v>
+        <v>1.066194653511047</v>
       </c>
       <c r="C202" t="n">
-        <v>2.73797345161438</v>
+        <v>2.738481760025024</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.671136140823364</v>
+        <v>-1.672287106513977</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.095027327537537</v>
+        <v>1.094382643699646</v>
       </c>
       <c r="C203" t="n">
-        <v>2.486235380172729</v>
+        <v>2.486685752868652</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.391208052635193</v>
+        <v>-1.392303109169006</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.302992463111877</v>
+        <v>1.302332043647766</v>
       </c>
       <c r="C204" t="n">
-        <v>2.119201898574829</v>
+        <v>2.119567394256592</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8162094354629517</v>
+        <v>-0.8172353506088257</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.287736058235168</v>
+        <v>1.287077069282532</v>
       </c>
       <c r="C205" t="n">
-        <v>1.8277348279953</v>
+        <v>1.828032970428467</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5399987697601318</v>
+        <v>-0.5409559011459351</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.055744528770447</v>
+        <v>1.055102825164795</v>
       </c>
       <c r="C206" t="n">
-        <v>1.10620105266571</v>
+        <v>1.106332778930664</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05045652389526367</v>
+        <v>-0.05122995376586914</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.211559891700745</v>
+        <v>1.210906505584717</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9658056497573853</v>
+        <v>0.9659050703048706</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2457542419433594</v>
+        <v>0.2450014352798462</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.480394244194031</v>
+        <v>1.479720592498779</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7699848413467407</v>
+        <v>0.7700390219688416</v>
       </c>
       <c r="D208" t="n">
-        <v>0.71040940284729</v>
+        <v>0.7096815705299377</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.52147102355957</v>
+        <v>1.52079439163208</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5888952612876892</v>
+        <v>0.5889075994491577</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9325757622718811</v>
+        <v>0.9318867921829224</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.872618079185486</v>
+        <v>1.871914982795715</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6879851222038269</v>
+        <v>0.6880203485488892</v>
       </c>
       <c r="D210" t="n">
-        <v>1.184633016586304</v>
+        <v>1.183894634246826</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.622164011001587</v>
+        <v>1.621479988098145</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8450788855552673</v>
+        <v>0.8451504111289978</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7770851254463196</v>
+        <v>0.7763295769691467</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.07529354095459</v>
+        <v>2.074575185775757</v>
       </c>
       <c r="C212" t="n">
-        <v>1.127772927284241</v>
+        <v>1.127909541130066</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9475206136703491</v>
+        <v>0.9466656446456909</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.161247491836548</v>
+        <v>2.160522937774658</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5274119973182678</v>
+        <v>0.5274101495742798</v>
       </c>
       <c r="D213" t="n">
-        <v>1.633835554122925</v>
+        <v>1.633112788200378</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.919910788536072</v>
+        <v>1.919204235076904</v>
       </c>
       <c r="C214" t="n">
-        <v>1.03890597820282</v>
+        <v>1.039022207260132</v>
       </c>
       <c r="D214" t="n">
-        <v>0.881004810333252</v>
+        <v>0.8801820278167725</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.059669733047485</v>
+        <v>2.058952808380127</v>
       </c>
       <c r="C215" t="n">
-        <v>1.189258456230164</v>
+        <v>1.189409375190735</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8704112768173218</v>
+        <v>0.8695434331893921</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.930844664573669</v>
+        <v>1.930137276649475</v>
       </c>
       <c r="C216" t="n">
-        <v>1.42438280582428</v>
+        <v>1.424587965011597</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5064618587493896</v>
+        <v>0.5055493116378784</v>
       </c>
     </row>
     <row r="217">
@@ -3476,13 +3476,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.00788426399231</v>
+        <v>1.007246136665344</v>
       </c>
       <c r="C217" t="n">
-        <v>1.225363850593567</v>
+        <v>1.225522994995117</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2174795866012573</v>
+        <v>-0.2182768583297729</v>
       </c>
     </row>
     <row r="218">
@@ -3490,13 +3490,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7439781427383423</v>
+        <v>0.7433598637580872</v>
       </c>
       <c r="C218" t="n">
-        <v>0.517528772354126</v>
+        <v>0.5175246596336365</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2264493703842163</v>
+        <v>0.2258352041244507</v>
       </c>
     </row>
     <row r="219">
@@ -3504,13 +3504,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.518218040466309</v>
+        <v>1.517541527748108</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5071071982383728</v>
+        <v>0.5071007013320923</v>
       </c>
       <c r="D219" t="n">
-        <v>1.011110782623291</v>
+        <v>1.010440826416016</v>
       </c>
     </row>
     <row r="220">
@@ -3518,13 +3518,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.380201816558838</v>
+        <v>1.379535675048828</v>
       </c>
       <c r="C220" t="n">
-        <v>1.212987184524536</v>
+        <v>1.213143467903137</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1672146320343018</v>
+        <v>0.1663922071456909</v>
       </c>
     </row>
     <row r="221">
@@ -3532,13 +3532,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.515534639358521</v>
+        <v>1.514858365058899</v>
       </c>
       <c r="C221" t="n">
-        <v>1.430914402008057</v>
+        <v>1.431121110916138</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08462023735046387</v>
+        <v>0.08373725414276123</v>
       </c>
     </row>
     <row r="222">
@@ -3546,13 +3546,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.312300324440002</v>
+        <v>1.311639308929443</v>
       </c>
       <c r="C222" t="n">
-        <v>1.012887001037598</v>
+        <v>1.012997150421143</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2994133234024048</v>
+        <v>0.2986421585083008</v>
       </c>
     </row>
     <row r="223">
@@ -3560,13 +3560,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9558961391448975</v>
+        <v>0.9552618861198425</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7407079339027405</v>
+        <v>0.7407553195953369</v>
       </c>
       <c r="D223" t="n">
-        <v>0.215188205242157</v>
+        <v>0.2145065665245056</v>
       </c>
     </row>
     <row r="224">
@@ -3574,13 +3574,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.116273403167725</v>
+        <v>1.11562716960907</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4333204925060272</v>
+        <v>0.4332969486713409</v>
       </c>
       <c r="D224" t="n">
-        <v>0.682952880859375</v>
+        <v>0.6823302507400513</v>
       </c>
     </row>
     <row r="225">
@@ -3588,13 +3588,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.513533473014832</v>
+        <v>1.512857437133789</v>
       </c>
       <c r="C225" t="n">
-        <v>0.58283531665802</v>
+        <v>0.5828462839126587</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9306981563568115</v>
+        <v>0.9300111532211304</v>
       </c>
     </row>
     <row r="226">
@@ -3602,13 +3602,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.869806289672852</v>
+        <v>1.86910355091095</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08286836743354797</v>
+        <v>0.0827639177441597</v>
       </c>
       <c r="D226" t="n">
-        <v>1.786937952041626</v>
+        <v>1.786339640617371</v>
       </c>
     </row>
     <row r="227">
@@ -3616,13 +3616,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.679751515388489</v>
+        <v>1.679063081741333</v>
       </c>
       <c r="C227" t="n">
-        <v>0.491980254650116</v>
+        <v>0.4919702410697937</v>
       </c>
       <c r="D227" t="n">
-        <v>1.187771320343018</v>
+        <v>1.187092781066895</v>
       </c>
     </row>
     <row r="228">
@@ -3630,13 +3630,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.116886615753174</v>
+        <v>2.116165399551392</v>
       </c>
       <c r="C228" t="n">
-        <v>0.898615837097168</v>
+        <v>0.8986997008323669</v>
       </c>
       <c r="D228" t="n">
-        <v>1.218270778656006</v>
+        <v>1.21746563911438</v>
       </c>
     </row>
     <row r="229">
@@ -3644,13 +3644,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>2.015079975128174</v>
+        <v>2.014366388320923</v>
       </c>
       <c r="C229" t="n">
-        <v>1.217154026031494</v>
+        <v>1.217311382293701</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7979259490966797</v>
+        <v>0.7970550060272217</v>
       </c>
     </row>
     <row r="230">
@@ -3658,13 +3658,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>2.007755756378174</v>
+        <v>2.007042646408081</v>
       </c>
       <c r="C230" t="n">
-        <v>1.760184049606323</v>
+        <v>1.760466694831848</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2475717067718506</v>
+        <v>0.2465759515762329</v>
       </c>
     </row>
     <row r="231">
@@ -3672,13 +3672,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.707367181777954</v>
+        <v>1.706676721572876</v>
       </c>
       <c r="C231" t="n">
-        <v>1.811623334884644</v>
+        <v>1.811918020248413</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1042561531066895</v>
+        <v>-0.1052412986755371</v>
       </c>
     </row>
     <row r="232">
@@ -3686,13 +3686,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.727540135383606</v>
+        <v>1.726848006248474</v>
       </c>
       <c r="C232" t="n">
-        <v>1.585573315620422</v>
+        <v>1.585815668106079</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1419668197631836</v>
+        <v>0.141032338142395</v>
       </c>
     </row>
     <row r="233">
@@ -3700,13 +3700,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.226516008377075</v>
+        <v>2.225786447525024</v>
       </c>
       <c r="C233" t="n">
-        <v>1.626389980316162</v>
+        <v>1.626641631126404</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6001260280609131</v>
+        <v>0.5991448163986206</v>
       </c>
     </row>
     <row r="234">
@@ -3714,13 +3714,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.701617002487183</v>
+        <v>2.700851917266846</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9570051431655884</v>
+        <v>0.9571025371551514</v>
       </c>
       <c r="D234" t="n">
-        <v>1.744611859321594</v>
+        <v>1.743749380111694</v>
       </c>
     </row>
     <row r="235">
@@ -3728,13 +3728,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.343156337738037</v>
+        <v>2.34241795539856</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3132034242153168</v>
+        <v>0.3131521642208099</v>
       </c>
       <c r="D235" t="n">
-        <v>2.029953002929688</v>
+        <v>2.029265880584717</v>
       </c>
     </row>
     <row r="236">
@@ -3742,13 +3742,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.159673690795898</v>
+        <v>2.158949136734009</v>
       </c>
       <c r="C236" t="n">
-        <v>0.354871541261673</v>
+        <v>0.354829877614975</v>
       </c>
       <c r="D236" t="n">
-        <v>1.804802179336548</v>
+        <v>1.804119229316711</v>
       </c>
     </row>
     <row r="237">
@@ -3756,13 +3756,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.693630695343018</v>
+        <v>2.692866086959839</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6053812503814697</v>
+        <v>-0.6056445837020874</v>
       </c>
       <c r="D237" t="n">
-        <v>3.299011945724487</v>
+        <v>3.298510551452637</v>
       </c>
     </row>
     <row r="238">
@@ -3770,13 +3770,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.267322778701782</v>
+        <v>2.266590118408203</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.143159031867981</v>
+        <v>-1.143546462059021</v>
       </c>
       <c r="D238" t="n">
-        <v>3.410481929779053</v>
+        <v>3.410136699676514</v>
       </c>
     </row>
     <row r="239">
@@ -3784,13 +3784,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.620885372161865</v>
+        <v>2.620126247406006</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.482982277870178</v>
+        <v>-1.483448147773743</v>
       </c>
       <c r="D239" t="n">
-        <v>4.103867530822754</v>
+        <v>4.103574275970459</v>
       </c>
     </row>
     <row r="240">
@@ -3798,13 +3798,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.796759605407715</v>
+        <v>2.795987367630005</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8689380884170532</v>
+        <v>-0.8692622780799866</v>
       </c>
       <c r="D240" t="n">
-        <v>3.665697574615479</v>
+        <v>3.665249586105347</v>
       </c>
     </row>
     <row r="241">
@@ -3812,13 +3812,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.322824954986572</v>
+        <v>2.322088003158569</v>
       </c>
       <c r="C241" t="n">
-        <v>1.311806201934814</v>
+        <v>1.311985492706299</v>
       </c>
       <c r="D241" t="n">
-        <v>1.011018753051758</v>
+        <v>1.010102510452271</v>
       </c>
     </row>
     <row r="242">
@@ -3826,13 +3826,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.637639760971069</v>
+        <v>2.636879205703735</v>
       </c>
       <c r="C242" t="n">
-        <v>2.349328756332397</v>
+        <v>2.349747180938721</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2883110046386719</v>
+        <v>0.2871320247650146</v>
       </c>
     </row>
     <row r="243">
@@ -3840,13 +3840,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.022521734237671</v>
+        <v>2.021807432174683</v>
       </c>
       <c r="C243" t="n">
-        <v>2.620950698852539</v>
+        <v>2.621431827545166</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5984289646148682</v>
+        <v>-0.5996243953704834</v>
       </c>
     </row>
     <row r="244">
@@ -3854,13 +3854,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.201863288879395</v>
+        <v>2.201135396957397</v>
       </c>
       <c r="C244" t="n">
-        <v>2.507052183151245</v>
+        <v>2.50750732421875</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3051888942718506</v>
+        <v>-0.3063719272613525</v>
       </c>
     </row>
     <row r="245">
@@ -3868,13 +3868,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.251197099685669</v>
+        <v>2.250465869903564</v>
       </c>
       <c r="C245" t="n">
-        <v>2.494430780410767</v>
+        <v>2.494883298873901</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2432336807250977</v>
+        <v>-0.2444174289703369</v>
       </c>
     </row>
     <row r="246">
@@ -3882,13 +3882,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.319985628128052</v>
+        <v>2.319248914718628</v>
       </c>
       <c r="C246" t="n">
-        <v>1.530312776565552</v>
+        <v>1.530542492866516</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7896728515625</v>
+        <v>0.7887064218521118</v>
       </c>
     </row>
     <row r="247">
@@ -3896,13 +3896,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.207266330718994</v>
+        <v>2.206538200378418</v>
       </c>
       <c r="C247" t="n">
-        <v>1.161595821380615</v>
+        <v>1.16174042224884</v>
       </c>
       <c r="D247" t="n">
-        <v>1.045670509338379</v>
+        <v>1.044797778129578</v>
       </c>
     </row>
     <row r="248">
@@ -3910,13 +3910,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.037659883499146</v>
+        <v>2.036944389343262</v>
       </c>
       <c r="C248" t="n">
-        <v>1.588150262832642</v>
+        <v>1.588393211364746</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4495096206665039</v>
+        <v>0.4485511779785156</v>
       </c>
     </row>
     <row r="249">
@@ -3924,13 +3924,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.540739178657532</v>
+        <v>1.540060997009277</v>
       </c>
       <c r="C249" t="n">
-        <v>1.993425130844116</v>
+        <v>1.993761539459229</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4526859521865845</v>
+        <v>-0.4537005424499512</v>
       </c>
     </row>
     <row r="250">
@@ -3938,13 +3938,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.262662053108215</v>
+        <v>1.262004852294922</v>
       </c>
       <c r="C250" t="n">
-        <v>1.54327392578125</v>
+        <v>1.543506622314453</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2806118726730347</v>
+        <v>-0.2815017700195312</v>
       </c>
     </row>
     <row r="251">
@@ -3952,13 +3952,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.77408504486084</v>
+        <v>1.773389339447021</v>
       </c>
       <c r="C251" t="n">
-        <v>1.3540940284729</v>
+        <v>1.354283094406128</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4199910163879395</v>
+        <v>0.4191062450408936</v>
       </c>
     </row>
     <row r="252">
@@ -3966,13 +3966,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.500586271286011</v>
+        <v>1.499911069869995</v>
       </c>
       <c r="C252" t="n">
-        <v>1.215802907943726</v>
+        <v>1.215960025787354</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2847833633422852</v>
+        <v>0.2839510440826416</v>
       </c>
     </row>
     <row r="253">
@@ -3980,13 +3980,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.224006295204163</v>
+        <v>1.223351836204529</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7557218074798584</v>
+        <v>0.7557726502418518</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4682844877243042</v>
+        <v>0.467579185962677</v>
       </c>
     </row>
     <row r="254">
@@ -3994,13 +3994,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.495369553565979</v>
+        <v>0.4947699010372162</v>
       </c>
       <c r="C254" t="n">
-        <v>0.003353872569277883</v>
+        <v>0.003231070935726166</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4920156896114349</v>
+        <v>0.4915388226509094</v>
       </c>
     </row>
     <row r="255">
@@ -4008,13 +4008,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8150643706321716</v>
+        <v>0.8144407272338867</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3315035700798035</v>
+        <v>0.3314565122127533</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4835608005523682</v>
+        <v>0.4829842150211334</v>
       </c>
     </row>
     <row r="256">
@@ -4022,13 +4022,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.163839936256409</v>
+        <v>1.163190126419067</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8063042759895325</v>
+        <v>0.8063668608665466</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3575356602668762</v>
+        <v>0.3568232655525208</v>
       </c>
     </row>
     <row r="257">
@@ -4036,13 +4036,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.116770029067993</v>
+        <v>1.116123795509338</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6034373044967651</v>
+        <v>0.6034529805183411</v>
       </c>
       <c r="D257" t="n">
-        <v>0.513332724571228</v>
+        <v>0.5126708149909973</v>
       </c>
     </row>
     <row r="258">
@@ -4050,13 +4050,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6755971908569336</v>
+        <v>0.6749839782714844</v>
       </c>
       <c r="C258" t="n">
-        <v>1.286077976226807</v>
+        <v>1.286251306533813</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.610480785369873</v>
+        <v>-0.6112673282623291</v>
       </c>
     </row>
     <row r="259">
@@ -4064,13 +4064,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8798467516899109</v>
+        <v>0.8792182207107544</v>
       </c>
       <c r="C259" t="n">
-        <v>1.817104458808899</v>
+        <v>1.817400217056274</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.937257707118988</v>
+        <v>-0.93818199634552</v>
       </c>
     </row>
     <row r="260">
@@ -4078,13 +4078,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.168185114860535</v>
+        <v>1.167535066604614</v>
       </c>
       <c r="C260" t="n">
-        <v>2.263043165206909</v>
+        <v>2.263442039489746</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.094858050346375</v>
+        <v>-1.095906972885132</v>
       </c>
     </row>
     <row r="261">
@@ -4092,13 +4092,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.295339465141296</v>
+        <v>1.294679880142212</v>
       </c>
       <c r="C261" t="n">
-        <v>1.908403635025024</v>
+        <v>1.90872049331665</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.613064169883728</v>
+        <v>-0.6140406131744385</v>
       </c>
     </row>
     <row r="262">
@@ -4106,13 +4106,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.506220579147339</v>
+        <v>1.505545020103455</v>
       </c>
       <c r="C262" t="n">
-        <v>1.437575697898865</v>
+        <v>1.437784075737</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06864488124847412</v>
+        <v>0.06776094436645508</v>
       </c>
     </row>
     <row r="263">
@@ -4120,13 +4120,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.186421036720276</v>
+        <v>1.185769557952881</v>
       </c>
       <c r="C263" t="n">
-        <v>2.191726684570312</v>
+        <v>2.192108869552612</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.005305647850037</v>
+        <v>-1.006339311599731</v>
       </c>
     </row>
     <row r="264">
@@ -4134,13 +4134,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.16456401348114</v>
+        <v>1.163914084434509</v>
       </c>
       <c r="C264" t="n">
-        <v>1.759121894836426</v>
+        <v>1.759404420852661</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5945578813552856</v>
+        <v>-0.5954903364181519</v>
       </c>
     </row>
     <row r="265">
@@ -4148,13 +4148,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.326868414878845</v>
+        <v>1.326206207275391</v>
       </c>
       <c r="C265" t="n">
-        <v>1.748051285743713</v>
+        <v>1.748331189155579</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4211828708648682</v>
+        <v>-0.422124981880188</v>
       </c>
     </row>
     <row r="266">
@@ -4162,13 +4162,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.681819319725037</v>
+        <v>1.681130528450012</v>
       </c>
       <c r="C266" t="n">
-        <v>2.310352802276611</v>
+        <v>2.310762643814087</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6285334825515747</v>
+        <v>-0.6296321153640747</v>
       </c>
     </row>
     <row r="267">
@@ -4176,13 +4176,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.913770318031311</v>
+        <v>0.9131392240524292</v>
       </c>
       <c r="C267" t="n">
-        <v>1.706325769424438</v>
+        <v>1.70659613609314</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7925554513931274</v>
+        <v>-0.7934569120407104</v>
       </c>
     </row>
     <row r="268">
@@ -4190,13 +4190,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.087101936340332</v>
+        <v>1.086457967758179</v>
       </c>
       <c r="C268" t="n">
-        <v>1.317658424377441</v>
+        <v>1.317839026451111</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2305564880371094</v>
+        <v>-0.2313810586929321</v>
       </c>
     </row>
     <row r="269">
@@ -4204,13 +4204,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.161460041999817</v>
+        <v>1.160810351371765</v>
       </c>
       <c r="C269" t="n">
-        <v>1.9645756483078</v>
+        <v>1.964905500411987</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8031156063079834</v>
+        <v>-0.8040951490402222</v>
       </c>
     </row>
     <row r="270">
@@ -4218,13 +4218,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>1.000266909599304</v>
+        <v>0.9996293783187866</v>
       </c>
       <c r="C270" t="n">
-        <v>2.166429281234741</v>
+        <v>2.166805744171143</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.166162371635437</v>
+        <v>-1.167176365852356</v>
       </c>
     </row>
     <row r="271">
@@ -4232,13 +4232,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9306524395942688</v>
+        <v>0.9300201535224915</v>
       </c>
       <c r="C271" t="n">
-        <v>2.420820951461792</v>
+        <v>2.421256065368652</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.490168571472168</v>
+        <v>-1.491235971450806</v>
       </c>
     </row>
     <row r="272">
@@ -4246,13 +4246,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1131493076682091</v>
+        <v>0.1125783398747444</v>
       </c>
       <c r="C272" t="n">
-        <v>2.444446086883545</v>
+        <v>2.444886684417725</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.331296682357788</v>
+        <v>-2.332308292388916</v>
       </c>
     </row>
     <row r="273">
@@ -4260,13 +4260,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3986466526985168</v>
+        <v>0.3980542421340942</v>
       </c>
       <c r="C273" t="n">
-        <v>2.711090326309204</v>
+        <v>2.711592435836792</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.312443733215332</v>
+        <v>-2.313538074493408</v>
       </c>
     </row>
     <row r="274">
@@ -4274,13 +4274,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4999079406261444</v>
+        <v>0.4993079602718353</v>
       </c>
       <c r="C274" t="n">
-        <v>2.363067626953125</v>
+        <v>2.363489389419556</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.863159656524658</v>
+        <v>-1.864181399345398</v>
       </c>
     </row>
     <row r="275">
@@ -4288,13 +4288,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3082610666751862</v>
+        <v>0.3076754808425903</v>
       </c>
       <c r="C275" t="n">
-        <v>1.8665691614151</v>
+        <v>1.866876363754272</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.558308124542236</v>
+        <v>-1.559200882911682</v>
       </c>
     </row>
     <row r="276">
@@ -4302,13 +4302,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4268602728843689</v>
+        <v>0.4262657463550568</v>
       </c>
       <c r="C276" t="n">
-        <v>1.392454385757446</v>
+        <v>1.392652034759521</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9655941128730774</v>
+        <v>-0.9663863182067871</v>
       </c>
     </row>
     <row r="277">
@@ -4316,13 +4316,13 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8443277478218079</v>
+        <v>0.843701958656311</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9258925914764404</v>
+        <v>0.925982654094696</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08156484365463257</v>
+        <v>-0.08228069543838501</v>
       </c>
     </row>
     <row r="278">
@@ -4330,13 +4330,13 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>0.782867968082428</v>
+        <v>0.7822467684745789</v>
       </c>
       <c r="C278" t="n">
-        <v>0.562646210193634</v>
+        <v>0.5626524686813354</v>
       </c>
       <c r="D278" t="n">
-        <v>0.2202217578887939</v>
+        <v>0.2195942997932434</v>
       </c>
     </row>
     <row r="279">
@@ -4344,13 +4344,27 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6599898338317871</v>
+        <v>0.6593778133392334</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.07026305049657822</v>
+        <v>-0.0704028382897377</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7302528619766235</v>
+        <v>0.7297806739807129</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1.14185094833374</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.2507144510746002</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.8911365270614624</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8107520341873169</v>
+        <v>0.8090457320213318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7875038981437683</v>
+        <v>0.7867327332496643</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02324813604354858</v>
+        <v>0.02231299877166748</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.83747398853302</v>
+        <v>0.8357454538345337</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2606282234191895</v>
+        <v>-0.2612230181694031</v>
       </c>
       <c r="D3" t="n">
-        <v>1.098102211952209</v>
+        <v>1.096968412399292</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.913788914680481</v>
+        <v>0.9119967818260193</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7679839134216309</v>
+        <v>-0.7684932947158813</v>
       </c>
       <c r="D4" t="n">
-        <v>1.681772828102112</v>
+        <v>1.680490016937256</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4890458881855011</v>
+        <v>0.4876077175140381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0876481756567955</v>
+        <v>0.08699477463960648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.401397705078125</v>
+        <v>0.4006129503250122</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7143145799636841</v>
+        <v>0.712688684463501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01671127602458</v>
+        <v>0.01606981456279755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6976032853126526</v>
+        <v>0.6966188549995422</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07828335464000702</v>
+        <v>0.07718747109174728</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.146196037530899</v>
+        <v>-0.1468100845813751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2244793921709061</v>
+        <v>0.223997563123703</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6695188283920288</v>
+        <v>0.6679303050041199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4493653178215027</v>
+        <v>0.4486510455608368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2201535105705261</v>
+        <v>0.2192792594432831</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.038696765899658</v>
+        <v>1.036800622940063</v>
       </c>
       <c r="C9" t="n">
-        <v>1.163677930831909</v>
+        <v>1.162843465805054</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.124981164932251</v>
+        <v>-0.1260428428649902</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.412155389785767</v>
+        <v>1.409947991371155</v>
       </c>
       <c r="C10" t="n">
-        <v>1.128634691238403</v>
+        <v>1.127806186676025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2835206985473633</v>
+        <v>0.2821418046951294</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9722116589546204</v>
+        <v>0.9703708291053772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9676821827888489</v>
+        <v>0.9668806791305542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004529476165771484</v>
+        <v>0.003490149974822998</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.054924726486206</v>
+        <v>1.053014993667603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8069332838058472</v>
+        <v>0.8061588406562805</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2479914426803589</v>
+        <v>0.246856153011322</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7362839579582214</v>
+        <v>0.7346397638320923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3182740807533264</v>
+        <v>0.3175818622112274</v>
       </c>
       <c r="D13" t="n">
-        <v>0.418009877204895</v>
+        <v>0.4170579016208649</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2429384589195251</v>
+        <v>0.2417053580284119</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0509035512804985</v>
+        <v>-0.05153363570570946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2938420176506042</v>
+        <v>0.2932389974594116</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5082535147666931</v>
+        <v>0.5067992806434631</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3888733088970184</v>
+        <v>-0.389446496963501</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8971267938613892</v>
+        <v>0.8962457776069641</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.182029485702515</v>
+        <v>1.1800137758255</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2452919632196426</v>
+        <v>0.2446120381355286</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9367375373840332</v>
+        <v>0.9354017376899719</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.020749926567078</v>
+        <v>1.018868684768677</v>
       </c>
       <c r="C17" t="n">
-        <v>1.053499221801758</v>
+        <v>1.052683234214783</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03274929523468018</v>
+        <v>-0.03381454944610596</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.100942850112915</v>
+        <v>1.098994731903076</v>
       </c>
       <c r="C18" t="n">
-        <v>1.847119450569153</v>
+        <v>1.846169829368591</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7461766004562378</v>
+        <v>-0.7471750974655151</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.032191872596741</v>
+        <v>1.030301094055176</v>
       </c>
       <c r="C19" t="n">
-        <v>1.177509427070618</v>
+        <v>1.176672697067261</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.145317554473877</v>
+        <v>-0.146371603012085</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4125012159347534</v>
+        <v>0.4111268222332001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.998029470443726</v>
+        <v>1.99705445766449</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.585528254508972</v>
+        <v>-1.585927605628967</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7210769057273865</v>
+        <v>0.7194453477859497</v>
       </c>
       <c r="C21" t="n">
-        <v>1.376543164253235</v>
+        <v>1.375672936439514</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6554662585258484</v>
+        <v>-0.6562275886535645</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7092292308807373</v>
+        <v>0.7076075673103333</v>
       </c>
       <c r="C22" t="n">
-        <v>1.493559241294861</v>
+        <v>1.492669343948364</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7843300104141235</v>
+        <v>-0.785061776638031</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3950192928314209</v>
+        <v>0.3936594724655151</v>
       </c>
       <c r="C23" t="n">
-        <v>1.320054411888123</v>
+        <v>1.319193720817566</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9250351190567017</v>
+        <v>-0.9255342483520508</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6740792989730835</v>
+        <v>0.6724869012832642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8421840071678162</v>
+        <v>0.8414036631584167</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1681047081947327</v>
+        <v>-0.1689167618751526</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.102647066116333</v>
+        <v>1.10069751739502</v>
       </c>
       <c r="C25" t="n">
-        <v>1.00410270690918</v>
+        <v>1.003294944763184</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09854435920715332</v>
+        <v>0.09740257263183594</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8939999341964722</v>
+        <v>0.8922243118286133</v>
       </c>
       <c r="C26" t="n">
-        <v>1.524209976196289</v>
+        <v>1.523314952850342</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6302100419998169</v>
+        <v>-0.6310906410217285</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.142644643783569</v>
+        <v>1.140661835670471</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7340828776359558</v>
+        <v>0.7333207130432129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4085617661476135</v>
+        <v>0.4073411226272583</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.174502849578857</v>
+        <v>1.172493457794189</v>
       </c>
       <c r="C28" t="n">
-        <v>1.97504985332489</v>
+        <v>1.974078774452209</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8005470037460327</v>
+        <v>-0.80158531665802</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9098463654518127</v>
+        <v>0.9080575108528137</v>
       </c>
       <c r="C29" t="n">
-        <v>1.828536152839661</v>
+        <v>1.827589869499207</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9186897873878479</v>
+        <v>-0.9195323586463928</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4907368421554565</v>
+        <v>0.4892972707748413</v>
       </c>
       <c r="C30" t="n">
-        <v>1.602056622505188</v>
+        <v>1.60114848613739</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.111319780349731</v>
+        <v>-1.111851215362549</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7567965984344482</v>
+        <v>0.7551352977752686</v>
       </c>
       <c r="C31" t="n">
-        <v>1.225477814674377</v>
+        <v>1.224632978439331</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4686812162399292</v>
+        <v>-0.4694976806640625</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.855633556842804</v>
+        <v>0.8538898825645447</v>
       </c>
       <c r="C32" t="n">
-        <v>1.385520339012146</v>
+        <v>1.384648561477661</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.529886782169342</v>
+        <v>-0.5307586789131165</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.698251485824585</v>
+        <v>0.6966390013694763</v>
       </c>
       <c r="C33" t="n">
-        <v>1.320260643959045</v>
+        <v>1.319399833679199</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6220091581344604</v>
+        <v>-0.6227608323097229</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.003884315490723</v>
+        <v>2.001183748245239</v>
       </c>
       <c r="C34" t="n">
-        <v>0.526643693447113</v>
+        <v>0.5259163975715637</v>
       </c>
       <c r="D34" t="n">
-        <v>1.477240562438965</v>
+        <v>1.47526741027832</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.461627244949341</v>
+        <v>1.459378600120544</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1146776974201202</v>
+        <v>-0.1152970492839813</v>
       </c>
       <c r="D35" t="n">
-        <v>1.576304912567139</v>
+        <v>1.574675679206848</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.208528876304626</v>
+        <v>1.206491112709045</v>
       </c>
       <c r="C36" t="n">
-        <v>0.517588198184967</v>
+        <v>0.5168624520301819</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6909406781196594</v>
+        <v>0.6896286606788635</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.49155867099762</v>
+        <v>1.489284992218018</v>
       </c>
       <c r="C37" t="n">
-        <v>2.02312970161438</v>
+        <v>2.022150754928589</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5315710306167603</v>
+        <v>-0.5328657627105713</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.3285231590271</v>
+        <v>1.326385498046875</v>
       </c>
       <c r="C38" t="n">
-        <v>2.14420485496521</v>
+        <v>2.143205404281616</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8156816959381104</v>
+        <v>-0.8168199062347412</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.967195868492126</v>
+        <v>1.964525938034058</v>
       </c>
       <c r="C39" t="n">
-        <v>1.634407639503479</v>
+        <v>1.633494019508362</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3327882289886475</v>
+        <v>0.3310319185256958</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.742091178894043</v>
+        <v>1.739608764648438</v>
       </c>
       <c r="C40" t="n">
-        <v>1.101870536804199</v>
+        <v>1.101046442985535</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6402206420898438</v>
+        <v>0.6385623216629028</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.818657994270325</v>
+        <v>1.81611180305481</v>
       </c>
       <c r="C41" t="n">
-        <v>1.637874126434326</v>
+        <v>1.636959910392761</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1807838678359985</v>
+        <v>0.1791518926620483</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.753004193305969</v>
+        <v>1.750512719154358</v>
       </c>
       <c r="C42" t="n">
-        <v>1.175098180770874</v>
+        <v>1.174261689186096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5779060125350952</v>
+        <v>0.5762510299682617</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.600436329841614</v>
+        <v>1.598072052001953</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7008938789367676</v>
+        <v>0.7001372575759888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8995424509048462</v>
+        <v>0.8979347944259644</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.161448955535889</v>
+        <v>1.15945041179657</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4690894782543182</v>
+        <v>0.4683718681335449</v>
       </c>
       <c r="D44" t="n">
-        <v>0.692359447479248</v>
+        <v>0.6910785436630249</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.084555387496948</v>
+        <v>1.082620978355408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03335561230778694</v>
+        <v>0.03271134942770004</v>
       </c>
       <c r="D45" t="n">
-        <v>1.051199793815613</v>
+        <v>1.049909591674805</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.346727967262268</v>
+        <v>1.344575047492981</v>
       </c>
       <c r="C46" t="n">
-        <v>1.108423709869385</v>
+        <v>1.107598423957825</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2383042573928833</v>
+        <v>0.2369766235351562</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9887478351593018</v>
+        <v>0.9868932366371155</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8778582215309143</v>
+        <v>0.8770718574523926</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1108896136283875</v>
+        <v>0.1098213791847229</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6555850505828857</v>
+        <v>0.6540080904960632</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9967808723449707</v>
+        <v>0.9959745407104492</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.341195821762085</v>
+        <v>-0.341966450214386</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7115744352340698</v>
+        <v>0.7099508047103882</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3656708598136902</v>
+        <v>0.3649706840515137</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3459035754203796</v>
+        <v>0.3449801206588745</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.379135727882385</v>
+        <v>1.37695574760437</v>
       </c>
       <c r="C50" t="n">
-        <v>1.374414801597595</v>
+        <v>1.373544931411743</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004720926284790039</v>
+        <v>0.003410816192626953</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.340409636497498</v>
+        <v>1.338261961936951</v>
       </c>
       <c r="C51" t="n">
-        <v>1.23429799079895</v>
+        <v>1.23345148563385</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1061116456985474</v>
+        <v>0.1048104763031006</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.01945960521698</v>
+        <v>1.017579436302185</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6066364049911499</v>
+        <v>0.6058956980705261</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4128232002258301</v>
+        <v>0.4116837382316589</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.141964435577393</v>
+        <v>1.139982104301453</v>
       </c>
       <c r="C53" t="n">
-        <v>1.12458348274231</v>
+        <v>1.123755574226379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01738095283508301</v>
+        <v>0.01622653007507324</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1860878020524979</v>
+        <v>-0.1869633793830872</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8743228316307068</v>
+        <v>0.8735370635986328</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.060410618782043</v>
+        <v>-1.060500383377075</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05887141078710556</v>
+        <v>-0.05985299870371819</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7992676496505737</v>
+        <v>0.7984945178031921</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8581390380859375</v>
+        <v>-0.8583475351333618</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1664862632751465</v>
+        <v>0.1653168797492981</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7434350848197937</v>
+        <v>0.7426713109016418</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5769488215446472</v>
+        <v>-0.5773544311523438</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.142401576042175</v>
+        <v>1.140419006347656</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8370460867881775</v>
+        <v>0.8362665772438049</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3053554892539978</v>
+        <v>0.3041524291038513</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.251562833786011</v>
+        <v>1.249489188194275</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6502655148506165</v>
+        <v>0.6495174765586853</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6012973189353943</v>
+        <v>0.5999717116355896</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.241320252418518</v>
+        <v>1.23925518989563</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6865860819816589</v>
+        <v>0.6858318448066711</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5547341704368591</v>
+        <v>0.5534233450889587</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.061180710792542</v>
+        <v>1.059265732765198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9237415194511414</v>
+        <v>0.9229474067687988</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1374391913414001</v>
+        <v>0.1363183259963989</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.006428241729736</v>
+        <v>1.004558920860291</v>
       </c>
       <c r="C61" t="n">
-        <v>1.150739431381226</v>
+        <v>1.149907112121582</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1443111896514893</v>
+        <v>-0.1453481912612915</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8674857020378113</v>
+        <v>0.8657321333885193</v>
       </c>
       <c r="C62" t="n">
-        <v>1.464519143104553</v>
+        <v>1.463633894920349</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5970334410667419</v>
+        <v>-0.5979017615318298</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9182456135749817</v>
+        <v>0.9164497852325439</v>
       </c>
       <c r="C63" t="n">
-        <v>2.640649318695068</v>
+        <v>2.639566421508789</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.722403764724731</v>
+        <v>-1.723116636276245</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.15657114982605</v>
+        <v>1.154576778411865</v>
       </c>
       <c r="C64" t="n">
-        <v>2.569368124008179</v>
+        <v>2.568297147750854</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.412796974182129</v>
+        <v>-1.413720369338989</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.354321241378784</v>
+        <v>1.352162003517151</v>
       </c>
       <c r="C65" t="n">
-        <v>1.049098134040833</v>
+        <v>1.048282980918884</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3052231073379517</v>
+        <v>0.3038790225982666</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.526744246482849</v>
+        <v>1.524441242218018</v>
       </c>
       <c r="C66" t="n">
-        <v>1.233646154403687</v>
+        <v>1.232799768447876</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2930980920791626</v>
+        <v>0.2916414737701416</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.361064076423645</v>
+        <v>1.358899235725403</v>
       </c>
       <c r="C67" t="n">
-        <v>1.63695502281189</v>
+        <v>1.636040925979614</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2758909463882446</v>
+        <v>-0.2771416902542114</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6000362038612366</v>
+        <v>0.5985055565834045</v>
       </c>
       <c r="C68" t="n">
-        <v>1.693300008773804</v>
+        <v>1.692376375198364</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.093263864517212</v>
+        <v>-1.093870878219604</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9835076332092285</v>
+        <v>0.9816573858261108</v>
       </c>
       <c r="C69" t="n">
-        <v>1.74443531036377</v>
+        <v>1.743502974510193</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.760927677154541</v>
+        <v>-0.761845588684082</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8837096691131592</v>
+        <v>0.8819425702095032</v>
       </c>
       <c r="C70" t="n">
-        <v>1.980486869812012</v>
+        <v>1.979514956474304</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.096777200698853</v>
+        <v>-1.097572326660156</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7900834083557129</v>
+        <v>0.7883943915367126</v>
       </c>
       <c r="C71" t="n">
-        <v>1.75490403175354</v>
+        <v>1.75397002696991</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9648206233978271</v>
+        <v>-0.965575635433197</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4999546110630035</v>
+        <v>0.4985073506832123</v>
       </c>
       <c r="C72" t="n">
-        <v>1.628698348999023</v>
+        <v>1.627785563468933</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.128743767738342</v>
+        <v>-1.129278182983398</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3482491970062256</v>
+        <v>0.3469283580780029</v>
       </c>
       <c r="C73" t="n">
-        <v>1.232786893844604</v>
+        <v>1.231940627098083</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8845376968383789</v>
+        <v>-0.8850122690200806</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4360295534133911</v>
+        <v>0.4346355497837067</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5621147155761719</v>
+        <v>0.561381459236145</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1260851621627808</v>
+        <v>-0.1267459094524384</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4881316125392914</v>
+        <v>0.4866941869258881</v>
       </c>
       <c r="C75" t="n">
-        <v>1.902893662452698</v>
+        <v>1.901934862136841</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.414762020111084</v>
+        <v>-1.41524064540863</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8017745614051819</v>
+        <v>0.8000757694244385</v>
       </c>
       <c r="C76" t="n">
-        <v>1.217662692070007</v>
+        <v>1.216819047927856</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4158881306648254</v>
+        <v>-0.416743278503418</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7462016344070435</v>
+        <v>0.7445491552352905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8212609887123108</v>
+        <v>0.8204842209815979</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07505935430526733</v>
+        <v>-0.07593506574630737</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.07295024394989</v>
+        <v>1.071025490760803</v>
       </c>
       <c r="C78" t="n">
-        <v>1.496825933456421</v>
+        <v>1.495935320854187</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4238756895065308</v>
+        <v>-0.4249098300933838</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8469014763832092</v>
+        <v>0.8451650738716125</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26615846157074</v>
+        <v>1.26530659198761</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4192569851875305</v>
+        <v>-0.4201415181159973</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9248758554458618</v>
+        <v>0.92307448387146</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5227875113487244</v>
+        <v>0.5220609307289124</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4020883440971375</v>
+        <v>0.4010135531425476</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.51174783706665</v>
+        <v>1.509457349777222</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6673555970191956</v>
+        <v>0.6666046380996704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8443922400474548</v>
+        <v>0.8428527116775513</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.288398027420044</v>
+        <v>1.286293745040894</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6704331636428833</v>
+        <v>-0.6709589958190918</v>
       </c>
       <c r="D82" t="n">
-        <v>1.958831191062927</v>
+        <v>1.957252740859985</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.581745266914368</v>
+        <v>1.579396486282349</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.836947500705719</v>
+        <v>-0.8374452590942383</v>
       </c>
       <c r="D83" t="n">
-        <v>2.418692827224731</v>
+        <v>2.416841745376587</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82219398021698</v>
+        <v>1.819644808769226</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1754154562950134</v>
+        <v>-0.1760245859622955</v>
       </c>
       <c r="D84" t="n">
-        <v>1.997609376907349</v>
+        <v>1.995669364929199</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.835047483444214</v>
+        <v>1.83248770236969</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9546666741371155</v>
+        <v>0.9538672566413879</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8803808093070984</v>
+        <v>0.878620445728302</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.684667229652405</v>
+        <v>1.682232737541199</v>
       </c>
       <c r="C86" t="n">
-        <v>1.233086705207825</v>
+        <v>1.232240557670593</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4515805244445801</v>
+        <v>0.4499921798706055</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.544678688049316</v>
+        <v>1.542360901832581</v>
       </c>
       <c r="C87" t="n">
-        <v>1.934271216392517</v>
+        <v>1.93330717086792</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3895925283432007</v>
+        <v>-0.3909462690353394</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.356566309928894</v>
+        <v>1.354405164718628</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8756687045097351</v>
+        <v>0.8748825788497925</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4808976054191589</v>
+        <v>0.4795225858688354</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401940822601318</v>
+        <v>1.399741888046265</v>
       </c>
       <c r="C89" t="n">
-        <v>1.031650543212891</v>
+        <v>1.030838251113892</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3702902793884277</v>
+        <v>0.368903636932373</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.744154095649719</v>
+        <v>1.74167001247406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8019505143165588</v>
+        <v>0.801176905632019</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9422035813331604</v>
+        <v>0.940493106842041</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.88982629776001</v>
+        <v>1.887220859527588</v>
       </c>
       <c r="C91" t="n">
-        <v>1.171149730682373</v>
+        <v>1.170314073562622</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7186765670776367</v>
+        <v>0.7169067859649658</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.561211705207825</v>
+        <v>1.558880090713501</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8621408939361572</v>
+        <v>0.8613571524620056</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6990708112716675</v>
+        <v>0.6975229382514954</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.706986784934998</v>
+        <v>1.704533576965332</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7101792693138123</v>
+        <v>0.7094210982322693</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9968075156211853</v>
+        <v>0.9951124787330627</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.428523540496826</v>
+        <v>1.426302552223206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2183005511760712</v>
+        <v>0.21762515604496</v>
       </c>
       <c r="D94" t="n">
-        <v>1.210222959518433</v>
+        <v>1.208677411079407</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.080812811851501</v>
+        <v>1.078881502151489</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5195360779762268</v>
+        <v>0.518809974193573</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5612767338752747</v>
+        <v>0.5600715279579163</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6661362648010254</v>
+        <v>0.6645504832267761</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7221809029579163</v>
+        <v>0.7214207053184509</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05604463815689087</v>
+        <v>-0.0568702220916748</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6015806198120117</v>
+        <v>0.6000486612319946</v>
       </c>
       <c r="C97" t="n">
-        <v>1.041281580924988</v>
+        <v>1.040467739105225</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4397009611129761</v>
+        <v>-0.44041907787323</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00148618221283</v>
+        <v>0.9996209144592285</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9667204022407532</v>
+        <v>0.965919017791748</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03476577997207642</v>
+        <v>0.03370189666748047</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2767066955566406</v>
+        <v>0.2754454612731934</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1073146685957909</v>
+        <v>0.1066579595208168</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1693920195102692</v>
+        <v>0.1687875092029572</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.05994994193315506</v>
+        <v>-0.06093062832951546</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.352640300989151</v>
+        <v>-0.353219598531723</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2926903665065765</v>
+        <v>0.2922889590263367</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2340777665376663</v>
+        <v>-0.2349133491516113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3235155045986176</v>
+        <v>0.3228224217891693</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5575932860374451</v>
+        <v>-0.557735800743103</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20857834815979</v>
+        <v>0.2073738873004913</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2750749289989471</v>
+        <v>-0.275667279958725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4836532771587372</v>
+        <v>0.4830411672592163</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7486511468887329</v>
+        <v>0.7469965815544128</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4480825364589691</v>
+        <v>-0.4486457705497742</v>
       </c>
       <c r="D103" t="n">
-        <v>1.196733713150024</v>
+        <v>1.195642352104187</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9990466833114624</v>
+        <v>0.9971835017204285</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7060731649398804</v>
+        <v>-0.7065929770469666</v>
       </c>
       <c r="D104" t="n">
-        <v>1.705119848251343</v>
+        <v>1.703776478767395</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.065903306007385</v>
+        <v>1.063984513282776</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04872284084558487</v>
+        <v>-0.04935329034924507</v>
       </c>
       <c r="D105" t="n">
-        <v>1.114626169204712</v>
+        <v>1.113337755203247</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.170619606971741</v>
+        <v>1.168613433837891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.644011914730072</v>
+        <v>0.6432648897171021</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5266076922416687</v>
+        <v>0.5253485441207886</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.079024434089661</v>
+        <v>1.077094674110413</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4691580235958099</v>
+        <v>0.468440443277359</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6098663806915283</v>
+        <v>0.608654260635376</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8364145755767822</v>
+        <v>0.8346869349479675</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8578673601150513</v>
+        <v>0.8570842742919922</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02145278453826904</v>
+        <v>-0.02239733934402466</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5643680691719055</v>
+        <v>0.5628671646118164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9587418437004089</v>
+        <v>0.9579418897628784</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3943737745285034</v>
+        <v>-0.395074725151062</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8317987322807312</v>
+        <v>0.8300749063491821</v>
       </c>
       <c r="C110" t="n">
-        <v>1.001332521438599</v>
+        <v>1.000525236129761</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1695337891578674</v>
+        <v>-0.1704503297805786</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.190473198890686</v>
+        <v>1.188450455665588</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4715531766414642</v>
+        <v>0.4708351790904999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7189199924468994</v>
+        <v>0.7176152467727661</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.698840856552124</v>
+        <v>1.696394443511963</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8053606152534485</v>
+        <v>0.8045864105224609</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8934802412986755</v>
+        <v>0.891808032989502</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.042035698890686</v>
+        <v>1.040136694908142</v>
       </c>
       <c r="C113" t="n">
-        <v>1.112594485282898</v>
+        <v>1.11176860332489</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07055878639221191</v>
+        <v>-0.07163190841674805</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.45616340637207</v>
+        <v>1.453919291496277</v>
       </c>
       <c r="C114" t="n">
-        <v>1.712448358535767</v>
+        <v>1.711521506309509</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2562849521636963</v>
+        <v>-0.2576022148132324</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.995293378829956</v>
+        <v>1.992599964141846</v>
       </c>
       <c r="C115" t="n">
-        <v>1.969350934028625</v>
+        <v>1.968380808830261</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02594244480133057</v>
+        <v>0.02421915531158447</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.308499217033386</v>
+        <v>1.306378245353699</v>
       </c>
       <c r="C116" t="n">
-        <v>2.464417695999146</v>
+        <v>2.463364362716675</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.155918478965759</v>
+        <v>-1.156986117362976</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.695431351661682</v>
+        <v>1.69298791885376</v>
       </c>
       <c r="C117" t="n">
-        <v>2.191815853118896</v>
+        <v>2.190808296203613</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4963845014572144</v>
+        <v>-0.4978203773498535</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.718945622444153</v>
+        <v>1.716482520103455</v>
       </c>
       <c r="C118" t="n">
-        <v>1.625480771064758</v>
+        <v>1.624568581581116</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09346485137939453</v>
+        <v>0.09191393852233887</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.925337672233582</v>
+        <v>1.922702550888062</v>
       </c>
       <c r="C119" t="n">
-        <v>1.696328401565552</v>
+        <v>1.695404410362244</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2290092706680298</v>
+        <v>0.2272981405258179</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.377233266830444</v>
+        <v>1.375054955482483</v>
       </c>
       <c r="C120" t="n">
-        <v>1.679289579391479</v>
+        <v>1.678368449211121</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3020563125610352</v>
+        <v>-0.3033134937286377</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.995232343673706</v>
+        <v>1.992539048194885</v>
       </c>
       <c r="C121" t="n">
-        <v>1.685232043266296</v>
+        <v>1.684309840202332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3100003004074097</v>
+        <v>0.3082292079925537</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.044423580169678</v>
+        <v>2.04168963432312</v>
       </c>
       <c r="C122" t="n">
-        <v>1.244640827178955</v>
+        <v>1.243792772293091</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7997827529907227</v>
+        <v>0.7978968620300293</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.348706722259521</v>
+        <v>2.3457190990448</v>
       </c>
       <c r="C123" t="n">
-        <v>2.139013051986694</v>
+        <v>2.138014554977417</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2096936702728271</v>
+        <v>0.2077045440673828</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.450596332550049</v>
+        <v>2.447523355484009</v>
       </c>
       <c r="C124" t="n">
-        <v>1.811164975166321</v>
+        <v>1.810221672058105</v>
       </c>
       <c r="D124" t="n">
-        <v>0.639431357383728</v>
+        <v>0.6373016834259033</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.418756246566772</v>
+        <v>2.415709972381592</v>
       </c>
       <c r="C125" t="n">
-        <v>1.62039053440094</v>
+        <v>1.619479179382324</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7983657121658325</v>
+        <v>0.7962307929992676</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.775839328765869</v>
+        <v>1.773328900337219</v>
       </c>
       <c r="C126" t="n">
-        <v>2.240980386734009</v>
+        <v>2.239964723587036</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4651410579681396</v>
+        <v>-0.4666358232498169</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.783779621124268</v>
+        <v>1.781262516975403</v>
       </c>
       <c r="C127" t="n">
-        <v>2.111664533615112</v>
+        <v>2.110670566558838</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3278849124908447</v>
+        <v>-0.3294080495834351</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.482556581497192</v>
+        <v>1.480290412902832</v>
       </c>
       <c r="C128" t="n">
-        <v>1.938288569450378</v>
+        <v>1.937323808670044</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.455731987953186</v>
+        <v>-0.4570333957672119</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.16997504234314</v>
+        <v>1.167969465255737</v>
       </c>
       <c r="C129" t="n">
-        <v>1.769912004470825</v>
+        <v>1.768975496292114</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5999369621276855</v>
+        <v>-0.601006031036377</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8068421483039856</v>
+        <v>0.8051391839981079</v>
       </c>
       <c r="C130" t="n">
-        <v>2.927426099777222</v>
+        <v>2.926294803619385</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.120584011077881</v>
+        <v>-2.121155738830566</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3906391859054565</v>
+        <v>0.3892830014228821</v>
       </c>
       <c r="C131" t="n">
-        <v>2.162656307220459</v>
+        <v>2.161653757095337</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.772017121315002</v>
+        <v>-1.7723708152771</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05952043086290359</v>
+        <v>-0.06050147488713264</v>
       </c>
       <c r="C132" t="n">
-        <v>1.821211814880371</v>
+        <v>1.820266842842102</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.880732297897339</v>
+        <v>-1.880768299102783</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09123732149600983</v>
+        <v>0.09013064205646515</v>
       </c>
       <c r="C133" t="n">
-        <v>0.810762345790863</v>
+        <v>0.8099872469902039</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7195250391960144</v>
+        <v>-0.7198566198348999</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.15354984998703</v>
+        <v>0.1523912400007248</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1664800643920898</v>
+        <v>0.1658134013414383</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01293021440505981</v>
+        <v>-0.0134221613407135</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3784929811954498</v>
+        <v>0.3771469295024872</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3537979423999786</v>
+        <v>0.3530997633934021</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02469503879547119</v>
+        <v>0.02404716610908508</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7287413477897644</v>
+        <v>0.7271034121513367</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1975344866514206</v>
+        <v>0.19686259329319</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5312068462371826</v>
+        <v>0.5302408337593079</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.599416196346283</v>
+        <v>0.5978860259056091</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5027929544448853</v>
+        <v>0.5020697116851807</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09662324190139771</v>
+        <v>0.09581631422042847</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8411184549331665</v>
+        <v>0.8393868803977966</v>
       </c>
       <c r="C138" t="n">
-        <v>0.967947244644165</v>
+        <v>0.9671457409858704</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1268287897109985</v>
+        <v>-0.1277588605880737</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.301299810409546</v>
+        <v>1.299184799194336</v>
       </c>
       <c r="C139" t="n">
-        <v>1.031555414199829</v>
+        <v>1.03074312210083</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2697443962097168</v>
+        <v>0.2684416770935059</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.258087158203125</v>
+        <v>1.25600802898407</v>
       </c>
       <c r="C140" t="n">
-        <v>1.269911408424377</v>
+        <v>1.2690589427948</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01182425022125244</v>
+        <v>-0.01305091381072998</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.488630056381226</v>
+        <v>1.486358880996704</v>
       </c>
       <c r="C141" t="n">
-        <v>1.224352240562439</v>
+        <v>1.223507642745972</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2642778158187866</v>
+        <v>0.2628512382507324</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.401569724082947</v>
+        <v>1.399371147155762</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1910562068223953</v>
+        <v>0.1903854012489319</v>
       </c>
       <c r="D142" t="n">
-        <v>1.210513472557068</v>
+        <v>1.208985805511475</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.761742830276489</v>
+        <v>1.759243965148926</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2785892486572266</v>
+        <v>0.2779037058353424</v>
       </c>
       <c r="D143" t="n">
-        <v>1.483153581619263</v>
+        <v>1.481340289115906</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.601445317268372</v>
+        <v>1.599080204963684</v>
       </c>
       <c r="C144" t="n">
-        <v>1.279310703277588</v>
+        <v>1.278456687927246</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3221346139907837</v>
+        <v>0.320623517036438</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.708720088005066</v>
+        <v>1.706265568733215</v>
       </c>
       <c r="C145" t="n">
-        <v>1.468119382858276</v>
+        <v>1.467233777046204</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2406007051467896</v>
+        <v>0.2390317916870117</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.149996042251587</v>
+        <v>1.148007035255432</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8967394828796387</v>
+        <v>0.8959499001502991</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2532565593719482</v>
+        <v>0.2520571351051331</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.725275456905365</v>
+        <v>0.7236404418945312</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8454596400260925</v>
+        <v>0.8446786999702454</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1201841831207275</v>
+        <v>-0.1210382580757141</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2853666841983795</v>
+        <v>0.2840982377529144</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2260852158069611</v>
+        <v>-0.2266858220100403</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5114519000053406</v>
+        <v>0.5107840299606323</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6801062226295471</v>
+        <v>0.6785088181495667</v>
       </c>
       <c r="C149" t="n">
-        <v>1.559957146644592</v>
+        <v>1.559056043624878</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8798509240150452</v>
+        <v>-0.8805472254753113</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.036202311515808</v>
+        <v>1.034308075904846</v>
       </c>
       <c r="C150" t="n">
-        <v>2.452028751373291</v>
+        <v>2.450977325439453</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.415826439857483</v>
+        <v>-1.416669249534607</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.325726389884949</v>
+        <v>1.323590993881226</v>
       </c>
       <c r="C151" t="n">
-        <v>1.281473517417908</v>
+        <v>1.280619263648987</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04425287246704102</v>
+        <v>0.04297173023223877</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.359478831291199</v>
+        <v>1.357315301895142</v>
       </c>
       <c r="C152" t="n">
-        <v>0.291352391242981</v>
+        <v>0.2906647324562073</v>
       </c>
       <c r="D152" t="n">
-        <v>1.068126440048218</v>
+        <v>1.066650629043579</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.107513666152954</v>
+        <v>2.104727029800415</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1878460496664047</v>
+        <v>0.1871757805347443</v>
       </c>
       <c r="D153" t="n">
-        <v>1.919667601585388</v>
+        <v>1.917551279067993</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.994368314743042</v>
+        <v>1.991675734519958</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4559522271156311</v>
+        <v>0.4552368521690369</v>
       </c>
       <c r="D154" t="n">
-        <v>1.538416147232056</v>
+        <v>1.536438941955566</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.859381914138794</v>
+        <v>1.856801748275757</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7628563642501831</v>
+        <v>0.7620892524719238</v>
       </c>
       <c r="D155" t="n">
-        <v>1.096525549888611</v>
+        <v>1.094712495803833</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.606639981269836</v>
+        <v>1.604270458221436</v>
       </c>
       <c r="C156" t="n">
-        <v>1.356299877166748</v>
+        <v>1.355433106422424</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2503401041030884</v>
+        <v>0.2488373517990112</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.905955076217651</v>
+        <v>1.903336048126221</v>
       </c>
       <c r="C157" t="n">
-        <v>1.726963520050049</v>
+        <v>1.726034164428711</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1789915561676025</v>
+        <v>0.1773018836975098</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.543410181999207</v>
+        <v>1.541093349456787</v>
       </c>
       <c r="C158" t="n">
-        <v>1.47821581363678</v>
+        <v>1.477328419685364</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06519436836242676</v>
+        <v>0.06376492977142334</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.374493837356567</v>
+        <v>1.372317671775818</v>
       </c>
       <c r="C159" t="n">
-        <v>1.644960403442383</v>
+        <v>1.644044876098633</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2704665660858154</v>
+        <v>-0.2717272043228149</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.683699369430542</v>
+        <v>1.681265592575073</v>
       </c>
       <c r="C160" t="n">
-        <v>1.734462022781372</v>
+        <v>1.733531594276428</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05076265335083008</v>
+        <v>-0.05226600170135498</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.35230541229248</v>
+        <v>1.350147843360901</v>
       </c>
       <c r="C161" t="n">
-        <v>1.686900019645691</v>
+        <v>1.685977578163147</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3345946073532104</v>
+        <v>-0.3358297348022461</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.58484947681427</v>
+        <v>0.5833314657211304</v>
       </c>
       <c r="C162" t="n">
-        <v>1.87742817401886</v>
+        <v>1.876473665237427</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.29257869720459</v>
+        <v>-1.293142199516296</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3785316348075867</v>
+        <v>0.3771855235099792</v>
       </c>
       <c r="C163" t="n">
-        <v>1.351619482040405</v>
+        <v>1.350753426551819</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9730878472328186</v>
+        <v>-0.9735679030418396</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.681007981300354</v>
+        <v>0.6794098615646362</v>
       </c>
       <c r="C164" t="n">
-        <v>1.454798698425293</v>
+        <v>1.453915238380432</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.773790717124939</v>
+        <v>-0.7745053768157959</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8688230514526367</v>
+        <v>0.8670684099197388</v>
       </c>
       <c r="C165" t="n">
-        <v>1.125532507896423</v>
+        <v>1.124704360961914</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2567094564437866</v>
+        <v>-0.2576359510421753</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.007267594337463</v>
+        <v>1.00539755821228</v>
       </c>
       <c r="C166" t="n">
-        <v>1.257972955703735</v>
+        <v>1.257122755050659</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.250705361366272</v>
+        <v>-0.2517251968383789</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.630943059921265</v>
+        <v>1.62855339050293</v>
       </c>
       <c r="C167" t="n">
-        <v>1.619620323181152</v>
+        <v>1.618709206581116</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0113227367401123</v>
+        <v>0.009844183921813965</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.960372567176819</v>
+        <v>1.957708239555359</v>
       </c>
       <c r="C168" t="n">
-        <v>1.893182158470154</v>
+        <v>1.892225027084351</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06719040870666504</v>
+        <v>0.0654832124710083</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.186604261398315</v>
+        <v>1.184584856033325</v>
       </c>
       <c r="C169" t="n">
-        <v>1.581568717956543</v>
+        <v>1.580663800239563</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3949644565582275</v>
+        <v>-0.3960789442062378</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9822137355804443</v>
+        <v>0.9803646206855774</v>
       </c>
       <c r="C170" t="n">
-        <v>1.268983840942383</v>
+        <v>1.268131613731384</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2867701053619385</v>
+        <v>-0.2877669930458069</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9055887460708618</v>
+        <v>0.9038034677505493</v>
       </c>
       <c r="C171" t="n">
-        <v>1.020273685455322</v>
+        <v>1.019463300704956</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1146849393844604</v>
+        <v>-0.1156598329544067</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.021608471870422</v>
+        <v>1.019726514816284</v>
       </c>
       <c r="C172" t="n">
-        <v>1.85920262336731</v>
+        <v>1.858250975608826</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8375941514968872</v>
+        <v>-0.8385244607925415</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.221504688262939</v>
+        <v>1.219456076622009</v>
       </c>
       <c r="C173" t="n">
-        <v>1.653799057006836</v>
+        <v>1.652882218360901</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4322943687438965</v>
+        <v>-0.4334261417388916</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.65317440032959</v>
+        <v>1.650766134262085</v>
       </c>
       <c r="C174" t="n">
-        <v>1.851561188697815</v>
+        <v>1.850611090660095</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1983867883682251</v>
+        <v>-0.1998449563980103</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.467716574668884</v>
+        <v>1.465462803840637</v>
       </c>
       <c r="C175" t="n">
-        <v>1.891745686531067</v>
+        <v>1.890788674354553</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4240291118621826</v>
+        <v>-0.425325870513916</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.090075850486755</v>
+        <v>1.088136792182922</v>
       </c>
       <c r="C176" t="n">
-        <v>1.927058219909668</v>
+        <v>1.926095247268677</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8369823694229126</v>
+        <v>-0.8379584550857544</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.102874040603638</v>
+        <v>1.100924253463745</v>
       </c>
       <c r="C177" t="n">
-        <v>2.051522731781006</v>
+        <v>2.050539016723633</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9486486911773682</v>
+        <v>-0.9496147632598877</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.333809494972229</v>
+        <v>1.331667304039001</v>
       </c>
       <c r="C178" t="n">
-        <v>1.957198262214661</v>
+        <v>1.956230163574219</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6233887672424316</v>
+        <v>-0.6245628595352173</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.894593715667725</v>
+        <v>1.891984224319458</v>
       </c>
       <c r="C179" t="n">
-        <v>1.437303423881531</v>
+        <v>1.436422944068909</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4572902917861938</v>
+        <v>0.4555612802505493</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.868545293807983</v>
+        <v>1.865957498550415</v>
       </c>
       <c r="C180" t="n">
-        <v>1.496124267578125</v>
+        <v>1.49523389339447</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3724210262298584</v>
+        <v>0.3707236051559448</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.431707739830017</v>
+        <v>1.429484009742737</v>
       </c>
       <c r="C181" t="n">
-        <v>1.817299365997314</v>
+        <v>1.816354751586914</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3855916261672974</v>
+        <v>-0.3868707418441772</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4911294877529144</v>
+        <v>0.4896895587444305</v>
       </c>
       <c r="C182" t="n">
-        <v>1.210732817649841</v>
+        <v>1.209890484809875</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7196033000946045</v>
+        <v>-0.7202008962631226</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8881627321243286</v>
+        <v>0.8863919377326965</v>
       </c>
       <c r="C183" t="n">
-        <v>1.485742807388306</v>
+        <v>1.484854221343994</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5975800752639771</v>
+        <v>-0.5984622836112976</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.560124516487122</v>
+        <v>1.557793736457825</v>
       </c>
       <c r="C184" t="n">
-        <v>1.758768796920776</v>
+        <v>1.757834315299988</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1986442804336548</v>
+        <v>-0.2000405788421631</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.941663861274719</v>
+        <v>1.93901515007019</v>
       </c>
       <c r="C185" t="n">
-        <v>1.661711692810059</v>
+        <v>1.660793304443359</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2799521684646606</v>
+        <v>0.2782218456268311</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.969864845275879</v>
+        <v>1.967192649841309</v>
       </c>
       <c r="C186" t="n">
-        <v>1.614028692245483</v>
+        <v>1.613118290901184</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3558361530303955</v>
+        <v>0.3540743589401245</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.071253538131714</v>
+        <v>2.068496465682983</v>
       </c>
       <c r="C187" t="n">
-        <v>1.468241453170776</v>
+        <v>1.467355728149414</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6030120849609375</v>
+        <v>0.6011407375335693</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.354801654815674</v>
+        <v>2.351809024810791</v>
       </c>
       <c r="C188" t="n">
-        <v>1.502956986427307</v>
+        <v>1.502065420150757</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8518446683883667</v>
+        <v>0.8497436046600342</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.905880928039551</v>
+        <v>2.902428865432739</v>
       </c>
       <c r="C189" t="n">
-        <v>1.66369891166687</v>
+        <v>1.662780284881592</v>
       </c>
       <c r="D189" t="n">
-        <v>1.242182016372681</v>
+        <v>1.239648580551147</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.119587898254395</v>
+        <v>3.115957498550415</v>
       </c>
       <c r="C190" t="n">
-        <v>1.267533898353577</v>
+        <v>1.266681909561157</v>
       </c>
       <c r="D190" t="n">
-        <v>1.852053999900818</v>
+        <v>1.849275588989258</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.103707551956177</v>
+        <v>3.100090265274048</v>
       </c>
       <c r="C191" t="n">
-        <v>1.558698177337646</v>
+        <v>1.557797074317932</v>
       </c>
       <c r="D191" t="n">
-        <v>1.54500937461853</v>
+        <v>1.542293190956116</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.858114957809448</v>
+        <v>2.854702711105347</v>
       </c>
       <c r="C192" t="n">
-        <v>1.865592956542969</v>
+        <v>1.864640355110168</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9925220012664795</v>
+        <v>0.9900623559951782</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.932663679122925</v>
+        <v>2.929189443588257</v>
       </c>
       <c r="C193" t="n">
-        <v>2.932465553283691</v>
+        <v>2.931333303451538</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0001981258392333984</v>
+        <v>-0.00214385986328125</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.838786840438843</v>
+        <v>2.835390329360962</v>
       </c>
       <c r="C194" t="n">
-        <v>3.519964218139648</v>
+        <v>3.518733501434326</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6811773777008057</v>
+        <v>-0.6833431720733643</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.281463623046875</v>
+        <v>2.278531789779663</v>
       </c>
       <c r="C195" t="n">
-        <v>3.299351930618286</v>
+        <v>3.298158407211304</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.017888307571411</v>
+        <v>-1.019626617431641</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.108774662017822</v>
+        <v>3.105153560638428</v>
       </c>
       <c r="C196" t="n">
-        <v>3.725492000579834</v>
+        <v>3.724226236343384</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6167173385620117</v>
+        <v>-0.6190726757049561</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.903517723083496</v>
+        <v>2.900067090988159</v>
       </c>
       <c r="C197" t="n">
-        <v>3.516418695449829</v>
+        <v>3.515188217163086</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.612900972366333</v>
+        <v>-0.6151211261749268</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.016265630722046</v>
+        <v>2.013554811477661</v>
       </c>
       <c r="C198" t="n">
-        <v>3.186275482177734</v>
+        <v>3.185100793838501</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.170009851455688</v>
+        <v>-1.17154598236084</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.056617856025696</v>
+        <v>1.054706692695618</v>
       </c>
       <c r="C199" t="n">
-        <v>2.611747026443481</v>
+        <v>2.610669136047363</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.555129170417786</v>
+        <v>-1.555962443351746</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4226977527141571</v>
+        <v>0.4213148653507233</v>
       </c>
       <c r="C200" t="n">
-        <v>2.877627372741699</v>
+        <v>2.87650465965271</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.45492959022522</v>
+        <v>-2.45518970489502</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.445852994918823</v>
+        <v>1.443617463111877</v>
       </c>
       <c r="C201" t="n">
-        <v>2.635195970535278</v>
+        <v>2.634114027023315</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.189342975616455</v>
+        <v>-1.190496563911438</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.066194653511047</v>
+        <v>1.064275622367859</v>
       </c>
       <c r="C202" t="n">
-        <v>2.738481760025024</v>
+        <v>2.737382411956787</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.672287106513977</v>
+        <v>-1.673106789588928</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.094382643699646</v>
+        <v>1.092440009117126</v>
       </c>
       <c r="C203" t="n">
-        <v>2.486685752868652</v>
+        <v>2.485628604888916</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.392303109169006</v>
+        <v>-1.39318859577179</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.302332043647766</v>
+        <v>1.30021607875824</v>
       </c>
       <c r="C204" t="n">
-        <v>2.119567394256592</v>
+        <v>2.118571996688843</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8172353506088257</v>
+        <v>-0.818355917930603</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.287077069282532</v>
+        <v>1.284973859786987</v>
       </c>
       <c r="C205" t="n">
-        <v>1.828032970428467</v>
+        <v>1.827086687088013</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5409559011459351</v>
+        <v>-0.5421128273010254</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.055102825164795</v>
+        <v>1.053192973136902</v>
       </c>
       <c r="C206" t="n">
-        <v>1.106332778930664</v>
+        <v>1.105507969856262</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05122995376586914</v>
+        <v>-0.05231499671936035</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.210906505584717</v>
+        <v>1.208866715431213</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9659050703048706</v>
+        <v>0.965103805065155</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2450014352798462</v>
+        <v>0.2437629103660583</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.479720592498779</v>
+        <v>1.47745680809021</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7700390219688416</v>
+        <v>0.7692707777023315</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7096815705299377</v>
+        <v>0.7081860303878784</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.52079439163208</v>
+        <v>1.51849639415741</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5889075994491577</v>
+        <v>0.5881698131561279</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9318867921829224</v>
+        <v>0.9303265810012817</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.871914982795715</v>
+        <v>1.869324445724487</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6880203485488892</v>
+        <v>0.687265932559967</v>
       </c>
       <c r="D210" t="n">
-        <v>1.183894634246826</v>
+        <v>1.182058572769165</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.621479988098145</v>
+        <v>1.61909806728363</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8451504111289978</v>
+        <v>0.8443695306777954</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7763295769691467</v>
+        <v>0.774728536605835</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.074575185775757</v>
+        <v>2.071815729141235</v>
       </c>
       <c r="C212" t="n">
-        <v>1.127909541130066</v>
+        <v>1.127081155776978</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9466656446456909</v>
+        <v>0.9447345733642578</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.160522937774658</v>
+        <v>2.157691717147827</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5274101495742798</v>
+        <v>0.5266827344894409</v>
       </c>
       <c r="D213" t="n">
-        <v>1.633112788200378</v>
+        <v>1.631008982658386</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.919204235076904</v>
+        <v>1.916574239730835</v>
       </c>
       <c r="C214" t="n">
-        <v>1.039022207260132</v>
+        <v>1.038208723068237</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8801820278167725</v>
+        <v>0.8783655166625977</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.058952808380127</v>
+        <v>2.056206226348877</v>
       </c>
       <c r="C215" t="n">
-        <v>1.189409375190735</v>
+        <v>1.188570618629456</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8695434331893921</v>
+        <v>0.8676356077194214</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.930137276649475</v>
+        <v>1.9274982213974</v>
       </c>
       <c r="C216" t="n">
-        <v>1.424587965011597</v>
+        <v>1.423709630966187</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5055493116378784</v>
+        <v>0.5037885904312134</v>
       </c>
     </row>
     <row r="217">
@@ -3476,13 +3476,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.007246136665344</v>
+        <v>1.005376219749451</v>
       </c>
       <c r="C217" t="n">
-        <v>1.225522994995117</v>
+        <v>1.22467827796936</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2182768583297729</v>
+        <v>-0.2193020582199097</v>
       </c>
     </row>
     <row r="218">
@@ -3490,13 +3490,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7433598637580872</v>
+        <v>0.7417097687721252</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5175246596336365</v>
+        <v>0.5167989134788513</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2258352041244507</v>
+        <v>0.2249108552932739</v>
       </c>
     </row>
     <row r="219">
@@ -3504,13 +3504,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.517541527748108</v>
+        <v>1.515246272087097</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5071007013320923</v>
+        <v>0.5063766837120056</v>
       </c>
       <c r="D219" t="n">
-        <v>1.010440826416016</v>
+        <v>1.008869647979736</v>
       </c>
     </row>
     <row r="220">
@@ -3518,13 +3518,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.379535675048828</v>
+        <v>1.377355456352234</v>
       </c>
       <c r="C220" t="n">
-        <v>1.213143467903137</v>
+        <v>1.212300658226013</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1663922071456909</v>
+        <v>0.1650547981262207</v>
       </c>
     </row>
     <row r="221">
@@ -3532,13 +3532,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.514858365058899</v>
+        <v>1.51256537437439</v>
       </c>
       <c r="C221" t="n">
-        <v>1.431121110916138</v>
+        <v>1.430241703987122</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08373725414276123</v>
+        <v>0.08232367038726807</v>
       </c>
     </row>
     <row r="222">
@@ -3546,13 +3546,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.311639308929443</v>
+        <v>1.309515595436096</v>
       </c>
       <c r="C222" t="n">
-        <v>1.012997150421143</v>
+        <v>1.012188076972961</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2986421585083008</v>
+        <v>0.2973275184631348</v>
       </c>
     </row>
     <row r="223">
@@ -3560,13 +3560,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9552618861198425</v>
+        <v>0.9534351825714111</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7407553195953369</v>
+        <v>0.7399920225143433</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2145065665245056</v>
+        <v>0.2134431600570679</v>
       </c>
     </row>
     <row r="224">
@@ -3574,13 +3574,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.11562716960907</v>
+        <v>1.113666772842407</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4332969486713409</v>
+        <v>0.4325853884220123</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6823302507400513</v>
+        <v>0.6810814142227173</v>
       </c>
     </row>
     <row r="225">
@@ -3588,13 +3588,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.512857437133789</v>
+        <v>1.510566115379333</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5828462839126587</v>
+        <v>0.5821095705032349</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9300111532211304</v>
+        <v>0.9284565448760986</v>
       </c>
     </row>
     <row r="226">
@@ -3602,13 +3602,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.86910355091095</v>
+        <v>1.866515278816223</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0827639177441597</v>
+        <v>0.08211133629083633</v>
       </c>
       <c r="D226" t="n">
-        <v>1.786339640617371</v>
+        <v>1.784403920173645</v>
       </c>
     </row>
     <row r="227">
@@ -3616,13 +3616,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.679063081741333</v>
+        <v>1.676633238792419</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4919702410697937</v>
+        <v>0.4912488162517548</v>
       </c>
       <c r="D227" t="n">
-        <v>1.187092781066895</v>
+        <v>1.185384392738342</v>
       </c>
     </row>
     <row r="228">
@@ -3630,13 +3630,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.116165399551392</v>
+        <v>2.1133713722229</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8986997008323669</v>
+        <v>0.8979097604751587</v>
       </c>
       <c r="D228" t="n">
-        <v>1.21746563911438</v>
+        <v>1.215461611747742</v>
       </c>
     </row>
     <row r="229">
@@ -3644,13 +3644,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>2.014366388320923</v>
+        <v>2.011656999588013</v>
       </c>
       <c r="C229" t="n">
-        <v>1.217311382293701</v>
+        <v>1.21646785736084</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7970550060272217</v>
+        <v>0.7951891422271729</v>
       </c>
     </row>
     <row r="230">
@@ -3658,13 +3658,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>2.007042646408081</v>
+        <v>2.004339456558228</v>
       </c>
       <c r="C230" t="n">
-        <v>1.760466694831848</v>
+        <v>1.759531617164612</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2465759515762329</v>
+        <v>0.2448078393936157</v>
       </c>
     </row>
     <row r="231">
@@ -3672,13 +3672,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.706676721572876</v>
+        <v>1.704223871231079</v>
       </c>
       <c r="C231" t="n">
-        <v>1.811918020248413</v>
+        <v>1.810974478721619</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1052412986755371</v>
+        <v>-0.1067506074905396</v>
       </c>
     </row>
     <row r="232">
@@ -3686,13 +3686,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.726848006248474</v>
+        <v>1.724378347396851</v>
       </c>
       <c r="C232" t="n">
-        <v>1.585815668106079</v>
+        <v>1.584910273551941</v>
       </c>
       <c r="D232" t="n">
-        <v>0.141032338142395</v>
+        <v>0.1394680738449097</v>
       </c>
     </row>
     <row r="233">
@@ -3700,13 +3700,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.225786447525024</v>
+        <v>2.222900629043579</v>
       </c>
       <c r="C233" t="n">
-        <v>1.626641631126404</v>
+        <v>1.625729203224182</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5991448163986206</v>
+        <v>0.597171425819397</v>
       </c>
     </row>
     <row r="234">
@@ -3714,13 +3714,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.700851917266846</v>
+        <v>2.697570323944092</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9571025371551514</v>
+        <v>0.9563027024269104</v>
       </c>
       <c r="D234" t="n">
-        <v>1.743749380111694</v>
+        <v>1.741267681121826</v>
       </c>
     </row>
     <row r="235">
@@ -3728,13 +3728,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.34241795539856</v>
+        <v>2.339435338973999</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3131521642208099</v>
+        <v>0.3124608099460602</v>
       </c>
       <c r="D235" t="n">
-        <v>2.029265880584717</v>
+        <v>2.026974439620972</v>
       </c>
     </row>
     <row r="236">
@@ -3742,13 +3742,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.158949136734009</v>
+        <v>2.156119346618652</v>
       </c>
       <c r="C236" t="n">
-        <v>0.354829877614975</v>
+        <v>0.3541315197944641</v>
       </c>
       <c r="D236" t="n">
-        <v>1.804119229316711</v>
+        <v>1.801987886428833</v>
       </c>
     </row>
     <row r="237">
@@ -3756,13 +3756,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.692866086959839</v>
+        <v>2.689591407775879</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6056445837020874</v>
+        <v>-0.606181263923645</v>
       </c>
       <c r="D237" t="n">
-        <v>3.298510551452637</v>
+        <v>3.295772552490234</v>
       </c>
     </row>
     <row r="238">
@@ -3770,13 +3770,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.266590118408203</v>
+        <v>2.263670682907104</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.143546462059021</v>
+        <v>-1.143992781639099</v>
       </c>
       <c r="D238" t="n">
-        <v>3.410136699676514</v>
+        <v>3.407663345336914</v>
       </c>
     </row>
     <row r="239">
@@ -3784,13 +3784,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.620126247406006</v>
+        <v>2.616911888122559</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.483448147773743</v>
+        <v>-1.483837008476257</v>
       </c>
       <c r="D239" t="n">
-        <v>4.103574275970459</v>
+        <v>4.100749015808105</v>
       </c>
     </row>
     <row r="240">
@@ -3798,13 +3798,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.795987367630005</v>
+        <v>2.792626619338989</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8692622780799866</v>
+        <v>-0.8697546124458313</v>
       </c>
       <c r="D240" t="n">
-        <v>3.665249586105347</v>
+        <v>3.662381172180176</v>
       </c>
     </row>
     <row r="241">
@@ -3812,13 +3812,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.322088003158569</v>
+        <v>2.319122552871704</v>
       </c>
       <c r="C241" t="n">
-        <v>1.311985492706299</v>
+        <v>1.311125993728638</v>
       </c>
       <c r="D241" t="n">
-        <v>1.010102510452271</v>
+        <v>1.007996559143066</v>
       </c>
     </row>
     <row r="242">
@@ -3826,13 +3826,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.636879205703735</v>
+        <v>2.633651256561279</v>
       </c>
       <c r="C242" t="n">
-        <v>2.349747180938721</v>
+        <v>2.348713397979736</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2871320247650146</v>
+        <v>0.284937858581543</v>
       </c>
     </row>
     <row r="243">
@@ -3840,13 +3840,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.021807432174683</v>
+        <v>2.019092082977295</v>
       </c>
       <c r="C243" t="n">
-        <v>2.621431827545166</v>
+        <v>2.620352029800415</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.5996243953704834</v>
+        <v>-0.6012599468231201</v>
       </c>
     </row>
     <row r="244">
@@ -3854,13 +3854,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.201135396957397</v>
+        <v>2.198270559310913</v>
       </c>
       <c r="C244" t="n">
-        <v>2.50750732421875</v>
+        <v>2.506446599960327</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3063719272613525</v>
+        <v>-0.3081760406494141</v>
       </c>
     </row>
     <row r="245">
@@ -3868,13 +3868,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.250465869903564</v>
+        <v>2.247559785842896</v>
       </c>
       <c r="C245" t="n">
-        <v>2.494883298873901</v>
+        <v>2.49382472038269</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2444174289703369</v>
+        <v>-0.2462649345397949</v>
       </c>
     </row>
     <row r="246">
@@ -3882,13 +3882,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.319248914718628</v>
+        <v>2.316285848617554</v>
       </c>
       <c r="C246" t="n">
-        <v>1.530542492866516</v>
+        <v>1.529646396636963</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7887064218521118</v>
+        <v>0.7866394519805908</v>
       </c>
     </row>
     <row r="247">
@@ -3896,13 +3896,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.206538200378418</v>
+        <v>2.20366907119751</v>
       </c>
       <c r="C247" t="n">
-        <v>1.16174042224884</v>
+        <v>1.160906314849854</v>
       </c>
       <c r="D247" t="n">
-        <v>1.044797778129578</v>
+        <v>1.042762756347656</v>
       </c>
     </row>
     <row r="248">
@@ -3910,13 +3910,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.036944389343262</v>
+        <v>2.034216403961182</v>
       </c>
       <c r="C248" t="n">
-        <v>1.588393211364746</v>
+        <v>1.58748733997345</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4485511779785156</v>
+        <v>0.4467290639877319</v>
       </c>
     </row>
     <row r="249">
@@ -3924,13 +3924,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.540060997009277</v>
+        <v>1.537747025489807</v>
       </c>
       <c r="C249" t="n">
-        <v>1.993761539459229</v>
+        <v>1.99278736114502</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4537005424499512</v>
+        <v>-0.4550403356552124</v>
       </c>
     </row>
     <row r="250">
@@ -3938,13 +3938,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.262004852294922</v>
+        <v>1.259922504425049</v>
       </c>
       <c r="C250" t="n">
-        <v>1.543506622314453</v>
+        <v>1.542608380317688</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2815017700195312</v>
+        <v>-0.2826858758926392</v>
       </c>
     </row>
     <row r="251">
@@ -3952,13 +3952,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.773389339447021</v>
+        <v>1.770880937576294</v>
       </c>
       <c r="C251" t="n">
-        <v>1.354283094406128</v>
+        <v>1.353416562080383</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4191062450408936</v>
+        <v>0.4174643754959106</v>
       </c>
     </row>
     <row r="252">
@@ -3966,13 +3966,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.499911069869995</v>
+        <v>1.497630476951599</v>
       </c>
       <c r="C252" t="n">
-        <v>1.215960025787354</v>
+        <v>1.215116858482361</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2839510440826416</v>
+        <v>0.2825136184692383</v>
       </c>
     </row>
     <row r="253">
@@ -3980,13 +3980,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.223351836204529</v>
+        <v>1.221301794052124</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7557726502418518</v>
+        <v>0.7550068497657776</v>
       </c>
       <c r="D253" t="n">
-        <v>0.467579185962677</v>
+        <v>0.4662949442863464</v>
       </c>
     </row>
     <row r="254">
@@ -3994,13 +3994,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4947699010372162</v>
+        <v>0.4933269619941711</v>
       </c>
       <c r="C254" t="n">
-        <v>0.003231070935726166</v>
+        <v>0.002591877011582255</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4915388226509094</v>
+        <v>0.4907350838184357</v>
       </c>
     </row>
     <row r="255">
@@ -4008,13 +4008,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8144407272338867</v>
+        <v>0.8127313852310181</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3314565122127533</v>
+        <v>0.3307620882987976</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4829842150211334</v>
+        <v>0.4819692969322205</v>
       </c>
     </row>
     <row r="256">
@@ -4022,13 +4022,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.163190126419067</v>
+        <v>1.161190152168274</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8063668608665466</v>
+        <v>0.8055924773216248</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3568232655525208</v>
+        <v>0.3555976748466492</v>
       </c>
     </row>
     <row r="257">
@@ -4036,13 +4036,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.116123795509338</v>
+        <v>1.114163041114807</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6034529805183411</v>
+        <v>0.6027128100395203</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5126708149909973</v>
+        <v>0.5114502310752869</v>
       </c>
     </row>
     <row r="258">
@@ -4050,13 +4050,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6749839782714844</v>
+        <v>0.6733908653259277</v>
       </c>
       <c r="C258" t="n">
-        <v>1.286251306533813</v>
+        <v>1.285396099090576</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6112673282623291</v>
+        <v>-0.6120052337646484</v>
       </c>
     </row>
     <row r="259">
@@ -4064,13 +4064,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8792182207107544</v>
+        <v>0.8774548768997192</v>
       </c>
       <c r="C259" t="n">
-        <v>1.817400217056274</v>
+        <v>1.816455602645874</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.93818199634552</v>
+        <v>-0.9390007257461548</v>
       </c>
     </row>
     <row r="260">
@@ -4078,13 +4078,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.167535066604614</v>
+        <v>1.165531396865845</v>
       </c>
       <c r="C260" t="n">
-        <v>2.263442039489746</v>
+        <v>2.262422561645508</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.095906972885132</v>
+        <v>-1.096891164779663</v>
       </c>
     </row>
     <row r="261">
@@ -4092,13 +4092,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.294679880142212</v>
+        <v>1.292570352554321</v>
       </c>
       <c r="C261" t="n">
-        <v>1.90872049331665</v>
+        <v>1.907760620117188</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6140406131744385</v>
+        <v>-0.6151902675628662</v>
       </c>
     </row>
     <row r="262">
@@ -4106,13 +4106,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.505545020103455</v>
+        <v>1.503259658813477</v>
       </c>
       <c r="C262" t="n">
-        <v>1.437784075737</v>
+        <v>1.436903476715088</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06776094436645508</v>
+        <v>0.06635618209838867</v>
       </c>
     </row>
     <row r="263">
@@ -4120,13 +4120,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.185769557952881</v>
+        <v>1.183750867843628</v>
       </c>
       <c r="C263" t="n">
-        <v>2.192108869552612</v>
+        <v>2.191101312637329</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.006339311599731</v>
+        <v>-1.007350444793701</v>
       </c>
     </row>
     <row r="264">
@@ -4134,13 +4134,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.163914084434509</v>
+        <v>1.161913514137268</v>
       </c>
       <c r="C264" t="n">
-        <v>1.759404420852661</v>
+        <v>1.758469700813293</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5954903364181519</v>
+        <v>-0.5965561866760254</v>
       </c>
     </row>
     <row r="265">
@@ -4148,13 +4148,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.326206207275391</v>
+        <v>1.324070453643799</v>
       </c>
       <c r="C265" t="n">
-        <v>1.748331189155579</v>
+        <v>1.747398138046265</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.422124981880188</v>
+        <v>-0.4233276844024658</v>
       </c>
     </row>
     <row r="266">
@@ -4162,13 +4162,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.681130528450012</v>
+        <v>1.678698897361755</v>
       </c>
       <c r="C266" t="n">
-        <v>2.310762643814087</v>
+        <v>2.309735059738159</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6296321153640747</v>
+        <v>-0.6310361623764038</v>
       </c>
     </row>
     <row r="267">
@@ -4176,13 +4176,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9131392240524292</v>
+        <v>0.9113476872444153</v>
       </c>
       <c r="C267" t="n">
-        <v>1.70659613609314</v>
+        <v>1.705670356750488</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7934569120407104</v>
+        <v>-0.794322669506073</v>
       </c>
     </row>
     <row r="268">
@@ -4190,13 +4190,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.086457967758179</v>
+        <v>1.084521889686584</v>
       </c>
       <c r="C268" t="n">
-        <v>1.317839026451111</v>
+        <v>1.316978573799133</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2313810586929321</v>
+        <v>-0.2324566841125488</v>
       </c>
     </row>
     <row r="269">
@@ -4204,13 +4204,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.160810351371765</v>
+        <v>1.158812403678894</v>
       </c>
       <c r="C269" t="n">
-        <v>1.964905500411987</v>
+        <v>1.963936328887939</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8040951490402222</v>
+        <v>-0.8051239252090454</v>
       </c>
     </row>
     <row r="270">
@@ -4218,13 +4218,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9996293783187866</v>
+        <v>0.9977657198905945</v>
       </c>
       <c r="C270" t="n">
-        <v>2.166805744171143</v>
+        <v>2.165802478790283</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.167176365852356</v>
+        <v>-1.168036699295044</v>
       </c>
     </row>
     <row r="271">
@@ -4232,13 +4232,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9300201535224915</v>
+        <v>0.9282144904136658</v>
       </c>
       <c r="C271" t="n">
-        <v>2.421256065368652</v>
+        <v>2.420209884643555</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.491235971450806</v>
+        <v>-1.491995334625244</v>
       </c>
     </row>
     <row r="272">
@@ -4246,13 +4246,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1125783398747444</v>
+        <v>0.1114538833498955</v>
       </c>
       <c r="C272" t="n">
-        <v>2.444886684417725</v>
+        <v>2.44383692741394</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.332308292388916</v>
+        <v>-2.332383155822754</v>
       </c>
     </row>
     <row r="273">
@@ -4260,13 +4260,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3980542421340942</v>
+        <v>0.3966918885707855</v>
       </c>
       <c r="C273" t="n">
-        <v>2.711592435836792</v>
+        <v>2.710497379302979</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.313538074493408</v>
+        <v>-2.31380558013916</v>
       </c>
     </row>
     <row r="274">
@@ -4274,13 +4274,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4993079602718353</v>
+        <v>0.4978612065315247</v>
       </c>
       <c r="C274" t="n">
-        <v>2.363489389419556</v>
+        <v>2.362452983856201</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.864181399345398</v>
+        <v>-1.864591836929321</v>
       </c>
     </row>
     <row r="275">
@@ -4288,13 +4288,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3076754808425903</v>
+        <v>0.3063884377479553</v>
       </c>
       <c r="C275" t="n">
-        <v>1.866876363754272</v>
+        <v>1.865923523902893</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.559200882911682</v>
+        <v>-1.559535026550293</v>
       </c>
     </row>
     <row r="276">
@@ -4302,13 +4302,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4262657463550568</v>
+        <v>0.4248798787593842</v>
       </c>
       <c r="C276" t="n">
-        <v>1.392652034759521</v>
+        <v>1.391779184341431</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9663863182067871</v>
+        <v>-0.9668992757797241</v>
       </c>
     </row>
     <row r="277">
@@ -4316,13 +4316,13 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.843701958656311</v>
+        <v>0.8419682383537292</v>
       </c>
       <c r="C277" t="n">
-        <v>0.925982654094696</v>
+        <v>0.9251882433891296</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08228069543838501</v>
+        <v>-0.08322000503540039</v>
       </c>
     </row>
     <row r="278">
@@ -4330,13 +4330,13 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7822467684745789</v>
+        <v>0.7805642485618591</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5626524686813354</v>
+        <v>0.5619191527366638</v>
       </c>
       <c r="D278" t="n">
-        <v>0.2195942997932434</v>
+        <v>0.2186450958251953</v>
       </c>
     </row>
     <row r="279">
@@ -4344,13 +4344,13 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6593778133392334</v>
+        <v>0.6577976942062378</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.0704028382897377</v>
+        <v>-0.07102964073419571</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7297806739807129</v>
+        <v>0.7288273572921753</v>
       </c>
     </row>
     <row r="280">
@@ -4358,13 +4358,27 @@
         <v>44986</v>
       </c>
       <c r="B280" t="n">
-        <v>1.14185094833374</v>
+        <v>1.139868855476379</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2507144510746002</v>
+        <v>0.2500336170196533</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8911365270614624</v>
+        <v>0.8898352384567261</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2.093248844146729</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.297248840332031</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7960000038146973</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8090457320213318</v>
+        <v>0.8079120516777039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7867327332496643</v>
+        <v>0.7857309579849243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02231299877166748</v>
+        <v>0.02218109369277954</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8357454538345337</v>
+        <v>0.8346008658409119</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2612230181694031</v>
+        <v>-0.2618866562843323</v>
       </c>
       <c r="D3" t="n">
-        <v>1.096968412399292</v>
+        <v>1.096487522125244</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9119967818260193</v>
+        <v>0.9108210206031799</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7684932947158813</v>
+        <v>-0.7689932584762573</v>
       </c>
       <c r="D4" t="n">
-        <v>1.680490016937256</v>
+        <v>1.679814338684082</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4876077175140381</v>
+        <v>0.4866054952144623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08699477463960648</v>
+        <v>0.08621877431869507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4006129503250122</v>
+        <v>0.4003867208957672</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.712688684463501</v>
+        <v>0.7115944027900696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01606981456279755</v>
+        <v>0.01531669497489929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6966188549995422</v>
+        <v>0.6962777376174927</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07718747109174728</v>
+        <v>0.07635313272476196</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1468100845813751</v>
+        <v>-0.1475106626749039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.223997563123703</v>
+        <v>0.2238637953996658</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6679303050041199</v>
+        <v>0.6668543815612793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4486510455608368</v>
+        <v>0.4477583765983582</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2192792594432831</v>
+        <v>0.2190960049629211</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.036800622940063</v>
+        <v>1.035573720932007</v>
       </c>
       <c r="C9" t="n">
-        <v>1.162843465805054</v>
+        <v>1.161720514297485</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1260428428649902</v>
+        <v>-0.1261467933654785</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.409947991371155</v>
+        <v>1.408568501472473</v>
       </c>
       <c r="C10" t="n">
-        <v>1.127806186676025</v>
+        <v>1.126694321632385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2821418046951294</v>
+        <v>0.2818741798400879</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9703708291053772</v>
+        <v>0.9691711664199829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9668806791305542</v>
+        <v>0.9658207893371582</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003490149974822998</v>
+        <v>0.003350377082824707</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.053014993667603</v>
+        <v>1.05178165435791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8061588406562805</v>
+        <v>0.8051508069038391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246856153011322</v>
+        <v>0.246630847454071</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7346397638320923</v>
+        <v>0.7335364818572998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3175818622112274</v>
+        <v>0.3167314529418945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4170579016208649</v>
+        <v>0.4168050289154053</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2417053580284119</v>
+        <v>0.2408037334680557</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05153363570570946</v>
+        <v>-0.05226493999361992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2932389974594116</v>
+        <v>0.2930686771869659</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5067992806434631</v>
+        <v>0.5057892203330994</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.389446496963501</v>
+        <v>-0.3900687694549561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8962457776069641</v>
+        <v>0.8958579897880554</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.1800137758255</v>
+        <v>1.178728342056274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2446120381355286</v>
+        <v>0.2437851876020432</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9354017376899719</v>
+        <v>0.9349431395530701</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018868684768677</v>
+        <v>1.017649173736572</v>
       </c>
       <c r="C17" t="n">
-        <v>1.052683234214783</v>
+        <v>1.051595687866211</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03381454944610596</v>
+        <v>-0.03394651412963867</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.098994731903076</v>
+        <v>1.097742319107056</v>
       </c>
       <c r="C18" t="n">
-        <v>1.846169829368591</v>
+        <v>1.844826340675354</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7471750974655151</v>
+        <v>-0.7470840215682983</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.030301094055176</v>
+        <v>1.029076933860779</v>
       </c>
       <c r="C19" t="n">
-        <v>1.176672697067261</v>
+        <v>1.175545215606689</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.146371603012085</v>
+        <v>-0.1464682817459106</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4111268222332001</v>
+        <v>0.4101558923721313</v>
       </c>
       <c r="C20" t="n">
-        <v>1.99705445766449</v>
+        <v>1.995662212371826</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.585927605628967</v>
+        <v>-1.585506319999695</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7194453477859497</v>
+        <v>0.7183483242988586</v>
       </c>
       <c r="C21" t="n">
-        <v>1.375672936439514</v>
+        <v>1.374481201171875</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6562275886535645</v>
+        <v>-0.6561328768730164</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7076075673103333</v>
+        <v>0.706515371799469</v>
       </c>
       <c r="C22" t="n">
-        <v>1.492669343948364</v>
+        <v>1.491439700126648</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.785061776638031</v>
+        <v>-0.784924328327179</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3936594724655151</v>
+        <v>0.3926956653594971</v>
       </c>
       <c r="C23" t="n">
-        <v>1.319193720817566</v>
+        <v>1.318020105361938</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9255342483520508</v>
+        <v>-0.9253244400024414</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6724869012832642</v>
+        <v>0.6714091300964355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8414036631584167</v>
+        <v>0.8403842449188232</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1689167618751526</v>
+        <v>-0.1689751148223877</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.10069751739502</v>
+        <v>1.099444508552551</v>
       </c>
       <c r="C25" t="n">
-        <v>1.003294944763184</v>
+        <v>1.002223372459412</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09740257263183594</v>
+        <v>0.09722113609313965</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8922243118286133</v>
+        <v>0.8910565972328186</v>
       </c>
       <c r="C26" t="n">
-        <v>1.523314952850342</v>
+        <v>1.522075533866882</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6310906410217285</v>
+        <v>-0.6310189366340637</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.140661835670471</v>
+        <v>1.139392495155334</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7333207130432129</v>
+        <v>0.732336163520813</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4073411226272583</v>
+        <v>0.4070563316345215</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.172493457794189</v>
+        <v>1.171211004257202</v>
       </c>
       <c r="C28" t="n">
-        <v>1.974078774452209</v>
+        <v>1.972694039344788</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.80158531665802</v>
+        <v>-0.8014830350875854</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9080575108528137</v>
+        <v>0.9068832993507385</v>
       </c>
       <c r="C29" t="n">
-        <v>1.827589869499207</v>
+        <v>1.826252102851868</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9195323586463928</v>
+        <v>-0.9193688035011292</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4892972707748413</v>
+        <v>0.4882943630218506</v>
       </c>
       <c r="C30" t="n">
-        <v>1.60114848613739</v>
+        <v>1.599884033203125</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.111851215362549</v>
+        <v>-1.111589670181274</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7551352977752686</v>
+        <v>0.7540236115455627</v>
       </c>
       <c r="C31" t="n">
-        <v>1.224632978439331</v>
+        <v>1.223489999771118</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4694976806640625</v>
+        <v>-0.4694663882255554</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8538898825645447</v>
+        <v>0.8527378439903259</v>
       </c>
       <c r="C32" t="n">
-        <v>1.384648561477661</v>
+        <v>1.383453965187073</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5307586789131165</v>
+        <v>-0.5307161211967468</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6966390013694763</v>
+        <v>0.6955512762069702</v>
       </c>
       <c r="C33" t="n">
-        <v>1.319399833679199</v>
+        <v>1.318226337432861</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6227608323097229</v>
+        <v>-0.6226750612258911</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>2.001183748245239</v>
+        <v>1.999562382698059</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5259163975715637</v>
+        <v>0.5249987840652466</v>
       </c>
       <c r="D34" t="n">
-        <v>1.47526741027832</v>
+        <v>1.474563598632812</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.459378600120544</v>
+        <v>1.457978844642639</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1152970492839813</v>
+        <v>-0.1160077825188637</v>
       </c>
       <c r="D35" t="n">
-        <v>1.574675679206848</v>
+        <v>1.573986649513245</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.206491112709045</v>
+        <v>1.20519495010376</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5168624520301819</v>
+        <v>0.5159477591514587</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6896286606788635</v>
+        <v>0.689247190952301</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.489284992218018</v>
+        <v>1.487873077392578</v>
       </c>
       <c r="C37" t="n">
-        <v>2.022150754928589</v>
+        <v>2.020750284194946</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5328657627105713</v>
+        <v>-0.5328772068023682</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.326385498046875</v>
+        <v>1.325040102005005</v>
       </c>
       <c r="C38" t="n">
-        <v>2.143205404281616</v>
+        <v>2.14176607131958</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8168199062347412</v>
+        <v>-0.8167259693145752</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.964525938034058</v>
+        <v>1.96291971206665</v>
       </c>
       <c r="C39" t="n">
-        <v>1.633494019508362</v>
+        <v>1.632219076156616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3310319185256958</v>
+        <v>0.3307006359100342</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.739608764648438</v>
+        <v>1.738094568252563</v>
       </c>
       <c r="C40" t="n">
-        <v>1.101046442985535</v>
+        <v>1.099943280220032</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6385623216629028</v>
+        <v>0.6381512880325317</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.81611180305481</v>
+        <v>1.814566016197205</v>
       </c>
       <c r="C41" t="n">
-        <v>1.636959910392761</v>
+        <v>1.63568377494812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1791518926620483</v>
+        <v>0.1788822412490845</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.750512719154358</v>
+        <v>1.748993873596191</v>
       </c>
       <c r="C42" t="n">
-        <v>1.174261689186096</v>
+        <v>1.173134922981262</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5762510299682617</v>
+        <v>0.5758589506149292</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.598072052001953</v>
+        <v>1.596615672111511</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7001372575759888</v>
+        <v>0.6991634368896484</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8979347944259644</v>
+        <v>0.8974522352218628</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.15945041179657</v>
+        <v>1.158173441886902</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4683718681335449</v>
+        <v>0.4674728214740753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6910785436630249</v>
+        <v>0.6907006502151489</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.082620978355408</v>
+        <v>1.081375360488892</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03271134942770004</v>
+        <v>0.0319528616964817</v>
       </c>
       <c r="D45" t="n">
-        <v>1.049909591674805</v>
+        <v>1.0494225025177</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.344575047492981</v>
+        <v>1.343222260475159</v>
       </c>
       <c r="C46" t="n">
-        <v>1.107598423957825</v>
+        <v>1.106493234634399</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2369766235351562</v>
+        <v>0.2367290258407593</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9868932366371155</v>
+        <v>0.9856868386268616</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8770718574523926</v>
+        <v>0.8760408759117126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1098213791847229</v>
+        <v>0.1096459627151489</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6540080904960632</v>
+        <v>0.6529378294944763</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9959745407104492</v>
+        <v>0.9949051737785339</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.341966450214386</v>
+        <v>-0.3419673442840576</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7099508047103882</v>
+        <v>0.7088576555252075</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3649706840515137</v>
+        <v>0.3641049861907959</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3449801206588745</v>
+        <v>0.3447526693344116</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.37695574760437</v>
+        <v>1.375589847564697</v>
       </c>
       <c r="C50" t="n">
-        <v>1.373544931411743</v>
+        <v>1.372353792190552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003410816192626953</v>
+        <v>0.003236055374145508</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.338261961936951</v>
+        <v>1.336911797523499</v>
       </c>
       <c r="C51" t="n">
-        <v>1.23345148563385</v>
+        <v>1.232305645942688</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1048104763031006</v>
+        <v>0.1046061515808105</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.017579436302185</v>
+        <v>1.016360521316528</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6058956980705261</v>
+        <v>0.6049522757530212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4116837382316589</v>
+        <v>0.4114082455635071</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.139982104301453</v>
+        <v>1.138713121414185</v>
       </c>
       <c r="C53" t="n">
-        <v>1.123755574226379</v>
+        <v>1.122645139694214</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01622653007507324</v>
+        <v>0.0160679817199707</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1869633793830872</v>
+        <v>-0.1876896768808365</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8735370635986328</v>
+        <v>0.8725072741508484</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.060500383377075</v>
+        <v>-1.060196995735168</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05985299870371819</v>
+        <v>-0.06063128262758255</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7984945178031921</v>
+        <v>0.7974889278411865</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8583475351333618</v>
+        <v>-0.8581202030181885</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1653168797492981</v>
+        <v>0.1644464880228043</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7426713109016418</v>
+        <v>0.7416837811470032</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5773544311523438</v>
+        <v>-0.5772373080253601</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.140419006347656</v>
+        <v>1.139149785041809</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8362665772438049</v>
+        <v>0.8352488279342651</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3041524291038513</v>
+        <v>0.3039009571075439</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.249489188194275</v>
+        <v>1.248175263404846</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6495174765586853</v>
+        <v>0.6485599875450134</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5999717116355896</v>
+        <v>0.5996152758598328</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.23925518989563</v>
+        <v>1.237945437431335</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6858318448066711</v>
+        <v>0.6848626732826233</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5534233450889587</v>
+        <v>0.5530827641487122</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.059265732765198</v>
+        <v>1.058029770851135</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9229474067687988</v>
+        <v>0.9219017028808594</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1363183259963989</v>
+        <v>0.1361280679702759</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.004558920860291</v>
+        <v>1.003345251083374</v>
       </c>
       <c r="C61" t="n">
-        <v>1.149907112121582</v>
+        <v>1.148788213729858</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1453481912612915</v>
+        <v>-0.1454429626464844</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8657321333885193</v>
+        <v>0.8645752668380737</v>
       </c>
       <c r="C62" t="n">
-        <v>1.463633894920349</v>
+        <v>1.462413668632507</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5979017615318298</v>
+        <v>-0.5978384017944336</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9164497852325439</v>
+        <v>0.9152721762657166</v>
       </c>
       <c r="C63" t="n">
-        <v>2.639566421508789</v>
+        <v>2.637966871261597</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.723116636276245</v>
+        <v>-1.722694635391235</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.154576778411865</v>
+        <v>1.15330171585083</v>
       </c>
       <c r="C64" t="n">
-        <v>2.568297147750854</v>
+        <v>2.566720485687256</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.413720369338989</v>
+        <v>-1.413418769836426</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.352162003517151</v>
+        <v>1.3508061170578</v>
       </c>
       <c r="C65" t="n">
-        <v>1.048282980918884</v>
+        <v>1.047196865081787</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3038790225982666</v>
+        <v>0.3036092519760132</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.524441242218018</v>
+        <v>1.523014903068542</v>
       </c>
       <c r="C66" t="n">
-        <v>1.232799768447876</v>
+        <v>1.231654167175293</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2916414737701416</v>
+        <v>0.2913607358932495</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.358899235725403</v>
+        <v>1.357540607452393</v>
       </c>
       <c r="C67" t="n">
-        <v>1.636040925979614</v>
+        <v>1.634765028953552</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2771416902542114</v>
+        <v>-0.2772244215011597</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5985055565834045</v>
+        <v>0.5974578857421875</v>
       </c>
       <c r="C68" t="n">
-        <v>1.692376375198364</v>
+        <v>1.69108247756958</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.093870878219604</v>
+        <v>-1.093624591827393</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9816573858261108</v>
+        <v>0.9804530739784241</v>
       </c>
       <c r="C69" t="n">
-        <v>1.743502974510193</v>
+        <v>1.742192625999451</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.761845588684082</v>
+        <v>-0.7617395520210266</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8819425702095032</v>
+        <v>0.8807790279388428</v>
       </c>
       <c r="C70" t="n">
-        <v>1.979514956474304</v>
+        <v>1.97812831401825</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.097572326660156</v>
+        <v>-1.097349286079407</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7883943915367126</v>
+        <v>0.787269115447998</v>
       </c>
       <c r="C71" t="n">
-        <v>1.75397002696991</v>
+        <v>1.752656221389771</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.965575635433197</v>
+        <v>-0.9653871059417725</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4985073506832123</v>
+        <v>0.4975006580352783</v>
       </c>
       <c r="C72" t="n">
-        <v>1.627785563468933</v>
+        <v>1.626512289047241</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.129278182983398</v>
+        <v>-1.129011631011963</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3469283580780029</v>
+        <v>0.3459836840629578</v>
       </c>
       <c r="C73" t="n">
-        <v>1.231940627098083</v>
+        <v>1.23079514503479</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8850122690200806</v>
+        <v>-0.8848114609718323</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4346355497837067</v>
+        <v>0.4336549937725067</v>
       </c>
       <c r="C74" t="n">
-        <v>0.561381459236145</v>
+        <v>0.560452401638031</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1267459094524384</v>
+        <v>-0.1267974078655243</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4866941869258881</v>
+        <v>0.4856923520565033</v>
       </c>
       <c r="C75" t="n">
-        <v>1.901934862136841</v>
+        <v>1.900573253631592</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.41524064540863</v>
+        <v>-1.414880871772766</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8000757694244385</v>
+        <v>0.7989457845687866</v>
       </c>
       <c r="C76" t="n">
-        <v>1.216819047927856</v>
+        <v>1.215678691864014</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.416743278503418</v>
+        <v>-0.4167329072952271</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7445491552352905</v>
+        <v>0.7434418201446533</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8204842209815979</v>
+        <v>0.8194714784622192</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07593506574630737</v>
+        <v>-0.07602965831756592</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.071025490760803</v>
+        <v>1.069784641265869</v>
       </c>
       <c r="C78" t="n">
-        <v>1.495935320854187</v>
+        <v>1.494704604148865</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4249098300933838</v>
+        <v>-0.4249199628829956</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8451650738716125</v>
+        <v>0.8440166115760803</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26530659198761</v>
+        <v>1.264150500297546</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4201415181159973</v>
+        <v>-0.4201338887214661</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.92307448387146</v>
+        <v>0.9218941330909729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5220609307289124</v>
+        <v>0.5211445093154907</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4010135531425476</v>
+        <v>0.4007496237754822</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.509457349777222</v>
+        <v>1.508037209510803</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6666046380996704</v>
+        <v>0.6656416654586792</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8428527116775513</v>
+        <v>0.842395544052124</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.286293745040894</v>
+        <v>1.284964680671692</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6709589958190918</v>
+        <v>-0.6714904308319092</v>
       </c>
       <c r="D82" t="n">
-        <v>1.957252740859985</v>
+        <v>1.956455111503601</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.579396486282349</v>
+        <v>1.577947616577148</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8374452590942383</v>
+        <v>-0.8379230499267578</v>
       </c>
       <c r="D83" t="n">
-        <v>2.416841745376587</v>
+        <v>2.415870666503906</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.819644808769226</v>
+        <v>1.818097710609436</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1760245859622955</v>
+        <v>-0.1767157316207886</v>
       </c>
       <c r="D84" t="n">
-        <v>1.995669364929199</v>
+        <v>1.994813442230225</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83248770236969</v>
+        <v>1.83093523979187</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9538672566413879</v>
+        <v>0.9528116583824158</v>
       </c>
       <c r="D85" t="n">
-        <v>0.878620445728302</v>
+        <v>0.8781235814094543</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.682232737541199</v>
+        <v>1.680741906166077</v>
       </c>
       <c r="C86" t="n">
-        <v>1.232240557670593</v>
+        <v>1.2310950756073</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4499921798706055</v>
+        <v>0.4496468305587769</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.542360901832581</v>
+        <v>1.540927290916443</v>
       </c>
       <c r="C87" t="n">
-        <v>1.93330717086792</v>
+        <v>1.93193531036377</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3909462690353394</v>
+        <v>-0.3910080194473267</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.354405164718628</v>
+        <v>1.35304844379425</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8748825788497925</v>
+        <v>0.8738524317741394</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4795225858688354</v>
+        <v>0.4791960120201111</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.399741888046265</v>
+        <v>1.398366689682007</v>
       </c>
       <c r="C89" t="n">
-        <v>1.030838251113892</v>
+        <v>1.029757738113403</v>
       </c>
       <c r="D89" t="n">
-        <v>0.368903636932373</v>
+        <v>0.3686089515686035</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.74167001247406</v>
+        <v>1.74015474319458</v>
       </c>
       <c r="C90" t="n">
-        <v>0.801176905632019</v>
+        <v>0.8001704812049866</v>
       </c>
       <c r="D90" t="n">
-        <v>0.940493106842041</v>
+        <v>0.9399842619895935</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.887220859527588</v>
+        <v>1.885646224021912</v>
       </c>
       <c r="C91" t="n">
-        <v>1.170314073562622</v>
+        <v>1.169188499450684</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7169067859649658</v>
+        <v>0.716457724571228</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.558880090713501</v>
+        <v>1.557439565658569</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8613571524620056</v>
+        <v>0.8603312969207764</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6975229382514954</v>
+        <v>0.697108268737793</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.704533576965332</v>
+        <v>1.703033566474915</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7094210982322693</v>
+        <v>0.7084442973136902</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9951124787330627</v>
+        <v>0.9945892691612244</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.426302552223206</v>
+        <v>1.42491626739502</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21762515604496</v>
+        <v>0.2168070077896118</v>
       </c>
       <c r="D94" t="n">
-        <v>1.208677411079407</v>
+        <v>1.208109259605408</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.078881502151489</v>
+        <v>1.077637434005737</v>
       </c>
       <c r="C95" t="n">
-        <v>0.518809974193573</v>
+        <v>0.5178946852684021</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5600715279579163</v>
+        <v>0.5597427487373352</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6645504832267761</v>
+        <v>0.6634759306907654</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7214207053184509</v>
+        <v>0.7204400300979614</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0568702220916748</v>
+        <v>-0.05696409940719604</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6000486612319946</v>
+        <v>0.5990004539489746</v>
       </c>
       <c r="C97" t="n">
-        <v>1.040467739105225</v>
+        <v>1.039384007453918</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.44041907787323</v>
+        <v>-0.4403835535049438</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9996209144592285</v>
+        <v>0.9984092116355896</v>
       </c>
       <c r="C98" t="n">
-        <v>0.965919017791748</v>
+        <v>0.9648594856262207</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03370189666748047</v>
+        <v>0.0335497260093689</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2754454612731934</v>
+        <v>0.2745300233364105</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1066579595208168</v>
+        <v>0.1058756113052368</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1687875092029572</v>
+        <v>0.1686544120311737</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.06093062832951546</v>
+        <v>-0.0617084726691246</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.353219598531723</v>
+        <v>-0.3538535535335541</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2922889590263367</v>
+        <v>0.2921450734138489</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2349133491516113</v>
+        <v>-0.2356200367212296</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3228224217891693</v>
+        <v>0.3219703137874603</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.557735800743103</v>
+        <v>-0.5575903654098511</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2073738873004913</v>
+        <v>0.2064862996339798</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.275667279958725</v>
+        <v>-0.2763262689113617</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4830411672592163</v>
+        <v>0.4828125834465027</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7469965815544128</v>
+        <v>0.7458882927894592</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4486457705497742</v>
+        <v>-0.4492489397525787</v>
       </c>
       <c r="D103" t="n">
-        <v>1.195642352104187</v>
+        <v>1.19513726234436</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9971835017204285</v>
+        <v>0.9959729313850403</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7065929770469666</v>
+        <v>-0.7071129083633423</v>
       </c>
       <c r="D104" t="n">
-        <v>1.703776478767395</v>
+        <v>1.703085899353027</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.063984513282776</v>
+        <v>1.062746405601501</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.04935329034924507</v>
+        <v>-0.05008530244231224</v>
       </c>
       <c r="D105" t="n">
-        <v>1.113337755203247</v>
+        <v>1.112831711769104</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.168613433837891</v>
+        <v>1.167332649230957</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6432648897171021</v>
+        <v>0.6423094272613525</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5253485441207886</v>
+        <v>0.5250232219696045</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.077094674110413</v>
+        <v>1.075851202011108</v>
       </c>
       <c r="C107" t="n">
-        <v>0.468440443277359</v>
+        <v>0.467541366815567</v>
       </c>
       <c r="D107" t="n">
-        <v>0.608654260635376</v>
+        <v>0.6083098649978638</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8346869349479675</v>
+        <v>0.8335427641868591</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8570842742919922</v>
+        <v>0.8560599088668823</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02239733934402466</v>
+        <v>-0.02251714468002319</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5628671646118164</v>
+        <v>0.5618341565132141</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9579418897628784</v>
+        <v>0.9568848609924316</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.395074725151062</v>
+        <v>-0.3950507044792175</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8300749063491821</v>
+        <v>0.8289326429367065</v>
       </c>
       <c r="C110" t="n">
-        <v>1.000525236129761</v>
+        <v>0.9994545578956604</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1704503297805786</v>
+        <v>-0.1705219149589539</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.188450455665588</v>
+        <v>1.187161564826965</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4708351790904999</v>
+        <v>0.4699353277683258</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7176152467727661</v>
+        <v>0.7172262668609619</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.696394443511963</v>
+        <v>1.694897770881653</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8045864105224609</v>
+        <v>0.8035789132118225</v>
       </c>
       <c r="D112" t="n">
-        <v>0.891808032989502</v>
+        <v>0.8913188576698303</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.040136694908142</v>
+        <v>1.038908362388611</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11176860332489</v>
+        <v>1.11066198348999</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07163190841674805</v>
+        <v>-0.07175362110137939</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.453919291496277</v>
+        <v>1.452521681785583</v>
       </c>
       <c r="C114" t="n">
-        <v>1.711521506309509</v>
+        <v>1.710221290588379</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2576022148132324</v>
+        <v>-0.2576996088027954</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.992599964141846</v>
+        <v>1.990982055664062</v>
       </c>
       <c r="C115" t="n">
-        <v>1.968380808830261</v>
+        <v>1.966997742652893</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02421915531158447</v>
+        <v>0.02398431301116943</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.306378245353699</v>
+        <v>1.305041193962097</v>
       </c>
       <c r="C116" t="n">
-        <v>2.463364362716675</v>
+        <v>2.461821794509888</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.156986117362976</v>
+        <v>-1.156780600547791</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69298791885376</v>
+        <v>1.691492676734924</v>
       </c>
       <c r="C117" t="n">
-        <v>2.190808296203613</v>
+        <v>2.189353466033936</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4978203773498535</v>
+        <v>-0.4978607892990112</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.716482520103455</v>
+        <v>1.714977622032166</v>
       </c>
       <c r="C118" t="n">
-        <v>1.624568581581116</v>
+        <v>1.623296499252319</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09191393852233887</v>
+        <v>0.09168112277984619</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.922702550888062</v>
+        <v>1.92111337184906</v>
       </c>
       <c r="C119" t="n">
-        <v>1.695404410362244</v>
+        <v>1.694109439849854</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2272981405258179</v>
+        <v>0.2270039319992065</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.375054955482483</v>
+        <v>1.373689651489258</v>
       </c>
       <c r="C120" t="n">
-        <v>1.678368449211121</v>
+        <v>1.67707884311676</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3033134937286377</v>
+        <v>-0.3033891916275024</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.992539048194885</v>
+        <v>1.990921139717102</v>
       </c>
       <c r="C121" t="n">
-        <v>1.684309840202332</v>
+        <v>1.683018445968628</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3082292079925537</v>
+        <v>0.3079026937484741</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.04168963432312</v>
+        <v>2.040051460266113</v>
       </c>
       <c r="C122" t="n">
-        <v>1.243792772293091</v>
+        <v>1.242643475532532</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7978968620300293</v>
+        <v>0.7974079847335815</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.3457190990448</v>
+        <v>2.343956470489502</v>
       </c>
       <c r="C123" t="n">
-        <v>2.138014554977417</v>
+        <v>2.136576652526855</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2077045440673828</v>
+        <v>0.2073798179626465</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.447523355484009</v>
+        <v>2.445719480514526</v>
       </c>
       <c r="C124" t="n">
-        <v>1.810221672058105</v>
+        <v>1.808889627456665</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6373016834259033</v>
+        <v>0.6368298530578613</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.415709972381592</v>
+        <v>2.41391921043396</v>
       </c>
       <c r="C125" t="n">
-        <v>1.619479179382324</v>
+        <v>1.618208646774292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7962307929992676</v>
+        <v>0.795710563659668</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.773328900337219</v>
+        <v>1.771800756454468</v>
       </c>
       <c r="C126" t="n">
-        <v>2.239964723587036</v>
+        <v>2.238494157791138</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4666358232498169</v>
+        <v>-0.4666934013366699</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.781262516975403</v>
+        <v>1.779731154441833</v>
       </c>
       <c r="C127" t="n">
-        <v>2.110670566558838</v>
+        <v>2.109241724014282</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3294080495834351</v>
+        <v>-0.3295105695724487</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.480290412902832</v>
+        <v>1.478882193565369</v>
       </c>
       <c r="C128" t="n">
-        <v>1.937323808670044</v>
+        <v>1.935950756072998</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4570333957672119</v>
+        <v>-0.4570685625076294</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.167969465255737</v>
+        <v>1.166688919067383</v>
       </c>
       <c r="C129" t="n">
-        <v>1.768975496292114</v>
+        <v>1.767656803131104</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.601006031036377</v>
+        <v>-0.6009678840637207</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8051391839981079</v>
+        <v>0.8040070533752441</v>
       </c>
       <c r="C130" t="n">
-        <v>2.926294803619385</v>
+        <v>2.924602746963501</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.121155738830566</v>
+        <v>-2.120595693588257</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3892830014228821</v>
+        <v>0.3883210122585297</v>
       </c>
       <c r="C131" t="n">
-        <v>2.161653757095337</v>
+        <v>2.160208225250244</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.7723708152771</v>
+        <v>-1.771887183189392</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06050147488713264</v>
+        <v>-0.06127949431538582</v>
       </c>
       <c r="C132" t="n">
-        <v>1.820266842842102</v>
+        <v>1.818931460380554</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.880768299102783</v>
+        <v>-1.880210995674133</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.09013064205646515</v>
+        <v>0.08929100632667542</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8099872469902039</v>
+        <v>0.8089779615402222</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7198566198348999</v>
+        <v>-0.7196869850158691</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1523912400007248</v>
+        <v>0.1515261381864548</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1658134013414383</v>
+        <v>0.1650119721889496</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0134221613407135</v>
+        <v>-0.01348583400249481</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3771469295024872</v>
+        <v>0.3761898875236511</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3530997633934021</v>
+        <v>0.3522379100322723</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02404716610908508</v>
+        <v>0.02395197749137878</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7271034121513367</v>
+        <v>0.7260032296180725</v>
       </c>
       <c r="C136" t="n">
-        <v>0.19686259329319</v>
+        <v>0.1960511356592178</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5302408337593079</v>
+        <v>0.5299521088600159</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5978860259056091</v>
+        <v>0.5968387126922607</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5020697116851807</v>
+        <v>0.5011597871780396</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09581631422042847</v>
+        <v>0.09567892551422119</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8393868803977966</v>
+        <v>0.8382408022880554</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9671457409858704</v>
+        <v>0.96608567237854</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1277588605880737</v>
+        <v>-0.1278448700904846</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.299184799194336</v>
+        <v>1.297850489616394</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03074312210083</v>
+        <v>1.029662609100342</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2684416770935059</v>
+        <v>0.2681878805160522</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25600802898407</v>
+        <v>1.254691600799561</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2690589427948</v>
+        <v>1.267901539802551</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01305091381072998</v>
+        <v>-0.01320993900299072</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.486358880996704</v>
+        <v>1.48494827747345</v>
       </c>
       <c r="C141" t="n">
-        <v>1.223507642745972</v>
+        <v>1.222365021705627</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2628512382507324</v>
+        <v>0.2625832557678223</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.399371147155762</v>
+        <v>1.397995948791504</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1903854012489319</v>
+        <v>0.189576044678688</v>
       </c>
       <c r="D142" t="n">
-        <v>1.208985805511475</v>
+        <v>1.208419919013977</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.759243965148926</v>
+        <v>1.757721662521362</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2779037058353424</v>
+        <v>0.2770661115646362</v>
       </c>
       <c r="D143" t="n">
-        <v>1.481340289115906</v>
+        <v>1.480655550956726</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.599080204963684</v>
+        <v>1.597623229026794</v>
       </c>
       <c r="C144" t="n">
-        <v>1.278456687927246</v>
+        <v>1.277296185493469</v>
       </c>
       <c r="D144" t="n">
-        <v>0.320623517036438</v>
+        <v>0.3203270435333252</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.706265568733215</v>
+        <v>1.70476496219635</v>
       </c>
       <c r="C145" t="n">
-        <v>1.467233777046204</v>
+        <v>1.466012477874756</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2390317916870117</v>
+        <v>0.2387524843215942</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.148007035255432</v>
+        <v>1.146734714508057</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8959499001502991</v>
+        <v>0.8949128985404968</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2520571351051331</v>
+        <v>0.2518218159675598</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7236404418945312</v>
+        <v>0.7225416898727417</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8446786999702454</v>
+        <v>0.8436582684516907</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1210382580757141</v>
+        <v>-0.121116578578949</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2840982377529144</v>
+        <v>0.2831792533397675</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2266858220100403</v>
+        <v>-0.2273606061935425</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5107840299606323</v>
+        <v>0.5105398893356323</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6785088181495667</v>
+        <v>0.6774285435676575</v>
       </c>
       <c r="C149" t="n">
-        <v>1.559056043624878</v>
+        <v>1.557805061340332</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8805472254753113</v>
+        <v>-0.8803765177726746</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.034308075904846</v>
+        <v>1.033082365989685</v>
       </c>
       <c r="C150" t="n">
-        <v>2.450977325439453</v>
+        <v>2.449438571929932</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.416669249534607</v>
+        <v>-1.416356205940247</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.323590993881226</v>
+        <v>1.322246909141541</v>
       </c>
       <c r="C151" t="n">
-        <v>1.280619263648987</v>
+        <v>1.279458165168762</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04297173023223877</v>
+        <v>0.04278874397277832</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.357315301895142</v>
+        <v>1.355957269668579</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2906647324562073</v>
+        <v>0.2898229956626892</v>
       </c>
       <c r="D152" t="n">
-        <v>1.066650629043579</v>
+        <v>1.066134214401245</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.104727029800415</v>
+        <v>2.103063106536865</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1871757805347443</v>
+        <v>0.186367467045784</v>
       </c>
       <c r="D153" t="n">
-        <v>1.917551279067993</v>
+        <v>1.916695594787598</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.991675734519958</v>
+        <v>1.990058302879333</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4552368521690369</v>
+        <v>0.4543420374393463</v>
       </c>
       <c r="D154" t="n">
-        <v>1.536438941955566</v>
+        <v>1.53571629524231</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.856801748275757</v>
+        <v>1.855239510536194</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7620892524719238</v>
+        <v>0.7610955238342285</v>
       </c>
       <c r="D155" t="n">
-        <v>1.094712495803833</v>
+        <v>1.094143986701965</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.604270458221436</v>
+        <v>1.602811455726624</v>
       </c>
       <c r="C156" t="n">
-        <v>1.355433106422424</v>
+        <v>1.354247808456421</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2488373517990112</v>
+        <v>0.2485636472702026</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.903336048126221</v>
+        <v>1.90175473690033</v>
       </c>
       <c r="C157" t="n">
-        <v>1.726034164428711</v>
+        <v>1.724729299545288</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1773018836975098</v>
+        <v>0.1770254373550415</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.541093349456787</v>
+        <v>1.539660215377808</v>
       </c>
       <c r="C158" t="n">
-        <v>1.477328419685364</v>
+        <v>1.476103782653809</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06376492977142334</v>
+        <v>0.06355643272399902</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.372317671775818</v>
+        <v>1.370953559875488</v>
       </c>
       <c r="C159" t="n">
-        <v>1.644044876098633</v>
+        <v>1.64276647567749</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2717272043228149</v>
+        <v>-0.271812915802002</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.681265592575073</v>
+        <v>1.67977511882782</v>
       </c>
       <c r="C160" t="n">
-        <v>1.733531594276428</v>
+        <v>1.732224225997925</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05226600170135498</v>
+        <v>-0.05244910717010498</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.350147843360901</v>
+        <v>1.348792791366577</v>
       </c>
       <c r="C161" t="n">
-        <v>1.685977578163147</v>
+        <v>1.684685707092285</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3358297348022461</v>
+        <v>-0.335892915725708</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5833314657211304</v>
+        <v>0.5822901129722595</v>
       </c>
       <c r="C162" t="n">
-        <v>1.876473665237427</v>
+        <v>1.875120282173157</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.293142199516296</v>
+        <v>-1.292830228805542</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3771855235099792</v>
+        <v>0.3762284815311432</v>
       </c>
       <c r="C163" t="n">
-        <v>1.350753426551819</v>
+        <v>1.349569797515869</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9735679030418396</v>
+        <v>-0.9733413457870483</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6794098615646362</v>
+        <v>0.6783291697502136</v>
       </c>
       <c r="C164" t="n">
-        <v>1.453915238380432</v>
+        <v>1.452698111534119</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7745053768157959</v>
+        <v>-0.774368941783905</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8670684099197388</v>
+        <v>0.8659109473228455</v>
       </c>
       <c r="C165" t="n">
-        <v>1.124704360961914</v>
+        <v>1.123593688011169</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2576359510421753</v>
+        <v>-0.257682740688324</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.00539755821228</v>
+        <v>1.004183530807495</v>
       </c>
       <c r="C166" t="n">
-        <v>1.257122755050659</v>
+        <v>1.255969285964966</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2517251968383789</v>
+        <v>-0.2517857551574707</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.62855339050293</v>
+        <v>1.627084493637085</v>
       </c>
       <c r="C167" t="n">
-        <v>1.618709206581116</v>
+        <v>1.617439031600952</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009844183921813965</v>
+        <v>0.009645462036132812</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.957708239555359</v>
+        <v>1.956104636192322</v>
       </c>
       <c r="C168" t="n">
-        <v>1.892225027084351</v>
+        <v>1.89086651802063</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0654832124710083</v>
+        <v>0.06523811817169189</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.184584856033325</v>
+        <v>1.183297395706177</v>
       </c>
       <c r="C169" t="n">
-        <v>1.580663800239563</v>
+        <v>1.579405784606934</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3960789442062378</v>
+        <v>-0.3961083889007568</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9803646206855774</v>
+        <v>0.9791608452796936</v>
       </c>
       <c r="C170" t="n">
-        <v>1.268131613731384</v>
+        <v>1.266974687576294</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2877669930458069</v>
+        <v>-0.2878138422966003</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9038034677505493</v>
+        <v>0.9026310443878174</v>
       </c>
       <c r="C171" t="n">
-        <v>1.019463300704956</v>
+        <v>1.018386483192444</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1156598329544067</v>
+        <v>-0.1157554388046265</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.019726514816284</v>
+        <v>1.018506646156311</v>
       </c>
       <c r="C172" t="n">
-        <v>1.858250975608826</v>
+        <v>1.856903553009033</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8385244607925415</v>
+        <v>-0.8383969068527222</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.219456076622009</v>
+        <v>1.218154430389404</v>
       </c>
       <c r="C173" t="n">
-        <v>1.652882218360901</v>
+        <v>1.651601076126099</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4334261417388916</v>
+        <v>-0.4334466457366943</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.650766134262085</v>
+        <v>1.649288058280945</v>
       </c>
       <c r="C174" t="n">
-        <v>1.850611090660095</v>
+        <v>1.849265933036804</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1998449563980103</v>
+        <v>-0.1999778747558594</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.465462803840637</v>
+        <v>1.464060544967651</v>
       </c>
       <c r="C175" t="n">
-        <v>1.890788674354553</v>
+        <v>1.889430642127991</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.425325870513916</v>
+        <v>-0.4253700971603394</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.088136792182922</v>
+        <v>1.086888909339905</v>
       </c>
       <c r="C176" t="n">
-        <v>1.926095247268677</v>
+        <v>1.924725890159607</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8379584550857544</v>
+        <v>-0.8378369808197021</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.100924253463745</v>
+        <v>1.099671244621277</v>
       </c>
       <c r="C177" t="n">
-        <v>2.050539016723633</v>
+        <v>2.049129247665405</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9496147632598877</v>
+        <v>-0.9494580030441284</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.331667304039001</v>
+        <v>1.330320000648499</v>
       </c>
       <c r="C178" t="n">
-        <v>1.956230163574219</v>
+        <v>1.954851150512695</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6245628595352173</v>
+        <v>-0.6245311498641968</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.891984224319458</v>
+        <v>1.890407562255859</v>
       </c>
       <c r="C179" t="n">
-        <v>1.436422944068909</v>
+        <v>1.435211658477783</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4555612802505493</v>
+        <v>0.4551959037780762</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.865957498550415</v>
+        <v>1.864391565322876</v>
       </c>
       <c r="C180" t="n">
-        <v>1.49523389339447</v>
+        <v>1.494003534317017</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3707236051559448</v>
+        <v>0.3703880310058594</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.429484009742737</v>
+        <v>1.428096652030945</v>
       </c>
       <c r="C181" t="n">
-        <v>1.816354751586914</v>
+        <v>1.81502091884613</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3868707418441772</v>
+        <v>-0.3869242668151855</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4896895587444305</v>
+        <v>0.4886865019798279</v>
       </c>
       <c r="C182" t="n">
-        <v>1.209890484809875</v>
+        <v>1.208752155303955</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7202008962631226</v>
+        <v>-0.7200656533241272</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8863919377326965</v>
+        <v>0.8852266073226929</v>
       </c>
       <c r="C183" t="n">
-        <v>1.484854221343994</v>
+        <v>1.483627200126648</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5984622836112976</v>
+        <v>-0.5984005928039551</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.557793736457825</v>
+        <v>1.556353807449341</v>
       </c>
       <c r="C184" t="n">
-        <v>1.757834315299988</v>
+        <v>1.756519079208374</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2000405788421631</v>
+        <v>-0.2001652717590332</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.93901515007019</v>
+        <v>1.937419176101685</v>
       </c>
       <c r="C185" t="n">
-        <v>1.660793304443359</v>
+        <v>1.659509658813477</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2782218456268311</v>
+        <v>0.277909517288208</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.967192649841309</v>
+        <v>1.965585350990295</v>
       </c>
       <c r="C186" t="n">
-        <v>1.613118290901184</v>
+        <v>1.611850023269653</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3540743589401245</v>
+        <v>0.3537353277206421</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.068496465682983</v>
+        <v>2.066847801208496</v>
       </c>
       <c r="C187" t="n">
-        <v>1.467355728149414</v>
+        <v>1.466134428977966</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6011407375335693</v>
+        <v>0.6007133722305298</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.351809024810791</v>
+        <v>2.350044012069702</v>
       </c>
       <c r="C188" t="n">
-        <v>1.502065420150757</v>
+        <v>1.500832796096802</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8497436046600342</v>
+        <v>0.8492112159729004</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.902428865432739</v>
+        <v>2.900438785552979</v>
       </c>
       <c r="C189" t="n">
-        <v>1.662780284881592</v>
+        <v>1.661495923995972</v>
       </c>
       <c r="D189" t="n">
-        <v>1.239648580551147</v>
+        <v>1.238942861557007</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.115957498550415</v>
+        <v>3.113880157470703</v>
       </c>
       <c r="C190" t="n">
-        <v>1.266681909561157</v>
+        <v>1.265525221824646</v>
       </c>
       <c r="D190" t="n">
-        <v>1.849275588989258</v>
+        <v>1.848354935646057</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.100090265274048</v>
+        <v>3.098019361495972</v>
       </c>
       <c r="C191" t="n">
-        <v>1.557797074317932</v>
+        <v>1.556546688079834</v>
       </c>
       <c r="D191" t="n">
-        <v>1.542293190956116</v>
+        <v>1.541472673416138</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.854702711105347</v>
+        <v>2.852732181549072</v>
       </c>
       <c r="C192" t="n">
-        <v>1.864640355110168</v>
+        <v>1.863290905952454</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9900623559951782</v>
+        <v>0.9894412755966187</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.929189443588257</v>
+        <v>2.927188158035278</v>
       </c>
       <c r="C193" t="n">
-        <v>2.931333303451538</v>
+        <v>2.929639577865601</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.00214385986328125</v>
+        <v>-0.002451419830322266</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.835390329360962</v>
+        <v>2.833427906036377</v>
       </c>
       <c r="C194" t="n">
-        <v>3.518733501434326</v>
+        <v>3.516849994659424</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6833431720733643</v>
+        <v>-0.6834220886230469</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.278531789779663</v>
+        <v>2.27679705619812</v>
       </c>
       <c r="C195" t="n">
-        <v>3.298158407211304</v>
+        <v>3.296346187591553</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.019626617431641</v>
+        <v>-1.019549131393433</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.105153560638428</v>
+        <v>3.10308051109314</v>
       </c>
       <c r="C196" t="n">
-        <v>3.724226236343384</v>
+        <v>3.72227668762207</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6190726757049561</v>
+        <v>-0.6191961765289307</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.900067090988159</v>
+        <v>2.898078203201294</v>
       </c>
       <c r="C197" t="n">
-        <v>3.515188217163086</v>
+        <v>3.513306140899658</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6151211261749268</v>
+        <v>-0.6152279376983643</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.013554811477661</v>
+        <v>2.011928558349609</v>
       </c>
       <c r="C198" t="n">
-        <v>3.185100793838501</v>
+        <v>3.183325290679932</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.17154598236084</v>
+        <v>-1.171396732330322</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.054706692695618</v>
+        <v>1.053472518920898</v>
       </c>
       <c r="C199" t="n">
-        <v>2.610669136047363</v>
+        <v>2.609078645706177</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.555962443351746</v>
+        <v>-1.555606126785278</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4213148653507233</v>
+        <v>0.4203397631645203</v>
       </c>
       <c r="C200" t="n">
-        <v>2.87650465965271</v>
+        <v>2.874828577041626</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.45518970489502</v>
+        <v>-2.454488754272461</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.443617463111877</v>
+        <v>1.442224264144897</v>
       </c>
       <c r="C201" t="n">
-        <v>2.634114027023315</v>
+        <v>2.632516145706177</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.190496563911438</v>
+        <v>-1.190291881561279</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.064275622367859</v>
+        <v>1.063037514686584</v>
       </c>
       <c r="C202" t="n">
-        <v>2.737382411956787</v>
+        <v>2.735751152038574</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.673106789588928</v>
+        <v>-1.67271363735199</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.092440009117126</v>
+        <v>1.091190338134766</v>
       </c>
       <c r="C203" t="n">
-        <v>2.485628604888916</v>
+        <v>2.484078645706177</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.39318859577179</v>
+        <v>-1.392888307571411</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.30021607875824</v>
+        <v>1.298881530761719</v>
       </c>
       <c r="C204" t="n">
-        <v>2.118571996688843</v>
+        <v>2.117140531539917</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.818355917930603</v>
+        <v>-0.8182590007781982</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.284973859786987</v>
+        <v>1.283645510673523</v>
       </c>
       <c r="C205" t="n">
-        <v>1.827086687088013</v>
+        <v>1.825749278068542</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5421128273010254</v>
+        <v>-0.5421037673950195</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.053192973136902</v>
+        <v>1.05195939540863</v>
       </c>
       <c r="C206" t="n">
-        <v>1.105507969856262</v>
+        <v>1.104403376579285</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05231499671936035</v>
+        <v>-0.0524439811706543</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.208866715431213</v>
+        <v>1.207569599151611</v>
       </c>
       <c r="C207" t="n">
-        <v>0.965103805065155</v>
+        <v>0.9640445709228516</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2437629103660583</v>
+        <v>0.2435250282287598</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.47745680809021</v>
+        <v>1.476049780845642</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7692707777023315</v>
+        <v>0.7682746052742004</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7081860303878784</v>
+        <v>0.7077751755714417</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.51849639415741</v>
+        <v>1.517072558403015</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5881698131561279</v>
+        <v>0.5872321128845215</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9303265810012817</v>
+        <v>0.9298404455184937</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.869324445724487</v>
+        <v>1.867757081985474</v>
       </c>
       <c r="C210" t="n">
-        <v>0.687265932559967</v>
+        <v>0.6862962245941162</v>
       </c>
       <c r="D210" t="n">
-        <v>1.182058572769165</v>
+        <v>1.181460857391357</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.61909806728363</v>
+        <v>1.617632985115051</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8443695306777954</v>
+        <v>0.8433491587638855</v>
       </c>
       <c r="D211" t="n">
-        <v>0.774728536605835</v>
+        <v>0.7742838263511658</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.071815729141235</v>
+        <v>2.070165634155273</v>
       </c>
       <c r="C212" t="n">
-        <v>1.127081155776978</v>
+        <v>1.125969529151917</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9447345733642578</v>
+        <v>0.9441961050033569</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.157691717147827</v>
+        <v>2.156006336212158</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5266827344894409</v>
+        <v>0.5257648825645447</v>
       </c>
       <c r="D213" t="n">
-        <v>1.631008982658386</v>
+        <v>1.630241394042969</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.916574239730835</v>
+        <v>1.914987564086914</v>
       </c>
       <c r="C214" t="n">
-        <v>1.038208723068237</v>
+        <v>1.037125706672668</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8783655166625977</v>
+        <v>0.8778618574142456</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.056206226348877</v>
+        <v>2.054562330245972</v>
       </c>
       <c r="C215" t="n">
-        <v>1.188570618629456</v>
+        <v>1.187439203262329</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8676356077194214</v>
+        <v>0.8671231269836426</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.9274982213974</v>
+        <v>1.925907135009766</v>
       </c>
       <c r="C216" t="n">
-        <v>1.423709630966187</v>
+        <v>1.422502398490906</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5037885904312134</v>
+        <v>0.5034047365188599</v>
       </c>
     </row>
     <row r="217">
@@ -3476,13 +3476,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.005376219749451</v>
+        <v>1.004162192344666</v>
       </c>
       <c r="C217" t="n">
-        <v>1.22467827796936</v>
+        <v>1.223535180091858</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2193020582199097</v>
+        <v>-0.2193729877471924</v>
       </c>
     </row>
     <row r="218">
@@ -3490,13 +3490,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7417097687721252</v>
+        <v>0.7406035661697388</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5167989134788513</v>
+        <v>0.5158842206001282</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2249108552932739</v>
+        <v>0.2247193455696106</v>
       </c>
     </row>
     <row r="219">
@@ -3504,13 +3504,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.515246272087097</v>
+        <v>1.513823747634888</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5063766837120056</v>
+        <v>0.5054653882980347</v>
       </c>
       <c r="D219" t="n">
-        <v>1.008869647979736</v>
+        <v>1.008358359336853</v>
       </c>
     </row>
     <row r="220">
@@ -3518,13 +3518,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.377355456352234</v>
+        <v>1.375989198684692</v>
       </c>
       <c r="C220" t="n">
-        <v>1.212300658226013</v>
+        <v>1.211161613464355</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1650547981262207</v>
+        <v>0.1648275852203369</v>
       </c>
     </row>
     <row r="221">
@@ -3532,13 +3532,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.51256537437439</v>
+        <v>1.511143922805786</v>
       </c>
       <c r="C221" t="n">
-        <v>1.430241703987122</v>
+        <v>1.429032206535339</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08232367038726807</v>
+        <v>0.08211171627044678</v>
       </c>
     </row>
     <row r="222">
@@ -3546,13 +3546,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.309515595436096</v>
+        <v>1.30817723274231</v>
       </c>
       <c r="C222" t="n">
-        <v>1.012188076972961</v>
+        <v>1.011113524436951</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2973275184631348</v>
+        <v>0.2970637083053589</v>
       </c>
     </row>
     <row r="223">
@@ -3560,13 +3560,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9534351825714111</v>
+        <v>0.9522424340248108</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7399920225143433</v>
+        <v>0.7390053272247314</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2134431600570679</v>
+        <v>0.2132371068000793</v>
       </c>
     </row>
     <row r="224">
@@ -3574,13 +3574,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.113666772842407</v>
+        <v>1.112408638000488</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4325853884220123</v>
+        <v>0.4316978752613068</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6810814142227173</v>
+        <v>0.6807107925415039</v>
       </c>
     </row>
     <row r="225">
@@ -3588,13 +3588,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.510566115379333</v>
+        <v>1.509145498275757</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5821095705032349</v>
+        <v>0.5811737775802612</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9284565448760986</v>
+        <v>0.9279717206954956</v>
       </c>
     </row>
     <row r="226">
@@ -3602,13 +3602,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.866515278816223</v>
+        <v>1.864949107170105</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08211133629083633</v>
+        <v>0.08133690804243088</v>
       </c>
       <c r="D226" t="n">
-        <v>1.784403920173645</v>
+        <v>1.783612251281738</v>
       </c>
     </row>
     <row r="227">
@@ -3616,13 +3616,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.676633238792419</v>
+        <v>1.675144672393799</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4912488162517548</v>
+        <v>0.490342378616333</v>
       </c>
       <c r="D227" t="n">
-        <v>1.185384392738342</v>
+        <v>1.184802293777466</v>
       </c>
     </row>
     <row r="228">
@@ -3630,13 +3630,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.1133713722229</v>
+        <v>2.111704111099243</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8979097604751587</v>
+        <v>0.8968721628189087</v>
       </c>
       <c r="D228" t="n">
-        <v>1.215461611747742</v>
+        <v>1.214831948280334</v>
       </c>
     </row>
     <row r="229">
@@ -3644,13 +3644,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>2.011656999588013</v>
+        <v>2.010031461715698</v>
       </c>
       <c r="C229" t="n">
-        <v>1.21646785736084</v>
+        <v>1.215327501296997</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7951891422271729</v>
+        <v>0.7947039604187012</v>
       </c>
     </row>
     <row r="230">
@@ -3658,13 +3658,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>2.004339456558228</v>
+        <v>2.002716779708862</v>
       </c>
       <c r="C230" t="n">
-        <v>1.759531617164612</v>
+        <v>1.758216142654419</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2448078393936157</v>
+        <v>0.2445006370544434</v>
       </c>
     </row>
     <row r="231">
@@ -3672,13 +3672,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.704223871231079</v>
+        <v>1.702723979949951</v>
       </c>
       <c r="C231" t="n">
-        <v>1.810974478721619</v>
+        <v>1.809642195701599</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1067506074905396</v>
+        <v>-0.1069182157516479</v>
       </c>
     </row>
     <row r="232">
@@ -3686,13 +3686,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.724378347396851</v>
+        <v>1.722870111465454</v>
       </c>
       <c r="C232" t="n">
-        <v>1.584910273551941</v>
+        <v>1.583651065826416</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1394680738449097</v>
+        <v>0.1392190456390381</v>
       </c>
     </row>
     <row r="233">
@@ -3700,13 +3700,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.222900629043579</v>
+        <v>2.22118878364563</v>
       </c>
       <c r="C233" t="n">
-        <v>1.625729203224182</v>
+        <v>1.624456763267517</v>
       </c>
       <c r="D233" t="n">
-        <v>0.597171425819397</v>
+        <v>0.5967320203781128</v>
       </c>
     </row>
     <row r="234">
@@ -3714,13 +3714,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.697570323944092</v>
+        <v>2.695664167404175</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9563027024269104</v>
+        <v>0.9552463293075562</v>
       </c>
       <c r="D234" t="n">
-        <v>1.741267681121826</v>
+        <v>1.740417838096619</v>
       </c>
     </row>
     <row r="235">
@@ -3728,13 +3728,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.339435338973999</v>
+        <v>2.33767557144165</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3124608099460602</v>
+        <v>0.3116120398044586</v>
       </c>
       <c r="D235" t="n">
-        <v>2.026974439620972</v>
+        <v>2.026063442230225</v>
       </c>
     </row>
     <row r="236">
@@ -3742,13 +3742,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.156119346618652</v>
+        <v>2.154434680938721</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3541315197944641</v>
+        <v>0.3532693386077881</v>
       </c>
       <c r="D236" t="n">
-        <v>1.801987886428833</v>
+        <v>1.801165342330933</v>
       </c>
     </row>
     <row r="237">
@@ -3756,13 +3756,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.689591407775879</v>
+        <v>2.687688589096069</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.606181263923645</v>
+        <v>-0.6067336201667786</v>
       </c>
       <c r="D237" t="n">
-        <v>3.295772552490234</v>
+        <v>3.294422149658203</v>
       </c>
     </row>
     <row r="238">
@@ -3770,13 +3770,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.263670682907104</v>
+        <v>2.261941909790039</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.143992781639099</v>
+        <v>-1.144371509552002</v>
       </c>
       <c r="D238" t="n">
-        <v>3.407663345336914</v>
+        <v>3.406313419342041</v>
       </c>
     </row>
     <row r="239">
@@ -3784,13 +3784,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.616911888122559</v>
+        <v>2.615038871765137</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.483837008476257</v>
+        <v>-1.484106302261353</v>
       </c>
       <c r="D239" t="n">
-        <v>4.100749015808105</v>
+        <v>4.09914493560791</v>
       </c>
     </row>
     <row r="240">
@@ -3798,13 +3798,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.792626619338989</v>
+        <v>2.790681600570679</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8697546124458313</v>
+        <v>-0.8702219128608704</v>
       </c>
       <c r="D240" t="n">
-        <v>3.662381172180176</v>
+        <v>3.660903453826904</v>
       </c>
     </row>
     <row r="241">
@@ -3812,13 +3812,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.319122552871704</v>
+        <v>2.317370891571045</v>
       </c>
       <c r="C241" t="n">
-        <v>1.311125993728638</v>
+        <v>1.309954881668091</v>
       </c>
       <c r="D241" t="n">
-        <v>1.007996559143066</v>
+        <v>1.007416009902954</v>
       </c>
     </row>
     <row r="242">
@@ -3826,13 +3826,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.633651256561279</v>
+        <v>2.631771087646484</v>
       </c>
       <c r="C242" t="n">
-        <v>2.348713397979736</v>
+        <v>2.347207546234131</v>
       </c>
       <c r="D242" t="n">
-        <v>0.284937858581543</v>
+        <v>0.2845635414123535</v>
       </c>
     </row>
     <row r="243">
@@ -3840,13 +3840,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.019092082977295</v>
+        <v>2.017463207244873</v>
       </c>
       <c r="C243" t="n">
-        <v>2.620352029800415</v>
+        <v>2.618758678436279</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6012599468231201</v>
+        <v>-0.6012954711914062</v>
       </c>
     </row>
     <row r="244">
@@ -3854,13 +3854,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.198270559310913</v>
+        <v>2.196568727493286</v>
       </c>
       <c r="C244" t="n">
-        <v>2.506446599960327</v>
+        <v>2.504889965057373</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3081760406494141</v>
+        <v>-0.3083212375640869</v>
       </c>
     </row>
     <row r="245">
@@ -3868,13 +3868,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.247559785842896</v>
+        <v>2.245837688446045</v>
       </c>
       <c r="C245" t="n">
-        <v>2.49382472038269</v>
+        <v>2.492271900177002</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2462649345397949</v>
+        <v>-0.246434211730957</v>
       </c>
     </row>
     <row r="246">
@@ -3882,13 +3882,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.316285848617554</v>
+        <v>2.31453537940979</v>
       </c>
       <c r="C246" t="n">
-        <v>1.529646396636963</v>
+        <v>1.528404831886292</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7866394519805908</v>
+        <v>0.7861305475234985</v>
       </c>
     </row>
     <row r="247">
@@ -3896,13 +3896,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.20366907119751</v>
+        <v>2.201964616775513</v>
       </c>
       <c r="C247" t="n">
-        <v>1.160906314849854</v>
+        <v>1.159783840179443</v>
       </c>
       <c r="D247" t="n">
-        <v>1.042762756347656</v>
+        <v>1.042180776596069</v>
       </c>
     </row>
     <row r="248">
@@ -3910,13 +3910,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.034216403961182</v>
+        <v>2.032581567764282</v>
       </c>
       <c r="C248" t="n">
-        <v>1.58748733997345</v>
+        <v>1.586227297782898</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4467290639877319</v>
+        <v>0.4463542699813843</v>
       </c>
     </row>
     <row r="249">
@@ -3924,13 +3924,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.537747025489807</v>
+        <v>1.536315321922302</v>
       </c>
       <c r="C249" t="n">
-        <v>1.99278736114502</v>
+        <v>1.991396546363831</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4550403356552124</v>
+        <v>-0.4550812244415283</v>
       </c>
     </row>
     <row r="250">
@@ -3938,13 +3938,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.259922504425049</v>
+        <v>1.258604407310486</v>
       </c>
       <c r="C250" t="n">
-        <v>1.542608380317688</v>
+        <v>1.541362643241882</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2826858758926392</v>
+        <v>-0.2827582359313965</v>
       </c>
     </row>
     <row r="251">
@@ -3952,13 +3952,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.770880937576294</v>
+        <v>1.769353747367859</v>
       </c>
       <c r="C251" t="n">
-        <v>1.353416562080383</v>
+        <v>1.352231979370117</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4174643754959106</v>
+        <v>0.4171217679977417</v>
       </c>
     </row>
     <row r="252">
@@ -3966,13 +3966,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.497630476951599</v>
+        <v>1.496215224266052</v>
       </c>
       <c r="C252" t="n">
-        <v>1.215116858482361</v>
+        <v>1.213976740837097</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2825136184692383</v>
+        <v>0.2822384834289551</v>
       </c>
     </row>
     <row r="253">
@@ -3980,13 +3980,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.221301794052124</v>
+        <v>1.219999432563782</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7550068497657776</v>
+        <v>0.7540152668952942</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4662949442863464</v>
+        <v>0.4659841656684875</v>
       </c>
     </row>
     <row r="254">
@@ -3994,13 +3994,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4933269619941711</v>
+        <v>0.4923224151134491</v>
       </c>
       <c r="C254" t="n">
-        <v>0.002591877011582255</v>
+        <v>0.001843106583692133</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4907350838184357</v>
+        <v>0.4904793202877045</v>
       </c>
     </row>
     <row r="255">
@@ -4008,13 +4008,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8127313852310181</v>
+        <v>0.811596155166626</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3307620882987976</v>
+        <v>0.3299074470996857</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4819692969322205</v>
+        <v>0.4816887080669403</v>
       </c>
     </row>
     <row r="256">
@@ -4022,13 +4022,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.161190152168274</v>
+        <v>1.159912467002869</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8055924773216248</v>
+        <v>0.8045846223831177</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3555976748466492</v>
+        <v>0.355327844619751</v>
       </c>
     </row>
     <row r="257">
@@ -4036,13 +4036,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.114163041114807</v>
+        <v>1.11290454864502</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6027128100395203</v>
+        <v>0.6017704010009766</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5114502310752869</v>
+        <v>0.511134147644043</v>
       </c>
     </row>
     <row r="258">
@@ -4050,13 +4050,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6733908653259277</v>
+        <v>0.6723126769065857</v>
       </c>
       <c r="C258" t="n">
-        <v>1.285396099090576</v>
+        <v>1.284233450889587</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6120052337646484</v>
+        <v>-0.6119207739830017</v>
       </c>
     </row>
     <row r="259">
@@ -4064,13 +4064,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8774548768997192</v>
+        <v>0.8762932419776917</v>
       </c>
       <c r="C259" t="n">
-        <v>1.816455602645874</v>
+        <v>1.815121650695801</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9390007257461548</v>
+        <v>-0.9388284087181091</v>
       </c>
     </row>
     <row r="260">
@@ -4078,13 +4078,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.165531396865845</v>
+        <v>1.164251804351807</v>
       </c>
       <c r="C260" t="n">
-        <v>2.262422561645508</v>
+        <v>2.260944604873657</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.096891164779663</v>
+        <v>-1.096692800521851</v>
       </c>
     </row>
     <row r="261">
@@ -4092,13 +4092,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.292570352554321</v>
+        <v>1.291238784790039</v>
       </c>
       <c r="C261" t="n">
-        <v>1.907760620117188</v>
+        <v>1.906397223472595</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6151902675628662</v>
+        <v>-0.6151584386825562</v>
       </c>
     </row>
     <row r="262">
@@ -4106,13 +4106,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.503259658813477</v>
+        <v>1.501842141151428</v>
       </c>
       <c r="C262" t="n">
-        <v>1.436903476715088</v>
+        <v>1.435691833496094</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06635618209838867</v>
+        <v>0.06615030765533447</v>
       </c>
     </row>
     <row r="263">
@@ -4120,13 +4120,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.183750867843628</v>
+        <v>1.182463765144348</v>
       </c>
       <c r="C263" t="n">
-        <v>2.191101312637329</v>
+        <v>2.189646482467651</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.007350444793701</v>
+        <v>-1.007182717323303</v>
       </c>
     </row>
     <row r="264">
@@ -4134,13 +4134,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.161913514137268</v>
+        <v>1.160635590553284</v>
       </c>
       <c r="C264" t="n">
-        <v>1.758469700813293</v>
+        <v>1.75715434551239</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5965561866760254</v>
+        <v>-0.5965187549591064</v>
       </c>
     </row>
     <row r="265">
@@ -4148,13 +4148,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.324070453643799</v>
+        <v>1.322726130485535</v>
       </c>
       <c r="C265" t="n">
-        <v>1.747398138046265</v>
+        <v>1.746086597442627</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4233276844024658</v>
+        <v>-0.4233604669570923</v>
       </c>
     </row>
     <row r="266">
@@ -4162,13 +4162,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.678698897361755</v>
+        <v>1.677209496498108</v>
       </c>
       <c r="C266" t="n">
-        <v>2.309735059738159</v>
+        <v>2.308241844177246</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6310361623764038</v>
+        <v>-0.6310323476791382</v>
       </c>
     </row>
     <row r="267">
@@ -4176,13 +4176,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9113476872444153</v>
+        <v>0.9101721048355103</v>
       </c>
       <c r="C267" t="n">
-        <v>1.705670356750488</v>
+        <v>1.704372048377991</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.794322669506073</v>
+        <v>-0.7941999435424805</v>
       </c>
     </row>
     <row r="268">
@@ -4190,13 +4190,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.084521889686584</v>
+        <v>1.083275437355042</v>
       </c>
       <c r="C268" t="n">
-        <v>1.316978573799133</v>
+        <v>1.315805554389954</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2324566841125488</v>
+        <v>-0.2325301170349121</v>
       </c>
     </row>
     <row r="269">
@@ -4204,13 +4204,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.158812403678894</v>
+        <v>1.157535552978516</v>
       </c>
       <c r="C269" t="n">
-        <v>1.963936328887939</v>
+        <v>1.962554693222046</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8051239252090454</v>
+        <v>-0.8050191402435303</v>
       </c>
     </row>
     <row r="270">
@@ -4218,13 +4218,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9977657198905945</v>
+        <v>0.9965547919273376</v>
       </c>
       <c r="C270" t="n">
-        <v>2.165802478790283</v>
+        <v>2.164355754852295</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.168036699295044</v>
+        <v>-1.167800903320312</v>
       </c>
     </row>
     <row r="271">
@@ -4232,13 +4232,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9282144904136658</v>
+        <v>0.9270320534706116</v>
       </c>
       <c r="C271" t="n">
-        <v>2.420209884643555</v>
+        <v>2.418681144714355</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.491995334625244</v>
+        <v>-1.491649150848389</v>
       </c>
     </row>
     <row r="272">
@@ -4246,13 +4246,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1114538833498955</v>
+        <v>0.1106055229902267</v>
       </c>
       <c r="C272" t="n">
-        <v>2.44383692741394</v>
+        <v>2.442300319671631</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.332383155822754</v>
+        <v>-2.331694841384888</v>
       </c>
     </row>
     <row r="273">
@@ -4260,13 +4260,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3966918885707855</v>
+        <v>0.3957268595695496</v>
       </c>
       <c r="C273" t="n">
-        <v>2.710497379302979</v>
+        <v>2.708874940872192</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.31380558013916</v>
+        <v>-2.313148021697998</v>
       </c>
     </row>
     <row r="274">
@@ -4274,13 +4274,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4978612065315247</v>
+        <v>0.4968548119068146</v>
       </c>
       <c r="C274" t="n">
-        <v>2.362452983856201</v>
+        <v>2.360942840576172</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.864591836929321</v>
+        <v>-1.86408805847168</v>
       </c>
     </row>
     <row r="275">
@@ -4288,13 +4288,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3063884377479553</v>
+        <v>0.3054603338241577</v>
       </c>
       <c r="C275" t="n">
-        <v>1.865923523902893</v>
+        <v>1.86457359790802</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.559535026550293</v>
+        <v>-1.559113264083862</v>
       </c>
     </row>
     <row r="276">
@@ -4302,13 +4302,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4248798787593842</v>
+        <v>0.4239033460617065</v>
       </c>
       <c r="C276" t="n">
-        <v>1.391779184341431</v>
+        <v>1.390582203865051</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9668992757797241</v>
+        <v>-0.9666788578033447</v>
       </c>
     </row>
     <row r="277">
@@ -4316,13 +4316,13 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8419682383537292</v>
+        <v>0.8408210277557373</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9251882433891296</v>
+        <v>0.9241417646408081</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08322000503540039</v>
+        <v>-0.0833207368850708</v>
       </c>
     </row>
     <row r="278">
@@ -4330,13 +4330,13 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7805642485618591</v>
+        <v>0.7794421911239624</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5619191527366638</v>
+        <v>0.5609899163246155</v>
       </c>
       <c r="D278" t="n">
-        <v>0.2186450958251953</v>
+        <v>0.2184522747993469</v>
       </c>
     </row>
     <row r="279">
@@ -4344,13 +4344,13 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6577976942062378</v>
+        <v>0.6567258238792419</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.07102964073419571</v>
+        <v>-0.07175466418266296</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7288273572921753</v>
+        <v>0.7284804582595825</v>
       </c>
     </row>
     <row r="280">
@@ -4358,13 +4358,13 @@
         <v>44986</v>
       </c>
       <c r="B280" t="n">
-        <v>1.139868855476379</v>
+        <v>1.138599753379822</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2500336170196533</v>
+        <v>0.249205008149147</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8898352384567261</v>
+        <v>0.8893947601318359</v>
       </c>
     </row>
     <row r="281">
@@ -4372,13 +4372,27 @@
         <v>45017</v>
       </c>
       <c r="B281" t="n">
-        <v>2.093248844146729</v>
+        <v>2.09158992767334</v>
       </c>
       <c r="C281" t="n">
-        <v>1.297248840332031</v>
+        <v>1.296082496643066</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7960000038146973</v>
+        <v>0.7955074310302734</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.631149053573608</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.51971423625946</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.1114348173141479</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8079120516777039</v>
+        <v>0.8067861199378967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7857309579849243</v>
+        <v>0.7845572233200073</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02218109369277954</v>
+        <v>0.0222288966178894</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8346008658409119</v>
+        <v>0.8334640860557556</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2618866562843323</v>
+        <v>-0.2625942528247833</v>
       </c>
       <c r="D3" t="n">
-        <v>1.096487522125244</v>
+        <v>1.096058368682861</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9108210206031799</v>
+        <v>0.9096534848213196</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7689932584762573</v>
+        <v>-0.7694752812385559</v>
       </c>
       <c r="D4" t="n">
-        <v>1.679814338684082</v>
+        <v>1.679128766059875</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4866054952144623</v>
+        <v>0.4856094121932983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08621877431869507</v>
+        <v>0.08535628765821457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4003867208957672</v>
+        <v>0.4002531170845032</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7115944027900696</v>
+        <v>0.710507333278656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01531669497489929</v>
+        <v>0.01448575034737587</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6962777376174927</v>
+        <v>0.696021556854248</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07635313272476196</v>
+        <v>0.07552284747362137</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1475106626749039</v>
+        <v>-0.1482691466808319</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2238637953996658</v>
+        <v>0.2237919867038727</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6668543815612793</v>
+        <v>0.6657853722572327</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4477583765983582</v>
+        <v>0.4467349946498871</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2190960049629211</v>
+        <v>0.2190503776073456</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.035573720932007</v>
+        <v>1.034355759620667</v>
       </c>
       <c r="C9" t="n">
-        <v>1.161720514297485</v>
+        <v>1.160379409790039</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1261467933654785</v>
+        <v>-0.1260236501693726</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.408568501472473</v>
+        <v>1.407199859619141</v>
       </c>
       <c r="C10" t="n">
-        <v>1.126694321632385</v>
+        <v>1.12536895275116</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2818741798400879</v>
+        <v>0.281830906867981</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9691711664199829</v>
+        <v>0.9679800271987915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9658207893371582</v>
+        <v>0.9645669460296631</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003350377082824707</v>
+        <v>0.003413081169128418</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.05178165435791</v>
+        <v>1.050557017326355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8051508069038391</v>
+        <v>0.8039684295654297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246630847454071</v>
+        <v>0.2465885877609253</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7335364818572998</v>
+        <v>0.7324405908584595</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3167314529418945</v>
+        <v>0.3157663941383362</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4168050289154053</v>
+        <v>0.4166741967201233</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2408037334680557</v>
+        <v>0.23990698158741</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05226493999361992</v>
+        <v>-0.05306581407785416</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2930686771869659</v>
+        <v>0.2929728031158447</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5057892203330994</v>
+        <v>0.504785418510437</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3900687694549561</v>
+        <v>-0.3907193541526794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8958579897880554</v>
+        <v>0.8955047726631165</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.178728342056274</v>
+        <v>1.177452564239502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2437851876020432</v>
+        <v>0.242852583527565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9349431395530701</v>
+        <v>0.9345999956130981</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.017649173736572</v>
+        <v>1.016438484191895</v>
       </c>
       <c r="C17" t="n">
-        <v>1.051595687866211</v>
+        <v>1.05030369758606</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03394651412963867</v>
+        <v>-0.03386521339416504</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.097742319107056</v>
+        <v>1.09649932384491</v>
       </c>
       <c r="C18" t="n">
-        <v>1.844826340675354</v>
+        <v>1.843181252479553</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7470840215682983</v>
+        <v>-0.7466819286346436</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.029076933860779</v>
+        <v>1.027861475944519</v>
       </c>
       <c r="C19" t="n">
-        <v>1.175545215606689</v>
+        <v>1.174197912216187</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1464682817459106</v>
+        <v>-0.1463364362716675</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4101558923721313</v>
+        <v>0.4091907143592834</v>
       </c>
       <c r="C20" t="n">
-        <v>1.995662212371826</v>
+        <v>1.993950128555298</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.585506319999695</v>
+        <v>-1.584759473800659</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7183483242988586</v>
+        <v>0.7172585725784302</v>
       </c>
       <c r="C21" t="n">
-        <v>1.374481201171875</v>
+        <v>1.373045444488525</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6561328768730164</v>
+        <v>-0.6557868719100952</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.706515371799469</v>
+        <v>0.7054303884506226</v>
       </c>
       <c r="C22" t="n">
-        <v>1.491439700126648</v>
+        <v>1.489952087402344</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.784924328327179</v>
+        <v>-0.7845216989517212</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3926956653594971</v>
+        <v>0.3917375504970551</v>
       </c>
       <c r="C23" t="n">
-        <v>1.318020105361938</v>
+        <v>1.316609621047974</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9253244400024414</v>
+        <v>-0.9248720407485962</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6714091300964355</v>
+        <v>0.6703382730484009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8403842449188232</v>
+        <v>0.8391861915588379</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1689751148223877</v>
+        <v>-0.168847918510437</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.099444508552551</v>
+        <v>1.098200798034668</v>
       </c>
       <c r="C25" t="n">
-        <v>1.002223372459412</v>
+        <v>1.000953316688538</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09722113609313965</v>
+        <v>0.09724748134613037</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8910565972328186</v>
+        <v>0.8898970484733582</v>
       </c>
       <c r="C26" t="n">
-        <v>1.522075533866882</v>
+        <v>1.52057409286499</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6310189366340637</v>
+        <v>-0.6306770443916321</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.139392495155334</v>
+        <v>1.138132572174072</v>
       </c>
       <c r="C27" t="n">
-        <v>0.732336163520813</v>
+        <v>0.7311862111091614</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4070563316345215</v>
+        <v>0.4069463610649109</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.171211004257202</v>
+        <v>1.169938325881958</v>
       </c>
       <c r="C28" t="n">
-        <v>1.972694039344788</v>
+        <v>1.970992088317871</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8014830350875854</v>
+        <v>-0.8010537624359131</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9068832993507385</v>
+        <v>0.9057173728942871</v>
       </c>
       <c r="C29" t="n">
-        <v>1.826252102851868</v>
+        <v>1.824615478515625</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9193688035011292</v>
+        <v>-0.9188981056213379</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4882943630218506</v>
+        <v>0.4872975945472717</v>
       </c>
       <c r="C30" t="n">
-        <v>1.599884033203125</v>
+        <v>1.598347902297974</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.111589670181274</v>
+        <v>-1.111050367355347</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7540236115455627</v>
+        <v>0.7529194951057434</v>
       </c>
       <c r="C31" t="n">
-        <v>1.223489999771118</v>
+        <v>1.222121357917786</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4694663882255554</v>
+        <v>-0.4692018628120422</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8527378439903259</v>
+        <v>0.8515937924385071</v>
       </c>
       <c r="C32" t="n">
-        <v>1.383453965187073</v>
+        <v>1.382014274597168</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5307161211967468</v>
+        <v>-0.5304204821586609</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6955512762069702</v>
+        <v>0.6944707036018372</v>
       </c>
       <c r="C33" t="n">
-        <v>1.318226337432861</v>
+        <v>1.316815614700317</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6226750612258911</v>
+        <v>-0.6223449110984802</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>1.999562382698059</v>
+        <v>1.997954845428467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5249987840652466</v>
+        <v>0.5239410400390625</v>
       </c>
       <c r="D34" t="n">
-        <v>1.474563598632812</v>
+        <v>1.474013805389404</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.457978844642639</v>
+        <v>1.456590175628662</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1160077825188637</v>
+        <v>-0.1167802959680557</v>
       </c>
       <c r="D35" t="n">
-        <v>1.573986649513245</v>
+        <v>1.573370456695557</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.20519495010376</v>
+        <v>1.203908443450928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5159477591514587</v>
+        <v>0.5148940682411194</v>
       </c>
       <c r="D36" t="n">
-        <v>0.689247190952301</v>
+        <v>0.6890143752098083</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.487873077392578</v>
+        <v>1.486472368240356</v>
       </c>
       <c r="C37" t="n">
-        <v>2.020750284194946</v>
+        <v>2.0190269947052</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5328772068023682</v>
+        <v>-0.5325546264648438</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.325040102005005</v>
+        <v>1.323705196380615</v>
       </c>
       <c r="C38" t="n">
-        <v>2.14176607131958</v>
+        <v>2.139988899230957</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8167259693145752</v>
+        <v>-0.8162837028503418</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.96291971206665</v>
+        <v>1.961326837539673</v>
       </c>
       <c r="C39" t="n">
-        <v>1.632219076156616</v>
+        <v>1.630668640136719</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3307006359100342</v>
+        <v>0.3306581974029541</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.738094568252563</v>
+        <v>1.736592531204224</v>
       </c>
       <c r="C40" t="n">
-        <v>1.099943280220032</v>
+        <v>1.098629713058472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6381512880325317</v>
+        <v>0.637962818145752</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.814566016197205</v>
+        <v>1.81303334236145</v>
       </c>
       <c r="C41" t="n">
-        <v>1.63568377494812</v>
+        <v>1.634131908416748</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1788822412490845</v>
+        <v>0.1789014339447021</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.748993873596191</v>
+        <v>1.747487664222717</v>
       </c>
       <c r="C42" t="n">
-        <v>1.173134922981262</v>
+        <v>1.171788811683655</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5758589506149292</v>
+        <v>0.5756988525390625</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.596615672111511</v>
+        <v>1.595170855522156</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6991634368896484</v>
+        <v>0.6980282068252563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8974522352218628</v>
+        <v>0.8971426486968994</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.158173441886902</v>
+        <v>1.156905889511108</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4674728214740753</v>
+        <v>0.4664407074451447</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6907006502151489</v>
+        <v>0.6904652118682861</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.081375360488892</v>
+        <v>1.080138921737671</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0319528616964817</v>
+        <v>0.03111451491713524</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0494225025177</v>
+        <v>1.04902446269989</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.343222260475159</v>
+        <v>1.341880083084106</v>
       </c>
       <c r="C46" t="n">
-        <v>1.106493234634399</v>
+        <v>1.105176687240601</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2367290258407593</v>
+        <v>0.2367033958435059</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9856868386268616</v>
+        <v>0.9844890236854553</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8760408759117126</v>
+        <v>0.8748270273208618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1096459627151489</v>
+        <v>0.1096619963645935</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6529378294944763</v>
+        <v>0.6518745422363281</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9949051737785339</v>
+        <v>0.9936384558677673</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3419673442840576</v>
+        <v>-0.3417639136314392</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7088576555252075</v>
+        <v>0.7077717781066895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3641049861907959</v>
+        <v>0.3631188571453094</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3447526693344116</v>
+        <v>0.34465292096138</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.375589847564697</v>
+        <v>1.374234437942505</v>
       </c>
       <c r="C50" t="n">
-        <v>1.372353792190552</v>
+        <v>1.370919108390808</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003236055374145508</v>
+        <v>0.003315329551696777</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.336911797523499</v>
+        <v>1.335572004318237</v>
       </c>
       <c r="C51" t="n">
-        <v>1.232305645942688</v>
+        <v>1.23093318939209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1046061515808105</v>
+        <v>0.1046388149261475</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.016360521316528</v>
+        <v>1.015150308609009</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6049522757530212</v>
+        <v>0.6038589477539062</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4114082455635071</v>
+        <v>0.4112913608551025</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.138713121414185</v>
+        <v>1.137453436851501</v>
       </c>
       <c r="C53" t="n">
-        <v>1.122645139694214</v>
+        <v>1.121321439743042</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0160679817199707</v>
+        <v>0.01613199710845947</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1876896768808365</v>
+        <v>-0.1884132474660873</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8725072741508484</v>
+        <v>0.8712949156761169</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.060196995735168</v>
+        <v>-1.059708118438721</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.06063128262758255</v>
+        <v>-0.0614062026143074</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7974889278411865</v>
+        <v>0.7963100075721741</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8581202030181885</v>
+        <v>-0.8577162027359009</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1644464880228043</v>
+        <v>0.163580596446991</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7416837811470032</v>
+        <v>0.7405295968055725</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5772373080253601</v>
+        <v>-0.5769490003585815</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.139149785041809</v>
+        <v>1.137889862060547</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8352488279342651</v>
+        <v>0.834053099155426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3039009571075439</v>
+        <v>0.3038367629051208</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.248175263404846</v>
+        <v>1.246871471405029</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6485599875450134</v>
+        <v>0.6474472880363464</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5996152758598328</v>
+        <v>0.5994241833686829</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.237945437431335</v>
+        <v>1.236645817756653</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6848626732826233</v>
+        <v>0.6837338209152222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5530827641487122</v>
+        <v>0.5529119968414307</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.058029770851135</v>
+        <v>1.056802749633789</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9219017028808594</v>
+        <v>0.9206673502922058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1361280679702759</v>
+        <v>0.1361353993415833</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.003345251083374</v>
+        <v>1.002140283584595</v>
       </c>
       <c r="C61" t="n">
-        <v>1.148788213729858</v>
+        <v>1.1474529504776</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1454429626464844</v>
+        <v>-0.1453126668930054</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8645752668380737</v>
+        <v>0.8634263873100281</v>
       </c>
       <c r="C62" t="n">
-        <v>1.462413668632507</v>
+        <v>1.460938930511475</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5978384017944336</v>
+        <v>-0.5975125432014465</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9152721762657166</v>
+        <v>0.9141028523445129</v>
       </c>
       <c r="C63" t="n">
-        <v>2.637966871261597</v>
+        <v>2.635968923568726</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.722694635391235</v>
+        <v>-1.721866130828857</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.15330171585083</v>
+        <v>1.152036190032959</v>
       </c>
       <c r="C64" t="n">
-        <v>2.566720485687256</v>
+        <v>2.564754247665405</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.413418769836426</v>
+        <v>-1.412718057632446</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3508061170578</v>
+        <v>1.34946072101593</v>
       </c>
       <c r="C65" t="n">
-        <v>1.047196865081787</v>
+        <v>1.045906782150269</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3036092519760132</v>
+        <v>0.3035539388656616</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.523014903068542</v>
+        <v>1.521600008010864</v>
       </c>
       <c r="C66" t="n">
-        <v>1.231654167175293</v>
+        <v>1.230281949043274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2913607358932495</v>
+        <v>0.2913180589675903</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.357540607452393</v>
+        <v>1.356192588806152</v>
       </c>
       <c r="C67" t="n">
-        <v>1.634765028953552</v>
+        <v>1.633213520050049</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2772244215011597</v>
+        <v>-0.2770209312438965</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5974578857421875</v>
+        <v>0.5964170694351196</v>
       </c>
       <c r="C68" t="n">
-        <v>1.69108247756958</v>
+        <v>1.689505934715271</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.093624591827393</v>
+        <v>-1.093088865280151</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9804530739784241</v>
+        <v>0.9792574048042297</v>
       </c>
       <c r="C69" t="n">
-        <v>1.742192625999451</v>
+        <v>1.740593194961548</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7617395520210266</v>
+        <v>-0.7613357901573181</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8807790279388428</v>
+        <v>0.8796237111091614</v>
       </c>
       <c r="C70" t="n">
-        <v>1.97812831401825</v>
+        <v>1.976424098014832</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.097349286079407</v>
+        <v>-1.096800327301025</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.787269115447998</v>
+        <v>0.7861515283584595</v>
       </c>
       <c r="C71" t="n">
-        <v>1.752656221389771</v>
+        <v>1.751052141189575</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9653871059417725</v>
+        <v>-0.9649006128311157</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4975006580352783</v>
+        <v>0.496500164270401</v>
       </c>
       <c r="C72" t="n">
-        <v>1.626512289047241</v>
+        <v>1.624964594841003</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.129011631011963</v>
+        <v>-1.128464460372925</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3459836840629578</v>
+        <v>0.3450444340705872</v>
       </c>
       <c r="C73" t="n">
-        <v>1.23079514503479</v>
+        <v>1.229423522949219</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8848114609718323</v>
+        <v>-0.8843790888786316</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4336549937725067</v>
+        <v>0.4326803088188171</v>
       </c>
       <c r="C74" t="n">
-        <v>0.560452401638031</v>
+        <v>0.5593789219856262</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1267974078655243</v>
+        <v>-0.1266986131668091</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4856923520565033</v>
+        <v>0.484696626663208</v>
       </c>
       <c r="C75" t="n">
-        <v>1.900573253631592</v>
+        <v>1.898903489112854</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.414880871772766</v>
+        <v>-1.414206862449646</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7989457845687866</v>
+        <v>0.797823429107666</v>
       </c>
       <c r="C76" t="n">
-        <v>1.215678691864014</v>
+        <v>1.214313507080078</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4167329072952271</v>
+        <v>-0.4164900779724121</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7434418201446533</v>
+        <v>0.742341935634613</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8194714784622192</v>
+        <v>0.8182827830314636</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07602965831756592</v>
+        <v>-0.07594084739685059</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.069784641265869</v>
+        <v>1.068552851676941</v>
       </c>
       <c r="C78" t="n">
-        <v>1.494704604148865</v>
+        <v>1.493215560913086</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4249199628829956</v>
+        <v>-0.424662709236145</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8440166115760803</v>
+        <v>0.8428760766983032</v>
       </c>
       <c r="C79" t="n">
-        <v>1.264150500297546</v>
+        <v>1.262763857841492</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4201338887214661</v>
+        <v>-0.4198877811431885</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9218941330909729</v>
+        <v>0.9207221269607544</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5211445093154907</v>
+        <v>0.5200885534286499</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4007496237754822</v>
+        <v>0.4006335735321045</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.508037209510803</v>
+        <v>1.506628274917603</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6656416654586792</v>
+        <v>0.664521336555481</v>
       </c>
       <c r="D81" t="n">
-        <v>0.842395544052124</v>
+        <v>0.8421069383621216</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.284964680671692</v>
+        <v>1.283646106719971</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6714904308319092</v>
+        <v>-0.6720157861709595</v>
       </c>
       <c r="D82" t="n">
-        <v>1.956455111503601</v>
+        <v>1.95566189289093</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.577947616577148</v>
+        <v>1.576510548591614</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8379230499267578</v>
+        <v>-0.8383743166923523</v>
       </c>
       <c r="D83" t="n">
-        <v>2.415870666503906</v>
+        <v>2.414884805679321</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.818097710609436</v>
+        <v>1.816563606262207</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1767157316207886</v>
+        <v>-0.1774612367153168</v>
       </c>
       <c r="D84" t="n">
-        <v>1.994813442230225</v>
+        <v>1.994024872779846</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.83093523979187</v>
+        <v>1.829395890235901</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9528116583824158</v>
+        <v>0.9515634775161743</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8781235814094543</v>
+        <v>0.8778324127197266</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.680741906166077</v>
+        <v>1.679263234138489</v>
       </c>
       <c r="C86" t="n">
-        <v>1.2310950756073</v>
+        <v>1.22972309589386</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4496468305587769</v>
+        <v>0.4495401382446289</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.540927290916443</v>
+        <v>1.539505004882812</v>
       </c>
       <c r="C87" t="n">
-        <v>1.93193531036377</v>
+        <v>1.930251717567444</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3910080194473267</v>
+        <v>-0.3907467126846313</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.35304844379425</v>
+        <v>1.351702094078064</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8738524317741394</v>
+        <v>0.8726394176483154</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4791960120201111</v>
+        <v>0.4790626764297485</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.398366689682007</v>
+        <v>1.397002100944519</v>
       </c>
       <c r="C89" t="n">
-        <v>1.029757738113403</v>
+        <v>1.028475403785706</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3686089515686035</v>
+        <v>0.3685266971588135</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.74015474319458</v>
+        <v>1.738652110099792</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8001704812049866</v>
+        <v>0.7989903092384338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9399842619895935</v>
+        <v>0.9396618008613586</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.885646224021912</v>
+        <v>1.884084582328796</v>
       </c>
       <c r="C91" t="n">
-        <v>1.169188499450684</v>
+        <v>1.167844176292419</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716457724571228</v>
+        <v>0.716240406036377</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.557439565658569</v>
+        <v>1.556010842323303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8603312969207764</v>
+        <v>0.8591243624687195</v>
       </c>
       <c r="D92" t="n">
-        <v>0.697108268737793</v>
+        <v>0.6968864798545837</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.703033566474915</v>
+        <v>1.70154595375061</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7084442973136902</v>
+        <v>0.7073049545288086</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9945892691612244</v>
+        <v>0.9942409992218018</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.42491626739502</v>
+        <v>1.423541069030762</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2168070077896118</v>
+        <v>0.2158864140510559</v>
       </c>
       <c r="D94" t="n">
-        <v>1.208109259605408</v>
+        <v>1.207654714584351</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.077637434005737</v>
+        <v>1.076402544975281</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5178946852684021</v>
+        <v>0.5168401002883911</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5597427487373352</v>
+        <v>0.5595624446868896</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6634759306907654</v>
+        <v>0.6624083518981934</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7204400300979614</v>
+        <v>0.71929532289505</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05696409940719604</v>
+        <v>-0.05688697099685669</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5990004539489746</v>
+        <v>0.5979589223861694</v>
       </c>
       <c r="C97" t="n">
-        <v>1.039384007453918</v>
+        <v>1.038097500801086</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4403835535049438</v>
+        <v>-0.440138578414917</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9984092116355896</v>
+        <v>0.9972063302993774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9648594856262207</v>
+        <v>0.9636059999465942</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0335497260093689</v>
+        <v>0.0336003303527832</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2745300233364105</v>
+        <v>0.2736196517944336</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1058756113052368</v>
+        <v>0.1050043702125549</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1686544120311737</v>
+        <v>0.1686152815818787</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.0617084726691246</v>
+        <v>-0.06248295679688454</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3538535535335541</v>
+        <v>-0.3545202612876892</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2921450734138489</v>
+        <v>0.292037308216095</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2356200367212296</v>
+        <v>-0.2363242208957672</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3219703137874603</v>
+        <v>0.3210029304027557</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5575903654098511</v>
+        <v>-0.5573271512985229</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2064862996339798</v>
+        <v>0.2056034207344055</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2763262689113617</v>
+        <v>-0.2770274579524994</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4828125834465027</v>
+        <v>0.4826308786869049</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7458882927894592</v>
+        <v>0.7447873950004578</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4492489397525787</v>
+        <v>-0.4498731791973114</v>
       </c>
       <c r="D103" t="n">
-        <v>1.19513726234436</v>
+        <v>1.194660544395447</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9959729313850403</v>
+        <v>0.994770884513855</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7071129083633423</v>
+        <v>-0.7076224088668823</v>
       </c>
       <c r="D104" t="n">
-        <v>1.703085899353027</v>
+        <v>1.702393293380737</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.062746405601501</v>
+        <v>1.061517596244812</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.05008530244231224</v>
+        <v>-0.05088714510202408</v>
       </c>
       <c r="D105" t="n">
-        <v>1.112831711769104</v>
+        <v>1.112404704093933</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.167332649230957</v>
+        <v>1.166061520576477</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6423094272613525</v>
+        <v>0.6411994695663452</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5250232219696045</v>
+        <v>0.5248620510101318</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.075851202011108</v>
+        <v>1.074617028236389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.467541366815567</v>
+        <v>0.4665091931819916</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6083098649978638</v>
+        <v>0.6081078052520752</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8335427641868591</v>
+        <v>0.8324064612388611</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8560599088668823</v>
+        <v>0.8548548221588135</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02251714468002319</v>
+        <v>-0.02244836091995239</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5618341565132141</v>
+        <v>0.5608076453208923</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9568848609924316</v>
+        <v>0.9556349515914917</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3950507044792175</v>
+        <v>-0.3948273062705994</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8289326429367065</v>
+        <v>0.8277981877326965</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9994545578956604</v>
+        <v>0.9981856942176819</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1705219149589539</v>
+        <v>-0.1703875064849854</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.187161564826965</v>
+        <v>1.185882449150085</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4699353277683258</v>
+        <v>0.4689021110534668</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7172262668609619</v>
+        <v>0.7169803380966187</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.694897770881653</v>
+        <v>1.693413376808167</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8035789132118225</v>
+        <v>0.8023971915245056</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8913188576698303</v>
+        <v>0.8910161852836609</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.038908362388611</v>
+        <v>1.037689208984375</v>
       </c>
       <c r="C113" t="n">
-        <v>1.11066198348999</v>
+        <v>1.109343647956848</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07175362110137939</v>
+        <v>-0.07165443897247314</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.452521681785583</v>
+        <v>1.451135277748108</v>
       </c>
       <c r="C114" t="n">
-        <v>1.710221290588379</v>
+        <v>1.708636283874512</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2576996088027954</v>
+        <v>-0.2575010061264038</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.990982055664062</v>
+        <v>1.989378094673157</v>
       </c>
       <c r="C115" t="n">
-        <v>1.966997742652893</v>
+        <v>1.965298414230347</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02398431301116943</v>
+        <v>0.02407968044281006</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.305041193962097</v>
+        <v>1.303714275360107</v>
       </c>
       <c r="C116" t="n">
-        <v>2.461821794509888</v>
+        <v>2.459902048110962</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.156780600547791</v>
+        <v>-1.156187772750854</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.691492676734924</v>
+        <v>1.690009593963623</v>
       </c>
       <c r="C117" t="n">
-        <v>2.189353466033936</v>
+        <v>2.187555313110352</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4978607892990112</v>
+        <v>-0.4975457191467285</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.714977622032166</v>
+        <v>1.71348512172699</v>
       </c>
       <c r="C118" t="n">
-        <v>1.623296499252319</v>
+        <v>1.621750116348267</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09168112277984619</v>
+        <v>0.09173500537872314</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.92111337184906</v>
+        <v>1.919537544250488</v>
       </c>
       <c r="C119" t="n">
-        <v>1.694109439849854</v>
+        <v>1.69253146648407</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2270039319992065</v>
+        <v>0.2270060777664185</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.373689651489258</v>
+        <v>1.372335076332092</v>
       </c>
       <c r="C120" t="n">
-        <v>1.67707884311676</v>
+        <v>1.675508618354797</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3033891916275024</v>
+        <v>-0.3031735420227051</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.990921139717102</v>
+        <v>1.989317178726196</v>
       </c>
       <c r="C121" t="n">
-        <v>1.683018445968628</v>
+        <v>1.681445598602295</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3079026937484741</v>
+        <v>0.3078715801239014</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.040051460266113</v>
+        <v>2.038427829742432</v>
       </c>
       <c r="C122" t="n">
-        <v>1.242643475532532</v>
+        <v>1.241266489028931</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7974079847335815</v>
+        <v>0.797161340713501</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.343956470489502</v>
+        <v>2.342210054397583</v>
       </c>
       <c r="C123" t="n">
-        <v>2.136576652526855</v>
+        <v>2.134802103042603</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2073798179626465</v>
+        <v>0.2074079513549805</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.445719480514526</v>
+        <v>2.443931579589844</v>
       </c>
       <c r="C124" t="n">
-        <v>1.808889627456665</v>
+        <v>1.807260632514954</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6368298530578613</v>
+        <v>0.6366709470748901</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.41391921043396</v>
+        <v>2.412144184112549</v>
       </c>
       <c r="C125" t="n">
-        <v>1.618208646774292</v>
+        <v>1.61666464805603</v>
       </c>
       <c r="D125" t="n">
-        <v>0.795710563659668</v>
+        <v>0.7954795360565186</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.771800756454468</v>
+        <v>1.770285248756409</v>
       </c>
       <c r="C126" t="n">
-        <v>2.238494157791138</v>
+        <v>2.236673831939697</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4666934013366699</v>
+        <v>-0.4663885831832886</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.779731154441833</v>
+        <v>1.778212428092957</v>
       </c>
       <c r="C127" t="n">
-        <v>2.109241724014282</v>
+        <v>2.107479095458984</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3295105695724487</v>
+        <v>-0.3292666673660278</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.478882193565369</v>
+        <v>1.477485060691833</v>
       </c>
       <c r="C128" t="n">
-        <v>1.935950756072998</v>
+        <v>1.93426525592804</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4570685625076294</v>
+        <v>-0.4567801952362061</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.166688919067383</v>
+        <v>1.165418028831482</v>
       </c>
       <c r="C129" t="n">
-        <v>1.767656803131104</v>
+        <v>1.766046166419983</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6009678840637207</v>
+        <v>-0.600628137588501</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8040070533752441</v>
+        <v>0.8028826713562012</v>
       </c>
       <c r="C130" t="n">
-        <v>2.924602746963501</v>
+        <v>2.92247748374939</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.120595693588257</v>
+        <v>-2.119594812393188</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3883210122585297</v>
+        <v>0.3873646259307861</v>
       </c>
       <c r="C131" t="n">
-        <v>2.160208225250244</v>
+        <v>2.158422946929932</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.771887183189392</v>
+        <v>-1.771058320999146</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06127949431538582</v>
+        <v>-0.06205415353178978</v>
       </c>
       <c r="C132" t="n">
-        <v>1.818931460380554</v>
+        <v>1.817298054695129</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.880210995674133</v>
+        <v>-1.879352211952209</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.08929100632667542</v>
+        <v>0.08845549821853638</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8089779615402222</v>
+        <v>0.807793915271759</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7196869850158691</v>
+        <v>-0.7193384170532227</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1515261381864548</v>
+        <v>0.1506654769182205</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1650119721889496</v>
+        <v>0.1641144156455994</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01348583400249481</v>
+        <v>-0.01344893872737885</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3761898875236511</v>
+        <v>0.3752384185791016</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3522379100322723</v>
+        <v>0.3512570559978485</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02395197749137878</v>
+        <v>0.02398136258125305</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7260032296180725</v>
+        <v>0.7249103784561157</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1960511356592178</v>
+        <v>0.1951397806406021</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5299521088600159</v>
+        <v>0.5297706127166748</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5968387126922607</v>
+        <v>0.5957980751991272</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5011597871780396</v>
+        <v>0.5001126527786255</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09567892551422119</v>
+        <v>0.09568542242050171</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8382408022880554</v>
+        <v>0.8371025919914246</v>
       </c>
       <c r="C138" t="n">
-        <v>0.96608567237854</v>
+        <v>0.9648317694664001</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1278448700904846</v>
+        <v>-0.1277291774749756</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.297850489616394</v>
+        <v>1.296526670455933</v>
       </c>
       <c r="C139" t="n">
-        <v>1.029662609100342</v>
+        <v>1.028380393981934</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2681878805160522</v>
+        <v>0.268146276473999</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.254691600799561</v>
+        <v>1.253385066986084</v>
       </c>
       <c r="C140" t="n">
-        <v>1.267901539802551</v>
+        <v>1.266513347625732</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01320993900299072</v>
+        <v>-0.01312828063964844</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.48494827747345</v>
+        <v>1.483548641204834</v>
       </c>
       <c r="C141" t="n">
-        <v>1.222365021705627</v>
+        <v>1.220996856689453</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2625832557678223</v>
+        <v>0.2625517845153809</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.397995948791504</v>
+        <v>1.396631598472595</v>
       </c>
       <c r="C142" t="n">
-        <v>0.189576044678688</v>
+        <v>0.1886675655841827</v>
       </c>
       <c r="D142" t="n">
-        <v>1.208419919013977</v>
+        <v>1.207964062690735</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.757721662521362</v>
+        <v>1.756211876869202</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2770661115646362</v>
+        <v>0.2761186957359314</v>
       </c>
       <c r="D143" t="n">
-        <v>1.480655550956726</v>
+        <v>1.480093240737915</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.597623229026794</v>
+        <v>1.596178293228149</v>
       </c>
       <c r="C144" t="n">
-        <v>1.277296185493469</v>
+        <v>1.275903820991516</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3203270435333252</v>
+        <v>0.3202744722366333</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.70476496219635</v>
+        <v>1.703276515007019</v>
       </c>
       <c r="C145" t="n">
-        <v>1.466012477874756</v>
+        <v>1.464536070823669</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2387524843215942</v>
+        <v>0.2387404441833496</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.146734714508057</v>
+        <v>1.145471811294556</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8949128985404968</v>
+        <v>0.8936905860900879</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2518218159675598</v>
+        <v>0.2517812252044678</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7225416898727417</v>
+        <v>0.7214502692222595</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8436582684516907</v>
+        <v>0.8424587249755859</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.121116578578949</v>
+        <v>-0.1210084557533264</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2831792533397675</v>
+        <v>0.2822653651237488</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2273606061935425</v>
+        <v>-0.2280835807323456</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5105398893356323</v>
+        <v>0.510348916053772</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6774285435676575</v>
+        <v>0.6763553619384766</v>
       </c>
       <c r="C149" t="n">
-        <v>1.557805061340332</v>
+        <v>1.55628776550293</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8803765177726746</v>
+        <v>-0.8799324035644531</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.033082365989685</v>
+        <v>1.031865358352661</v>
       </c>
       <c r="C150" t="n">
-        <v>2.449438571929932</v>
+        <v>2.447524547576904</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.416356205940247</v>
+        <v>-1.415659189224243</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.322246909141541</v>
+        <v>1.320913076400757</v>
       </c>
       <c r="C151" t="n">
-        <v>1.279458165168762</v>
+        <v>1.278064727783203</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04278874397277832</v>
+        <v>0.04284834861755371</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.355957269668579</v>
+        <v>1.354609966278076</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2898229956626892</v>
+        <v>0.2888699173927307</v>
       </c>
       <c r="D152" t="n">
-        <v>1.066134214401245</v>
+        <v>1.06574010848999</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.103063106536865</v>
+        <v>2.10141396522522</v>
       </c>
       <c r="C153" t="n">
-        <v>0.186367467045784</v>
+        <v>0.1854604035615921</v>
       </c>
       <c r="D153" t="n">
-        <v>1.916695594787598</v>
+        <v>1.915953516960144</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.990058302879333</v>
+        <v>1.988454580307007</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4543420374393463</v>
+        <v>0.4533157646656036</v>
       </c>
       <c r="D154" t="n">
-        <v>1.53571629524231</v>
+        <v>1.535138845443726</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.855239510536194</v>
+        <v>1.853690266609192</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7610955238342285</v>
+        <v>0.7599326372146606</v>
       </c>
       <c r="D155" t="n">
-        <v>1.094143986701965</v>
+        <v>1.093757629394531</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.602811455726624</v>
+        <v>1.601364254951477</v>
       </c>
       <c r="C156" t="n">
-        <v>1.354247808456421</v>
+        <v>1.352821111679077</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2485636472702026</v>
+        <v>0.2485431432723999</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.90175473690033</v>
+        <v>1.900186777114868</v>
       </c>
       <c r="C157" t="n">
-        <v>1.724729299545288</v>
+        <v>1.723137855529785</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1770254373550415</v>
+        <v>0.177048921585083</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.539660215377808</v>
+        <v>1.538238644599915</v>
       </c>
       <c r="C158" t="n">
-        <v>1.476103782653809</v>
+        <v>1.474622964859009</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06355643272399902</v>
+        <v>0.06361567974090576</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.370953559875488</v>
+        <v>1.369600176811218</v>
       </c>
       <c r="C159" t="n">
-        <v>1.64276647567749</v>
+        <v>1.64121150970459</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.271812915802002</v>
+        <v>-0.2716113328933716</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.67977511882782</v>
+        <v>1.678296804428101</v>
       </c>
       <c r="C160" t="n">
-        <v>1.732224225997925</v>
+        <v>1.730629444122314</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05244910717010498</v>
+        <v>-0.05233263969421387</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.348792791366577</v>
+        <v>1.347448229789734</v>
       </c>
       <c r="C161" t="n">
-        <v>1.684685707092285</v>
+        <v>1.683111906051636</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.335892915725708</v>
+        <v>-0.3356636762619019</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5822901129722595</v>
+        <v>0.581255316734314</v>
       </c>
       <c r="C162" t="n">
-        <v>1.875120282173157</v>
+        <v>1.873461842536926</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.292830228805542</v>
+        <v>-1.292206525802612</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3762284815311432</v>
+        <v>0.3752770125865936</v>
       </c>
       <c r="C163" t="n">
-        <v>1.349569797515869</v>
+        <v>1.348145127296448</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9733413457870483</v>
+        <v>-0.9728680849075317</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6783291697502136</v>
+        <v>0.6772556304931641</v>
       </c>
       <c r="C164" t="n">
-        <v>1.452698111534119</v>
+        <v>1.45122766494751</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.774368941783905</v>
+        <v>-0.7739720344543457</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8659109473228455</v>
+        <v>0.8647615909576416</v>
       </c>
       <c r="C165" t="n">
-        <v>1.123593688011169</v>
+        <v>1.122269511222839</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.257682740688324</v>
+        <v>-0.2575079202651978</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.004183530807495</v>
+        <v>1.002978324890137</v>
       </c>
       <c r="C166" t="n">
-        <v>1.255969285964966</v>
+        <v>1.254586219787598</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2517857551574707</v>
+        <v>-0.2516078948974609</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.627084493637085</v>
+        <v>1.625627398490906</v>
       </c>
       <c r="C167" t="n">
-        <v>1.617439031600952</v>
+        <v>1.61589515209198</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009645462036132812</v>
+        <v>0.009732246398925781</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.956104636192322</v>
+        <v>1.954514741897583</v>
       </c>
       <c r="C168" t="n">
-        <v>1.89086651802063</v>
+        <v>1.889201164245605</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06523811817169189</v>
+        <v>0.06531357765197754</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.183297395706177</v>
+        <v>1.182019829750061</v>
       </c>
       <c r="C169" t="n">
-        <v>1.579405784606934</v>
+        <v>1.577879071235657</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3961083889007568</v>
+        <v>-0.3958592414855957</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9791608452796936</v>
+        <v>0.9779656529426575</v>
       </c>
       <c r="C170" t="n">
-        <v>1.266974687576294</v>
+        <v>1.265586733818054</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2878138422966003</v>
+        <v>-0.2876210808753967</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9026310443878174</v>
+        <v>0.9014667868614197</v>
       </c>
       <c r="C171" t="n">
-        <v>1.018386483192444</v>
+        <v>1.017109155654907</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1157554388046265</v>
+        <v>-0.1156423687934875</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.018506646156311</v>
+        <v>1.017295598983765</v>
       </c>
       <c r="C172" t="n">
-        <v>1.856903553009033</v>
+        <v>1.855253100395203</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8383969068527222</v>
+        <v>-0.837957501411438</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.218154430389404</v>
+        <v>1.216862797737122</v>
       </c>
       <c r="C173" t="n">
-        <v>1.651601076126099</v>
+        <v>1.650041937828064</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4334466457366943</v>
+        <v>-0.4331791400909424</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.649288058280945</v>
+        <v>1.647822141647339</v>
       </c>
       <c r="C174" t="n">
-        <v>1.849265933036804</v>
+        <v>1.84761905670166</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1999778747558594</v>
+        <v>-0.1997969150543213</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.464060544967651</v>
+        <v>1.462669491767883</v>
       </c>
       <c r="C175" t="n">
-        <v>1.889430642127991</v>
+        <v>1.887765884399414</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4253700971603394</v>
+        <v>-0.4250963926315308</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.086888909339905</v>
+        <v>1.085650205612183</v>
       </c>
       <c r="C176" t="n">
-        <v>1.924725890159607</v>
+        <v>1.92304539680481</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8378369808197021</v>
+        <v>-0.837395191192627</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.099671244621277</v>
+        <v>1.098427414894104</v>
       </c>
       <c r="C177" t="n">
-        <v>2.049129247665405</v>
+        <v>2.047393560409546</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9494580030441284</v>
+        <v>-0.9489661455154419</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.330320000648499</v>
+        <v>1.328982830047607</v>
       </c>
       <c r="C178" t="n">
-        <v>1.954851150512695</v>
+        <v>1.953157186508179</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6245311498641968</v>
+        <v>-0.6241743564605713</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.890407562255859</v>
+        <v>1.888844132423401</v>
       </c>
       <c r="C179" t="n">
-        <v>1.435211658477783</v>
+        <v>1.433748841285706</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4551959037780762</v>
+        <v>0.4550952911376953</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.864391565322876</v>
+        <v>1.862838625907898</v>
       </c>
       <c r="C180" t="n">
-        <v>1.494003534317017</v>
+        <v>1.492514729499817</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3703880310058594</v>
+        <v>0.3703238964080811</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.428096652030945</v>
+        <v>1.426720023155212</v>
       </c>
       <c r="C181" t="n">
-        <v>1.81502091884613</v>
+        <v>1.81338906288147</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3869242668151855</v>
+        <v>-0.3866690397262573</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4886865019798279</v>
+        <v>0.4876895546913147</v>
       </c>
       <c r="C182" t="n">
-        <v>1.208752155303955</v>
+        <v>1.207390308380127</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7200656533241272</v>
+        <v>-0.7197007536888123</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8852266073226929</v>
+        <v>0.8840694427490234</v>
       </c>
       <c r="C183" t="n">
-        <v>1.483627200126648</v>
+        <v>1.482142925262451</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5984005928039551</v>
+        <v>-0.5980734825134277</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.556353807449341</v>
+        <v>1.554925441741943</v>
       </c>
       <c r="C184" t="n">
-        <v>1.756519079208374</v>
+        <v>1.754913568496704</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2001652717590332</v>
+        <v>-0.1999881267547607</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.937419176101685</v>
+        <v>1.935836791992188</v>
       </c>
       <c r="C185" t="n">
-        <v>1.659509658813477</v>
+        <v>1.657947063446045</v>
       </c>
       <c r="D185" t="n">
-        <v>0.277909517288208</v>
+        <v>0.2778897285461426</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.965585350990295</v>
+        <v>1.963991403579712</v>
       </c>
       <c r="C186" t="n">
-        <v>1.611850023269653</v>
+        <v>1.610308647155762</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3537353277206421</v>
+        <v>0.3536827564239502</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.066847801208496</v>
+        <v>2.065212965011597</v>
       </c>
       <c r="C187" t="n">
-        <v>1.466134428977966</v>
+        <v>1.46465790271759</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6007133722305298</v>
+        <v>0.6005550622940063</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.350044012069702</v>
+        <v>2.348294973373413</v>
       </c>
       <c r="C188" t="n">
-        <v>1.500832796096802</v>
+        <v>1.499341011047363</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8492112159729004</v>
+        <v>0.8489539623260498</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.900438785552979</v>
+        <v>2.898467302322388</v>
       </c>
       <c r="C189" t="n">
-        <v>1.661495923995972</v>
+        <v>1.659932494163513</v>
       </c>
       <c r="D189" t="n">
-        <v>1.238942861557007</v>
+        <v>1.238534808158875</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.113880157470703</v>
+        <v>3.111822128295898</v>
       </c>
       <c r="C190" t="n">
-        <v>1.265525221824646</v>
+        <v>1.264138102531433</v>
       </c>
       <c r="D190" t="n">
-        <v>1.848354935646057</v>
+        <v>1.847684025764465</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.098019361495972</v>
+        <v>3.095967769622803</v>
       </c>
       <c r="C191" t="n">
-        <v>1.556546688079834</v>
+        <v>1.55502986907959</v>
       </c>
       <c r="D191" t="n">
-        <v>1.541472673416138</v>
+        <v>1.540937900543213</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.852732181549072</v>
+        <v>2.850780010223389</v>
       </c>
       <c r="C192" t="n">
-        <v>1.863290905952454</v>
+        <v>1.861637592315674</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9894412755966187</v>
+        <v>0.9891424179077148</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.927188158035278</v>
+        <v>2.925205945968628</v>
       </c>
       <c r="C193" t="n">
-        <v>2.929639577865601</v>
+        <v>2.927511930465698</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.002451419830322266</v>
+        <v>-0.002305984497070312</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.833427906036377</v>
+        <v>2.831483125686646</v>
       </c>
       <c r="C194" t="n">
-        <v>3.516849994659424</v>
+        <v>3.514461278915405</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6834220886230469</v>
+        <v>-0.6829781532287598</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.27679705619812</v>
+        <v>2.27507758140564</v>
       </c>
       <c r="C195" t="n">
-        <v>3.296346187591553</v>
+        <v>3.294055461883545</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.019549131393433</v>
+        <v>-1.018977880477905</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.10308051109314</v>
+        <v>3.101027250289917</v>
       </c>
       <c r="C196" t="n">
-        <v>3.72227668762207</v>
+        <v>3.719796419143677</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6191961765289307</v>
+        <v>-0.6187691688537598</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.898078203201294</v>
+        <v>2.89610743522644</v>
       </c>
       <c r="C197" t="n">
-        <v>3.513306140899658</v>
+        <v>3.510918855667114</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6152279376983643</v>
+        <v>-0.6148114204406738</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.011928558349609</v>
+        <v>2.010315895080566</v>
       </c>
       <c r="C198" t="n">
-        <v>3.183325290679932</v>
+        <v>3.181084871292114</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.171396732330322</v>
+        <v>-1.170768976211548</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.053472518920898</v>
+        <v>1.052247405052185</v>
       </c>
       <c r="C199" t="n">
-        <v>2.609078645706177</v>
+        <v>2.607093811035156</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.555606126785278</v>
+        <v>-1.554846405982971</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4203397631645203</v>
+        <v>0.4193704724311829</v>
       </c>
       <c r="C200" t="n">
-        <v>2.874828577041626</v>
+        <v>2.872725486755371</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.454488754272461</v>
+        <v>-2.453355073928833</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.442224264144897</v>
+        <v>1.440841913223267</v>
       </c>
       <c r="C201" t="n">
-        <v>2.632516145706177</v>
+        <v>2.630520820617676</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.190291881561279</v>
+        <v>-1.189678907394409</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.063037514686584</v>
+        <v>1.061808466911316</v>
       </c>
       <c r="C202" t="n">
-        <v>2.735751152038574</v>
+        <v>2.733709812164307</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.67271363735199</v>
+        <v>-1.671901345252991</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.091190338134766</v>
+        <v>1.08994996547699</v>
       </c>
       <c r="C203" t="n">
-        <v>2.484078645706177</v>
+        <v>2.482149362564087</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.392888307571411</v>
+        <v>-1.392199397087097</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.298881530761719</v>
+        <v>1.29755711555481</v>
       </c>
       <c r="C204" t="n">
-        <v>2.117140531539917</v>
+        <v>2.115374326705933</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8182590007781982</v>
+        <v>-0.817817211151123</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.283645510673523</v>
+        <v>1.28232729434967</v>
       </c>
       <c r="C205" t="n">
-        <v>1.825749278068542</v>
+        <v>1.824112772941589</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5421037673950195</v>
+        <v>-0.5417854785919189</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.05195939540863</v>
+        <v>1.050734758377075</v>
       </c>
       <c r="C206" t="n">
-        <v>1.104403376579285</v>
+        <v>1.103087782859802</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.0524439811706543</v>
+        <v>-0.05235302448272705</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.207569599151611</v>
+        <v>1.206282019615173</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9640445709228516</v>
+        <v>0.962791383266449</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2435250282287598</v>
+        <v>0.2434906363487244</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.476049780845642</v>
+        <v>1.474653720855713</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7682746052742004</v>
+        <v>0.767108678817749</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7077751755714417</v>
+        <v>0.7075450420379639</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.517072558403015</v>
+        <v>1.515659928321838</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5872321128845215</v>
+        <v>0.5861467123031616</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9298404455184937</v>
+        <v>0.9295132160186768</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.867757081985474</v>
+        <v>1.866202831268311</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6862962245941162</v>
+        <v>0.6851667761802673</v>
       </c>
       <c r="D210" t="n">
-        <v>1.181460857391357</v>
+        <v>1.181035995483398</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.617632985115051</v>
+        <v>1.616179823875427</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8433491587638855</v>
+        <v>0.8421497941017151</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7742838263511658</v>
+        <v>0.7740300297737122</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.070165634155273</v>
+        <v>2.068529605865479</v>
       </c>
       <c r="C212" t="n">
-        <v>1.125969529151917</v>
+        <v>1.12464439868927</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9441961050033569</v>
+        <v>0.9438852071762085</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.156006336212158</v>
+        <v>2.154335498809814</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5257648825645447</v>
+        <v>0.5247067809104919</v>
       </c>
       <c r="D213" t="n">
-        <v>1.630241394042969</v>
+        <v>1.629628658294678</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.914987564086914</v>
+        <v>1.913414120674133</v>
       </c>
       <c r="C214" t="n">
-        <v>1.037125706672668</v>
+        <v>1.035840153694153</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8778618574142456</v>
+        <v>0.8775739669799805</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.054562330245972</v>
+        <v>2.052932500839233</v>
       </c>
       <c r="C215" t="n">
-        <v>1.187439203262329</v>
+        <v>1.186086773872375</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8671231269836426</v>
+        <v>0.8668457269668579</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.925907135009766</v>
+        <v>1.924329280853271</v>
       </c>
       <c r="C216" t="n">
-        <v>1.422502398490906</v>
+        <v>1.421045303344727</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5034047365188599</v>
+        <v>0.5032839775085449</v>
       </c>
     </row>
     <row r="217">
@@ -3476,13 +3476,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.004162192344666</v>
+        <v>1.002956867218018</v>
       </c>
       <c r="C217" t="n">
-        <v>1.223535180091858</v>
+        <v>1.222166657447815</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2193729877471924</v>
+        <v>-0.2192097902297974</v>
       </c>
     </row>
     <row r="218">
@@ -3490,13 +3490,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7406035661697388</v>
+        <v>0.739504873752594</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5158842206001282</v>
+        <v>0.5148305892944336</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2247193455696106</v>
+        <v>0.2246742844581604</v>
       </c>
     </row>
     <row r="219">
@@ -3504,13 +3504,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.513823747634888</v>
+        <v>1.512412428855896</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5054653882980347</v>
+        <v>0.5044163465499878</v>
       </c>
       <c r="D219" t="n">
-        <v>1.008358359336853</v>
+        <v>1.007996082305908</v>
       </c>
     </row>
     <row r="220">
@@ -3518,13 +3518,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.375989198684692</v>
+        <v>1.3746337890625</v>
       </c>
       <c r="C220" t="n">
-        <v>1.211161613464355</v>
+        <v>1.209798574447632</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1648275852203369</v>
+        <v>0.1648352146148682</v>
       </c>
     </row>
     <row r="221">
@@ -3532,13 +3532,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.511143922805786</v>
+        <v>1.50973379611969</v>
       </c>
       <c r="C221" t="n">
-        <v>1.429032206535339</v>
+        <v>1.4275723695755</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08211171627044678</v>
+        <v>0.08216142654418945</v>
       </c>
     </row>
     <row r="222">
@@ -3546,13 +3546,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.30817723274231</v>
+        <v>1.306849122047424</v>
       </c>
       <c r="C222" t="n">
-        <v>1.011113524436951</v>
+        <v>1.009839534759521</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2970637083053589</v>
+        <v>0.2970095872879028</v>
       </c>
     </row>
     <row r="223">
@@ -3560,13 +3560,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9522424340248108</v>
+        <v>0.9510582089424133</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7390053272247314</v>
+        <v>0.7378523945808411</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2132371068000793</v>
+        <v>0.2132058143615723</v>
       </c>
     </row>
     <row r="224">
@@ -3574,13 +3574,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.112408638000488</v>
+        <v>1.111159563064575</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4316978752613068</v>
+        <v>0.4306816458702087</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6807107925415039</v>
+        <v>0.6804779171943665</v>
       </c>
     </row>
     <row r="225">
@@ -3588,13 +3588,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.509145498275757</v>
+        <v>1.507736206054688</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5811737775802612</v>
+        <v>0.5800910592079163</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9279717206954956</v>
+        <v>0.9276451468467712</v>
       </c>
     </row>
     <row r="226">
@@ -3602,13 +3602,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.864949107170105</v>
+        <v>1.863395929336548</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08133690804243088</v>
+        <v>0.08047658950090408</v>
       </c>
       <c r="D226" t="n">
-        <v>1.783612251281738</v>
+        <v>1.78291928768158</v>
       </c>
     </row>
     <row r="227">
@@ -3616,13 +3616,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.675144672393799</v>
+        <v>1.673668265342712</v>
       </c>
       <c r="C227" t="n">
-        <v>0.490342378616333</v>
+        <v>0.4893000721931458</v>
       </c>
       <c r="D227" t="n">
-        <v>1.184802293777466</v>
+        <v>1.184368133544922</v>
       </c>
     </row>
     <row r="228">
@@ -3630,13 +3630,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.111704111099243</v>
+        <v>2.110051155090332</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8968721628189087</v>
+        <v>0.8956489562988281</v>
       </c>
       <c r="D228" t="n">
-        <v>1.214831948280334</v>
+        <v>1.214402198791504</v>
       </c>
     </row>
     <row r="229">
@@ -3644,13 +3644,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>2.010031461715698</v>
+        <v>2.008419752120972</v>
       </c>
       <c r="C229" t="n">
-        <v>1.215327501296997</v>
+        <v>1.213962554931641</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7947039604187012</v>
+        <v>0.7944571971893311</v>
       </c>
     </row>
     <row r="230">
@@ -3658,13 +3658,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>2.002716779708862</v>
+        <v>2.001107931137085</v>
       </c>
       <c r="C230" t="n">
-        <v>1.758216142654419</v>
+        <v>1.756609559059143</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2445006370544434</v>
+        <v>0.2444983720779419</v>
       </c>
     </row>
     <row r="231">
@@ -3672,13 +3672,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.702723979949951</v>
+        <v>1.701236486434937</v>
       </c>
       <c r="C231" t="n">
-        <v>1.809642195701599</v>
+        <v>1.808012962341309</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1069182157516479</v>
+        <v>-0.1067764759063721</v>
       </c>
     </row>
     <row r="232">
@@ -3686,13 +3686,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.722870111465454</v>
+        <v>1.72137451171875</v>
       </c>
       <c r="C232" t="n">
-        <v>1.583651065826416</v>
+        <v>1.582122206687927</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1392190456390381</v>
+        <v>0.1392523050308228</v>
       </c>
     </row>
     <row r="233">
@@ -3700,13 +3700,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.22118878364563</v>
+        <v>2.219491720199585</v>
       </c>
       <c r="C233" t="n">
-        <v>1.624456763267517</v>
+        <v>1.622909784317017</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5967320203781128</v>
+        <v>0.5965819358825684</v>
       </c>
     </row>
     <row r="234">
@@ -3714,13 +3714,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.695664167404175</v>
+        <v>2.693775177001953</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9552463293075562</v>
+        <v>0.9539970755577087</v>
       </c>
       <c r="D234" t="n">
-        <v>1.740417838096619</v>
+        <v>1.7397780418396</v>
       </c>
     </row>
     <row r="235">
@@ -3728,13 +3728,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.33767557144165</v>
+        <v>2.335931301116943</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3116120398044586</v>
+        <v>0.3106492757797241</v>
       </c>
       <c r="D235" t="n">
-        <v>2.026063442230225</v>
+        <v>2.02528190612793</v>
       </c>
     </row>
     <row r="236">
@@ -3742,13 +3742,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.154434680938721</v>
+        <v>2.152764320373535</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3532693386077881</v>
+        <v>0.3522880077362061</v>
       </c>
       <c r="D236" t="n">
-        <v>1.801165342330933</v>
+        <v>1.800476312637329</v>
       </c>
     </row>
     <row r="237">
@@ -3756,13 +3756,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.687688589096069</v>
+        <v>2.685802698135376</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6067336201667786</v>
+        <v>-0.6072878241539001</v>
       </c>
       <c r="D237" t="n">
-        <v>3.294422149658203</v>
+        <v>3.293090581893921</v>
       </c>
     </row>
     <row r="238">
@@ -3770,13 +3770,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.261941909790039</v>
+        <v>2.260228395462036</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.144371509552002</v>
+        <v>-1.144686579704285</v>
       </c>
       <c r="D238" t="n">
-        <v>3.406313419342041</v>
+        <v>3.404914855957031</v>
       </c>
     </row>
     <row r="239">
@@ -3784,13 +3784,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.615038871765137</v>
+        <v>2.613182544708252</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.484106302261353</v>
+        <v>-1.484269976615906</v>
       </c>
       <c r="D239" t="n">
-        <v>4.09914493560791</v>
+        <v>4.097452640533447</v>
       </c>
     </row>
     <row r="240">
@@ -3798,13 +3798,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.790681600570679</v>
+        <v>2.788754224777222</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8702219128608704</v>
+        <v>-0.8706588745117188</v>
       </c>
       <c r="D240" t="n">
-        <v>3.660903453826904</v>
+        <v>3.65941309928894</v>
       </c>
     </row>
     <row r="241">
@@ -3812,13 +3812,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.317370891571045</v>
+        <v>2.315635204315186</v>
       </c>
       <c r="C241" t="n">
-        <v>1.309954881668091</v>
+        <v>1.308547973632812</v>
       </c>
       <c r="D241" t="n">
-        <v>1.007416009902954</v>
+        <v>1.007087230682373</v>
       </c>
     </row>
     <row r="242">
@@ -3826,13 +3826,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.631771087646484</v>
+        <v>2.629908323287964</v>
       </c>
       <c r="C242" t="n">
-        <v>2.347207546234131</v>
+        <v>2.345339059829712</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2845635414123535</v>
+        <v>0.284569263458252</v>
       </c>
     </row>
     <row r="243">
@@ -3840,13 +3840,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.017463207244873</v>
+        <v>2.015848636627197</v>
       </c>
       <c r="C243" t="n">
-        <v>2.618758678436279</v>
+        <v>2.616769313812256</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6012954711914062</v>
+        <v>-0.6009206771850586</v>
       </c>
     </row>
     <row r="244">
@@ -3854,13 +3854,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.196568727493286</v>
+        <v>2.194881439208984</v>
       </c>
       <c r="C244" t="n">
-        <v>2.504889965057373</v>
+        <v>2.502951383590698</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3083212375640869</v>
+        <v>-0.3080699443817139</v>
       </c>
     </row>
     <row r="245">
@@ -3868,13 +3868,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.245837688446045</v>
+        <v>2.244130611419678</v>
       </c>
       <c r="C245" t="n">
-        <v>2.492271900177002</v>
+        <v>2.490339040756226</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.246434211730957</v>
+        <v>-0.2462084293365479</v>
       </c>
     </row>
     <row r="246">
@@ -3882,13 +3882,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.31453537940979</v>
+        <v>2.312800645828247</v>
       </c>
       <c r="C246" t="n">
-        <v>1.528404831886292</v>
+        <v>1.526900768280029</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7861305475234985</v>
+        <v>0.7858998775482178</v>
       </c>
     </row>
     <row r="247">
@@ -3896,13 +3896,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.201964616775513</v>
+        <v>2.200275421142578</v>
       </c>
       <c r="C247" t="n">
-        <v>1.159783840179443</v>
+        <v>1.158443689346313</v>
       </c>
       <c r="D247" t="n">
-        <v>1.042180776596069</v>
+        <v>1.041831731796265</v>
       </c>
     </row>
     <row r="248">
@@ -3910,13 +3910,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.032581567764282</v>
+        <v>2.03096079826355</v>
       </c>
       <c r="C248" t="n">
-        <v>1.586227297782898</v>
+        <v>1.584697246551514</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4463542699813843</v>
+        <v>0.4462635517120361</v>
       </c>
     </row>
     <row r="249">
@@ -3924,13 +3924,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.536315321922302</v>
+        <v>1.534894943237305</v>
       </c>
       <c r="C249" t="n">
-        <v>1.991396546363831</v>
+        <v>1.989686250686646</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4550812244415283</v>
+        <v>-0.4547913074493408</v>
       </c>
     </row>
     <row r="250">
@@ -3938,13 +3938,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.258604407310486</v>
+        <v>1.257296323776245</v>
       </c>
       <c r="C250" t="n">
-        <v>1.541362643241882</v>
+        <v>1.539852738380432</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.2827582359313965</v>
+        <v>-0.282556414604187</v>
       </c>
     </row>
     <row r="251">
@@ -3952,13 +3952,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.769353747367859</v>
+        <v>1.767839312553406</v>
       </c>
       <c r="C251" t="n">
-        <v>1.352231979370117</v>
+        <v>1.35080623626709</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4171217679977417</v>
+        <v>0.4170330762863159</v>
       </c>
     </row>
     <row r="252">
@@ -3966,13 +3966,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.496215224266052</v>
+        <v>1.494810938835144</v>
       </c>
       <c r="C252" t="n">
-        <v>1.213976740837097</v>
+        <v>1.212612628936768</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2822384834289551</v>
+        <v>0.2821983098983765</v>
       </c>
     </row>
     <row r="253">
@@ -3980,13 +3980,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.219999432563782</v>
+        <v>1.218706965446472</v>
       </c>
       <c r="C253" t="n">
-        <v>0.7540152668952942</v>
+        <v>0.752855658531189</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4659841656684875</v>
+        <v>0.4658513069152832</v>
       </c>
     </row>
     <row r="254">
@@ -3994,13 +3994,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4923224151134491</v>
+        <v>0.4913240075111389</v>
       </c>
       <c r="C254" t="n">
-        <v>0.001843106583692133</v>
+        <v>0.001018157345242798</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4904793202877045</v>
+        <v>0.4903058409690857</v>
       </c>
     </row>
     <row r="255">
@@ -4008,13 +4008,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.811596155166626</v>
+        <v>0.8104687333106995</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3299074470996857</v>
+        <v>0.3289365172386169</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4816887080669403</v>
+        <v>0.4815322160720825</v>
       </c>
     </row>
     <row r="256">
@@ -4022,13 +4022,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.159912467002869</v>
+        <v>1.158644199371338</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8045846223831177</v>
+        <v>0.8034024834632874</v>
       </c>
       <c r="D256" t="n">
-        <v>0.355327844619751</v>
+        <v>0.3552417159080505</v>
       </c>
     </row>
     <row r="257">
@@ -4036,13 +4036,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.11290454864502</v>
+        <v>1.111655354499817</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6017704010009766</v>
+        <v>0.6006785035133362</v>
       </c>
       <c r="D257" t="n">
-        <v>0.511134147644043</v>
+        <v>0.5109768509864807</v>
       </c>
     </row>
     <row r="258">
@@ -4050,13 +4050,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6723126769065857</v>
+        <v>0.6712415218353271</v>
       </c>
       <c r="C258" t="n">
-        <v>1.284233450889587</v>
+        <v>1.282837986946106</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6119207739830017</v>
+        <v>-0.6115964651107788</v>
       </c>
     </row>
     <row r="259">
@@ -4064,13 +4064,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8762932419776917</v>
+        <v>0.8751396536827087</v>
       </c>
       <c r="C259" t="n">
-        <v>1.815121650695801</v>
+        <v>1.81348991394043</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9388284087181091</v>
+        <v>-0.9383502602577209</v>
       </c>
     </row>
     <row r="260">
@@ -4078,13 +4078,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.164251804351807</v>
+        <v>1.162981986999512</v>
       </c>
       <c r="C260" t="n">
-        <v>2.260944604873657</v>
+        <v>2.259114503860474</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.096692800521851</v>
+        <v>-1.096132516860962</v>
       </c>
     </row>
     <row r="261">
@@ -4092,13 +4092,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.291238784790039</v>
+        <v>1.289917588233948</v>
       </c>
       <c r="C261" t="n">
-        <v>1.906397223472595</v>
+        <v>1.904724717140198</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.6151584386825562</v>
+        <v>-0.61480712890625</v>
       </c>
     </row>
     <row r="262">
@@ -4106,13 +4106,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.501842141151428</v>
+        <v>1.500435709953308</v>
       </c>
       <c r="C262" t="n">
-        <v>1.435691833496094</v>
+        <v>1.434229016304016</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06615030765533447</v>
+        <v>0.06620669364929199</v>
       </c>
     </row>
     <row r="263">
@@ -4120,13 +4120,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.182463765144348</v>
+        <v>1.181186556816101</v>
       </c>
       <c r="C263" t="n">
-        <v>2.189646482467651</v>
+        <v>2.187848091125488</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.007182717323303</v>
+        <v>-1.006661534309387</v>
       </c>
     </row>
     <row r="264">
@@ -4134,13 +4134,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.160635590553284</v>
+        <v>1.159366965293884</v>
       </c>
       <c r="C264" t="n">
-        <v>1.75715434551239</v>
+        <v>1.755548477172852</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5965187549591064</v>
+        <v>-0.5961815118789673</v>
       </c>
     </row>
     <row r="265">
@@ -4148,13 +4148,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.322726130485535</v>
+        <v>1.321392059326172</v>
       </c>
       <c r="C265" t="n">
-        <v>1.746086597442627</v>
+        <v>1.744485378265381</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.4233604669570923</v>
+        <v>-0.423093318939209</v>
       </c>
     </row>
     <row r="266">
@@ -4162,13 +4162,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.677209496498108</v>
+        <v>1.675732254981995</v>
       </c>
       <c r="C266" t="n">
-        <v>2.308241844177246</v>
+        <v>2.306390762329102</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6310323476791382</v>
+        <v>-0.6306585073471069</v>
       </c>
     </row>
     <row r="267">
@@ -4176,13 +4176,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9101721048355103</v>
+        <v>0.9090048670768738</v>
       </c>
       <c r="C267" t="n">
-        <v>1.704372048377991</v>
+        <v>1.702789664268494</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7941999435424805</v>
+        <v>-0.7937847971916199</v>
       </c>
     </row>
     <row r="268">
@@ -4190,13 +4190,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.083275437355042</v>
+        <v>1.082038283348083</v>
       </c>
       <c r="C268" t="n">
-        <v>1.315805554389954</v>
+        <v>1.314396142959595</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2325301170349121</v>
+        <v>-0.2323578596115112</v>
       </c>
     </row>
     <row r="269">
@@ -4204,13 +4204,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.157535552978516</v>
+        <v>1.156268358230591</v>
       </c>
       <c r="C269" t="n">
-        <v>1.962554693222046</v>
+        <v>1.960857391357422</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8050191402435303</v>
+        <v>-0.8045890331268311</v>
       </c>
     </row>
     <row r="270">
@@ -4218,13 +4218,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9965547919273376</v>
+        <v>0.9953526258468628</v>
       </c>
       <c r="C270" t="n">
-        <v>2.164355754852295</v>
+        <v>2.162568807601929</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.167800903320312</v>
+        <v>-1.167216181755066</v>
       </c>
     </row>
     <row r="271">
@@ -4232,13 +4232,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9270320534706116</v>
+        <v>0.9258579611778259</v>
       </c>
       <c r="C271" t="n">
-        <v>2.418681144714355</v>
+        <v>2.416780948638916</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.491649150848389</v>
+        <v>-1.490922927856445</v>
       </c>
     </row>
     <row r="272">
@@ -4246,13 +4246,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1106055229902267</v>
+        <v>0.1097613945603371</v>
       </c>
       <c r="C272" t="n">
-        <v>2.442300319671631</v>
+        <v>2.440389633178711</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.331694841384888</v>
+        <v>-2.330628156661987</v>
       </c>
     </row>
     <row r="273">
@@ -4260,13 +4260,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3957268595695496</v>
+        <v>0.3947675228118896</v>
       </c>
       <c r="C273" t="n">
-        <v>2.708874940872192</v>
+        <v>2.70684552192688</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.313148021697998</v>
+        <v>-2.31207799911499</v>
       </c>
     </row>
     <row r="274">
@@ -4274,13 +4274,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4968548119068146</v>
+        <v>0.4958545863628387</v>
       </c>
       <c r="C274" t="n">
-        <v>2.360942840576172</v>
+        <v>2.359068155288696</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.86408805847168</v>
+        <v>-1.863213539123535</v>
       </c>
     </row>
     <row r="275">
@@ -4288,13 +4288,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3054603338241577</v>
+        <v>0.3045374751091003</v>
       </c>
       <c r="C275" t="n">
-        <v>1.86457359790802</v>
+        <v>1.862919688224792</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.559113264083862</v>
+        <v>-1.558382272720337</v>
       </c>
     </row>
     <row r="276">
@@ -4302,13 +4302,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4239033460617065</v>
+        <v>0.4229325950145721</v>
       </c>
       <c r="C276" t="n">
-        <v>1.390582203865051</v>
+        <v>1.389139294624329</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9666788578033447</v>
+        <v>-0.9662066698074341</v>
       </c>
     </row>
     <row r="277">
@@ -4316,13 +4316,13 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8408210277557373</v>
+        <v>0.8396818041801453</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9241417646408081</v>
+        <v>0.9229065179824829</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.0833207368850708</v>
+        <v>-0.08322471380233765</v>
       </c>
     </row>
     <row r="278">
@@ -4330,13 +4330,13 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7794421911239624</v>
+        <v>0.7783277630805969</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5609899163246155</v>
+        <v>0.5599161386489868</v>
       </c>
       <c r="D278" t="n">
-        <v>0.2184522747993469</v>
+        <v>0.2184116244316101</v>
       </c>
     </row>
     <row r="279">
@@ -4344,13 +4344,13 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6567258238792419</v>
+        <v>0.6556609869003296</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.07175466418266296</v>
+        <v>-0.07254686206579208</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7284804582595825</v>
+        <v>0.7282078266143799</v>
       </c>
     </row>
     <row r="280">
@@ -4358,13 +4358,13 @@
         <v>44986</v>
       </c>
       <c r="B280" t="n">
-        <v>1.138599753379822</v>
+        <v>1.137340188026428</v>
       </c>
       <c r="C280" t="n">
-        <v>0.249205008149147</v>
+        <v>0.2482700049877167</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8893947601318359</v>
+        <v>0.8890701532363892</v>
       </c>
     </row>
     <row r="281">
@@ -4372,13 +4372,13 @@
         <v>45017</v>
       </c>
       <c r="B281" t="n">
-        <v>2.09158992767334</v>
+        <v>2.089945316314697</v>
       </c>
       <c r="C281" t="n">
-        <v>1.296082496643066</v>
+        <v>1.294681549072266</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7955074310302734</v>
+        <v>0.7952637672424316</v>
       </c>
     </row>
     <row r="282">
@@ -4386,13 +4386,27 @@
         <v>45047</v>
       </c>
       <c r="B282" t="n">
-        <v>1.631149053573608</v>
+        <v>1.629690289497375</v>
       </c>
       <c r="C282" t="n">
-        <v>1.51971423625946</v>
+        <v>1.518213987350464</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1114348173141479</v>
+        <v>0.1114763021469116</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.625284910202026</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.675530076026917</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-0.05024516582489014</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8067861199378967</v>
+        <v>0.8055106401443481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7845572233200073</v>
+        <v>0.7835690379142761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0222288966178894</v>
+        <v>0.02194160223007202</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8334640860557556</v>
+        <v>0.8321749567985535</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2625942528247833</v>
+        <v>-0.2632535994052887</v>
       </c>
       <c r="D3" t="n">
-        <v>1.096058368682861</v>
+        <v>1.095428586006165</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9096534848213196</v>
+        <v>0.9083253145217896</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7694752812385559</v>
+        <v>-0.7699754238128662</v>
       </c>
       <c r="D4" t="n">
-        <v>1.679128766059875</v>
+        <v>1.678300738334656</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4856094121932983</v>
+        <v>0.4844982326030731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08535628765821457</v>
+        <v>0.08458766341209412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4002531170845032</v>
+        <v>0.399910569190979</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.710507333278656</v>
+        <v>0.7092811465263367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01448575034737587</v>
+        <v>0.0137393856421113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.696021556854248</v>
+        <v>0.6955417394638062</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07552284747362137</v>
+        <v>0.07462148368358612</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1482691466808319</v>
+        <v>-0.1489644050598145</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2237919867038727</v>
+        <v>0.2235858887434006</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6657853722572327</v>
+        <v>0.6645820140838623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4467349946498871</v>
+        <v>0.4458528757095337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2190503776073456</v>
+        <v>0.2187291383743286</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.034355759620667</v>
+        <v>1.032963871955872</v>
       </c>
       <c r="C9" t="n">
-        <v>1.160379409790039</v>
+        <v>1.159273028373718</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1260236501693726</v>
+        <v>-0.1263091564178467</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.407199859619141</v>
+        <v>1.405616998672485</v>
       </c>
       <c r="C10" t="n">
-        <v>1.12536895275116</v>
+        <v>1.124273657798767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281830906867981</v>
+        <v>0.2813433408737183</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9679800271987915</v>
+        <v>0.9666220545768738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9645669460296631</v>
+        <v>0.9635221362113953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003413081169128418</v>
+        <v>0.003099918365478516</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.050557017326355</v>
+        <v>1.049156785011292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8039684295654297</v>
+        <v>0.8029741048812866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2465885877609253</v>
+        <v>0.2461826801300049</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7324405908584595</v>
+        <v>0.7312031388282776</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3157663941383362</v>
+        <v>0.3149254024028778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4166741967201233</v>
+        <v>0.4162777364253998</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.23990698158741</v>
+        <v>0.2389215081930161</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05306581407785416</v>
+        <v>-0.05379096418619156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2929728031158447</v>
+        <v>0.2927124798297882</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.504785418510437</v>
+        <v>0.5036644339561462</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3907193541526794</v>
+        <v>-0.3913384675979614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8955047726631165</v>
+        <v>0.8950029015541077</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.177452564239502</v>
+        <v>1.175987243652344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242852583527565</v>
+        <v>0.2420344948768616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9345999956130981</v>
+        <v>0.9339527487754822</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.016438484191895</v>
+        <v>1.015055656433105</v>
       </c>
       <c r="C17" t="n">
-        <v>1.05030369758606</v>
+        <v>1.049232006072998</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03386521339416504</v>
+        <v>-0.03417634963989258</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.09649932384491</v>
+        <v>1.095075607299805</v>
       </c>
       <c r="C18" t="n">
-        <v>1.843181252479553</v>
+        <v>1.84186065196991</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7466819286346436</v>
+        <v>-0.746785044670105</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.027861475944519</v>
+        <v>1.026472926139832</v>
       </c>
       <c r="C19" t="n">
-        <v>1.174197912216187</v>
+        <v>1.173087358474731</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1463364362716675</v>
+        <v>-0.1466144323348999</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4091907143592834</v>
+        <v>0.4081186354160309</v>
       </c>
       <c r="C20" t="n">
-        <v>1.993950128555298</v>
+        <v>1.992582082748413</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.584759473800659</v>
+        <v>-1.584463477134705</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7172585725784302</v>
+        <v>0.7160288691520691</v>
       </c>
       <c r="C21" t="n">
-        <v>1.373045444488525</v>
+        <v>1.371872305870056</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6557868719100952</v>
+        <v>-0.6558434367179871</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7054303884506226</v>
+        <v>0.7042067646980286</v>
       </c>
       <c r="C22" t="n">
-        <v>1.489952087402344</v>
+        <v>1.488742232322693</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7845216989517212</v>
+        <v>-0.7845354676246643</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3917375504970551</v>
+        <v>0.3906744122505188</v>
       </c>
       <c r="C23" t="n">
-        <v>1.316609621047974</v>
+        <v>1.315454125404358</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9248720407485962</v>
+        <v>-0.9247797131538391</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6703382730484009</v>
+        <v>0.6691325902938843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8391861915588379</v>
+        <v>0.8381808400154114</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.168847918510437</v>
+        <v>-0.1690482497215271</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.098200798034668</v>
+        <v>1.096776247024536</v>
       </c>
       <c r="C25" t="n">
-        <v>1.000953316688538</v>
+        <v>0.9998971819877625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09724748134613037</v>
+        <v>0.09687906503677368</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8898970484733582</v>
+        <v>0.8885790109634399</v>
       </c>
       <c r="C26" t="n">
-        <v>1.52057409286499</v>
+        <v>1.519354701042175</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6306770443916321</v>
+        <v>-0.6307756900787354</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.138132572174072</v>
+        <v>1.136687517166138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7311862111091614</v>
+        <v>0.7302147150039673</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4069463610649109</v>
+        <v>0.4064728021621704</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.169938325881958</v>
+        <v>1.168476939201355</v>
       </c>
       <c r="C28" t="n">
-        <v>1.970992088317871</v>
+        <v>1.969631314277649</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8010537624359131</v>
+        <v>-0.8011543750762939</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9057173728942871</v>
+        <v>0.9043912887573242</v>
       </c>
       <c r="C29" t="n">
-        <v>1.824615478515625</v>
+        <v>1.82330060005188</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9188981056213379</v>
+        <v>-0.9189093112945557</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4872975945472717</v>
+        <v>0.4861855506896973</v>
       </c>
       <c r="C30" t="n">
-        <v>1.598347902297974</v>
+        <v>1.597104072570801</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.111050367355347</v>
+        <v>-1.110918521881104</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7529194951057434</v>
+        <v>0.7516715526580811</v>
       </c>
       <c r="C31" t="n">
-        <v>1.222121357917786</v>
+        <v>1.220995664596558</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4692018628120422</v>
+        <v>-0.4693241119384766</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8515937924385071</v>
+        <v>0.85029536485672</v>
       </c>
       <c r="C32" t="n">
-        <v>1.382014274597168</v>
+        <v>1.38083827495575</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5304204821586609</v>
+        <v>-0.5305429100990295</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6944707036018372</v>
+        <v>0.6932526826858521</v>
       </c>
       <c r="C33" t="n">
-        <v>1.316815614700317</v>
+        <v>1.315660119056702</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6223449110984802</v>
+        <v>-0.6224074363708496</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>1.997954845428467</v>
+        <v>1.99606990814209</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5239410400390625</v>
+        <v>0.5230346918106079</v>
       </c>
       <c r="D34" t="n">
-        <v>1.474013805389404</v>
+        <v>1.473035216331482</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.456590175628662</v>
+        <v>1.454982161521912</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1167802959680557</v>
+        <v>-0.1174854338169098</v>
       </c>
       <c r="D35" t="n">
-        <v>1.573370456695557</v>
+        <v>1.572467565536499</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.203908443450928</v>
+        <v>1.20242977142334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5148940682411194</v>
+        <v>0.5139905214309692</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6890143752098083</v>
+        <v>0.6884392499923706</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.486472368240356</v>
+        <v>1.484849095344543</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0190269947052</v>
+        <v>2.017651081085205</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5325546264648438</v>
+        <v>-0.5328019857406616</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.323705196380615</v>
+        <v>1.322165131568909</v>
       </c>
       <c r="C38" t="n">
-        <v>2.139988899230957</v>
+        <v>2.138575077056885</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8162837028503418</v>
+        <v>-0.8164099454879761</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.961326837539673</v>
+        <v>1.959460735321045</v>
       </c>
       <c r="C39" t="n">
-        <v>1.630668640136719</v>
+        <v>1.629414677619934</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3306581974029541</v>
+        <v>0.3300460577011108</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.736592531204224</v>
+        <v>1.734841465950012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.098629713058472</v>
+        <v>1.097542881965637</v>
       </c>
       <c r="D40" t="n">
-        <v>0.637962818145752</v>
+        <v>0.637298583984375</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.81303334236145</v>
+        <v>1.811243057250977</v>
       </c>
       <c r="C41" t="n">
-        <v>1.634131908416748</v>
+        <v>1.632876753807068</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1789014339447021</v>
+        <v>0.1783663034439087</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.747487664222717</v>
+        <v>1.745730757713318</v>
       </c>
       <c r="C42" t="n">
-        <v>1.171788811683655</v>
+        <v>1.170678973197937</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5756988525390625</v>
+        <v>0.5750517845153809</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.595170855522156</v>
+        <v>1.593492150306702</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6980282068252563</v>
+        <v>0.6970672011375427</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8971426486968994</v>
+        <v>0.8964249491691589</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.156905889511108</v>
+        <v>1.15545129776001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4664407074451447</v>
+        <v>0.4655523896217346</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6904652118682861</v>
+        <v>0.6898989081382751</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.080138921737671</v>
+        <v>1.078723549842834</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03111451491713524</v>
+        <v>0.0303629282861948</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04902446269989</v>
+        <v>1.048360586166382</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.341880083084106</v>
+        <v>1.340330839157104</v>
       </c>
       <c r="C46" t="n">
-        <v>1.105176687240601</v>
+        <v>1.104087829589844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2367033958435059</v>
+        <v>0.2362430095672607</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9844890236854553</v>
+        <v>0.9831226468086243</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8748270273208618</v>
+        <v>0.8738104104995728</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1096619963645935</v>
+        <v>0.1093122363090515</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6518745422363281</v>
+        <v>0.650678277015686</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9936384558677673</v>
+        <v>0.9925844669342041</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3417639136314392</v>
+        <v>-0.3419061899185181</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7077717781066895</v>
+        <v>0.7065469026565552</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3631188571453094</v>
+        <v>0.3622629940509796</v>
       </c>
       <c r="D49" t="n">
-        <v>0.34465292096138</v>
+        <v>0.3442839086055756</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.374234437942505</v>
+        <v>1.372668623924255</v>
       </c>
       <c r="C50" t="n">
-        <v>1.370919108390808</v>
+        <v>1.369746565818787</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003315329551696777</v>
+        <v>0.00292205810546875</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.335572004318237</v>
+        <v>1.334026098251343</v>
       </c>
       <c r="C51" t="n">
-        <v>1.23093318939209</v>
+        <v>1.229804873466492</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1046388149261475</v>
+        <v>0.1042212247848511</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.015150308609009</v>
+        <v>1.013768196105957</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6038589477539062</v>
+        <v>0.6029275059700012</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4112913608551025</v>
+        <v>0.4108406901359558</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.137453436851501</v>
+        <v>1.136008858680725</v>
       </c>
       <c r="C53" t="n">
-        <v>1.121321439743042</v>
+        <v>1.120227456092834</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01613199710845947</v>
+        <v>0.01578140258789062</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1884132474660873</v>
+        <v>-0.1891795694828033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8712949156761169</v>
+        <v>0.8702794313430786</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.059708118438721</v>
+        <v>-1.05945897102356</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0614062026143074</v>
+        <v>-0.06223751232028008</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7963100075721741</v>
+        <v>0.7953180074691772</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8577162027359009</v>
+        <v>-0.8575555086135864</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.163580596446991</v>
+        <v>0.1626341789960861</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7405295968055725</v>
+        <v>0.7395552396774292</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5769490003585815</v>
+        <v>-0.5769210457801819</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.137889862060547</v>
+        <v>1.136445045471191</v>
       </c>
       <c r="C57" t="n">
-        <v>0.834053099155426</v>
+        <v>0.8330492973327637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3038367629051208</v>
+        <v>0.3033957481384277</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.246871471405029</v>
+        <v>1.245370864868164</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6474472880363464</v>
+        <v>0.6465020775794983</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5994241833686829</v>
+        <v>0.5988687872886658</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.236645817756653</v>
+        <v>1.235150218009949</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6837338209152222</v>
+        <v>0.6827772259712219</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5529119968414307</v>
+        <v>0.5523729920387268</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.056802749633789</v>
+        <v>1.055399298667908</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9206673502922058</v>
+        <v>0.9196363687515259</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1361353993415833</v>
+        <v>0.1357629299163818</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.002140283584595</v>
+        <v>1.000764846801758</v>
       </c>
       <c r="C61" t="n">
-        <v>1.1474529504776</v>
+        <v>1.146350741386414</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1453126668930054</v>
+        <v>-0.1455858945846558</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8634263873100281</v>
+        <v>0.8621219396591187</v>
       </c>
       <c r="C62" t="n">
-        <v>1.460938930511475</v>
+        <v>1.459738373756409</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5975125432014465</v>
+        <v>-0.59761643409729</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9141028523445129</v>
+        <v>0.9127724170684814</v>
       </c>
       <c r="C63" t="n">
-        <v>2.635968923568726</v>
+        <v>2.6343994140625</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.721866130828857</v>
+        <v>-1.721626996994019</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.152036190032959</v>
+        <v>1.150584101676941</v>
       </c>
       <c r="C64" t="n">
-        <v>2.564754247665405</v>
+        <v>2.563206672668457</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.412718057632446</v>
+        <v>-1.412622570991516</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.34946072101593</v>
+        <v>1.347907543182373</v>
       </c>
       <c r="C65" t="n">
-        <v>1.045906782150269</v>
+        <v>1.044836401939392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3035539388656616</v>
+        <v>0.303071141242981</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.521600008010864</v>
+        <v>1.51995861530304</v>
       </c>
       <c r="C66" t="n">
-        <v>1.230281949043274</v>
+        <v>1.229153752326965</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2913180589675903</v>
+        <v>0.2908048629760742</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.356192588806152</v>
+        <v>1.354635834693909</v>
       </c>
       <c r="C67" t="n">
-        <v>1.633213520050049</v>
+        <v>1.631958842277527</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2770209312438965</v>
+        <v>-0.2773230075836182</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5964170694351196</v>
+        <v>0.5952492356300354</v>
       </c>
       <c r="C68" t="n">
-        <v>1.689505934715271</v>
+        <v>1.688233375549316</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.093088865280151</v>
+        <v>-1.092984199523926</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9792574048042297</v>
+        <v>0.9778936505317688</v>
       </c>
       <c r="C69" t="n">
-        <v>1.740593194961548</v>
+        <v>1.739304780960083</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7613357901573181</v>
+        <v>-0.7614111304283142</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8796237111091614</v>
+        <v>0.8783109188079834</v>
       </c>
       <c r="C70" t="n">
-        <v>1.976424098014832</v>
+        <v>1.975061416625977</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.096800327301025</v>
+        <v>-1.096750497817993</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7861515283584595</v>
+        <v>0.7848865985870361</v>
       </c>
       <c r="C71" t="n">
-        <v>1.751052141189575</v>
+        <v>1.749760508537292</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9649006128311157</v>
+        <v>-0.9648739099502563</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.496500164270401</v>
+        <v>0.4953834414482117</v>
       </c>
       <c r="C72" t="n">
-        <v>1.624964594841003</v>
+        <v>1.623712420463562</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.128464460372925</v>
+        <v>-1.128329038619995</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3450444340705872</v>
+        <v>0.3440051674842834</v>
       </c>
       <c r="C73" t="n">
-        <v>1.229423522949219</v>
+        <v>1.228295564651489</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8843790888786316</v>
+        <v>-0.8842903971672058</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4326803088188171</v>
+        <v>0.4315962195396423</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5593789219856262</v>
+        <v>0.5584614276885986</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1266986131668091</v>
+        <v>-0.1268652081489563</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.484696626663208</v>
+        <v>0.483585923910141</v>
       </c>
       <c r="C75" t="n">
-        <v>1.898903489112854</v>
+        <v>1.897565245628357</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.414206862449646</v>
+        <v>-1.413979291915894</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.797823429107666</v>
+        <v>0.7965525388717651</v>
       </c>
       <c r="C76" t="n">
-        <v>1.214313507080078</v>
+        <v>1.21319043636322</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4164900779724121</v>
+        <v>-0.4166378974914551</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.742341935634613</v>
+        <v>0.7410994172096252</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8182827830314636</v>
+        <v>0.8172839283943176</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07594084739685059</v>
+        <v>-0.07618451118469238</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.068552851676941</v>
+        <v>1.067143440246582</v>
       </c>
       <c r="C78" t="n">
-        <v>1.493215560913086</v>
+        <v>1.492004752159119</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.424662709236145</v>
+        <v>-0.4248613119125366</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8428760766983032</v>
+        <v>0.8415821194648743</v>
       </c>
       <c r="C79" t="n">
-        <v>1.262763857841492</v>
+        <v>1.261625528335571</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4198877811431885</v>
+        <v>-0.420043408870697</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9207221269607544</v>
+        <v>0.9193883538246155</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5200885534286499</v>
+        <v>0.5191833972930908</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4006335735321045</v>
+        <v>0.4002049565315247</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.506628274917603</v>
+        <v>1.504994869232178</v>
       </c>
       <c r="C81" t="n">
-        <v>0.664521336555481</v>
+        <v>0.6635708212852478</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8421069383621216</v>
+        <v>0.8414240479469299</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.283646106719971</v>
+        <v>1.282126545906067</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6720157861709595</v>
+        <v>-0.6725465059280396</v>
       </c>
       <c r="D82" t="n">
-        <v>1.95566189289093</v>
+        <v>1.954673051834106</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.576510548591614</v>
+        <v>1.574841260910034</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8383743166923523</v>
+        <v>-0.8388528227806091</v>
       </c>
       <c r="D83" t="n">
-        <v>2.414884805679321</v>
+        <v>2.413694143295288</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.816563606262207</v>
+        <v>1.81477153301239</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1774612367153168</v>
+        <v>-0.1781473159790039</v>
       </c>
       <c r="D84" t="n">
-        <v>1.994024872779846</v>
+        <v>1.992918848991394</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.829395890235901</v>
+        <v>1.827597260475159</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9515634775161743</v>
+        <v>0.9505228996276855</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8778324127197266</v>
+        <v>0.8770743608474731</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.679263234138489</v>
+        <v>1.677541375160217</v>
       </c>
       <c r="C86" t="n">
-        <v>1.22972309589386</v>
+        <v>1.22859513759613</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4495401382446289</v>
+        <v>0.4489462375640869</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.539505004882812</v>
+        <v>1.537854790687561</v>
       </c>
       <c r="C87" t="n">
-        <v>1.930251717567444</v>
+        <v>1.928903579711914</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3907467126846313</v>
+        <v>-0.391048789024353</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.351702094078064</v>
+        <v>1.350147843360901</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8726394176483154</v>
+        <v>0.8716236352920532</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4790626764297485</v>
+        <v>0.4785242080688477</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.397002100944519</v>
+        <v>1.395424723625183</v>
       </c>
       <c r="C89" t="n">
-        <v>1.028475403785706</v>
+        <v>1.027410626411438</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3685266971588135</v>
+        <v>0.3680140972137451</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.738652110099792</v>
+        <v>1.736899852752686</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7989903092384338</v>
+        <v>0.7979975342750549</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9396618008613586</v>
+        <v>0.9389023184776306</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.884084582328796</v>
+        <v>1.88225793838501</v>
       </c>
       <c r="C91" t="n">
-        <v>1.167844176292419</v>
+        <v>1.166735410690308</v>
       </c>
       <c r="D91" t="n">
-        <v>0.716240406036377</v>
+        <v>0.7155225276947021</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.556010842323303</v>
+        <v>1.554352045059204</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8591243624687195</v>
+        <v>0.8581127524375916</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6968864798545837</v>
+        <v>0.6962392926216125</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.70154595375061</v>
+        <v>1.699812650680542</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7073049545288086</v>
+        <v>0.7063409686088562</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9942409992218018</v>
+        <v>0.9934716820716858</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.423541069030762</v>
+        <v>1.421949982643127</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2158864140510559</v>
+        <v>0.2150767892599106</v>
       </c>
       <c r="D94" t="n">
-        <v>1.207654714584351</v>
+        <v>1.206873178482056</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.076402544975281</v>
+        <v>1.074989080429077</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5168401002883911</v>
+        <v>0.5159359574317932</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5595624446868896</v>
+        <v>0.5590531229972839</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6624083518981934</v>
+        <v>0.6612067222595215</v>
       </c>
       <c r="C96" t="n">
-        <v>0.71929532289505</v>
+        <v>0.7183276414871216</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05688697099685669</v>
+        <v>-0.0571209192276001</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5979589223861694</v>
+        <v>0.5967903137207031</v>
       </c>
       <c r="C97" t="n">
-        <v>1.038097500801086</v>
+        <v>1.037029623985291</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.440138578414917</v>
+        <v>-0.4402393102645874</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9972063302993774</v>
+        <v>0.9958333969116211</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9636059999465942</v>
+        <v>0.9625616073608398</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0336003303527832</v>
+        <v>0.03327178955078125</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2736196517944336</v>
+        <v>0.2726169526576996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1050043702125549</v>
+        <v>0.1042295768857002</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1686152815818787</v>
+        <v>0.16838738322258</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.06248295679688454</v>
+        <v>-0.06331371515989304</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3545202612876892</v>
+        <v>-0.3551507294178009</v>
       </c>
       <c r="D100" t="n">
-        <v>0.292037308216095</v>
+        <v>0.2918370068073273</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2363242208957672</v>
+        <v>-0.2370660454034805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3210029304027557</v>
+        <v>0.320160299539566</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5573271512985229</v>
+        <v>-0.5572263598442078</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2056034207344055</v>
+        <v>0.2046355009078979</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2770274579524994</v>
+        <v>-0.2776822745800018</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4826308786869049</v>
+        <v>0.4823177754878998</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7447873950004578</v>
+        <v>0.7435436248779297</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4498731791973114</v>
+        <v>-0.4504736959934235</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194660544395447</v>
+        <v>1.194017291069031</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.994770884513855</v>
+        <v>0.9933992624282837</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7076224088668823</v>
+        <v>-0.7081419825553894</v>
       </c>
       <c r="D104" t="n">
-        <v>1.702393293380737</v>
+        <v>1.701541185379028</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.061517596244812</v>
+        <v>1.06011176109314</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.05088714510202408</v>
+        <v>-0.0516129769384861</v>
       </c>
       <c r="D105" t="n">
-        <v>1.112404704093933</v>
+        <v>1.111724734306335</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.166061520576477</v>
+        <v>1.164602160453796</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6411994695663452</v>
+        <v>0.6402562856674194</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5248620510101318</v>
+        <v>0.524345874786377</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.074617028236389</v>
+        <v>1.073204517364502</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4665091931819916</v>
+        <v>0.4656208753585815</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6081078052520752</v>
+        <v>0.6075836420059204</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8324064612388611</v>
+        <v>0.8311178684234619</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8548548221588135</v>
+        <v>0.8538445830345154</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02244836091995239</v>
+        <v>-0.02272671461105347</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5608076453208923</v>
+        <v>0.5596579909324646</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9556349515914917</v>
+        <v>0.9545930027961731</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3948273062705994</v>
+        <v>-0.3949350118637085</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8277981877326965</v>
+        <v>0.8265119194984436</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9981856942176819</v>
+        <v>0.9971304535865784</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1703875064849854</v>
+        <v>-0.1706185340881348</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.185882449150085</v>
+        <v>1.184412837028503</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4689021110534668</v>
+        <v>0.4680130183696747</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7169803380966187</v>
+        <v>0.7163997888565063</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.693413376808167</v>
+        <v>1.691684246063232</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8023971915245056</v>
+        <v>0.8014034032821655</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8910161852836609</v>
+        <v>0.8902808427810669</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.037689208984375</v>
+        <v>1.036295533180237</v>
       </c>
       <c r="C113" t="n">
-        <v>1.109343647956848</v>
+        <v>1.108253479003906</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07165443897247314</v>
+        <v>-0.07195794582366943</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.451135277748108</v>
+        <v>1.449530124664307</v>
       </c>
       <c r="C114" t="n">
-        <v>1.708636283874512</v>
+        <v>1.70735776424408</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2575010061264038</v>
+        <v>-0.2578276395797729</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.989378094673157</v>
+        <v>1.987497568130493</v>
       </c>
       <c r="C115" t="n">
-        <v>1.965298414230347</v>
+        <v>1.963939428329468</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02407968044281006</v>
+        <v>0.02355813980102539</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.303714275360107</v>
+        <v>1.302184581756592</v>
       </c>
       <c r="C116" t="n">
-        <v>2.459902048110962</v>
+        <v>2.458387851715088</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.156187772750854</v>
+        <v>-1.156203269958496</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.690009593963623</v>
+        <v>1.688282251358032</v>
       </c>
       <c r="C117" t="n">
-        <v>2.187555313110352</v>
+        <v>2.186126470565796</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4975457191467285</v>
+        <v>-0.4978442192077637</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71348512172699</v>
+        <v>1.711745619773865</v>
       </c>
       <c r="C118" t="n">
-        <v>1.621750116348267</v>
+        <v>1.620498895645142</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09173500537872314</v>
+        <v>0.09124672412872314</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.919537544250488</v>
+        <v>1.91769278049469</v>
       </c>
       <c r="C119" t="n">
-        <v>1.69253146648407</v>
+        <v>1.691258072853088</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2270060777664185</v>
+        <v>0.2264347076416016</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.372335076332092</v>
+        <v>1.370770335197449</v>
       </c>
       <c r="C120" t="n">
-        <v>1.675508618354797</v>
+        <v>1.674240469932556</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3031735420227051</v>
+        <v>-0.3034701347351074</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.989317178726196</v>
+        <v>1.987436652183533</v>
       </c>
       <c r="C121" t="n">
-        <v>1.681445598602295</v>
+        <v>1.680175542831421</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3078715801239014</v>
+        <v>0.3072611093521118</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.038427829742432</v>
+        <v>2.036522150039673</v>
       </c>
       <c r="C122" t="n">
-        <v>1.241266489028931</v>
+        <v>1.240134716033936</v>
       </c>
       <c r="D122" t="n">
-        <v>0.797161340713501</v>
+        <v>0.7963874340057373</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.342210054397583</v>
+        <v>2.34014892578125</v>
       </c>
       <c r="C123" t="n">
-        <v>2.134802103042603</v>
+        <v>2.133389711380005</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2074079513549805</v>
+        <v>0.2067592144012451</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.443931579589844</v>
+        <v>2.441818475723267</v>
       </c>
       <c r="C124" t="n">
-        <v>1.807260632514954</v>
+        <v>1.805951118469238</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6366709470748901</v>
+        <v>0.6358673572540283</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.412144184112549</v>
+        <v>2.410047054290771</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61666464805603</v>
+        <v>1.615414977073669</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7954795360565186</v>
+        <v>0.7946320772171021</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.770285248756409</v>
+        <v>1.768516778945923</v>
       </c>
       <c r="C126" t="n">
-        <v>2.236673831939697</v>
+        <v>2.235229730606079</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4663885831832886</v>
+        <v>-0.4667129516601562</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.778212428092957</v>
+        <v>1.776439905166626</v>
       </c>
       <c r="C127" t="n">
-        <v>2.107479095458984</v>
+        <v>2.106075286865234</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3292666673660278</v>
+        <v>-0.3296353816986084</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.477485060691833</v>
+        <v>1.475866556167603</v>
       </c>
       <c r="C128" t="n">
-        <v>1.93426525592804</v>
+        <v>1.932915925979614</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4567801952362061</v>
+        <v>-0.4570493698120117</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.165418028831482</v>
+        <v>1.16395902633667</v>
       </c>
       <c r="C129" t="n">
-        <v>1.766046166419983</v>
+        <v>1.764749646186829</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.600628137588501</v>
+        <v>-0.6007906198501587</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8028826713562012</v>
+        <v>0.801609218120575</v>
       </c>
       <c r="C130" t="n">
-        <v>2.92247748374939</v>
+        <v>2.920817852020264</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.119594812393188</v>
+        <v>-2.119208574295044</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3873646259307861</v>
+        <v>0.386303722858429</v>
       </c>
       <c r="C131" t="n">
-        <v>2.158422946929932</v>
+        <v>2.157003402709961</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.771058320999146</v>
+        <v>-1.770699739456177</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06205415353178978</v>
+        <v>-0.06288512796163559</v>
       </c>
       <c r="C132" t="n">
-        <v>1.817298054695129</v>
+        <v>1.815985441207886</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.879352211952209</v>
+        <v>-1.878870606422424</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.08845549821853638</v>
+        <v>0.08754751831293106</v>
       </c>
       <c r="C133" t="n">
-        <v>0.807793915271759</v>
+        <v>0.8067983984947205</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7193384170532227</v>
+        <v>-0.7192508578300476</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1506654769182205</v>
+        <v>0.1497256606817245</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1641144156455994</v>
+        <v>0.1633210629224777</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01344893872737885</v>
+        <v>-0.01359540224075317</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3752384185791016</v>
+        <v>0.374183714389801</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3512570559978485</v>
+        <v>0.3504049181938171</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02398136258125305</v>
+        <v>0.02377879619598389</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7249103784561157</v>
+        <v>0.7236768007278442</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1951397806406021</v>
+        <v>0.1943366825580597</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5297706127166748</v>
+        <v>0.5293401479721069</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5957980751991272</v>
+        <v>0.5946305394172668</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5001126527786255</v>
+        <v>0.4992137849330902</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09568542242050171</v>
+        <v>0.09541675448417664</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8371025919914246</v>
+        <v>0.8358115553855896</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9648317694664001</v>
+        <v>0.9637869000434875</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1277291774749756</v>
+        <v>-0.1279753446578979</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.296526670455933</v>
+        <v>1.295000433921814</v>
       </c>
       <c r="C139" t="n">
-        <v>1.028380393981934</v>
+        <v>1.027315497398376</v>
       </c>
       <c r="D139" t="n">
-        <v>0.268146276473999</v>
+        <v>0.2676849365234375</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.253385066986084</v>
+        <v>1.251881003379822</v>
       </c>
       <c r="C140" t="n">
-        <v>1.266513347625732</v>
+        <v>1.265373826026917</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01312828063964844</v>
+        <v>-0.01349282264709473</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.483548641204834</v>
+        <v>1.481927037239075</v>
       </c>
       <c r="C141" t="n">
-        <v>1.220996856689453</v>
+        <v>1.219871520996094</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2625517845153809</v>
+        <v>0.262055516242981</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.396631598472595</v>
+        <v>1.39505410194397</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1886675655841827</v>
+        <v>0.1878664940595627</v>
       </c>
       <c r="D142" t="n">
-        <v>1.207964062690735</v>
+        <v>1.207187652587891</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.756211876869202</v>
+        <v>1.754450559616089</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2761186957359314</v>
+        <v>0.2752901613712311</v>
       </c>
       <c r="D143" t="n">
-        <v>1.480093240737915</v>
+        <v>1.47916042804718</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.596178293228149</v>
+        <v>1.594498753547668</v>
       </c>
       <c r="C144" t="n">
-        <v>1.275903820991516</v>
+        <v>1.274761438369751</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3202744722366333</v>
+        <v>0.3197373151779175</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.703276515007019</v>
+        <v>1.701542496681213</v>
       </c>
       <c r="C145" t="n">
-        <v>1.464536070823669</v>
+        <v>1.463334202766418</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2387404441833496</v>
+        <v>0.2382082939147949</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.145471811294556</v>
+        <v>1.144023060798645</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8936905860900879</v>
+        <v>0.8926680684089661</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2517812252044678</v>
+        <v>0.251354992389679</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7214502692222595</v>
+        <v>0.7202184200286865</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8424587249755859</v>
+        <v>0.8414523005485535</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1210084557533264</v>
+        <v>-0.1212338805198669</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2822653651237488</v>
+        <v>0.2812582552433014</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2280835807323456</v>
+        <v>-0.2287537604570389</v>
       </c>
       <c r="D148" t="n">
-        <v>0.510348916053772</v>
+        <v>0.5100120306015015</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6763553619384766</v>
+        <v>0.6751465797424316</v>
       </c>
       <c r="C149" t="n">
-        <v>1.55628776550293</v>
+        <v>1.555057048797607</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8799324035644531</v>
+        <v>-0.8799104690551758</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.031865358352661</v>
+        <v>1.030474662780762</v>
       </c>
       <c r="C150" t="n">
-        <v>2.447524547576904</v>
+        <v>2.446013927459717</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.415659189224243</v>
+        <v>-1.415539264678955</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.320913076400757</v>
+        <v>1.319374680519104</v>
       </c>
       <c r="C151" t="n">
-        <v>1.278064727783203</v>
+        <v>1.276921510696411</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04284834861755371</v>
+        <v>0.04245316982269287</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.354609966278076</v>
+        <v>1.353054165840149</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2888699173927307</v>
+        <v>0.2880373895168304</v>
       </c>
       <c r="D152" t="n">
-        <v>1.06574010848999</v>
+        <v>1.065016746520996</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.10141396522522</v>
+        <v>2.099476099014282</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1854604035615921</v>
+        <v>0.1846603453159332</v>
       </c>
       <c r="D153" t="n">
-        <v>1.915953516960144</v>
+        <v>1.914815783500671</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.988454580307007</v>
+        <v>1.986574530601501</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4533157646656036</v>
+        <v>0.4524315595626831</v>
       </c>
       <c r="D154" t="n">
-        <v>1.535138845443726</v>
+        <v>1.534142971038818</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.853690266609192</v>
+        <v>1.851879239082336</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7599326372146606</v>
+        <v>0.758952260017395</v>
       </c>
       <c r="D155" t="n">
-        <v>1.093757629394531</v>
+        <v>1.092926979064941</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.601364254951477</v>
+        <v>1.599682211875916</v>
       </c>
       <c r="C156" t="n">
-        <v>1.352821111679077</v>
+        <v>1.351654410362244</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2485431432723999</v>
+        <v>0.2480278015136719</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.900186777114868</v>
+        <v>1.898351907730103</v>
       </c>
       <c r="C157" t="n">
-        <v>1.723137855529785</v>
+        <v>1.72185492515564</v>
       </c>
       <c r="D157" t="n">
-        <v>0.177048921585083</v>
+        <v>0.1764969825744629</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.538238644599915</v>
+        <v>1.536588788032532</v>
       </c>
       <c r="C158" t="n">
-        <v>1.474622964859009</v>
+        <v>1.47341787815094</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06361567974090576</v>
+        <v>0.0631709098815918</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.369600176811218</v>
+        <v>1.36803662776947</v>
       </c>
       <c r="C159" t="n">
-        <v>1.64121150970459</v>
+        <v>1.639954209327698</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2716113328933716</v>
+        <v>-0.2719175815582275</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.678296804428101</v>
+        <v>1.676575422286987</v>
       </c>
       <c r="C160" t="n">
-        <v>1.730629444122314</v>
+        <v>1.729344010353088</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05233263969421387</v>
+        <v>-0.05276858806610107</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.347448229789734</v>
+        <v>1.345896005630493</v>
       </c>
       <c r="C161" t="n">
-        <v>1.683111906051636</v>
+        <v>1.681841492652893</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3356636762619019</v>
+        <v>-0.3359454870223999</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.581255316734314</v>
+        <v>0.5800952315330505</v>
       </c>
       <c r="C162" t="n">
-        <v>1.873461842536926</v>
+        <v>1.872131586074829</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.292206525802612</v>
+        <v>-1.292036294937134</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3752770125865936</v>
+        <v>0.3742222785949707</v>
       </c>
       <c r="C163" t="n">
-        <v>1.348145127296448</v>
+        <v>1.346979737281799</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9728680849075317</v>
+        <v>-0.9727574586868286</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6772556304931641</v>
+        <v>0.6760463714599609</v>
       </c>
       <c r="C164" t="n">
-        <v>1.45122766494751</v>
+        <v>1.450030088424683</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7739720344543457</v>
+        <v>-0.7739837169647217</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8647615909576416</v>
+        <v>0.8634564280509949</v>
       </c>
       <c r="C165" t="n">
-        <v>1.122269511222839</v>
+        <v>1.121175289154053</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2575079202651978</v>
+        <v>-0.2577188611030579</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.002978324890137</v>
+        <v>1.001602411270142</v>
       </c>
       <c r="C166" t="n">
-        <v>1.254586219787598</v>
+        <v>1.253450274467468</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2516078948974609</v>
+        <v>-0.2518478631973267</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.625627398490906</v>
+        <v>1.623932957649231</v>
       </c>
       <c r="C167" t="n">
-        <v>1.61589515209198</v>
+        <v>1.614645719528198</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009732246398925781</v>
+        <v>0.009287238121032715</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.954514741897583</v>
+        <v>1.952651977539062</v>
       </c>
       <c r="C168" t="n">
-        <v>1.889201164245605</v>
+        <v>1.887865900993347</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06531357765197754</v>
+        <v>0.06478607654571533</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.182019829750061</v>
+        <v>1.180552244186401</v>
       </c>
       <c r="C169" t="n">
-        <v>1.577879071235657</v>
+        <v>1.57664167881012</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3958592414855957</v>
+        <v>-0.3960894346237183</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9779656529426575</v>
+        <v>0.9766026139259338</v>
       </c>
       <c r="C170" t="n">
-        <v>1.265586733818054</v>
+        <v>1.264447331428528</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.2876210808753967</v>
+        <v>-0.287844717502594</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9014667868614197</v>
+        <v>0.9001428484916687</v>
       </c>
       <c r="C171" t="n">
-        <v>1.017109155654907</v>
+        <v>1.016047954559326</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1156423687934875</v>
+        <v>-0.1159051060676575</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.017295598983765</v>
+        <v>1.015912413597107</v>
       </c>
       <c r="C172" t="n">
-        <v>1.855253100395203</v>
+        <v>1.853928685188293</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.837957501411438</v>
+        <v>-0.8380162715911865</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.216862797737122</v>
+        <v>1.215377449989319</v>
       </c>
       <c r="C173" t="n">
-        <v>1.650041937828064</v>
+        <v>1.648781895637512</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4331791400909424</v>
+        <v>-0.4334044456481934</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.647822141647339</v>
+        <v>1.646116375923157</v>
       </c>
       <c r="C174" t="n">
-        <v>1.84761905670166</v>
+        <v>1.846296906471252</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1997969150543213</v>
+        <v>-0.2001805305480957</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.462669491767883</v>
+        <v>1.461058259010315</v>
       </c>
       <c r="C175" t="n">
-        <v>1.887765884399414</v>
+        <v>1.886431097984314</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.4250963926315308</v>
+        <v>-0.425372838973999</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.085650205612183</v>
+        <v>1.084232091903687</v>
       </c>
       <c r="C176" t="n">
-        <v>1.92304539680481</v>
+        <v>1.921699643135071</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.837395191192627</v>
+        <v>-0.8374675512313843</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.098427414894104</v>
+        <v>1.097002625465393</v>
       </c>
       <c r="C177" t="n">
-        <v>2.047393560409546</v>
+        <v>2.046008586883545</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9489661455154419</v>
+        <v>-0.9490059614181519</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.328982830047607</v>
+        <v>1.327440142631531</v>
       </c>
       <c r="C178" t="n">
-        <v>1.953157186508179</v>
+        <v>1.951802015304565</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6241743564605713</v>
+        <v>-0.6243618726730347</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.888844132423401</v>
+        <v>1.887015104293823</v>
       </c>
       <c r="C179" t="n">
-        <v>1.433748841285706</v>
+        <v>1.432556629180908</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4550952911376953</v>
+        <v>0.454458475112915</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.862838625907898</v>
+        <v>1.86102283000946</v>
       </c>
       <c r="C180" t="n">
-        <v>1.492514729499817</v>
+        <v>1.491304039955139</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3703238964080811</v>
+        <v>0.3697187900543213</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.426720023155212</v>
+        <v>1.425127387046814</v>
       </c>
       <c r="C181" t="n">
-        <v>1.81338906288147</v>
+        <v>1.812077879905701</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3866690397262573</v>
+        <v>-0.3869504928588867</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4876895546913147</v>
+        <v>0.4865773320198059</v>
       </c>
       <c r="C182" t="n">
-        <v>1.207390308380127</v>
+        <v>1.206269145011902</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7197007536888123</v>
+        <v>-0.7196918129920959</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8840694427490234</v>
+        <v>0.882754385471344</v>
       </c>
       <c r="C183" t="n">
-        <v>1.482142925262451</v>
+        <v>1.480935573577881</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5980734825134277</v>
+        <v>-0.5981811881065369</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.554925441741943</v>
+        <v>1.553267121315002</v>
       </c>
       <c r="C184" t="n">
-        <v>1.754913568496704</v>
+        <v>1.753620505332947</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1999881267547607</v>
+        <v>-0.2003533840179443</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.935836791992188</v>
+        <v>1.933983683586121</v>
       </c>
       <c r="C185" t="n">
-        <v>1.657947063446045</v>
+        <v>1.656684637069702</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2778897285461426</v>
+        <v>0.2772990465164185</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.963991403579712</v>
+        <v>1.962123870849609</v>
       </c>
       <c r="C186" t="n">
-        <v>1.610308647155762</v>
+        <v>1.609061121940613</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3536827564239502</v>
+        <v>0.3530627489089966</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.065212965011597</v>
+        <v>2.063293695449829</v>
       </c>
       <c r="C187" t="n">
-        <v>1.46465790271759</v>
+        <v>1.463456034660339</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6005550622940063</v>
+        <v>0.5998376607894897</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.348294973373413</v>
+        <v>2.346230745315552</v>
       </c>
       <c r="C188" t="n">
-        <v>1.499341011047363</v>
+        <v>1.498128175735474</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8489539623260498</v>
+        <v>0.8481025695800781</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.898467302322388</v>
+        <v>2.896121501922607</v>
       </c>
       <c r="C189" t="n">
-        <v>1.659932494163513</v>
+        <v>1.658669352531433</v>
       </c>
       <c r="D189" t="n">
-        <v>1.238534808158875</v>
+        <v>1.237452149391174</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.111822128295898</v>
+        <v>3.109367609024048</v>
       </c>
       <c r="C190" t="n">
-        <v>1.264138102531433</v>
+        <v>1.262999296188354</v>
       </c>
       <c r="D190" t="n">
-        <v>1.847684025764465</v>
+        <v>1.846368312835693</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.095967769622803</v>
+        <v>3.093521356582642</v>
       </c>
       <c r="C191" t="n">
-        <v>1.55502986907959</v>
+        <v>1.553799748420715</v>
       </c>
       <c r="D191" t="n">
-        <v>1.540937900543213</v>
+        <v>1.539721608161926</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.850780010223389</v>
+        <v>2.848458766937256</v>
       </c>
       <c r="C192" t="n">
-        <v>1.861637592315674</v>
+        <v>1.860311150550842</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9891424179077148</v>
+        <v>0.9881476163864136</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.925205945968628</v>
+        <v>2.922846555709839</v>
       </c>
       <c r="C193" t="n">
-        <v>2.927511930465698</v>
+        <v>2.925850629806519</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.002305984497070312</v>
+        <v>-0.003004074096679688</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.831483125686646</v>
+        <v>2.829171895980835</v>
       </c>
       <c r="C194" t="n">
-        <v>3.514461278915405</v>
+        <v>3.51261568069458</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6829781532287598</v>
+        <v>-0.6834437847137451</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.27507758140564</v>
+        <v>2.273050785064697</v>
       </c>
       <c r="C195" t="n">
-        <v>3.294055461883545</v>
+        <v>3.292279005050659</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.018977880477905</v>
+        <v>-1.019228219985962</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.101027250289917</v>
+        <v>3.098577737808228</v>
       </c>
       <c r="C196" t="n">
-        <v>3.719796419143677</v>
+        <v>3.717885971069336</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6187691688537598</v>
+        <v>-0.6193082332611084</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.89610743522644</v>
+        <v>2.893763065338135</v>
       </c>
       <c r="C197" t="n">
-        <v>3.510918855667114</v>
+        <v>3.509073972702026</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6148114204406738</v>
+        <v>-0.6153109073638916</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.010315895080566</v>
+        <v>2.008424520492554</v>
       </c>
       <c r="C198" t="n">
-        <v>3.181084871292114</v>
+        <v>3.179343938827515</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.170768976211548</v>
+        <v>-1.170919418334961</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.052247405052185</v>
+        <v>1.050846338272095</v>
       </c>
       <c r="C199" t="n">
-        <v>2.607093811035156</v>
+        <v>2.605533123016357</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.554846405982971</v>
+        <v>-1.554686784744263</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4193704724311829</v>
+        <v>0.4182931780815125</v>
       </c>
       <c r="C200" t="n">
-        <v>2.872725486755371</v>
+        <v>2.871081352233887</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.453355073928833</v>
+        <v>-2.452788114547729</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.440841913223267</v>
+        <v>1.439242124557495</v>
       </c>
       <c r="C201" t="n">
-        <v>2.630520820617676</v>
+        <v>2.628952741622925</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.189678907394409</v>
+        <v>-1.18971061706543</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.061808466911316</v>
+        <v>1.060402631759644</v>
       </c>
       <c r="C202" t="n">
-        <v>2.733709812164307</v>
+        <v>2.732109546661377</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.671901345252991</v>
+        <v>-1.671706914901733</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.08994996547699</v>
+        <v>1.088529586791992</v>
       </c>
       <c r="C203" t="n">
-        <v>2.482149362564087</v>
+        <v>2.480627775192261</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.392199397087097</v>
+        <v>-1.392098188400269</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.29755711555481</v>
+        <v>1.296030640602112</v>
       </c>
       <c r="C204" t="n">
-        <v>2.115374326705933</v>
+        <v>2.113968133926392</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.817817211151123</v>
+        <v>-0.8179374933242798</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.28232729434967</v>
+        <v>1.280808448791504</v>
       </c>
       <c r="C205" t="n">
-        <v>1.824112772941589</v>
+        <v>1.822798132896423</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5417854785919189</v>
+        <v>-0.5419896841049194</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.050734758377075</v>
+        <v>1.049334526062012</v>
       </c>
       <c r="C206" t="n">
-        <v>1.103087782859802</v>
+        <v>1.101999521255493</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05235302448272705</v>
+        <v>-0.05266499519348145</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.206282019615173</v>
+        <v>1.20480215549469</v>
       </c>
       <c r="C207" t="n">
-        <v>0.962791383266449</v>
+        <v>0.9617472887039185</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2434906363487244</v>
+        <v>0.2430548667907715</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.474653720855713</v>
+        <v>1.473036646842957</v>
       </c>
       <c r="C208" t="n">
-        <v>0.767108678817749</v>
+        <v>0.7661259174346924</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7075450420379639</v>
+        <v>0.7069107294082642</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.515659928321838</v>
+        <v>1.514021754264832</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5861467123031616</v>
+        <v>0.5852208137512207</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9295132160186768</v>
+        <v>0.9288009405136108</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.866202831268311</v>
+        <v>1.86438524723053</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6851667761802673</v>
+        <v>0.6842097640037537</v>
       </c>
       <c r="D210" t="n">
-        <v>1.181035995483398</v>
+        <v>1.180175542831421</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.616179823875427</v>
+        <v>1.614490151405334</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8421497941017151</v>
+        <v>0.8411434888839722</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7740300297737122</v>
+        <v>0.7733466625213623</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.068529605865479</v>
+        <v>2.066608667373657</v>
       </c>
       <c r="C212" t="n">
-        <v>1.12464439868927</v>
+        <v>1.123549342155457</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9438852071762085</v>
+        <v>0.9430593252182007</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.154335498809814</v>
+        <v>2.152370691299438</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5247067809104919</v>
+        <v>0.5238001942634583</v>
       </c>
       <c r="D213" t="n">
-        <v>1.629628658294678</v>
+        <v>1.628570556640625</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.913414120674133</v>
+        <v>1.911572456359863</v>
       </c>
       <c r="C214" t="n">
-        <v>1.035840153694153</v>
+        <v>1.034772992134094</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8775739669799805</v>
+        <v>0.876799464225769</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.052932500839233</v>
+        <v>2.051019668579102</v>
       </c>
       <c r="C215" t="n">
-        <v>1.186086773872375</v>
+        <v>1.184972286224365</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8668457269668579</v>
+        <v>0.8660473823547363</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.924329280853271</v>
+        <v>1.922482013702393</v>
       </c>
       <c r="C216" t="n">
-        <v>1.421045303344727</v>
+        <v>1.419857025146484</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5032839775085449</v>
+        <v>0.5026249885559082</v>
       </c>
     </row>
     <row r="217">
@@ -3476,13 +3476,13 @@
         <v>43070</v>
       </c>
       <c r="B217" t="n">
-        <v>1.002956867218018</v>
+        <v>1.001581072807312</v>
       </c>
       <c r="C217" t="n">
-        <v>1.222166657447815</v>
+        <v>1.221040844917297</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.2192097902297974</v>
+        <v>-0.2194597721099854</v>
       </c>
     </row>
     <row r="218">
@@ -3490,13 +3490,13 @@
         <v>43101</v>
       </c>
       <c r="B218" t="n">
-        <v>0.739504873752594</v>
+        <v>0.7382637858390808</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5148305892944336</v>
+        <v>0.5139270424842834</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2246742844581604</v>
+        <v>0.2243367433547974</v>
       </c>
     </row>
     <row r="219">
@@ -3504,13 +3504,13 @@
         <v>43132</v>
       </c>
       <c r="B219" t="n">
-        <v>1.512412428855896</v>
+        <v>1.510776042938232</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5044163465499878</v>
+        <v>0.5035161375999451</v>
       </c>
       <c r="D219" t="n">
-        <v>1.007996082305908</v>
+        <v>1.007259845733643</v>
       </c>
     </row>
     <row r="220">
@@ -3518,13 +3518,13 @@
         <v>43160</v>
       </c>
       <c r="B220" t="n">
-        <v>1.3746337890625</v>
+        <v>1.373067736625671</v>
       </c>
       <c r="C220" t="n">
-        <v>1.209798574447632</v>
+        <v>1.208676815032959</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1648352146148682</v>
+        <v>0.1643909215927124</v>
       </c>
     </row>
     <row r="221">
@@ -3532,13 +3532,13 @@
         <v>43191</v>
       </c>
       <c r="B221" t="n">
-        <v>1.50973379611969</v>
+        <v>1.508098602294922</v>
       </c>
       <c r="C221" t="n">
-        <v>1.4275723695755</v>
+        <v>1.426382064819336</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08216142654418945</v>
+        <v>0.08171653747558594</v>
       </c>
     </row>
     <row r="222">
@@ -3546,13 +3546,13 @@
         <v>43221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.306849122047424</v>
+        <v>1.305317878723145</v>
       </c>
       <c r="C222" t="n">
-        <v>1.009839534759521</v>
+        <v>1.008780479431152</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2970095872879028</v>
+        <v>0.2965373992919922</v>
       </c>
     </row>
     <row r="223">
@@ -3560,13 +3560,13 @@
         <v>43252</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9510582089424133</v>
+        <v>0.949708878993988</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7378523945808411</v>
+        <v>0.7368788123130798</v>
       </c>
       <c r="D223" t="n">
-        <v>0.2132058143615723</v>
+        <v>0.2128300666809082</v>
       </c>
     </row>
     <row r="224">
@@ -3574,13 +3574,13 @@
         <v>43282</v>
       </c>
       <c r="B224" t="n">
-        <v>1.111159563064575</v>
+        <v>1.109728336334229</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4306816458702087</v>
+        <v>0.4298045933246613</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6804779171943665</v>
+        <v>0.6799237728118896</v>
       </c>
     </row>
     <row r="225">
@@ -3588,13 +3588,13 @@
         <v>43313</v>
       </c>
       <c r="B225" t="n">
-        <v>1.507736206054688</v>
+        <v>1.506101965904236</v>
       </c>
       <c r="C225" t="n">
-        <v>0.5800910592079163</v>
+        <v>0.5791670680046082</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9276451468467712</v>
+        <v>0.9269348978996277</v>
       </c>
     </row>
     <row r="226">
@@ -3602,13 +3602,13 @@
         <v>43344</v>
       </c>
       <c r="B226" t="n">
-        <v>1.863395929336548</v>
+        <v>1.861579775810242</v>
       </c>
       <c r="C226" t="n">
-        <v>0.08047658950090408</v>
+        <v>0.0797095000743866</v>
       </c>
       <c r="D226" t="n">
-        <v>1.78291928768158</v>
+        <v>1.781870245933533</v>
       </c>
     </row>
     <row r="227">
@@ -3616,13 +3616,13 @@
         <v>43374</v>
       </c>
       <c r="B227" t="n">
-        <v>1.673668265342712</v>
+        <v>1.671949148178101</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4893000721931458</v>
+        <v>0.4884045720100403</v>
       </c>
       <c r="D227" t="n">
-        <v>1.184368133544922</v>
+        <v>1.183544635772705</v>
       </c>
     </row>
     <row r="228">
@@ -3630,13 +3630,13 @@
         <v>43405</v>
       </c>
       <c r="B228" t="n">
-        <v>2.110051155090332</v>
+        <v>2.108108758926392</v>
       </c>
       <c r="C228" t="n">
-        <v>0.8956489562988281</v>
+        <v>0.8946258425712585</v>
       </c>
       <c r="D228" t="n">
-        <v>1.214402198791504</v>
+        <v>1.213482856750488</v>
       </c>
     </row>
     <row r="229">
@@ -3644,13 +3644,13 @@
         <v>43435</v>
       </c>
       <c r="B229" t="n">
-        <v>2.008419752120972</v>
+        <v>2.006529331207275</v>
       </c>
       <c r="C229" t="n">
-        <v>1.213962554931641</v>
+        <v>1.212839484214783</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7944571971893311</v>
+        <v>0.7936898469924927</v>
       </c>
     </row>
     <row r="230">
@@ -3658,13 +3658,13 @@
         <v>43466</v>
       </c>
       <c r="B230" t="n">
-        <v>2.001107931137085</v>
+        <v>1.999221444129944</v>
       </c>
       <c r="C230" t="n">
-        <v>1.756609559059143</v>
+        <v>1.755316138267517</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2444983720779419</v>
+        <v>0.2439053058624268</v>
       </c>
     </row>
     <row r="231">
@@ -3672,13 +3672,13 @@
         <v>43497</v>
       </c>
       <c r="B231" t="n">
-        <v>1.701236486434937</v>
+        <v>1.699503183364868</v>
       </c>
       <c r="C231" t="n">
-        <v>1.808012962341309</v>
+        <v>1.806703209877014</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1067764759063721</v>
+        <v>-0.107200026512146</v>
       </c>
     </row>
     <row r="232">
@@ -3686,13 +3686,13 @@
         <v>43525</v>
       </c>
       <c r="B232" t="n">
-        <v>1.72137451171875</v>
+        <v>1.71963107585907</v>
       </c>
       <c r="C232" t="n">
-        <v>1.582122206687927</v>
+        <v>1.580883383750916</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1392523050308228</v>
+        <v>0.1387476921081543</v>
       </c>
     </row>
     <row r="233">
@@ -3700,13 +3700,13 @@
         <v>43556</v>
       </c>
       <c r="B233" t="n">
-        <v>2.219491720199585</v>
+        <v>2.217493534088135</v>
       </c>
       <c r="C233" t="n">
-        <v>1.622909784317017</v>
+        <v>1.621658325195312</v>
       </c>
       <c r="D233" t="n">
-        <v>0.5965819358825684</v>
+        <v>0.5958352088928223</v>
       </c>
     </row>
     <row r="234">
@@ -3714,13 +3714,13 @@
         <v>43586</v>
       </c>
       <c r="B234" t="n">
-        <v>2.693775177001953</v>
+        <v>2.691534280776978</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9539970755577087</v>
+        <v>0.9529557228088379</v>
       </c>
       <c r="D234" t="n">
-        <v>1.7397780418396</v>
+        <v>1.73857855796814</v>
       </c>
     </row>
     <row r="235">
@@ -3728,13 +3728,13 @@
         <v>43617</v>
       </c>
       <c r="B235" t="n">
-        <v>2.335931301116943</v>
+        <v>2.333873748779297</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3106492757797241</v>
+        <v>0.3098098933696747</v>
       </c>
       <c r="D235" t="n">
-        <v>2.02528190612793</v>
+        <v>2.0240638256073</v>
       </c>
     </row>
     <row r="236">
@@ -3742,13 +3742,13 @@
         <v>43647</v>
       </c>
       <c r="B236" t="n">
-        <v>2.152764320373535</v>
+        <v>2.150800466537476</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3522880077362061</v>
+        <v>0.3514355421066284</v>
       </c>
       <c r="D236" t="n">
-        <v>1.800476312637329</v>
+        <v>1.799364924430847</v>
       </c>
     </row>
     <row r="237">
@@ -3756,13 +3756,13 @@
         <v>43678</v>
       </c>
       <c r="B237" t="n">
-        <v>2.685802698135376</v>
+        <v>2.683566093444824</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.6072878241539001</v>
+        <v>-0.6078388690948486</v>
       </c>
       <c r="D237" t="n">
-        <v>3.293090581893921</v>
+        <v>3.291404962539673</v>
       </c>
     </row>
     <row r="238">
@@ -3770,13 +3770,13 @@
         <v>43709</v>
       </c>
       <c r="B238" t="n">
-        <v>2.260228395462036</v>
+        <v>2.258209228515625</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.144686579704285</v>
+        <v>-1.145068764686584</v>
       </c>
       <c r="D238" t="n">
-        <v>3.404914855957031</v>
+        <v>3.40327787399292</v>
       </c>
     </row>
     <row r="239">
@@ -3784,13 +3784,13 @@
         <v>43739</v>
       </c>
       <c r="B239" t="n">
-        <v>2.613182544708252</v>
+        <v>2.610982894897461</v>
       </c>
       <c r="C239" t="n">
-        <v>-1.484269976615906</v>
+        <v>-1.484545707702637</v>
       </c>
       <c r="D239" t="n">
-        <v>4.097452640533447</v>
+        <v>4.095528602600098</v>
       </c>
     </row>
     <row r="240">
@@ -3798,13 +3798,13 @@
         <v>43770</v>
       </c>
       <c r="B240" t="n">
-        <v>2.788754224777222</v>
+        <v>2.786464929580688</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8706588745117188</v>
+        <v>-0.8711272478103638</v>
       </c>
       <c r="D240" t="n">
-        <v>3.65941309928894</v>
+        <v>3.657592296600342</v>
       </c>
     </row>
     <row r="241">
@@ -3812,13 +3812,13 @@
         <v>43800</v>
       </c>
       <c r="B241" t="n">
-        <v>2.315635204315186</v>
+        <v>2.313587665557861</v>
       </c>
       <c r="C241" t="n">
-        <v>1.308547973632812</v>
+        <v>1.307395339012146</v>
       </c>
       <c r="D241" t="n">
-        <v>1.007087230682373</v>
+        <v>1.006192326545715</v>
       </c>
     </row>
     <row r="242">
@@ -3826,13 +3826,13 @@
         <v>43831</v>
       </c>
       <c r="B242" t="n">
-        <v>2.629908323287964</v>
+        <v>2.627699851989746</v>
       </c>
       <c r="C242" t="n">
-        <v>2.345339059829712</v>
+        <v>2.343860864639282</v>
       </c>
       <c r="D242" t="n">
-        <v>0.284569263458252</v>
+        <v>0.2838389873504639</v>
       </c>
     </row>
     <row r="243">
@@ -3840,13 +3840,13 @@
         <v>43862</v>
       </c>
       <c r="B243" t="n">
-        <v>2.015848636627197</v>
+        <v>2.013954401016235</v>
       </c>
       <c r="C243" t="n">
-        <v>2.616769313812256</v>
+        <v>2.615205764770508</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6009206771850586</v>
+        <v>-0.6012513637542725</v>
       </c>
     </row>
     <row r="244">
@@ -3854,13 +3854,13 @@
         <v>43891</v>
       </c>
       <c r="B244" t="n">
-        <v>2.194881439208984</v>
+        <v>2.192895889282227</v>
       </c>
       <c r="C244" t="n">
-        <v>2.502951383590698</v>
+        <v>2.501423358917236</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3080699443817139</v>
+        <v>-0.3085274696350098</v>
       </c>
     </row>
     <row r="245">
@@ -3868,13 +3868,13 @@
         <v>43922</v>
       </c>
       <c r="B245" t="n">
-        <v>2.244130611419678</v>
+        <v>2.242119550704956</v>
       </c>
       <c r="C245" t="n">
-        <v>2.490339040756226</v>
+        <v>2.488814830780029</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2462084293365479</v>
+        <v>-0.2466952800750732</v>
       </c>
     </row>
     <row r="246">
@@ -3882,13 +3882,13 @@
         <v>43952</v>
       </c>
       <c r="B246" t="n">
-        <v>2.312800645828247</v>
+        <v>2.310754537582397</v>
       </c>
       <c r="C246" t="n">
-        <v>1.526900768280029</v>
+        <v>1.525679230690002</v>
       </c>
       <c r="D246" t="n">
-        <v>0.7858998775482178</v>
+        <v>0.785075306892395</v>
       </c>
     </row>
     <row r="247">
@@ -3896,13 +3896,13 @@
         <v>43983</v>
       </c>
       <c r="B247" t="n">
-        <v>2.200275421142578</v>
+        <v>2.198287010192871</v>
       </c>
       <c r="C247" t="n">
-        <v>1.158443689346313</v>
+        <v>1.15733802318573</v>
       </c>
       <c r="D247" t="n">
-        <v>1.041831731796265</v>
+        <v>1.040948987007141</v>
       </c>
     </row>
     <row r="248">
@@ -3910,13 +3910,13 @@
         <v>44013</v>
       </c>
       <c r="B248" t="n">
-        <v>2.03096079826355</v>
+        <v>2.029058933258057</v>
       </c>
       <c r="C248" t="n">
-        <v>1.584697246551514</v>
+        <v>1.583457708358765</v>
       </c>
       <c r="D248" t="n">
-        <v>0.4462635517120361</v>
+        <v>0.445601224899292</v>
       </c>
     </row>
     <row r="249">
@@ -3924,13 +3924,13 @@
         <v>44044</v>
       </c>
       <c r="B249" t="n">
-        <v>1.534894943237305</v>
+        <v>1.533246874809265</v>
       </c>
       <c r="C249" t="n">
-        <v>1.989686250686646</v>
+        <v>1.988319635391235</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.4547913074493408</v>
+        <v>-0.4550727605819702</v>
       </c>
     </row>
     <row r="250">
@@ -3938,13 +3938,13 @@
         <v>44075</v>
       </c>
       <c r="B250" t="n">
-        <v>1.257296323776245</v>
+        <v>1.25579035282135</v>
       </c>
       <c r="C250" t="n">
-        <v>1.539852738380432</v>
+        <v>1.53862726688385</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.282556414604187</v>
+        <v>-0.2828369140625</v>
       </c>
     </row>
     <row r="251">
@@ -3952,13 +3952,13 @@
         <v>44105</v>
       </c>
       <c r="B251" t="n">
-        <v>1.767839312553406</v>
+        <v>1.766072154045105</v>
       </c>
       <c r="C251" t="n">
-        <v>1.35080623626709</v>
+        <v>1.349640130996704</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4170330762863159</v>
+        <v>0.4164320230484009</v>
       </c>
     </row>
     <row r="252">
@@ -3966,13 +3966,13 @@
         <v>44136</v>
       </c>
       <c r="B252" t="n">
-        <v>1.494810938835144</v>
+        <v>1.493183612823486</v>
       </c>
       <c r="C252" t="n">
-        <v>1.212612628936768</v>
+        <v>1.211489796638489</v>
       </c>
       <c r="D252" t="n">
-        <v>0.2821983098983765</v>
+        <v>0.2816938161849976</v>
       </c>
     </row>
     <row r="253">
@@ -3980,13 +3980,13 @@
         <v>44166</v>
       </c>
       <c r="B253" t="n">
-        <v>1.218706965446472</v>
+        <v>1.217220783233643</v>
       </c>
       <c r="C253" t="n">
-        <v>0.752855658531189</v>
+        <v>0.7518774271011353</v>
       </c>
       <c r="D253" t="n">
-        <v>0.4658513069152832</v>
+        <v>0.4653433561325073</v>
       </c>
     </row>
     <row r="254">
@@ -3994,13 +3994,13 @@
         <v>44197</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4913240075111389</v>
+        <v>0.4902099072933197</v>
       </c>
       <c r="C254" t="n">
-        <v>0.001018157345242798</v>
+        <v>0.0002760226198006421</v>
       </c>
       <c r="D254" t="n">
-        <v>0.4903058409690857</v>
+        <v>0.4899338781833649</v>
       </c>
     </row>
     <row r="255">
@@ -4008,13 +4008,13 @@
         <v>44228</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8104687333106995</v>
+        <v>0.8091913461685181</v>
       </c>
       <c r="C255" t="n">
-        <v>0.3289365172386169</v>
+        <v>0.3280913829803467</v>
       </c>
       <c r="D255" t="n">
-        <v>0.4815322160720825</v>
+        <v>0.4810999631881714</v>
       </c>
     </row>
     <row r="256">
@@ -4022,13 +4022,13 @@
         <v>44256</v>
       </c>
       <c r="B256" t="n">
-        <v>1.158644199371338</v>
+        <v>1.157188773155212</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8034024834632874</v>
+        <v>0.8024083375930786</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3552417159080505</v>
+        <v>0.3547804355621338</v>
       </c>
     </row>
     <row r="257">
@@ -4036,13 +4036,13 @@
         <v>44287</v>
       </c>
       <c r="B257" t="n">
-        <v>1.111655354499817</v>
+        <v>1.110223889350891</v>
       </c>
       <c r="C257" t="n">
-        <v>0.6006785035133362</v>
+        <v>0.5997480750083923</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5109768509864807</v>
+        <v>0.5104758143424988</v>
       </c>
     </row>
     <row r="258">
@@ -4050,13 +4050,13 @@
         <v>44317</v>
       </c>
       <c r="B258" t="n">
-        <v>0.6712415218353271</v>
+        <v>0.6700353622436523</v>
       </c>
       <c r="C258" t="n">
-        <v>1.282837986946106</v>
+        <v>1.281693339347839</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.6115964651107788</v>
+        <v>-0.611657977104187</v>
       </c>
     </row>
     <row r="259">
@@ -4064,13 +4064,13 @@
         <v>44348</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8751396536827087</v>
+        <v>0.873829185962677</v>
       </c>
       <c r="C259" t="n">
-        <v>1.81348991394043</v>
+        <v>1.812178611755371</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.9383502602577209</v>
+        <v>-0.9383494257926941</v>
       </c>
     </row>
     <row r="260">
@@ -4078,13 +4078,13 @@
         <v>44378</v>
       </c>
       <c r="B260" t="n">
-        <v>1.162981986999512</v>
+        <v>1.161524176597595</v>
       </c>
       <c r="C260" t="n">
-        <v>2.259114503860474</v>
+        <v>2.257663011550903</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.096132516860962</v>
+        <v>-1.096138834953308</v>
       </c>
     </row>
     <row r="261">
@@ -4092,13 +4092,13 @@
         <v>44409</v>
       </c>
       <c r="B261" t="n">
-        <v>1.289917588233948</v>
+        <v>1.288394808769226</v>
       </c>
       <c r="C261" t="n">
-        <v>1.904724717140198</v>
+        <v>1.903384804725647</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.61480712890625</v>
+        <v>-0.6149899959564209</v>
       </c>
     </row>
     <row r="262">
@@ -4106,13 +4106,13 @@
         <v>44440</v>
       </c>
       <c r="B262" t="n">
-        <v>1.500435709953308</v>
+        <v>1.498805403709412</v>
       </c>
       <c r="C262" t="n">
-        <v>1.434229016304016</v>
+        <v>1.433036684989929</v>
       </c>
       <c r="D262" t="n">
-        <v>0.06620669364929199</v>
+        <v>0.06576871871948242</v>
       </c>
     </row>
     <row r="263">
@@ -4120,13 +4120,13 @@
         <v>44470</v>
       </c>
       <c r="B263" t="n">
-        <v>1.181186556816101</v>
+        <v>1.17971932888031</v>
       </c>
       <c r="C263" t="n">
-        <v>2.187848091125488</v>
+        <v>2.186419248580933</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.006661534309387</v>
+        <v>-1.006699919700623</v>
       </c>
     </row>
     <row r="264">
@@ -4134,13 +4134,13 @@
         <v>44501</v>
       </c>
       <c r="B264" t="n">
-        <v>1.159366965293884</v>
+        <v>1.157911062240601</v>
       </c>
       <c r="C264" t="n">
-        <v>1.755548477172852</v>
+        <v>1.754255294799805</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.5961815118789673</v>
+        <v>-0.5963442325592041</v>
       </c>
     </row>
     <row r="265">
@@ -4148,13 +4148,13 @@
         <v>44531</v>
       </c>
       <c r="B265" t="n">
-        <v>1.321392059326172</v>
+        <v>1.31985342502594</v>
       </c>
       <c r="C265" t="n">
-        <v>1.744485378265381</v>
+        <v>1.743195772171021</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.423093318939209</v>
+        <v>-0.4233423471450806</v>
       </c>
     </row>
     <row r="266">
@@ -4162,13 +4162,13 @@
         <v>44562</v>
       </c>
       <c r="B266" t="n">
-        <v>1.675732254981995</v>
+        <v>1.674012303352356</v>
       </c>
       <c r="C266" t="n">
-        <v>2.306390762329102</v>
+        <v>2.304924249649048</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.6306585073471069</v>
+        <v>-0.6309119462966919</v>
       </c>
     </row>
     <row r="267">
@@ -4176,13 +4176,13 @@
         <v>44593</v>
       </c>
       <c r="B267" t="n">
-        <v>0.9090048670768738</v>
+        <v>0.9076770544052124</v>
       </c>
       <c r="C267" t="n">
-        <v>1.702789664268494</v>
+        <v>1.701512932777405</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.7937847971916199</v>
+        <v>-0.7938358783721924</v>
       </c>
     </row>
     <row r="268">
@@ -4190,13 +4190,13 @@
         <v>44621</v>
       </c>
       <c r="B268" t="n">
-        <v>1.082038283348083</v>
+        <v>1.080621957778931</v>
       </c>
       <c r="C268" t="n">
-        <v>1.314396142959595</v>
+        <v>1.313241481781006</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.2323578596115112</v>
+        <v>-0.2326195240020752</v>
       </c>
     </row>
     <row r="269">
@@ -4204,13 +4204,13 @@
         <v>44652</v>
       </c>
       <c r="B269" t="n">
-        <v>1.156268358230591</v>
+        <v>1.154814124107361</v>
       </c>
       <c r="C269" t="n">
-        <v>1.960857391357422</v>
+        <v>1.959499597549438</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.8045890331268311</v>
+        <v>-0.8046854734420776</v>
       </c>
     </row>
     <row r="270">
@@ -4218,13 +4218,13 @@
         <v>44682</v>
       </c>
       <c r="B270" t="n">
-        <v>0.9953526258468628</v>
+        <v>0.9939806461334229</v>
       </c>
       <c r="C270" t="n">
-        <v>2.162568807601929</v>
+        <v>2.161147594451904</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.167216181755066</v>
+        <v>-1.167166948318481</v>
       </c>
     </row>
     <row r="271">
@@ -4232,13 +4232,13 @@
         <v>44713</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9258579611778259</v>
+        <v>0.9245215058326721</v>
       </c>
       <c r="C271" t="n">
-        <v>2.416780948638916</v>
+        <v>2.415280103683472</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.490922927856445</v>
+        <v>-1.490758657455444</v>
       </c>
     </row>
     <row r="272">
@@ -4246,13 +4246,13 @@
         <v>44743</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1097613945603371</v>
+        <v>0.1088425144553185</v>
       </c>
       <c r="C272" t="n">
-        <v>2.440389633178711</v>
+        <v>2.438881397247314</v>
       </c>
       <c r="D272" t="n">
-        <v>-2.330628156661987</v>
+        <v>-2.330038785934448</v>
       </c>
     </row>
     <row r="273">
@@ -4260,13 +4260,13 @@
         <v>44774</v>
       </c>
       <c r="B273" t="n">
-        <v>0.3947675228118896</v>
+        <v>0.3937028050422668</v>
       </c>
       <c r="C273" t="n">
-        <v>2.70684552192688</v>
+        <v>2.705253601074219</v>
       </c>
       <c r="D273" t="n">
-        <v>-2.31207799911499</v>
+        <v>-2.311550855636597</v>
       </c>
     </row>
     <row r="274">
@@ -4274,13 +4274,13 @@
         <v>44805</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4958545863628387</v>
+        <v>0.4947381615638733</v>
       </c>
       <c r="C274" t="n">
-        <v>2.359068155288696</v>
+        <v>2.357585430145264</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.863213539123535</v>
+        <v>-1.862847328186035</v>
       </c>
     </row>
     <row r="275">
@@ -4288,13 +4288,13 @@
         <v>44835</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3045374751091003</v>
+        <v>0.3035189211368561</v>
       </c>
       <c r="C275" t="n">
-        <v>1.862919688224792</v>
+        <v>1.861592888832092</v>
       </c>
       <c r="D275" t="n">
-        <v>-1.558382272720337</v>
+        <v>-1.558073997497559</v>
       </c>
     </row>
     <row r="276">
@@ -4302,13 +4302,13 @@
         <v>44866</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4229325950145721</v>
+        <v>0.4218534827232361</v>
       </c>
       <c r="C276" t="n">
-        <v>1.389139294624329</v>
+        <v>1.387961149215698</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.9662066698074341</v>
+        <v>-0.9661076664924622</v>
       </c>
     </row>
     <row r="277">
@@ -4316,13 +4316,13 @@
         <v>44896</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8396818041801453</v>
+        <v>0.8383894562721252</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9229065179824829</v>
+        <v>0.9218747615814209</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.08322471380233765</v>
+        <v>-0.08348530530929565</v>
       </c>
     </row>
     <row r="278">
@@ -4330,13 +4330,13 @@
         <v>44927</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7783277630805969</v>
+        <v>0.7770668268203735</v>
       </c>
       <c r="C278" t="n">
-        <v>0.5599161386489868</v>
+        <v>0.5589985251426697</v>
       </c>
       <c r="D278" t="n">
-        <v>0.2184116244316101</v>
+        <v>0.2180683016777039</v>
       </c>
     </row>
     <row r="279">
@@ -4344,13 +4344,13 @@
         <v>44958</v>
       </c>
       <c r="B279" t="n">
-        <v>0.6556609869003296</v>
+        <v>0.6544628143310547</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.07254686206579208</v>
+        <v>-0.07326589524745941</v>
       </c>
       <c r="D279" t="n">
-        <v>0.7282078266143799</v>
+        <v>0.7277287244796753</v>
       </c>
     </row>
     <row r="280">
@@ -4358,13 +4358,13 @@
         <v>44986</v>
       </c>
       <c r="B280" t="n">
-        <v>1.137340188026428</v>
+        <v>1.135895609855652</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2482700049877167</v>
+        <v>0.247450202703476</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8890701532363892</v>
+        <v>0.8884453773498535</v>
       </c>
     </row>
     <row r="281">
@@ -4372,13 +4372,13 @@
         <v>45017</v>
       </c>
       <c r="B281" t="n">
-        <v>2.089945316314697</v>
+        <v>2.088013172149658</v>
       </c>
       <c r="C281" t="n">
-        <v>1.294681549072266</v>
+        <v>1.293533086776733</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7952637672424316</v>
+        <v>0.7944800853729248</v>
       </c>
     </row>
     <row r="282">
@@ -4386,13 +4386,13 @@
         <v>45047</v>
       </c>
       <c r="B282" t="n">
-        <v>1.629690289497375</v>
+        <v>1.627993941307068</v>
       </c>
       <c r="C282" t="n">
-        <v>1.518213987350464</v>
+        <v>1.516995310783386</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1114763021469116</v>
+        <v>0.1109986305236816</v>
       </c>
     </row>
     <row r="283">
@@ -4400,13 +4400,27 @@
         <v>45078</v>
       </c>
       <c r="B283" t="n">
-        <v>1.625284910202026</v>
+        <v>1.623590707778931</v>
       </c>
       <c r="C283" t="n">
-        <v>1.675530076026917</v>
+        <v>1.674262046813965</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.05024516582489014</v>
+        <v>-0.05067133903503418</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.754791378974915</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.508777976036072</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.2460134029388428</v>
       </c>
     </row>
   </sheetData>

--- a/IOD/figures/Monthly_IOD.xlsx
+++ b/IOD/figures/Monthly_IOD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,13 +466,13 @@
         <v>36526</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8055106401443481</v>
+        <v>0.803102970123291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7835690379142761</v>
+        <v>0.7830849289894104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02194160223007202</v>
+        <v>0.02001804113388062</v>
       </c>
     </row>
     <row r="3">
@@ -480,13 +480,13 @@
         <v>36557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8321749567985535</v>
+        <v>0.8297297954559326</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2632535994052887</v>
+        <v>-0.2637419402599335</v>
       </c>
       <c r="D3" t="n">
-        <v>1.095428586006165</v>
+        <v>1.093471765518188</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         <v>36586</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9083253145217896</v>
+        <v>0.9057729840278625</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7699754238128662</v>
+        <v>-0.7704657912254333</v>
       </c>
       <c r="D4" t="n">
-        <v>1.678300738334656</v>
+        <v>1.676238775253296</v>
       </c>
     </row>
     <row r="5">
@@ -508,13 +508,13 @@
         <v>36617</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4844982326030731</v>
+        <v>0.4825423955917358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08458766341209412</v>
+        <v>0.08410074561834335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.399910569190979</v>
+        <v>0.3984416425228119</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>36647</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7092811465263367</v>
+        <v>0.7070088982582092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0137393856421113</v>
+        <v>0.01325218565762043</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6955417394638062</v>
+        <v>0.6937566995620728</v>
       </c>
     </row>
     <row r="7">
@@ -536,13 +536,13 @@
         <v>36678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07462148368358612</v>
+        <v>0.07324252277612686</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1489644050598145</v>
+        <v>-0.149452269077301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2235858887434006</v>
+        <v>0.2226947844028473</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +550,13 @@
         <v>36708</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6645820140838623</v>
+        <v>0.6623727679252625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4458528757095337</v>
+        <v>0.4453674554824829</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2187291383743286</v>
+        <v>0.2170053124427795</v>
       </c>
     </row>
     <row r="9">
@@ -564,13 +564,13 @@
         <v>36739</v>
       </c>
       <c r="B9" t="n">
-        <v>1.032963871955872</v>
+        <v>1.030236005783081</v>
       </c>
       <c r="C9" t="n">
-        <v>1.159273028373718</v>
+        <v>1.158790588378906</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1263091564178467</v>
+        <v>-0.1285545825958252</v>
       </c>
     </row>
     <row r="10">
@@ -578,13 +578,13 @@
         <v>36770</v>
       </c>
       <c r="B10" t="n">
-        <v>1.405616998672485</v>
+        <v>1.40236485004425</v>
       </c>
       <c r="C10" t="n">
-        <v>1.124273657798767</v>
+        <v>1.123790979385376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2813433408737183</v>
+        <v>0.2785738706588745</v>
       </c>
     </row>
     <row r="11">
@@ -592,13 +592,13 @@
         <v>36800</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9666220545768738</v>
+        <v>0.9639876484870911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9635221362113953</v>
+        <v>0.9630388021469116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003099918365478516</v>
+        <v>0.0009488463401794434</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         <v>36831</v>
       </c>
       <c r="B12" t="n">
-        <v>1.049156785011292</v>
+        <v>1.046406269073486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8029741048812866</v>
+        <v>0.8024901151657104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2461826801300049</v>
+        <v>0.2439161539077759</v>
       </c>
     </row>
     <row r="13">
@@ -620,13 +620,13 @@
         <v>36861</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7312031388282776</v>
+        <v>0.7289000749588013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3149254024028778</v>
+        <v>0.314439445734024</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4162777364253998</v>
+        <v>0.4144606292247772</v>
       </c>
     </row>
     <row r="14">
@@ -634,13 +634,13 @@
         <v>36892</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2389215081930161</v>
+        <v>0.2373113036155701</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.05379096418619156</v>
+        <v>-0.05427844077348709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2927124798297882</v>
+        <v>0.2915897369384766</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         <v>36923</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5036644339561462</v>
+        <v>0.5016815662384033</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3913384675979614</v>
+        <v>-0.3918273150920868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8950029015541077</v>
+        <v>0.8935089111328125</v>
       </c>
     </row>
     <row r="16">
@@ -662,13 +662,13 @@
         <v>36951</v>
       </c>
       <c r="B16" t="n">
-        <v>1.175987243652344</v>
+        <v>1.173058271408081</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2420344948768616</v>
+        <v>0.2415482252836227</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9339527487754822</v>
+        <v>0.9315100312232971</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +676,13 @@
         <v>36982</v>
       </c>
       <c r="B17" t="n">
-        <v>1.015055656433105</v>
+        <v>1.0123530626297</v>
       </c>
       <c r="C17" t="n">
-        <v>1.049232006072998</v>
+        <v>1.048748970031738</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03417634963989258</v>
+        <v>-0.03639590740203857</v>
       </c>
     </row>
     <row r="18">
@@ -690,13 +690,13 @@
         <v>37012</v>
       </c>
       <c r="B18" t="n">
-        <v>1.095075607299805</v>
+        <v>1.092260360717773</v>
       </c>
       <c r="C18" t="n">
-        <v>1.84186065196991</v>
+        <v>1.841380953788757</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.746785044670105</v>
+        <v>-0.7491205930709839</v>
       </c>
     </row>
     <row r="19">
@@ -704,13 +704,13 @@
         <v>37043</v>
       </c>
       <c r="B19" t="n">
-        <v>1.026472926139832</v>
+        <v>1.023754358291626</v>
       </c>
       <c r="C19" t="n">
-        <v>1.173087358474731</v>
+        <v>1.172604918479919</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1466144323348999</v>
+        <v>-0.1488505601882935</v>
       </c>
     </row>
     <row r="20">
@@ -718,13 +718,13 @@
         <v>37073</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4081186354160309</v>
+        <v>0.406270295381546</v>
       </c>
       <c r="C20" t="n">
-        <v>1.992582082748413</v>
+        <v>1.992102980613708</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.584463477134705</v>
+        <v>-1.585832715034485</v>
       </c>
     </row>
     <row r="21">
@@ -732,13 +732,13 @@
         <v>37104</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7160288691520691</v>
+        <v>0.7137471437454224</v>
       </c>
       <c r="C21" t="n">
-        <v>1.371872305870056</v>
+        <v>1.371390700340271</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6558434367179871</v>
+        <v>-0.6576435565948486</v>
       </c>
     </row>
     <row r="22">
@@ -746,13 +746,13 @@
         <v>37135</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7042067646980286</v>
+        <v>0.7019417285919189</v>
       </c>
       <c r="C22" t="n">
-        <v>1.488742232322693</v>
+        <v>1.488260984420776</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7845354676246643</v>
+        <v>-0.7863192558288574</v>
       </c>
     </row>
     <row r="23">
@@ -760,13 +760,13 @@
         <v>37165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3906744122505188</v>
+        <v>0.388850599527359</v>
       </c>
       <c r="C23" t="n">
-        <v>1.315454125404358</v>
+        <v>1.314972162246704</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9247797131538391</v>
+        <v>-0.9261215925216675</v>
       </c>
     </row>
     <row r="24">
@@ -774,13 +774,13 @@
         <v>37196</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6691325902938843</v>
+        <v>0.6669169664382935</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8381808400154114</v>
+        <v>0.8376969695091248</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1690482497215271</v>
+        <v>-0.1707800030708313</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         <v>37226</v>
       </c>
       <c r="B25" t="n">
-        <v>1.096776247024536</v>
+        <v>1.093958497047424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9998971819877625</v>
+        <v>0.9994139075279236</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09687906503677368</v>
+        <v>0.09454458951950073</v>
       </c>
     </row>
     <row r="26">
@@ -802,13 +802,13 @@
         <v>37257</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8885790109634399</v>
+        <v>0.8860544562339783</v>
       </c>
       <c r="C26" t="n">
-        <v>1.519354701042175</v>
+        <v>1.518873691558838</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6307756900787354</v>
+        <v>-0.6328192353248596</v>
       </c>
     </row>
     <row r="27">
@@ -816,13 +816,13 @@
         <v>37288</v>
       </c>
       <c r="B27" t="n">
-        <v>1.136687517166138</v>
+        <v>1.133813738822937</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7302147150039673</v>
+        <v>0.7297304272651672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4064728021621704</v>
+        <v>0.4040833115577698</v>
       </c>
     </row>
     <row r="28">
@@ -830,13 +830,13 @@
         <v>37316</v>
       </c>
       <c r="B28" t="n">
-        <v>1.168476939201355</v>
+        <v>1.165558576583862</v>
       </c>
       <c r="C28" t="n">
-        <v>1.969631314277649</v>
+        <v>1.969152092933655</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8011543750762939</v>
+        <v>-0.8035935163497925</v>
       </c>
     </row>
     <row r="29">
@@ -844,13 +844,13 @@
         <v>37347</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9043912887573242</v>
+        <v>0.9018444418907166</v>
       </c>
       <c r="C29" t="n">
-        <v>1.82330060005188</v>
+        <v>1.822820663452148</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.9189093112945557</v>
+        <v>-0.9209762215614319</v>
       </c>
     </row>
     <row r="30">
@@ -858,13 +858,13 @@
         <v>37377</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4861855506896973</v>
+        <v>0.484227329492569</v>
       </c>
       <c r="C30" t="n">
-        <v>1.597104072570801</v>
+        <v>1.596623420715332</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.110918521881104</v>
+        <v>-1.112396121025085</v>
       </c>
     </row>
     <row r="31">
@@ -872,13 +872,13 @@
         <v>37408</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7516715526580811</v>
+        <v>0.7493396401405334</v>
       </c>
       <c r="C31" t="n">
-        <v>1.220995664596558</v>
+        <v>1.220513463020325</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4693241119384766</v>
+        <v>-0.4711738228797913</v>
       </c>
     </row>
     <row r="32">
@@ -886,13 +886,13 @@
         <v>37438</v>
       </c>
       <c r="B32" t="n">
-        <v>0.85029536485672</v>
+        <v>0.8478246927261353</v>
       </c>
       <c r="C32" t="n">
-        <v>1.38083827495575</v>
+        <v>1.380356669425964</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5305429100990295</v>
+        <v>-0.5325319766998291</v>
       </c>
     </row>
     <row r="33">
@@ -900,13 +900,13 @@
         <v>37469</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6932526826858521</v>
+        <v>0.6910030245780945</v>
       </c>
       <c r="C33" t="n">
-        <v>1.315660119056702</v>
+        <v>1.315178275108337</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6224074363708496</v>
+        <v>-0.6241752505302429</v>
       </c>
     </row>
     <row r="34">
@@ -914,13 +914,13 @@
         <v>37500</v>
       </c>
       <c r="B34" t="n">
-        <v>1.99606990814209</v>
+        <v>1.991986751556396</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5230346918106079</v>
+        <v>0.522549569606781</v>
       </c>
       <c r="D34" t="n">
-        <v>1.473035216331482</v>
+        <v>1.469437122344971</v>
       </c>
     </row>
     <row r="35">
@@ -928,13 +928,13 @@
         <v>37530</v>
       </c>
       <c r="B35" t="n">
-        <v>1.454982161521912</v>
+        <v>1.451660394668579</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1174854338169098</v>
+        <v>-0.1179731637239456</v>
       </c>
       <c r="D35" t="n">
-        <v>1.572467565536499</v>
+        <v>1.569633603096008</v>
       </c>
     </row>
     <row r="36">
@@ -942,13 +942,13 @@
         <v>37561</v>
       </c>
       <c r="B36" t="n">
-        <v>1.20242977142334</v>
+        <v>1.199463486671448</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5139905214309692</v>
+        <v>0.5135053396224976</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6884392499923706</v>
+        <v>0.6859581470489502</v>
       </c>
     </row>
     <row r="37">
@@ -956,13 +956,13 @@
         <v>37591</v>
       </c>
       <c r="B37" t="n">
-        <v>1.484849095344543</v>
+        <v>1.481485366821289</v>
       </c>
       <c r="C37" t="n">
-        <v>2.017651081085205</v>
+        <v>2.017171859741211</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5328019857406616</v>
+        <v>-0.5356864929199219</v>
       </c>
     </row>
     <row r="38">
@@ -970,13 +970,13 @@
         <v>37622</v>
       </c>
       <c r="B38" t="n">
-        <v>1.322165131568909</v>
+        <v>1.319030404090881</v>
       </c>
       <c r="C38" t="n">
-        <v>2.138575077056885</v>
+        <v>2.138096570968628</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8164099454879761</v>
+        <v>-0.8190661668777466</v>
       </c>
     </row>
     <row r="39">
@@ -984,13 +984,13 @@
         <v>37653</v>
       </c>
       <c r="B39" t="n">
-        <v>1.959460735321045</v>
+        <v>1.955428838729858</v>
       </c>
       <c r="C39" t="n">
-        <v>1.629414677619934</v>
+        <v>1.628934025764465</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3300460577011108</v>
+        <v>0.3264948129653931</v>
       </c>
     </row>
     <row r="40">
@@ -998,13 +998,13 @@
         <v>37681</v>
       </c>
       <c r="B40" t="n">
-        <v>1.734841465950012</v>
+        <v>1.731125831604004</v>
       </c>
       <c r="C40" t="n">
-        <v>1.097542881965637</v>
+        <v>1.097060084342957</v>
       </c>
       <c r="D40" t="n">
-        <v>0.637298583984375</v>
+        <v>0.6340657472610474</v>
       </c>
     </row>
     <row r="41">
@@ -1012,13 +1012,13 @@
         <v>37712</v>
       </c>
       <c r="B41" t="n">
-        <v>1.811243057250977</v>
+        <v>1.807419896125793</v>
       </c>
       <c r="C41" t="n">
-        <v>1.632876753807068</v>
+        <v>1.632396101951599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1783663034439087</v>
+        <v>0.1750237941741943</v>
       </c>
     </row>
     <row r="42">
@@ -1026,13 +1026,13 @@
         <v>37742</v>
       </c>
       <c r="B42" t="n">
-        <v>1.745730757713318</v>
+        <v>1.741999864578247</v>
       </c>
       <c r="C42" t="n">
-        <v>1.170678973197937</v>
+        <v>1.170196533203125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5750517845153809</v>
+        <v>0.5718033313751221</v>
       </c>
     </row>
     <row r="43">
@@ -1040,13 +1040,13 @@
         <v>37773</v>
       </c>
       <c r="B43" t="n">
-        <v>1.593492150306702</v>
+        <v>1.589975476264954</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6970672011375427</v>
+        <v>0.6965827345848083</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8964249491691589</v>
+        <v>0.8933927416801453</v>
       </c>
     </row>
     <row r="44">
@@ -1054,13 +1054,13 @@
         <v>37803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.15545129776001</v>
+        <v>1.152551054954529</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4655523896217346</v>
+        <v>0.4650670289993286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6898989081382751</v>
+        <v>0.6874840259552002</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>37834</v>
       </c>
       <c r="B45" t="n">
-        <v>1.078723549842834</v>
+        <v>1.075931310653687</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0303629282861948</v>
+        <v>0.02987579442560673</v>
       </c>
       <c r="D45" t="n">
-        <v>1.048360586166382</v>
+        <v>1.046055555343628</v>
       </c>
     </row>
     <row r="46">
@@ -1082,13 +1082,13 @@
         <v>37865</v>
       </c>
       <c r="B46" t="n">
-        <v>1.340330839157104</v>
+        <v>1.337170481681824</v>
       </c>
       <c r="C46" t="n">
-        <v>1.104087829589844</v>
+        <v>1.103605031967163</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2362430095672607</v>
+        <v>0.2335654497146606</v>
       </c>
     </row>
     <row r="47">
@@ -1096,13 +1096,13 @@
         <v>37895</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9831226468086243</v>
+        <v>0.9804649949073792</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8738104104995728</v>
+        <v>0.8733267784118652</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1093122363090515</v>
+        <v>0.1071382164955139</v>
       </c>
     </row>
     <row r="48">
@@ -1110,13 +1110,13 @@
         <v>37926</v>
       </c>
       <c r="B48" t="n">
-        <v>0.650678277015686</v>
+        <v>0.6484885215759277</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9925844669342041</v>
+        <v>0.9921013116836548</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3419061899185181</v>
+        <v>-0.3436127901077271</v>
       </c>
     </row>
     <row r="49">
@@ -1124,13 +1124,13 @@
         <v>37956</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7065469026565552</v>
+        <v>0.7042785882949829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3622629940509796</v>
+        <v>0.3617772161960602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3442839086055756</v>
+        <v>0.3425013720989227</v>
       </c>
     </row>
     <row r="50">
@@ -1138,13 +1138,13 @@
         <v>37987</v>
       </c>
       <c r="B50" t="n">
-        <v>1.372668623924255</v>
+        <v>1.369462609291077</v>
       </c>
       <c r="C50" t="n">
-        <v>1.369746565818787</v>
+        <v>1.369264841079712</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00292205810546875</v>
+        <v>0.0001977682113647461</v>
       </c>
     </row>
     <row r="51">
@@ -1152,13 +1152,13 @@
         <v>38018</v>
       </c>
       <c r="B51" t="n">
-        <v>1.334026098251343</v>
+        <v>1.330874562263489</v>
       </c>
       <c r="C51" t="n">
-        <v>1.229804873466492</v>
+        <v>1.229322671890259</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1042212247848511</v>
+        <v>0.10155189037323</v>
       </c>
     </row>
     <row r="52">
@@ -1166,13 +1166,13 @@
         <v>38047</v>
       </c>
       <c r="B52" t="n">
-        <v>1.013768196105957</v>
+        <v>1.011067390441895</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6029275059700012</v>
+        <v>0.6024426817893982</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4108406901359558</v>
+        <v>0.4086247086524963</v>
       </c>
     </row>
     <row r="53">
@@ -1180,13 +1180,13 @@
         <v>38078</v>
       </c>
       <c r="B53" t="n">
-        <v>1.136008858680725</v>
+        <v>1.133136034011841</v>
       </c>
       <c r="C53" t="n">
-        <v>1.120227456092834</v>
+        <v>1.119744777679443</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01578140258789062</v>
+        <v>0.01339125633239746</v>
       </c>
     </row>
     <row r="54">
@@ -1194,13 +1194,13 @@
         <v>38108</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1891795694828033</v>
+        <v>-0.1901872456073761</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8702794313430786</v>
+        <v>0.8697957396507263</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.05945897102356</v>
+        <v>-1.059983015060425</v>
       </c>
     </row>
     <row r="55">
@@ -1208,13 +1208,13 @@
         <v>38139</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.06223751232028008</v>
+        <v>-0.06342384964227676</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7953180074691772</v>
+        <v>0.7948340773582458</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8575555086135864</v>
+        <v>-0.8582579493522644</v>
       </c>
     </row>
     <row r="56">
@@ -1222,13 +1222,13 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1626341789960861</v>
+        <v>0.161131352186203</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7395552396774292</v>
+        <v>0.7390709519386292</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5769210457801819</v>
+        <v>-0.5779396295547485</v>
       </c>
     </row>
     <row r="57">
@@ -1236,13 +1236,13 @@
         <v>38200</v>
       </c>
       <c r="B57" t="n">
-        <v>1.136445045471191</v>
+        <v>1.13357150554657</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8330492973327637</v>
+        <v>0.8325654268264771</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3033957481384277</v>
+        <v>0.3010060787200928</v>
       </c>
     </row>
     <row r="58">
@@ -1250,13 +1250,13 @@
         <v>38231</v>
       </c>
       <c r="B58" t="n">
-        <v>1.245370864868164</v>
+        <v>1.24234402179718</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6465020775794983</v>
+        <v>0.6460174918174744</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5988687872886658</v>
+        <v>0.5963265299797058</v>
       </c>
     </row>
     <row r="59">
@@ -1264,13 +1264,13 @@
         <v>38261</v>
       </c>
       <c r="B59" t="n">
-        <v>1.235150218009949</v>
+        <v>1.23213791847229</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6827772259712219</v>
+        <v>0.6822927594184875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5523729920387268</v>
+        <v>0.5498451590538025</v>
       </c>
     </row>
     <row r="60">
@@ -1278,13 +1278,13 @@
         <v>38292</v>
       </c>
       <c r="B60" t="n">
-        <v>1.055399298667908</v>
+        <v>1.052639842033386</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9196363687515259</v>
+        <v>0.9191528558731079</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1357629299163818</v>
+        <v>0.1334869861602783</v>
       </c>
     </row>
     <row r="61">
@@ -1292,13 +1292,13 @@
         <v>38322</v>
       </c>
       <c r="B61" t="n">
-        <v>1.000764846801758</v>
+        <v>0.9980823993682861</v>
       </c>
       <c r="C61" t="n">
-        <v>1.146350741386414</v>
+        <v>1.145868182182312</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1455858945846558</v>
+        <v>-0.1477857828140259</v>
       </c>
     </row>
     <row r="62">
@@ -1306,13 +1306,13 @@
         <v>38353</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8621219396591187</v>
+        <v>0.8596345782279968</v>
       </c>
       <c r="C62" t="n">
-        <v>1.459738373756409</v>
+        <v>1.459257006645203</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.59761643409729</v>
+        <v>-0.5996224284172058</v>
       </c>
     </row>
     <row r="63">
@@ -1320,13 +1320,13 @@
         <v>38384</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9127724170684814</v>
+        <v>0.910213828086853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.6343994140625</v>
+        <v>2.633922576904297</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.721626996994019</v>
+        <v>-1.723708748817444</v>
       </c>
     </row>
     <row r="64">
@@ -1334,13 +1334,13 @@
         <v>38412</v>
       </c>
       <c r="B64" t="n">
-        <v>1.150584101676941</v>
+        <v>1.147690773010254</v>
       </c>
       <c r="C64" t="n">
-        <v>2.563206672668457</v>
+        <v>2.562730073928833</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.412622570991516</v>
+        <v>-1.415039300918579</v>
       </c>
     </row>
     <row r="65">
@@ -1348,13 +1348,13 @@
         <v>38443</v>
       </c>
       <c r="B65" t="n">
-        <v>1.347907543182373</v>
+        <v>1.344736576080322</v>
       </c>
       <c r="C65" t="n">
-        <v>1.044836401939392</v>
+        <v>1.044353485107422</v>
       </c>
       <c r="D65" t="n">
-        <v>0.303071141242981</v>
+        <v>0.3003830909729004</v>
       </c>
     </row>
     <row r="66">
@@ -1362,13 +1362,13 @@
         <v>38473</v>
       </c>
       <c r="B66" t="n">
-        <v>1.51995861530304</v>
+        <v>1.516545534133911</v>
       </c>
       <c r="C66" t="n">
-        <v>1.229153752326965</v>
+        <v>1.228671669960022</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2908048629760742</v>
+        <v>0.2878738641738892</v>
       </c>
     </row>
     <row r="67">
@@ -1376,13 +1376,13 @@
         <v>38504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.354635834693909</v>
+        <v>1.351455450057983</v>
       </c>
       <c r="C67" t="n">
-        <v>1.631958842277527</v>
+        <v>1.631478190422058</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2773230075836182</v>
+        <v>-0.2800227403640747</v>
       </c>
     </row>
     <row r="68">
@@ -1390,13 +1390,13 @@
         <v>38534</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5952492356300354</v>
+        <v>0.5931374430656433</v>
       </c>
       <c r="C68" t="n">
-        <v>1.688233375549316</v>
+        <v>1.687753081321716</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.092984199523926</v>
+        <v>-1.094615697860718</v>
       </c>
     </row>
     <row r="69">
@@ -1404,13 +1404,13 @@
         <v>38565</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9778936505317688</v>
+        <v>0.9752433896064758</v>
       </c>
       <c r="C69" t="n">
-        <v>1.739304780960083</v>
+        <v>1.738824725151062</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7614111304283142</v>
+        <v>-0.7635813355445862</v>
       </c>
     </row>
     <row r="70">
@@ -1418,13 +1418,13 @@
         <v>38596</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8783109188079834</v>
+        <v>0.8758007287979126</v>
       </c>
       <c r="C70" t="n">
-        <v>1.975061416625977</v>
+        <v>1.974582076072693</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.096750497817993</v>
+        <v>-1.09878134727478</v>
       </c>
     </row>
     <row r="71">
@@ -1432,13 +1432,13 @@
         <v>38626</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7848865985870361</v>
+        <v>0.7825079560279846</v>
       </c>
       <c r="C71" t="n">
-        <v>1.749760508537292</v>
+        <v>1.749280452728271</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9648739099502563</v>
+        <v>-0.9667724967002869</v>
       </c>
     </row>
     <row r="72">
@@ -1446,13 +1446,13 @@
         <v>38657</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4953834414482117</v>
+        <v>0.4934122562408447</v>
       </c>
       <c r="C72" t="n">
-        <v>1.623712420463562</v>
+        <v>1.623231768608093</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.128329038619995</v>
+        <v>-1.129819512367249</v>
       </c>
     </row>
     <row r="73">
@@ -1460,13 +1460,13 @@
         <v>38687</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3440051674842834</v>
+        <v>0.3422470688819885</v>
       </c>
       <c r="C73" t="n">
-        <v>1.228295564651489</v>
+        <v>1.227813243865967</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.8842903971672058</v>
+        <v>-0.8855661749839783</v>
       </c>
     </row>
     <row r="74">
@@ -1474,13 +1474,13 @@
         <v>38718</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4315962195396423</v>
+        <v>0.4297148287296295</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5584614276885986</v>
+        <v>0.5579764246940613</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1268652081489563</v>
+        <v>-0.1282615959644318</v>
       </c>
     </row>
     <row r="75">
@@ -1488,13 +1488,13 @@
         <v>38749</v>
       </c>
       <c r="B75" t="n">
-        <v>0.483585923910141</v>
+        <v>0.4816313683986664</v>
       </c>
       <c r="C75" t="n">
-        <v>1.897565245628357</v>
+        <v>1.897085547447205</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.413979291915894</v>
+        <v>-1.415454149246216</v>
       </c>
     </row>
     <row r="76">
@@ -1502,13 +1502,13 @@
         <v>38777</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7965525388717651</v>
+        <v>0.7941575050354004</v>
       </c>
       <c r="C76" t="n">
-        <v>1.21319043636322</v>
+        <v>1.212708115577698</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4166378974914551</v>
+        <v>-0.4185506105422974</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1516,13 @@
         <v>38808</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7410994172096252</v>
+        <v>0.7387824654579163</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8172839283943176</v>
+        <v>0.816800057888031</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.07618451118469238</v>
+        <v>-0.07801759243011475</v>
       </c>
     </row>
     <row r="78">
@@ -1530,13 +1530,13 @@
         <v>38838</v>
       </c>
       <c r="B78" t="n">
-        <v>1.067143440246582</v>
+        <v>1.064367413520813</v>
       </c>
       <c r="C78" t="n">
-        <v>1.492004752159119</v>
+        <v>1.491523504257202</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4248613119125366</v>
+        <v>-0.4271560907363892</v>
       </c>
     </row>
     <row r="79">
@@ -1544,13 +1544,13 @@
         <v>38869</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8415821194648743</v>
+        <v>0.8391236662864685</v>
       </c>
       <c r="C79" t="n">
-        <v>1.261625528335571</v>
+        <v>1.261143445968628</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.420043408870697</v>
+        <v>-0.4220197796821594</v>
       </c>
     </row>
     <row r="80">
@@ -1558,13 +1558,13 @@
         <v>38899</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9193883538246155</v>
+        <v>0.9168204069137573</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5191833972930908</v>
+        <v>0.5186982154846191</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4002049565315247</v>
+        <v>0.3981221914291382</v>
       </c>
     </row>
     <row r="81">
@@ -1572,13 +1572,13 @@
         <v>38930</v>
       </c>
       <c r="B81" t="n">
-        <v>1.504994869232178</v>
+        <v>1.501602649688721</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6635708212852478</v>
+        <v>0.6630862355232239</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8414240479469299</v>
+        <v>0.8385164141654968</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         <v>38961</v>
       </c>
       <c r="B82" t="n">
-        <v>1.282126545906067</v>
+        <v>1.279048204421997</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.6725465059280396</v>
+        <v>-0.673036515712738</v>
       </c>
       <c r="D82" t="n">
-        <v>1.954673051834106</v>
+        <v>1.95208477973938</v>
       </c>
     </row>
     <row r="83">
@@ -1600,13 +1600,13 @@
         <v>38991</v>
       </c>
       <c r="B83" t="n">
-        <v>1.574841260910034</v>
+        <v>1.571350812911987</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.8388528227806091</v>
+        <v>-0.8393434882164001</v>
       </c>
       <c r="D83" t="n">
-        <v>2.413694143295288</v>
+        <v>2.410694360733032</v>
       </c>
     </row>
     <row r="84">
@@ -1614,13 +1614,13 @@
         <v>39022</v>
       </c>
       <c r="B84" t="n">
-        <v>1.81477153301239</v>
+        <v>1.810943365097046</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1781473159790039</v>
+        <v>-0.1786352843046188</v>
       </c>
       <c r="D84" t="n">
-        <v>1.992918848991394</v>
+        <v>1.989578604698181</v>
       </c>
     </row>
     <row r="85">
@@ -1628,13 +1628,13 @@
         <v>39052</v>
       </c>
       <c r="B85" t="n">
-        <v>1.827597260475159</v>
+        <v>1.823751091957092</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9505228996276855</v>
+        <v>0.9500394463539124</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8770743608474731</v>
+        <v>0.8737116456031799</v>
       </c>
     </row>
     <row r="86">
@@ -1642,13 +1642,13 @@
         <v>39083</v>
       </c>
       <c r="B86" t="n">
-        <v>1.677541375160217</v>
+        <v>1.673906326293945</v>
       </c>
       <c r="C86" t="n">
-        <v>1.22859513759613</v>
+        <v>1.228112936019897</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4489462375640869</v>
+        <v>0.4457933902740479</v>
       </c>
     </row>
     <row r="87">
@@ -1656,13 +1656,13 @@
         <v>39114</v>
       </c>
       <c r="B87" t="n">
-        <v>1.537854790687561</v>
+        <v>1.534416317939758</v>
       </c>
       <c r="C87" t="n">
-        <v>1.928903579711914</v>
+        <v>1.928424119949341</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.391048789024353</v>
+        <v>-0.3940078020095825</v>
       </c>
     </row>
     <row r="88">
@@ -1670,13 +1670,13 @@
         <v>39142</v>
       </c>
       <c r="B88" t="n">
-        <v>1.350147843360901</v>
+        <v>1.346973538398743</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8716236352920532</v>
+        <v>0.8711398243904114</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4785242080688477</v>
+        <v>0.4758337140083313</v>
       </c>
     </row>
     <row r="89">
@@ -1684,13 +1684,13 @@
         <v>39173</v>
       </c>
       <c r="B89" t="n">
-        <v>1.395424723625183</v>
+        <v>1.392186760902405</v>
       </c>
       <c r="C89" t="n">
-        <v>1.027410626411438</v>
+        <v>1.026927471160889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3680140972137451</v>
+        <v>0.3652592897415161</v>
       </c>
     </row>
     <row r="90">
@@ -1698,13 +1698,13 @@
         <v>39203</v>
       </c>
       <c r="B90" t="n">
-        <v>1.736899852752686</v>
+        <v>1.733181357383728</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7979975342750549</v>
+        <v>0.7975135445594788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9389023184776306</v>
+        <v>0.9356678128242493</v>
       </c>
     </row>
     <row r="91">
@@ -1712,13 +1712,13 @@
         <v>39234</v>
       </c>
       <c r="B91" t="n">
-        <v>1.88225793838501</v>
+        <v>1.878334760665894</v>
       </c>
       <c r="C91" t="n">
-        <v>1.166735410690308</v>
+        <v>1.166252970695496</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7155225276947021</v>
+        <v>0.7120817899703979</v>
       </c>
     </row>
     <row r="92">
@@ -1726,13 +1726,13 @@
         <v>39264</v>
       </c>
       <c r="B92" t="n">
-        <v>1.554352045059204</v>
+        <v>1.550890445709229</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8581127524375916</v>
+        <v>0.8576289415359497</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6962392926216125</v>
+        <v>0.6932615041732788</v>
       </c>
     </row>
     <row r="93">
@@ -1740,13 +1740,13 @@
         <v>39295</v>
       </c>
       <c r="B93" t="n">
-        <v>1.699812650680542</v>
+        <v>1.696146368980408</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7063409686088562</v>
+        <v>0.7058566212654114</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9934716820716858</v>
+        <v>0.9902897477149963</v>
       </c>
     </row>
     <row r="94">
@@ -1754,13 +1754,13 @@
         <v>39326</v>
       </c>
       <c r="B94" t="n">
-        <v>1.421949982643127</v>
+        <v>1.418674826622009</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2150767892599106</v>
+        <v>0.2145904153585434</v>
       </c>
       <c r="D94" t="n">
-        <v>1.206873178482056</v>
+        <v>1.204084396362305</v>
       </c>
     </row>
     <row r="95">
@@ -1768,13 +1768,13 @@
         <v>39356</v>
       </c>
       <c r="B95" t="n">
-        <v>1.074989080429077</v>
+        <v>1.072202205657959</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5159359574317932</v>
+        <v>0.5154507756233215</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5590531229972839</v>
+        <v>0.5567514300346375</v>
       </c>
     </row>
     <row r="96">
@@ -1782,13 +1782,13 @@
         <v>39387</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6612067222595215</v>
+        <v>0.6590021848678589</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7183276414871216</v>
+        <v>0.7178432941436768</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.0571209192276001</v>
+        <v>-0.05884110927581787</v>
       </c>
     </row>
     <row r="97">
@@ -1796,13 +1796,13 @@
         <v>39417</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5967903137207031</v>
+        <v>0.5946764349937439</v>
       </c>
       <c r="C97" t="n">
-        <v>1.037029623985291</v>
+        <v>1.036546587944031</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4402393102645874</v>
+        <v>-0.4418701529502869</v>
       </c>
     </row>
     <row r="98">
@@ -1810,13 +1810,13 @@
         <v>39448</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9958333969116211</v>
+        <v>0.9931578636169434</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9625616073608398</v>
+        <v>0.9620782136917114</v>
       </c>
       <c r="D98" t="n">
-        <v>0.03327178955078125</v>
+        <v>0.03107964992523193</v>
       </c>
     </row>
     <row r="99">
@@ -1824,13 +1824,13 @@
         <v>39479</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2726169526576996</v>
+        <v>0.2709593176841736</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1042295768857002</v>
+        <v>0.1037427484989166</v>
       </c>
       <c r="D99" t="n">
-        <v>0.16838738322258</v>
+        <v>0.167216569185257</v>
       </c>
     </row>
     <row r="100">
@@ -1838,13 +1838,13 @@
         <v>39508</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.06331371515989304</v>
+        <v>-0.06449853628873825</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3551507294178009</v>
+        <v>-0.3556394279003143</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2918370068073273</v>
+        <v>0.2911408841609955</v>
       </c>
     </row>
     <row r="101">
@@ -1852,13 +1852,13 @@
         <v>39539</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2370660454034805</v>
+        <v>-0.2380063235759735</v>
       </c>
       <c r="C101" t="n">
-        <v>0.320160299539566</v>
+        <v>0.3196743428707123</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5572263598442078</v>
+        <v>-0.5576806664466858</v>
       </c>
     </row>
     <row r="102">
@@ -1866,13 +1866,13 @@
         <v>39569</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2046355009078979</v>
+        <v>0.2030735611915588</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2776822745800018</v>
+        <v>-0.278170645236969</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4823177754878998</v>
+        <v>0.4812442064285278</v>
       </c>
     </row>
     <row r="103">
@@ -1880,13 +1880,13 @@
         <v>39600</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7435436248779297</v>
+        <v>0.7412232160568237</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4504736959934235</v>
+        <v>-0.4509627819061279</v>
       </c>
       <c r="D103" t="n">
-        <v>1.194017291069031</v>
+        <v>1.192185997962952</v>
       </c>
     </row>
     <row r="104">
@@ -1894,13 +1894,13 @@
         <v>39630</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9933992624282837</v>
+        <v>0.9907271862030029</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.7081419825553894</v>
+        <v>-0.7086321115493774</v>
       </c>
       <c r="D104" t="n">
-        <v>1.701541185379028</v>
+        <v>1.69935929775238</v>
       </c>
     </row>
     <row r="105">
@@ -1908,13 +1908,13 @@
         <v>39661</v>
       </c>
       <c r="B105" t="n">
-        <v>1.06011176109314</v>
+        <v>1.057345867156982</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0516129769384861</v>
+        <v>-0.05210044607520103</v>
       </c>
       <c r="D105" t="n">
-        <v>1.111724734306335</v>
+        <v>1.109446287155151</v>
       </c>
     </row>
     <row r="106">
@@ -1922,13 +1922,13 @@
         <v>39692</v>
       </c>
       <c r="B106" t="n">
-        <v>1.164602160453796</v>
+        <v>1.161689043045044</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6402562856674194</v>
+        <v>0.6397716403007507</v>
       </c>
       <c r="D106" t="n">
-        <v>0.524345874786377</v>
+        <v>0.5219174027442932</v>
       </c>
     </row>
     <row r="107">
@@ -1936,13 +1936,13 @@
         <v>39722</v>
       </c>
       <c r="B107" t="n">
-        <v>1.073204517364502</v>
+        <v>1.070420145988464</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4656208753585815</v>
+        <v>0.4651355147361755</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6075836420059204</v>
+        <v>0.6052846312522888</v>
       </c>
     </row>
     <row r="108">
@@ -1950,13 +1950,13 @@
         <v>39753</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8311178684234619</v>
+        <v>0.8286741375923157</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8538445830345154</v>
+        <v>0.8533607125282288</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02272671461105347</v>
+        <v>-0.02468657493591309</v>
       </c>
     </row>
     <row r="109">
@@ -1964,13 +1964,13 @@
         <v>39783</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5596579909324646</v>
+        <v>0.5575963854789734</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9545930027961731</v>
+        <v>0.9541096687316895</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3949350118637085</v>
+        <v>-0.3965132832527161</v>
       </c>
     </row>
     <row r="110">
@@ -1978,13 +1978,13 @@
         <v>39814</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8265119194984436</v>
+        <v>0.8240747451782227</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9971304535865784</v>
+        <v>0.9966471791267395</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1706185340881348</v>
+        <v>-0.1725724339485168</v>
       </c>
     </row>
     <row r="111">
@@ -1992,13 +1992,13 @@
         <v>39845</v>
       </c>
       <c r="B111" t="n">
-        <v>1.184412837028503</v>
+        <v>1.181471943855286</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4680130183696747</v>
+        <v>0.4675276875495911</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7163997888565063</v>
+        <v>0.7139442563056946</v>
       </c>
     </row>
     <row r="112">
@@ -2006,13 +2006,13 @@
         <v>39873</v>
       </c>
       <c r="B112" t="n">
-        <v>1.691684246063232</v>
+        <v>1.688029408454895</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8014034032821655</v>
+        <v>0.8009194135665894</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8902808427810669</v>
+        <v>0.8871099948883057</v>
       </c>
     </row>
     <row r="113">
@@ -2020,13 +2020,13 @@
         <v>39904</v>
       </c>
       <c r="B113" t="n">
-        <v>1.036295533180237</v>
+        <v>1.033563017845154</v>
       </c>
       <c r="C113" t="n">
-        <v>1.108253479003906</v>
+        <v>1.107770681381226</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07195794582366943</v>
+        <v>-0.07420766353607178</v>
       </c>
     </row>
     <row r="114">
@@ -2034,13 +2034,13 @@
         <v>39934</v>
       </c>
       <c r="B114" t="n">
-        <v>1.449530124664307</v>
+        <v>1.446216106414795</v>
       </c>
       <c r="C114" t="n">
-        <v>1.70735776424408</v>
+        <v>1.706877470016479</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.2578276395797729</v>
+        <v>-0.2606613636016846</v>
       </c>
     </row>
     <row r="115">
@@ -2048,13 +2048,13 @@
         <v>39965</v>
       </c>
       <c r="B115" t="n">
-        <v>1.987497568130493</v>
+        <v>1.983426332473755</v>
       </c>
       <c r="C115" t="n">
-        <v>1.963939428329468</v>
+        <v>1.963460206985474</v>
       </c>
       <c r="D115" t="n">
-        <v>0.02355813980102539</v>
+        <v>0.01996612548828125</v>
       </c>
     </row>
     <row r="116">
@@ -2062,13 +2062,13 @@
         <v>39995</v>
       </c>
       <c r="B116" t="n">
-        <v>1.302184581756592</v>
+        <v>1.299077868461609</v>
       </c>
       <c r="C116" t="n">
-        <v>2.458387851715088</v>
+        <v>2.457910537719727</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.156203269958496</v>
+        <v>-1.158832669258118</v>
       </c>
     </row>
     <row r="117">
@@ -2076,13 +2076,13 @@
         <v>40026</v>
       </c>
       <c r="B117" t="n">
-        <v>1.688282251358032</v>
+        <v>1.684632062911987</v>
       </c>
       <c r="C117" t="n">
-        <v>2.186126470565796</v>
+        <v>2.185648202896118</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4978442192077637</v>
+        <v>-0.5010161399841309</v>
       </c>
     </row>
     <row r="118">
@@ -2090,13 +2090,13 @@
         <v>40057</v>
       </c>
       <c r="B118" t="n">
-        <v>1.711745619773865</v>
+        <v>1.708062529563904</v>
       </c>
       <c r="C118" t="n">
-        <v>1.620498895645142</v>
+        <v>1.620018124580383</v>
       </c>
       <c r="D118" t="n">
-        <v>0.09124672412872314</v>
+        <v>0.08804440498352051</v>
       </c>
     </row>
     <row r="119">
@@ -2104,13 +2104,13 @@
         <v>40087</v>
       </c>
       <c r="B119" t="n">
-        <v>1.91769278049469</v>
+        <v>1.913719773292542</v>
       </c>
       <c r="C119" t="n">
-        <v>1.691258072853088</v>
+        <v>1.690777778625488</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2264347076416016</v>
+        <v>0.2229419946670532</v>
       </c>
     </row>
     <row r="120">
@@ -2118,13 +2118,13 @@
         <v>40118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.370770335197449</v>
+        <v>1.367567181587219</v>
       </c>
       <c r="C120" t="n">
-        <v>1.674240469932556</v>
+        <v>1.673759937286377</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.3034701347351074</v>
+        <v>-0.3061927556991577</v>
       </c>
     </row>
     <row r="121">
@@ -2132,13 +2132,13 @@
         <v>40148</v>
       </c>
       <c r="B121" t="n">
-        <v>1.987436652183533</v>
+        <v>1.983365535736084</v>
       </c>
       <c r="C121" t="n">
-        <v>1.680175542831421</v>
+        <v>1.679695129394531</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3072611093521118</v>
+        <v>0.3036704063415527</v>
       </c>
     </row>
     <row r="122">
@@ -2146,13 +2146,13 @@
         <v>40179</v>
       </c>
       <c r="B122" t="n">
-        <v>2.036522150039673</v>
+        <v>2.032381772994995</v>
       </c>
       <c r="C122" t="n">
-        <v>1.240134716033936</v>
+        <v>1.239652395248413</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7963874340057373</v>
+        <v>0.792729377746582</v>
       </c>
     </row>
     <row r="123">
@@ -2160,13 +2160,13 @@
         <v>40210</v>
       </c>
       <c r="B123" t="n">
-        <v>2.34014892578125</v>
+        <v>2.335581302642822</v>
       </c>
       <c r="C123" t="n">
-        <v>2.133389711380005</v>
+        <v>2.132910966873169</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2067592144012451</v>
+        <v>0.2026703357696533</v>
       </c>
     </row>
     <row r="124">
@@ -2174,13 +2174,13 @@
         <v>40238</v>
       </c>
       <c r="B124" t="n">
-        <v>2.441818475723267</v>
+        <v>2.437108039855957</v>
       </c>
       <c r="C124" t="n">
-        <v>1.805951118469238</v>
+        <v>1.805471181869507</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6358673572540283</v>
+        <v>0.6316368579864502</v>
       </c>
     </row>
     <row r="125">
@@ -2188,13 +2188,13 @@
         <v>40269</v>
       </c>
       <c r="B125" t="n">
-        <v>2.410047054290771</v>
+        <v>2.405381202697754</v>
       </c>
       <c r="C125" t="n">
-        <v>1.615414977073669</v>
+        <v>1.614934206008911</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7946320772171021</v>
+        <v>0.7904469966888428</v>
       </c>
     </row>
     <row r="126">
@@ -2202,13 +2202,13 @@
         <v>40299</v>
       </c>
       <c r="B126" t="n">
-        <v>1.768516778945923</v>
+        <v>1.764753699302673</v>
       </c>
       <c r="C126" t="n">
-        <v>2.235229730606079</v>
+        <v>2.234751462936401</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4667129516601562</v>
+        <v>-0.469997763633728</v>
       </c>
     </row>
     <row r="127">
@@ -2216,13 +2216,13 @@
         <v>40330</v>
       </c>
       <c r="B127" t="n">
-        <v>1.776439905166626</v>
+        <v>1.772665619850159</v>
       </c>
       <c r="C127" t="n">
-        <v>2.106075286865234</v>
+        <v>2.105596542358398</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.3296353816986084</v>
+        <v>-0.3329309225082397</v>
       </c>
     </row>
     <row r="128">
@@ -2230,13 +2230,13 @@
         <v>40360</v>
       </c>
       <c r="B128" t="n">
-        <v>1.475866556167603</v>
+        <v>1.472515344619751</v>
       </c>
       <c r="C128" t="n">
-        <v>1.932915925979614</v>
+        <v>1.932436347007751</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.4570493698120117</v>
+        <v>-0.4599210023880005</v>
       </c>
     </row>
     <row r="129">
@@ -2244,13 +2244,13 @@
         <v>40391</v>
       </c>
       <c r="B129" t="n">
-        <v>1.16395902633667</v>
+        <v>1.161046743392944</v>
       </c>
       <c r="C129" t="n">
-        <v>1.764749646186829</v>
+        <v>1.764269471168518</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6007906198501587</v>
+        <v>-0.6032227277755737</v>
       </c>
     </row>
     <row r="130">
@@ -2258,13 +2258,13 @@
         <v>40422</v>
       </c>
       <c r="B130" t="n">
-        <v>0.801609218120575</v>
+        <v>0.7992070317268372</v>
       </c>
       <c r="C130" t="n">
-        <v>2.920817852020264</v>
+        <v>2.920342206954956</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.119208574295044</v>
+        <v>-2.121135234832764</v>
       </c>
     </row>
     <row r="131">
@@ -2272,13 +2272,13 @@
         <v>40452</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386303722858429</v>
+        <v>0.3844860792160034</v>
       </c>
       <c r="C131" t="n">
-        <v>2.157003402709961</v>
+        <v>2.156524896621704</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.770699739456177</v>
+        <v>-1.772038817405701</v>
       </c>
     </row>
     <row r="132">
@@ -2286,13 +2286,13 @@
         <v>40483</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.06288512796163559</v>
+        <v>-0.06407056003808975</v>
       </c>
       <c r="C132" t="n">
-        <v>1.815985441207886</v>
+        <v>1.815505504608154</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.878870606422424</v>
+        <v>-1.879576086997986</v>
       </c>
     </row>
     <row r="133">
@@ -2300,13 +2300,13 @@
         <v>40513</v>
       </c>
       <c r="B133" t="n">
-        <v>0.08754751831293106</v>
+        <v>0.08615036308765411</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8067983984947205</v>
+        <v>0.8063144087791443</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7192508578300476</v>
+        <v>-0.7201640605926514</v>
       </c>
     </row>
     <row r="134">
@@ -2314,13 +2314,13 @@
         <v>40544</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1497256606817245</v>
+        <v>0.1482409983873367</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1633210629224777</v>
+        <v>0.1628344655036926</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01359540224075317</v>
+        <v>-0.0145934671163559</v>
       </c>
     </row>
     <row r="135">
@@ -2328,13 +2328,13 @@
         <v>40575</v>
       </c>
       <c r="B135" t="n">
-        <v>0.374183714389801</v>
+        <v>0.3723831474781036</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3504049181938171</v>
+        <v>0.3499190807342529</v>
       </c>
       <c r="D135" t="n">
-        <v>0.02377879619598389</v>
+        <v>0.02246406674385071</v>
       </c>
     </row>
     <row r="136">
@@ -2342,13 +2342,13 @@
         <v>40603</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7236768007278442</v>
+        <v>0.7213843464851379</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1943366825580597</v>
+        <v>0.1938502043485641</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5293401479721069</v>
+        <v>0.5275341272354126</v>
       </c>
     </row>
     <row r="137">
@@ -2356,13 +2356,13 @@
         <v>40634</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5946305394172668</v>
+        <v>0.5925197005271912</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4992137849330902</v>
+        <v>0.4987285435199738</v>
       </c>
       <c r="D137" t="n">
-        <v>0.09541675448417664</v>
+        <v>0.09379115700721741</v>
       </c>
     </row>
     <row r="138">
@@ -2370,13 +2370,13 @@
         <v>40664</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8358115553855896</v>
+        <v>0.8333612680435181</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9637869000434875</v>
+        <v>0.9633036255836487</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1279753446578979</v>
+        <v>-0.1299423575401306</v>
       </c>
     </row>
     <row r="139">
@@ -2384,13 +2384,13 @@
         <v>40695</v>
       </c>
       <c r="B139" t="n">
-        <v>1.295000433921814</v>
+        <v>1.291903972625732</v>
       </c>
       <c r="C139" t="n">
-        <v>1.027315497398376</v>
+        <v>1.026832580566406</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2676849365234375</v>
+        <v>0.2650713920593262</v>
       </c>
     </row>
     <row r="140">
@@ -2398,13 +2398,13 @@
         <v>40725</v>
       </c>
       <c r="B140" t="n">
-        <v>1.251881003379822</v>
+        <v>1.248845219612122</v>
       </c>
       <c r="C140" t="n">
-        <v>1.265373826026917</v>
+        <v>1.264891624450684</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01349282264709473</v>
+        <v>-0.01604640483856201</v>
       </c>
     </row>
     <row r="141">
@@ -2412,13 +2412,13 @@
         <v>40756</v>
       </c>
       <c r="B141" t="n">
-        <v>1.481927037239075</v>
+        <v>1.478567242622375</v>
       </c>
       <c r="C141" t="n">
-        <v>1.219871520996094</v>
+        <v>1.219389319419861</v>
       </c>
       <c r="D141" t="n">
-        <v>0.262055516242981</v>
+        <v>0.2591779232025146</v>
       </c>
     </row>
     <row r="142">
@@ -2426,13 +2426,13 @@
         <v>40787</v>
       </c>
       <c r="B142" t="n">
-        <v>1.39505410194397</v>
+        <v>1.391816854476929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1878664940595627</v>
+        <v>0.1873800009489059</v>
       </c>
       <c r="D142" t="n">
-        <v>1.207187652587891</v>
+        <v>1.204436898231506</v>
       </c>
     </row>
     <row r="143">
@@ -2440,13 +2440,13 @@
         <v>40817</v>
       </c>
       <c r="B143" t="n">
-        <v>1.754450559616089</v>
+        <v>1.750707268714905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2752901613712311</v>
+        <v>0.274804025888443</v>
       </c>
       <c r="D143" t="n">
-        <v>1.47916042804718</v>
+        <v>1.475903272628784</v>
       </c>
     </row>
     <row r="144">
@@ -2454,13 +2454,13 @@
         <v>40848</v>
       </c>
       <c r="B144" t="n">
-        <v>1.594498753547668</v>
+        <v>1.590980648994446</v>
       </c>
       <c r="C144" t="n">
-        <v>1.274761438369751</v>
+        <v>1.274279236793518</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3197373151779175</v>
+        <v>0.3167014122009277</v>
       </c>
     </row>
     <row r="145">
@@ -2468,13 +2468,13 @@
         <v>40878</v>
       </c>
       <c r="B145" t="n">
-        <v>1.701542496681213</v>
+        <v>1.697873592376709</v>
       </c>
       <c r="C145" t="n">
-        <v>1.463334202766418</v>
+        <v>1.462852954864502</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2382082939147949</v>
+        <v>0.235020637512207</v>
       </c>
     </row>
     <row r="146">
@@ -2482,13 +2482,13 @@
         <v>40909</v>
       </c>
       <c r="B146" t="n">
-        <v>1.144023060798645</v>
+        <v>1.141138911247253</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8926680684089661</v>
+        <v>0.8921844959259033</v>
       </c>
       <c r="D146" t="n">
-        <v>0.251354992389679</v>
+        <v>0.2489544153213501</v>
       </c>
     </row>
     <row r="147">
@@ -2496,13 +2496,13 @@
         <v>40940</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7202184200286865</v>
+        <v>0.717930793762207</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8414523005485535</v>
+        <v>0.8409684896469116</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1212338805198669</v>
+        <v>-0.1230376958847046</v>
       </c>
     </row>
     <row r="148">
@@ -2510,13 +2510,13 @@
         <v>40969</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2812582552433014</v>
+        <v>0.2795884609222412</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2287537604570389</v>
+        <v>-0.2292419373989105</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5100120306015015</v>
+        <v>0.5088304281234741</v>
       </c>
     </row>
     <row r="149">
@@ -2524,13 +2524,13 @@
         <v>41000</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6751465797424316</v>
+        <v>0.6729224324226379</v>
       </c>
       <c r="C149" t="n">
-        <v>1.555057048797607</v>
+        <v>1.554576277732849</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.8799104690551758</v>
+        <v>-0.8816538453102112</v>
       </c>
     </row>
     <row r="150">
@@ -2538,13 +2538,13 @@
         <v>41030</v>
       </c>
       <c r="B150" t="n">
-        <v>1.030474662780762</v>
+        <v>1.027750492095947</v>
       </c>
       <c r="C150" t="n">
-        <v>2.446013927459717</v>
+        <v>2.445536613464355</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.415539264678955</v>
+        <v>-1.417786121368408</v>
       </c>
     </row>
     <row r="151">
@@ -2552,13 +2552,13 @@
         <v>41061</v>
       </c>
       <c r="B151" t="n">
-        <v>1.319374680519104</v>
+        <v>1.316243648529053</v>
       </c>
       <c r="C151" t="n">
-        <v>1.276921510696411</v>
+        <v>1.276439309120178</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04245316982269287</v>
+        <v>0.03980433940887451</v>
       </c>
     </row>
     <row r="152">
@@ -2566,13 +2566,13 @@
         <v>41091</v>
       </c>
       <c r="B152" t="n">
-        <v>1.353054165840149</v>
+        <v>1.349875926971436</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2880373895168304</v>
+        <v>0.2875512838363647</v>
       </c>
       <c r="D152" t="n">
-        <v>1.065016746520996</v>
+        <v>1.062324643135071</v>
       </c>
     </row>
     <row r="153">
@@ -2580,13 +2580,13 @@
         <v>41122</v>
       </c>
       <c r="B153" t="n">
-        <v>2.099476099014282</v>
+        <v>2.095247268676758</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1846603453159332</v>
+        <v>0.1841738373041153</v>
       </c>
       <c r="D153" t="n">
-        <v>1.914815783500671</v>
+        <v>1.911073446273804</v>
       </c>
     </row>
     <row r="154">
@@ -2594,13 +2594,13 @@
         <v>41153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.986574530601501</v>
+        <v>1.982504725456238</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4524315595626831</v>
+        <v>0.4519461393356323</v>
       </c>
       <c r="D154" t="n">
-        <v>1.534142971038818</v>
+        <v>1.530558586120605</v>
       </c>
     </row>
     <row r="155">
@@ -2608,13 +2608,13 @@
         <v>41183</v>
       </c>
       <c r="B155" t="n">
-        <v>1.851879239082336</v>
+        <v>1.847998857498169</v>
       </c>
       <c r="C155" t="n">
-        <v>0.758952260017395</v>
+        <v>0.758467972278595</v>
       </c>
       <c r="D155" t="n">
-        <v>1.092926979064941</v>
+        <v>1.089530944824219</v>
       </c>
     </row>
     <row r="156">
@@ -2622,13 +2622,13 @@
         <v>41214</v>
       </c>
       <c r="B156" t="n">
-        <v>1.599682211875916</v>
+        <v>1.596156716346741</v>
       </c>
       <c r="C156" t="n">
-        <v>1.351654410362244</v>
+        <v>1.351172566413879</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2480278015136719</v>
+        <v>0.2449841499328613</v>
       </c>
     </row>
     <row r="157">
@@ -2636,13 +2636,13 @@
         <v>41244</v>
       </c>
       <c r="B157" t="n">
-        <v>1.898351907730103</v>
+        <v>1.894406199455261</v>
       </c>
       <c r="C157" t="n">
-        <v>1.72185492515564</v>
+        <v>1.72137463092804</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1764969825744629</v>
+        <v>0.1730315685272217</v>
       </c>
     </row>
     <row r="158">
@@ -2650,13 +2650,13 @@
         <v>41275</v>
       </c>
       <c r="B158" t="n">
-        <v>1.536588788032532</v>
+        <v>1.533152222633362</v>
       </c>
       <c r="C158" t="n">
-        <v>1.47341787815094</v>
+        <v>1.472936630249023</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0631709098815918</v>
+        <v>0.06021559238433838</v>
       </c>
     </row>
     <row r="159">
@@ -2664,13 +2664,13 @@
         <v>41306</v>
       </c>
       <c r="B159" t="n">
-        <v>1.36803662776947</v>
+        <v>1.364837288856506</v>
       </c>
       <c r="C159" t="n">
-        <v>1.639954209327698</v>
+        <v>1.639473557472229</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.2719175815582275</v>
+        <v>-0.2746362686157227</v>
       </c>
     </row>
     <row r="160">
@@ -2678,13 +2678,13 @@
         <v>41334</v>
       </c>
       <c r="B160" t="n">
-        <v>1.676575422286987</v>
+        <v>1.672941923141479</v>
       </c>
       <c r="C160" t="n">
-        <v>1.729344010353088</v>
+        <v>1.728863716125488</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.05276858806610107</v>
+        <v>-0.05592179298400879</v>
       </c>
     </row>
     <row r="161">
@@ -2692,13 +2692,13 @@
         <v>41365</v>
       </c>
       <c r="B161" t="n">
-        <v>1.345896005630493</v>
+        <v>1.342727899551392</v>
       </c>
       <c r="C161" t="n">
-        <v>1.681841492652893</v>
+        <v>1.681361079216003</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3359454870223999</v>
+        <v>-0.3386331796646118</v>
       </c>
     </row>
     <row r="162">
@@ -2706,13 +2706,13 @@
         <v>41395</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5800952315330505</v>
+        <v>0.5780048370361328</v>
       </c>
       <c r="C162" t="n">
-        <v>1.872131586074829</v>
+        <v>1.871651887893677</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.292036294937134</v>
+        <v>-1.293647050857544</v>
       </c>
     </row>
     <row r="163">
@@ -2720,13 +2720,13 @@
         <v>41426</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3742222785949707</v>
+        <v>0.3724216520786285</v>
       </c>
       <c r="C163" t="n">
-        <v>1.346979737281799</v>
+        <v>1.346498012542725</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.9727574586868286</v>
+        <v>-0.9740763902664185</v>
       </c>
     </row>
     <row r="164">
@@ -2734,13 +2734,13 @@
         <v>41456</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6760463714599609</v>
+        <v>0.6738209128379822</v>
       </c>
       <c r="C164" t="n">
-        <v>1.450030088424683</v>
+        <v>1.449548721313477</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.7739837169647217</v>
+        <v>-0.7757278084754944</v>
       </c>
     </row>
     <row r="165">
@@ -2748,13 +2748,13 @@
         <v>41487</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8634564280509949</v>
+        <v>0.860967218875885</v>
       </c>
       <c r="C165" t="n">
-        <v>1.121175289154053</v>
+        <v>1.120692491531372</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2577188611030579</v>
+        <v>-0.2597252726554871</v>
       </c>
     </row>
     <row r="166">
@@ -2762,13 +2762,13 @@
         <v>41518</v>
       </c>
       <c r="B166" t="n">
-        <v>1.001602411270142</v>
+        <v>0.9989187121391296</v>
       </c>
       <c r="C166" t="n">
-        <v>1.253450274467468</v>
+        <v>1.252968192100525</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.2518478631973267</v>
+        <v>-0.2540494799613953</v>
       </c>
     </row>
     <row r="167">
@@ -2776,13 +2776,13 @@
         <v>41548</v>
       </c>
       <c r="B167" t="n">
-        <v>1.623932957649231</v>
+        <v>1.620373368263245</v>
       </c>
       <c r="C167" t="n">
-        <v>1.614645719528198</v>
+        <v>1.614165186882019</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009287238121032715</v>
+        <v>0.006208181381225586</v>
       </c>
     </row>
     <row r="168">
@@ -2790,13 +2790,13 @@
         <v>41579</v>
       </c>
       <c r="B168" t="n">
-        <v>1.952651977539062</v>
+        <v>1.948629856109619</v>
       </c>
       <c r="C168" t="n">
-        <v>1.887865900993347</v>
+        <v>1.887386202812195</v>
       </c>
       <c r="D168" t="n">
-        <v>0.06478607654571533</v>
+        <v>0.06124365329742432</v>
       </c>
     </row>
     <row r="169">
@@ -2804,13 +2804,13 @@
         <v>41609</v>
       </c>
       <c r="B169" t="n">
-        <v>1.180552244186401</v>
+        <v>1.177616834640503</v>
       </c>
       <c r="C169" t="n">
-        <v>1.57664167881012</v>
+        <v>1.576160788536072</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3960894346237183</v>
+        <v>-0.3985439538955688</v>
       </c>
     </row>
     <row r="170">
@@ -2818,13 +2818,13 @@
         <v>41640</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9766026139259338</v>
+        <v>0.9739541411399841</v>
       </c>
       <c r="C170" t="n">
-        <v>1.264447331428528</v>
+        <v>1.263965249061584</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.287844717502594</v>
+        <v>-0.2900111079216003</v>
       </c>
     </row>
     <row r="171">
@@ -2832,13 +2832,13 @@
         <v>41671</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9001428484916687</v>
+        <v>0.8976020812988281</v>
       </c>
       <c r="C171" t="n">
-        <v>1.016047954559326</v>
+        <v>1.015564799308777</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1159051060676575</v>
+        <v>-0.1179627180099487</v>
       </c>
     </row>
     <row r="172">
@@ -2846,13 +2846,13 @@
         <v>41699</v>
       </c>
       <c r="B172" t="n">
-        <v>1.015912413597107</v>
+        <v>1.013208627700806</v>
       </c>
       <c r="C172" t="n">
-        <v>1.853928685188293</v>
+        <v>1.853449106216431</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.8380162715911865</v>
+        <v>-0.840240478515625</v>
       </c>
     </row>
     <row r="173">
@@ -2860,13 +2860,13 @@
         <v>41730</v>
       </c>
       <c r="B173" t="n">
-        <v>1.215377449989319</v>
+        <v>1.212392926216125</v>
       </c>
       <c r="C173" t="n">
-        <v>1.648781895637512</v>
+        <v>1.648301362991333</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4334044456481934</v>
+        <v>-0.4359084367752075</v>
       </c>
     </row>
     <row r="174">
@@ -2874,13 +2874,13 @@
         <v>41760</v>
       </c>
       <c r="B174" t="n">
-        <v>1.646116375923157</v>
+        <v>1.642525672912598</v>
       </c>
       <c r="C174" t="n">
-        <v>1.846296906471252</v>
+        <v>1.845817089080811</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.2001805305480957</v>
+        <v>-0.2032914161682129</v>
       </c>
     </row>
     <row r="175">
@@ -2888,13 +2888,13 @@
         <v>41791</v>
       </c>
       <c r="B175" t="n">
-        <v>1.461058259010315</v>
+        <v>1.457728028297424</v>
       </c>
       <c r="C175" t="n">
-        <v>1.886431097984314</v>
+        <v>1.885951519012451</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.425372838973999</v>
+        <v>-0.4282234907150269</v>
       </c>
     </row>
     <row r="176">
@@ -2902,13 +2902,13 @@
         <v>41821</v>
       </c>
       <c r="B176" t="n">
-        <v>1.084232091903687</v>
+        <v>1.081432104110718</v>
       </c>
       <c r="C176" t="n">
-        <v>1.921699643135071</v>
+        <v>1.921220183372498</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.8374675512313843</v>
+        <v>-0.8397880792617798</v>
       </c>
     </row>
     <row r="177">
@@ -2916,13 +2916,13 @@
         <v>41852</v>
       </c>
       <c r="B177" t="n">
-        <v>1.097002625465393</v>
+        <v>1.094184637069702</v>
       </c>
       <c r="C177" t="n">
-        <v>2.046008586883545</v>
+        <v>2.04552960395813</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9490059614181519</v>
+        <v>-0.9513449668884277</v>
       </c>
     </row>
     <row r="178">
@@ -2930,13 +2930,13 @@
         <v>41883</v>
       </c>
       <c r="B178" t="n">
-        <v>1.327440142631531</v>
+        <v>1.324297904968262</v>
       </c>
       <c r="C178" t="n">
-        <v>1.951802015304565</v>
+        <v>1.951322793960571</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.6243618726730347</v>
+        <v>-0.6270248889923096</v>
       </c>
     </row>
     <row r="179">
@@ -2944,13 +2944,13 @@
         <v>41913</v>
       </c>
       <c r="B179" t="n">
-        <v>1.887015104293823</v>
+        <v>1.883085250854492</v>
       </c>
       <c r="C179" t="n">
-        <v>1.432556629180908</v>
+        <v>1.432075262069702</v>
       </c>
       <c r="D179" t="n">
-        <v>0.454458475112915</v>
+        <v>0.45100998878479</v>
       </c>
     </row>
     <row r="180">
@@ -2958,13 +2958,13 @@
         <v>41944</v>
       </c>
       <c r="B180" t="n">
-        <v>1.86102283000946</v>
+        <v>1.857129454612732</v>
       </c>
       <c r="C180" t="n">
-        <v>1.491304039955139</v>
+        <v>1.490822792053223</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3697187900543213</v>
+        <v>0.3663066625595093</v>
       </c>
     </row>
     <row r="181">
@@ -2972,13 +2972,13 @@
         <v>41974</v>
       </c>
       <c r="B181" t="n">
-        <v>1.425127387046814</v>
+        <v>1.421847701072693</v>
       </c>
       <c r="C181" t="n">
-        <v>1.812077879905701</v>
+        <v>1.811597943305969</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3869504928588867</v>
+        <v>-0.3897502422332764</v>
       </c>
     </row>
     <row r="182">
@@ -2986,13 +2986,13 @@
         <v>42005</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4865773320198059</v>
+        <v>0.4846185445785522</v>
       </c>
       <c r="C182" t="n">
-        <v>1.206269145011902</v>
+        <v>1.20578670501709</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.7196918129920959</v>
+        <v>-0.7211681604385376</v>
       </c>
     </row>
     <row r="183">
@@ -3000,13 +3000,13 @@
         <v>42036</v>
       </c>
       <c r="B183" t="n">
-        <v>0.882754385471344</v>
+        <v>0.8802380561828613</v>
       </c>
       <c r="C183" t="n">
-        <v>1.480935573577881</v>
+        <v>1.480454325675964</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.5981811881065369</v>
+        <v>-0.600216269493103</v>
       </c>
     </row>
     <row r="184">
@@ -3014,13 +3014,13 @@
         <v>42064</v>
       </c>
       <c r="B184" t="n">
-        <v>1.553267121315002</v>
+        <v>1.549807190895081</v>
       </c>
       <c r="C184" t="n">
-        <v>1.753620505332947</v>
+        <v>1.753140211105347</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2003533840179443</v>
+        <v>-0.2033330202102661</v>
       </c>
     </row>
     <row r="185">
@@ -3028,13 +3028,13 @@
         <v>42095</v>
       </c>
       <c r="B185" t="n">
-        <v>1.933983683586121</v>
+        <v>1.929987788200378</v>
       </c>
       <c r="C185" t="n">
-        <v>1.656684637069702</v>
+        <v>1.656204104423523</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2772990465164185</v>
+        <v>0.2737836837768555</v>
       </c>
     </row>
     <row r="186">
@@ -3042,13 +3042,13 @@
         <v>42125</v>
       </c>
       <c r="B186" t="n">
-        <v>1.962123870849609</v>
+        <v>1.958088278770447</v>
       </c>
       <c r="C186" t="n">
-        <v>1.609061121940613</v>
+        <v>1.608580470085144</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3530627489089966</v>
+        <v>0.3495078086853027</v>
       </c>
     </row>
     <row r="187">
@@ -3056,13 +3056,13 @@
         <v>42156</v>
       </c>
       <c r="B187" t="n">
-        <v>2.063293695449829</v>
+        <v>2.059115886688232</v>
       </c>
       <c r="C187" t="n">
-        <v>1.463456034660339</v>
+        <v>1.462974786758423</v>
       </c>
       <c r="D187" t="n">
-        <v>0.5998376607894897</v>
+        <v>0.5961410999298096</v>
       </c>
     </row>
     <row r="188">
@@ -3070,13 +3070,13 @@
         <v>42186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.346230745315552</v>
+        <v>2.341654777526855</v>
       </c>
       <c r="C188" t="n">
-        <v>1.498128175735474</v>
+        <v>1.497646927833557</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8481025695800781</v>
+        <v>0.8440078496932983</v>
       </c>
     </row>
     <row r="189">
@@ -3084,13 +3084,13 @@
         <v>42217</v>
       </c>
       <c r="B189" t="n">
-        <v>2.896121501922607</v>
+        <v>2.890771389007568</v>
       </c>
       <c r="C189" t="n">
-        <v>1.658669352531433</v>
+        <v>1.658188939094543</v>
       </c>
       <c r="D189" t="n">
-        <v>1.237452149391174</v>
+        <v>1.232582449913025</v>
       </c>
     </row>
     <row r="190">
@@ -3098,13 +3098,13 @@
         <v>42248</v>
       </c>
       <c r="B190" t="n">
-        <v>3.109367609024048</v>
+        <v>3.10371732711792</v>
       </c>
       <c r="C190" t="n">
-        <v>1.262999296188354</v>
+        <v>1.262517094612122</v>
       </c>
       <c r="D190" t="n">
-        <v>1.846368312835693</v>
+        <v>1.841200232505798</v>
       </c>
     </row>
     <row r="191">
@@ -3112,13 +3112,13 @@
         <v>42278</v>
       </c>
       <c r="B191" t="n">
-        <v>3.093521356582642</v>
+        <v>3.087893486022949</v>
       </c>
       <c r="C191" t="n">
-        <v>1.553799748420715</v>
+        <v>1.553318858146667</v>
       </c>
       <c r="D191" t="n">
-        <v>1.539721608161926</v>
+        <v>1.534574627876282</v>
       </c>
     </row>
     <row r="192">
@@ -3126,13 +3126,13 @@
         <v>42309</v>
       </c>
       <c r="B192" t="n">
-        <v>2.848458766937256</v>
+        <v>2.843175649642944</v>
       </c>
       <c r="C192" t="n">
-        <v>1.860311150550842</v>
+        <v>1.859831571578979</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9881476163864136</v>
+        <v>0.9833440780639648</v>
       </c>
     </row>
     <row r="193">
@@ -3140,13 +3140,13 @@
         <v>42339</v>
       </c>
       <c r="B193" t="n">
-        <v>2.922846555709839</v>
+        <v>2.917459011077881</v>
       </c>
       <c r="C193" t="n">
-        <v>2.925850629806519</v>
+        <v>2.92537522315979</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.003004074096679688</v>
+        <v>-0.00791621208190918</v>
       </c>
     </row>
     <row r="194">
@@ -3154,13 +3154,13 @@
         <v>42370</v>
       </c>
       <c r="B194" t="n">
-        <v>2.829171895980835</v>
+        <v>2.82391619682312</v>
       </c>
       <c r="C194" t="n">
-        <v>3.51261568069458</v>
+        <v>3.512142419815063</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.6834437847137451</v>
+        <v>-0.6882262229919434</v>
       </c>
     </row>
     <row r="195">
@@ -3168,13 +3168,13 @@
         <v>42401</v>
       </c>
       <c r="B195" t="n">
-        <v>2.273050785064697</v>
+        <v>2.268577575683594</v>
       </c>
       <c r="C195" t="n">
-        <v>3.292279005050659</v>
+        <v>3.291805028915405</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.019228219985962</v>
+        <v>-1.023227453231812</v>
       </c>
     </row>
     <row r="196">
@@ -3182,13 +3182,13 @@
         <v>42430</v>
       </c>
       <c r="B196" t="n">
-        <v>3.098577737808228</v>
+        <v>3.092942953109741</v>
       </c>
       <c r="C196" t="n">
-        <v>3.717885971069336</v>
+        <v>3.717413902282715</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.6193082332611084</v>
+        <v>-0.6244709491729736</v>
       </c>
     </row>
     <row r="197">
@@ -3196,13 +3196,13 @@
         <v>42461</v>
       </c>
       <c r="B197" t="n">
-        <v>2.893763065338135</v>
+        <v>2.888416528701782</v>
       </c>
       <c r="C197" t="n">
-        <v>3.509073972702026</v>
+        <v>3.508601188659668</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.6153109073638916</v>
+        <v>-0.6201846599578857</v>
       </c>
     </row>
     <row r="198">
@@ -3210,13 +3210,13 @@
         <v>42491</v>
       </c>
       <c r="B198" t="n">
-        <v>2.008424520492554</v>
+        <v>2.004323720932007</v>
       </c>
       <c r="C198" t="n">
-        <v>3.179343938827515</v>
+        <v>3.178869485855103</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.170919418334961</v>
+        <v>-1.174545764923096</v>
       </c>
     </row>
     <row r="199">
@@ -3224,13 +3224,13 @@
         <v>42522</v>
       </c>
       <c r="B199" t="n">
-        <v>1.050846338272095</v>
+        <v>1.048093438148499</v>
       </c>
       <c r="C199" t="n">
-        <v>2.605533123016357</v>
+        <v>2.605056285858154</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.554686784744263</v>
+        <v>-1.556962847709656</v>
       </c>
     </row>
     <row r="200">
@@ -3238,13 +3238,13 @@
         <v>42552</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4182931780815125</v>
+        <v>0.4164305329322815</v>
       </c>
       <c r="C200" t="n">
-        <v>2.871081352233887</v>
+        <v>2.870605707168579</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.452788114547729</v>
+        <v>-2.454175233840942</v>
       </c>
     </row>
     <row r="201">
@@ -3252,13 +3252,13 @@
         <v>42583</v>
       </c>
       <c r="B201" t="n">
-        <v>1.439242124557495</v>
+        <v>1.435942530632019</v>
       </c>
       <c r="C201" t="n">
-        <v>2.628952741622925</v>
+        <v>2.628476142883301</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.18971061706543</v>
+        <v>-1.192533612251282</v>
       </c>
     </row>
     <row r="202">
@@ -3266,13 +3266,13 @@
         <v>42614</v>
       </c>
       <c r="B202" t="n">
-        <v>1.060402631759644</v>
+        <v>1.057636141777039</v>
       </c>
       <c r="C202" t="n">
-        <v>2.732109546661377</v>
+        <v>2.731633186340332</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.671706914901733</v>
+        <v>-1.673997044563293</v>
       </c>
     </row>
     <row r="203">
@@ -3280,13 +3280,13 @@
         <v>42644</v>
       </c>
       <c r="B203" t="n">
-        <v>1.088529586791992</v>
+        <v>1.085723638534546</v>
       </c>
       <c r="C203" t="n">
-        <v>2.480627775192261</v>
+        <v>2.480150699615479</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.392098188400269</v>
+        <v>-1.394427061080933</v>
       </c>
     </row>
     <row r="204">
@@ -3294,13 +3294,13 @@
         <v>42675</v>
       </c>
       <c r="B204" t="n">
-        <v>1.296030640602112</v>
+        <v>1.292932629585266</v>
       </c>
       <c r="C204" t="n">
-        <v>2.113968133926392</v>
+        <v>2.113489627838135</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8179374933242798</v>
+        <v>-0.8205569982528687</v>
       </c>
     </row>
     <row r="205">
@@ -3308,13 +3308,13 @@
         <v>42705</v>
       </c>
       <c r="B205" t="n">
-        <v>1.280808448791504</v>
+        <v>1.277731895446777</v>
       </c>
       <c r="C205" t="n">
-        <v>1.822798132896423</v>
+        <v>1.822318315505981</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.5419896841049194</v>
+        <v>-0.5445864200592041</v>
       </c>
     </row>
     <row r="206">
@@ -3322,13 +3322,13 @@
         <v>42736</v>
       </c>
       <c r="B206" t="n">
-        <v>1.049334526062012</v>
+        <v>1.046583652496338</v>
       </c>
       <c r="C206" t="n">
-        <v>1.101999521255493</v>
+        <v>1.101516723632812</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.05266499519348145</v>
+        <v>-0.05493307113647461</v>
       </c>
     </row>
     <row r="207">
@@ -3336,13 +3336,13 @@
         <v>42767</v>
       </c>
       <c r="B207" t="n">
-        <v>1.20480215549469</v>
+        <v>1.20183253288269</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9617472887039185</v>
+        <v>0.9612638354301453</v>
       </c>
       <c r="D207" t="n">
-        <v>0.2430548667907715</v>
+        <v>0.2405686974525452</v>
       </c>
     </row>
     <row r="208">
@@ -3350,13 +3350,13 @@
         <v>42795</v>
       </c>
       <c r="B208" t="n">
-        <v>1.473036646842957</v>
+        <v>1.46968948841095</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7661259174346924</v>
+        <v>0.7656417489051819</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7069107294082642</v>
+        <v>0.7040477395057678</v>
       </c>
     </row>
     <row r="209">
@@ -3364,13 +3364,13 @@
         <v>42826</v>
       </c>
       <c r="B209" t="n">
-        <v>1.514021754264832</v>
+        <v>1.510616898536682</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5852208137512207</v>
+        <v>0.5847359299659729</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9288009405136108</v>
+        <v>0.9258809685707092</v>
       </c>
     </row>
     <row r="210">
@@ -3378,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="B210" t="n">
-        <v>1.86438524723053</v>
+        <v>1.860487222671509</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6842097640037537</v>
+        <v>0.6837252974510193</v>
       </c>
       <c r="D210" t="n">
-        <v>1.180175542831421</v>
+        <v>1.176761865615845</v>
       </c>
     </row>
     <row r="211">
@@ -3392,13 +3392,13 @@
         <v>42887</v>
       </c>
       <c r="B211" t="n">
-        <v>1.614490151405334</v>
+        <v>1.610943913459778</v>
       </c>
       <c r="C211" t="n">
-        <v>0.8411434888839722</v>
+        <v>0.8406596183776855</v>
       </c>
       <c r="D211" t="n">
-        <v>0.7733466625213623</v>
+        <v>0.7702842950820923</v>
       </c>
     </row>
     <row r="212">
@@ -3406,13 +3406,13 @@
         <v>42917</v>
       </c>
       <c r="B212" t="n">
-        <v>2.066608667373657</v>
+        <v>2.062425851821899</v>
       </c>
       <c r="C212" t="n">
-        <v>1.123549342155457</v>
+        <v>1.123066663742065</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9430593252182007</v>
+        <v>0.939359188079834</v>
       </c>
     </row>
     <row r="213">
@@ -3420,13 +3420,13 @@
         <v>42948</v>
       </c>
       <c r="B213" t="n">
-        <v>2.152370691299438</v>
+        <v>2.148067474365234</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5238001942634583</v>
+        <v>0.5233150720596313</v>
       </c>
       <c r="D213" t="n">
-        <v>1.628570556640625</v>
+        <v>1.624752402305603</v>
       </c>
     </row>
     <row r="214">
@@ -3434,13 +3434,13 @@
         <v>42979</v>
       </c>
       <c r="B214" t="n">
-        <v>1.911572456359863</v>
+        <v>1.907608032226562</v>
       </c>
       <c r="C214" t="n">
-        <v>1.034772992134094</v>
+        <v>1.034289956092834</v>
       </c>
       <c r="D214" t="n">
-        <v>0.876799464225769</v>
+        <v>0.873318076133728</v>
       </c>
     </row>
     <row r="215">
@@ -3448,13 +3448,13 @@
         <v>43009</v>
       </c>
       <c r="B215" t="n">
-        <v>2.051019668579102</v>
+        <v>2.0468590259552</v>
       </c>
       <c r="C215" t="n">
-        <v>1.184972286224365</v>
+        <v>1.184489965438843</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8660473823547363</v>
+        <v>0.8623690605163574</v>
       </c>
     </row>
     <row r="216">
@@ -3462,13 +3462,13 @@
         <v>43040</v>
       </c>
       <c r="B216" t="n">
-        <v>1.922482013702393</v>
+        <v>1.91850221157074</v>
       </c>
       <c r="C216" t="n">
-        <v>1.419857025146484</v>
+        <v>1.419375658035278</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5026249885559082</v>
+        <v>0.4991265